--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C22D4AC-5E19-436D-871C-AFC246B874FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4BAA1B-58E5-4F7B-8CBE-F8C410342AC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" activeTab="1" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Order &amp; Backlog" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="181">
   <si>
     <t>$ERJ</t>
   </si>
@@ -272,17 +273,357 @@
   </si>
   <si>
     <t>FY22</t>
+  </si>
+  <si>
+    <t>Non-Finance Metrics</t>
+  </si>
+  <si>
+    <t>Deliveries</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Embraer 175</t>
+  </si>
+  <si>
+    <t>Embraer 195-E2</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Light Jets</t>
+  </si>
+  <si>
+    <t>Medium Jets</t>
+  </si>
+  <si>
+    <t>Financial Investments</t>
+  </si>
+  <si>
+    <t>Trade &amp; A/R</t>
+  </si>
+  <si>
+    <t>Derivative Financial Instruments</t>
+  </si>
+  <si>
+    <t>Customer/Commercial Financing</t>
+  </si>
+  <si>
+    <t>Contract Assets</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Other Assets</t>
+  </si>
+  <si>
+    <t>Held-For-Sale</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Deferred Taxes</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>Trade &amp; A/P</t>
+  </si>
+  <si>
+    <t>Supplier Finance</t>
+  </si>
+  <si>
+    <t>Lease Liabiltiies</t>
+  </si>
+  <si>
+    <t>Other Payables</t>
+  </si>
+  <si>
+    <t>Contract Liabilities</t>
+  </si>
+  <si>
+    <t>Taxes &amp; Payroll</t>
+  </si>
+  <si>
+    <t>Income Tax</t>
+  </si>
+  <si>
+    <t>Unearned Income</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Liabilities Held For Sale</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>Loans &amp; Financing</t>
+  </si>
+  <si>
+    <t>Deferred Income Tax</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>S/E+L</t>
+  </si>
+  <si>
+    <t>Book Value</t>
+  </si>
+  <si>
+    <t>Book Value per Share</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>Sao Paulo, Brazil</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Inventory Y/Y</t>
+  </si>
+  <si>
+    <t>Inventory Q/Q</t>
+  </si>
+  <si>
+    <t>Inventory/Revenue TTM</t>
+  </si>
+  <si>
+    <t>Embraer E-Jet</t>
+  </si>
+  <si>
+    <t>Embraer E-Jet E2 family</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>Embraer R-99 (AWACS)</t>
+  </si>
+  <si>
+    <t>Embraer C-390 Millenium (Transport)</t>
+  </si>
+  <si>
+    <t>Embraer EMB 314 Super Tucano (Attack)</t>
+  </si>
+  <si>
+    <t>Business Jets</t>
+  </si>
+  <si>
+    <t>Embraer Phenom 100 (Very Light Jet)</t>
+  </si>
+  <si>
+    <t>Embraer Phenom 300 (Light Jet)</t>
+  </si>
+  <si>
+    <t>Embraer Phenom 500 (Mid-Size Jet)</t>
+  </si>
+  <si>
+    <t>Embraer Phenom 600 (Super Mid-Size)</t>
+  </si>
+  <si>
+    <t>Aircraft (Current)</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>Embraer EMB 202 Ipanema (Cropduster)</t>
+  </si>
+  <si>
+    <t>Embraer 170 (66-78 passengers)</t>
+  </si>
+  <si>
+    <t>Embraer 175 (76-88 passengers)</t>
+  </si>
+  <si>
+    <t>Embraer 190 (96-114 passengers)</t>
+  </si>
+  <si>
+    <t>Embraer 175-E2 (80-90 passengers)</t>
+  </si>
+  <si>
+    <t>Embraer 190-E2 (97-114 passengers)</t>
+  </si>
+  <si>
+    <t>Embraer 195-E2 (120-146 passengers)</t>
+  </si>
+  <si>
+    <t>JAS 39 Gripen E/F (Multirole Fighter)</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>New family of turboprop regional airliners</t>
+  </si>
+  <si>
+    <t>to compete with ATR &amp; Dash 8 designs</t>
+  </si>
+  <si>
+    <t>aiming for 22 launch &amp; 27/28 service entry</t>
+  </si>
+  <si>
+    <t>A joint-venture with Boeing was announced that would see Boeing owning 80% of Embraer's commercial aviation division</t>
+  </si>
+  <si>
+    <t>This was seen as a reaction to Airbus' acquisition of a majority in Bombardier C-Series in Oct 2017</t>
+  </si>
+  <si>
+    <t>Boeing cancelled it's acquisition of Embraer's commercial operations following impact of COVID &amp; 737-max groundings</t>
+  </si>
+  <si>
+    <t>Embraer would retain it's executive jet &amp; defence business</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Boeing announced the resulting division would be known as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Boeing Brasil - Commercial </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dropping the Embraer name</t>
+    </r>
+  </si>
+  <si>
+    <t>Boeing (49%) and Embraer (51%) announced a joint-venture to promote &amp; develop new markets for the C-390 transport</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aircraft named </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Boeing Embraer - Defense </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>to operate after regulatory approvals &amp; closing conditions</t>
+    </r>
+  </si>
+  <si>
+    <t>Despite the termination of the two joint-ventures the agreement of the marketing of C-390 remains but prospects falling</t>
+  </si>
+  <si>
+    <t>(USD Millions)</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Commercial Aviation</t>
+  </si>
+  <si>
+    <t>Executive Aviation</t>
+  </si>
+  <si>
+    <t>Defense &amp; Security</t>
+  </si>
+  <si>
+    <t>Services &amp; Support</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/0552e176-6b29-4f1c-820c-8020af5b31eb?origin=1</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="175" formatCode="#,##0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +683,21 @@
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -467,27 +823,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -501,8 +844,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -515,70 +858,135 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -675,8 +1083,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -691,8 +1099,58 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12658725" y="0"/>
-          <a:ext cx="0" cy="11563350"/>
+          <a:off x="13315950" y="0"/>
+          <a:ext cx="0" cy="21402675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4007EFC8-8ABF-4185-9C82-30D99B567515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18173700" y="0"/>
+          <a:ext cx="0" cy="17764125"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1015,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F324B-1DEB-44A7-A7E2-319E26170844}">
-  <dimension ref="A2:R36"/>
+  <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1026,645 +1484,900 @@
     <col min="1" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="G5" s="4" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="G5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
+      <c r="U5" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="46"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>12.61</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="G6" s="16">
+      <c r="C6" s="5">
+        <v>9.84</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="G6" s="9">
         <v>44470</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="38"/>
+      <c r="U6" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="38"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>734.6</v>
       </c>
-      <c r="D7" s="33" t="str">
-        <f>C28</f>
+      <c r="D7" s="18" t="str">
+        <f>$C$28</f>
         <v>Q222</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="38"/>
+      <c r="U7" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="38"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="12">
         <f>C6*C7</f>
-        <v>9263.3060000000005</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="15" t="s">
+        <v>7228.4639999999999</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="38"/>
+      <c r="U8" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="38"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="33">
-        <f t="shared" ref="D9:D11" si="0">C30</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="C9" s="12">
+        <f>'Financial Model'!S105</f>
+        <v>2102.6</v>
+      </c>
+      <c r="D9" s="18" t="str">
+        <f>$C$28</f>
+        <v>Q222</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="38"/>
+      <c r="U9" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="38"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
+      <c r="C10" s="12">
+        <f>'Financial Model'!T106</f>
+        <v>3173.8999999999996</v>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f>$C$28</f>
+        <v>Q222</v>
+      </c>
+      <c r="G10" s="9">
         <v>44470</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="38"/>
+      <c r="U10" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="38"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="12">
         <f>C9-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15" t="s">
+        <v>-1071.2999999999997</v>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f>$C$28</f>
+        <v>Q222</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="38"/>
+      <c r="U11" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="38"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="13">
         <f>C8-C11</f>
-        <v>9263.3060000000005</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G13" s="17"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G14" s="17"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+        <v>8299.7639999999992</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="38"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="38"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G13" s="10"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="38"/>
+      <c r="U13" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="38"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G14" s="10"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="38"/>
+      <c r="U14" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="38"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="38"/>
+      <c r="U15" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="38"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
+      <c r="D16" s="48"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="38"/>
+      <c r="U16" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="38"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="23"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="24"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G20" s="17"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G21" s="17"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="D17" s="48"/>
+      <c r="G17" s="9">
+        <v>43922</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="38"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="38"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="38"/>
+      <c r="U18" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="38"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="17"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="38"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="G20" s="10"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="38"/>
+      <c r="U20" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="38"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="G21" s="10"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="38"/>
+      <c r="U21" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="38"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="s">
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="38"/>
+      <c r="U22" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="38"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="17" t="s">
+      <c r="C23" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="38"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="38"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="17"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="17"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="17" t="s">
+      <c r="C24" s="47">
+        <v>1969</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="38"/>
+      <c r="U24" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="38"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="G25" s="9">
+        <v>43770</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="38"/>
+      <c r="U25" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="38"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="70">
+        <f>'Financial Model'!T58</f>
+        <v>2392.9</v>
+      </c>
+      <c r="D26" s="71"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="38"/>
+      <c r="U26" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="38"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="10"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="38"/>
+      <c r="U27" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="38"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="32">
         <v>44777</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="11"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="18" t="s">
+      <c r="G28" s="9">
+        <v>43586</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="R28" s="38"/>
+      <c r="U28" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="38"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="11"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G30" s="17"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="11"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G31" s="17"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="11"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="4" t="s">
+      <c r="D29" s="54"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="38"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="38"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="G30" s="10"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="38"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="38"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="G31" s="10"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="38"/>
+      <c r="U31" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="38"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="11"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="17" t="s">
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="38"/>
+      <c r="U32" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="38"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="11"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="17" t="s">
+      <c r="C33" s="67">
+        <f>C6/'Financial Model'!T103</f>
+        <v>2.5162613569116163</v>
+      </c>
+      <c r="D33" s="68"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="38"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="38"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="11"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="18" t="s">
+      <c r="C34" s="55"/>
+      <c r="D34" s="56"/>
+      <c r="G34" s="9">
+        <v>43282</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="38"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="36"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="11"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G36" s="18"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="13"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="38"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="G36" s="11"/>
+      <c r="H36" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="36"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="U37" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="46"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="U38" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="38"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="U39" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="38"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="U40" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="38"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="U41" s="42"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="38"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="U42" s="43"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="U37:X37"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="U5:X5"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:R5"/>
@@ -1672,425 +2385,1810 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
     <hyperlink ref="H10" r:id="rId2" xr:uid="{64917365-2EAB-45F1-BFD3-E1E4F5A494BB}"/>
     <hyperlink ref="C29:D29" r:id="rId3" display="Link" xr:uid="{11C3F337-5FA5-4654-84A9-81E0FD7B340B}"/>
+    <hyperlink ref="R19" r:id="rId4" location="Boeing_Embraer_-_Defense" xr:uid="{CC492105-8696-4FC6-849B-A673602C4CB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D70B2A-3077-4926-AE7B-39AF91889CD9}">
-  <dimension ref="B1:AC36"/>
+  <dimension ref="B1:AL120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y40" sqref="Y40"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="2:38" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AB1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AC1" s="15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="2:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="38"/>
-      <c r="P2" s="40">
+      <c r="AD1" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="2:38" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20"/>
+      <c r="O2" s="22">
+        <v>44286</v>
+      </c>
+      <c r="P2" s="22">
         <v>44377</v>
       </c>
-      <c r="T2" s="40">
+      <c r="R2" s="22">
+        <v>44196</v>
+      </c>
+      <c r="S2" s="22">
+        <v>44651</v>
+      </c>
+      <c r="T2" s="22">
         <v>44742</v>
       </c>
     </row>
-    <row r="3" spans="2:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="38"/>
-      <c r="P3" s="41"/>
-      <c r="T3" s="41">
+    <row r="3" spans="2:38" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="20"/>
+      <c r="P3" s="23"/>
+      <c r="S3" s="23">
+        <v>44679</v>
+      </c>
+      <c r="T3" s="23">
         <v>44777</v>
       </c>
     </row>
-    <row r="4" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="O4" s="65">
+        <v>272.2</v>
+      </c>
+      <c r="P4" s="65">
+        <v>388.5</v>
+      </c>
+      <c r="R4" s="65">
+        <v>413.7</v>
+      </c>
+      <c r="S4" s="65">
+        <v>169.2</v>
+      </c>
+      <c r="T4" s="65">
+        <v>299.89999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="O5" s="65">
+        <v>152.1</v>
+      </c>
+      <c r="P5" s="65">
+        <v>266.2</v>
+      </c>
+      <c r="R5" s="65">
+        <v>455.4</v>
+      </c>
+      <c r="S5" s="65">
+        <v>89.9</v>
+      </c>
+      <c r="T5" s="65">
+        <v>266.7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="O6" s="65">
+        <v>128.5</v>
+      </c>
+      <c r="P6" s="65">
+        <v>174.9</v>
+      </c>
+      <c r="R6" s="65">
+        <v>114.5</v>
+      </c>
+      <c r="S6" s="65">
+        <v>68.3</v>
+      </c>
+      <c r="T6" s="65">
+        <v>126.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="O7" s="65">
+        <v>250.6</v>
+      </c>
+      <c r="P7" s="65">
+        <v>298</v>
+      </c>
+      <c r="R7" s="65">
+        <v>307.39999999999998</v>
+      </c>
+      <c r="S7" s="65">
+        <v>271.2</v>
+      </c>
+      <c r="T7" s="65">
+        <v>320.10000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="O8" s="65">
+        <v>3.9</v>
+      </c>
+      <c r="P8" s="65">
+        <v>2.9</v>
+      </c>
+      <c r="R8" s="65">
+        <v>10.3</v>
+      </c>
+      <c r="S8" s="65">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T8" s="65">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="P4" s="44">
+      <c r="C9" s="73"/>
+      <c r="O9" s="26">
+        <v>807.3</v>
+      </c>
+      <c r="P9" s="26">
         <v>1130.5</v>
       </c>
-      <c r="T4" s="44">
+      <c r="R9" s="26">
+        <v>1301.3</v>
+      </c>
+      <c r="S9" s="26">
+        <v>600.9</v>
+      </c>
+      <c r="T9" s="26">
         <v>1018.9</v>
       </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+    <row r="10" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="45">
+      <c r="O10" s="3">
+        <v>730.9</v>
+      </c>
+      <c r="P10" s="27">
         <v>924.8</v>
       </c>
-      <c r="T5" s="45">
+      <c r="R10" s="3">
+        <v>1105.5</v>
+      </c>
+      <c r="S10" s="3">
+        <v>480.2</v>
+      </c>
+      <c r="T10" s="27">
         <v>785.6</v>
       </c>
     </row>
-    <row r="6" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="11" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="44">
-        <f>P4-P5</f>
+      <c r="O11" s="26">
+        <f>O9-O10</f>
+        <v>76.399999999999977</v>
+      </c>
+      <c r="P11" s="26">
+        <f>P9-P10</f>
         <v>205.70000000000005</v>
       </c>
-      <c r="T6" s="44">
-        <f>T4-T5</f>
+      <c r="R11" s="26">
+        <f>R9-R10</f>
+        <v>195.79999999999995</v>
+      </c>
+      <c r="S11" s="26">
+        <f>S9-S10</f>
+        <v>120.69999999999999</v>
+      </c>
+      <c r="T11" s="26">
+        <f>T9-T10</f>
         <v>233.29999999999995</v>
       </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="45">
+      <c r="O12" s="3">
+        <v>34.4</v>
+      </c>
+      <c r="P12" s="27">
         <v>40.799999999999997</v>
       </c>
-      <c r="T7" s="45">
+      <c r="R12" s="3">
+        <v>42.3</v>
+      </c>
+      <c r="S12" s="3">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="T12" s="27">
         <v>43.9</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+    <row r="13" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="45">
+      <c r="O13" s="3">
+        <v>45.8</v>
+      </c>
+      <c r="P13" s="27">
         <v>50.2</v>
       </c>
-      <c r="T8" s="45">
+      <c r="R13" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="S13" s="3">
+        <v>53.8</v>
+      </c>
+      <c r="T13" s="27">
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="45">
+      <c r="O14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P14" s="27">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="T9" s="45">
+      <c r="R14" s="3">
+        <v>-9</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T14" s="27">
         <v>21.3</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+    <row r="15" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="45">
+      <c r="O15" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="P15" s="27">
         <v>9.3000000000000007</v>
       </c>
-      <c r="T10" s="45">
+      <c r="R15" s="3">
+        <v>15</v>
+      </c>
+      <c r="S15" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="T15" s="27">
         <v>24.9</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P11" s="45">
+      <c r="O16" s="3">
+        <v>-21.8</v>
+      </c>
+      <c r="P16" s="27">
         <v>35.5</v>
       </c>
-      <c r="T11" s="45">
+      <c r="R16" s="3">
+        <v>-14.4</v>
+      </c>
+      <c r="S16" s="3">
+        <v>-46.2</v>
+      </c>
+      <c r="T16" s="27">
         <v>-13.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="45">
-        <v>0.6</v>
-      </c>
-      <c r="T12" s="45">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="44">
-        <f>P6-P7-P8-P9-P10+P11+P12</f>
-        <v>143.80000000000004</v>
-      </c>
-      <c r="T13" s="44">
-        <f>T6-T7-T8-T9-T10+T11+T12</f>
-        <v>66.69999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" s="45">
-        <v>-65.5</v>
-      </c>
-      <c r="T14" s="45">
-        <v>-38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" s="45">
-        <v>5.3</v>
-      </c>
-      <c r="T15" s="45">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" s="45">
-        <f>P13+P14+P15</f>
-        <v>83.600000000000037</v>
-      </c>
-      <c r="T16" s="45">
-        <f>T13+T14+T15</f>
-        <v>49.499999999999957</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" s="45">
-        <v>-5.6</v>
-      </c>
-      <c r="T17" s="45">
-        <v>-24.6</v>
+        <v>59</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="R17" s="3">
+        <v>-1.8</v>
+      </c>
+      <c r="S17" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="T17" s="27">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" s="44">
-        <f>P16-P17</f>
-        <v>89.200000000000031</v>
-      </c>
-      <c r="T18" s="44">
-        <f>T16-T17</f>
-        <v>74.099999999999966</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" s="44">
-        <v>87.9</v>
-      </c>
-      <c r="T19" s="44">
-        <v>74.2</v>
+        <v>53</v>
+      </c>
+      <c r="O18" s="26">
+        <f>O11-O12-O13-O14-O15+O16+O17</f>
+        <v>-33.100000000000023</v>
+      </c>
+      <c r="P18" s="26">
+        <f>P11-P12-P13-P14-P15+P16+P17</f>
+        <v>143.80000000000004</v>
+      </c>
+      <c r="R18" s="26">
+        <f>R11-R12-R13-R14-R15+R16+R17</f>
+        <v>60.599999999999945</v>
+      </c>
+      <c r="S18" s="26">
+        <f>S11-S12-S13-S14-S15+S16+S17</f>
+        <v>-36.300000000000011</v>
+      </c>
+      <c r="T18" s="26">
+        <f>T11-T12-T13-T14-T15+T16+T17</f>
+        <v>66.69999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="3">
+        <v>-75.400000000000006</v>
+      </c>
+      <c r="P19" s="27">
+        <v>-65.5</v>
+      </c>
+      <c r="R19" s="3">
+        <v>-6.8</v>
+      </c>
+      <c r="S19" s="3">
+        <v>-65.599999999999994</v>
+      </c>
+      <c r="T19" s="27">
+        <v>-38</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="45">
-        <v>1.3</v>
-      </c>
-      <c r="T20" s="45">
-        <v>-0.1</v>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="P20" s="27">
+        <v>5.3</v>
+      </c>
+      <c r="R20" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="S20" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="T20" s="27">
+        <v>20.8</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" s="46">
-        <f>P19/P22</f>
-        <v>0.11962438758845946</v>
-      </c>
-      <c r="T21" s="46">
-        <f>T19/T22</f>
-        <v>0.10100735093928669</v>
+        <v>62</v>
+      </c>
+      <c r="O21" s="27">
+        <f>O18+O19+O20</f>
+        <v>-88.900000000000034</v>
+      </c>
+      <c r="P21" s="27">
+        <f>P18+P19+P20</f>
+        <v>83.600000000000037</v>
+      </c>
+      <c r="R21" s="27">
+        <f>R18+R19+R20</f>
+        <v>57.699999999999946</v>
+      </c>
+      <c r="S21" s="27">
+        <f>S18+S19+S20</f>
+        <v>-81</v>
+      </c>
+      <c r="T21" s="27">
+        <f>T18+T19+T20</f>
+        <v>49.499999999999957</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="45">
-        <v>734.8</v>
-      </c>
-      <c r="T22" s="3">
-        <v>734.6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T25" s="52">
-        <f>T4/P4-1</f>
-        <v>-9.8717381689517936E-2</v>
+        <v>63</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P22" s="27">
+        <v>-5.6</v>
+      </c>
+      <c r="R22" s="3">
+        <v>54.7</v>
+      </c>
+      <c r="S22" s="3">
+        <v>-50.3</v>
+      </c>
+      <c r="T22" s="27">
+        <v>-24.6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="26">
+        <f>O21-O22</f>
+        <v>-90.000000000000028</v>
+      </c>
+      <c r="P23" s="26">
+        <f>P21-P22</f>
+        <v>89.200000000000031</v>
+      </c>
+      <c r="R23" s="26">
+        <f>R21-R22</f>
+        <v>2.9999999999999432</v>
+      </c>
+      <c r="S23" s="26">
+        <f>S21-S22</f>
+        <v>-30.700000000000003</v>
+      </c>
+      <c r="T23" s="26">
+        <f>T21-T22</f>
+        <v>74.099999999999966</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" s="2">
+        <v>-89.7</v>
+      </c>
+      <c r="P24" s="26">
+        <v>87.9</v>
+      </c>
+      <c r="R24" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="S24" s="2">
+        <v>-31.7</v>
+      </c>
+      <c r="T24" s="26">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="P25" s="27">
+        <v>1.3</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="S25" s="27">
+        <v>1</v>
+      </c>
+      <c r="T25" s="27">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="28">
+        <f>O24/O27</f>
+        <v>-0.12204081632653062</v>
+      </c>
+      <c r="P26" s="28">
+        <f>P24/P27</f>
+        <v>0.11962438758845946</v>
+      </c>
+      <c r="R26" s="28">
+        <f>R24/R27</f>
+        <v>2.8583095140873828E-3</v>
+      </c>
+      <c r="S26" s="28">
+        <f>S24/S27</f>
+        <v>-4.3152736182956709E-2</v>
+      </c>
+      <c r="T26" s="28">
+        <f>T24/T27</f>
+        <v>0.10100735093928669</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="27">
+        <v>735</v>
+      </c>
+      <c r="P27" s="27">
+        <v>734.8</v>
+      </c>
+      <c r="R27" s="3">
+        <v>734.7</v>
+      </c>
+      <c r="S27" s="3">
+        <v>734.6</v>
+      </c>
+      <c r="T27" s="3">
+        <v>734.6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S30" s="34">
+        <f>S9/O9-1</f>
+        <v>-0.25566703827573389</v>
+      </c>
+      <c r="T30" s="34">
+        <f>T9/P9-1</f>
+        <v>-9.8717381689517936E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="25" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
+      <c r="P31" s="25">
+        <f>P9/O9-1</f>
+        <v>0.40034683512944391</v>
+      </c>
+      <c r="S31" s="25">
+        <f>S9/R9-1</f>
+        <v>-0.53823099976946132</v>
+      </c>
+      <c r="T31" s="25">
+        <f>T9/S9-1</f>
+        <v>0.69562323181893837</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P29" s="43">
-        <f>P6/P4</f>
+      <c r="O34" s="25">
+        <f>O11/O9</f>
+        <v>9.4636442462529391E-2</v>
+      </c>
+      <c r="P34" s="25">
+        <f>P11/P9</f>
         <v>0.18195488721804515</v>
       </c>
-      <c r="T29" s="43">
-        <f>T6/T4</f>
+      <c r="R34" s="25">
+        <f t="shared" ref="R34" si="0">R11/R9</f>
+        <v>0.1504649196956889</v>
+      </c>
+      <c r="S34" s="25">
+        <f t="shared" ref="S34:T34" si="1">S11/S9</f>
+        <v>0.20086536861374604</v>
+      </c>
+      <c r="T34" s="25">
+        <f>T11/T9</f>
         <v>0.2289724212385906</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P30" s="43">
-        <f>P13/P4</f>
+      <c r="O35" s="25">
+        <f>O18/O9</f>
+        <v>-4.1000867087823641E-2</v>
+      </c>
+      <c r="P35" s="25">
+        <f>P18/P9</f>
         <v>0.12720035382574085</v>
       </c>
-      <c r="T30" s="43">
-        <f>T13/T4</f>
+      <c r="R35" s="25">
+        <f t="shared" ref="R35" si="2">R18/R9</f>
+        <v>4.6568815799584988E-2</v>
+      </c>
+      <c r="S35" s="25">
+        <f t="shared" ref="S35:T35" si="3">S18/S9</f>
+        <v>-6.0409385921118344E-2</v>
+      </c>
+      <c r="T35" s="25">
+        <f>T18/T9</f>
         <v>6.5462753950338556E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P31" s="43">
-        <f>P18/P4</f>
+      <c r="O36" s="25">
+        <f>O23/O9</f>
+        <v>-0.11148272017837239</v>
+      </c>
+      <c r="P36" s="25">
+        <f>P23/P9</f>
         <v>7.8903140203449823E-2</v>
       </c>
-      <c r="T31" s="43">
-        <f>T18/T4</f>
+      <c r="R36" s="25">
+        <f t="shared" ref="R36" si="4">R23/R9</f>
+        <v>2.3053869207714925E-3</v>
+      </c>
+      <c r="S36" s="25">
+        <f t="shared" ref="S36:T36" si="5">S23/S9</f>
+        <v>-5.1090031619237815E-2</v>
+      </c>
+      <c r="T36" s="25">
+        <f>T23/T9</f>
         <v>7.2725488271665487E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P32" s="43">
-        <f>P17/P16</f>
+      <c r="O37" s="25">
+        <f>O22/O21</f>
+        <v>-1.2373453318335205E-2</v>
+      </c>
+      <c r="P37" s="25">
+        <f>P22/P21</f>
         <v>-6.6985645933014315E-2</v>
       </c>
-      <c r="T32" s="43">
-        <f>T17/T16</f>
+      <c r="R37" s="25">
+        <f t="shared" ref="R37" si="6">R22/R21</f>
+        <v>0.94800693240901301</v>
+      </c>
+      <c r="S37" s="25">
+        <f t="shared" ref="S37:T37" si="7">S22/S21</f>
+        <v>0.62098765432098757</v>
+      </c>
+      <c r="T37" s="25">
+        <f>T22/T21</f>
         <v>-0.49696969696969745</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="51" t="s">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" ref="P41:S41" si="8">P42+P46</f>
+        <v>34</v>
+      </c>
+      <c r="S41" s="2">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="T41" s="2">
+        <f>T42+T46</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" s="40">
+        <f>P43+P44</f>
+        <v>14</v>
+      </c>
+      <c r="S42" s="40">
+        <f>S43+S44</f>
+        <v>6</v>
+      </c>
+      <c r="T42" s="40">
+        <f>T43+T44</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="P43" s="39">
+        <v>7</v>
+      </c>
+      <c r="S43" s="39">
+        <v>4</v>
+      </c>
+      <c r="T43" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="P44" s="39">
+        <v>7</v>
+      </c>
+      <c r="S44" s="39">
+        <v>2</v>
+      </c>
+      <c r="T44" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="61"/>
+    </row>
+    <row r="46" spans="2:20" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="P46" s="40">
+        <f>P47+P48</f>
+        <v>20</v>
+      </c>
+      <c r="S46" s="40">
+        <f>S47+S48</f>
+        <v>20</v>
+      </c>
+      <c r="T46" s="40">
+        <f>T47+T48</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="P47" s="39">
+        <v>12</v>
+      </c>
+      <c r="S47" s="39">
+        <v>12</v>
+      </c>
+      <c r="T47" s="39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="P48" s="39">
+        <v>8</v>
+      </c>
+      <c r="S48" s="39">
+        <v>8</v>
+      </c>
+      <c r="T48" s="39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B51" s="33" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26">
+        <v>1129.8</v>
+      </c>
+      <c r="T52" s="26">
+        <v>1041.3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26">
+        <v>802.9</v>
+      </c>
+      <c r="T53" s="26">
+        <v>753.8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27">
+        <v>197</v>
+      </c>
+      <c r="T54" s="27">
+        <v>240.4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="T55" s="27">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="T56" s="27">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27">
+        <v>615.5</v>
+      </c>
+      <c r="T57" s="27">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26">
+        <v>2222.8000000000002</v>
+      </c>
+      <c r="T58" s="26">
+        <v>2392.9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27">
+        <v>105</v>
+      </c>
+      <c r="T59" s="27">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="27">
+        <v>217</v>
+      </c>
+      <c r="T60" s="27">
+        <v>209.3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27">
+        <v>227.1</v>
+      </c>
+      <c r="T61" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P62" s="27">
+        <f>SUM(P52:P61)</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27">
+        <f>SUM(S52:S61)</f>
+        <v>5536.6</v>
+      </c>
+      <c r="T62" s="27">
+        <f>SUM(T52:T61)</f>
+        <v>5367.9000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="26">
+        <v>169.9</v>
+      </c>
+      <c r="T63" s="26">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="26">
+        <v>1.6</v>
+      </c>
+      <c r="T64" s="26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="T65" s="27">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27">
+        <v>23.4</v>
+      </c>
+      <c r="T66" s="27">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27">
+        <v>0</v>
+      </c>
+      <c r="T67" s="27">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="27">
+        <v>22.8</v>
+      </c>
+      <c r="T68" s="27">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27">
+        <v>142.9</v>
+      </c>
+      <c r="T69" s="27">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27">
+        <v>6.9</v>
+      </c>
+      <c r="T70" s="27">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27">
+        <v>1679.3</v>
+      </c>
+      <c r="T71" s="27">
+        <v>1652.5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="27">
+        <v>2227.5</v>
+      </c>
+      <c r="T72" s="27">
+        <v>2231.3000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27">
+        <v>55.9</v>
+      </c>
+      <c r="T73" s="27">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P74" s="27">
+        <f>SUM(P63:P73)+P62</f>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27">
+        <f>SUM(S63:S73)+S62</f>
+        <v>9868.4</v>
+      </c>
+      <c r="T74" s="27">
+        <f>SUM(T63:T73)+T62</f>
+        <v>9698.7999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27">
+        <v>562.70000000000005</v>
+      </c>
+      <c r="T76" s="27">
+        <v>727.4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27">
+        <v>14.1</v>
+      </c>
+      <c r="T77" s="27">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27">
+        <v>11</v>
+      </c>
+      <c r="T78" s="27">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="26">
+        <v>326.8</v>
+      </c>
+      <c r="T79" s="26">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27">
+        <v>263.3</v>
+      </c>
+      <c r="T80" s="27">
+        <v>258.8</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27">
+        <v>1301.8</v>
+      </c>
+      <c r="T81" s="27">
+        <v>1317.8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="26"/>
+      <c r="S82" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="T82" s="26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27">
+        <v>38</v>
+      </c>
+      <c r="T83" s="27">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="T84" s="27">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="27"/>
+      <c r="S85" s="27">
+        <v>2.8</v>
+      </c>
+      <c r="T85" s="27">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="27"/>
+      <c r="S86" s="27">
+        <v>113.8</v>
+      </c>
+      <c r="T86" s="27">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="27"/>
+      <c r="R87" s="27"/>
+      <c r="S87" s="3">
+        <v>47.4</v>
+      </c>
+      <c r="T87" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P88" s="27">
+        <f>SUM(P76:P87)</f>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="27"/>
+      <c r="S88" s="27">
+        <f>SUM(S76:S87)</f>
+        <v>2756.3</v>
+      </c>
+      <c r="T88" s="27">
+        <f>SUM(T76:T87)</f>
+        <v>2640.1000000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="27"/>
+      <c r="S89" s="27">
+        <v>49</v>
+      </c>
+      <c r="T89" s="27">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="26"/>
+      <c r="R90" s="26"/>
+      <c r="S90" s="26">
+        <v>3229</v>
+      </c>
+      <c r="T90" s="26">
+        <v>3092.7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P91" s="27"/>
+      <c r="Q91" s="27"/>
+      <c r="R91" s="27"/>
+      <c r="S91" s="27">
+        <v>53.8</v>
+      </c>
+      <c r="T91" s="27">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P92" s="27"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="27"/>
+      <c r="S92" s="27">
+        <v>454.8</v>
+      </c>
+      <c r="T92" s="27">
+        <v>478.5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P93" s="27"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27">
+        <v>13</v>
+      </c>
+      <c r="T93" s="27">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P94" s="27"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="27"/>
+      <c r="S94" s="27">
+        <v>376.1</v>
+      </c>
+      <c r="T94" s="27">
+        <v>334.4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B95" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P95" s="27"/>
+      <c r="Q95" s="27"/>
+      <c r="R95" s="27"/>
+      <c r="S95" s="27">
+        <v>37.6</v>
+      </c>
+      <c r="T95" s="27">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="27"/>
+      <c r="R96" s="27"/>
+      <c r="S96" s="27">
+        <v>141.9</v>
+      </c>
+      <c r="T96" s="27">
+        <v>133.4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P97" s="27">
+        <f>SUM(P89:P96)+P88</f>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="27"/>
+      <c r="R97" s="27"/>
+      <c r="S97" s="27">
+        <f>SUM(S89:S96)+S88</f>
+        <v>7111.5000000000009</v>
+      </c>
+      <c r="T97" s="27">
+        <f>SUM(T89:T96)+T88</f>
+        <v>6826.0999999999995</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P98" s="27"/>
+      <c r="Q98" s="27"/>
+      <c r="R98" s="27"/>
+      <c r="S98" s="27"/>
+      <c r="T98" s="27"/>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P99" s="27"/>
+      <c r="Q99" s="27"/>
+      <c r="R99" s="27"/>
+      <c r="S99" s="27">
+        <v>2756.9</v>
+      </c>
+      <c r="T99" s="27">
+        <v>2872.7</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B100" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P100" s="27">
+        <f>P99+P97</f>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="27"/>
+      <c r="R100" s="27"/>
+      <c r="S100" s="27">
+        <f>S99+S97</f>
+        <v>9868.4000000000015</v>
+      </c>
+      <c r="T100" s="27">
+        <f>T99+T97</f>
+        <v>9698.7999999999993</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B102" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P102" s="27">
+        <f>P74-P97</f>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="27"/>
+      <c r="R102" s="27"/>
+      <c r="S102" s="27">
+        <f>S74-S97</f>
+        <v>2756.8999999999987</v>
+      </c>
+      <c r="T102" s="27">
+        <f>T74-T97</f>
+        <v>2872.7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S103" s="3">
+        <f>S102/S27</f>
+        <v>3.7529267628641421</v>
+      </c>
+      <c r="T103" s="3">
+        <f>T102/T27</f>
+        <v>3.9105635720119789</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="S105" s="65">
+        <f>S52+S53+S63</f>
+        <v>2102.6</v>
+      </c>
+      <c r="T105" s="65">
+        <f>T52+T53+T63</f>
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="S106" s="65">
+        <f>S79+S82+S90</f>
+        <v>3559</v>
+      </c>
+      <c r="T106" s="65">
+        <f>T79+T82+T90</f>
+        <v>3173.8999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S107" s="27">
+        <f>S105-S106</f>
+        <v>-1456.4</v>
+      </c>
+      <c r="T107" s="27">
+        <f>T105-T106</f>
+        <v>-1208.8999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="T110" s="25">
+        <f>T58/S58-1</f>
+        <v>7.6525103473096934E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B112" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="S114" s="3">
+        <v>12.61</v>
+      </c>
+      <c r="T114" s="3">
+        <v>8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="115" spans="2:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="S115" s="27">
+        <f>S114*S27</f>
+        <v>9263.3060000000005</v>
+      </c>
+      <c r="T115" s="27">
+        <f>T114*T27</f>
+        <v>6449.7879999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="2:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S116" s="27">
+        <f>S115-S107</f>
+        <v>10719.706</v>
+      </c>
+      <c r="T116" s="27">
+        <f>T115-T107</f>
+        <v>7658.6879999999992</v>
+      </c>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B118" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S118" s="74">
+        <f>-S114/S103</f>
+        <v>-3.3600442526025622</v>
+      </c>
+      <c r="T118" s="74">
+        <f>-T114/T103</f>
+        <v>-2.2452006822849584</v>
+      </c>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B119" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B120" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="T1" r:id="rId1" xr:uid="{680599EF-35E5-444E-BE52-11E2AAE328C4}"/>
+    <hyperlink ref="S1" r:id="rId2" xr:uid="{93CDF7DF-1EA6-42CA-BCC8-DA2865B51A26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258CA0E5-563F-4C1F-B583-AD76D8E7BBD2}">
+  <dimension ref="D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4BAA1B-58E5-4F7B-8CBE-F8C410342AC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA67803A-2104-4C35-B8E7-B518DEF62D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" activeTab="1" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="185">
   <si>
     <t>$ERJ</t>
   </si>
@@ -613,17 +613,30 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/6180d10a-38ab-421f-9f8b-22fbb0bcd380?origin=1</t>
+  </si>
+  <si>
+    <t>Embraer 190-E2</t>
+  </si>
+  <si>
+    <t>Large Jets</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0\x"/>
+    <numFmt numFmtId="166" formatCode="0.0\x"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,6 +715,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arai"/>
     </font>
   </fonts>
   <fills count="5">
@@ -823,7 +842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -906,37 +925,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -965,14 +953,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -980,13 +982,34 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1083,7 +1106,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1100,7 +1123,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13315950" y="0"/>
-          <a:ext cx="0" cy="21402675"/>
+          <a:ext cx="0" cy="21564600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1133,7 +1156,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1475,59 +1498,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F324B-1DEB-44A7-A7E2-319E26170844}">
   <dimension ref="A2:X42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="44" t="s">
+    <row r="5" spans="1:24">
+      <c r="B5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="G5" s="44" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="G5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="46"/>
-      <c r="U5" s="44" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="62"/>
+      <c r="U5" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="46"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="62"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>9.84</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="D6" s="18"/>
       <c r="G6" s="9">
@@ -1553,7 +1576,7 @@
       <c r="W6" s="37"/>
       <c r="X6" s="38"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1578,20 +1601,20 @@
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="38"/>
-      <c r="U7" s="59" t="s">
+      <c r="U7" s="46" t="s">
         <v>84</v>
       </c>
       <c r="V7" s="37"/>
       <c r="W7" s="37"/>
       <c r="X7" s="38"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="12">
         <f>C6*C7</f>
-        <v>7228.4639999999999</v>
+        <v>6941.9699999999993</v>
       </c>
       <c r="D8" s="18"/>
       <c r="G8" s="10"/>
@@ -1608,19 +1631,19 @@
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="38"/>
-      <c r="U8" s="58" t="s">
+      <c r="U8" s="45" t="s">
         <v>137</v>
       </c>
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
       <c r="X8" s="38"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="12">
-        <f>'Financial Model'!S105</f>
+        <f>'Financial Model'!S106</f>
         <v>2102.6</v>
       </c>
       <c r="D9" s="18" t="str">
@@ -1639,19 +1662,19 @@
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="38"/>
-      <c r="U9" s="60" t="s">
+      <c r="U9" s="47" t="s">
         <v>151</v>
       </c>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
       <c r="X9" s="38"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="12">
-        <f>'Financial Model'!T106</f>
+        <f>'Financial Model'!T107</f>
         <v>3173.8999999999996</v>
       </c>
       <c r="D10" s="18" t="str">
@@ -1674,14 +1697,14 @@
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
       <c r="R10" s="38"/>
-      <c r="U10" s="60" t="s">
+      <c r="U10" s="47" t="s">
         <v>152</v>
       </c>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
       <c r="X10" s="38"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1707,20 +1730,20 @@
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
       <c r="R11" s="38"/>
-      <c r="U11" s="60" t="s">
+      <c r="U11" s="47" t="s">
         <v>153</v>
       </c>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
       <c r="X11" s="38"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="13">
         <f>C8-C11</f>
-        <v>8299.7639999999992</v>
+        <v>8013.2699999999986</v>
       </c>
       <c r="D12" s="19"/>
       <c r="G12" s="10"/>
@@ -1740,7 +1763,7 @@
       <c r="W12" s="37"/>
       <c r="X12" s="38"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="G13" s="10"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
@@ -1753,14 +1776,14 @@
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="38"/>
-      <c r="U13" s="58" t="s">
+      <c r="U13" s="45" t="s">
         <v>138</v>
       </c>
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
       <c r="X13" s="38"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="G14" s="10"/>
       <c r="H14" s="37"/>
       <c r="I14" s="37"/>
@@ -1773,19 +1796,19 @@
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="38"/>
-      <c r="U14" s="60" t="s">
+      <c r="U14" s="47" t="s">
         <v>154</v>
       </c>
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
       <c r="X14" s="38"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="44" t="s">
+    <row r="15" spans="1:24">
+      <c r="B15" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
       <c r="G15" s="10"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -1798,24 +1821,24 @@
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="38"/>
-      <c r="U15" s="60" t="s">
+      <c r="U15" s="47" t="s">
         <v>155</v>
       </c>
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
       <c r="X15" s="38"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="66"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -1828,21 +1851,21 @@
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="38"/>
-      <c r="U16" s="60" t="s">
+      <c r="U16" s="47" t="s">
         <v>156</v>
       </c>
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
       <c r="X16" s="38"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24">
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="66"/>
       <c r="G17" s="9">
         <v>43922</v>
       </c>
@@ -1864,10 +1887,10 @@
       <c r="W17" s="37"/>
       <c r="X17" s="38"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24">
       <c r="B18" s="16"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8" t="s">
         <v>169</v>
@@ -1882,17 +1905,17 @@
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="38"/>
-      <c r="U18" s="59" t="s">
+      <c r="U18" s="46" t="s">
         <v>139</v>
       </c>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
       <c r="X18" s="38"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24">
       <c r="B19" s="17"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
       <c r="G19" s="10"/>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
@@ -1904,17 +1927,17 @@
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
-      <c r="R19" s="64" t="s">
+      <c r="R19" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="U19" s="58" t="s">
+      <c r="U19" s="45" t="s">
         <v>142</v>
       </c>
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
       <c r="X19" s="38"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24">
       <c r="G20" s="10"/>
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
@@ -1927,14 +1950,14 @@
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
       <c r="R20" s="38"/>
-      <c r="U20" s="58" t="s">
+      <c r="U20" s="45" t="s">
         <v>141</v>
       </c>
       <c r="V20" s="37"/>
       <c r="W20" s="37"/>
       <c r="X20" s="38"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24">
       <c r="G21" s="10"/>
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
@@ -1947,19 +1970,19 @@
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="38"/>
-      <c r="U21" s="58" t="s">
+      <c r="U21" s="45" t="s">
         <v>140</v>
       </c>
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
       <c r="X21" s="38"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="44" t="s">
+    <row r="22" spans="2:24">
+      <c r="B22" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
       <c r="G22" s="10"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
@@ -1972,21 +1995,21 @@
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
       <c r="R22" s="38"/>
-      <c r="U22" s="58" t="s">
+      <c r="U22" s="45" t="s">
         <v>157</v>
       </c>
       <c r="V22" s="37"/>
       <c r="W22" s="37"/>
       <c r="X22" s="38"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24">
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="66"/>
       <c r="G23" s="10"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
@@ -2004,14 +2027,14 @@
       <c r="W23" s="37"/>
       <c r="X23" s="38"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24">
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="65">
         <v>1969</v>
       </c>
-      <c r="D24" s="48"/>
+      <c r="D24" s="66"/>
       <c r="G24" s="10"/>
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
@@ -2024,17 +2047,17 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
       <c r="R24" s="38"/>
-      <c r="U24" s="59" t="s">
+      <c r="U24" s="46" t="s">
         <v>143</v>
       </c>
       <c r="V24" s="37"/>
       <c r="W24" s="37"/>
       <c r="X24" s="38"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24">
       <c r="B25" s="10"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
       <c r="G25" s="9">
         <v>43770</v>
       </c>
@@ -2051,24 +2074,24 @@
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="38"/>
-      <c r="U25" s="58" t="s">
+      <c r="U25" s="45" t="s">
         <v>144</v>
       </c>
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
       <c r="X25" s="38"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24">
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="70">
-        <f>'Financial Model'!T58</f>
+      <c r="C26" s="63">
+        <f>'Financial Model'!T59</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="71"/>
+      <c r="D26" s="64"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="63" t="s">
+      <c r="H26" s="50" t="s">
         <v>168</v>
       </c>
       <c r="I26" s="37"/>
@@ -2081,17 +2104,17 @@
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
       <c r="R26" s="38"/>
-      <c r="U26" s="58" t="s">
+      <c r="U26" s="45" t="s">
         <v>145</v>
       </c>
       <c r="V26" s="37"/>
       <c r="W26" s="37"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24">
       <c r="B27" s="10"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
       <c r="G27" s="10"/>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
@@ -2104,14 +2127,14 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
       <c r="R27" s="38"/>
-      <c r="U27" s="58" t="s">
+      <c r="U27" s="45" t="s">
         <v>146</v>
       </c>
       <c r="V27" s="37"/>
       <c r="W27" s="37"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24">
       <c r="B28" s="10" t="s">
         <v>23</v>
       </c>
@@ -2139,21 +2162,21 @@
         <v>180</v>
       </c>
       <c r="R28" s="38"/>
-      <c r="U28" s="58" t="s">
+      <c r="U28" s="45" t="s">
         <v>147</v>
       </c>
       <c r="V28" s="37"/>
       <c r="W28" s="37"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24">
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="54"/>
+      <c r="D29" s="72"/>
       <c r="G29" s="10"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
@@ -2171,7 +2194,7 @@
       <c r="W29" s="37"/>
       <c r="X29" s="38"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24">
       <c r="G30" s="10"/>
       <c r="H30" s="37"/>
       <c r="I30" s="37"/>
@@ -2189,7 +2212,7 @@
       <c r="W30" s="37"/>
       <c r="X30" s="38"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24">
       <c r="G31" s="10"/>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
@@ -2202,19 +2225,19 @@
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
       <c r="R31" s="38"/>
-      <c r="U31" s="59" t="s">
+      <c r="U31" s="46" t="s">
         <v>149</v>
       </c>
       <c r="V31" s="37"/>
       <c r="W31" s="37"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="44" t="s">
+    <row r="32" spans="2:24">
+      <c r="B32" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
       <c r="G32" s="10"/>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
@@ -2227,22 +2250,22 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
       <c r="R32" s="38"/>
-      <c r="U32" s="58" t="s">
+      <c r="U32" s="45" t="s">
         <v>150</v>
       </c>
       <c r="V32" s="37"/>
       <c r="W32" s="37"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24">
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="67">
-        <f>C6/'Financial Model'!T103</f>
-        <v>2.5162613569116163</v>
-      </c>
-      <c r="D33" s="68"/>
+      <c r="C33" s="73">
+        <f>C6/'Financial Model'!T104</f>
+        <v>2.4165314860584122</v>
+      </c>
+      <c r="D33" s="74"/>
       <c r="G33" s="10"/>
       <c r="H33" s="37"/>
       <c r="I33" s="37"/>
@@ -2260,12 +2283,12 @@
       <c r="W33" s="37"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24">
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
       <c r="G34" s="9">
         <v>43282</v>
       </c>
@@ -2287,12 +2310,12 @@
       <c r="W34" s="35"/>
       <c r="X34" s="36"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:24">
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="70"/>
       <c r="G35" s="10"/>
       <c r="H35" s="8" t="s">
         <v>163</v>
@@ -2308,9 +2331,9 @@
       <c r="Q35" s="37"/>
       <c r="R35" s="38"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:24">
       <c r="G36" s="11"/>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="54" t="s">
         <v>165</v>
       </c>
       <c r="I36" s="35"/>
@@ -2324,15 +2347,15 @@
       <c r="Q36" s="35"/>
       <c r="R36" s="36"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="U37" s="44" t="s">
+    <row r="37" spans="2:24">
+      <c r="U37" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="46"/>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="V37" s="61"/>
+      <c r="W37" s="61"/>
+      <c r="X37" s="62"/>
+    </row>
+    <row r="38" spans="2:24">
       <c r="U38" s="42" t="s">
         <v>159</v>
       </c>
@@ -2340,29 +2363,29 @@
       <c r="W38" s="37"/>
       <c r="X38" s="38"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="U39" s="57" t="s">
+    <row r="39" spans="2:24">
+      <c r="U39" s="44" t="s">
         <v>160</v>
       </c>
       <c r="V39" s="37"/>
       <c r="W39" s="37"/>
       <c r="X39" s="38"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="U40" s="57" t="s">
+    <row r="40" spans="2:24">
+      <c r="U40" s="44" t="s">
         <v>161</v>
       </c>
       <c r="V40" s="37"/>
       <c r="W40" s="37"/>
       <c r="X40" s="38"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:24">
       <c r="U41" s="42"/>
       <c r="V41" s="37"/>
       <c r="W41" s="37"/>
       <c r="X41" s="38"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24">
       <c r="U42" s="43"/>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
@@ -2405,24 +2428,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D70B2A-3077-4926-AE7B-39AF91889CD9}">
-  <dimension ref="B1:AL120"/>
+  <dimension ref="B1:AL121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4:V8"/>
+      <selection pane="bottomRight" activeCell="W118" sqref="W118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="66" t="s">
+    <row r="1" spans="2:38" s="15" customFormat="1">
+      <c r="B1" s="53" t="s">
         <v>170</v>
       </c>
       <c r="C1" s="15" t="s">
@@ -2467,7 +2490,7 @@
       <c r="P1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="58" t="s">
         <v>46</v>
       </c>
       <c r="R1" s="15" t="s">
@@ -2528,14 +2551,20 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="2:38" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:38" s="21" customFormat="1">
       <c r="B2" s="20"/>
+      <c r="M2" s="22">
+        <v>44104</v>
+      </c>
       <c r="O2" s="22">
         <v>44286</v>
       </c>
       <c r="P2" s="22">
         <v>44377</v>
       </c>
+      <c r="Q2" s="22">
+        <v>44469</v>
+      </c>
       <c r="R2" s="22">
         <v>44196</v>
       </c>
@@ -2546,9 +2575,12 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="3" spans="2:38" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:38" s="21" customFormat="1">
       <c r="B3" s="20"/>
       <c r="P3" s="23"/>
+      <c r="Q3" s="23">
+        <v>44505</v>
+      </c>
       <c r="S3" s="23">
         <v>44679</v>
       </c>
@@ -2556,117 +2588,153 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="4" spans="2:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="72" t="s">
+    <row r="4" spans="2:38" s="52" customFormat="1">
+      <c r="B4" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="O4" s="65">
+      <c r="M4" s="52">
+        <v>177.2</v>
+      </c>
+      <c r="O4" s="52">
         <v>272.2</v>
       </c>
-      <c r="P4" s="65">
+      <c r="P4" s="52">
         <v>388.5</v>
       </c>
-      <c r="R4" s="65">
+      <c r="Q4" s="52">
+        <v>242</v>
+      </c>
+      <c r="R4" s="52">
         <v>413.7</v>
       </c>
-      <c r="S4" s="65">
+      <c r="S4" s="52">
         <v>169.2</v>
       </c>
-      <c r="T4" s="65">
+      <c r="T4" s="52">
         <v>299.89999999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="72" t="s">
+    <row r="5" spans="2:38" s="52" customFormat="1">
+      <c r="B5" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="O5" s="65">
+      <c r="M5" s="52">
+        <v>212.3</v>
+      </c>
+      <c r="O5" s="52">
         <v>152.1</v>
       </c>
-      <c r="P5" s="65">
+      <c r="P5" s="52">
         <v>266.2</v>
       </c>
-      <c r="R5" s="65">
+      <c r="Q5" s="52">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="R5" s="52">
         <v>455.4</v>
       </c>
-      <c r="S5" s="65">
+      <c r="S5" s="52">
         <v>89.9</v>
       </c>
-      <c r="T5" s="65">
+      <c r="T5" s="52">
         <v>266.7</v>
       </c>
     </row>
-    <row r="6" spans="2:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="72" t="s">
+    <row r="6" spans="2:38" s="52" customFormat="1">
+      <c r="B6" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="O6" s="65">
+      <c r="M6" s="52">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="O6" s="52">
         <v>128.5</v>
       </c>
-      <c r="P6" s="65">
+      <c r="P6" s="52">
         <v>174.9</v>
       </c>
-      <c r="R6" s="65">
+      <c r="Q6" s="52">
+        <v>176.5</v>
+      </c>
+      <c r="R6" s="52">
         <v>114.5</v>
       </c>
-      <c r="S6" s="65">
+      <c r="S6" s="52">
         <v>68.3</v>
       </c>
-      <c r="T6" s="65">
+      <c r="T6" s="52">
         <v>126.6</v>
       </c>
     </row>
-    <row r="7" spans="2:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="72" t="s">
+    <row r="7" spans="2:38" s="52" customFormat="1">
+      <c r="B7" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="O7" s="65">
+      <c r="M7" s="52">
+        <v>212.9</v>
+      </c>
+      <c r="O7" s="52">
         <v>250.6</v>
       </c>
-      <c r="P7" s="65">
+      <c r="P7" s="52">
         <v>298</v>
       </c>
-      <c r="R7" s="65">
+      <c r="Q7" s="52">
+        <v>276.2</v>
+      </c>
+      <c r="R7" s="52">
         <v>307.39999999999998</v>
       </c>
-      <c r="S7" s="65">
+      <c r="S7" s="52">
         <v>271.2</v>
       </c>
-      <c r="T7" s="65">
+      <c r="T7" s="52">
         <v>320.10000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:38" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="72" t="s">
+    <row r="8" spans="2:38" s="52" customFormat="1">
+      <c r="B8" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="O8" s="65">
+      <c r="M8" s="52">
+        <v>1.6</v>
+      </c>
+      <c r="O8" s="52">
         <v>3.9</v>
       </c>
-      <c r="P8" s="65">
+      <c r="P8" s="52">
         <v>2.9</v>
       </c>
-      <c r="R8" s="65">
+      <c r="Q8" s="52">
+        <v>7</v>
+      </c>
+      <c r="R8" s="52">
         <v>10.3</v>
       </c>
-      <c r="S8" s="65">
+      <c r="S8" s="52">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T8" s="65">
+      <c r="T8" s="52">
         <v>5.6</v>
       </c>
     </row>
-    <row r="9" spans="2:38" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:38" s="26" customFormat="1">
       <c r="B9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="73"/>
+      <c r="C9" s="56"/>
+      <c r="M9" s="26">
+        <v>758.7</v>
+      </c>
       <c r="O9" s="26">
         <v>807.3</v>
       </c>
       <c r="P9" s="26">
         <v>1130.5</v>
       </c>
+      <c r="Q9" s="26">
+        <v>958.1</v>
+      </c>
       <c r="R9" s="26">
         <v>1301.3</v>
       </c>
@@ -2677,16 +2745,22 @@
         <v>1018.9</v>
       </c>
     </row>
-    <row r="10" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:38">
       <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="M10" s="27">
+        <v>703.9</v>
+      </c>
       <c r="O10" s="3">
         <v>730.9</v>
       </c>
       <c r="P10" s="27">
         <v>924.8</v>
       </c>
+      <c r="Q10" s="3">
+        <v>776.4</v>
+      </c>
       <c r="R10" s="3">
         <v>1105.5</v>
       </c>
@@ -2697,41 +2771,55 @@
         <v>785.6</v>
       </c>
     </row>
-    <row r="11" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:38" s="2" customFormat="1">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="M11" s="26">
+        <f>M9-M10</f>
+        <v>54.800000000000068</v>
+      </c>
       <c r="O11" s="26">
-        <f>O9-O10</f>
+        <f t="shared" ref="O11:T11" si="0">O9-O10</f>
         <v>76.399999999999977</v>
       </c>
       <c r="P11" s="26">
-        <f>P9-P10</f>
+        <f t="shared" si="0"/>
         <v>205.70000000000005</v>
       </c>
+      <c r="Q11" s="26">
+        <f t="shared" si="0"/>
+        <v>181.70000000000005</v>
+      </c>
       <c r="R11" s="26">
-        <f>R9-R10</f>
+        <f t="shared" si="0"/>
         <v>195.79999999999995</v>
       </c>
       <c r="S11" s="26">
-        <f>S9-S10</f>
+        <f t="shared" si="0"/>
         <v>120.69999999999999</v>
       </c>
       <c r="T11" s="26">
-        <f>T9-T10</f>
+        <f t="shared" si="0"/>
         <v>233.29999999999995</v>
       </c>
     </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:38">
       <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="M12" s="27">
+        <v>35</v>
+      </c>
       <c r="O12" s="3">
         <v>34.4</v>
       </c>
       <c r="P12" s="27">
         <v>40.799999999999997</v>
       </c>
+      <c r="Q12" s="3">
+        <v>35.700000000000003</v>
+      </c>
       <c r="R12" s="3">
         <v>42.3</v>
       </c>
@@ -2742,16 +2830,22 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:38">
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="M13" s="27">
+        <v>45.4</v>
+      </c>
       <c r="O13" s="3">
         <v>45.8</v>
       </c>
       <c r="P13" s="27">
         <v>50.2</v>
       </c>
+      <c r="Q13" s="3">
+        <v>59.7</v>
+      </c>
       <c r="R13" s="3">
         <v>70.7</v>
       </c>
@@ -2762,16 +2856,22 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:38">
       <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="M14" s="27">
+        <v>14</v>
+      </c>
       <c r="O14" s="3">
         <v>0.1</v>
       </c>
       <c r="P14" s="27">
         <v>-2.2999999999999998</v>
       </c>
+      <c r="Q14" s="3">
+        <v>-1.8</v>
+      </c>
       <c r="R14" s="3">
         <v>-9</v>
       </c>
@@ -2782,36 +2882,48 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:38">
       <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="M15" s="27">
+        <v>7.1</v>
+      </c>
       <c r="O15" s="3">
         <v>8.4</v>
       </c>
       <c r="P15" s="27">
         <v>9.3000000000000007</v>
       </c>
-      <c r="R15" s="3">
+      <c r="Q15" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="R15" s="59">
         <v>15</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="59">
         <v>17.399999999999999</v>
       </c>
       <c r="T15" s="27">
         <v>24.9</v>
       </c>
     </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:38">
       <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="M16" s="27">
+        <v>9.1</v>
+      </c>
       <c r="O16" s="3">
         <v>-21.8</v>
       </c>
       <c r="P16" s="27">
         <v>35.5</v>
       </c>
+      <c r="Q16" s="3">
+        <v>-49.1</v>
+      </c>
       <c r="R16" s="3">
         <v>-14.4</v>
       </c>
@@ -2822,16 +2934,22 @@
         <v>-13.5</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20">
       <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="M17" s="27">
+        <v>-0.1</v>
+      </c>
       <c r="O17" s="3">
         <v>1</v>
       </c>
       <c r="P17" s="27">
         <v>0.6</v>
       </c>
+      <c r="Q17" s="3">
+        <v>1.3</v>
+      </c>
       <c r="R17" s="3">
         <v>-1.8</v>
       </c>
@@ -2842,41 +2960,55 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" s="2" customFormat="1">
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="M18" s="26">
+        <f>M11-M12-M13-M14-M15+M16+M17</f>
+        <v>-37.699999999999932</v>
+      </c>
       <c r="O18" s="26">
-        <f>O11-O12-O13-O14-O15+O16+O17</f>
+        <f t="shared" ref="O18:T18" si="1">O11-O12-O13-O14-O15+O16+O17</f>
         <v>-33.100000000000023</v>
       </c>
       <c r="P18" s="26">
-        <f>P11-P12-P13-P14-P15+P16+P17</f>
+        <f t="shared" si="1"/>
         <v>143.80000000000004</v>
       </c>
+      <c r="Q18" s="26">
+        <f t="shared" si="1"/>
+        <v>30.000000000000053</v>
+      </c>
       <c r="R18" s="26">
-        <f>R11-R12-R13-R14-R15+R16+R17</f>
+        <f t="shared" si="1"/>
         <v>60.599999999999945</v>
       </c>
       <c r="S18" s="26">
-        <f>S11-S12-S13-S14-S15+S16+S17</f>
+        <f t="shared" si="1"/>
         <v>-36.300000000000011</v>
       </c>
       <c r="T18" s="26">
-        <f>T11-T12-T13-T14-T15+T16+T17</f>
+        <f t="shared" si="1"/>
         <v>66.69999999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20">
       <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="M19" s="27">
+        <v>-94.6</v>
+      </c>
       <c r="O19" s="3">
         <v>-75.400000000000006</v>
       </c>
       <c r="P19" s="27">
         <v>-65.5</v>
       </c>
+      <c r="Q19" s="3">
+        <v>-51.7</v>
+      </c>
       <c r="R19" s="3">
         <v>-6.8</v>
       </c>
@@ -2887,16 +3019,22 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20">
       <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="M20" s="27">
+        <v>-16.3</v>
+      </c>
       <c r="O20" s="3">
         <v>19.600000000000001</v>
       </c>
       <c r="P20" s="27">
         <v>5.3</v>
       </c>
+      <c r="Q20" s="3">
+        <v>-3.3</v>
+      </c>
       <c r="R20" s="3">
         <v>3.9</v>
       </c>
@@ -2907,41 +3045,55 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20">
       <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="M21" s="27">
+        <f>M18+M19+M20</f>
+        <v>-148.59999999999994</v>
+      </c>
       <c r="O21" s="27">
-        <f>O18+O19+O20</f>
+        <f t="shared" ref="O21:T21" si="2">O18+O19+O20</f>
         <v>-88.900000000000034</v>
       </c>
       <c r="P21" s="27">
-        <f>P18+P19+P20</f>
+        <f t="shared" si="2"/>
         <v>83.600000000000037</v>
       </c>
+      <c r="Q21" s="27">
+        <f t="shared" si="2"/>
+        <v>-24.99999999999995</v>
+      </c>
       <c r="R21" s="27">
-        <f>R18+R19+R20</f>
+        <f t="shared" si="2"/>
         <v>57.699999999999946</v>
       </c>
       <c r="S21" s="27">
-        <f>S18+S19+S20</f>
+        <f t="shared" si="2"/>
         <v>-81</v>
       </c>
       <c r="T21" s="27">
-        <f>T18+T19+T20</f>
+        <f t="shared" si="2"/>
         <v>49.499999999999957</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20">
       <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="M22" s="27">
+        <v>-29.1</v>
+      </c>
       <c r="O22" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="P22" s="27">
         <v>-5.6</v>
       </c>
+      <c r="Q22" s="3">
+        <v>20.7</v>
+      </c>
       <c r="R22" s="3">
         <v>54.7</v>
       </c>
@@ -2952,41 +3104,55 @@
         <v>-24.6</v>
       </c>
     </row>
-    <row r="23" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" s="2" customFormat="1">
       <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="M23" s="26">
+        <f>M21-M22</f>
+        <v>-119.49999999999994</v>
+      </c>
       <c r="O23" s="26">
-        <f>O21-O22</f>
+        <f t="shared" ref="O23:T23" si="3">O21-O22</f>
         <v>-90.000000000000028</v>
       </c>
       <c r="P23" s="26">
-        <f>P21-P22</f>
+        <f t="shared" si="3"/>
         <v>89.200000000000031</v>
       </c>
+      <c r="Q23" s="26">
+        <f t="shared" si="3"/>
+        <v>-45.699999999999946</v>
+      </c>
       <c r="R23" s="26">
-        <f>R21-R22</f>
+        <f t="shared" si="3"/>
         <v>2.9999999999999432</v>
       </c>
       <c r="S23" s="26">
-        <f>S21-S22</f>
+        <f t="shared" si="3"/>
         <v>-30.700000000000003</v>
       </c>
       <c r="T23" s="26">
-        <f>T21-T22</f>
+        <f t="shared" si="3"/>
         <v>74.099999999999966</v>
       </c>
     </row>
-    <row r="24" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" s="2" customFormat="1">
       <c r="B24" s="29" t="s">
         <v>72</v>
       </c>
+      <c r="M24" s="26">
+        <v>-121.2</v>
+      </c>
       <c r="O24" s="2">
         <v>-89.7</v>
       </c>
       <c r="P24" s="26">
         <v>87.9</v>
       </c>
+      <c r="Q24" s="2">
+        <v>-45</v>
+      </c>
       <c r="R24" s="2">
         <v>2.1</v>
       </c>
@@ -2997,16 +3163,22 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20">
       <c r="B25" s="30" t="s">
         <v>73</v>
       </c>
+      <c r="M25" s="27">
+        <v>1.7</v>
+      </c>
       <c r="O25" s="3">
         <v>-0.3</v>
       </c>
       <c r="P25" s="27">
         <v>1.3</v>
       </c>
+      <c r="Q25" s="3">
+        <v>-0.7</v>
+      </c>
       <c r="R25" s="3">
         <v>0.9</v>
       </c>
@@ -3017,41 +3189,55 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20">
       <c r="B26" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="M26" s="28">
+        <f>M24/M27</f>
+        <v>-0.16462917685411571</v>
+      </c>
       <c r="O26" s="28">
-        <f>O24/O27</f>
+        <f t="shared" ref="O26:T26" si="4">O24/O27</f>
         <v>-0.12204081632653062</v>
       </c>
       <c r="P26" s="28">
-        <f>P24/P27</f>
+        <f t="shared" si="4"/>
         <v>0.11962438758845946</v>
       </c>
+      <c r="Q26" s="28">
+        <f t="shared" si="4"/>
+        <v>-6.1241154055525319E-2</v>
+      </c>
       <c r="R26" s="28">
-        <f>R24/R27</f>
+        <f t="shared" si="4"/>
         <v>2.8583095140873828E-3</v>
       </c>
       <c r="S26" s="28">
-        <f>S24/S27</f>
+        <f t="shared" si="4"/>
         <v>-4.3152736182956709E-2</v>
       </c>
       <c r="T26" s="28">
-        <f>T24/T27</f>
+        <f t="shared" si="4"/>
         <v>0.10100735093928669</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20">
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="M27" s="3">
+        <v>736.2</v>
+      </c>
       <c r="O27" s="27">
         <v>735</v>
       </c>
       <c r="P27" s="27">
         <v>734.8</v>
       </c>
+      <c r="Q27" s="3">
+        <v>734.8</v>
+      </c>
       <c r="R27" s="3">
         <v>734.7</v>
       </c>
@@ -3062,10 +3248,15 @@
         <v>734.6</v>
       </c>
     </row>
-    <row r="30" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" s="2" customFormat="1">
       <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="Q30" s="34">
+        <f>Q9/M9-1</f>
+        <v>0.26281797812046914</v>
+      </c>
+      <c r="R30" s="34"/>
       <c r="S30" s="34">
         <f>S9/O9-1</f>
         <v>-0.25566703827573389</v>
@@ -3075,7 +3266,7 @@
         <v>-9.8717381689517936E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:20" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" s="25" customFormat="1">
       <c r="B31" s="25" t="s">
         <v>67</v>
       </c>
@@ -3083,6 +3274,14 @@
         <f>P9/O9-1</f>
         <v>0.40034683512944391</v>
       </c>
+      <c r="Q31" s="25">
+        <f t="shared" ref="Q31:R31" si="5">Q9/P9-1</f>
+        <v>-0.15249889429455987</v>
+      </c>
+      <c r="R31" s="25">
+        <f t="shared" si="5"/>
+        <v>0.35820895522388052</v>
+      </c>
       <c r="S31" s="25">
         <f>S9/R9-1</f>
         <v>-0.53823099976946132</v>
@@ -3092,9 +3291,13 @@
         <v>0.69562323181893837</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20">
       <c r="B34" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="M34" s="25">
+        <f>M11/M9</f>
+        <v>7.2228812442335658E-2</v>
       </c>
       <c r="O34" s="25">
         <f>O11/O9</f>
@@ -3104,12 +3307,16 @@
         <f>P11/P9</f>
         <v>0.18195488721804515</v>
       </c>
+      <c r="Q34" s="25">
+        <f t="shared" ref="Q34:R34" si="6">Q11/Q9</f>
+        <v>0.18964617472080164</v>
+      </c>
       <c r="R34" s="25">
-        <f t="shared" ref="R34" si="0">R11/R9</f>
+        <f t="shared" si="6"/>
         <v>0.1504649196956889</v>
       </c>
       <c r="S34" s="25">
-        <f t="shared" ref="S34:T34" si="1">S11/S9</f>
+        <f t="shared" ref="S34" si="7">S11/S9</f>
         <v>0.20086536861374604</v>
       </c>
       <c r="T34" s="25">
@@ -3117,9 +3324,13 @@
         <v>0.2289724212385906</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20">
       <c r="B35" s="3" t="s">
         <v>69</v>
+      </c>
+      <c r="M35" s="25">
+        <f>M18/M9</f>
+        <v>-4.9690259654672372E-2</v>
       </c>
       <c r="O35" s="25">
         <f>O18/O9</f>
@@ -3129,12 +3340,16 @@
         <f>P18/P9</f>
         <v>0.12720035382574085</v>
       </c>
+      <c r="Q35" s="25">
+        <f t="shared" ref="Q35:R35" si="8">Q18/Q9</f>
+        <v>3.1311971610479127E-2</v>
+      </c>
       <c r="R35" s="25">
-        <f t="shared" ref="R35" si="2">R18/R9</f>
+        <f t="shared" si="8"/>
         <v>4.6568815799584988E-2</v>
       </c>
       <c r="S35" s="25">
-        <f t="shared" ref="S35:T35" si="3">S18/S9</f>
+        <f t="shared" ref="S35" si="9">S18/S9</f>
         <v>-6.0409385921118344E-2</v>
       </c>
       <c r="T35" s="25">
@@ -3142,9 +3357,13 @@
         <v>6.5462753950338556E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20">
       <c r="B36" s="3" t="s">
         <v>70</v>
+      </c>
+      <c r="M36" s="25">
+        <f>M23/M9</f>
+        <v>-0.15750626070910759</v>
       </c>
       <c r="O36" s="25">
         <f>O23/O9</f>
@@ -3154,12 +3373,16 @@
         <f>P23/P9</f>
         <v>7.8903140203449823E-2</v>
       </c>
+      <c r="Q36" s="25">
+        <f t="shared" ref="Q36:R36" si="10">Q23/Q9</f>
+        <v>-4.7698570086629734E-2</v>
+      </c>
       <c r="R36" s="25">
-        <f t="shared" ref="R36" si="4">R23/R9</f>
+        <f t="shared" si="10"/>
         <v>2.3053869207714925E-3</v>
       </c>
       <c r="S36" s="25">
-        <f t="shared" ref="S36:T36" si="5">S23/S9</f>
+        <f t="shared" ref="S36" si="11">S23/S9</f>
         <v>-5.1090031619237815E-2</v>
       </c>
       <c r="T36" s="25">
@@ -3167,9 +3390,13 @@
         <v>7.2725488271665487E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20">
       <c r="B37" s="3" t="s">
         <v>71</v>
+      </c>
+      <c r="M37" s="25">
+        <f>M22/M21</f>
+        <v>0.19582772543741597</v>
       </c>
       <c r="O37" s="25">
         <f>O22/O21</f>
@@ -3179,12 +3406,16 @@
         <f>P22/P21</f>
         <v>-6.6985645933014315E-2</v>
       </c>
+      <c r="Q37" s="25">
+        <f t="shared" ref="Q37:R37" si="12">Q22/Q21</f>
+        <v>-0.82800000000000162</v>
+      </c>
       <c r="R37" s="25">
-        <f t="shared" ref="R37" si="6">R22/R21</f>
+        <f t="shared" si="12"/>
         <v>0.94800693240901301</v>
       </c>
       <c r="S37" s="25">
-        <f t="shared" ref="S37:T37" si="7">S22/S21</f>
+        <f t="shared" ref="S37" si="13">S22/S21</f>
         <v>0.62098765432098757</v>
       </c>
       <c r="T37" s="25">
@@ -3192,52 +3423,63 @@
         <v>-0.49696969696969745</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20">
       <c r="B40" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:20" s="2" customFormat="1">
       <c r="B41" s="29" t="s">
         <v>83</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" ref="P41:S41" si="8">P42+P46</f>
+        <f t="shared" ref="P41:S41" si="14">P42+P47</f>
         <v>34</v>
       </c>
+      <c r="Q41" s="2">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
       <c r="S41" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="T41" s="2">
-        <f>T42+T46</f>
+        <f>T42+T47</f>
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:20" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="62" t="s">
+    <row r="42" spans="2:20" s="40" customFormat="1">
+      <c r="B42" s="49" t="s">
         <v>84</v>
       </c>
       <c r="P42" s="40">
-        <f>P43+P44</f>
+        <f>P43+P44+P45</f>
         <v>14</v>
       </c>
+      <c r="Q42" s="40">
+        <f>Q43+Q44+Q45</f>
+        <v>9</v>
+      </c>
       <c r="S42" s="40">
-        <f>S43+S44</f>
+        <f t="shared" ref="S42:T42" si="15">S43+S44+S45</f>
         <v>6</v>
       </c>
       <c r="T42" s="40">
-        <f>T43+T44</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="61" t="s">
+    <row r="43" spans="2:20" s="39" customFormat="1">
+      <c r="B43" s="48" t="s">
         <v>85</v>
       </c>
       <c r="P43" s="39">
         <v>7</v>
       </c>
+      <c r="Q43" s="39">
+        <v>6</v>
+      </c>
       <c r="S43" s="39">
         <v>4</v>
       </c>
@@ -3245,917 +3487,1017 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="61" t="s">
+    <row r="44" spans="2:20" s="39" customFormat="1">
+      <c r="B44" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="P44" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="39">
+        <v>0</v>
+      </c>
+      <c r="S44" s="39">
+        <v>0</v>
+      </c>
+      <c r="T44" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" s="39" customFormat="1">
+      <c r="B45" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="P44" s="39">
+      <c r="P45" s="39">
         <v>7</v>
       </c>
-      <c r="S44" s="39">
+      <c r="Q45" s="39">
+        <v>3</v>
+      </c>
+      <c r="S45" s="39">
         <v>2</v>
       </c>
-      <c r="T44" s="39">
+      <c r="T45" s="39">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="61"/>
-    </row>
-    <row r="46" spans="2:20" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="62" t="s">
+    <row r="46" spans="2:20" s="39" customFormat="1">
+      <c r="B46" s="48"/>
+    </row>
+    <row r="47" spans="2:20" s="40" customFormat="1">
+      <c r="B47" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="P46" s="40">
-        <f>P47+P48</f>
+      <c r="P47" s="40">
+        <f>P48+P49+P50</f>
         <v>20</v>
       </c>
-      <c r="S46" s="40">
-        <f>S47+S48</f>
+      <c r="Q47" s="40">
+        <f>Q48+Q49+Q50</f>
+        <v>21</v>
+      </c>
+      <c r="S47" s="40">
+        <f>S48+S49+S50</f>
         <v>20</v>
       </c>
-      <c r="T46" s="40">
-        <f>T47+T48</f>
+      <c r="T47" s="40">
+        <f>T48+T49+T50</f>
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="61" t="s">
+    <row r="48" spans="2:20" s="39" customFormat="1">
+      <c r="B48" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="P47" s="39">
+      <c r="P48" s="39">
         <v>12</v>
       </c>
-      <c r="S47" s="39">
+      <c r="Q48" s="39">
+        <v>14</v>
+      </c>
+      <c r="S48" s="39">
         <v>12</v>
       </c>
-      <c r="T47" s="39">
+      <c r="T48" s="39">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="61" t="s">
+    <row r="49" spans="2:20" s="39" customFormat="1">
+      <c r="B49" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="P48" s="39">
+      <c r="P49" s="39">
         <v>8</v>
       </c>
-      <c r="S48" s="39">
+      <c r="Q49" s="39">
+        <v>0</v>
+      </c>
+      <c r="S49" s="39">
         <v>8</v>
       </c>
-      <c r="T48" s="39">
+      <c r="T49" s="39">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="33" t="s">
+    <row r="50" spans="2:20" s="39" customFormat="1">
+      <c r="B50" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="P50" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="39">
+        <v>7</v>
+      </c>
+      <c r="S50" s="39">
+        <v>0</v>
+      </c>
+      <c r="T50" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20">
+      <c r="B52" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
+    <row r="53" spans="2:20" s="2" customFormat="1">
+      <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26">
-        <v>1129.8</v>
-      </c>
-      <c r="T52" s="26">
-        <v>1041.3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26">
+        <v>1129.8</v>
+      </c>
+      <c r="T53" s="26">
+        <v>1041.3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" s="2" customFormat="1">
+      <c r="B54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26">
         <v>802.9</v>
       </c>
-      <c r="T53" s="26">
+      <c r="T54" s="26">
         <v>753.8</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
+    <row r="55" spans="2:20">
+      <c r="B55" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27">
-        <v>197</v>
-      </c>
-      <c r="T54" s="27">
-        <v>240.4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
       <c r="R55" s="27"/>
       <c r="S55" s="27">
-        <v>9.6999999999999993</v>
+        <v>197</v>
       </c>
       <c r="T55" s="27">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+        <v>240.4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20">
       <c r="B56" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
       <c r="R56" s="27"/>
       <c r="S56" s="27">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="T56" s="27">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20">
       <c r="B57" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
       <c r="R57" s="27"/>
       <c r="S57" s="27">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="T57" s="27">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20">
+      <c r="B58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27">
         <v>615.5</v>
       </c>
-      <c r="T57" s="27">
+      <c r="T58" s="27">
         <v>620</v>
       </c>
     </row>
-    <row r="58" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
+    <row r="59" spans="2:20" s="2" customFormat="1">
+      <c r="B59" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="26">
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="26">
         <v>2222.8000000000002</v>
       </c>
-      <c r="T58" s="26">
+      <c r="T59" s="26">
         <v>2392.9</v>
       </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B59" s="3" t="s">
+    <row r="60" spans="2:20">
+      <c r="B60" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27">
-        <v>105</v>
-      </c>
-      <c r="T59" s="27">
-        <v>101.9</v>
-      </c>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B60" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="P60" s="27"/>
       <c r="Q60" s="27"/>
       <c r="R60" s="27"/>
       <c r="S60" s="27">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="T60" s="27">
-        <v>209.3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20">
       <c r="B61" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P61" s="27"/>
       <c r="Q61" s="27"/>
       <c r="R61" s="27"/>
       <c r="S61" s="27">
-        <v>227.1</v>
+        <v>217</v>
       </c>
       <c r="T61" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+        <v>209.3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20">
       <c r="B62" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="P62" s="27">
-        <f>SUM(P52:P61)</f>
-        <v>0</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P62" s="27"/>
       <c r="Q62" s="27"/>
       <c r="R62" s="27"/>
       <c r="S62" s="27">
-        <f>SUM(S52:S61)</f>
+        <v>227.1</v>
+      </c>
+      <c r="T62" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20">
+      <c r="B63" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27">
+        <f>SUM(S53:S62)</f>
         <v>5536.6</v>
       </c>
-      <c r="T62" s="27">
-        <f>SUM(T52:T61)</f>
+      <c r="T63" s="27">
+        <f>SUM(T53:T62)</f>
         <v>5367.9000000000005</v>
       </c>
     </row>
-    <row r="63" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
+    <row r="64" spans="2:20" s="2" customFormat="1">
+      <c r="B64" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="26">
-        <v>169.9</v>
-      </c>
-      <c r="T63" s="26">
-        <v>169.9</v>
-      </c>
-    </row>
-    <row r="64" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="P64" s="26"/>
       <c r="Q64" s="26"/>
       <c r="R64" s="26"/>
       <c r="S64" s="26">
+        <v>169.9</v>
+      </c>
+      <c r="T64" s="26">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" s="2" customFormat="1">
+      <c r="B65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="26">
         <v>1.6</v>
       </c>
-      <c r="T64" s="26">
+      <c r="T65" s="26">
         <v>1.5</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B65" s="3" t="s">
+    <row r="66" spans="2:20">
+      <c r="B66" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27">
-        <v>1.6</v>
-      </c>
-      <c r="T65" s="27">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B66" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="P66" s="27"/>
       <c r="Q66" s="27"/>
       <c r="R66" s="27"/>
       <c r="S66" s="27">
-        <v>23.4</v>
+        <v>1.6</v>
       </c>
       <c r="T66" s="27">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20">
       <c r="B67" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P67" s="27"/>
       <c r="Q67" s="27"/>
       <c r="R67" s="27"/>
       <c r="S67" s="27">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="T67" s="27">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20">
       <c r="B68" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="P68" s="27"/>
       <c r="Q68" s="27"/>
       <c r="R68" s="27"/>
       <c r="S68" s="27">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="T68" s="27">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20">
       <c r="B69" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="P69" s="27"/>
+        <v>99</v>
+      </c>
       <c r="Q69" s="27"/>
       <c r="R69" s="27"/>
       <c r="S69" s="27">
-        <v>142.9</v>
+        <v>22.8</v>
       </c>
       <c r="T69" s="27">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20">
       <c r="B70" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P70" s="27"/>
       <c r="Q70" s="27"/>
       <c r="R70" s="27"/>
       <c r="S70" s="27">
-        <v>6.9</v>
+        <v>142.9</v>
       </c>
       <c r="T70" s="27">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20">
       <c r="B71" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P71" s="27"/>
       <c r="Q71" s="27"/>
       <c r="R71" s="27"/>
       <c r="S71" s="27">
-        <v>1679.3</v>
+        <v>6.9</v>
       </c>
       <c r="T71" s="27">
-        <v>1652.5</v>
-      </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20">
       <c r="B72" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P72" s="27"/>
       <c r="Q72" s="27"/>
       <c r="R72" s="27"/>
       <c r="S72" s="27">
-        <v>2227.5</v>
+        <v>1679.3</v>
       </c>
       <c r="T72" s="27">
-        <v>2231.3000000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+        <v>1652.5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20">
       <c r="B73" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P73" s="27"/>
       <c r="Q73" s="27"/>
       <c r="R73" s="27"/>
       <c r="S73" s="27">
-        <v>55.9</v>
+        <v>2227.5</v>
       </c>
       <c r="T73" s="27">
-        <v>59.5</v>
-      </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+        <v>2231.3000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20">
       <c r="B74" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P74" s="27">
-        <f>SUM(P63:P73)+P62</f>
-        <v>0</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P74" s="27"/>
       <c r="Q74" s="27"/>
       <c r="R74" s="27"/>
       <c r="S74" s="27">
-        <f>SUM(S63:S73)+S62</f>
-        <v>9868.4</v>
+        <v>55.9</v>
       </c>
       <c r="T74" s="27">
-        <f>SUM(T63:T73)+T62</f>
-        <v>9698.7999999999993</v>
-      </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20">
+      <c r="B75" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="P75" s="27"/>
       <c r="Q75" s="27"/>
       <c r="R75" s="27"/>
-      <c r="S75" s="27"/>
-      <c r="T75" s="27"/>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="S75" s="27">
+        <f>SUM(S64:S74)+S63</f>
+        <v>9868.4</v>
+      </c>
+      <c r="T75" s="27">
+        <f>SUM(T64:T74)+T63</f>
+        <v>9698.7999999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20">
       <c r="P76" s="27"/>
       <c r="Q76" s="27"/>
       <c r="R76" s="27"/>
-      <c r="S76" s="27">
-        <v>562.70000000000005</v>
-      </c>
-      <c r="T76" s="27">
-        <v>727.4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
+    </row>
+    <row r="77" spans="2:20">
       <c r="B77" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P77" s="27"/>
       <c r="Q77" s="27"/>
       <c r="R77" s="27"/>
       <c r="S77" s="27">
-        <v>14.1</v>
+        <v>562.70000000000005</v>
       </c>
       <c r="T77" s="27">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+        <v>727.4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20">
       <c r="B78" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P78" s="27"/>
       <c r="Q78" s="27"/>
       <c r="R78" s="27"/>
       <c r="S78" s="27">
+        <v>14.1</v>
+      </c>
+      <c r="T78" s="27">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20">
+      <c r="B79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
+      <c r="S79" s="27">
         <v>11</v>
       </c>
-      <c r="T78" s="27">
+      <c r="T79" s="27">
         <v>11.3</v>
       </c>
     </row>
-    <row r="79" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
+    <row r="80" spans="2:20" s="2" customFormat="1">
+      <c r="B80" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="26"/>
-      <c r="R79" s="26"/>
-      <c r="S79" s="26">
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26"/>
+      <c r="R80" s="26"/>
+      <c r="S80" s="26">
         <v>326.8</v>
       </c>
-      <c r="T79" s="26">
+      <c r="T80" s="26">
         <v>70.2</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B80" s="3" t="s">
+    <row r="81" spans="2:20">
+      <c r="B81" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
-      <c r="R80" s="27"/>
-      <c r="S80" s="27">
-        <v>263.3</v>
-      </c>
-      <c r="T80" s="27">
-        <v>258.8</v>
-      </c>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B81" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="P81" s="27"/>
       <c r="Q81" s="27"/>
       <c r="R81" s="27"/>
       <c r="S81" s="27">
+        <v>263.3</v>
+      </c>
+      <c r="T81" s="27">
+        <v>258.8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20">
+      <c r="B82" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27">
         <v>1301.8</v>
       </c>
-      <c r="T81" s="27">
+      <c r="T82" s="27">
         <v>1317.8</v>
       </c>
     </row>
-    <row r="82" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
+    <row r="83" spans="2:20" s="2" customFormat="1">
+      <c r="B83" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="26"/>
-      <c r="R82" s="26"/>
-      <c r="S82" s="26">
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="26"/>
+      <c r="S83" s="26">
         <v>3.2</v>
       </c>
-      <c r="T82" s="26">
+      <c r="T83" s="26">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B83" s="3" t="s">
+    <row r="84" spans="2:20">
+      <c r="B84" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="27">
-        <v>38</v>
-      </c>
-      <c r="T83" s="27">
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B84" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="P84" s="27"/>
       <c r="Q84" s="27"/>
       <c r="R84" s="27"/>
       <c r="S84" s="27">
-        <v>71.400000000000006</v>
+        <v>38</v>
       </c>
       <c r="T84" s="27">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20">
       <c r="B85" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P85" s="27"/>
       <c r="Q85" s="27"/>
       <c r="R85" s="27"/>
       <c r="S85" s="27">
-        <v>2.8</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="T85" s="27">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20">
       <c r="B86" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P86" s="27"/>
       <c r="Q86" s="27"/>
       <c r="R86" s="27"/>
       <c r="S86" s="27">
-        <v>113.8</v>
+        <v>2.8</v>
       </c>
       <c r="T86" s="27">
-        <v>111.8</v>
-      </c>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20">
       <c r="B87" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P87" s="27"/>
       <c r="Q87" s="27"/>
       <c r="R87" s="27"/>
-      <c r="S87" s="3">
-        <v>47.4</v>
+      <c r="S87" s="27">
+        <v>113.8</v>
       </c>
       <c r="T87" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20">
       <c r="B88" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="P88" s="27">
-        <f>SUM(P76:P87)</f>
-        <v>0</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="P88" s="27"/>
       <c r="Q88" s="27"/>
       <c r="R88" s="27"/>
-      <c r="S88" s="27">
-        <f>SUM(S76:S87)</f>
-        <v>2756.3</v>
+      <c r="S88" s="3">
+        <v>47.4</v>
       </c>
       <c r="T88" s="27">
-        <f>SUM(T76:T87)</f>
-        <v>2640.1000000000004</v>
-      </c>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20">
       <c r="B89" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P89" s="27"/>
+        <v>115</v>
+      </c>
+      <c r="P89" s="27">
+        <f>SUM(P77:P88)</f>
+        <v>0</v>
+      </c>
       <c r="Q89" s="27"/>
       <c r="R89" s="27"/>
       <c r="S89" s="27">
+        <f>SUM(S77:S88)</f>
+        <v>2756.3</v>
+      </c>
+      <c r="T89" s="27">
+        <f>SUM(T77:T88)</f>
+        <v>2640.1000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20">
+      <c r="B90" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
+      <c r="R90" s="27"/>
+      <c r="S90" s="27">
         <v>49</v>
       </c>
-      <c r="T89" s="27">
+      <c r="T90" s="27">
         <v>52.6</v>
       </c>
     </row>
-    <row r="90" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="2" t="s">
+    <row r="91" spans="2:20" s="2" customFormat="1">
+      <c r="B91" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="26"/>
-      <c r="S90" s="26">
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26"/>
+      <c r="S91" s="26">
         <v>3229</v>
       </c>
-      <c r="T90" s="26">
+      <c r="T91" s="26">
         <v>3092.7</v>
       </c>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
+    <row r="92" spans="2:20">
+      <c r="B92" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="P91" s="27"/>
-      <c r="Q91" s="27"/>
-      <c r="R91" s="27"/>
-      <c r="S91" s="27">
-        <v>53.8</v>
-      </c>
-      <c r="T91" s="27">
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B92" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="P92" s="27"/>
       <c r="Q92" s="27"/>
       <c r="R92" s="27"/>
       <c r="S92" s="27">
-        <v>454.8</v>
+        <v>53.8</v>
       </c>
       <c r="T92" s="27">
-        <v>478.5</v>
-      </c>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20">
       <c r="B93" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P93" s="27"/>
       <c r="Q93" s="27"/>
       <c r="R93" s="27"/>
       <c r="S93" s="27">
-        <v>13</v>
+        <v>454.8</v>
       </c>
       <c r="T93" s="27">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
+        <v>478.5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20">
       <c r="B94" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="P94" s="27"/>
       <c r="Q94" s="27"/>
       <c r="R94" s="27"/>
       <c r="S94" s="27">
-        <v>376.1</v>
+        <v>13</v>
       </c>
       <c r="T94" s="27">
-        <v>334.4</v>
-      </c>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20">
       <c r="B95" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P95" s="27"/>
       <c r="Q95" s="27"/>
       <c r="R95" s="27"/>
       <c r="S95" s="27">
-        <v>37.6</v>
+        <v>376.1</v>
       </c>
       <c r="T95" s="27">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
+        <v>334.4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20">
       <c r="B96" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P96" s="27"/>
       <c r="Q96" s="27"/>
       <c r="R96" s="27"/>
       <c r="S96" s="27">
-        <v>141.9</v>
+        <v>37.6</v>
       </c>
       <c r="T96" s="27">
-        <v>133.4</v>
-      </c>
-    </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20">
       <c r="B97" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="P97" s="27">
-        <f>SUM(P89:P96)+P88</f>
-        <v>0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P97" s="27"/>
       <c r="Q97" s="27"/>
       <c r="R97" s="27"/>
       <c r="S97" s="27">
-        <f>SUM(S89:S96)+S88</f>
-        <v>7111.5000000000009</v>
+        <v>141.9</v>
       </c>
       <c r="T97" s="27">
-        <f>SUM(T89:T96)+T88</f>
-        <v>6826.0999999999995</v>
-      </c>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="P98" s="27"/>
+        <v>133.4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20">
+      <c r="B98" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P98" s="27">
+        <f>SUM(P90:P97)+P89</f>
+        <v>0</v>
+      </c>
       <c r="Q98" s="27"/>
       <c r="R98" s="27"/>
-      <c r="S98" s="27"/>
-      <c r="T98" s="27"/>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B99" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="S98" s="27">
+        <f>SUM(S90:S97)+S89</f>
+        <v>7111.5000000000009</v>
+      </c>
+      <c r="T98" s="27">
+        <f>SUM(T90:T97)+T89</f>
+        <v>6826.0999999999995</v>
+      </c>
+    </row>
+    <row r="99" spans="2:20">
       <c r="P99" s="27"/>
       <c r="Q99" s="27"/>
       <c r="R99" s="27"/>
-      <c r="S99" s="27">
-        <v>2756.9</v>
-      </c>
-      <c r="T99" s="27">
-        <v>2872.7</v>
-      </c>
-    </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S99" s="27"/>
+      <c r="T99" s="27"/>
+    </row>
+    <row r="100" spans="2:20">
       <c r="B100" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="P100" s="27">
-        <f>P99+P97</f>
-        <v>0</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="P100" s="27"/>
       <c r="Q100" s="27"/>
       <c r="R100" s="27"/>
       <c r="S100" s="27">
-        <f>S99+S97</f>
+        <v>2756.9</v>
+      </c>
+      <c r="T100" s="27">
+        <v>2872.7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20">
+      <c r="B101" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P101" s="27">
+        <f>P100+P98</f>
+        <v>0</v>
+      </c>
+      <c r="Q101" s="27"/>
+      <c r="R101" s="27"/>
+      <c r="S101" s="27">
+        <f>S100+S98</f>
         <v>9868.4000000000015</v>
       </c>
-      <c r="T100" s="27">
-        <f>T99+T97</f>
+      <c r="T101" s="27">
+        <f>T100+T98</f>
         <v>9698.7999999999993</v>
       </c>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B102" s="3" t="s">
+    <row r="103" spans="2:20">
+      <c r="B103" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="P102" s="27">
-        <f>P74-P97</f>
+      <c r="P103" s="27">
+        <f>P75-P98</f>
         <v>0</v>
       </c>
-      <c r="Q102" s="27"/>
-      <c r="R102" s="27"/>
-      <c r="S102" s="27">
-        <f>S74-S97</f>
+      <c r="Q103" s="27"/>
+      <c r="R103" s="27"/>
+      <c r="S103" s="27">
+        <f>S75-S98</f>
         <v>2756.8999999999987</v>
       </c>
-      <c r="T102" s="27">
-        <f>T74-T97</f>
+      <c r="T103" s="27">
+        <f>T75-T98</f>
         <v>2872.7</v>
       </c>
     </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B103" s="3" t="s">
+    <row r="104" spans="2:20">
+      <c r="B104" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="S103" s="3">
-        <f>S102/S27</f>
+      <c r="S104" s="3">
+        <f>S103/S27</f>
         <v>3.7529267628641421</v>
       </c>
-      <c r="T103" s="3">
-        <f>T102/T27</f>
+      <c r="T104" s="3">
+        <f>T103/T27</f>
         <v>3.9105635720119789</v>
       </c>
     </row>
-    <row r="105" spans="2:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="39" t="s">
+    <row r="106" spans="2:20" s="39" customFormat="1">
+      <c r="B106" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="S105" s="65">
-        <f>S52+S53+S63</f>
+      <c r="S106" s="52">
+        <f>S53+S54+S64</f>
         <v>2102.6</v>
       </c>
-      <c r="T105" s="65">
-        <f>T52+T53+T63</f>
+      <c r="T106" s="52">
+        <f>T53+T54+T64</f>
         <v>1965</v>
       </c>
     </row>
-    <row r="106" spans="2:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="39" t="s">
+    <row r="107" spans="2:20" s="39" customFormat="1">
+      <c r="B107" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="S106" s="65">
-        <f>S79+S82+S90</f>
+      <c r="S107" s="52">
+        <f>S80+S83+S91</f>
         <v>3559</v>
       </c>
-      <c r="T106" s="65">
-        <f>T79+T82+T90</f>
+      <c r="T107" s="52">
+        <f>T80+T83+T91</f>
         <v>3173.8999999999996</v>
       </c>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B107" s="3" t="s">
+    <row r="108" spans="2:20">
+      <c r="B108" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S107" s="27">
-        <f>S105-S106</f>
+      <c r="S108" s="27">
+        <f>S106-S107</f>
         <v>-1456.4</v>
       </c>
-      <c r="T107" s="27">
-        <f>T105-T106</f>
+      <c r="T108" s="27">
+        <f>T106-T107</f>
         <v>-1208.8999999999996</v>
       </c>
     </row>
-    <row r="109" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="2" t="s">
+    <row r="110" spans="2:20" s="2" customFormat="1">
+      <c r="B110" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B110" s="3" t="s">
+    <row r="111" spans="2:20">
+      <c r="B111" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="T110" s="25">
-        <f>T58/S58-1</f>
+      <c r="T111" s="25">
+        <f>T59/S59-1</f>
         <v>7.6525103473096934E-2</v>
       </c>
     </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B112" s="3" t="s">
+    <row r="113" spans="2:20">
+      <c r="B113" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B114" s="3" t="s">
+    <row r="115" spans="2:20">
+      <c r="B115" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="S114" s="3">
+      <c r="M115" s="3">
+        <v>4.41</v>
+      </c>
+      <c r="N115" s="3">
+        <v>6.81</v>
+      </c>
+      <c r="O115" s="3">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="P115" s="3">
+        <v>15.14</v>
+      </c>
+      <c r="Q115" s="27">
+        <v>17</v>
+      </c>
+      <c r="R115" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="S115" s="3">
         <v>12.61</v>
       </c>
-      <c r="T114" s="3">
+      <c r="T115" s="3">
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="115" spans="2:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="27" t="s">
+    <row r="116" spans="2:20" s="27" customFormat="1">
+      <c r="B116" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="S115" s="27">
-        <f>S114*S27</f>
+      <c r="M116" s="27">
+        <f t="shared" ref="M116:R116" si="16">M115*M27</f>
+        <v>3246.6420000000003</v>
+      </c>
+      <c r="N116" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O116" s="27">
+        <f t="shared" si="16"/>
+        <v>7320.6</v>
+      </c>
+      <c r="P116" s="27">
+        <f t="shared" si="16"/>
+        <v>11124.871999999999</v>
+      </c>
+      <c r="Q116" s="27">
+        <f t="shared" si="16"/>
+        <v>12491.599999999999</v>
+      </c>
+      <c r="R116" s="27">
+        <f t="shared" si="16"/>
+        <v>10212.330000000002</v>
+      </c>
+      <c r="S116" s="27">
+        <f>S115*S27</f>
         <v>9263.3060000000005</v>
       </c>
-      <c r="T115" s="27">
-        <f>T114*T27</f>
+      <c r="T116" s="27">
+        <f>T115*T27</f>
         <v>6449.7879999999996</v>
       </c>
     </row>
-    <row r="116" spans="2:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="27" t="s">
+    <row r="117" spans="2:20" s="27" customFormat="1">
+      <c r="B117" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S116" s="27">
-        <f>S115-S107</f>
+      <c r="M117" s="27">
+        <f t="shared" ref="M117:R117" si="17">M116-M108</f>
+        <v>3246.6420000000003</v>
+      </c>
+      <c r="N117" s="27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O117" s="27">
+        <f t="shared" si="17"/>
+        <v>7320.6</v>
+      </c>
+      <c r="P117" s="27">
+        <f t="shared" si="17"/>
+        <v>11124.871999999999</v>
+      </c>
+      <c r="Q117" s="27">
+        <f t="shared" si="17"/>
+        <v>12491.599999999999</v>
+      </c>
+      <c r="R117" s="27">
+        <f t="shared" si="17"/>
+        <v>10212.330000000002</v>
+      </c>
+      <c r="S117" s="27">
+        <f>S116-S108</f>
         <v>10719.706</v>
       </c>
-      <c r="T116" s="27">
-        <f>T115-T107</f>
+      <c r="T117" s="27">
+        <f>T116-T108</f>
         <v>7658.6879999999992</v>
       </c>
     </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B118" s="3" t="s">
+    <row r="119" spans="2:20">
+      <c r="B119" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S118" s="74">
-        <f>-S114/S103</f>
+      <c r="S119" s="57">
+        <f>-S115/S104</f>
         <v>-3.3600442526025622</v>
       </c>
-      <c r="T118" s="74">
-        <f>-T114/T103</f>
+      <c r="T119" s="57">
+        <f>-T115/T104</f>
         <v>-2.2452006822849584</v>
       </c>
     </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B119" s="3" t="s">
+    <row r="120" spans="2:20">
+      <c r="B120" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B120" s="3" t="s">
+    <row r="121" spans="2:20">
+      <c r="B121" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4163,29 +4505,38 @@
   <hyperlinks>
     <hyperlink ref="T1" r:id="rId1" xr:uid="{680599EF-35E5-444E-BE52-11E2AAE328C4}"/>
     <hyperlink ref="S1" r:id="rId2" xr:uid="{93CDF7DF-1EA6-42CA-BCC8-DA2865B51A26}"/>
+    <hyperlink ref="Q1" r:id="rId3" xr:uid="{9752E2CB-3CEF-4245-BFA9-C0218E68B8CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258CA0E5-563F-4C1F-B583-AD76D8E7BBD2}">
-  <dimension ref="D4"/>
+  <dimension ref="C4:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:4">
       <c r="D4" s="3" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA67803A-2104-4C35-B8E7-B518DEF62D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F149AB-BDA9-450C-911B-84BD9A776A2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="192">
   <si>
     <t>$ERJ</t>
   </si>
@@ -624,6 +624,27 @@
   </si>
   <si>
     <t>Large Jets</t>
+  </si>
+  <si>
+    <t>Guarantee Deposits</t>
+  </si>
+  <si>
+    <t>Dividends Payable</t>
+  </si>
+  <si>
+    <t>Financial Guarantee &amp; Residual</t>
+  </si>
+  <si>
+    <t>Q4 21</t>
+  </si>
+  <si>
+    <t>https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/282b37b7-69b6-46c3-86f1-3d03bb11cc0e?origin=1</t>
+  </si>
+  <si>
+    <t>Embraer 190</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -842,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -967,6 +988,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -976,26 +998,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1008,8 +1016,24 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1106,7 +1130,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1123,7 +1147,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13315950" y="0"/>
-          <a:ext cx="0" cy="21564600"/>
+          <a:ext cx="0" cy="22536150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1149,15 +1173,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1172,8 +1196,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18173700" y="0"/>
-          <a:ext cx="0" cy="17764125"/>
+          <a:off x="18183225" y="0"/>
+          <a:ext cx="0" cy="22717125"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1499,7 +1523,7 @@
   <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G27" sqref="G27:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1519,31 +1543,31 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="G5" s="60" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="G5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="62"/>
-      <c r="U5" s="60" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="63"/>
+      <c r="U5" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="63"/>
     </row>
     <row r="6" spans="1:24">
       <c r="B6" s="4" t="s">
@@ -1643,8 +1667,8 @@
         <v>6</v>
       </c>
       <c r="C9" s="12">
-        <f>'Financial Model'!S106</f>
-        <v>2102.6</v>
+        <f>'Financial Model'!S113</f>
+        <v>2104.1999999999998</v>
       </c>
       <c r="D9" s="18" t="str">
         <f>$C$28</f>
@@ -1674,7 +1698,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="12">
-        <f>'Financial Model'!T107</f>
+        <f>'Financial Model'!T114</f>
         <v>3173.8999999999996</v>
       </c>
       <c r="D10" s="18" t="str">
@@ -1710,7 +1734,7 @@
       </c>
       <c r="C11" s="12">
         <f>C9-C10</f>
-        <v>-1071.2999999999997</v>
+        <v>-1069.6999999999998</v>
       </c>
       <c r="D11" s="18" t="str">
         <f>$C$28</f>
@@ -1743,7 +1767,7 @@
       </c>
       <c r="C12" s="13">
         <f>C8-C11</f>
-        <v>8013.2699999999986</v>
+        <v>8011.6699999999992</v>
       </c>
       <c r="D12" s="19"/>
       <c r="G12" s="10"/>
@@ -1804,11 +1828,11 @@
       <c r="X14" s="38"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
       <c r="G15" s="10"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -1835,10 +1859,10 @@
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="66"/>
+      <c r="D16" s="65"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -1862,10 +1886,10 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="66"/>
+      <c r="D17" s="65"/>
       <c r="G17" s="9">
         <v>43922</v>
       </c>
@@ -1889,8 +1913,8 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="16"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8" t="s">
         <v>169</v>
@@ -1914,8 +1938,8 @@
     </row>
     <row r="19" spans="2:24">
       <c r="B19" s="17"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
       <c r="G19" s="10"/>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
@@ -1978,11 +2002,11 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
       <c r="G22" s="10"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
@@ -2006,10 +2030,10 @@
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="65"/>
       <c r="G23" s="10"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
@@ -2031,10 +2055,10 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="64">
         <v>1969</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="65"/>
       <c r="G24" s="10"/>
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
@@ -2056,8 +2080,8 @@
     </row>
     <row r="25" spans="2:24">
       <c r="B25" s="10"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
       <c r="G25" s="9">
         <v>43770</v>
       </c>
@@ -2085,11 +2109,11 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="63">
-        <f>'Financial Model'!T59</f>
+      <c r="C26" s="70">
+        <f>'Financial Model'!T60</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="64"/>
+      <c r="D26" s="71"/>
       <c r="G26" s="10"/>
       <c r="H26" s="50" t="s">
         <v>168</v>
@@ -2113,8 +2137,8 @@
     </row>
     <row r="27" spans="2:24">
       <c r="B27" s="10"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
       <c r="G27" s="10"/>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
@@ -2144,12 +2168,8 @@
       <c r="D28" s="32">
         <v>44777</v>
       </c>
-      <c r="G28" s="9">
-        <v>43586</v>
-      </c>
-      <c r="H28" s="37" t="s">
-        <v>166</v>
-      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="60"/>
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
@@ -2173,12 +2193,16 @@
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="37"/>
+      <c r="D29" s="67"/>
+      <c r="G29" s="9">
+        <v>43586</v>
+      </c>
+      <c r="H29" s="60" t="s">
+        <v>166</v>
+      </c>
       <c r="I29" s="37"/>
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
@@ -2233,11 +2257,11 @@
       <c r="X31" s="38"/>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
       <c r="G32" s="10"/>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
@@ -2261,11 +2285,11 @@
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="73">
-        <f>C6/'Financial Model'!T104</f>
+      <c r="C33" s="68">
+        <f>C6/'Financial Model'!T111</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="74"/>
+      <c r="D33" s="69"/>
       <c r="G33" s="10"/>
       <c r="H33" s="37"/>
       <c r="I33" s="37"/>
@@ -2287,8 +2311,11 @@
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76"/>
+      <c r="C34" s="68">
+        <f>C6/'Financial Model'!AB9</f>
+        <v>2.2515010006671113E-3</v>
+      </c>
+      <c r="D34" s="69"/>
       <c r="G34" s="9">
         <v>43282</v>
       </c>
@@ -2314,8 +2341,11 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="70"/>
+      <c r="C35" s="74">
+        <f>C6/'Financial Model'!AB26</f>
+        <v>-155.32248322147649</v>
+      </c>
+      <c r="D35" s="75"/>
       <c r="G35" s="10"/>
       <c r="H35" s="8" t="s">
         <v>163</v>
@@ -2348,12 +2378,12 @@
       <c r="R36" s="36"/>
     </row>
     <row r="37" spans="2:24">
-      <c r="U37" s="60" t="s">
+      <c r="U37" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="V37" s="61"/>
-      <c r="W37" s="61"/>
-      <c r="X37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="63"/>
     </row>
     <row r="38" spans="2:24">
       <c r="U38" s="42" t="s">
@@ -2393,13 +2423,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B5:D5"/>
@@ -2413,6 +2436,13 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
@@ -2428,20 +2458,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D70B2A-3077-4926-AE7B-39AF91889CD9}">
-  <dimension ref="B1:AL121"/>
+  <dimension ref="B1:AL128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W118" sqref="W118"/>
+      <selection pane="bottomRight" activeCell="T127" sqref="T127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:38" s="15" customFormat="1">
@@ -2493,7 +2525,7 @@
       <c r="Q1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="24" t="s">
         <v>47</v>
       </c>
       <c r="S1" s="24" t="s">
@@ -2517,7 +2549,7 @@
       <c r="AA1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="24" t="s">
         <v>80</v>
       </c>
       <c r="AC1" s="15" t="s">
@@ -2556,6 +2588,9 @@
       <c r="M2" s="22">
         <v>44104</v>
       </c>
+      <c r="N2" s="22">
+        <v>44196</v>
+      </c>
       <c r="O2" s="22">
         <v>44286</v>
       </c>
@@ -2566,13 +2601,19 @@
         <v>44469</v>
       </c>
       <c r="R2" s="22">
-        <v>44196</v>
+        <v>44561</v>
       </c>
       <c r="S2" s="22">
         <v>44651</v>
       </c>
       <c r="T2" s="22">
         <v>44742</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>44196</v>
+      </c>
+      <c r="AB2" s="22">
+        <v>44561</v>
       </c>
     </row>
     <row r="3" spans="2:38" s="21" customFormat="1">
@@ -2581,11 +2622,17 @@
       <c r="Q3" s="23">
         <v>44505</v>
       </c>
+      <c r="R3" s="23">
+        <v>44629</v>
+      </c>
       <c r="S3" s="23">
         <v>44679</v>
       </c>
       <c r="T3" s="23">
         <v>44777</v>
+      </c>
+      <c r="AB3" s="23">
+        <v>44629</v>
       </c>
     </row>
     <row r="4" spans="2:38" s="52" customFormat="1">
@@ -2595,6 +2642,9 @@
       <c r="M4" s="52">
         <v>177.2</v>
       </c>
+      <c r="N4" s="52">
+        <v>689.4</v>
+      </c>
       <c r="O4" s="52">
         <v>272.2</v>
       </c>
@@ -2612,6 +2662,12 @@
       </c>
       <c r="T4" s="52">
         <v>299.89999999999998</v>
+      </c>
+      <c r="AA4" s="52">
+        <v>1114.4000000000001</v>
+      </c>
+      <c r="AB4" s="52">
+        <v>1316.4</v>
       </c>
     </row>
     <row r="5" spans="2:38" s="52" customFormat="1">
@@ -2621,6 +2677,9 @@
       <c r="M5" s="52">
         <v>212.3</v>
       </c>
+      <c r="N5" s="52">
+        <v>580</v>
+      </c>
       <c r="O5" s="52">
         <v>152.1</v>
       </c>
@@ -2638,6 +2697,12 @@
       </c>
       <c r="T5" s="52">
         <v>266.7</v>
+      </c>
+      <c r="AA5" s="52">
+        <v>1071.5</v>
+      </c>
+      <c r="AB5" s="52">
+        <v>1130.0999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:38" s="52" customFormat="1">
@@ -2647,6 +2712,9 @@
       <c r="M6" s="52">
         <v>154.69999999999999</v>
       </c>
+      <c r="N6" s="52">
+        <v>311.10000000000002</v>
+      </c>
       <c r="O6" s="52">
         <v>128.5</v>
       </c>
@@ -2664,6 +2732,12 @@
       </c>
       <c r="T6" s="52">
         <v>126.6</v>
+      </c>
+      <c r="AA6" s="52">
+        <v>653.9</v>
+      </c>
+      <c r="AB6" s="52">
+        <v>594.4</v>
       </c>
     </row>
     <row r="7" spans="2:38" s="52" customFormat="1">
@@ -2673,6 +2747,9 @@
       <c r="M7" s="52">
         <v>212.9</v>
       </c>
+      <c r="N7" s="52">
+        <v>253.5</v>
+      </c>
       <c r="O7" s="52">
         <v>250.6</v>
       </c>
@@ -2690,6 +2767,12 @@
       </c>
       <c r="T7" s="52">
         <v>320.10000000000002</v>
+      </c>
+      <c r="AA7" s="52">
+        <v>920</v>
+      </c>
+      <c r="AB7" s="52">
+        <v>1132.2</v>
       </c>
     </row>
     <row r="8" spans="2:38" s="52" customFormat="1">
@@ -2699,6 +2782,9 @@
       <c r="M8" s="52">
         <v>1.6</v>
       </c>
+      <c r="N8" s="52">
+        <v>7.4</v>
+      </c>
       <c r="O8" s="52">
         <v>3.9</v>
       </c>
@@ -2716,6 +2802,12 @@
       </c>
       <c r="T8" s="52">
         <v>5.6</v>
+      </c>
+      <c r="AA8" s="52">
+        <v>11.3</v>
+      </c>
+      <c r="AB8" s="52">
+        <v>24.1</v>
       </c>
     </row>
     <row r="9" spans="2:38" s="26" customFormat="1">
@@ -2726,6 +2818,9 @@
       <c r="M9" s="26">
         <v>758.7</v>
       </c>
+      <c r="N9" s="26">
+        <v>1841.4</v>
+      </c>
       <c r="O9" s="26">
         <v>807.3</v>
       </c>
@@ -2743,6 +2838,12 @@
       </c>
       <c r="T9" s="26">
         <v>1018.9</v>
+      </c>
+      <c r="AA9" s="26">
+        <v>3771.1</v>
+      </c>
+      <c r="AB9" s="26">
+        <v>4197.2</v>
       </c>
     </row>
     <row r="10" spans="2:38">
@@ -2752,6 +2853,9 @@
       <c r="M10" s="27">
         <v>703.9</v>
       </c>
+      <c r="N10" s="27">
+        <v>1619</v>
+      </c>
       <c r="O10" s="3">
         <v>730.9</v>
       </c>
@@ -2769,6 +2873,12 @@
       </c>
       <c r="T10" s="27">
         <v>785.6</v>
+      </c>
+      <c r="AA10" s="27">
+        <v>3293.5</v>
+      </c>
+      <c r="AB10" s="27">
+        <v>3537.6</v>
       </c>
     </row>
     <row r="11" spans="2:38" s="2" customFormat="1">
@@ -2779,8 +2889,12 @@
         <f>M9-M10</f>
         <v>54.800000000000068</v>
       </c>
+      <c r="N11" s="26">
+        <f t="shared" ref="N11:T11" si="0">N9-N10</f>
+        <v>222.40000000000009</v>
+      </c>
       <c r="O11" s="26">
-        <f t="shared" ref="O11:T11" si="0">O9-O10</f>
+        <f t="shared" si="0"/>
         <v>76.399999999999977</v>
       </c>
       <c r="P11" s="26">
@@ -2803,6 +2917,14 @@
         <f t="shared" si="0"/>
         <v>233.29999999999995</v>
       </c>
+      <c r="AA11" s="26">
+        <f>AA9-AA10</f>
+        <v>477.59999999999991</v>
+      </c>
+      <c r="AB11" s="26">
+        <f>AB9-AB10</f>
+        <v>659.59999999999991</v>
+      </c>
     </row>
     <row r="12" spans="2:38">
       <c r="B12" s="3" t="s">
@@ -2811,6 +2933,9 @@
       <c r="M12" s="27">
         <v>35</v>
       </c>
+      <c r="N12" s="27">
+        <v>42.1</v>
+      </c>
       <c r="O12" s="3">
         <v>34.4</v>
       </c>
@@ -2828,6 +2953,12 @@
       </c>
       <c r="T12" s="27">
         <v>43.9</v>
+      </c>
+      <c r="AA12" s="27">
+        <v>143.4</v>
+      </c>
+      <c r="AB12" s="27">
+        <v>153.19999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:38">
@@ -2837,6 +2968,9 @@
       <c r="M13" s="27">
         <v>45.4</v>
       </c>
+      <c r="N13" s="27">
+        <v>54</v>
+      </c>
       <c r="O13" s="3">
         <v>45.8</v>
       </c>
@@ -2854,6 +2988,12 @@
       </c>
       <c r="T13" s="27">
         <v>67.400000000000006</v>
+      </c>
+      <c r="AA13" s="27">
+        <v>194</v>
+      </c>
+      <c r="AB13" s="27">
+        <v>226.4</v>
       </c>
     </row>
     <row r="14" spans="2:38">
@@ -2863,6 +3003,9 @@
       <c r="M14" s="27">
         <v>14</v>
       </c>
+      <c r="N14" s="27">
+        <v>-7.9</v>
+      </c>
       <c r="O14" s="3">
         <v>0.1</v>
       </c>
@@ -2880,6 +3023,12 @@
       </c>
       <c r="T14" s="27">
         <v>21.3</v>
+      </c>
+      <c r="AA14" s="27">
+        <v>61.8</v>
+      </c>
+      <c r="AB14" s="27">
+        <v>-13</v>
       </c>
     </row>
     <row r="15" spans="2:38">
@@ -2889,6 +3038,9 @@
       <c r="M15" s="27">
         <v>7.1</v>
       </c>
+      <c r="N15" s="27">
+        <v>10.5</v>
+      </c>
       <c r="O15" s="3">
         <v>8.4</v>
       </c>
@@ -2906,6 +3058,12 @@
       </c>
       <c r="T15" s="27">
         <v>24.9</v>
+      </c>
+      <c r="AA15" s="27">
+        <v>29.8</v>
+      </c>
+      <c r="AB15" s="27">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:38">
@@ -2915,6 +3073,9 @@
       <c r="M16" s="27">
         <v>9.1</v>
       </c>
+      <c r="N16" s="27">
+        <v>-19.8</v>
+      </c>
       <c r="O16" s="3">
         <v>-21.8</v>
       </c>
@@ -2933,14 +3094,23 @@
       <c r="T16" s="27">
         <v>-13.5</v>
       </c>
-    </row>
-    <row r="17" spans="2:20">
+      <c r="AA16" s="27">
+        <v>-374.7</v>
+      </c>
+      <c r="AB16" s="27">
+        <v>-49.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28">
       <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
       <c r="M17" s="27">
         <v>-0.1</v>
       </c>
+      <c r="N17" s="27">
+        <v>-0.3</v>
+      </c>
       <c r="O17" s="3">
         <v>1</v>
       </c>
@@ -2959,8 +3129,14 @@
       <c r="T17" s="27">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" s="2" customFormat="1">
+      <c r="AA17" s="27">
+        <v>2.7</v>
+      </c>
+      <c r="AB17" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" s="2" customFormat="1">
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2968,8 +3144,12 @@
         <f>M11-M12-M13-M14-M15+M16+M17</f>
         <v>-37.699999999999932</v>
       </c>
+      <c r="N18" s="26">
+        <f t="shared" ref="N18:T18" si="1">N11-N12-N13-N14-N15+N16+N17</f>
+        <v>103.60000000000011</v>
+      </c>
       <c r="O18" s="26">
-        <f t="shared" ref="O18:T18" si="1">O11-O12-O13-O14-O15+O16+O17</f>
+        <f t="shared" si="1"/>
         <v>-33.100000000000023</v>
       </c>
       <c r="P18" s="26">
@@ -2992,14 +3172,25 @@
         <f t="shared" si="1"/>
         <v>66.69999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="2:20">
+      <c r="AA18" s="26">
+        <f t="shared" ref="AA18:AB18" si="2">AA11-AA12-AA13-AA14-AA15+AA16+AA17</f>
+        <v>-323.40000000000003</v>
+      </c>
+      <c r="AB18" s="26">
+        <f t="shared" si="2"/>
+        <v>201.29999999999987</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28">
       <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
       <c r="M19" s="27">
         <v>-94.6</v>
       </c>
+      <c r="N19" s="27">
+        <v>-64.599999999999994</v>
+      </c>
       <c r="O19" s="3">
         <v>-75.400000000000006</v>
       </c>
@@ -3018,14 +3209,23 @@
       <c r="T19" s="27">
         <v>-38</v>
       </c>
-    </row>
-    <row r="20" spans="2:20">
+      <c r="AA19" s="27">
+        <v>-232.7</v>
+      </c>
+      <c r="AB19" s="27">
+        <v>-199.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28">
       <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
       <c r="M20" s="27">
         <v>-16.3</v>
       </c>
+      <c r="N20" s="27">
+        <v>-27.6</v>
+      </c>
       <c r="O20" s="3">
         <v>19.600000000000001</v>
       </c>
@@ -3044,8 +3244,14 @@
       <c r="T20" s="27">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="21" spans="2:20">
+      <c r="AA20" s="27">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="AB20" s="27">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28">
       <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
@@ -3053,38 +3259,53 @@
         <f>M18+M19+M20</f>
         <v>-148.59999999999994</v>
       </c>
+      <c r="N21" s="27">
+        <f t="shared" ref="N21:T21" si="3">N18+N19+N20</f>
+        <v>11.400000000000112</v>
+      </c>
       <c r="O21" s="27">
-        <f t="shared" ref="O21:T21" si="2">O18+O19+O20</f>
+        <f t="shared" si="3"/>
         <v>-88.900000000000034</v>
       </c>
       <c r="P21" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83.600000000000037</v>
       </c>
       <c r="Q21" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-24.99999999999995</v>
       </c>
       <c r="R21" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57.699999999999946</v>
       </c>
       <c r="S21" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-81</v>
       </c>
       <c r="T21" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.499999999999957</v>
       </c>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="AA21" s="27">
+        <f t="shared" ref="AA21:AB21" si="4">AA18+AA19+AA20</f>
+        <v>-635.20000000000005</v>
+      </c>
+      <c r="AB21" s="27">
+        <f t="shared" si="4"/>
+        <v>27.399999999999864</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28">
       <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
       <c r="M22" s="27">
         <v>-29.1</v>
       </c>
+      <c r="N22" s="27">
+        <v>16.899999999999999</v>
+      </c>
       <c r="O22" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -3103,8 +3324,14 @@
       <c r="T22" s="27">
         <v>-24.6</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" s="2" customFormat="1">
+      <c r="AA22" s="27">
+        <v>93.1</v>
+      </c>
+      <c r="AB22" s="27">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" s="2" customFormat="1">
       <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
@@ -3112,38 +3339,53 @@
         <f>M21-M22</f>
         <v>-119.49999999999994</v>
       </c>
+      <c r="N23" s="26">
+        <f t="shared" ref="N23:T23" si="5">N21-N22</f>
+        <v>-5.4999999999998863</v>
+      </c>
       <c r="O23" s="26">
-        <f t="shared" ref="O23:T23" si="3">O21-O22</f>
+        <f t="shared" si="5"/>
         <v>-90.000000000000028</v>
       </c>
       <c r="P23" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89.200000000000031</v>
       </c>
       <c r="Q23" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-45.699999999999946</v>
       </c>
       <c r="R23" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9999999999999432</v>
       </c>
       <c r="S23" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-30.700000000000003</v>
       </c>
       <c r="T23" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>74.099999999999966</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" s="2" customFormat="1">
+      <c r="AA23" s="26">
+        <f>AA21-AA22</f>
+        <v>-728.30000000000007</v>
+      </c>
+      <c r="AB23" s="26">
+        <f>AB21-AB22</f>
+        <v>-43.500000000000142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" s="2" customFormat="1">
       <c r="B24" s="29" t="s">
         <v>72</v>
       </c>
       <c r="M24" s="26">
         <v>-121.2</v>
       </c>
+      <c r="N24" s="26">
+        <v>-3.3</v>
+      </c>
       <c r="O24" s="2">
         <v>-89.7</v>
       </c>
@@ -3162,14 +3404,23 @@
       <c r="T24" s="26">
         <v>74.2</v>
       </c>
-    </row>
-    <row r="25" spans="2:20">
+      <c r="AA24" s="26">
+        <v>-731.9</v>
+      </c>
+      <c r="AB24" s="26">
+        <v>-44.7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28">
       <c r="B25" s="30" t="s">
         <v>73</v>
       </c>
       <c r="M25" s="27">
         <v>1.7</v>
       </c>
+      <c r="N25" s="27">
+        <v>-2.2000000000000002</v>
+      </c>
       <c r="O25" s="3">
         <v>-0.3</v>
       </c>
@@ -3188,8 +3439,14 @@
       <c r="T25" s="27">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="26" spans="2:20">
+      <c r="AA25" s="27">
+        <v>3.6</v>
+      </c>
+      <c r="AB25" s="27">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28">
       <c r="B26" s="3" t="s">
         <v>65</v>
       </c>
@@ -3197,38 +3454,53 @@
         <f>M24/M27</f>
         <v>-0.16462917685411571</v>
       </c>
+      <c r="N26" s="28">
+        <f t="shared" ref="N26:T26" si="6">N24/N27</f>
+        <v>-4.4824775876120618E-3</v>
+      </c>
       <c r="O26" s="28">
-        <f t="shared" ref="O26:T26" si="4">O24/O27</f>
+        <f t="shared" si="6"/>
         <v>-0.12204081632653062</v>
       </c>
       <c r="P26" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11962438758845946</v>
       </c>
       <c r="Q26" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.1241154055525319E-2</v>
       </c>
       <c r="R26" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8583095140873828E-3</v>
       </c>
       <c r="S26" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.3152736182956709E-2</v>
       </c>
       <c r="T26" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.10100735093928669</v>
       </c>
-    </row>
-    <row r="27" spans="2:20">
+      <c r="AA26" s="28">
+        <f t="shared" ref="AA26:AB26" si="7">AA24/AA27</f>
+        <v>-0.99415919587068724</v>
+      </c>
+      <c r="AB26" s="28">
+        <f t="shared" si="7"/>
+        <v>-6.0841159657002861E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28">
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M27" s="3">
         <v>736.2</v>
       </c>
+      <c r="N27" s="3">
+        <v>736.2</v>
+      </c>
       <c r="O27" s="27">
         <v>735</v>
       </c>
@@ -3247,8 +3519,14 @@
       <c r="T27" s="3">
         <v>734.6</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" s="2" customFormat="1">
+      <c r="AA27" s="3">
+        <v>736.2</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>734.7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" s="2" customFormat="1">
       <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
@@ -3256,7 +3534,10 @@
         <f>Q9/M9-1</f>
         <v>0.26281797812046914</v>
       </c>
-      <c r="R30" s="34"/>
+      <c r="R30" s="34">
+        <f>R9/N9-1</f>
+        <v>-0.29330943847072888</v>
+      </c>
       <c r="S30" s="34">
         <f>S9/O9-1</f>
         <v>-0.25566703827573389</v>
@@ -3265,21 +3546,33 @@
         <f>T9/P9-1</f>
         <v>-9.8717381689517936E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" s="25" customFormat="1">
+      <c r="AB30" s="34">
+        <f>AB9/AA9-1</f>
+        <v>0.11299090451062033</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" s="25" customFormat="1">
       <c r="B31" s="25" t="s">
         <v>67</v>
+      </c>
+      <c r="N31" s="25">
+        <f t="shared" ref="N31:P31" si="8">N9/M9-1</f>
+        <v>1.4270462633451957</v>
+      </c>
+      <c r="O31" s="25">
+        <f t="shared" si="8"/>
+        <v>-0.56158357771261003</v>
       </c>
       <c r="P31" s="25">
         <f>P9/O9-1</f>
         <v>0.40034683512944391</v>
       </c>
       <c r="Q31" s="25">
-        <f t="shared" ref="Q31:R31" si="5">Q9/P9-1</f>
+        <f t="shared" ref="Q31:R31" si="9">Q9/P9-1</f>
         <v>-0.15249889429455987</v>
       </c>
       <c r="R31" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.35820895522388052</v>
       </c>
       <c r="S31" s="25">
@@ -3291,7 +3584,7 @@
         <v>0.69562323181893837</v>
       </c>
     </row>
-    <row r="34" spans="2:20">
+    <row r="34" spans="2:28">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -3299,6 +3592,10 @@
         <f>M11/M9</f>
         <v>7.2228812442335658E-2</v>
       </c>
+      <c r="N34" s="25">
+        <f t="shared" ref="N34:O34" si="10">N11/N9</f>
+        <v>0.12077766916476598</v>
+      </c>
       <c r="O34" s="25">
         <f>O11/O9</f>
         <v>9.4636442462529391E-2</v>
@@ -3308,23 +3605,31 @@
         <v>0.18195488721804515</v>
       </c>
       <c r="Q34" s="25">
-        <f t="shared" ref="Q34:R34" si="6">Q11/Q9</f>
+        <f t="shared" ref="Q34:R34" si="11">Q11/Q9</f>
         <v>0.18964617472080164</v>
       </c>
       <c r="R34" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.1504649196956889</v>
       </c>
       <c r="S34" s="25">
-        <f t="shared" ref="S34" si="7">S11/S9</f>
+        <f t="shared" ref="S34" si="12">S11/S9</f>
         <v>0.20086536861374604</v>
       </c>
       <c r="T34" s="25">
         <f>T11/T9</f>
         <v>0.2289724212385906</v>
       </c>
-    </row>
-    <row r="35" spans="2:20">
+      <c r="AA34" s="25">
+        <f>AA11/AA9</f>
+        <v>0.12664739731112937</v>
+      </c>
+      <c r="AB34" s="25">
+        <f>AB11/AB9</f>
+        <v>0.15715238730582293</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28">
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
@@ -3332,6 +3637,10 @@
         <f>M18/M9</f>
         <v>-4.9690259654672372E-2</v>
       </c>
+      <c r="N35" s="25">
+        <f t="shared" ref="N35:O35" si="13">N18/N9</f>
+        <v>5.6261540132507927E-2</v>
+      </c>
       <c r="O35" s="25">
         <f>O18/O9</f>
         <v>-4.1000867087823641E-2</v>
@@ -3341,23 +3650,31 @@
         <v>0.12720035382574085</v>
       </c>
       <c r="Q35" s="25">
-        <f t="shared" ref="Q35:R35" si="8">Q18/Q9</f>
+        <f t="shared" ref="Q35:R35" si="14">Q18/Q9</f>
         <v>3.1311971610479127E-2</v>
       </c>
       <c r="R35" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4.6568815799584988E-2</v>
       </c>
       <c r="S35" s="25">
-        <f t="shared" ref="S35" si="9">S18/S9</f>
+        <f t="shared" ref="S35" si="15">S18/S9</f>
         <v>-6.0409385921118344E-2</v>
       </c>
       <c r="T35" s="25">
         <f>T18/T9</f>
         <v>6.5462753950338556E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:20">
+      <c r="AA35" s="25">
+        <f>AA18/AA9</f>
+        <v>-8.5757471294847662E-2</v>
+      </c>
+      <c r="AB35" s="25">
+        <f>AB18/AB9</f>
+        <v>4.7960545125321614E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28">
       <c r="B36" s="3" t="s">
         <v>70</v>
       </c>
@@ -3365,6 +3682,10 @@
         <f>M23/M9</f>
         <v>-0.15750626070910759</v>
       </c>
+      <c r="N36" s="25">
+        <f t="shared" ref="N36:O36" si="16">N23/N9</f>
+        <v>-2.9868578255674411E-3</v>
+      </c>
       <c r="O36" s="25">
         <f>O23/O9</f>
         <v>-0.11148272017837239</v>
@@ -3374,23 +3695,31 @@
         <v>7.8903140203449823E-2</v>
       </c>
       <c r="Q36" s="25">
-        <f t="shared" ref="Q36:R36" si="10">Q23/Q9</f>
+        <f t="shared" ref="Q36:R36" si="17">Q23/Q9</f>
         <v>-4.7698570086629734E-2</v>
       </c>
       <c r="R36" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>2.3053869207714925E-3</v>
       </c>
       <c r="S36" s="25">
-        <f t="shared" ref="S36" si="11">S23/S9</f>
+        <f t="shared" ref="S36" si="18">S23/S9</f>
         <v>-5.1090031619237815E-2</v>
       </c>
       <c r="T36" s="25">
         <f>T23/T9</f>
         <v>7.2725488271665487E-2</v>
       </c>
-    </row>
-    <row r="37" spans="2:20">
+      <c r="AA36" s="25">
+        <f>AA23/AA9</f>
+        <v>-0.1931266739147729</v>
+      </c>
+      <c r="AB36" s="25">
+        <f>AB23/AB9</f>
+        <v>-1.0364052225293087E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28">
       <c r="B37" s="3" t="s">
         <v>71</v>
       </c>
@@ -3398,6 +3727,10 @@
         <f>M22/M21</f>
         <v>0.19582772543741597</v>
       </c>
+      <c r="N37" s="25">
+        <f t="shared" ref="N37:O37" si="19">N22/N21</f>
+        <v>1.4824561403508625</v>
+      </c>
       <c r="O37" s="25">
         <f>O22/O21</f>
         <v>-1.2373453318335205E-2</v>
@@ -3407,1098 +3740,2484 @@
         <v>-6.6985645933014315E-2</v>
       </c>
       <c r="Q37" s="25">
-        <f t="shared" ref="Q37:R37" si="12">Q22/Q21</f>
+        <f t="shared" ref="Q37:R37" si="20">Q22/Q21</f>
         <v>-0.82800000000000162</v>
       </c>
       <c r="R37" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.94800693240901301</v>
       </c>
       <c r="S37" s="25">
-        <f t="shared" ref="S37" si="13">S22/S21</f>
+        <f t="shared" ref="S37" si="21">S22/S21</f>
         <v>0.62098765432098757</v>
       </c>
       <c r="T37" s="25">
         <f>T22/T21</f>
         <v>-0.49696969696969745</v>
       </c>
-    </row>
-    <row r="40" spans="2:20">
+      <c r="AA37" s="25">
+        <f>AA22/AA21</f>
+        <v>-0.14656801007556672</v>
+      </c>
+      <c r="AB37" s="25">
+        <f>AB22/AB21</f>
+        <v>2.5875912408759256</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28">
       <c r="B40" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="2:20" s="2" customFormat="1">
+    <row r="41" spans="2:28" s="2" customFormat="1">
       <c r="B41" s="29" t="s">
         <v>83</v>
       </c>
+      <c r="N41" s="2">
+        <f>O42+O48</f>
+        <v>0</v>
+      </c>
       <c r="P41" s="2">
-        <f t="shared" ref="P41:S41" si="14">P42+P47</f>
+        <f t="shared" ref="O41:S41" si="22">P42+P48</f>
         <v>34</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
+      <c r="R41" s="2">
+        <f t="shared" si="22"/>
+        <v>55</v>
+      </c>
       <c r="S41" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>26</v>
       </c>
       <c r="T41" s="2">
-        <f>T42+T47</f>
+        <f>T42+T48</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" s="40" customFormat="1">
+      <c r="AA41" s="2">
+        <f>AA42+AA48</f>
+        <v>129</v>
+      </c>
+      <c r="AB41" s="2">
+        <f>AB42+AB48</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" s="40" customFormat="1">
       <c r="B42" s="49" t="s">
         <v>84</v>
       </c>
+      <c r="N42" s="40">
+        <f>N43+N45+N46</f>
+        <v>28</v>
+      </c>
       <c r="P42" s="40">
-        <f>P43+P44+P45</f>
+        <f>P43+P45+P46</f>
         <v>14</v>
       </c>
       <c r="Q42" s="40">
-        <f>Q43+Q44+Q45</f>
+        <f>Q43+Q45+Q46</f>
         <v>9</v>
       </c>
+      <c r="R42" s="40">
+        <f>R43+R45+R46</f>
+        <v>16</v>
+      </c>
       <c r="S42" s="40">
-        <f t="shared" ref="S42:T42" si="15">S43+S44+S45</f>
+        <f t="shared" ref="S42:T42" si="23">S43+S45+S46</f>
         <v>6</v>
       </c>
       <c r="T42" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" s="39" customFormat="1">
+      <c r="AA42" s="40">
+        <f t="shared" ref="AA42:AB42" si="24">AA43+AA45+AA46</f>
+        <v>43</v>
+      </c>
+      <c r="AB42" s="40">
+        <f t="shared" si="24"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" s="39" customFormat="1">
       <c r="B43" s="48" t="s">
         <v>85</v>
       </c>
+      <c r="N43" s="39">
+        <v>21</v>
+      </c>
       <c r="P43" s="39">
         <v>7</v>
       </c>
       <c r="Q43" s="39">
         <v>6</v>
       </c>
+      <c r="R43" s="39">
+        <v>12</v>
+      </c>
       <c r="S43" s="39">
         <v>4</v>
       </c>
       <c r="T43" s="39">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" s="39" customFormat="1">
+      <c r="AA43" s="39">
+        <v>32</v>
+      </c>
+      <c r="AB43" s="39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" s="39" customFormat="1">
       <c r="B44" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA44" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" s="39" customFormat="1">
+      <c r="B45" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="P44" s="39">
+      <c r="N45" s="39">
+        <v>1</v>
+      </c>
+      <c r="P45" s="39">
         <v>0</v>
       </c>
-      <c r="Q44" s="39">
+      <c r="Q45" s="39">
         <v>0</v>
       </c>
-      <c r="S44" s="39">
+      <c r="R45" s="39">
         <v>0</v>
       </c>
-      <c r="T44" s="39">
+      <c r="S45" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" s="39" customFormat="1">
-      <c r="B45" s="48" t="s">
+      <c r="T45" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="39">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" s="39" customFormat="1">
+      <c r="B46" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="P45" s="39">
+      <c r="N46" s="39">
+        <v>6</v>
+      </c>
+      <c r="P46" s="39">
         <v>7</v>
       </c>
-      <c r="Q45" s="39">
+      <c r="Q46" s="39">
         <v>3</v>
       </c>
-      <c r="S45" s="39">
+      <c r="R46" s="39">
+        <v>4</v>
+      </c>
+      <c r="S46" s="39">
         <v>2</v>
       </c>
-      <c r="T45" s="39">
+      <c r="T46" s="39">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" s="39" customFormat="1">
-      <c r="B46" s="48"/>
-    </row>
-    <row r="47" spans="2:20" s="40" customFormat="1">
-      <c r="B47" s="49" t="s">
+      <c r="AA46" s="39">
+        <v>7</v>
+      </c>
+      <c r="AB46" s="39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" s="39" customFormat="1">
+      <c r="B47" s="48"/>
+    </row>
+    <row r="48" spans="2:28" s="40" customFormat="1">
+      <c r="B48" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="P47" s="40">
-        <f>P48+P49+P50</f>
+      <c r="N48" s="40">
+        <f>N49+N50+N51</f>
+        <v>43</v>
+      </c>
+      <c r="P48" s="40">
+        <f>P49+P50+P51</f>
         <v>20</v>
       </c>
-      <c r="Q47" s="40">
-        <f>Q48+Q49+Q50</f>
+      <c r="Q48" s="40">
+        <f>Q49+Q50+Q51</f>
         <v>21</v>
       </c>
-      <c r="S47" s="40">
-        <f>S48+S49+S50</f>
+      <c r="R48" s="40">
+        <f>R49+R50+R51</f>
+        <v>39</v>
+      </c>
+      <c r="S48" s="40">
+        <f>S49+S50+S51</f>
         <v>20</v>
       </c>
-      <c r="T47" s="40">
-        <f>T48+T49+T50</f>
+      <c r="T48" s="40">
+        <f>T49+T50+T51</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" s="39" customFormat="1">
-      <c r="B48" s="48" t="s">
+      <c r="AA48" s="40">
+        <f>AA49+AA50+AA51</f>
+        <v>86</v>
+      </c>
+      <c r="AB48" s="40">
+        <f>AB49+AB50+AB51</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" s="39" customFormat="1">
+      <c r="B49" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="P48" s="39">
+      <c r="N49" s="39">
+        <v>23</v>
+      </c>
+      <c r="P49" s="39">
         <v>12</v>
       </c>
-      <c r="Q48" s="39">
+      <c r="Q49" s="39">
         <v>14</v>
       </c>
-      <c r="S48" s="39">
+      <c r="R49" s="39">
+        <v>26</v>
+      </c>
+      <c r="S49" s="39">
         <v>12</v>
       </c>
-      <c r="T48" s="39">
+      <c r="T49" s="39">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="2:20" s="39" customFormat="1">
-      <c r="B49" s="48" t="s">
+      <c r="AA49" s="39">
+        <v>56</v>
+      </c>
+      <c r="AB49" s="39">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" s="39" customFormat="1">
+      <c r="B50" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="P49" s="39">
+      <c r="N50" s="39">
+        <v>20</v>
+      </c>
+      <c r="P50" s="39">
         <v>8</v>
       </c>
-      <c r="Q49" s="39">
+      <c r="Q50" s="39">
         <v>0</v>
       </c>
-      <c r="S49" s="39">
+      <c r="R50" s="39">
+        <v>13</v>
+      </c>
+      <c r="S50" s="39">
         <v>8</v>
       </c>
-      <c r="T49" s="39">
+      <c r="T50" s="39">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="2:20" s="39" customFormat="1">
-      <c r="B50" s="48" t="s">
+      <c r="AA50" s="39">
+        <v>30</v>
+      </c>
+      <c r="AB50" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" s="39" customFormat="1">
+      <c r="B51" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="P50" s="39">
+      <c r="N51" s="39">
         <v>0</v>
       </c>
-      <c r="Q50" s="39">
+      <c r="P51" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="39">
         <v>7</v>
       </c>
-      <c r="S50" s="39">
+      <c r="R51" s="39">
         <v>0</v>
       </c>
-      <c r="T50" s="39">
+      <c r="S51" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:20">
-      <c r="B52" s="33" t="s">
+      <c r="T51" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28">
+      <c r="B53" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="2:20" s="2" customFormat="1">
-      <c r="B53" s="2" t="s">
+    <row r="54" spans="2:28" s="2" customFormat="1">
+      <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="26">
+      <c r="N54" s="26">
+        <v>1883.1</v>
+      </c>
+      <c r="P54" s="26">
+        <v>1351.2</v>
+      </c>
+      <c r="Q54" s="26">
+        <v>1596.8</v>
+      </c>
+      <c r="R54" s="26">
+        <v>1818.3</v>
+      </c>
+      <c r="S54" s="26">
         <v>1129.8</v>
       </c>
-      <c r="T53" s="26">
+      <c r="T54" s="26">
         <v>1041.3</v>
       </c>
-    </row>
-    <row r="54" spans="2:20" s="2" customFormat="1">
-      <c r="B54" s="2" t="s">
+      <c r="AA54" s="26">
+        <f>N54</f>
+        <v>1883.1</v>
+      </c>
+      <c r="AB54" s="26">
+        <f>R54</f>
+        <v>1818.3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" s="2" customFormat="1">
+      <c r="B55" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P54" s="26"/>
-      <c r="R54" s="26"/>
-      <c r="S54" s="26">
+      <c r="N55" s="26">
+        <v>817.5</v>
+      </c>
+      <c r="P55" s="26">
+        <v>1092.8</v>
+      </c>
+      <c r="Q55" s="26">
+        <v>855.3</v>
+      </c>
+      <c r="R55" s="26">
+        <v>750.8</v>
+      </c>
+      <c r="S55" s="26">
         <v>802.9</v>
       </c>
-      <c r="T54" s="26">
+      <c r="T55" s="26">
         <v>753.8</v>
       </c>
-    </row>
-    <row r="55" spans="2:20">
-      <c r="B55" s="3" t="s">
+      <c r="AA55" s="26">
+        <f>N55</f>
+        <v>817.5</v>
+      </c>
+      <c r="AB55" s="26">
+        <f>R55</f>
+        <v>750.8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28">
+      <c r="B56" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27">
+      <c r="N56" s="27">
+        <v>203.4</v>
+      </c>
+      <c r="P56" s="27">
+        <v>198.8</v>
+      </c>
+      <c r="Q56" s="27">
+        <v>203.1</v>
+      </c>
+      <c r="R56" s="27">
+        <v>189</v>
+      </c>
+      <c r="S56" s="27">
         <v>197</v>
       </c>
-      <c r="T55" s="27">
+      <c r="T56" s="27">
         <v>240.4</v>
       </c>
-    </row>
-    <row r="56" spans="2:20">
-      <c r="B56" s="3" t="s">
+      <c r="AA56" s="27">
+        <f t="shared" ref="AA56:AA59" si="25">N56</f>
+        <v>203.4</v>
+      </c>
+      <c r="AB56" s="27">
+        <f>R56</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28">
+      <c r="B57" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="P56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27">
+      <c r="N57" s="27">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P57" s="27">
+        <v>4.3</v>
+      </c>
+      <c r="Q57" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="R57" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="S57" s="27">
         <v>9.6999999999999993</v>
       </c>
-      <c r="T56" s="27">
+      <c r="T57" s="27">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="57" spans="2:20">
-      <c r="B57" s="3" t="s">
+      <c r="AA57" s="27">
+        <f t="shared" si="25"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AB57" s="27">
+        <f t="shared" ref="AB57:AB77" si="26">R57</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28">
+      <c r="B58" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27">
+      <c r="N58" s="27">
+        <v>8.5</v>
+      </c>
+      <c r="P58" s="27">
+        <v>7.4</v>
+      </c>
+      <c r="Q58" s="27">
+        <v>7.9</v>
+      </c>
+      <c r="R58" s="27">
+        <v>9.6</v>
+      </c>
+      <c r="S58" s="27">
         <v>9.8000000000000007</v>
       </c>
-      <c r="T57" s="27">
+      <c r="T58" s="27">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="58" spans="2:20">
-      <c r="B58" s="3" t="s">
+      <c r="AA58" s="27">
+        <f t="shared" si="25"/>
+        <v>8.5</v>
+      </c>
+      <c r="AB58" s="27">
+        <f t="shared" si="26"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28">
+      <c r="B59" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27">
+      <c r="N59" s="27">
+        <v>461.8</v>
+      </c>
+      <c r="P59" s="27">
+        <v>630.70000000000005</v>
+      </c>
+      <c r="Q59" s="27">
+        <v>618.79999999999995</v>
+      </c>
+      <c r="R59" s="27">
+        <v>582.29999999999995</v>
+      </c>
+      <c r="S59" s="27">
         <v>615.5</v>
       </c>
-      <c r="T58" s="27">
+      <c r="T59" s="27">
         <v>620</v>
       </c>
-    </row>
-    <row r="59" spans="2:20" s="2" customFormat="1">
-      <c r="B59" s="2" t="s">
+      <c r="AA59" s="27">
+        <f t="shared" si="25"/>
+        <v>461.8</v>
+      </c>
+      <c r="AB59" s="27">
+        <f t="shared" si="26"/>
+        <v>582.29999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" s="2" customFormat="1">
+      <c r="B60" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26">
+      <c r="N60" s="26">
+        <v>2437.9</v>
+      </c>
+      <c r="P60" s="26">
+        <v>2315</v>
+      </c>
+      <c r="Q60" s="26">
+        <v>2305</v>
+      </c>
+      <c r="R60" s="26">
+        <v>1986</v>
+      </c>
+      <c r="S60" s="26">
         <v>2222.8000000000002</v>
       </c>
-      <c r="T59" s="26">
+      <c r="T60" s="26">
         <v>2392.9</v>
       </c>
-    </row>
-    <row r="60" spans="2:20">
-      <c r="B60" s="3" t="s">
+      <c r="AA60" s="26">
+        <f>N60</f>
+        <v>2437.9</v>
+      </c>
+      <c r="AB60" s="26">
+        <f>R60</f>
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28">
+      <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="27">
+      <c r="N61" s="27">
+        <v>114.1</v>
+      </c>
+      <c r="P61" s="27">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="Q61" s="27">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="R61" s="27">
+        <v>114.5</v>
+      </c>
+      <c r="S61" s="27">
         <v>105</v>
       </c>
-      <c r="T60" s="27">
+      <c r="T61" s="27">
         <v>101.9</v>
       </c>
-    </row>
-    <row r="61" spans="2:20">
-      <c r="B61" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="27">
-        <v>217</v>
-      </c>
-      <c r="T61" s="27">
-        <v>209.3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:20">
+      <c r="AA61" s="27">
+        <f t="shared" ref="AA61:AA64" si="27">N61</f>
+        <v>114.1</v>
+      </c>
+      <c r="AB61" s="27">
+        <f t="shared" si="26"/>
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28">
       <c r="B62" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
+        <v>185</v>
+      </c>
+      <c r="N62" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="P62" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="Q62" s="27">
+        <v>101.9</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0.6</v>
+      </c>
       <c r="S62" s="27">
-        <v>227.1</v>
+        <v>0</v>
       </c>
       <c r="T62" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:20">
+      <c r="AA62" s="27">
+        <f t="shared" si="27"/>
+        <v>0.2</v>
+      </c>
+      <c r="AB62" s="27">
+        <f t="shared" si="26"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28">
       <c r="B63" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N63" s="27">
+        <v>180.9</v>
+      </c>
+      <c r="P63" s="27">
+        <v>194.2</v>
+      </c>
+      <c r="Q63" s="27">
+        <v>202.3</v>
+      </c>
+      <c r="R63" s="3">
+        <v>193.7</v>
+      </c>
+      <c r="S63" s="27">
+        <v>217</v>
+      </c>
+      <c r="T63" s="27">
+        <v>209.3</v>
+      </c>
+      <c r="AA63" s="27">
+        <f t="shared" si="27"/>
+        <v>180.9</v>
+      </c>
+      <c r="AB63" s="27">
+        <f t="shared" si="26"/>
+        <v>193.7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28">
+      <c r="B64" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N64" s="27">
+        <v>0</v>
+      </c>
+      <c r="P64" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="27">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>230.9</v>
+      </c>
+      <c r="S64" s="27">
+        <v>227.1</v>
+      </c>
+      <c r="T64" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="27">
+        <f t="shared" si="26"/>
+        <v>230.9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28">
+      <c r="B65" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="27">
-        <f>SUM(S53:S62)</f>
+      <c r="N65" s="27">
+        <f>SUM(N54:N64)</f>
+        <v>6115.7</v>
+      </c>
+      <c r="P65" s="27">
+        <f>SUM(P54:P64)</f>
+        <v>5929.3</v>
+      </c>
+      <c r="Q65" s="27">
+        <f>SUM(Q54:Q64)</f>
+        <v>6019.7999999999993</v>
+      </c>
+      <c r="R65" s="27">
+        <f>SUM(R54:R64)</f>
+        <v>5875.7999999999993</v>
+      </c>
+      <c r="S65" s="27">
+        <f>SUM(S54:S64)</f>
         <v>5536.6</v>
       </c>
-      <c r="T63" s="27">
-        <f>SUM(T53:T62)</f>
+      <c r="T65" s="27">
+        <f>SUM(T54:T64)</f>
         <v>5367.9000000000005</v>
       </c>
-    </row>
-    <row r="64" spans="2:20" s="2" customFormat="1">
-      <c r="B64" s="2" t="s">
+      <c r="AA65" s="27">
+        <f>SUM(AA54:AA64)</f>
+        <v>6115.7</v>
+      </c>
+      <c r="AB65" s="27">
+        <f>SUM(AB54:AB64)</f>
+        <v>5875.7999999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" s="2" customFormat="1">
+      <c r="B66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="26">
+      <c r="N66" s="26">
+        <v>51.7</v>
+      </c>
+      <c r="P66" s="26">
+        <v>47.3</v>
+      </c>
+      <c r="Q66" s="26">
+        <v>51.6</v>
+      </c>
+      <c r="R66" s="26">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="S66" s="26">
         <v>169.9</v>
       </c>
-      <c r="T64" s="26">
+      <c r="T66" s="26">
         <v>169.9</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" s="2" customFormat="1">
-      <c r="B65" s="3" t="s">
+      <c r="AA66" s="26">
+        <f>N66</f>
+        <v>51.7</v>
+      </c>
+      <c r="AB66" s="26">
+        <f>R66</f>
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28">
+      <c r="B67" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="26">
+      <c r="N67" s="27">
+        <v>0</v>
+      </c>
+      <c r="P67" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Q67" s="27">
+        <v>0</v>
+      </c>
+      <c r="R67" s="27">
+        <v>0</v>
+      </c>
+      <c r="S67" s="27">
         <v>1.6</v>
       </c>
-      <c r="T65" s="26">
+      <c r="T67" s="27">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="66" spans="2:20">
-      <c r="B66" s="3" t="s">
+      <c r="AA67" s="27">
+        <f t="shared" ref="AA67:AA77" si="28">N67</f>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="27">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28" s="2" customFormat="1">
+      <c r="B68" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="27">
+      <c r="N68" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="P68" s="26">
+        <v>23</v>
+      </c>
+      <c r="Q68" s="26">
+        <v>0</v>
+      </c>
+      <c r="R68" s="26">
+        <v>0</v>
+      </c>
+      <c r="S68" s="26">
         <v>1.6</v>
       </c>
-      <c r="T66" s="27">
+      <c r="T68" s="26">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="67" spans="2:20">
-      <c r="B67" s="3" t="s">
+      <c r="AA68" s="26">
+        <f>N68</f>
+        <v>1.3</v>
+      </c>
+      <c r="AB68" s="26">
+        <f>R68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28">
+      <c r="B69" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N69" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="R69" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="S69" s="27"/>
+      <c r="T69" s="27"/>
+      <c r="AA69" s="27">
+        <f t="shared" si="28"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB69" s="27">
+        <f t="shared" si="26"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28">
+      <c r="B70" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="27"/>
-      <c r="S67" s="27">
+      <c r="N70" s="27">
+        <v>21.4</v>
+      </c>
+      <c r="P70" s="27">
+        <v>42.1</v>
+      </c>
+      <c r="Q70" s="27">
+        <v>25.4</v>
+      </c>
+      <c r="R70" s="27">
+        <v>22.4</v>
+      </c>
+      <c r="S70" s="27">
         <v>23.4</v>
       </c>
-      <c r="T67" s="27">
+      <c r="T70" s="27">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="68" spans="2:20">
-      <c r="B68" s="3" t="s">
+      <c r="AA70" s="27">
+        <f t="shared" si="28"/>
+        <v>21.4</v>
+      </c>
+      <c r="AB70" s="27">
+        <f t="shared" si="26"/>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28">
+      <c r="B71" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="27">
+      <c r="N71" s="27">
         <v>0</v>
       </c>
-      <c r="T68" s="27">
+      <c r="P71" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="27">
+        <v>0</v>
+      </c>
+      <c r="R71" s="27">
+        <v>0</v>
+      </c>
+      <c r="S71" s="27">
+        <v>0</v>
+      </c>
+      <c r="T71" s="27">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="69" spans="2:20">
-      <c r="B69" s="3" t="s">
+      <c r="AA71" s="27">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AB71" s="27">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28">
+      <c r="B72" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Q69" s="27"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="27">
+      <c r="N72" s="27">
+        <v>104.6</v>
+      </c>
+      <c r="P72" s="27">
+        <v>99.9</v>
+      </c>
+      <c r="Q72" s="27">
+        <v>77</v>
+      </c>
+      <c r="R72" s="27">
+        <v>97.6</v>
+      </c>
+      <c r="S72" s="27">
         <v>22.8</v>
       </c>
-      <c r="T69" s="27">
+      <c r="T72" s="27">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="70" spans="2:20">
-      <c r="B70" s="3" t="s">
+      <c r="AA72" s="27">
+        <f t="shared" si="28"/>
+        <v>104.6</v>
+      </c>
+      <c r="AB72" s="27">
+        <f t="shared" si="26"/>
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28">
+      <c r="B73" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="27"/>
-      <c r="Q70" s="27"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="27">
+      <c r="N73" s="27">
+        <v>120.7</v>
+      </c>
+      <c r="P73" s="27">
+        <v>126.9</v>
+      </c>
+      <c r="Q73" s="27">
+        <v>121.2</v>
+      </c>
+      <c r="R73" s="27">
+        <v>125.6</v>
+      </c>
+      <c r="S73" s="27">
         <v>142.9</v>
       </c>
-      <c r="T70" s="27">
+      <c r="T73" s="27">
         <v>165</v>
       </c>
-    </row>
-    <row r="71" spans="2:20">
-      <c r="B71" s="3" t="s">
+      <c r="AA73" s="27">
+        <f t="shared" si="28"/>
+        <v>120.7</v>
+      </c>
+      <c r="AB73" s="27">
+        <f t="shared" si="26"/>
+        <v>125.6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28">
+      <c r="B74" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="27">
+      <c r="N74" s="27">
+        <v>5.2</v>
+      </c>
+      <c r="P74" s="27">
+        <v>6.1</v>
+      </c>
+      <c r="Q74" s="27">
+        <v>6.6</v>
+      </c>
+      <c r="R74" s="27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S74" s="27">
         <v>6.9</v>
       </c>
-      <c r="T71" s="27">
+      <c r="T74" s="27">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="72" spans="2:20">
-      <c r="B72" s="3" t="s">
+      <c r="AA74" s="27">
+        <f t="shared" si="28"/>
+        <v>5.2</v>
+      </c>
+      <c r="AB74" s="27">
+        <f t="shared" si="26"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28">
+      <c r="B75" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="27">
+      <c r="N75" s="27">
+        <v>1956</v>
+      </c>
+      <c r="P75" s="27">
+        <v>1913.1</v>
+      </c>
+      <c r="Q75" s="27">
+        <v>1902</v>
+      </c>
+      <c r="R75" s="27">
+        <v>1687.6</v>
+      </c>
+      <c r="S75" s="27">
         <v>1679.3</v>
       </c>
-      <c r="T72" s="27">
+      <c r="T75" s="27">
         <v>1652.5</v>
       </c>
-    </row>
-    <row r="73" spans="2:20">
-      <c r="B73" s="3" t="s">
+      <c r="AA75" s="27">
+        <f t="shared" si="28"/>
+        <v>1956</v>
+      </c>
+      <c r="AB75" s="27">
+        <f t="shared" si="26"/>
+        <v>1687.6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28">
+      <c r="B76" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="27"/>
-      <c r="R73" s="27"/>
-      <c r="S73" s="27">
+      <c r="N76" s="27">
+        <v>2075.6</v>
+      </c>
+      <c r="P76" s="27">
+        <v>2097.6999999999998</v>
+      </c>
+      <c r="Q76" s="27">
+        <v>2115.9</v>
+      </c>
+      <c r="R76" s="27">
+        <v>2213.4</v>
+      </c>
+      <c r="S76" s="27">
         <v>2227.5</v>
       </c>
-      <c r="T73" s="27">
+      <c r="T76" s="27">
         <v>2231.3000000000002</v>
       </c>
-    </row>
-    <row r="74" spans="2:20">
-      <c r="B74" s="3" t="s">
+      <c r="AA76" s="27">
+        <f t="shared" si="28"/>
+        <v>2075.6</v>
+      </c>
+      <c r="AB76" s="27">
+        <f t="shared" si="26"/>
+        <v>2213.4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28">
+      <c r="B77" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P74" s="27"/>
-      <c r="Q74" s="27"/>
-      <c r="R74" s="27"/>
-      <c r="S74" s="27">
+      <c r="N77" s="27">
+        <v>62.3</v>
+      </c>
+      <c r="P77" s="27">
+        <v>55.8</v>
+      </c>
+      <c r="Q77" s="27">
+        <v>60.8</v>
+      </c>
+      <c r="R77" s="27">
+        <v>60.2</v>
+      </c>
+      <c r="S77" s="27">
         <v>55.9</v>
       </c>
-      <c r="T74" s="27">
+      <c r="T77" s="27">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="75" spans="2:20">
-      <c r="B75" s="3" t="s">
+      <c r="AA77" s="27">
+        <f>N77</f>
+        <v>62.3</v>
+      </c>
+      <c r="AB77" s="27">
+        <f t="shared" si="26"/>
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:28">
+      <c r="B78" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P75" s="27"/>
-      <c r="Q75" s="27"/>
-      <c r="R75" s="27"/>
-      <c r="S75" s="27">
-        <f>SUM(S64:S74)+S63</f>
+      <c r="N78" s="27">
+        <f>SUM(N66:N77)+N65</f>
+        <v>10516</v>
+      </c>
+      <c r="P78" s="27">
+        <f>SUM(P66:P77)+P65</f>
+        <v>10341.299999999999</v>
+      </c>
+      <c r="Q78" s="27">
+        <f>SUM(Q66:Q77)+Q65</f>
+        <v>10382.700000000001</v>
+      </c>
+      <c r="R78" s="27">
+        <f>SUM(R66:R77)+R65</f>
+        <v>10155</v>
+      </c>
+      <c r="S78" s="27">
+        <f>SUM(S66:S77)+S65</f>
         <v>9868.4</v>
       </c>
-      <c r="T75" s="27">
-        <f>SUM(T64:T74)+T63</f>
+      <c r="T78" s="27">
+        <f>SUM(T66:T77)+T65</f>
         <v>9698.7999999999993</v>
       </c>
-    </row>
-    <row r="76" spans="2:20">
-      <c r="P76" s="27"/>
-      <c r="Q76" s="27"/>
-      <c r="R76" s="27"/>
-      <c r="S76" s="27"/>
-      <c r="T76" s="27"/>
-    </row>
-    <row r="77" spans="2:20">
-      <c r="B77" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="27">
-        <v>562.70000000000005</v>
-      </c>
-      <c r="T77" s="27">
-        <v>727.4</v>
-      </c>
-    </row>
-    <row r="78" spans="2:20">
-      <c r="B78" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="27"/>
-      <c r="R78" s="27"/>
-      <c r="S78" s="27">
-        <v>14.1</v>
-      </c>
-      <c r="T78" s="27">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="79" spans="2:20">
-      <c r="B79" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="AA78" s="27">
+        <f>SUM(AA66:AA77)+AA65</f>
+        <v>10516</v>
+      </c>
+      <c r="AB78" s="27">
+        <f>SUM(AB66:AB77)+AB65</f>
+        <v>10155</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28">
       <c r="P79" s="27"/>
       <c r="Q79" s="27"/>
       <c r="R79" s="27"/>
-      <c r="S79" s="27">
+      <c r="S79" s="27"/>
+      <c r="T79" s="27"/>
+    </row>
+    <row r="80" spans="2:28">
+      <c r="B80" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N80" s="27">
+        <v>502.3</v>
+      </c>
+      <c r="P80" s="27">
+        <v>515.4</v>
+      </c>
+      <c r="Q80" s="27">
+        <v>548.79999999999995</v>
+      </c>
+      <c r="R80" s="27">
+        <v>495.2</v>
+      </c>
+      <c r="S80" s="27">
+        <v>562.70000000000005</v>
+      </c>
+      <c r="T80" s="27">
+        <v>727.4</v>
+      </c>
+      <c r="AA80" s="27">
+        <f>N80</f>
+        <v>502.3</v>
+      </c>
+      <c r="AB80" s="27">
+        <f>R80</f>
+        <v>495.2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:28">
+      <c r="B81" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N81" s="27">
+        <v>0</v>
+      </c>
+      <c r="P81" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q81" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="R81" s="27">
+        <v>14.8</v>
+      </c>
+      <c r="S81" s="27">
+        <v>14.1</v>
+      </c>
+      <c r="T81" s="27">
+        <v>12.3</v>
+      </c>
+      <c r="AA81" s="27">
+        <f t="shared" ref="AA81:AA93" si="29">N81</f>
+        <v>0</v>
+      </c>
+      <c r="AB81" s="27">
+        <f t="shared" ref="AB81:AB93" si="30">R81</f>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:28">
+      <c r="B82" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N82" s="27">
+        <v>11.4</v>
+      </c>
+      <c r="P82" s="27">
+        <v>10.8</v>
+      </c>
+      <c r="Q82" s="27">
+        <v>11.2</v>
+      </c>
+      <c r="R82" s="27">
+        <v>11.5</v>
+      </c>
+      <c r="S82" s="27">
         <v>11</v>
       </c>
-      <c r="T79" s="27">
+      <c r="T82" s="27">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="80" spans="2:20" s="2" customFormat="1">
-      <c r="B80" s="2" t="s">
+      <c r="AA82" s="27">
+        <f t="shared" si="29"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB82" s="27">
+        <f t="shared" si="30"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:28" s="2" customFormat="1">
+      <c r="B83" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P80" s="26"/>
-      <c r="Q80" s="26"/>
-      <c r="R80" s="26"/>
-      <c r="S80" s="26">
+      <c r="N83" s="26">
+        <v>375.5</v>
+      </c>
+      <c r="P83" s="26">
+        <v>808.6</v>
+      </c>
+      <c r="Q83" s="26">
+        <v>783.8</v>
+      </c>
+      <c r="R83" s="26">
+        <v>574.20000000000005</v>
+      </c>
+      <c r="S83" s="26">
         <v>326.8</v>
       </c>
-      <c r="T80" s="26">
+      <c r="T83" s="26">
         <v>70.2</v>
       </c>
-    </row>
-    <row r="81" spans="2:20">
-      <c r="B81" s="3" t="s">
+      <c r="AA83" s="26">
+        <f>N83</f>
+        <v>375.5</v>
+      </c>
+      <c r="AB83" s="26">
+        <f>R83</f>
+        <v>574.20000000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="2:28">
+      <c r="B84" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
-      <c r="R81" s="27"/>
-      <c r="S81" s="27">
+      <c r="N84" s="27">
+        <v>249.9</v>
+      </c>
+      <c r="P84" s="27">
+        <v>251.8</v>
+      </c>
+      <c r="Q84" s="27">
+        <v>283.89999999999998</v>
+      </c>
+      <c r="R84" s="27">
+        <v>241.3</v>
+      </c>
+      <c r="S84" s="27">
         <v>263.3</v>
       </c>
-      <c r="T81" s="27">
+      <c r="T84" s="27">
         <v>258.8</v>
       </c>
-    </row>
-    <row r="82" spans="2:20">
-      <c r="B82" s="3" t="s">
+      <c r="AA84" s="27">
+        <f t="shared" si="29"/>
+        <v>249.9</v>
+      </c>
+      <c r="AB84" s="27">
+        <f t="shared" si="30"/>
+        <v>241.3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:28">
+      <c r="B85" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="27">
+      <c r="N85" s="27">
+        <v>1033</v>
+      </c>
+      <c r="P85" s="27">
+        <v>991.7</v>
+      </c>
+      <c r="Q85" s="27">
+        <v>1041.4000000000001</v>
+      </c>
+      <c r="R85" s="27">
+        <v>1204.5999999999999</v>
+      </c>
+      <c r="S85" s="27">
         <v>1301.8</v>
       </c>
-      <c r="T82" s="27">
+      <c r="T85" s="27">
         <v>1317.8</v>
       </c>
-    </row>
-    <row r="83" spans="2:20" s="2" customFormat="1">
-      <c r="B83" s="2" t="s">
+      <c r="AA85" s="27">
+        <f t="shared" si="29"/>
+        <v>1033</v>
+      </c>
+      <c r="AB85" s="27">
+        <f t="shared" si="30"/>
+        <v>1204.5999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:28" s="2" customFormat="1">
+      <c r="B86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="26">
+      <c r="N86" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="P86" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q86" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="R86" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="S86" s="26">
         <v>3.2</v>
       </c>
-      <c r="T83" s="26">
+      <c r="T86" s="26">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="2:20">
-      <c r="B84" s="3" t="s">
+      <c r="AA86" s="26">
+        <f>N86</f>
+        <v>1.2</v>
+      </c>
+      <c r="AB86" s="26">
+        <f>R86</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:28">
+      <c r="B87" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="27">
+      <c r="N87" s="27">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="P87" s="27">
+        <v>44.3</v>
+      </c>
+      <c r="Q87" s="27">
         <v>38</v>
       </c>
-      <c r="T84" s="27">
+      <c r="R87" s="27">
+        <v>40.4</v>
+      </c>
+      <c r="S87" s="27">
+        <v>38</v>
+      </c>
+      <c r="T87" s="27">
         <v>37.1</v>
       </c>
-    </row>
-    <row r="85" spans="2:20">
-      <c r="B85" s="3" t="s">
+      <c r="AA87" s="27">
+        <f t="shared" si="29"/>
+        <v>71.900000000000006</v>
+      </c>
+      <c r="AB87" s="27">
+        <f t="shared" si="30"/>
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:28">
+      <c r="B88" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="P85" s="27"/>
-      <c r="Q85" s="27"/>
-      <c r="R85" s="27"/>
-      <c r="S85" s="27">
+      <c r="N88" s="27">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="P88" s="27">
+        <v>73.5</v>
+      </c>
+      <c r="Q88" s="27">
+        <v>85.3</v>
+      </c>
+      <c r="R88" s="27">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="S88" s="27">
         <v>71.400000000000006</v>
       </c>
-      <c r="T85" s="27">
+      <c r="T88" s="27">
         <v>79.8</v>
       </c>
-    </row>
-    <row r="86" spans="2:20">
-      <c r="B86" s="3" t="s">
+      <c r="AA88" s="27">
+        <f t="shared" si="29"/>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AB88" s="27">
+        <f t="shared" si="30"/>
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="89" spans="2:28">
+      <c r="B89" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N89" s="27">
+        <v>42.6</v>
+      </c>
+      <c r="P89" s="27">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="Q89" s="27">
+        <v>34.1</v>
+      </c>
+      <c r="R89" s="27">
+        <v>15.8</v>
+      </c>
+      <c r="S89" s="27">
+        <v>0</v>
+      </c>
+      <c r="T89" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="27">
+        <f t="shared" si="29"/>
+        <v>42.6</v>
+      </c>
+      <c r="AB89" s="27">
+        <f t="shared" si="30"/>
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="90" spans="2:28">
+      <c r="B90" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
-      <c r="R86" s="27"/>
-      <c r="S86" s="27">
+      <c r="N90" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="P90" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="Q90" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="R90" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="S90" s="27">
         <v>2.8</v>
       </c>
-      <c r="T86" s="27">
+      <c r="T90" s="27">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="87" spans="2:20">
-      <c r="B87" s="3" t="s">
+      <c r="AA90" s="27">
+        <f t="shared" si="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB90" s="27">
+        <f t="shared" si="30"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:28">
+      <c r="B91" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27">
+      <c r="N91" s="27">
+        <v>98.5</v>
+      </c>
+      <c r="P91" s="27">
+        <v>113.54</v>
+      </c>
+      <c r="Q91" s="27">
+        <v>114.1</v>
+      </c>
+      <c r="R91" s="27">
+        <v>108.9</v>
+      </c>
+      <c r="S91" s="27">
         <v>113.8</v>
       </c>
-      <c r="T87" s="27">
+      <c r="T91" s="27">
         <v>111.8</v>
       </c>
-    </row>
-    <row r="88" spans="2:20">
-      <c r="B88" s="3" t="s">
+      <c r="AA91" s="27">
+        <f t="shared" si="29"/>
+        <v>98.5</v>
+      </c>
+      <c r="AB91" s="27">
+        <f t="shared" si="30"/>
+        <v>108.9</v>
+      </c>
+    </row>
+    <row r="92" spans="2:28">
+      <c r="B92" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N92" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="P92" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q92" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="R92" s="27">
+        <v>0</v>
+      </c>
+      <c r="S92" s="27">
+        <v>0</v>
+      </c>
+      <c r="T92" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="27">
+        <f t="shared" si="29"/>
+        <v>1.2</v>
+      </c>
+      <c r="AB92" s="27">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:28">
+      <c r="B93" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="3">
+      <c r="N93" s="27">
+        <v>0</v>
+      </c>
+      <c r="P93" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="27">
+        <v>0</v>
+      </c>
+      <c r="R93" s="27">
+        <v>45.1</v>
+      </c>
+      <c r="S93" s="3">
         <v>47.4</v>
       </c>
-      <c r="T88" s="27">
+      <c r="T93" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:20">
-      <c r="B89" s="3" t="s">
+      <c r="AA93" s="27">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AB93" s="27">
+        <f t="shared" si="30"/>
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:28">
+      <c r="B94" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="P89" s="27">
-        <f>SUM(P77:P88)</f>
+      <c r="N94" s="27">
+        <f>SUM(N80:N93)</f>
+        <v>2428.6999999999998</v>
+      </c>
+      <c r="P94" s="27">
+        <f>SUM(P80:P93)</f>
+        <v>2856.2400000000002</v>
+      </c>
+      <c r="Q94" s="27">
+        <f>SUM(Q80:Q93)</f>
+        <v>2953.6</v>
+      </c>
+      <c r="R94" s="27">
+        <f>SUM(R80:R93)</f>
+        <v>2828.8</v>
+      </c>
+      <c r="S94" s="27">
+        <f>SUM(S80:S93)</f>
+        <v>2756.3</v>
+      </c>
+      <c r="T94" s="27">
+        <f>SUM(T80:T93)</f>
+        <v>2640.1000000000004</v>
+      </c>
+      <c r="AA94" s="27">
+        <f>SUM(AA80:AA93)</f>
+        <v>2428.6999999999998</v>
+      </c>
+      <c r="AB94" s="27">
+        <f>SUM(AB80:AB93)</f>
+        <v>2828.8</v>
+      </c>
+    </row>
+    <row r="95" spans="2:28">
+      <c r="B95" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N95" s="27">
+        <v>53.3</v>
+      </c>
+      <c r="P95" s="27">
+        <v>48.2</v>
+      </c>
+      <c r="Q95" s="27">
+        <v>52.9</v>
+      </c>
+      <c r="R95" s="27">
+        <v>52.3</v>
+      </c>
+      <c r="S95" s="27">
+        <v>49</v>
+      </c>
+      <c r="T95" s="27">
+        <v>52.6</v>
+      </c>
+      <c r="AA95" s="27">
+        <f>N95</f>
+        <v>53.3</v>
+      </c>
+      <c r="AB95" s="27">
+        <f>R95</f>
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:28" s="2" customFormat="1">
+      <c r="B96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N96" s="26">
+        <v>4072.5</v>
+      </c>
+      <c r="P96" s="26">
+        <v>3523.2</v>
+      </c>
+      <c r="Q96" s="26">
+        <v>3523.5</v>
+      </c>
+      <c r="R96" s="26">
+        <v>3452.7</v>
+      </c>
+      <c r="S96" s="26">
+        <v>3229</v>
+      </c>
+      <c r="T96" s="26">
+        <v>3092.7</v>
+      </c>
+      <c r="AA96" s="26">
+        <f>N96</f>
+        <v>4072.5</v>
+      </c>
+      <c r="AB96" s="26">
+        <f>R96</f>
+        <v>3452.7</v>
+      </c>
+    </row>
+    <row r="97" spans="2:28">
+      <c r="B97" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N97" s="27">
+        <v>42.3</v>
+      </c>
+      <c r="P97" s="27">
+        <v>44.9</v>
+      </c>
+      <c r="Q97" s="27">
+        <v>39.6</v>
+      </c>
+      <c r="R97" s="27">
+        <v>57.6</v>
+      </c>
+      <c r="S97" s="27">
+        <v>53.8</v>
+      </c>
+      <c r="T97" s="27">
+        <v>55.1</v>
+      </c>
+      <c r="AA97" s="27">
+        <f t="shared" ref="AA97:AA104" si="31">N97</f>
+        <v>42.3</v>
+      </c>
+      <c r="AB97" s="27">
+        <f t="shared" ref="AB97:AB104" si="32">R97</f>
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:28">
+      <c r="B98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N98" s="27">
+        <v>262.39999999999998</v>
+      </c>
+      <c r="P98" s="27">
+        <v>267.5</v>
+      </c>
+      <c r="Q98" s="27">
+        <v>324.8</v>
+      </c>
+      <c r="R98" s="27">
+        <v>308.7</v>
+      </c>
+      <c r="S98" s="27">
+        <v>454.8</v>
+      </c>
+      <c r="T98" s="27">
+        <v>478.5</v>
+      </c>
+      <c r="AA98" s="27">
+        <f t="shared" si="31"/>
+        <v>262.39999999999998</v>
+      </c>
+      <c r="AB98" s="27">
+        <f t="shared" si="32"/>
+        <v>308.7</v>
+      </c>
+    </row>
+    <row r="99" spans="2:28">
+      <c r="B99" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N99" s="27">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P99" s="27">
+        <v>4.7</v>
+      </c>
+      <c r="Q99" s="27">
+        <v>3.6</v>
+      </c>
+      <c r="R99" s="27">
+        <v>3</v>
+      </c>
+      <c r="S99" s="27">
         <v>0</v>
       </c>
-      <c r="Q89" s="27"/>
-      <c r="R89" s="27"/>
-      <c r="S89" s="27">
-        <f>SUM(S77:S88)</f>
-        <v>2756.3</v>
-      </c>
-      <c r="T89" s="27">
-        <f>SUM(T77:T88)</f>
-        <v>2640.1000000000004</v>
-      </c>
-    </row>
-    <row r="90" spans="2:20">
-      <c r="B90" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P90" s="27"/>
-      <c r="Q90" s="27"/>
-      <c r="R90" s="27"/>
-      <c r="S90" s="27">
-        <v>49</v>
-      </c>
-      <c r="T90" s="27">
-        <v>52.6</v>
-      </c>
-    </row>
-    <row r="91" spans="2:20" s="2" customFormat="1">
-      <c r="B91" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P91" s="26"/>
-      <c r="Q91" s="26"/>
-      <c r="R91" s="26"/>
-      <c r="S91" s="26">
-        <v>3229</v>
-      </c>
-      <c r="T91" s="26">
-        <v>3092.7</v>
-      </c>
-    </row>
-    <row r="92" spans="2:20">
-      <c r="B92" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P92" s="27"/>
-      <c r="Q92" s="27"/>
-      <c r="R92" s="27"/>
-      <c r="S92" s="27">
-        <v>53.8</v>
-      </c>
-      <c r="T92" s="27">
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:20">
-      <c r="B93" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P93" s="27"/>
-      <c r="Q93" s="27"/>
-      <c r="R93" s="27"/>
-      <c r="S93" s="27">
-        <v>454.8</v>
-      </c>
-      <c r="T93" s="27">
-        <v>478.5</v>
-      </c>
-    </row>
-    <row r="94" spans="2:20">
-      <c r="B94" s="3" t="s">
+      <c r="T99" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="27">
+        <f t="shared" si="31"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AB99" s="27">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:28">
+      <c r="B100" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P94" s="27"/>
-      <c r="Q94" s="27"/>
-      <c r="R94" s="27"/>
-      <c r="S94" s="27">
+      <c r="N100" s="27">
+        <v>11.8</v>
+      </c>
+      <c r="P100" s="27">
+        <v>12.4</v>
+      </c>
+      <c r="Q100" s="27">
+        <v>10</v>
+      </c>
+      <c r="R100" s="27">
+        <v>10</v>
+      </c>
+      <c r="S100" s="27">
         <v>13</v>
       </c>
-      <c r="T94" s="27">
+      <c r="T100" s="27">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="95" spans="2:20">
-      <c r="B95" s="3" t="s">
+      <c r="AA100" s="27">
+        <f t="shared" si="31"/>
+        <v>11.8</v>
+      </c>
+      <c r="AB100" s="27">
+        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="2:28">
+      <c r="B101" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="P95" s="27"/>
-      <c r="Q95" s="27"/>
-      <c r="R95" s="27"/>
-      <c r="S95" s="27">
+      <c r="N101" s="27">
+        <v>474.7</v>
+      </c>
+      <c r="P101" s="27">
+        <v>444.8</v>
+      </c>
+      <c r="Q101" s="27">
+        <v>428.6</v>
+      </c>
+      <c r="R101" s="27">
+        <v>505.8</v>
+      </c>
+      <c r="S101" s="27">
         <v>376.1</v>
       </c>
-      <c r="T95" s="27">
+      <c r="T101" s="27">
         <v>334.4</v>
       </c>
-    </row>
-    <row r="96" spans="2:20">
-      <c r="B96" s="3" t="s">
+      <c r="AA101" s="27">
+        <f t="shared" si="31"/>
+        <v>474.7</v>
+      </c>
+      <c r="AB101" s="27">
+        <f t="shared" si="32"/>
+        <v>505.8</v>
+      </c>
+    </row>
+    <row r="102" spans="2:28">
+      <c r="B102" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N102" s="27">
+        <v>82.6</v>
+      </c>
+      <c r="P102" s="27">
+        <v>73.8</v>
+      </c>
+      <c r="Q102" s="27">
+        <v>63.1</v>
+      </c>
+      <c r="R102" s="27">
+        <v>2.9</v>
+      </c>
+      <c r="S102" s="27">
+        <v>0</v>
+      </c>
+      <c r="T102" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="27">
+        <f t="shared" si="31"/>
+        <v>82.6</v>
+      </c>
+      <c r="AB102" s="27">
+        <f t="shared" si="32"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="103" spans="2:28">
+      <c r="B103" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="27"/>
-      <c r="R96" s="27"/>
-      <c r="S96" s="27">
+      <c r="N103" s="27">
+        <v>57.3</v>
+      </c>
+      <c r="P103" s="27">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="Q103" s="27">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="R103" s="27">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="S103" s="27">
         <v>37.6</v>
       </c>
-      <c r="T96" s="27">
+      <c r="T103" s="27">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="97" spans="2:20">
-      <c r="B97" s="3" t="s">
+      <c r="AA103" s="27">
+        <f t="shared" si="31"/>
+        <v>57.3</v>
+      </c>
+      <c r="AB103" s="27">
+        <f t="shared" si="32"/>
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="2:28">
+      <c r="B104" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="P97" s="27"/>
-      <c r="Q97" s="27"/>
-      <c r="R97" s="27"/>
-      <c r="S97" s="27">
+      <c r="N104" s="27">
+        <v>114.2</v>
+      </c>
+      <c r="P104" s="27">
+        <v>112.3</v>
+      </c>
+      <c r="Q104" s="27">
+        <v>108.4</v>
+      </c>
+      <c r="R104" s="27">
+        <v>120.5</v>
+      </c>
+      <c r="S104" s="27">
         <v>141.9</v>
       </c>
-      <c r="T97" s="27">
+      <c r="T104" s="27">
         <v>133.4</v>
       </c>
-    </row>
-    <row r="98" spans="2:20">
-      <c r="B98" s="3" t="s">
+      <c r="AA104" s="27">
+        <f t="shared" si="31"/>
+        <v>114.2</v>
+      </c>
+      <c r="AB104" s="27">
+        <f t="shared" si="32"/>
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:28">
+      <c r="B105" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="P98" s="27">
-        <f>SUM(P90:P97)+P89</f>
-        <v>0</v>
-      </c>
-      <c r="Q98" s="27"/>
-      <c r="R98" s="27"/>
-      <c r="S98" s="27">
-        <f>SUM(S90:S97)+S89</f>
+      <c r="N105" s="27">
+        <f>SUM(N95:N104)+N94</f>
+        <v>7608.5</v>
+      </c>
+      <c r="P105" s="27">
+        <f>SUM(P95:P104)+P94</f>
+        <v>7455.6400000000012</v>
+      </c>
+      <c r="Q105" s="27">
+        <f>SUM(Q95:Q104)+Q94</f>
+        <v>7574.5</v>
+      </c>
+      <c r="R105" s="27">
+        <f>SUM(R95:R104)+R94</f>
+        <v>7379.9999999999991</v>
+      </c>
+      <c r="S105" s="27">
+        <f>SUM(S95:S104)+S94</f>
         <v>7111.5000000000009</v>
       </c>
-      <c r="T98" s="27">
-        <f>SUM(T90:T97)+T89</f>
+      <c r="T105" s="27">
+        <f>SUM(T95:T104)+T94</f>
         <v>6826.0999999999995</v>
       </c>
-    </row>
-    <row r="99" spans="2:20">
-      <c r="P99" s="27"/>
-      <c r="Q99" s="27"/>
-      <c r="R99" s="27"/>
-      <c r="S99" s="27"/>
-      <c r="T99" s="27"/>
-    </row>
-    <row r="100" spans="2:20">
-      <c r="B100" s="3" t="s">
+      <c r="AA105" s="27">
+        <f>SUM(AA95:AA104)+AA94</f>
+        <v>7608.5</v>
+      </c>
+      <c r="AB105" s="27">
+        <f>SUM(AB95:AB104)+AB94</f>
+        <v>7379.9999999999991</v>
+      </c>
+    </row>
+    <row r="106" spans="2:28">
+      <c r="P106" s="27"/>
+      <c r="Q106" s="27"/>
+      <c r="R106" s="27"/>
+      <c r="S106" s="27"/>
+      <c r="T106" s="27"/>
+    </row>
+    <row r="107" spans="2:28">
+      <c r="B107" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="P100" s="27"/>
-      <c r="Q100" s="27"/>
-      <c r="R100" s="27"/>
-      <c r="S100" s="27">
+      <c r="N107" s="27">
+        <v>2907.5</v>
+      </c>
+      <c r="P107" s="27">
+        <v>2885.7</v>
+      </c>
+      <c r="Q107" s="27">
+        <v>2808.2</v>
+      </c>
+      <c r="R107" s="27">
+        <v>2775</v>
+      </c>
+      <c r="S107" s="27">
         <v>2756.9</v>
       </c>
-      <c r="T100" s="27">
+      <c r="T107" s="27">
         <v>2872.7</v>
       </c>
-    </row>
-    <row r="101" spans="2:20">
-      <c r="B101" s="3" t="s">
+      <c r="AA107" s="27">
+        <f>N107</f>
+        <v>2907.5</v>
+      </c>
+      <c r="AB107" s="27">
+        <f>R107</f>
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="108" spans="2:28">
+      <c r="B108" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="P101" s="27">
-        <f>P100+P98</f>
-        <v>0</v>
-      </c>
-      <c r="Q101" s="27"/>
-      <c r="R101" s="27"/>
-      <c r="S101" s="27">
-        <f>S100+S98</f>
+      <c r="N108" s="27">
+        <f>N107+N105</f>
+        <v>10516</v>
+      </c>
+      <c r="P108" s="27">
+        <f>P107+P105</f>
+        <v>10341.34</v>
+      </c>
+      <c r="Q108" s="27">
+        <f>Q107+Q105</f>
+        <v>10382.700000000001</v>
+      </c>
+      <c r="R108" s="27">
+        <f>R107+R105</f>
+        <v>10155</v>
+      </c>
+      <c r="S108" s="27">
+        <f>S107+S105</f>
         <v>9868.4000000000015</v>
       </c>
-      <c r="T101" s="27">
-        <f>T100+T98</f>
+      <c r="T108" s="27">
+        <f>T107+T105</f>
         <v>9698.7999999999993</v>
       </c>
-    </row>
-    <row r="103" spans="2:20">
-      <c r="B103" s="3" t="s">
+      <c r="AA108" s="27">
+        <f>AA107+AA105</f>
+        <v>10516</v>
+      </c>
+      <c r="AB108" s="27">
+        <f>AB107+AB105</f>
+        <v>10155</v>
+      </c>
+    </row>
+    <row r="110" spans="2:28">
+      <c r="B110" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="P103" s="27">
-        <f>P75-P98</f>
-        <v>0</v>
-      </c>
-      <c r="Q103" s="27"/>
-      <c r="R103" s="27"/>
-      <c r="S103" s="27">
-        <f>S75-S98</f>
+      <c r="N110" s="27">
+        <f t="shared" ref="N110" si="33">N78-N105</f>
+        <v>2907.5</v>
+      </c>
+      <c r="P110" s="27">
+        <f t="shared" ref="P110:Q110" si="34">P78-P105</f>
+        <v>2885.659999999998</v>
+      </c>
+      <c r="Q110" s="27">
+        <f t="shared" si="34"/>
+        <v>2808.2000000000007</v>
+      </c>
+      <c r="R110" s="27">
+        <f t="shared" ref="R110" si="35">R78-R105</f>
+        <v>2775.0000000000009</v>
+      </c>
+      <c r="S110" s="27">
+        <f>S78-S105</f>
         <v>2756.8999999999987</v>
       </c>
-      <c r="T103" s="27">
-        <f>T75-T98</f>
+      <c r="T110" s="27">
+        <f>T78-T105</f>
         <v>2872.7</v>
       </c>
-    </row>
-    <row r="104" spans="2:20">
-      <c r="B104" s="3" t="s">
+      <c r="AA110" s="27">
+        <f t="shared" ref="AA110:AB110" si="36">AA78-AA105</f>
+        <v>2907.5</v>
+      </c>
+      <c r="AB110" s="27">
+        <f>AB78-AB105</f>
+        <v>2775.0000000000009</v>
+      </c>
+    </row>
+    <row r="111" spans="2:28">
+      <c r="B111" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="S104" s="3">
-        <f>S103/S27</f>
+      <c r="N111" s="3">
+        <f t="shared" ref="N111:Q111" si="37">N110/N27</f>
+        <v>3.9493344199945666</v>
+      </c>
+      <c r="P111" s="3">
+        <f t="shared" si="37"/>
+        <v>3.9271366358192683</v>
+      </c>
+      <c r="Q111" s="3">
+        <f t="shared" si="37"/>
+        <v>3.821720195971694</v>
+      </c>
+      <c r="R111" s="3">
+        <f t="shared" ref="R111" si="38">R110/R27</f>
+        <v>3.7770518579011854</v>
+      </c>
+      <c r="S111" s="3">
+        <f>S110/S27</f>
         <v>3.7529267628641421</v>
       </c>
-      <c r="T104" s="3">
-        <f>T103/T27</f>
+      <c r="T111" s="3">
+        <f>T110/T27</f>
         <v>3.9105635720119789</v>
       </c>
-    </row>
-    <row r="106" spans="2:20" s="39" customFormat="1">
-      <c r="B106" s="39" t="s">
+      <c r="AA111" s="3">
+        <f t="shared" ref="AA111" si="39">AA110/AA27</f>
+        <v>3.9493344199945666</v>
+      </c>
+      <c r="AB111" s="3">
+        <f>AB110/AB27</f>
+        <v>3.7770518579011854</v>
+      </c>
+    </row>
+    <row r="113" spans="2:28" s="39" customFormat="1">
+      <c r="B113" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="S106" s="52">
-        <f>S53+S54+S64</f>
-        <v>2102.6</v>
-      </c>
-      <c r="T106" s="52">
-        <f>T53+T54+T64</f>
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="107" spans="2:20" s="39" customFormat="1">
-      <c r="B107" s="39" t="s">
+      <c r="N113" s="52">
+        <f t="shared" ref="N113" si="40">N54+N55+N66+N68</f>
+        <v>2753.6</v>
+      </c>
+      <c r="P113" s="52">
+        <f t="shared" ref="P113:Q113" si="41">P54+P55+P66+P68</f>
+        <v>2514.3000000000002</v>
+      </c>
+      <c r="Q113" s="52">
+        <f t="shared" si="41"/>
+        <v>2503.6999999999998</v>
+      </c>
+      <c r="R113" s="52">
+        <f t="shared" ref="R113" si="42">R54+R55+R66+R68</f>
+        <v>2634.7</v>
+      </c>
+      <c r="S113" s="52">
+        <f t="shared" ref="S113:T113" si="43">S54+S55+S66+S68</f>
+        <v>2104.1999999999998</v>
+      </c>
+      <c r="T113" s="52">
+        <f>T54+T55+T66+T68</f>
+        <v>1968.2</v>
+      </c>
+      <c r="AA113" s="52">
+        <f t="shared" ref="AA113:AB113" si="44">AA54+AA55+AA66+AA68</f>
+        <v>2753.6</v>
+      </c>
+      <c r="AB113" s="52">
+        <f>AB54+AB55+AB66+AB68</f>
+        <v>2634.7</v>
+      </c>
+    </row>
+    <row r="114" spans="2:28" s="39" customFormat="1">
+      <c r="B114" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="S107" s="52">
-        <f>S80+S83+S91</f>
+      <c r="N114" s="52">
+        <f t="shared" ref="N114" si="45">N83+N86+N96</f>
+        <v>4449.2</v>
+      </c>
+      <c r="P114" s="52">
+        <f t="shared" ref="P114:Q114" si="46">P83+P86+P96</f>
+        <v>4334.0999999999995</v>
+      </c>
+      <c r="Q114" s="52">
+        <f t="shared" si="46"/>
+        <v>4310.1000000000004</v>
+      </c>
+      <c r="R114" s="52">
+        <f t="shared" ref="R114" si="47">R83+R86+R96</f>
+        <v>4029.7999999999997</v>
+      </c>
+      <c r="S114" s="52">
+        <f>S83+S86+S96</f>
         <v>3559</v>
       </c>
-      <c r="T107" s="52">
-        <f>T80+T83+T91</f>
+      <c r="T114" s="52">
+        <f>T83+T86+T96</f>
         <v>3173.8999999999996</v>
       </c>
-    </row>
-    <row r="108" spans="2:20">
-      <c r="B108" s="3" t="s">
+      <c r="AA114" s="52">
+        <f t="shared" ref="AA114:AB114" si="48">AA83+AA86+AA96</f>
+        <v>4449.2</v>
+      </c>
+      <c r="AB114" s="52">
+        <f>AB83+AB86+AB96</f>
+        <v>4029.7999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="2:28">
+      <c r="B115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S108" s="27">
-        <f>S106-S107</f>
-        <v>-1456.4</v>
-      </c>
-      <c r="T108" s="27">
-        <f>T106-T107</f>
-        <v>-1208.8999999999996</v>
-      </c>
-    </row>
-    <row r="110" spans="2:20" s="2" customFormat="1">
-      <c r="B110" s="2" t="s">
+      <c r="N115" s="27">
+        <f t="shared" ref="N115:R115" si="49">N113-N114</f>
+        <v>-1695.6</v>
+      </c>
+      <c r="P115" s="27">
+        <f t="shared" si="49"/>
+        <v>-1819.7999999999993</v>
+      </c>
+      <c r="Q115" s="27">
+        <f t="shared" si="49"/>
+        <v>-1806.4000000000005</v>
+      </c>
+      <c r="R115" s="27">
+        <f t="shared" si="49"/>
+        <v>-1395.1</v>
+      </c>
+      <c r="S115" s="27">
+        <f>S113-S114</f>
+        <v>-1454.8000000000002</v>
+      </c>
+      <c r="T115" s="27">
+        <f>T113-T114</f>
+        <v>-1205.6999999999996</v>
+      </c>
+      <c r="AA115" s="27">
+        <f t="shared" ref="AA115" si="50">AA113-AA114</f>
+        <v>-1695.6</v>
+      </c>
+      <c r="AB115" s="27">
+        <f>AB113-AB114</f>
+        <v>-1395.1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:28" s="2" customFormat="1">
+      <c r="B117" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="111" spans="2:20">
-      <c r="B111" s="3" t="s">
+      <c r="Q117" s="34"/>
+      <c r="R117" s="34">
+        <f t="shared" ref="Q117:S117" si="51">R60/N60-1</f>
+        <v>-0.18536445301283899</v>
+      </c>
+      <c r="S117" s="34"/>
+      <c r="T117" s="34">
+        <f>T60/P60-1</f>
+        <v>3.36501079913607E-2</v>
+      </c>
+      <c r="AB117" s="34">
+        <f>AB60/AA60-1</f>
+        <v>-0.18536445301283899</v>
+      </c>
+    </row>
+    <row r="118" spans="2:28">
+      <c r="B118" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="T111" s="25">
-        <f>T59/S59-1</f>
+      <c r="Q118" s="25">
+        <f>Q60/P60-1</f>
+        <v>-4.3196544276458138E-3</v>
+      </c>
+      <c r="R118" s="25">
+        <f t="shared" ref="R118:T118" si="52">R60/Q60-1</f>
+        <v>-0.13839479392624732</v>
+      </c>
+      <c r="S118" s="25">
+        <f t="shared" si="52"/>
+        <v>0.11923464249748239</v>
+      </c>
+      <c r="T118" s="25">
+        <f>T60/S60-1</f>
         <v>7.6525103473096934E-2</v>
       </c>
-    </row>
-    <row r="113" spans="2:20">
-      <c r="B113" s="3" t="s">
+      <c r="AA118" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB118" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="2:28">
+      <c r="B120" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="115" spans="2:20">
-      <c r="B115" s="3" t="s">
+    <row r="122" spans="2:28">
+      <c r="B122" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M115" s="3">
+      <c r="M122" s="3">
         <v>4.41</v>
       </c>
-      <c r="N115" s="3">
+      <c r="N122" s="3">
         <v>6.81</v>
       </c>
-      <c r="O115" s="3">
+      <c r="O122" s="3">
         <v>9.9600000000000009</v>
       </c>
-      <c r="P115" s="3">
+      <c r="P122" s="3">
         <v>15.14</v>
       </c>
-      <c r="Q115" s="27">
+      <c r="Q122" s="27">
         <v>17</v>
       </c>
-      <c r="R115" s="3">
+      <c r="R122" s="3">
         <v>13.9</v>
       </c>
-      <c r="S115" s="3">
+      <c r="S122" s="3">
         <v>12.61</v>
       </c>
-      <c r="T115" s="3">
+      <c r="T122" s="3">
         <v>8.7799999999999994</v>
       </c>
-    </row>
-    <row r="116" spans="2:20" s="27" customFormat="1">
-      <c r="B116" s="27" t="s">
+      <c r="AA122" s="3">
+        <f>N122</f>
+        <v>6.81</v>
+      </c>
+      <c r="AB122" s="3">
+        <f>R122</f>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="123" spans="2:28" s="27" customFormat="1">
+      <c r="B123" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="M116" s="27">
-        <f t="shared" ref="M116:R116" si="16">M115*M27</f>
+      <c r="M123" s="27">
+        <f>M122*M27</f>
         <v>3246.6420000000003</v>
       </c>
-      <c r="N116" s="27">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O116" s="27">
-        <f t="shared" si="16"/>
+      <c r="N123" s="27">
+        <f>N122*N27</f>
+        <v>5013.5219999999999</v>
+      </c>
+      <c r="O123" s="27">
+        <f>O122*O27</f>
         <v>7320.6</v>
       </c>
-      <c r="P116" s="27">
-        <f t="shared" si="16"/>
+      <c r="P123" s="27">
+        <f>P122*P27</f>
         <v>11124.871999999999</v>
       </c>
-      <c r="Q116" s="27">
-        <f t="shared" si="16"/>
+      <c r="Q123" s="27">
+        <f>Q122*Q27</f>
         <v>12491.599999999999</v>
       </c>
-      <c r="R116" s="27">
-        <f t="shared" si="16"/>
+      <c r="R123" s="27">
+        <f>R122*R27</f>
         <v>10212.330000000002</v>
       </c>
-      <c r="S116" s="27">
-        <f>S115*S27</f>
+      <c r="S123" s="27">
+        <f>S122*S27</f>
         <v>9263.3060000000005</v>
       </c>
-      <c r="T116" s="27">
-        <f>T115*T27</f>
+      <c r="T123" s="27">
+        <f>T122*T27</f>
         <v>6449.7879999999996</v>
       </c>
-    </row>
-    <row r="117" spans="2:20" s="27" customFormat="1">
-      <c r="B117" s="27" t="s">
+      <c r="AA123" s="27">
+        <f t="shared" ref="AA123" si="53">AA122*AA27</f>
+        <v>5013.5219999999999</v>
+      </c>
+      <c r="AB123" s="27">
+        <f>AB122*AB27</f>
+        <v>10212.330000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="2:28" s="27" customFormat="1">
+      <c r="B124" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="M117" s="27">
-        <f t="shared" ref="M117:R117" si="17">M116-M108</f>
+      <c r="M124" s="27">
+        <f>M123-M115</f>
         <v>3246.6420000000003</v>
       </c>
-      <c r="N117" s="27">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O117" s="27">
-        <f t="shared" si="17"/>
+      <c r="N124" s="27">
+        <f>N123-N115</f>
+        <v>6709.1219999999994</v>
+      </c>
+      <c r="O124" s="27">
+        <f>O123-O115</f>
         <v>7320.6</v>
       </c>
-      <c r="P117" s="27">
-        <f t="shared" si="17"/>
-        <v>11124.871999999999</v>
-      </c>
-      <c r="Q117" s="27">
-        <f t="shared" si="17"/>
-        <v>12491.599999999999</v>
-      </c>
-      <c r="R117" s="27">
-        <f t="shared" si="17"/>
-        <v>10212.330000000002</v>
-      </c>
-      <c r="S117" s="27">
-        <f>S116-S108</f>
-        <v>10719.706</v>
-      </c>
-      <c r="T117" s="27">
-        <f>T116-T108</f>
-        <v>7658.6879999999992</v>
-      </c>
-    </row>
-    <row r="119" spans="2:20">
-      <c r="B119" s="3" t="s">
+      <c r="P124" s="27">
+        <f>P123-P115</f>
+        <v>12944.671999999999</v>
+      </c>
+      <c r="Q124" s="27">
+        <f>Q123-Q115</f>
+        <v>14298</v>
+      </c>
+      <c r="R124" s="27">
+        <f>R123-R115</f>
+        <v>11607.430000000002</v>
+      </c>
+      <c r="S124" s="27">
+        <f>S123-S115</f>
+        <v>10718.106</v>
+      </c>
+      <c r="T124" s="27">
+        <f>T123-T115</f>
+        <v>7655.4879999999994</v>
+      </c>
+      <c r="AA124" s="27">
+        <f t="shared" ref="AA124" si="54">AA123-AA115</f>
+        <v>6709.1219999999994</v>
+      </c>
+      <c r="AB124" s="27">
+        <f>AB123-AB115</f>
+        <v>11607.430000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="2:28">
+      <c r="B126" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S119" s="57">
-        <f>-S115/S104</f>
-        <v>-3.3600442526025622</v>
-      </c>
-      <c r="T119" s="57">
-        <f>-T115/T104</f>
-        <v>-2.2452006822849584</v>
-      </c>
-    </row>
-    <row r="120" spans="2:20">
-      <c r="B120" s="3" t="s">
+      <c r="N126" s="57">
+        <f>N122/N111</f>
+        <v>1.7243411865864144</v>
+      </c>
+      <c r="P126" s="57">
+        <f>P122/P111</f>
+        <v>3.8552261874233302</v>
+      </c>
+      <c r="Q126" s="57">
+        <f>Q122/Q111</f>
+        <v>4.4482586710348251</v>
+      </c>
+      <c r="R126" s="57">
+        <f>R122/R111</f>
+        <v>3.6801189189189176</v>
+      </c>
+      <c r="S126" s="57">
+        <f>S122/S111</f>
+        <v>3.3600442526025622</v>
+      </c>
+      <c r="T126" s="57">
+        <f>T122/T111</f>
+        <v>2.2452006822849584</v>
+      </c>
+      <c r="AA126" s="57">
+        <f>AA122/AA111</f>
+        <v>1.7243411865864144</v>
+      </c>
+      <c r="AB126" s="57">
+        <f>AB122/AB111</f>
+        <v>3.6801189189189176</v>
+      </c>
+    </row>
+    <row r="127" spans="2:28">
+      <c r="B127" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="121" spans="2:20">
-      <c r="B121" s="3" t="s">
+      <c r="P127" s="57">
+        <f t="shared" ref="P127:S127" si="55">P122/SUM(M9:P9)</f>
+        <v>3.3363450053989726E-3</v>
+      </c>
+      <c r="Q127" s="57">
+        <f t="shared" si="55"/>
+        <v>3.5885419964958943E-3</v>
+      </c>
+      <c r="R127" s="57">
+        <f t="shared" si="55"/>
+        <v>3.3117316306108839E-3</v>
+      </c>
+      <c r="S127" s="57">
+        <f t="shared" si="55"/>
+        <v>3.1597674651698908E-3</v>
+      </c>
+      <c r="T127" s="57">
+        <f>T122/SUM(Q9:T9)</f>
+        <v>2.2633532687151986E-3</v>
+      </c>
+      <c r="AA127" s="57">
+        <f t="shared" ref="AA127:AB127" si="56">AA123/AA9</f>
+        <v>1.3294587786057119</v>
+      </c>
+      <c r="AB127" s="57">
+        <f>AB123/AB9</f>
+        <v>2.4331292290098165</v>
+      </c>
+    </row>
+    <row r="128" spans="2:28">
+      <c r="B128" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="P128" s="57">
+        <f t="shared" ref="P128:S128" si="57">P122/SUM(M26:P26)</f>
+        <v>-88.265429889576552</v>
+      </c>
+      <c r="Q128" s="57">
+        <f t="shared" si="57"/>
+        <v>-249.48613055071797</v>
+      </c>
+      <c r="R128" s="57">
+        <f t="shared" si="57"/>
+        <v>-228.62115367889854</v>
+      </c>
+      <c r="S128" s="57">
+        <f t="shared" si="57"/>
+        <v>697.1161832155442</v>
+      </c>
+      <c r="T128" s="57">
+        <f>T122/SUM(Q26:T26)</f>
+        <v>-16621.554193892349</v>
+      </c>
+      <c r="AA128" s="57">
+        <f>AA122/AA26</f>
+        <v>-6.8500095641481078</v>
+      </c>
+      <c r="AB128" s="57">
+        <f>AB122/AB26</f>
+        <v>-228.46375838926176</v>
       </c>
     </row>
   </sheetData>
@@ -4506,10 +6225,16 @@
     <hyperlink ref="T1" r:id="rId1" xr:uid="{680599EF-35E5-444E-BE52-11E2AAE328C4}"/>
     <hyperlink ref="S1" r:id="rId2" xr:uid="{93CDF7DF-1EA6-42CA-BCC8-DA2865B51A26}"/>
     <hyperlink ref="Q1" r:id="rId3" xr:uid="{9752E2CB-3CEF-4245-BFA9-C0218E68B8CA}"/>
+    <hyperlink ref="R1" r:id="rId4" xr:uid="{BA3118D8-58BD-4D30-9D14-69D83EF60AFC}"/>
+    <hyperlink ref="AB1" r:id="rId5" xr:uid="{F4157810-6A61-4ACC-AAA5-22475F0942B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
+  <ignoredErrors>
+    <ignoredError sqref="AA65:AB65 AA94:AB94" formula="1"/>
+    <ignoredError sqref="P127:T127" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -4518,7 +6243,7 @@
   <dimension ref="C4:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4531,6 +6256,14 @@
         <v>177</v>
       </c>
     </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
     <row r="7" spans="3:4">
       <c r="C7" s="3" t="s">
         <v>181</v>

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F149AB-BDA9-450C-911B-84BD9A776A2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0497BF-6311-4CED-A70D-51D71A467584}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="193">
   <si>
     <t>$ERJ</t>
   </si>
@@ -645,6 +645,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Embraer confident with a deal offered to Croatia airlines to replace all existing 6 Dash-8 &amp; 7 A320 aircraft with E2 jet</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1001,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,24 +1035,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1520,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F324B-1DEB-44A7-A7E2-319E26170844}">
-  <dimension ref="A2:X42"/>
+  <dimension ref="A2:X43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:H28"/>
+      <selection activeCell="G17" sqref="G17:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1578,7 +1581,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="G6" s="9">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>11</v>
@@ -1706,7 +1709,7 @@
         <v>Q222</v>
       </c>
       <c r="G10" s="9">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>29</v>
@@ -1808,8 +1811,12 @@
       <c r="X13" s="38"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="G14" s="10"/>
-      <c r="H14" s="37"/>
+      <c r="G14" s="9">
+        <v>44805</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
@@ -1859,10 +1866,10 @@
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="67"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -1886,25 +1893,21 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="G17" s="9">
-        <v>43922</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
+      <c r="D17" s="67"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
       <c r="R17" s="38"/>
       <c r="U17" s="42"/>
       <c r="V17" s="37"/>
@@ -1913,21 +1916,19 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="16"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
       <c r="R18" s="38"/>
       <c r="U18" s="46" t="s">
         <v>139</v>
@@ -1938,22 +1939,20 @@
     </row>
     <row r="19" spans="2:24">
       <c r="B19" s="17"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="51" t="s">
-        <v>31</v>
-      </c>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="38"/>
       <c r="U19" s="45" t="s">
         <v>142</v>
       </c>
@@ -1963,16 +1962,16 @@
     </row>
     <row r="20" spans="2:24">
       <c r="G20" s="10"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
       <c r="R20" s="38"/>
       <c r="U20" s="45" t="s">
         <v>141</v>
@@ -1983,16 +1982,16 @@
     </row>
     <row r="21" spans="2:24">
       <c r="G21" s="10"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
       <c r="R21" s="38"/>
       <c r="U21" s="45" t="s">
         <v>140</v>
@@ -2008,16 +2007,16 @@
       <c r="C22" s="62"/>
       <c r="D22" s="63"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
       <c r="R22" s="38"/>
       <c r="U22" s="45" t="s">
         <v>157</v>
@@ -2030,21 +2029,21 @@
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="65"/>
+      <c r="D23" s="67"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
       <c r="R23" s="38"/>
       <c r="U23" s="42"/>
       <c r="V23" s="37"/>
@@ -2055,12 +2054,16 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="66">
         <v>1969</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="37"/>
+      <c r="D24" s="67"/>
+      <c r="G24" s="9">
+        <v>43922</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>164</v>
+      </c>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
@@ -2080,13 +2083,11 @@
     </row>
     <row r="25" spans="2:24">
       <c r="B25" s="10"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="G25" s="9">
-        <v>43770</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>167</v>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
@@ -2109,15 +2110,13 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="70">
+      <c r="C26" s="64">
         <f>'Financial Model'!T60</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="71"/>
+      <c r="D26" s="65"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="50" t="s">
-        <v>168</v>
-      </c>
+      <c r="H26" s="37"/>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
@@ -2127,7 +2126,9 @@
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
-      <c r="R26" s="38"/>
+      <c r="R26" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="U26" s="45" t="s">
         <v>145</v>
       </c>
@@ -2137,8 +2138,8 @@
     </row>
     <row r="27" spans="2:24">
       <c r="B27" s="10"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
       <c r="G27" s="10"/>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
@@ -2169,7 +2170,7 @@
         <v>44777</v>
       </c>
       <c r="G28" s="10"/>
-      <c r="H28" s="60"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
@@ -2178,9 +2179,7 @@
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
-      <c r="Q28" s="37" t="s">
-        <v>180</v>
-      </c>
+      <c r="Q28" s="37"/>
       <c r="R28" s="38"/>
       <c r="U28" s="45" t="s">
         <v>147</v>
@@ -2193,16 +2192,12 @@
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="G29" s="9">
-        <v>43586</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>166</v>
-      </c>
+      <c r="D29" s="73"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="37"/>
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
@@ -2262,8 +2257,12 @@
       </c>
       <c r="C32" s="62"/>
       <c r="D32" s="63"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="37"/>
+      <c r="G32" s="9">
+        <v>43770</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>167</v>
+      </c>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
@@ -2285,13 +2284,15 @@
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="68">
+      <c r="C33" s="74">
         <f>C6/'Financial Model'!T111</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="69"/>
+      <c r="D33" s="75"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="37"/>
+      <c r="H33" s="50" t="s">
+        <v>168</v>
+      </c>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
@@ -2311,17 +2312,13 @@
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="68">
+      <c r="C34" s="74">
         <f>C6/'Financial Model'!AB9</f>
         <v>2.2515010006671113E-3</v>
       </c>
-      <c r="D34" s="69"/>
-      <c r="G34" s="9">
-        <v>43282</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>162</v>
-      </c>
+      <c r="D34" s="75"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="37"/>
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
@@ -2341,15 +2338,13 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="70">
         <f>C6/'Financial Model'!AB26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="75"/>
+      <c r="D35" s="71"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="8" t="s">
-        <v>163</v>
-      </c>
+      <c r="H35" s="60"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
@@ -2358,26 +2353,42 @@
       <c r="N35" s="37"/>
       <c r="O35" s="37"/>
       <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
+      <c r="Q35" s="37" t="s">
+        <v>180</v>
+      </c>
       <c r="R35" s="38"/>
     </row>
     <row r="36" spans="2:24">
-      <c r="G36" s="11"/>
-      <c r="H36" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="36"/>
+      <c r="G36" s="9">
+        <v>43586</v>
+      </c>
+      <c r="H36" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="38"/>
     </row>
     <row r="37" spans="2:24">
+      <c r="G37" s="10"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="38"/>
       <c r="U37" s="61" t="s">
         <v>158</v>
       </c>
@@ -2386,6 +2397,18 @@
       <c r="X37" s="63"/>
     </row>
     <row r="38" spans="2:24">
+      <c r="G38" s="10"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="38"/>
       <c r="U38" s="42" t="s">
         <v>159</v>
       </c>
@@ -2394,6 +2417,18 @@
       <c r="X38" s="38"/>
     </row>
     <row r="39" spans="2:24">
+      <c r="G39" s="10"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="38"/>
       <c r="U39" s="44" t="s">
         <v>160</v>
       </c>
@@ -2402,6 +2437,18 @@
       <c r="X39" s="38"/>
     </row>
     <row r="40" spans="2:24">
+      <c r="G40" s="10"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="38"/>
       <c r="U40" s="44" t="s">
         <v>161</v>
       </c>
@@ -2410,19 +2457,72 @@
       <c r="X40" s="38"/>
     </row>
     <row r="41" spans="2:24">
+      <c r="G41" s="9">
+        <v>43282</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="38"/>
       <c r="U41" s="42"/>
       <c r="V41" s="37"/>
       <c r="W41" s="37"/>
       <c r="X41" s="38"/>
     </row>
     <row r="42" spans="2:24">
+      <c r="G42" s="10"/>
+      <c r="H42" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="38"/>
       <c r="U42" s="43"/>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
       <c r="X42" s="36"/>
     </row>
+    <row r="43" spans="2:24">
+      <c r="G43" s="11"/>
+      <c r="H43" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B5:D5"/>
@@ -2436,23 +2536,17 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
     <hyperlink ref="H10" r:id="rId2" xr:uid="{64917365-2EAB-45F1-BFD3-E1E4F5A494BB}"/>
     <hyperlink ref="C29:D29" r:id="rId3" display="Link" xr:uid="{11C3F337-5FA5-4654-84A9-81E0FD7B340B}"/>
-    <hyperlink ref="R19" r:id="rId4" location="Boeing_Embraer_-_Defense" xr:uid="{CC492105-8696-4FC6-849B-A673602C4CB8}"/>
+    <hyperlink ref="R26" r:id="rId4" location="Boeing_Embraer_-_Defense" xr:uid="{CC492105-8696-4FC6-849B-A673602C4CB8}"/>
+    <hyperlink ref="H14" r:id="rId5" xr:uid="{E8520AE3-EE90-4F9C-82B7-9DC79CF177B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3556,7 +3650,7 @@
         <v>67</v>
       </c>
       <c r="N31" s="25">
-        <f t="shared" ref="N31:P31" si="8">N9/M9-1</f>
+        <f t="shared" ref="N31:O31" si="8">N9/M9-1</f>
         <v>1.4270462633451957</v>
       </c>
       <c r="O31" s="25">
@@ -3593,7 +3687,7 @@
         <v>7.2228812442335658E-2</v>
       </c>
       <c r="N34" s="25">
-        <f t="shared" ref="N34:O34" si="10">N11/N9</f>
+        <f t="shared" ref="N34" si="10">N11/N9</f>
         <v>0.12077766916476598</v>
       </c>
       <c r="O34" s="25">
@@ -3638,7 +3732,7 @@
         <v>-4.9690259654672372E-2</v>
       </c>
       <c r="N35" s="25">
-        <f t="shared" ref="N35:O35" si="13">N18/N9</f>
+        <f t="shared" ref="N35" si="13">N18/N9</f>
         <v>5.6261540132507927E-2</v>
       </c>
       <c r="O35" s="25">
@@ -3683,7 +3777,7 @@
         <v>-0.15750626070910759</v>
       </c>
       <c r="N36" s="25">
-        <f t="shared" ref="N36:O36" si="16">N23/N9</f>
+        <f t="shared" ref="N36" si="16">N23/N9</f>
         <v>-2.9868578255674411E-3</v>
       </c>
       <c r="O36" s="25">
@@ -3728,7 +3822,7 @@
         <v>0.19582772543741597</v>
       </c>
       <c r="N37" s="25">
-        <f t="shared" ref="N37:O37" si="19">N22/N21</f>
+        <f t="shared" ref="N37" si="19">N22/N21</f>
         <v>1.4824561403508625</v>
       </c>
       <c r="O37" s="25">
@@ -3778,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" ref="O41:S41" si="22">P42+P48</f>
+        <f t="shared" ref="P41:S41" si="22">P42+P48</f>
         <v>34</v>
       </c>
       <c r="Q41" s="2">
@@ -4505,7 +4599,7 @@
         <v>1.5</v>
       </c>
       <c r="AA67" s="27">
-        <f t="shared" ref="AA67:AA77" si="28">N67</f>
+        <f t="shared" ref="AA67:AA76" si="28">N67</f>
         <v>0</v>
       </c>
       <c r="AB67" s="27">
@@ -5783,7 +5877,7 @@
         <v>2872.7</v>
       </c>
       <c r="AA110" s="27">
-        <f t="shared" ref="AA110:AB110" si="36">AA78-AA105</f>
+        <f t="shared" ref="AA110" si="36">AA78-AA105</f>
         <v>2907.5</v>
       </c>
       <c r="AB110" s="27">
@@ -5849,7 +5943,7 @@
         <v>2634.7</v>
       </c>
       <c r="S113" s="52">
-        <f t="shared" ref="S113:T113" si="43">S54+S55+S66+S68</f>
+        <f t="shared" ref="S113" si="43">S54+S55+S66+S68</f>
         <v>2104.1999999999998</v>
       </c>
       <c r="T113" s="52">
@@ -5857,7 +5951,7 @@
         <v>1968.2</v>
       </c>
       <c r="AA113" s="52">
-        <f t="shared" ref="AA113:AB113" si="44">AA54+AA55+AA66+AA68</f>
+        <f t="shared" ref="AA113" si="44">AA54+AA55+AA66+AA68</f>
         <v>2753.6</v>
       </c>
       <c r="AB113" s="52">
@@ -5894,7 +5988,7 @@
         <v>3173.8999999999996</v>
       </c>
       <c r="AA114" s="52">
-        <f t="shared" ref="AA114:AB114" si="48">AA83+AA86+AA96</f>
+        <f t="shared" ref="AA114" si="48">AA83+AA86+AA96</f>
         <v>4449.2</v>
       </c>
       <c r="AB114" s="52">
@@ -5945,7 +6039,7 @@
       </c>
       <c r="Q117" s="34"/>
       <c r="R117" s="34">
-        <f t="shared" ref="Q117:S117" si="51">R60/N60-1</f>
+        <f t="shared" ref="R117" si="51">R60/N60-1</f>
         <v>-0.18536445301283899</v>
       </c>
       <c r="S117" s="34"/>
@@ -5967,7 +6061,7 @@
         <v>-4.3196544276458138E-3</v>
       </c>
       <c r="R118" s="25">
-        <f t="shared" ref="R118:T118" si="52">R60/Q60-1</f>
+        <f t="shared" ref="R118:S118" si="52">R60/Q60-1</f>
         <v>-0.13839479392624732</v>
       </c>
       <c r="S118" s="25">
@@ -6032,39 +6126,39 @@
         <v>179</v>
       </c>
       <c r="M123" s="27">
-        <f>M122*M27</f>
+        <f t="shared" ref="M123:T123" si="53">M122*M27</f>
         <v>3246.6420000000003</v>
       </c>
       <c r="N123" s="27">
-        <f>N122*N27</f>
+        <f t="shared" si="53"/>
         <v>5013.5219999999999</v>
       </c>
       <c r="O123" s="27">
-        <f>O122*O27</f>
+        <f t="shared" si="53"/>
         <v>7320.6</v>
       </c>
       <c r="P123" s="27">
-        <f>P122*P27</f>
+        <f t="shared" si="53"/>
         <v>11124.871999999999</v>
       </c>
       <c r="Q123" s="27">
-        <f>Q122*Q27</f>
+        <f t="shared" si="53"/>
         <v>12491.599999999999</v>
       </c>
       <c r="R123" s="27">
-        <f>R122*R27</f>
+        <f t="shared" si="53"/>
         <v>10212.330000000002</v>
       </c>
       <c r="S123" s="27">
-        <f>S122*S27</f>
+        <f t="shared" si="53"/>
         <v>9263.3060000000005</v>
       </c>
       <c r="T123" s="27">
-        <f>T122*T27</f>
+        <f t="shared" si="53"/>
         <v>6449.7879999999996</v>
       </c>
       <c r="AA123" s="27">
-        <f t="shared" ref="AA123" si="53">AA122*AA27</f>
+        <f t="shared" ref="AA123" si="54">AA122*AA27</f>
         <v>5013.5219999999999</v>
       </c>
       <c r="AB123" s="27">
@@ -6077,39 +6171,39 @@
         <v>9</v>
       </c>
       <c r="M124" s="27">
-        <f>M123-M115</f>
+        <f t="shared" ref="M124:T124" si="55">M123-M115</f>
         <v>3246.6420000000003</v>
       </c>
       <c r="N124" s="27">
-        <f>N123-N115</f>
+        <f t="shared" si="55"/>
         <v>6709.1219999999994</v>
       </c>
       <c r="O124" s="27">
-        <f>O123-O115</f>
+        <f t="shared" si="55"/>
         <v>7320.6</v>
       </c>
       <c r="P124" s="27">
-        <f>P123-P115</f>
+        <f t="shared" si="55"/>
         <v>12944.671999999999</v>
       </c>
       <c r="Q124" s="27">
-        <f>Q123-Q115</f>
+        <f t="shared" si="55"/>
         <v>14298</v>
       </c>
       <c r="R124" s="27">
-        <f>R123-R115</f>
+        <f t="shared" si="55"/>
         <v>11607.430000000002</v>
       </c>
       <c r="S124" s="27">
-        <f>S123-S115</f>
+        <f t="shared" si="55"/>
         <v>10718.106</v>
       </c>
       <c r="T124" s="27">
-        <f>T123-T115</f>
+        <f t="shared" si="55"/>
         <v>7655.4879999999994</v>
       </c>
       <c r="AA124" s="27">
-        <f t="shared" ref="AA124" si="54">AA123-AA115</f>
+        <f t="shared" ref="AA124" si="56">AA123-AA115</f>
         <v>6709.1219999999994</v>
       </c>
       <c r="AB124" s="27">
@@ -6159,19 +6253,19 @@
         <v>27</v>
       </c>
       <c r="P127" s="57">
-        <f t="shared" ref="P127:S127" si="55">P122/SUM(M9:P9)</f>
+        <f t="shared" ref="P127:S127" si="57">P122/SUM(M9:P9)</f>
         <v>3.3363450053989726E-3</v>
       </c>
       <c r="Q127" s="57">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>3.5885419964958943E-3</v>
       </c>
       <c r="R127" s="57">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>3.3117316306108839E-3</v>
       </c>
       <c r="S127" s="57">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>3.1597674651698908E-3</v>
       </c>
       <c r="T127" s="57">
@@ -6179,7 +6273,7 @@
         <v>2.2633532687151986E-3</v>
       </c>
       <c r="AA127" s="57">
-        <f t="shared" ref="AA127:AB127" si="56">AA123/AA9</f>
+        <f t="shared" ref="AA127" si="58">AA123/AA9</f>
         <v>1.3294587786057119</v>
       </c>
       <c r="AB127" s="57">
@@ -6192,19 +6286,19 @@
         <v>28</v>
       </c>
       <c r="P128" s="57">
-        <f t="shared" ref="P128:S128" si="57">P122/SUM(M26:P26)</f>
+        <f t="shared" ref="P128:S128" si="59">P122/SUM(M26:P26)</f>
         <v>-88.265429889576552</v>
       </c>
       <c r="Q128" s="57">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-249.48613055071797</v>
       </c>
       <c r="R128" s="57">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-228.62115367889854</v>
       </c>
       <c r="S128" s="57">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>697.1161832155442</v>
       </c>
       <c r="T128" s="57">

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0497BF-6311-4CED-A70D-51D71A467584}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EBCF00-D6CD-42B3-BA8F-CF117E2F6467}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" activeTab="1" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="210">
   <si>
     <t>$ERJ</t>
   </si>
@@ -648,6 +648,57 @@
   </si>
   <si>
     <t>Embraer confident with a deal offered to Croatia airlines to replace all existing 6 Dash-8 &amp; 7 A320 aircraft with E2 jet</t>
+  </si>
+  <si>
+    <t>Q2 20</t>
+  </si>
+  <si>
+    <t>https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/1083816a-dedc-4569-947a-0418e30ccac3?origin=1</t>
+  </si>
+  <si>
+    <t>Embraer 195</t>
+  </si>
+  <si>
+    <t>Collateralized A/R</t>
+  </si>
+  <si>
+    <t>Recourse &amp; Non-Recourse Debt</t>
+  </si>
+  <si>
+    <t>Q1 21</t>
+  </si>
+  <si>
+    <t>https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/a30b7884-cd47-4bdd-bad3-db5809146933?origin=1</t>
+  </si>
+  <si>
+    <t>"This may result in a steady flow of contracts from the Pentagon involving the upgraded KC-390"</t>
+  </si>
+  <si>
+    <t>Includes advanced boom &amp; resilient open mission system to support JADC2 requirements</t>
+  </si>
+  <si>
+    <t>Focused on cost effective, distributed tactical refueling for greater mission area coverage</t>
+  </si>
+  <si>
+    <t>Alt Link</t>
+  </si>
+  <si>
+    <t>L3Harris ($LHX) &amp; Embraer to develop new agile tanker varient of KC-390 to support USAF Operational Imperatives</t>
+  </si>
+  <si>
+    <t>Reuters report $ERJ expected to select engine in Q4 for potential turboprop launch in mid-2023</t>
+  </si>
+  <si>
+    <t>Company talking to Raytheon P&amp;W Canada and to Rolls-Royce about engines for the project</t>
+  </si>
+  <si>
+    <t>Embraer has letters-of-intent for 250+ aircraft and executive said "underline plus"</t>
+  </si>
+  <si>
+    <t>Concept images show rear-mounted</t>
+  </si>
+  <si>
+    <t>turboprops</t>
   </si>
 </sst>
 </file>
@@ -866,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1001,28 +1052,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,6 +1075,21 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1133,7 +1187,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1183,7 +1237,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1200,7 +1254,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18183225" y="0"/>
-          <a:ext cx="0" cy="22717125"/>
+          <a:ext cx="0" cy="23040975"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1523,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F324B-1DEB-44A7-A7E2-319E26170844}">
-  <dimension ref="A2:X43"/>
+  <dimension ref="A2:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:R23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1670,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="12">
-        <f>'Financial Model'!S113</f>
+        <f>'Financial Model'!S118</f>
         <v>2104.1999999999998</v>
       </c>
       <c r="D9" s="18" t="str">
@@ -1701,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="12">
-        <f>'Financial Model'!T114</f>
+        <f>'Financial Model'!T119</f>
         <v>3173.8999999999996</v>
       </c>
       <c r="D10" s="18" t="str">
@@ -1897,8 +1951,12 @@
         <v>19</v>
       </c>
       <c r="D17" s="67"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="60"/>
+      <c r="G17" s="9">
+        <v>44805</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="I17" s="60"/>
       <c r="J17" s="60"/>
       <c r="K17" s="60"/>
@@ -1919,7 +1977,9 @@
       <c r="C18" s="66"/>
       <c r="D18" s="67"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="60"/>
+      <c r="H18" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="I18" s="60"/>
       <c r="J18" s="60"/>
       <c r="K18" s="60"/>
@@ -1939,10 +1999,12 @@
     </row>
     <row r="19" spans="2:24">
       <c r="B19" s="17"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="60"/>
+      <c r="H19" s="8" t="s">
+        <v>202</v>
+      </c>
       <c r="I19" s="60"/>
       <c r="J19" s="60"/>
       <c r="K19" s="60"/>
@@ -1962,7 +2024,9 @@
     </row>
     <row r="20" spans="2:24">
       <c r="G20" s="10"/>
-      <c r="H20" s="60"/>
+      <c r="H20" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="I20" s="60"/>
       <c r="J20" s="60"/>
       <c r="K20" s="60"/>
@@ -1972,7 +2036,9 @@
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="60"/>
-      <c r="R20" s="38"/>
+      <c r="R20" s="51" t="s">
+        <v>203</v>
+      </c>
       <c r="U20" s="45" t="s">
         <v>141</v>
       </c>
@@ -2033,8 +2099,12 @@
         <v>132</v>
       </c>
       <c r="D23" s="67"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="60"/>
+      <c r="G23" s="9">
+        <v>44743</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="I23" s="60"/>
       <c r="J23" s="60"/>
       <c r="K23" s="60"/>
@@ -2058,21 +2128,19 @@
         <v>1969</v>
       </c>
       <c r="D24" s="67"/>
-      <c r="G24" s="9">
-        <v>43922</v>
-      </c>
-      <c r="H24" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
       <c r="R24" s="38"/>
       <c r="U24" s="46" t="s">
         <v>143</v>
@@ -2086,18 +2154,18 @@
       <c r="C25" s="66"/>
       <c r="D25" s="67"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
+      <c r="H25" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="38"/>
       <c r="U25" s="45" t="s">
         <v>144</v>
@@ -2110,25 +2178,23 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="64">
-        <f>'Financial Model'!T60</f>
+      <c r="C26" s="72">
+        <f>'Financial Model'!T62</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="65"/>
+      <c r="D26" s="73"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="51" t="s">
-        <v>31</v>
-      </c>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="38"/>
       <c r="U26" s="45" t="s">
         <v>145</v>
       </c>
@@ -2140,8 +2206,12 @@
       <c r="B27" s="10"/>
       <c r="C27" s="66"/>
       <c r="D27" s="67"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="37"/>
+      <c r="G27" s="9">
+        <v>43922</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>164</v>
+      </c>
       <c r="I27" s="37"/>
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
@@ -2170,7 +2240,9 @@
         <v>44777</v>
       </c>
       <c r="G28" s="10"/>
-      <c r="H28" s="37"/>
+      <c r="H28" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
@@ -2192,10 +2264,10 @@
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="73"/>
+      <c r="D29" s="69"/>
       <c r="G29" s="10"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
@@ -2207,7 +2279,9 @@
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
-      <c r="R29" s="38"/>
+      <c r="R29" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="U29" s="42"/>
       <c r="V29" s="37"/>
       <c r="W29" s="37"/>
@@ -2284,11 +2358,11 @@
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="74">
-        <f>C6/'Financial Model'!T111</f>
+      <c r="C33" s="70">
+        <f>C6/'Financial Model'!T116</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="71"/>
       <c r="G33" s="10"/>
       <c r="H33" s="50" t="s">
         <v>168</v>
@@ -2312,11 +2386,11 @@
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="70">
         <f>C6/'Financial Model'!AB9</f>
         <v>2.2515010006671113E-3</v>
       </c>
-      <c r="D34" s="75"/>
+      <c r="D34" s="71"/>
       <c r="G34" s="10"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
@@ -2338,11 +2412,11 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="64">
         <f>C6/'Financial Model'!AB26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="71"/>
+      <c r="D35" s="65"/>
       <c r="G35" s="10"/>
       <c r="H35" s="60"/>
       <c r="I35" s="37"/>
@@ -2473,9 +2547,9 @@
       <c r="P41" s="37"/>
       <c r="Q41" s="37"/>
       <c r="R41" s="38"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
       <c r="X41" s="38"/>
     </row>
     <row r="42" spans="2:24">
@@ -2493,10 +2567,12 @@
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
       <c r="R42" s="38"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="36"/>
+      <c r="U42" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="38"/>
     </row>
     <row r="43" spans="2:24">
       <c r="G43" s="11"/>
@@ -2513,16 +2589,21 @@
       <c r="P43" s="35"/>
       <c r="Q43" s="35"/>
       <c r="R43" s="36"/>
+      <c r="U43" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="38"/>
+    </row>
+    <row r="44" spans="2:24">
+      <c r="U44" s="43"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B5:D5"/>
@@ -2536,29 +2617,39 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
     <hyperlink ref="H10" r:id="rId2" xr:uid="{64917365-2EAB-45F1-BFD3-E1E4F5A494BB}"/>
     <hyperlink ref="C29:D29" r:id="rId3" display="Link" xr:uid="{11C3F337-5FA5-4654-84A9-81E0FD7B340B}"/>
-    <hyperlink ref="R26" r:id="rId4" location="Boeing_Embraer_-_Defense" xr:uid="{CC492105-8696-4FC6-849B-A673602C4CB8}"/>
+    <hyperlink ref="R29" r:id="rId4" location="Boeing_Embraer_-_Defense" xr:uid="{CC492105-8696-4FC6-849B-A673602C4CB8}"/>
     <hyperlink ref="H14" r:id="rId5" xr:uid="{E8520AE3-EE90-4F9C-82B7-9DC79CF177B0}"/>
+    <hyperlink ref="H17" r:id="rId6" display="L3Harris &amp; Embraer to develop new agile tanker varient of KC-390 to support USAF Operational Imperatives" xr:uid="{51AAA14D-A039-4171-BC04-5AAB9894A308}"/>
+    <hyperlink ref="R20" r:id="rId7" display="Link" xr:uid="{AE9B4E32-1957-4A54-8E54-10A62C8F25C4}"/>
+    <hyperlink ref="H23" r:id="rId8" display="Reuters report $ERJ expected to select engine in Q4 for potential turboprop launch in 2023" xr:uid="{3D245668-921A-4888-B384-DE0FC15EB559}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D70B2A-3077-4926-AE7B-39AF91889CD9}">
-  <dimension ref="B1:AL128"/>
+  <dimension ref="B1:AL133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T127" sqref="T127"/>
+      <selection pane="bottomRight" activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2598,19 +2689,19 @@
       <c r="J1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="24" t="s">
         <v>42</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="24" t="s">
         <v>44</v>
       </c>
       <c r="P1" s="15" t="s">
@@ -2679,6 +2770,21 @@
     </row>
     <row r="2" spans="2:38" s="21" customFormat="1">
       <c r="B2" s="20"/>
+      <c r="G2" s="22">
+        <v>43555</v>
+      </c>
+      <c r="H2" s="22">
+        <v>43646</v>
+      </c>
+      <c r="J2" s="22">
+        <v>43830</v>
+      </c>
+      <c r="K2" s="22">
+        <v>43921</v>
+      </c>
+      <c r="L2" s="22">
+        <v>44012</v>
+      </c>
       <c r="M2" s="22">
         <v>44104</v>
       </c>
@@ -2712,6 +2818,15 @@
     </row>
     <row r="3" spans="2:38" s="21" customFormat="1">
       <c r="B3" s="20"/>
+      <c r="K3" s="23">
+        <v>43983</v>
+      </c>
+      <c r="L3" s="23">
+        <v>44048</v>
+      </c>
+      <c r="O3" s="23">
+        <v>44315</v>
+      </c>
       <c r="P3" s="23"/>
       <c r="Q3" s="23">
         <v>44505</v>
@@ -2733,6 +2848,21 @@
       <c r="B4" s="55" t="s">
         <v>172</v>
       </c>
+      <c r="G4" s="52">
+        <v>281.10000000000002</v>
+      </c>
+      <c r="H4" s="52">
+        <v>630.5</v>
+      </c>
+      <c r="J4" s="52">
+        <v>915.1</v>
+      </c>
+      <c r="K4" s="52">
+        <v>140.5</v>
+      </c>
+      <c r="L4" s="52">
+        <v>108.6</v>
+      </c>
       <c r="M4" s="52">
         <v>177.2</v>
       </c>
@@ -2768,6 +2898,21 @@
       <c r="B5" s="55" t="s">
         <v>173</v>
       </c>
+      <c r="G5" s="52">
+        <v>117.3</v>
+      </c>
+      <c r="H5" s="52">
+        <v>297</v>
+      </c>
+      <c r="J5" s="52">
+        <v>619.70000000000005</v>
+      </c>
+      <c r="K5" s="52">
+        <v>129.6</v>
+      </c>
+      <c r="L5" s="52">
+        <v>149.9</v>
+      </c>
       <c r="M5" s="52">
         <v>212.3</v>
       </c>
@@ -2803,6 +2948,21 @@
       <c r="B6" s="55" t="s">
         <v>174</v>
       </c>
+      <c r="G6" s="52">
+        <v>179.4</v>
+      </c>
+      <c r="H6" s="52">
+        <v>141.5</v>
+      </c>
+      <c r="J6" s="52">
+        <v>236.1</v>
+      </c>
+      <c r="K6" s="52">
+        <v>149.1</v>
+      </c>
+      <c r="L6" s="52">
+        <v>85.8</v>
+      </c>
       <c r="M6" s="52">
         <v>154.69999999999999</v>
       </c>
@@ -2838,6 +2998,21 @@
       <c r="B7" s="55" t="s">
         <v>175</v>
       </c>
+      <c r="G7" s="52">
+        <v>244.2</v>
+      </c>
+      <c r="H7" s="52">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="J7" s="52">
+        <v>309.2</v>
+      </c>
+      <c r="K7" s="52">
+        <v>213.1</v>
+      </c>
+      <c r="L7" s="52">
+        <v>191.9</v>
+      </c>
       <c r="M7" s="52">
         <v>212.9</v>
       </c>
@@ -2873,6 +3048,21 @@
       <c r="B8" s="55" t="s">
         <v>176</v>
       </c>
+      <c r="G8" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="H8" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="52">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K8" s="52">
+        <v>1.6</v>
+      </c>
+      <c r="L8" s="52">
+        <v>1</v>
+      </c>
       <c r="M8" s="52">
         <v>1.6</v>
       </c>
@@ -2909,6 +3099,21 @@
         <v>50</v>
       </c>
       <c r="C9" s="56"/>
+      <c r="G9" s="26">
+        <v>823.3</v>
+      </c>
+      <c r="H9" s="26">
+        <v>1378.7</v>
+      </c>
+      <c r="J9" s="26">
+        <v>2085</v>
+      </c>
+      <c r="K9" s="26">
+        <v>633.79999999999995</v>
+      </c>
+      <c r="L9" s="26">
+        <v>537.20000000000005</v>
+      </c>
       <c r="M9" s="26">
         <v>758.7</v>
       </c>
@@ -2944,6 +3149,21 @@
       <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="G10" s="27">
+        <v>659.4</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1180.0999999999999</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1806.4</v>
+      </c>
+      <c r="K10" s="27">
+        <v>449.8</v>
+      </c>
+      <c r="L10" s="3">
+        <v>520.79999999999995</v>
+      </c>
       <c r="M10" s="27">
         <v>703.9</v>
       </c>
@@ -2979,6 +3199,26 @@
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="G11" s="26">
+        <f>G9-G10</f>
+        <v>163.89999999999998</v>
+      </c>
+      <c r="H11" s="26">
+        <f>H9-H10</f>
+        <v>198.60000000000014</v>
+      </c>
+      <c r="J11" s="26">
+        <f>J9-J10</f>
+        <v>278.59999999999991</v>
+      </c>
+      <c r="K11" s="26">
+        <f>K9-K10</f>
+        <v>183.99999999999994</v>
+      </c>
+      <c r="L11" s="26">
+        <f>L9-L10</f>
+        <v>16.400000000000091</v>
+      </c>
       <c r="M11" s="26">
         <f>M9-M10</f>
         <v>54.800000000000068</v>
@@ -3024,6 +3264,21 @@
       <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="G12" s="27">
+        <v>46</v>
+      </c>
+      <c r="H12" s="27">
+        <v>46.2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>60.6</v>
+      </c>
+      <c r="K12" s="27">
+        <v>32.5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>33.700000000000003</v>
+      </c>
       <c r="M12" s="27">
         <v>35</v>
       </c>
@@ -3059,6 +3314,21 @@
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="G13" s="27">
+        <v>70.3</v>
+      </c>
+      <c r="H13" s="27">
+        <v>76.2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="K13" s="27">
+        <v>83.5</v>
+      </c>
+      <c r="L13" s="3">
+        <v>47.6</v>
+      </c>
       <c r="M13" s="27">
         <v>45.4</v>
       </c>
@@ -3094,6 +3364,21 @@
       <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="G14" s="27">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27">
+        <v>-3.3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="27">
+        <v>0</v>
+      </c>
+      <c r="L14" s="27">
+        <v>19.3</v>
+      </c>
       <c r="M14" s="27">
         <v>14</v>
       </c>
@@ -3129,6 +3414,21 @@
       <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="G15" s="27">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H15" s="27">
+        <v>11.8</v>
+      </c>
+      <c r="J15" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="K15" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="L15" s="27">
+        <v>6.4</v>
+      </c>
       <c r="M15" s="27">
         <v>7.1</v>
       </c>
@@ -3164,6 +3464,21 @@
       <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="G16" s="27">
+        <v>-53.5</v>
+      </c>
+      <c r="H16" s="27">
+        <v>-41</v>
+      </c>
+      <c r="J16" s="3">
+        <v>-196.8</v>
+      </c>
+      <c r="K16" s="27">
+        <v>-112.2</v>
+      </c>
+      <c r="L16" s="27">
+        <v>-251.8</v>
+      </c>
       <c r="M16" s="27">
         <v>9.1</v>
       </c>
@@ -3199,6 +3514,21 @@
       <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="G17" s="27">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27">
+        <v>-0.1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="K17" s="27">
+        <v>3.1</v>
+      </c>
+      <c r="L17" s="27">
+        <v>0</v>
+      </c>
       <c r="M17" s="27">
         <v>-0.1</v>
       </c>
@@ -3234,6 +3564,26 @@
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="G18" s="26">
+        <f>G11-G12-G13-G14-G15+G16+G17</f>
+        <v>-15.200000000000017</v>
+      </c>
+      <c r="H18" s="26">
+        <f>H11-H12-H13-H14-H15+H16+H17</f>
+        <v>26.600000000000144</v>
+      </c>
+      <c r="J18" s="26">
+        <f>J11-J12-J13-J14-J15+J16+J17</f>
+        <v>-67.600000000000108</v>
+      </c>
+      <c r="K18" s="26">
+        <f>K11-K12-K13-K14-K15+K16+K17</f>
+        <v>-46.900000000000055</v>
+      </c>
+      <c r="L18" s="26">
+        <f>L11-L12-L13-L14-L15+L16+L17</f>
+        <v>-342.39999999999992</v>
+      </c>
       <c r="M18" s="26">
         <f>M11-M12-M13-M14-M15+M16+M17</f>
         <v>-37.699999999999932</v>
@@ -3279,6 +3629,21 @@
       <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="G19" s="27">
+        <v>-41.1</v>
+      </c>
+      <c r="H19" s="27">
+        <v>-30</v>
+      </c>
+      <c r="J19" s="3">
+        <v>-26.9</v>
+      </c>
+      <c r="K19" s="27">
+        <v>-36.1</v>
+      </c>
+      <c r="L19" s="27">
+        <v>-37.4</v>
+      </c>
       <c r="M19" s="27">
         <v>-94.6</v>
       </c>
@@ -3314,6 +3679,21 @@
       <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="G20" s="27">
+        <v>9.1</v>
+      </c>
+      <c r="H20" s="27">
+        <v>-3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="K20" s="27">
+        <v>-24.7</v>
+      </c>
+      <c r="L20" s="27">
+        <v>-10.4</v>
+      </c>
       <c r="M20" s="27">
         <v>-16.3</v>
       </c>
@@ -3349,6 +3729,26 @@
       <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="G21" s="27">
+        <f>G18+G19+G20</f>
+        <v>-47.200000000000017</v>
+      </c>
+      <c r="H21" s="27">
+        <f>H18+H19+H20</f>
+        <v>-6.3999999999998565</v>
+      </c>
+      <c r="J21" s="27">
+        <f>J18+J19+J20</f>
+        <v>-96.700000000000117</v>
+      </c>
+      <c r="K21" s="27">
+        <f>K18+K19+K20</f>
+        <v>-107.70000000000006</v>
+      </c>
+      <c r="L21" s="27">
+        <f>L18+L19+L20</f>
+        <v>-390.19999999999987</v>
+      </c>
       <c r="M21" s="27">
         <f>M18+M19+M20</f>
         <v>-148.59999999999994</v>
@@ -3394,6 +3794,21 @@
       <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="G22" s="27">
+        <v>-6</v>
+      </c>
+      <c r="H22" s="27">
+        <v>-15.6</v>
+      </c>
+      <c r="J22" s="3">
+        <v>112.5</v>
+      </c>
+      <c r="K22" s="27">
+        <v>182.9</v>
+      </c>
+      <c r="L22" s="27">
+        <v>-77.599999999999994</v>
+      </c>
       <c r="M22" s="27">
         <v>-29.1</v>
       </c>
@@ -3429,6 +3844,26 @@
       <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="G23" s="26">
+        <f>G21-G22</f>
+        <v>-41.200000000000017</v>
+      </c>
+      <c r="H23" s="26">
+        <f>H21-H22</f>
+        <v>9.2000000000001432</v>
+      </c>
+      <c r="J23" s="26">
+        <f>J21-J22</f>
+        <v>-209.2000000000001</v>
+      </c>
+      <c r="K23" s="26">
+        <f>K21-K22</f>
+        <v>-290.60000000000008</v>
+      </c>
+      <c r="L23" s="26">
+        <f>L21-L22</f>
+        <v>-312.59999999999991</v>
+      </c>
       <c r="M23" s="26">
         <f>M21-M22</f>
         <v>-119.49999999999994</v>
@@ -3474,6 +3909,21 @@
       <c r="B24" s="29" t="s">
         <v>72</v>
       </c>
+      <c r="G24" s="26">
+        <v>-42.5</v>
+      </c>
+      <c r="H24" s="26">
+        <v>7.2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>-209.8</v>
+      </c>
+      <c r="K24" s="26">
+        <v>-292</v>
+      </c>
+      <c r="L24" s="26">
+        <v>-315.3</v>
+      </c>
       <c r="M24" s="26">
         <v>-121.2</v>
       </c>
@@ -3509,6 +3959,21 @@
       <c r="B25" s="30" t="s">
         <v>73</v>
       </c>
+      <c r="G25" s="27">
+        <v>1.3</v>
+      </c>
+      <c r="H25" s="27">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="K25" s="27">
+        <v>1.4</v>
+      </c>
+      <c r="L25" s="27">
+        <v>2.7</v>
+      </c>
       <c r="M25" s="27">
         <v>1.7</v>
       </c>
@@ -3544,6 +4009,26 @@
       <c r="B26" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="G26" s="28">
+        <f>G24/G27</f>
+        <v>-5.7768112002174798E-2</v>
+      </c>
+      <c r="H26" s="28">
+        <f>H24/H27</f>
+        <v>9.7852677357977719E-3</v>
+      </c>
+      <c r="J26" s="28">
+        <f>J24/J27</f>
+        <v>-0.28509308329936134</v>
+      </c>
+      <c r="K26" s="28">
+        <f>K24/K27</f>
+        <v>-0.39668523298464881</v>
+      </c>
+      <c r="L26" s="28">
+        <f>L24/L27</f>
+        <v>-0.42828035859820701</v>
+      </c>
       <c r="M26" s="28">
         <f>M24/M27</f>
         <v>-0.16462917685411571</v>
@@ -3589,6 +4074,21 @@
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G27" s="3">
+        <v>735.7</v>
+      </c>
+      <c r="H27" s="3">
+        <v>735.8</v>
+      </c>
+      <c r="J27" s="3">
+        <v>735.9</v>
+      </c>
+      <c r="K27" s="3">
+        <v>736.1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>736.2</v>
+      </c>
       <c r="M27" s="3">
         <v>736.2</v>
       </c>
@@ -3624,6 +4124,27 @@
       <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="K30" s="34">
+        <f>K9/G9-1</f>
+        <v>-0.23017126199441273</v>
+      </c>
+      <c r="L30" s="34">
+        <f>L9/H9-1</f>
+        <v>-0.61035758323057954</v>
+      </c>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34">
+        <f>N9/J9-1</f>
+        <v>-0.11683453237410069</v>
+      </c>
+      <c r="O30" s="34">
+        <f>O9/K9-1</f>
+        <v>0.27374566109182719</v>
+      </c>
+      <c r="P30" s="34">
+        <f>P9/L9-1</f>
+        <v>1.1044303797468351</v>
+      </c>
       <c r="Q30" s="34">
         <f>Q9/M9-1</f>
         <v>0.26281797812046914</v>
@@ -3649,12 +4170,28 @@
       <c r="B31" s="25" t="s">
         <v>67</v>
       </c>
+      <c r="H31" s="25">
+        <f t="shared" ref="H31" si="8">H9/G9-1</f>
+        <v>0.67460221061581449</v>
+      </c>
+      <c r="K31" s="25">
+        <f t="shared" ref="K31" si="9">K9/J9-1</f>
+        <v>-0.69601918465227819</v>
+      </c>
+      <c r="L31" s="25">
+        <f t="shared" ref="L31" si="10">L9/K9-1</f>
+        <v>-0.15241401072893646</v>
+      </c>
+      <c r="M31" s="25">
+        <f t="shared" ref="M31" si="11">M9/L9-1</f>
+        <v>0.41232315711094558</v>
+      </c>
       <c r="N31" s="25">
-        <f t="shared" ref="N31:O31" si="8">N9/M9-1</f>
+        <f t="shared" ref="N31:O31" si="12">N9/M9-1</f>
         <v>1.4270462633451957</v>
       </c>
       <c r="O31" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-0.56158357771261003</v>
       </c>
       <c r="P31" s="25">
@@ -3662,11 +4199,11 @@
         <v>0.40034683512944391</v>
       </c>
       <c r="Q31" s="25">
-        <f t="shared" ref="Q31:R31" si="9">Q9/P9-1</f>
+        <f t="shared" ref="Q31:R31" si="13">Q9/P9-1</f>
         <v>-0.15249889429455987</v>
       </c>
       <c r="R31" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.35820895522388052</v>
       </c>
       <c r="S31" s="25">
@@ -3682,12 +4219,32 @@
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="G34" s="25">
+        <f t="shared" ref="G34:H34" si="14">G11/G9</f>
+        <v>0.19907688570387463</v>
+      </c>
+      <c r="H34" s="25">
+        <f>H11/H9</f>
+        <v>0.14404874156814398</v>
+      </c>
+      <c r="J34" s="25">
+        <f t="shared" ref="J34:K34" si="15">J11/J9</f>
+        <v>0.13362110311750594</v>
+      </c>
+      <c r="K34" s="25">
+        <f t="shared" ref="K34:L34" si="16">K11/K9</f>
+        <v>0.29031240138845055</v>
+      </c>
+      <c r="L34" s="25">
+        <f t="shared" ref="L34:M34" si="17">L11/L9</f>
+        <v>3.0528667163067926E-2</v>
+      </c>
       <c r="M34" s="25">
         <f>M11/M9</f>
         <v>7.2228812442335658E-2</v>
       </c>
       <c r="N34" s="25">
-        <f t="shared" ref="N34" si="10">N11/N9</f>
+        <f t="shared" ref="N34" si="18">N11/N9</f>
         <v>0.12077766916476598</v>
       </c>
       <c r="O34" s="25">
@@ -3699,15 +4256,15 @@
         <v>0.18195488721804515</v>
       </c>
       <c r="Q34" s="25">
-        <f t="shared" ref="Q34:R34" si="11">Q11/Q9</f>
+        <f t="shared" ref="Q34:R34" si="19">Q11/Q9</f>
         <v>0.18964617472080164</v>
       </c>
       <c r="R34" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.1504649196956889</v>
       </c>
       <c r="S34" s="25">
-        <f t="shared" ref="S34" si="12">S11/S9</f>
+        <f t="shared" ref="S34" si="20">S11/S9</f>
         <v>0.20086536861374604</v>
       </c>
       <c r="T34" s="25">
@@ -3727,12 +4284,32 @@
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="G35" s="25">
+        <f t="shared" ref="G35:H35" si="21">G18/G9</f>
+        <v>-1.8462285922507007E-2</v>
+      </c>
+      <c r="H35" s="25">
+        <f>H18/H9</f>
+        <v>1.9293537390295309E-2</v>
+      </c>
+      <c r="J35" s="25">
+        <f t="shared" ref="J35:K35" si="22">J18/J9</f>
+        <v>-3.2422062350119955E-2</v>
+      </c>
+      <c r="K35" s="25">
+        <f t="shared" ref="K35:L35" si="23">K18/K9</f>
+        <v>-7.3998106658251905E-2</v>
+      </c>
+      <c r="L35" s="25">
+        <f t="shared" ref="L35:M35" si="24">L18/L9</f>
+        <v>-0.63737900223380473</v>
+      </c>
       <c r="M35" s="25">
         <f>M18/M9</f>
         <v>-4.9690259654672372E-2</v>
       </c>
       <c r="N35" s="25">
-        <f t="shared" ref="N35" si="13">N18/N9</f>
+        <f t="shared" ref="N35" si="25">N18/N9</f>
         <v>5.6261540132507927E-2</v>
       </c>
       <c r="O35" s="25">
@@ -3744,15 +4321,15 @@
         <v>0.12720035382574085</v>
       </c>
       <c r="Q35" s="25">
-        <f t="shared" ref="Q35:R35" si="14">Q18/Q9</f>
+        <f t="shared" ref="Q35:R35" si="26">Q18/Q9</f>
         <v>3.1311971610479127E-2</v>
       </c>
       <c r="R35" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>4.6568815799584988E-2</v>
       </c>
       <c r="S35" s="25">
-        <f t="shared" ref="S35" si="15">S18/S9</f>
+        <f t="shared" ref="S35" si="27">S18/S9</f>
         <v>-6.0409385921118344E-2</v>
       </c>
       <c r="T35" s="25">
@@ -3772,12 +4349,32 @@
       <c r="B36" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="G36" s="25">
+        <f t="shared" ref="G36:H36" si="28">G23/G9</f>
+        <v>-5.0042511842584743E-2</v>
+      </c>
+      <c r="H36" s="25">
+        <f>H23/H9</f>
+        <v>6.6729527816059642E-3</v>
+      </c>
+      <c r="J36" s="25">
+        <f t="shared" ref="J36:K36" si="29">J23/J9</f>
+        <v>-0.10033573141486815</v>
+      </c>
+      <c r="K36" s="25">
+        <f t="shared" ref="K36:L36" si="30">K23/K9</f>
+        <v>-0.45850426001893357</v>
+      </c>
+      <c r="L36" s="25">
+        <f t="shared" ref="L36:M36" si="31">L23/L9</f>
+        <v>-0.58190618019359619</v>
+      </c>
       <c r="M36" s="25">
         <f>M23/M9</f>
         <v>-0.15750626070910759</v>
       </c>
       <c r="N36" s="25">
-        <f t="shared" ref="N36" si="16">N23/N9</f>
+        <f t="shared" ref="N36" si="32">N23/N9</f>
         <v>-2.9868578255674411E-3</v>
       </c>
       <c r="O36" s="25">
@@ -3789,15 +4386,15 @@
         <v>7.8903140203449823E-2</v>
       </c>
       <c r="Q36" s="25">
-        <f t="shared" ref="Q36:R36" si="17">Q23/Q9</f>
+        <f t="shared" ref="Q36:R36" si="33">Q23/Q9</f>
         <v>-4.7698570086629734E-2</v>
       </c>
       <c r="R36" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>2.3053869207714925E-3</v>
       </c>
       <c r="S36" s="25">
-        <f t="shared" ref="S36" si="18">S23/S9</f>
+        <f t="shared" ref="S36" si="34">S23/S9</f>
         <v>-5.1090031619237815E-2</v>
       </c>
       <c r="T36" s="25">
@@ -3817,12 +4414,32 @@
       <c r="B37" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="G37" s="25">
+        <f t="shared" ref="G37:H37" si="35">G22/G21</f>
+        <v>0.12711864406779658</v>
+      </c>
+      <c r="H37" s="25">
+        <f>H22/H21</f>
+        <v>2.4375000000000546</v>
+      </c>
+      <c r="J37" s="25">
+        <f t="shared" ref="J37:K37" si="36">J22/J21</f>
+        <v>-1.1633919338159242</v>
+      </c>
+      <c r="K37" s="25">
+        <f t="shared" ref="K37:L37" si="37">K22/K21</f>
+        <v>-1.6982358402971207</v>
+      </c>
+      <c r="L37" s="25">
+        <f t="shared" si="37"/>
+        <v>0.19887237314197853</v>
+      </c>
       <c r="M37" s="25">
         <f>M22/M21</f>
         <v>0.19582772543741597</v>
       </c>
       <c r="N37" s="25">
-        <f t="shared" ref="N37" si="19">N22/N21</f>
+        <f t="shared" ref="N37" si="38">N22/N21</f>
         <v>1.4824561403508625</v>
       </c>
       <c r="O37" s="25">
@@ -3834,15 +4451,15 @@
         <v>-6.6985645933014315E-2</v>
       </c>
       <c r="Q37" s="25">
-        <f t="shared" ref="Q37:R37" si="20">Q22/Q21</f>
+        <f t="shared" ref="Q37:R37" si="39">Q22/Q21</f>
         <v>-0.82800000000000162</v>
       </c>
       <c r="R37" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="39"/>
         <v>0.94800693240901301</v>
       </c>
       <c r="S37" s="25">
-        <f t="shared" ref="S37" si="21">S22/S21</f>
+        <f t="shared" ref="S37" si="40">S22/S21</f>
         <v>0.62098765432098757</v>
       </c>
       <c r="T37" s="25">
@@ -3867,36 +4484,60 @@
       <c r="B41" s="29" t="s">
         <v>83</v>
       </c>
+      <c r="H41" s="2">
+        <f t="shared" ref="H41" si="41">H42+H49</f>
+        <v>51</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" ref="J41:K41" si="42">J42+J49</f>
+        <v>81</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" ref="K41:L41" si="43">K42+K49</f>
+        <v>14</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="43"/>
+        <v>17</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" ref="M41" si="44">M42+M49</f>
+        <v>48</v>
+      </c>
       <c r="N41" s="2">
-        <f>O42+O48</f>
-        <v>0</v>
+        <f t="shared" ref="N41:S41" si="45">N42+N49</f>
+        <v>71</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" ref="O41" si="46">O42+O49</f>
+        <v>22</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" ref="P41:S41" si="22">P42+P48</f>
+        <f t="shared" si="45"/>
         <v>34</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>30</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>55</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>26</v>
       </c>
       <c r="T41" s="2">
-        <f>T42+T48</f>
+        <f>T42+T49</f>
         <v>32</v>
       </c>
       <c r="AA41" s="2">
-        <f>AA42+AA48</f>
+        <f>AA42+AA49</f>
         <v>129</v>
       </c>
       <c r="AB41" s="2">
-        <f>AB42+AB48</f>
+        <f>AB42+AB49</f>
         <v>141</v>
       </c>
     </row>
@@ -3904,36 +4545,60 @@
       <c r="B42" s="49" t="s">
         <v>84</v>
       </c>
+      <c r="H42" s="40">
+        <f>SUM(H43:H47)</f>
+        <v>26</v>
+      </c>
+      <c r="J42" s="40">
+        <f t="shared" ref="J42" si="47">SUM(J43:J47)</f>
+        <v>35</v>
+      </c>
+      <c r="K42" s="40">
+        <f t="shared" ref="K42:M42" si="48">SUM(K43:K47)</f>
+        <v>5</v>
+      </c>
+      <c r="L42" s="40">
+        <f>SUM(L43:L47)</f>
+        <v>4</v>
+      </c>
+      <c r="M42" s="40">
+        <f t="shared" si="48"/>
+        <v>27</v>
+      </c>
       <c r="N42" s="40">
-        <f>N43+N45+N46</f>
+        <f>SUM(N43:N47)</f>
         <v>28</v>
       </c>
+      <c r="O42" s="40">
+        <f t="shared" ref="O42" si="49">SUM(O43:O47)</f>
+        <v>9</v>
+      </c>
       <c r="P42" s="40">
-        <f>P43+P45+P46</f>
+        <f>SUM(P43:P47)</f>
         <v>14</v>
       </c>
       <c r="Q42" s="40">
-        <f>Q43+Q45+Q46</f>
+        <f>SUM(Q43:Q47)</f>
         <v>9</v>
       </c>
       <c r="R42" s="40">
-        <f>R43+R45+R46</f>
+        <f>SUM(R43:R47)</f>
         <v>16</v>
       </c>
       <c r="S42" s="40">
-        <f t="shared" ref="S42:T42" si="23">S43+S45+S46</f>
+        <f>SUM(S43:S47)</f>
         <v>6</v>
       </c>
       <c r="T42" s="40">
-        <f t="shared" si="23"/>
+        <f>SUM(T43:T47)</f>
         <v>11</v>
       </c>
       <c r="AA42" s="40">
-        <f t="shared" ref="AA42:AB42" si="24">AA43+AA45+AA46</f>
+        <f t="shared" ref="AA42:AB42" si="50">AA43+AA46+AA47</f>
         <v>43</v>
       </c>
       <c r="AB42" s="40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="50"/>
         <v>48</v>
       </c>
     </row>
@@ -3941,8 +4606,26 @@
       <c r="B43" s="48" t="s">
         <v>85</v>
       </c>
+      <c r="H43" s="39">
+        <v>22</v>
+      </c>
+      <c r="J43" s="39">
+        <v>22</v>
+      </c>
+      <c r="K43" s="39">
+        <v>3</v>
+      </c>
+      <c r="L43" s="39">
+        <v>2</v>
+      </c>
+      <c r="M43" s="39">
+        <v>21</v>
+      </c>
       <c r="N43" s="39">
         <v>21</v>
+      </c>
+      <c r="O43" s="39">
+        <v>2</v>
       </c>
       <c r="P43" s="39">
         <v>7</v>
@@ -3970,6 +4653,42 @@
       <c r="B44" s="48" t="s">
         <v>190</v>
       </c>
+      <c r="H44" s="39">
+        <v>1</v>
+      </c>
+      <c r="J44" s="39">
+        <v>2</v>
+      </c>
+      <c r="K44" s="39">
+        <v>0</v>
+      </c>
+      <c r="L44" s="39">
+        <v>0</v>
+      </c>
+      <c r="M44" s="39">
+        <v>0</v>
+      </c>
+      <c r="N44" s="39">
+        <v>0</v>
+      </c>
+      <c r="O44" s="39">
+        <v>0</v>
+      </c>
+      <c r="P44" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="39">
+        <v>0</v>
+      </c>
+      <c r="R44" s="39">
+        <v>0</v>
+      </c>
+      <c r="S44" s="39">
+        <v>0</v>
+      </c>
+      <c r="T44" s="39">
+        <v>0</v>
+      </c>
       <c r="AA44" s="39">
         <v>1</v>
       </c>
@@ -3979,10 +4698,28 @@
     </row>
     <row r="45" spans="2:28" s="39" customFormat="1">
       <c r="B45" s="48" t="s">
-        <v>183</v>
+        <v>195</v>
+      </c>
+      <c r="H45" s="39">
+        <v>2</v>
+      </c>
+      <c r="J45" s="39">
+        <v>1</v>
+      </c>
+      <c r="K45" s="39">
+        <v>0</v>
+      </c>
+      <c r="L45" s="39">
+        <v>0</v>
+      </c>
+      <c r="M45" s="39">
+        <v>0</v>
       </c>
       <c r="N45" s="39">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O45" s="39">
+        <v>0</v>
       </c>
       <c r="P45" s="39">
         <v>0</v>
@@ -3998,709 +4735,1081 @@
       </c>
       <c r="T45" s="39">
         <v>0</v>
-      </c>
-      <c r="AA45" s="39">
-        <v>4</v>
-      </c>
-      <c r="AB45" s="39">
-        <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:28" s="39" customFormat="1">
       <c r="B46" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" s="39">
+        <v>1</v>
+      </c>
+      <c r="J46" s="39">
+        <v>4</v>
+      </c>
+      <c r="K46" s="39">
+        <v>1</v>
+      </c>
+      <c r="L46" s="39">
+        <v>2</v>
+      </c>
+      <c r="M46" s="39">
+        <v>0</v>
+      </c>
+      <c r="N46" s="39">
+        <v>1</v>
+      </c>
+      <c r="O46" s="39">
+        <v>2</v>
+      </c>
+      <c r="P46" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="39">
+        <v>0</v>
+      </c>
+      <c r="R46" s="39">
+        <v>0</v>
+      </c>
+      <c r="S46" s="39">
+        <v>0</v>
+      </c>
+      <c r="T46" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="39">
+        <v>4</v>
+      </c>
+      <c r="AB46" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" s="39" customFormat="1">
+      <c r="B47" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="N46" s="39">
+      <c r="H47" s="39">
+        <v>0</v>
+      </c>
+      <c r="J47" s="39">
         <v>6</v>
       </c>
-      <c r="P46" s="39">
+      <c r="K47" s="39">
+        <v>1</v>
+      </c>
+      <c r="L47" s="39">
+        <v>0</v>
+      </c>
+      <c r="M47" s="39">
+        <v>6</v>
+      </c>
+      <c r="N47" s="39">
+        <v>6</v>
+      </c>
+      <c r="O47" s="39">
+        <v>5</v>
+      </c>
+      <c r="P47" s="39">
         <v>7</v>
       </c>
-      <c r="Q46" s="39">
+      <c r="Q47" s="39">
         <v>3</v>
       </c>
-      <c r="R46" s="39">
+      <c r="R47" s="39">
         <v>4</v>
       </c>
-      <c r="S46" s="39">
+      <c r="S47" s="39">
         <v>2</v>
       </c>
-      <c r="T46" s="39">
+      <c r="T47" s="39">
         <v>3</v>
       </c>
-      <c r="AA46" s="39">
+      <c r="AA47" s="39">
         <v>7</v>
       </c>
-      <c r="AB46" s="39">
+      <c r="AB47" s="39">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="2:28" s="39" customFormat="1">
-      <c r="B47" s="48"/>
-    </row>
-    <row r="48" spans="2:28" s="40" customFormat="1">
-      <c r="B48" s="49" t="s">
+    <row r="48" spans="2:28" s="39" customFormat="1">
+      <c r="B48" s="48"/>
+    </row>
+    <row r="49" spans="2:28" s="40" customFormat="1">
+      <c r="B49" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="40">
-        <f>N49+N50+N51</f>
+      <c r="H49" s="40">
+        <f>H50+H51+H52</f>
+        <v>25</v>
+      </c>
+      <c r="J49" s="40">
+        <f t="shared" ref="J49" si="51">J50+J51+J52</f>
+        <v>46</v>
+      </c>
+      <c r="K49" s="40">
+        <f>K50+K51+K52</f>
+        <v>9</v>
+      </c>
+      <c r="L49" s="40">
+        <f>L50+L51+L52</f>
+        <v>13</v>
+      </c>
+      <c r="M49" s="40">
+        <f t="shared" ref="M49" si="52">M50+M51+M52</f>
+        <v>21</v>
+      </c>
+      <c r="N49" s="40">
+        <f>N50+N51+N52</f>
         <v>43</v>
       </c>
-      <c r="P48" s="40">
-        <f>P49+P50+P51</f>
+      <c r="O49" s="40">
+        <f>O50+O51+O52</f>
+        <v>13</v>
+      </c>
+      <c r="P49" s="40">
+        <f>P50+P51+P52</f>
         <v>20</v>
       </c>
-      <c r="Q48" s="40">
-        <f>Q49+Q50+Q51</f>
+      <c r="Q49" s="40">
+        <f>Q50+Q51+Q52</f>
         <v>21</v>
       </c>
-      <c r="R48" s="40">
-        <f>R49+R50+R51</f>
+      <c r="R49" s="40">
+        <f>R50+R51+R52</f>
         <v>39</v>
       </c>
-      <c r="S48" s="40">
-        <f>S49+S50+S51</f>
+      <c r="S49" s="40">
+        <f>S50+S51+S52</f>
         <v>20</v>
       </c>
-      <c r="T48" s="40">
-        <f>T49+T50+T51</f>
+      <c r="T49" s="40">
+        <f>T50+T51+T52</f>
         <v>21</v>
       </c>
-      <c r="AA48" s="40">
-        <f>AA49+AA50+AA51</f>
+      <c r="AA49" s="40">
+        <f>AA50+AA51+AA52</f>
         <v>86</v>
       </c>
-      <c r="AB48" s="40">
-        <f>AB49+AB50+AB51</f>
+      <c r="AB49" s="40">
+        <f>AB50+AB51+AB52</f>
         <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="2:28" s="39" customFormat="1">
-      <c r="B49" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="N49" s="39">
-        <v>23</v>
-      </c>
-      <c r="P49" s="39">
-        <v>12</v>
-      </c>
-      <c r="Q49" s="39">
-        <v>14</v>
-      </c>
-      <c r="R49" s="39">
-        <v>26</v>
-      </c>
-      <c r="S49" s="39">
-        <v>12</v>
-      </c>
-      <c r="T49" s="39">
-        <v>12</v>
-      </c>
-      <c r="AA49" s="39">
-        <v>56</v>
-      </c>
-      <c r="AB49" s="39">
-        <v>62</v>
       </c>
     </row>
     <row r="50" spans="2:28" s="39" customFormat="1">
       <c r="B50" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="H50" s="39">
+        <v>19</v>
+      </c>
+      <c r="J50" s="39">
+        <v>20</v>
+      </c>
+      <c r="K50" s="39">
+        <v>5</v>
+      </c>
+      <c r="L50" s="39">
+        <v>9</v>
+      </c>
+      <c r="M50" s="39">
+        <v>19</v>
       </c>
       <c r="N50" s="39">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="O50" s="39">
+        <v>10</v>
       </c>
       <c r="P50" s="39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q50" s="39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R50" s="39">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="S50" s="39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T50" s="39">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA50" s="39">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="AB50" s="39">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:28" s="39" customFormat="1">
       <c r="B51" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" s="39">
+        <v>0</v>
+      </c>
+      <c r="J51" s="39">
+        <v>0</v>
+      </c>
+      <c r="K51" s="39">
+        <v>0</v>
+      </c>
+      <c r="L51" s="39">
+        <v>0</v>
+      </c>
+      <c r="M51" s="39">
+        <v>0</v>
+      </c>
+      <c r="N51" s="39">
+        <v>20</v>
+      </c>
+      <c r="O51" s="39">
+        <v>0</v>
+      </c>
+      <c r="P51" s="39">
+        <v>8</v>
+      </c>
+      <c r="Q51" s="39">
+        <v>0</v>
+      </c>
+      <c r="R51" s="39">
+        <v>13</v>
+      </c>
+      <c r="S51" s="39">
+        <v>8</v>
+      </c>
+      <c r="T51" s="39">
+        <v>9</v>
+      </c>
+      <c r="AA51" s="39">
+        <v>30</v>
+      </c>
+      <c r="AB51" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" s="39" customFormat="1">
+      <c r="B52" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="N51" s="39">
-        <v>0</v>
-      </c>
-      <c r="P51" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="39">
+      <c r="H52" s="39">
+        <v>6</v>
+      </c>
+      <c r="J52" s="39">
+        <v>26</v>
+      </c>
+      <c r="K52" s="39">
+        <v>4</v>
+      </c>
+      <c r="L52" s="39">
+        <v>4</v>
+      </c>
+      <c r="M52" s="39">
+        <v>2</v>
+      </c>
+      <c r="N52" s="39">
+        <v>0</v>
+      </c>
+      <c r="O52" s="39">
+        <v>3</v>
+      </c>
+      <c r="P52" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="39">
         <v>7</v>
       </c>
-      <c r="R51" s="39">
-        <v>0</v>
-      </c>
-      <c r="S51" s="39">
-        <v>0</v>
-      </c>
-      <c r="T51" s="39">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="39">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:28">
-      <c r="B53" s="33" t="s">
+      <c r="R52" s="39">
+        <v>0</v>
+      </c>
+      <c r="S52" s="39">
+        <v>0</v>
+      </c>
+      <c r="T52" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28">
+      <c r="B54" s="33" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="2:28" s="2" customFormat="1">
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N54" s="26">
-        <v>1883.1</v>
-      </c>
-      <c r="P54" s="26">
-        <v>1351.2</v>
-      </c>
-      <c r="Q54" s="26">
-        <v>1596.8</v>
-      </c>
-      <c r="R54" s="26">
-        <v>1818.3</v>
-      </c>
-      <c r="S54" s="26">
-        <v>1129.8</v>
-      </c>
-      <c r="T54" s="26">
-        <v>1041.3</v>
-      </c>
-      <c r="AA54" s="26">
-        <f>N54</f>
-        <v>1883.1</v>
-      </c>
-      <c r="AB54" s="26">
-        <f>R54</f>
-        <v>1818.3</v>
       </c>
     </row>
     <row r="55" spans="2:28" s="2" customFormat="1">
       <c r="B55" s="2" t="s">
-        <v>90</v>
+        <v>6</v>
+      </c>
+      <c r="J55" s="26">
+        <v>2307.6999999999998</v>
+      </c>
+      <c r="K55" s="26">
+        <v>2394.4</v>
+      </c>
+      <c r="L55" s="26">
+        <v>1872.8</v>
+      </c>
+      <c r="M55" s="26">
+        <v>1596.8</v>
       </c>
       <c r="N55" s="26">
-        <v>817.5</v>
+        <v>1883.1</v>
+      </c>
+      <c r="O55" s="26">
+        <v>1123.2</v>
       </c>
       <c r="P55" s="26">
-        <v>1092.8</v>
+        <v>1351.2</v>
       </c>
       <c r="Q55" s="26">
-        <v>855.3</v>
+        <v>1596.8</v>
       </c>
       <c r="R55" s="26">
-        <v>750.8</v>
+        <v>1818.3</v>
       </c>
       <c r="S55" s="26">
-        <v>802.9</v>
+        <v>1129.8</v>
       </c>
       <c r="T55" s="26">
-        <v>753.8</v>
+        <v>1041.3</v>
       </c>
       <c r="AA55" s="26">
         <f>N55</f>
-        <v>817.5</v>
+        <v>1883.1</v>
       </c>
       <c r="AB55" s="26">
         <f>R55</f>
+        <v>1818.3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" s="2" customFormat="1">
+      <c r="B56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J56" s="26">
+        <v>410.9</v>
+      </c>
+      <c r="K56" s="26">
+        <v>60.1</v>
+      </c>
+      <c r="L56" s="26">
+        <v>125.7</v>
+      </c>
+      <c r="M56" s="26">
+        <v>855.3</v>
+      </c>
+      <c r="N56" s="26">
+        <v>817.5</v>
+      </c>
+      <c r="O56" s="26">
+        <v>1288.4000000000001</v>
+      </c>
+      <c r="P56" s="26">
+        <v>1092.8</v>
+      </c>
+      <c r="Q56" s="26">
+        <v>855.3</v>
+      </c>
+      <c r="R56" s="26">
         <v>750.8</v>
       </c>
-    </row>
-    <row r="56" spans="2:28">
-      <c r="B56" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="27">
-        <v>203.4</v>
-      </c>
-      <c r="P56" s="27">
-        <v>198.8</v>
-      </c>
-      <c r="Q56" s="27">
-        <v>203.1</v>
-      </c>
-      <c r="R56" s="27">
-        <v>189</v>
-      </c>
-      <c r="S56" s="27">
-        <v>197</v>
-      </c>
-      <c r="T56" s="27">
-        <v>240.4</v>
-      </c>
-      <c r="AA56" s="27">
-        <f t="shared" ref="AA56:AA59" si="25">N56</f>
-        <v>203.4</v>
-      </c>
-      <c r="AB56" s="27">
+      <c r="S56" s="26">
+        <v>802.9</v>
+      </c>
+      <c r="T56" s="26">
+        <v>753.8</v>
+      </c>
+      <c r="AA56" s="26">
+        <f>N56</f>
+        <v>817.5</v>
+      </c>
+      <c r="AB56" s="26">
         <f>R56</f>
-        <v>189</v>
+        <v>750.8</v>
       </c>
     </row>
     <row r="57" spans="2:28">
       <c r="B57" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="J57" s="27">
+        <v>294.2</v>
+      </c>
+      <c r="K57" s="27">
+        <v>272.39999999999998</v>
+      </c>
+      <c r="L57" s="27">
+        <v>230.9</v>
+      </c>
+      <c r="M57" s="27">
+        <v>203.1</v>
       </c>
       <c r="N57" s="27">
-        <v>8.3000000000000007</v>
+        <v>203.4</v>
+      </c>
+      <c r="O57" s="27">
+        <v>190.2</v>
       </c>
       <c r="P57" s="27">
-        <v>4.3</v>
+        <v>198.8</v>
       </c>
       <c r="Q57" s="27">
-        <v>0.5</v>
+        <v>203.1</v>
       </c>
       <c r="R57" s="27">
-        <v>0.1</v>
+        <v>189</v>
       </c>
       <c r="S57" s="27">
-        <v>9.6999999999999993</v>
+        <v>197</v>
       </c>
       <c r="T57" s="27">
-        <v>2.5</v>
+        <v>240.4</v>
       </c>
       <c r="AA57" s="27">
-        <f t="shared" si="25"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" ref="AA57:AA61" si="53">N57</f>
+        <v>203.4</v>
       </c>
       <c r="AB57" s="27">
-        <f t="shared" ref="AB57:AB77" si="26">R57</f>
-        <v>0.1</v>
+        <f>R57</f>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="2:28">
       <c r="B58" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="J58" s="27">
+        <v>1.4</v>
+      </c>
+      <c r="K58" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="L58" s="27">
+        <v>1</v>
+      </c>
+      <c r="M58" s="27">
+        <v>0.5</v>
       </c>
       <c r="N58" s="27">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O58" s="27">
+        <v>1.6</v>
       </c>
       <c r="P58" s="27">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q58" s="27">
-        <v>7.9</v>
+        <v>0.5</v>
       </c>
       <c r="R58" s="27">
-        <v>9.6</v>
+        <v>0.1</v>
       </c>
       <c r="S58" s="27">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="T58" s="27">
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="AA58" s="27">
-        <f t="shared" si="25"/>
-        <v>8.5</v>
+        <f t="shared" si="53"/>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AB58" s="27">
-        <f t="shared" si="26"/>
-        <v>9.6</v>
+        <f t="shared" ref="AB58:AB80" si="54">R58</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="59" spans="2:28">
       <c r="B59" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="J59" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="K59" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L59" s="27">
+        <v>1</v>
+      </c>
+      <c r="M59" s="27">
+        <v>7.9</v>
       </c>
       <c r="N59" s="27">
-        <v>461.8</v>
+        <v>8.5</v>
+      </c>
+      <c r="O59" s="27">
+        <v>6.6</v>
       </c>
       <c r="P59" s="27">
-        <v>630.70000000000005</v>
+        <v>7.4</v>
       </c>
       <c r="Q59" s="27">
-        <v>618.79999999999995</v>
+        <v>7.9</v>
       </c>
       <c r="R59" s="27">
-        <v>582.29999999999995</v>
+        <v>9.6</v>
       </c>
       <c r="S59" s="27">
-        <v>615.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="T59" s="27">
-        <v>620</v>
+        <v>5.8</v>
       </c>
       <c r="AA59" s="27">
-        <f t="shared" si="25"/>
-        <v>461.8</v>
+        <f t="shared" si="53"/>
+        <v>8.5</v>
       </c>
       <c r="AB59" s="27">
-        <f t="shared" si="26"/>
-        <v>582.29999999999995</v>
-      </c>
-    </row>
-    <row r="60" spans="2:28" s="2" customFormat="1">
-      <c r="B60" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N60" s="26">
-        <v>2437.9</v>
-      </c>
-      <c r="P60" s="26">
-        <v>2315</v>
-      </c>
-      <c r="Q60" s="26">
-        <v>2305</v>
-      </c>
-      <c r="R60" s="26">
-        <v>1986</v>
-      </c>
-      <c r="S60" s="26">
-        <v>2222.8000000000002</v>
-      </c>
-      <c r="T60" s="26">
-        <v>2392.9</v>
-      </c>
-      <c r="AA60" s="26">
-        <f>N60</f>
-        <v>2437.9</v>
-      </c>
-      <c r="AB60" s="26">
+        <f t="shared" si="54"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28">
+      <c r="B60" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J60" s="27">
+        <v>4</v>
+      </c>
+      <c r="K60" s="27">
+        <v>4</v>
+      </c>
+      <c r="L60" s="27">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M60" s="27">
+        <v>0</v>
+      </c>
+      <c r="N60" s="27">
+        <v>0</v>
+      </c>
+      <c r="O60" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="P60" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="27">
+        <v>0</v>
+      </c>
+      <c r="R60" s="27">
+        <v>0</v>
+      </c>
+      <c r="S60" s="27">
+        <v>0</v>
+      </c>
+      <c r="T60" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="27">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="27">
         <f>R60</f>
-        <v>1986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:28">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>94</v>
+      </c>
+      <c r="J61" s="27">
+        <v>495.7</v>
+      </c>
+      <c r="K61" s="27">
+        <v>469.5</v>
+      </c>
+      <c r="L61" s="27">
+        <v>402.8</v>
+      </c>
+      <c r="M61" s="27">
+        <v>618.79999999999995</v>
       </c>
       <c r="N61" s="27">
-        <v>114.1</v>
+        <v>461.8</v>
+      </c>
+      <c r="O61" s="27">
+        <v>517.1</v>
       </c>
       <c r="P61" s="27">
-        <v>134.69999999999999</v>
+        <v>630.70000000000005</v>
       </c>
       <c r="Q61" s="27">
-        <v>128.19999999999999</v>
+        <v>618.79999999999995</v>
       </c>
       <c r="R61" s="27">
-        <v>114.5</v>
+        <v>582.29999999999995</v>
       </c>
       <c r="S61" s="27">
-        <v>105</v>
+        <v>615.5</v>
       </c>
       <c r="T61" s="27">
-        <v>101.9</v>
+        <v>620</v>
       </c>
       <c r="AA61" s="27">
-        <f t="shared" ref="AA61:AA64" si="27">N61</f>
-        <v>114.1</v>
+        <f t="shared" si="53"/>
+        <v>461.8</v>
       </c>
       <c r="AB61" s="27">
-        <f t="shared" si="26"/>
-        <v>114.5</v>
-      </c>
-    </row>
-    <row r="62" spans="2:28">
-      <c r="B62" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N62" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="P62" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="Q62" s="27">
-        <v>101.9</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="S62" s="27">
-        <v>0</v>
-      </c>
-      <c r="T62" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="27">
-        <f t="shared" si="27"/>
-        <v>0.2</v>
-      </c>
-      <c r="AB62" s="27">
-        <f t="shared" si="26"/>
-        <v>0.6</v>
+        <f t="shared" si="54"/>
+        <v>582.29999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" s="2" customFormat="1">
+      <c r="B62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J62" s="26">
+        <v>2384</v>
+      </c>
+      <c r="K62" s="26">
+        <v>2925.3</v>
+      </c>
+      <c r="L62" s="26">
+        <v>3128.8</v>
+      </c>
+      <c r="M62" s="26">
+        <v>2305</v>
+      </c>
+      <c r="N62" s="26">
+        <v>2437.9</v>
+      </c>
+      <c r="O62" s="26">
+        <v>2483.3000000000002</v>
+      </c>
+      <c r="P62" s="26">
+        <v>2315</v>
+      </c>
+      <c r="Q62" s="26">
+        <v>2305</v>
+      </c>
+      <c r="R62" s="26">
+        <v>1986</v>
+      </c>
+      <c r="S62" s="26">
+        <v>2222.8000000000002</v>
+      </c>
+      <c r="T62" s="26">
+        <v>2392.9</v>
+      </c>
+      <c r="AA62" s="26">
+        <f>N62</f>
+        <v>2437.9</v>
+      </c>
+      <c r="AB62" s="26">
+        <f>R62</f>
+        <v>1986</v>
       </c>
     </row>
     <row r="63" spans="2:28">
       <c r="B63" s="3" t="s">
-        <v>96</v>
+        <v>63</v>
+      </c>
+      <c r="J63" s="27">
+        <v>92.6</v>
+      </c>
+      <c r="K63" s="27">
+        <v>96.9</v>
+      </c>
+      <c r="L63" s="27">
+        <v>95.1</v>
+      </c>
+      <c r="M63" s="27">
+        <v>128.19999999999999</v>
       </c>
       <c r="N63" s="27">
-        <v>180.9</v>
+        <v>114.1</v>
+      </c>
+      <c r="O63" s="27">
+        <v>108.8</v>
       </c>
       <c r="P63" s="27">
-        <v>194.2</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="Q63" s="27">
-        <v>202.3</v>
-      </c>
-      <c r="R63" s="3">
-        <v>193.7</v>
+        <v>128.19999999999999</v>
+      </c>
+      <c r="R63" s="27">
+        <v>114.5</v>
       </c>
       <c r="S63" s="27">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="T63" s="27">
-        <v>209.3</v>
+        <v>101.9</v>
       </c>
       <c r="AA63" s="27">
-        <f t="shared" si="27"/>
-        <v>180.9</v>
+        <f t="shared" ref="AA63:AA66" si="55">N63</f>
+        <v>114.1</v>
       </c>
       <c r="AB63" s="27">
-        <f t="shared" si="26"/>
-        <v>193.7</v>
+        <f t="shared" si="54"/>
+        <v>114.5</v>
       </c>
     </row>
     <row r="64" spans="2:28">
       <c r="B64" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
+      </c>
+      <c r="J64" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="K64" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="L64" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="M64" s="27">
+        <v>101.9</v>
       </c>
       <c r="N64" s="27">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="O64" s="27">
+        <v>0.2</v>
       </c>
       <c r="P64" s="27">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q64" s="27">
-        <v>0</v>
+        <v>101.9</v>
       </c>
       <c r="R64" s="3">
-        <v>230.9</v>
+        <v>0.6</v>
       </c>
       <c r="S64" s="27">
-        <v>227.1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="27">
         <v>0</v>
       </c>
       <c r="AA64" s="27">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>0.2</v>
       </c>
       <c r="AB64" s="27">
-        <f t="shared" si="26"/>
-        <v>230.9</v>
+        <f t="shared" si="54"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="65" spans="2:28">
       <c r="B65" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="J65" s="27">
+        <v>199.4</v>
+      </c>
+      <c r="K65" s="27">
+        <v>217.6</v>
+      </c>
+      <c r="L65" s="27">
+        <v>219</v>
+      </c>
+      <c r="M65" s="27">
+        <v>202.3</v>
       </c>
       <c r="N65" s="27">
-        <f>SUM(N54:N64)</f>
-        <v>6115.7</v>
+        <v>180.9</v>
+      </c>
+      <c r="O65" s="27">
+        <v>179.4</v>
       </c>
       <c r="P65" s="27">
-        <f>SUM(P54:P64)</f>
-        <v>5929.3</v>
+        <v>194.2</v>
       </c>
       <c r="Q65" s="27">
-        <f>SUM(Q54:Q64)</f>
-        <v>6019.7999999999993</v>
-      </c>
-      <c r="R65" s="27">
-        <f>SUM(R54:R64)</f>
-        <v>5875.7999999999993</v>
+        <v>202.3</v>
+      </c>
+      <c r="R65" s="3">
+        <v>193.7</v>
       </c>
       <c r="S65" s="27">
-        <f>SUM(S54:S64)</f>
-        <v>5536.6</v>
+        <v>217</v>
       </c>
       <c r="T65" s="27">
-        <f>SUM(T54:T64)</f>
-        <v>5367.9000000000005</v>
+        <v>209.3</v>
       </c>
       <c r="AA65" s="27">
-        <f>SUM(AA54:AA64)</f>
-        <v>6115.7</v>
+        <f t="shared" si="55"/>
+        <v>180.9</v>
       </c>
       <c r="AB65" s="27">
-        <f>SUM(AB54:AB64)</f>
-        <v>5875.7999999999993</v>
-      </c>
-    </row>
-    <row r="66" spans="2:28" s="2" customFormat="1">
-      <c r="B66" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N66" s="26">
-        <v>51.7</v>
-      </c>
-      <c r="P66" s="26">
-        <v>47.3</v>
-      </c>
-      <c r="Q66" s="26">
-        <v>51.6</v>
-      </c>
-      <c r="R66" s="26">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="S66" s="26">
-        <v>169.9</v>
-      </c>
-      <c r="T66" s="26">
-        <v>169.9</v>
-      </c>
-      <c r="AA66" s="26">
-        <f>N66</f>
-        <v>51.7</v>
-      </c>
-      <c r="AB66" s="26">
-        <f>R66</f>
-        <v>65.599999999999994</v>
+        <f t="shared" si="54"/>
+        <v>193.7</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28">
+      <c r="B66" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J66" s="27">
+        <v>0</v>
+      </c>
+      <c r="K66" s="27">
+        <v>0</v>
+      </c>
+      <c r="L66" s="27">
+        <v>0</v>
+      </c>
+      <c r="M66" s="27">
+        <v>0</v>
+      </c>
+      <c r="N66" s="27">
+        <v>0</v>
+      </c>
+      <c r="O66" s="27">
+        <v>0</v>
+      </c>
+      <c r="P66" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="27">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>230.9</v>
+      </c>
+      <c r="S66" s="27">
+        <v>227.1</v>
+      </c>
+      <c r="T66" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="27">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="27">
+        <f t="shared" si="54"/>
+        <v>230.9</v>
       </c>
     </row>
     <row r="67" spans="2:28">
       <c r="B67" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="J67" s="27">
+        <f>SUM(J55:J66)</f>
+        <v>6191.5999999999995</v>
+      </c>
+      <c r="K67" s="27">
+        <f>SUM(K55:K66)</f>
+        <v>6442.2</v>
+      </c>
+      <c r="L67" s="27">
+        <f>SUM(L55:L66)</f>
+        <v>6081.4000000000005</v>
+      </c>
+      <c r="M67" s="27">
+        <f>SUM(M55:M66)</f>
+        <v>6019.7999999999993</v>
       </c>
       <c r="N67" s="27">
-        <v>0</v>
+        <f>SUM(N55:N66)</f>
+        <v>6115.7</v>
+      </c>
+      <c r="O67" s="27">
+        <f>SUM(O55:O66)</f>
+        <v>5903</v>
       </c>
       <c r="P67" s="27">
-        <v>0.1</v>
+        <f>SUM(P55:P66)</f>
+        <v>5929.3</v>
       </c>
       <c r="Q67" s="27">
-        <v>0</v>
+        <f>SUM(Q55:Q66)</f>
+        <v>6019.7999999999993</v>
       </c>
       <c r="R67" s="27">
-        <v>0</v>
+        <f>SUM(R55:R66)</f>
+        <v>5875.7999999999993</v>
       </c>
       <c r="S67" s="27">
-        <v>1.6</v>
+        <f>SUM(S55:S66)</f>
+        <v>5536.6</v>
       </c>
       <c r="T67" s="27">
-        <v>1.5</v>
+        <f>SUM(T55:T66)</f>
+        <v>5367.9000000000005</v>
       </c>
       <c r="AA67" s="27">
-        <f t="shared" ref="AA67:AA76" si="28">N67</f>
-        <v>0</v>
+        <f>SUM(AA55:AA66)</f>
+        <v>6115.7</v>
       </c>
       <c r="AB67" s="27">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f>SUM(AB55:AB66)</f>
+        <v>5875.7999999999993</v>
       </c>
     </row>
     <row r="68" spans="2:28" s="2" customFormat="1">
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="J68" s="26">
+        <v>61.3</v>
+      </c>
+      <c r="K68" s="26">
+        <v>46.1</v>
+      </c>
+      <c r="L68" s="26">
+        <v>0</v>
+      </c>
+      <c r="M68" s="26">
+        <v>51.6</v>
       </c>
       <c r="N68" s="26">
-        <v>1.3</v>
+        <v>51.7</v>
+      </c>
+      <c r="O68" s="26">
+        <v>51.7</v>
       </c>
       <c r="P68" s="26">
-        <v>23</v>
+        <v>47.3</v>
       </c>
       <c r="Q68" s="26">
-        <v>0</v>
+        <v>51.6</v>
       </c>
       <c r="R68" s="26">
-        <v>0</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="S68" s="26">
-        <v>1.6</v>
+        <v>169.9</v>
       </c>
       <c r="T68" s="26">
-        <v>3.2</v>
+        <v>169.9</v>
       </c>
       <c r="AA68" s="26">
         <f>N68</f>
-        <v>1.3</v>
+        <v>51.7</v>
       </c>
       <c r="AB68" s="26">
         <f>R68</f>
-        <v>0</v>
+        <v>65.599999999999994</v>
       </c>
     </row>
     <row r="69" spans="2:28">
       <c r="B69" s="3" t="s">
-        <v>185</v>
+        <v>94</v>
+      </c>
+      <c r="J69" s="27">
+        <v>0</v>
+      </c>
+      <c r="K69" s="27">
+        <v>0</v>
+      </c>
+      <c r="L69" s="27">
+        <v>0</v>
+      </c>
+      <c r="M69" s="27">
+        <v>0</v>
       </c>
       <c r="N69" s="27">
+        <v>0</v>
+      </c>
+      <c r="O69" s="27">
+        <v>0</v>
+      </c>
+      <c r="P69" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Q69" s="27">
+        <v>0</v>
+      </c>
+      <c r="R69" s="27">
+        <v>0</v>
+      </c>
+      <c r="S69" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="T69" s="27">
         <v>1.5</v>
       </c>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="27">
-        <v>2.4</v>
-      </c>
-      <c r="R69" s="27">
-        <v>2.4</v>
-      </c>
-      <c r="S69" s="27"/>
-      <c r="T69" s="27"/>
       <c r="AA69" s="27">
-        <f t="shared" si="28"/>
-        <v>1.5</v>
+        <f t="shared" ref="AA69:AA79" si="56">N69</f>
+        <v>0</v>
       </c>
       <c r="AB69" s="27">
-        <f t="shared" si="26"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="70" spans="2:28">
-      <c r="B70" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N70" s="27">
-        <v>21.4</v>
-      </c>
-      <c r="P70" s="27">
-        <v>42.1</v>
-      </c>
-      <c r="Q70" s="27">
-        <v>25.4</v>
-      </c>
-      <c r="R70" s="27">
-        <v>22.4</v>
-      </c>
-      <c r="S70" s="27">
-        <v>23.4</v>
-      </c>
-      <c r="T70" s="27">
-        <v>14.5</v>
-      </c>
-      <c r="AA70" s="27">
-        <f t="shared" si="28"/>
-        <v>21.4</v>
-      </c>
-      <c r="AB70" s="27">
-        <f t="shared" si="26"/>
-        <v>22.4</v>
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" s="2" customFormat="1">
+      <c r="B70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J70" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="K70" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="L70" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="M70" s="26">
+        <v>0</v>
+      </c>
+      <c r="N70" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="O70" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="P70" s="26">
+        <v>23</v>
+      </c>
+      <c r="Q70" s="26">
+        <v>0</v>
+      </c>
+      <c r="R70" s="26">
+        <v>0</v>
+      </c>
+      <c r="S70" s="26">
+        <v>1.6</v>
+      </c>
+      <c r="T70" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="AA70" s="26">
+        <f>N70</f>
+        <v>1.3</v>
+      </c>
+      <c r="AB70" s="26">
+        <f>R70</f>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:28">
       <c r="B71" s="3" t="s">
-        <v>91</v>
+        <v>196</v>
+      </c>
+      <c r="J71" s="27">
+        <v>13.6</v>
+      </c>
+      <c r="K71" s="27">
+        <v>12.4</v>
+      </c>
+      <c r="L71" s="27">
+        <v>11.7</v>
+      </c>
+      <c r="M71" s="27">
+        <v>0</v>
       </c>
       <c r="N71" s="27">
         <v>0</v>
       </c>
+      <c r="O71" s="27">
+        <v>8.4</v>
+      </c>
       <c r="P71" s="27">
         <v>0</v>
       </c>
@@ -4714,1603 +5823,2626 @@
         <v>0</v>
       </c>
       <c r="T71" s="27">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AA71" s="27">
-        <f t="shared" si="28"/>
+        <f>N71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="27">
-        <f t="shared" si="26"/>
+        <f>R71</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:28">
       <c r="B72" s="3" t="s">
-        <v>99</v>
+        <v>185</v>
+      </c>
+      <c r="J72" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="K72" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="L72" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="M72" s="27">
+        <v>2.4</v>
       </c>
       <c r="N72" s="27">
-        <v>104.6</v>
+        <v>1.5</v>
+      </c>
+      <c r="O72" s="27">
+        <v>16.600000000000001</v>
       </c>
       <c r="P72" s="27">
-        <v>99.9</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="27">
-        <v>77</v>
+        <v>2.4</v>
       </c>
       <c r="R72" s="27">
-        <v>97.6</v>
+        <v>2.4</v>
       </c>
       <c r="S72" s="27">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="T72" s="27">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="AA72" s="27">
-        <f t="shared" si="28"/>
-        <v>104.6</v>
+        <f t="shared" si="56"/>
+        <v>1.5</v>
       </c>
       <c r="AB72" s="27">
-        <f t="shared" si="26"/>
-        <v>97.6</v>
+        <f t="shared" si="54"/>
+        <v>2.4</v>
       </c>
     </row>
     <row r="73" spans="2:28">
       <c r="B73" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="J73" s="27">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K73" s="27">
+        <v>6.8</v>
+      </c>
+      <c r="L73" s="27">
+        <v>6.6</v>
+      </c>
+      <c r="M73" s="27">
+        <v>25.4</v>
       </c>
       <c r="N73" s="27">
-        <v>120.7</v>
+        <v>21.4</v>
+      </c>
+      <c r="O73" s="27">
+        <v>21.5</v>
       </c>
       <c r="P73" s="27">
-        <v>126.9</v>
+        <v>42.1</v>
       </c>
       <c r="Q73" s="27">
-        <v>121.2</v>
+        <v>25.4</v>
       </c>
       <c r="R73" s="27">
-        <v>125.6</v>
+        <v>22.4</v>
       </c>
       <c r="S73" s="27">
-        <v>142.9</v>
+        <v>23.4</v>
       </c>
       <c r="T73" s="27">
-        <v>165</v>
+        <v>14.5</v>
       </c>
       <c r="AA73" s="27">
-        <f t="shared" si="28"/>
-        <v>120.7</v>
+        <f t="shared" si="56"/>
+        <v>21.4</v>
       </c>
       <c r="AB73" s="27">
-        <f t="shared" si="26"/>
-        <v>125.6</v>
+        <f t="shared" si="54"/>
+        <v>22.4</v>
       </c>
     </row>
     <row r="74" spans="2:28">
       <c r="B74" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="J74" s="27">
+        <v>0</v>
+      </c>
+      <c r="K74" s="27">
+        <v>0</v>
+      </c>
+      <c r="L74" s="27">
+        <v>0</v>
+      </c>
+      <c r="M74" s="27">
+        <v>0</v>
       </c>
       <c r="N74" s="27">
-        <v>5.2</v>
+        <v>0</v>
+      </c>
+      <c r="O74" s="27">
+        <v>0</v>
       </c>
       <c r="P74" s="27">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="27">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="R74" s="27">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="S74" s="27">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="T74" s="27">
-        <v>9.3000000000000007</v>
+        <v>0.9</v>
       </c>
       <c r="AA74" s="27">
-        <f t="shared" si="28"/>
-        <v>5.2</v>
+        <f t="shared" si="56"/>
+        <v>0</v>
       </c>
       <c r="AB74" s="27">
-        <f t="shared" si="26"/>
-        <v>4.4000000000000004</v>
+        <f t="shared" si="54"/>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:28">
       <c r="B75" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="J75" s="27">
+        <v>35</v>
+      </c>
+      <c r="K75" s="27">
+        <v>93.6</v>
+      </c>
+      <c r="L75" s="27">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="M75" s="27">
+        <v>77</v>
       </c>
       <c r="N75" s="27">
-        <v>1956</v>
+        <v>104.6</v>
+      </c>
+      <c r="O75" s="27">
+        <v>124.4</v>
       </c>
       <c r="P75" s="27">
-        <v>1913.1</v>
+        <v>99.9</v>
       </c>
       <c r="Q75" s="27">
-        <v>1902</v>
+        <v>77</v>
       </c>
       <c r="R75" s="27">
-        <v>1687.6</v>
+        <v>97.6</v>
       </c>
       <c r="S75" s="27">
-        <v>1679.3</v>
+        <v>22.8</v>
       </c>
       <c r="T75" s="27">
-        <v>1652.5</v>
+        <v>23.3</v>
       </c>
       <c r="AA75" s="27">
-        <f t="shared" si="28"/>
-        <v>1956</v>
+        <f t="shared" si="56"/>
+        <v>104.6</v>
       </c>
       <c r="AB75" s="27">
-        <f t="shared" si="26"/>
-        <v>1687.6</v>
+        <f t="shared" si="54"/>
+        <v>97.6</v>
       </c>
     </row>
     <row r="76" spans="2:28">
       <c r="B76" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="J76" s="27">
+        <v>93.9</v>
+      </c>
+      <c r="K76" s="27">
+        <v>76</v>
+      </c>
+      <c r="L76" s="27">
+        <v>77.2</v>
+      </c>
+      <c r="M76" s="27">
+        <v>121.2</v>
       </c>
       <c r="N76" s="27">
-        <v>2075.6</v>
+        <v>120.7</v>
+      </c>
+      <c r="O76" s="27">
+        <v>103.9</v>
       </c>
       <c r="P76" s="27">
-        <v>2097.6999999999998</v>
+        <v>126.9</v>
       </c>
       <c r="Q76" s="27">
-        <v>2115.9</v>
+        <v>121.2</v>
       </c>
       <c r="R76" s="27">
-        <v>2213.4</v>
+        <v>125.6</v>
       </c>
       <c r="S76" s="27">
-        <v>2227.5</v>
+        <v>142.9</v>
       </c>
       <c r="T76" s="27">
-        <v>2231.3000000000002</v>
+        <v>165</v>
       </c>
       <c r="AA76" s="27">
-        <f t="shared" si="28"/>
-        <v>2075.6</v>
+        <f t="shared" si="56"/>
+        <v>120.7</v>
       </c>
       <c r="AB76" s="27">
-        <f t="shared" si="26"/>
-        <v>2213.4</v>
+        <f t="shared" si="54"/>
+        <v>125.6</v>
       </c>
     </row>
     <row r="77" spans="2:28">
       <c r="B77" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="J77" s="27">
+        <v>8.1</v>
+      </c>
+      <c r="K77" s="27">
+        <v>8.4</v>
+      </c>
+      <c r="L77" s="27">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M77" s="27">
+        <v>6.6</v>
       </c>
       <c r="N77" s="27">
-        <v>62.3</v>
+        <v>5.2</v>
+      </c>
+      <c r="O77" s="27">
+        <v>5.4</v>
       </c>
       <c r="P77" s="27">
-        <v>55.8</v>
+        <v>6.1</v>
       </c>
       <c r="Q77" s="27">
-        <v>60.8</v>
+        <v>6.6</v>
       </c>
       <c r="R77" s="27">
-        <v>60.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S77" s="27">
-        <v>55.9</v>
+        <v>6.9</v>
       </c>
       <c r="T77" s="27">
-        <v>59.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AA77" s="27">
-        <f>N77</f>
-        <v>62.3</v>
+        <f t="shared" si="56"/>
+        <v>5.2</v>
       </c>
       <c r="AB77" s="27">
-        <f t="shared" si="26"/>
-        <v>60.2</v>
+        <f t="shared" si="54"/>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="78" spans="2:28">
       <c r="B78" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="J78" s="27">
+        <v>2058.6</v>
+      </c>
+      <c r="K78" s="27">
+        <v>2035.5</v>
+      </c>
+      <c r="L78" s="27">
+        <v>1943.7</v>
+      </c>
+      <c r="M78" s="27">
+        <v>1902</v>
       </c>
       <c r="N78" s="27">
-        <f>SUM(N66:N77)+N65</f>
-        <v>10516</v>
+        <v>1956</v>
+      </c>
+      <c r="O78" s="27">
+        <v>1934.3</v>
       </c>
       <c r="P78" s="27">
-        <f>SUM(P66:P77)+P65</f>
-        <v>10341.299999999999</v>
+        <v>1913.1</v>
       </c>
       <c r="Q78" s="27">
-        <f>SUM(Q66:Q77)+Q65</f>
-        <v>10382.700000000001</v>
+        <v>1902</v>
       </c>
       <c r="R78" s="27">
-        <f>SUM(R66:R77)+R65</f>
-        <v>10155</v>
+        <v>1687.6</v>
       </c>
       <c r="S78" s="27">
-        <f>SUM(S66:S77)+S65</f>
-        <v>9868.4</v>
+        <v>1679.3</v>
       </c>
       <c r="T78" s="27">
-        <f>SUM(T66:T77)+T65</f>
-        <v>9698.7999999999993</v>
+        <v>1652.5</v>
       </c>
       <c r="AA78" s="27">
-        <f>SUM(AA66:AA77)+AA65</f>
-        <v>10516</v>
+        <f t="shared" si="56"/>
+        <v>1956</v>
       </c>
       <c r="AB78" s="27">
-        <f>SUM(AB66:AB77)+AB65</f>
-        <v>10155</v>
+        <f t="shared" si="54"/>
+        <v>1687.6</v>
       </c>
     </row>
     <row r="79" spans="2:28">
-      <c r="P79" s="27"/>
-      <c r="Q79" s="27"/>
-      <c r="R79" s="27"/>
-      <c r="S79" s="27"/>
-      <c r="T79" s="27"/>
+      <c r="B79" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J79" s="27">
+        <v>2051.6999999999998</v>
+      </c>
+      <c r="K79" s="27">
+        <v>2070.1</v>
+      </c>
+      <c r="L79" s="27">
+        <v>1972.4</v>
+      </c>
+      <c r="M79" s="27">
+        <v>2115.9</v>
+      </c>
+      <c r="N79" s="27">
+        <v>2075.6</v>
+      </c>
+      <c r="O79" s="27">
+        <v>2079.3000000000002</v>
+      </c>
+      <c r="P79" s="27">
+        <v>2097.6999999999998</v>
+      </c>
+      <c r="Q79" s="27">
+        <v>2115.9</v>
+      </c>
+      <c r="R79" s="27">
+        <v>2213.4</v>
+      </c>
+      <c r="S79" s="27">
+        <v>2227.5</v>
+      </c>
+      <c r="T79" s="27">
+        <v>2231.3000000000002</v>
+      </c>
+      <c r="AA79" s="27">
+        <f t="shared" si="56"/>
+        <v>2075.6</v>
+      </c>
+      <c r="AB79" s="27">
+        <f t="shared" si="54"/>
+        <v>2213.4</v>
+      </c>
     </row>
     <row r="80" spans="2:28">
       <c r="B80" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="J80" s="27">
+        <v>48</v>
+      </c>
+      <c r="K80" s="27">
+        <v>63.6</v>
+      </c>
+      <c r="L80" s="27">
+        <v>61.7</v>
+      </c>
+      <c r="M80" s="27">
+        <v>60.8</v>
       </c>
       <c r="N80" s="27">
-        <v>502.3</v>
+        <v>62.3</v>
+      </c>
+      <c r="O80" s="27">
+        <v>59.5</v>
       </c>
       <c r="P80" s="27">
-        <v>515.4</v>
+        <v>55.8</v>
       </c>
       <c r="Q80" s="27">
-        <v>548.79999999999995</v>
+        <v>60.8</v>
       </c>
       <c r="R80" s="27">
-        <v>495.2</v>
+        <v>60.2</v>
       </c>
       <c r="S80" s="27">
-        <v>562.70000000000005</v>
+        <v>55.9</v>
       </c>
       <c r="T80" s="27">
-        <v>727.4</v>
+        <v>59.5</v>
       </c>
       <c r="AA80" s="27">
         <f>N80</f>
-        <v>502.3</v>
+        <v>62.3</v>
       </c>
       <c r="AB80" s="27">
-        <f>R80</f>
-        <v>495.2</v>
+        <f t="shared" si="54"/>
+        <v>60.2</v>
       </c>
     </row>
     <row r="81" spans="2:28">
       <c r="B81" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="J81" s="27">
+        <f>SUM(J68:J80)+J67</f>
+        <v>10572.5</v>
+      </c>
+      <c r="K81" s="27">
+        <f>SUM(K68:K80)+K67</f>
+        <v>10856.099999999999</v>
+      </c>
+      <c r="L81" s="27">
+        <f>SUM(L68:L80)+L67</f>
+        <v>10325.400000000001</v>
+      </c>
+      <c r="M81" s="27">
+        <f>SUM(M68:M80)+M67</f>
+        <v>10382.700000000001</v>
       </c>
       <c r="N81" s="27">
-        <v>0</v>
+        <f>SUM(N68:N80)+N67</f>
+        <v>10516</v>
+      </c>
+      <c r="O81" s="27">
+        <f>SUM(O68:O80)+O67</f>
+        <v>10308.1</v>
       </c>
       <c r="P81" s="27">
-        <v>2</v>
+        <f>SUM(P68:P80)+P67</f>
+        <v>10341.299999999999</v>
       </c>
       <c r="Q81" s="27">
-        <v>6.5</v>
+        <f>SUM(Q68:Q80)+Q67</f>
+        <v>10382.700000000001</v>
       </c>
       <c r="R81" s="27">
-        <v>14.8</v>
+        <f>SUM(R68:R80)+R67</f>
+        <v>10155</v>
       </c>
       <c r="S81" s="27">
-        <v>14.1</v>
+        <f>SUM(S68:S80)+S67</f>
+        <v>9868.4</v>
       </c>
       <c r="T81" s="27">
-        <v>12.3</v>
+        <f>SUM(T68:T80)+T67</f>
+        <v>9698.7999999999993</v>
       </c>
       <c r="AA81" s="27">
-        <f t="shared" ref="AA81:AA93" si="29">N81</f>
-        <v>0</v>
+        <f>SUM(AA68:AA80)+AA67</f>
+        <v>10516</v>
       </c>
       <c r="AB81" s="27">
-        <f t="shared" ref="AB81:AB93" si="30">R81</f>
-        <v>14.8</v>
+        <f>SUM(AB68:AB80)+AB67</f>
+        <v>10155</v>
       </c>
     </row>
     <row r="82" spans="2:28">
-      <c r="B82" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N82" s="27">
-        <v>11.4</v>
-      </c>
-      <c r="P82" s="27">
-        <v>10.8</v>
-      </c>
-      <c r="Q82" s="27">
-        <v>11.2</v>
-      </c>
-      <c r="R82" s="27">
-        <v>11.5</v>
-      </c>
-      <c r="S82" s="27">
-        <v>11</v>
-      </c>
-      <c r="T82" s="27">
-        <v>11.3</v>
-      </c>
-      <c r="AA82" s="27">
-        <f t="shared" si="29"/>
-        <v>11.4</v>
-      </c>
-      <c r="AB82" s="27">
-        <f t="shared" si="30"/>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="83" spans="2:28" s="2" customFormat="1">
-      <c r="B83" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N83" s="26">
-        <v>375.5</v>
-      </c>
-      <c r="P83" s="26">
-        <v>808.6</v>
-      </c>
-      <c r="Q83" s="26">
-        <v>783.8</v>
-      </c>
-      <c r="R83" s="26">
-        <v>574.20000000000005</v>
-      </c>
-      <c r="S83" s="26">
-        <v>326.8</v>
-      </c>
-      <c r="T83" s="26">
-        <v>70.2</v>
-      </c>
-      <c r="AA83" s="26">
+      <c r="L82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
+    </row>
+    <row r="83" spans="2:28">
+      <c r="B83" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J83" s="27">
+        <v>832.7</v>
+      </c>
+      <c r="K83" s="27">
+        <v>860.8</v>
+      </c>
+      <c r="L83" s="27">
+        <v>787.1</v>
+      </c>
+      <c r="M83" s="27">
+        <v>548.79999999999995</v>
+      </c>
+      <c r="N83" s="27">
+        <v>502.3</v>
+      </c>
+      <c r="O83" s="27">
+        <v>524.4</v>
+      </c>
+      <c r="P83" s="27">
+        <v>515.4</v>
+      </c>
+      <c r="Q83" s="27">
+        <v>548.79999999999995</v>
+      </c>
+      <c r="R83" s="27">
+        <v>495.2</v>
+      </c>
+      <c r="S83" s="27">
+        <v>562.70000000000005</v>
+      </c>
+      <c r="T83" s="27">
+        <v>727.4</v>
+      </c>
+      <c r="AA83" s="27">
         <f>N83</f>
-        <v>375.5</v>
-      </c>
-      <c r="AB83" s="26">
+        <v>502.3</v>
+      </c>
+      <c r="AB83" s="27">
         <f>R83</f>
-        <v>574.20000000000005</v>
+        <v>495.2</v>
       </c>
     </row>
     <row r="84" spans="2:28">
       <c r="B84" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="J84" s="27">
+        <v>0</v>
+      </c>
+      <c r="K84" s="27">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="27">
+        <v>6.5</v>
       </c>
       <c r="N84" s="27">
-        <v>249.9</v>
+        <v>0</v>
+      </c>
+      <c r="O84" s="27">
+        <v>15.9</v>
       </c>
       <c r="P84" s="27">
-        <v>251.8</v>
+        <v>2</v>
       </c>
       <c r="Q84" s="27">
-        <v>283.89999999999998</v>
+        <v>6.5</v>
       </c>
       <c r="R84" s="27">
-        <v>241.3</v>
+        <v>14.8</v>
       </c>
       <c r="S84" s="27">
-        <v>263.3</v>
+        <v>14.1</v>
       </c>
       <c r="T84" s="27">
-        <v>258.8</v>
+        <v>12.3</v>
       </c>
       <c r="AA84" s="27">
-        <f t="shared" si="29"/>
-        <v>249.9</v>
+        <f t="shared" ref="AA84:AA97" si="57">N84</f>
+        <v>0</v>
       </c>
       <c r="AB84" s="27">
-        <f t="shared" si="30"/>
-        <v>241.3</v>
+        <f t="shared" ref="AB84:AB97" si="58">R84</f>
+        <v>14.8</v>
       </c>
     </row>
     <row r="85" spans="2:28">
       <c r="B85" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="J85" s="27">
+        <v>8</v>
+      </c>
+      <c r="K85" s="27">
+        <v>9.4</v>
+      </c>
+      <c r="L85" s="27">
+        <v>9.6</v>
+      </c>
+      <c r="M85" s="27">
+        <v>11.2</v>
       </c>
       <c r="N85" s="27">
-        <v>1033</v>
+        <v>11.4</v>
+      </c>
+      <c r="O85" s="27">
+        <v>11.4</v>
       </c>
       <c r="P85" s="27">
-        <v>991.7</v>
+        <v>10.8</v>
       </c>
       <c r="Q85" s="27">
-        <v>1041.4000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="R85" s="27">
-        <v>1204.5999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="S85" s="27">
-        <v>1301.8</v>
+        <v>11</v>
       </c>
       <c r="T85" s="27">
-        <v>1317.8</v>
+        <v>11.3</v>
       </c>
       <c r="AA85" s="27">
-        <f t="shared" si="29"/>
-        <v>1033</v>
+        <f t="shared" si="57"/>
+        <v>11.4</v>
       </c>
       <c r="AB85" s="27">
-        <f t="shared" si="30"/>
-        <v>1204.5999999999999</v>
+        <f t="shared" si="58"/>
+        <v>11.5</v>
       </c>
     </row>
     <row r="86" spans="2:28" s="2" customFormat="1">
       <c r="B86" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
+      </c>
+      <c r="J86" s="26">
+        <v>215</v>
+      </c>
+      <c r="K86" s="26">
+        <v>663</v>
+      </c>
+      <c r="L86" s="26">
+        <v>471.2</v>
+      </c>
+      <c r="M86" s="26">
+        <v>783.8</v>
       </c>
       <c r="N86" s="26">
-        <v>1.2</v>
+        <v>375.5</v>
+      </c>
+      <c r="O86" s="26">
+        <v>357.2</v>
       </c>
       <c r="P86" s="26">
-        <v>2.2999999999999998</v>
+        <v>808.6</v>
       </c>
       <c r="Q86" s="26">
-        <v>2.8</v>
+        <v>783.8</v>
       </c>
       <c r="R86" s="26">
-        <v>2.9</v>
+        <v>574.20000000000005</v>
       </c>
       <c r="S86" s="26">
-        <v>3.2</v>
+        <v>326.8</v>
       </c>
       <c r="T86" s="26">
-        <v>11</v>
+        <v>70.2</v>
       </c>
       <c r="AA86" s="26">
         <f>N86</f>
-        <v>1.2</v>
+        <v>375.5</v>
       </c>
       <c r="AB86" s="26">
         <f>R86</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="87" spans="2:28">
-      <c r="B87" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="N87" s="27">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="P87" s="27">
-        <v>44.3</v>
-      </c>
-      <c r="Q87" s="27">
-        <v>38</v>
-      </c>
-      <c r="R87" s="27">
-        <v>40.4</v>
-      </c>
-      <c r="S87" s="27">
-        <v>38</v>
-      </c>
-      <c r="T87" s="27">
-        <v>37.1</v>
-      </c>
-      <c r="AA87" s="27">
-        <f t="shared" si="29"/>
-        <v>71.900000000000006</v>
-      </c>
-      <c r="AB87" s="27">
-        <f t="shared" si="30"/>
-        <v>40.4</v>
+        <v>574.20000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="2:28" s="2" customFormat="1">
+      <c r="B87" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J87" s="26">
+        <v>4</v>
+      </c>
+      <c r="K87" s="26">
+        <v>4</v>
+      </c>
+      <c r="L87" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M87" s="26">
+        <v>0</v>
+      </c>
+      <c r="N87" s="26">
+        <v>0</v>
+      </c>
+      <c r="O87" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="P87" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="26">
+        <v>0</v>
+      </c>
+      <c r="R87" s="26">
+        <v>0</v>
+      </c>
+      <c r="S87" s="26">
+        <v>0</v>
+      </c>
+      <c r="T87" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="26">
+        <f>N87</f>
+        <v>0</v>
+      </c>
+      <c r="AB87" s="26">
+        <f>R87</f>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:28">
       <c r="B88" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="J88" s="27">
+        <v>289.8</v>
+      </c>
+      <c r="K88" s="27">
+        <v>250.4</v>
+      </c>
+      <c r="L88" s="27">
+        <v>234.8</v>
+      </c>
+      <c r="M88" s="27">
+        <v>283.89999999999998</v>
       </c>
       <c r="N88" s="27">
-        <v>40.700000000000003</v>
+        <v>249.9</v>
+      </c>
+      <c r="O88" s="27">
+        <v>235.3</v>
       </c>
       <c r="P88" s="27">
-        <v>73.5</v>
+        <v>251.8</v>
       </c>
       <c r="Q88" s="27">
-        <v>85.3</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="R88" s="27">
-        <v>71.599999999999994</v>
+        <v>241.3</v>
       </c>
       <c r="S88" s="27">
-        <v>71.400000000000006</v>
+        <v>263.3</v>
       </c>
       <c r="T88" s="27">
-        <v>79.8</v>
+        <v>258.8</v>
       </c>
       <c r="AA88" s="27">
-        <f t="shared" si="29"/>
-        <v>40.700000000000003</v>
+        <f t="shared" si="57"/>
+        <v>249.9</v>
       </c>
       <c r="AB88" s="27">
-        <f t="shared" si="30"/>
-        <v>71.599999999999994</v>
+        <f t="shared" si="58"/>
+        <v>241.3</v>
       </c>
     </row>
     <row r="89" spans="2:28">
       <c r="B89" s="3" t="s">
-        <v>187</v>
+        <v>109</v>
+      </c>
+      <c r="J89" s="27">
+        <v>1171.7</v>
+      </c>
+      <c r="K89" s="27">
+        <v>1211.5999999999999</v>
+      </c>
+      <c r="L89" s="27">
+        <v>1084.8</v>
+      </c>
+      <c r="M89" s="27">
+        <v>1041.4000000000001</v>
       </c>
       <c r="N89" s="27">
-        <v>42.6</v>
+        <v>1033</v>
+      </c>
+      <c r="O89" s="27">
+        <v>1016.4</v>
       </c>
       <c r="P89" s="27">
-        <v>38.700000000000003</v>
+        <v>991.7</v>
       </c>
       <c r="Q89" s="27">
-        <v>34.1</v>
+        <v>1041.4000000000001</v>
       </c>
       <c r="R89" s="27">
-        <v>15.8</v>
+        <v>1204.5999999999999</v>
       </c>
       <c r="S89" s="27">
-        <v>0</v>
+        <v>1301.8</v>
       </c>
       <c r="T89" s="27">
-        <v>0</v>
+        <v>1317.8</v>
       </c>
       <c r="AA89" s="27">
-        <f t="shared" si="29"/>
-        <v>42.6</v>
+        <f t="shared" si="57"/>
+        <v>1033</v>
       </c>
       <c r="AB89" s="27">
-        <f t="shared" si="30"/>
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="90" spans="2:28">
-      <c r="B90" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N90" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="P90" s="27">
-        <v>2.5</v>
-      </c>
-      <c r="Q90" s="27">
-        <v>2.5</v>
-      </c>
-      <c r="R90" s="27">
-        <v>2.5</v>
-      </c>
-      <c r="S90" s="27">
+        <f t="shared" si="58"/>
+        <v>1204.5999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="2:28" s="2" customFormat="1">
+      <c r="B90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J90" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="K90" s="26">
+        <v>13.6</v>
+      </c>
+      <c r="L90" s="26">
+        <v>11.4</v>
+      </c>
+      <c r="M90" s="26">
         <v>2.8</v>
       </c>
-      <c r="T90" s="27">
-        <v>2.6</v>
-      </c>
-      <c r="AA90" s="27">
-        <f t="shared" si="29"/>
-        <v>0.5</v>
-      </c>
-      <c r="AB90" s="27">
-        <f t="shared" si="30"/>
-        <v>2.5</v>
+      <c r="N90" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="O90" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="P90" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q90" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="R90" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="S90" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="T90" s="26">
+        <v>11</v>
+      </c>
+      <c r="AA90" s="26">
+        <f>N90</f>
+        <v>1.2</v>
+      </c>
+      <c r="AB90" s="26">
+        <f>R90</f>
+        <v>2.9</v>
       </c>
     </row>
     <row r="91" spans="2:28">
       <c r="B91" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="J91" s="27">
+        <v>63.8</v>
+      </c>
+      <c r="K91" s="27">
+        <v>70.7</v>
+      </c>
+      <c r="L91" s="27">
+        <v>81.2</v>
+      </c>
+      <c r="M91" s="27">
+        <v>38</v>
       </c>
       <c r="N91" s="27">
-        <v>98.5</v>
+        <v>71.900000000000006</v>
+      </c>
+      <c r="O91" s="27">
+        <v>60.9</v>
       </c>
       <c r="P91" s="27">
-        <v>113.54</v>
+        <v>44.3</v>
       </c>
       <c r="Q91" s="27">
-        <v>114.1</v>
+        <v>38</v>
       </c>
       <c r="R91" s="27">
-        <v>108.9</v>
+        <v>40.4</v>
       </c>
       <c r="S91" s="27">
-        <v>113.8</v>
+        <v>38</v>
       </c>
       <c r="T91" s="27">
-        <v>111.8</v>
+        <v>37.1</v>
       </c>
       <c r="AA91" s="27">
-        <f t="shared" si="29"/>
-        <v>98.5</v>
+        <f t="shared" si="57"/>
+        <v>71.900000000000006</v>
       </c>
       <c r="AB91" s="27">
-        <f t="shared" si="30"/>
-        <v>108.9</v>
+        <f t="shared" si="58"/>
+        <v>40.4</v>
       </c>
     </row>
     <row r="92" spans="2:28">
       <c r="B92" s="3" t="s">
-        <v>186</v>
+        <v>111</v>
+      </c>
+      <c r="J92" s="27">
+        <v>97.5</v>
+      </c>
+      <c r="K92" s="27">
+        <v>139.5</v>
+      </c>
+      <c r="L92" s="27">
+        <v>101.8</v>
+      </c>
+      <c r="M92" s="27">
+        <v>85.3</v>
       </c>
       <c r="N92" s="27">
-        <v>1.2</v>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="O92" s="27">
+        <v>47.2</v>
       </c>
       <c r="P92" s="27">
-        <v>1.1000000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="Q92" s="27">
-        <v>1.2</v>
+        <v>85.3</v>
       </c>
       <c r="R92" s="27">
-        <v>0</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="S92" s="27">
-        <v>0</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="T92" s="27">
-        <v>0</v>
+        <v>79.8</v>
       </c>
       <c r="AA92" s="27">
-        <f t="shared" si="29"/>
-        <v>1.2</v>
+        <f t="shared" si="57"/>
+        <v>40.700000000000003</v>
       </c>
       <c r="AB92" s="27">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="93" spans="2:28">
       <c r="B93" s="3" t="s">
-        <v>114</v>
+        <v>187</v>
+      </c>
+      <c r="J93" s="27">
+        <v>30.7</v>
+      </c>
+      <c r="K93" s="27">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="L93" s="27">
+        <v>51.7</v>
+      </c>
+      <c r="M93" s="27">
+        <v>34.1</v>
       </c>
       <c r="N93" s="27">
-        <v>0</v>
+        <v>42.6</v>
+      </c>
+      <c r="O93" s="27">
+        <v>38.799999999999997</v>
       </c>
       <c r="P93" s="27">
-        <v>0</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="Q93" s="27">
-        <v>0</v>
+        <v>34.1</v>
       </c>
       <c r="R93" s="27">
-        <v>45.1</v>
-      </c>
-      <c r="S93" s="3">
-        <v>47.4</v>
+        <v>15.8</v>
+      </c>
+      <c r="S93" s="27">
+        <v>0</v>
       </c>
       <c r="T93" s="27">
         <v>0</v>
       </c>
       <c r="AA93" s="27">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="57"/>
+        <v>42.6</v>
       </c>
       <c r="AB93" s="27">
-        <f t="shared" si="30"/>
-        <v>45.1</v>
+        <f t="shared" si="58"/>
+        <v>15.8</v>
       </c>
     </row>
     <row r="94" spans="2:28">
       <c r="B94" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="J94" s="27">
+        <v>2</v>
+      </c>
+      <c r="K94" s="27">
+        <v>2</v>
+      </c>
+      <c r="L94" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="M94" s="27">
+        <v>2.5</v>
       </c>
       <c r="N94" s="27">
-        <f>SUM(N80:N93)</f>
-        <v>2428.6999999999998</v>
+        <v>0.5</v>
+      </c>
+      <c r="O94" s="27">
+        <v>0</v>
       </c>
       <c r="P94" s="27">
-        <f>SUM(P80:P93)</f>
-        <v>2856.2400000000002</v>
+        <v>2.5</v>
       </c>
       <c r="Q94" s="27">
-        <f>SUM(Q80:Q93)</f>
-        <v>2953.6</v>
+        <v>2.5</v>
       </c>
       <c r="R94" s="27">
-        <f>SUM(R80:R93)</f>
-        <v>2828.8</v>
+        <v>2.5</v>
       </c>
       <c r="S94" s="27">
-        <f>SUM(S80:S93)</f>
-        <v>2756.3</v>
+        <v>2.8</v>
       </c>
       <c r="T94" s="27">
-        <f>SUM(T80:T93)</f>
-        <v>2640.1000000000004</v>
+        <v>2.6</v>
       </c>
       <c r="AA94" s="27">
-        <f>SUM(AA80:AA93)</f>
-        <v>2428.6999999999998</v>
+        <f t="shared" si="57"/>
+        <v>0.5</v>
       </c>
       <c r="AB94" s="27">
-        <f>SUM(AB80:AB93)</f>
-        <v>2828.8</v>
+        <f t="shared" si="58"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="95" spans="2:28">
       <c r="B95" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
+      </c>
+      <c r="J95" s="27">
+        <v>117.3</v>
+      </c>
+      <c r="K95" s="27">
+        <v>103</v>
+      </c>
+      <c r="L95" s="27">
+        <v>96.8</v>
+      </c>
+      <c r="M95" s="27">
+        <v>114.1</v>
       </c>
       <c r="N95" s="27">
-        <v>53.3</v>
+        <v>98.5</v>
+      </c>
+      <c r="O95" s="27">
+        <v>95.6</v>
       </c>
       <c r="P95" s="27">
-        <v>48.2</v>
+        <v>113.54</v>
       </c>
       <c r="Q95" s="27">
-        <v>52.9</v>
+        <v>114.1</v>
       </c>
       <c r="R95" s="27">
-        <v>52.3</v>
+        <v>108.9</v>
       </c>
       <c r="S95" s="27">
-        <v>49</v>
+        <v>113.8</v>
       </c>
       <c r="T95" s="27">
-        <v>52.6</v>
+        <v>111.8</v>
       </c>
       <c r="AA95" s="27">
-        <f>N95</f>
-        <v>53.3</v>
+        <f t="shared" si="57"/>
+        <v>98.5</v>
       </c>
       <c r="AB95" s="27">
-        <f>R95</f>
-        <v>52.3</v>
-      </c>
-    </row>
-    <row r="96" spans="2:28" s="2" customFormat="1">
-      <c r="B96" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N96" s="26">
-        <v>4072.5</v>
-      </c>
-      <c r="P96" s="26">
-        <v>3523.2</v>
-      </c>
-      <c r="Q96" s="26">
-        <v>3523.5</v>
-      </c>
-      <c r="R96" s="26">
-        <v>3452.7</v>
-      </c>
-      <c r="S96" s="26">
-        <v>3229</v>
-      </c>
-      <c r="T96" s="26">
-        <v>3092.7</v>
-      </c>
-      <c r="AA96" s="26">
-        <f>N96</f>
-        <v>4072.5</v>
-      </c>
-      <c r="AB96" s="26">
-        <f>R96</f>
-        <v>3452.7</v>
+        <f t="shared" si="58"/>
+        <v>108.9</v>
+      </c>
+    </row>
+    <row r="96" spans="2:28">
+      <c r="B96" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J96" s="27">
+        <v>1.4</v>
+      </c>
+      <c r="K96" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L96" s="27">
+        <v>1</v>
+      </c>
+      <c r="M96" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="N96" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="O96" s="27">
+        <v>1</v>
+      </c>
+      <c r="P96" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q96" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="R96" s="27">
+        <v>0</v>
+      </c>
+      <c r="S96" s="27">
+        <v>0</v>
+      </c>
+      <c r="T96" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="27">
+        <f t="shared" si="57"/>
+        <v>1.2</v>
+      </c>
+      <c r="AB96" s="27">
+        <f t="shared" si="58"/>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:28">
       <c r="B97" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
+      </c>
+      <c r="J97" s="27">
+        <v>0</v>
+      </c>
+      <c r="K97" s="27">
+        <v>0</v>
+      </c>
+      <c r="L97" s="27">
+        <v>0</v>
+      </c>
+      <c r="M97" s="27">
+        <v>0</v>
       </c>
       <c r="N97" s="27">
-        <v>42.3</v>
+        <v>0</v>
+      </c>
+      <c r="O97" s="27">
+        <v>0</v>
       </c>
       <c r="P97" s="27">
-        <v>44.9</v>
+        <v>0</v>
       </c>
       <c r="Q97" s="27">
-        <v>39.6</v>
+        <v>0</v>
       </c>
       <c r="R97" s="27">
-        <v>57.6</v>
-      </c>
-      <c r="S97" s="27">
-        <v>53.8</v>
+        <v>45.1</v>
+      </c>
+      <c r="S97" s="3">
+        <v>47.4</v>
       </c>
       <c r="T97" s="27">
-        <v>55.1</v>
+        <v>0</v>
       </c>
       <c r="AA97" s="27">
-        <f t="shared" ref="AA97:AA104" si="31">N97</f>
-        <v>42.3</v>
+        <f t="shared" si="57"/>
+        <v>0</v>
       </c>
       <c r="AB97" s="27">
-        <f t="shared" ref="AB97:AB104" si="32">R97</f>
-        <v>57.6</v>
+        <f t="shared" si="58"/>
+        <v>45.1</v>
       </c>
     </row>
     <row r="98" spans="2:28">
       <c r="B98" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
+      </c>
+      <c r="J98" s="27">
+        <f>SUM(J83:J97)</f>
+        <v>2838.4</v>
+      </c>
+      <c r="K98" s="27">
+        <f>SUM(K83:K97)</f>
+        <v>3364.2999999999993</v>
+      </c>
+      <c r="L98" s="27">
+        <f>SUM(L83:L97)</f>
+        <v>2938</v>
+      </c>
+      <c r="M98" s="27">
+        <f>SUM(M83:M97)</f>
+        <v>2953.6</v>
       </c>
       <c r="N98" s="27">
-        <v>262.39999999999998</v>
+        <f>SUM(N83:N97)</f>
+        <v>2428.6999999999998</v>
+      </c>
+      <c r="O98" s="27">
+        <f>SUM(O83:O97)</f>
+        <v>2410.1999999999998</v>
       </c>
       <c r="P98" s="27">
-        <v>267.5</v>
+        <f>SUM(P83:P97)</f>
+        <v>2856.2400000000002</v>
       </c>
       <c r="Q98" s="27">
-        <v>324.8</v>
+        <f>SUM(Q83:Q97)</f>
+        <v>2953.6</v>
       </c>
       <c r="R98" s="27">
-        <v>308.7</v>
+        <f>SUM(R83:R97)</f>
+        <v>2828.8</v>
       </c>
       <c r="S98" s="27">
-        <v>454.8</v>
+        <f>SUM(S83:S97)</f>
+        <v>2756.3</v>
       </c>
       <c r="T98" s="27">
-        <v>478.5</v>
+        <f>SUM(T83:T97)</f>
+        <v>2640.1000000000004</v>
       </c>
       <c r="AA98" s="27">
-        <f t="shared" si="31"/>
-        <v>262.39999999999998</v>
+        <f>SUM(AA83:AA97)</f>
+        <v>2428.6999999999998</v>
       </c>
       <c r="AB98" s="27">
-        <f t="shared" si="32"/>
-        <v>308.7</v>
+        <f>SUM(AB83:AB97)</f>
+        <v>2828.8</v>
       </c>
     </row>
     <row r="99" spans="2:28">
       <c r="B99" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
+      </c>
+      <c r="J99" s="27">
+        <v>39.9</v>
+      </c>
+      <c r="K99" s="3">
+        <v>54.9</v>
+      </c>
+      <c r="L99" s="27">
+        <v>53.3</v>
+      </c>
+      <c r="M99" s="27">
+        <v>52.9</v>
       </c>
       <c r="N99" s="27">
-        <v>8.6999999999999993</v>
+        <v>53.3</v>
+      </c>
+      <c r="O99" s="27">
+        <v>50.6</v>
       </c>
       <c r="P99" s="27">
-        <v>4.7</v>
+        <v>48.2</v>
       </c>
       <c r="Q99" s="27">
-        <v>3.6</v>
+        <v>52.9</v>
       </c>
       <c r="R99" s="27">
-        <v>3</v>
+        <v>52.3</v>
       </c>
       <c r="S99" s="27">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="T99" s="27">
-        <v>0</v>
+        <v>52.6</v>
       </c>
       <c r="AA99" s="27">
-        <f t="shared" si="31"/>
-        <v>8.6999999999999993</v>
+        <f>N99</f>
+        <v>53.3</v>
       </c>
       <c r="AB99" s="27">
-        <f t="shared" si="32"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="2:28">
-      <c r="B100" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="N100" s="27">
-        <v>11.8</v>
-      </c>
-      <c r="P100" s="27">
+        <f>R99</f>
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:28" s="2" customFormat="1">
+      <c r="B100" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J100" s="26">
+        <v>3177.3</v>
+      </c>
+      <c r="K100" s="26">
+        <v>3169.2</v>
+      </c>
+      <c r="L100" s="26">
+        <v>3328</v>
+      </c>
+      <c r="M100" s="26">
+        <v>3523.5</v>
+      </c>
+      <c r="N100" s="26">
+        <v>4072.5</v>
+      </c>
+      <c r="O100" s="26">
+        <v>4008.3</v>
+      </c>
+      <c r="P100" s="26">
+        <v>3523.2</v>
+      </c>
+      <c r="Q100" s="26">
+        <v>3523.5</v>
+      </c>
+      <c r="R100" s="26">
+        <v>3452.7</v>
+      </c>
+      <c r="S100" s="26">
+        <v>3229</v>
+      </c>
+      <c r="T100" s="26">
+        <v>3092.7</v>
+      </c>
+      <c r="AA100" s="26">
+        <f>N100</f>
+        <v>4072.5</v>
+      </c>
+      <c r="AB100" s="26">
+        <f>R100</f>
+        <v>3452.7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:28" s="2" customFormat="1">
+      <c r="B101" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J101" s="26">
+        <v>13.6</v>
+      </c>
+      <c r="K101" s="26">
         <v>12.4</v>
       </c>
-      <c r="Q100" s="27">
-        <v>10</v>
-      </c>
-      <c r="R100" s="27">
-        <v>10</v>
-      </c>
-      <c r="S100" s="27">
-        <v>13</v>
-      </c>
-      <c r="T100" s="27">
-        <v>12.1</v>
-      </c>
-      <c r="AA100" s="27">
-        <f t="shared" si="31"/>
-        <v>11.8</v>
-      </c>
-      <c r="AB100" s="27">
-        <f t="shared" si="32"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="2:28">
-      <c r="B101" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N101" s="27">
-        <v>474.7</v>
-      </c>
-      <c r="P101" s="27">
-        <v>444.8</v>
-      </c>
-      <c r="Q101" s="27">
-        <v>428.6</v>
-      </c>
-      <c r="R101" s="27">
-        <v>505.8</v>
-      </c>
-      <c r="S101" s="27">
-        <v>376.1</v>
-      </c>
-      <c r="T101" s="27">
-        <v>334.4</v>
-      </c>
-      <c r="AA101" s="27">
-        <f t="shared" si="31"/>
-        <v>474.7</v>
-      </c>
-      <c r="AB101" s="27">
-        <f t="shared" si="32"/>
-        <v>505.8</v>
+      <c r="L101" s="26">
+        <v>11.7</v>
+      </c>
+      <c r="M101" s="26">
+        <v>0</v>
+      </c>
+      <c r="N101" s="26">
+        <v>0</v>
+      </c>
+      <c r="O101" s="26">
+        <v>8.4</v>
+      </c>
+      <c r="P101" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="26">
+        <v>0</v>
+      </c>
+      <c r="R101" s="26">
+        <v>0</v>
+      </c>
+      <c r="S101" s="26">
+        <v>0</v>
+      </c>
+      <c r="T101" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="26">
+        <f>N101</f>
+        <v>0</v>
+      </c>
+      <c r="AB101" s="26">
+        <f>R101</f>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:28">
       <c r="B102" s="3" t="s">
-        <v>187</v>
+        <v>108</v>
+      </c>
+      <c r="J102" s="27">
+        <v>18</v>
+      </c>
+      <c r="K102" s="27">
+        <v>8</v>
+      </c>
+      <c r="L102" s="27">
+        <v>6</v>
+      </c>
+      <c r="M102" s="27">
+        <v>39.6</v>
       </c>
       <c r="N102" s="27">
-        <v>82.6</v>
+        <v>42.3</v>
+      </c>
+      <c r="O102" s="27">
+        <v>34.9</v>
       </c>
       <c r="P102" s="27">
-        <v>73.8</v>
+        <v>44.9</v>
       </c>
       <c r="Q102" s="27">
-        <v>63.1</v>
+        <v>39.6</v>
       </c>
       <c r="R102" s="27">
-        <v>2.9</v>
+        <v>57.6</v>
       </c>
       <c r="S102" s="27">
-        <v>0</v>
+        <v>53.8</v>
       </c>
       <c r="T102" s="27">
-        <v>0</v>
+        <v>55.1</v>
       </c>
       <c r="AA102" s="27">
-        <f t="shared" si="31"/>
-        <v>82.6</v>
+        <f t="shared" ref="AA102:AA109" si="59">N102</f>
+        <v>42.3</v>
       </c>
       <c r="AB102" s="27">
-        <f t="shared" si="32"/>
-        <v>2.9</v>
+        <f t="shared" ref="AB102:AB109" si="60">R102</f>
+        <v>57.6</v>
       </c>
     </row>
     <row r="103" spans="2:28">
       <c r="B103" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="J103" s="27">
+        <v>257.8</v>
+      </c>
+      <c r="K103" s="27">
+        <v>190.5</v>
+      </c>
+      <c r="L103" s="27">
+        <v>239.1</v>
+      </c>
+      <c r="M103" s="27">
+        <v>324.8</v>
       </c>
       <c r="N103" s="27">
-        <v>57.3</v>
+        <v>262.39999999999998</v>
+      </c>
+      <c r="O103" s="27">
+        <v>254.2</v>
       </c>
       <c r="P103" s="27">
-        <v>67.599999999999994</v>
+        <v>267.5</v>
       </c>
       <c r="Q103" s="27">
-        <v>66.400000000000006</v>
+        <v>324.8</v>
       </c>
       <c r="R103" s="27">
-        <v>37.700000000000003</v>
+        <v>308.7</v>
       </c>
       <c r="S103" s="27">
-        <v>37.6</v>
+        <v>454.8</v>
       </c>
       <c r="T103" s="27">
-        <v>27.2</v>
+        <v>478.5</v>
       </c>
       <c r="AA103" s="27">
-        <f t="shared" si="31"/>
-        <v>57.3</v>
+        <f t="shared" si="59"/>
+        <v>262.39999999999998</v>
       </c>
       <c r="AB103" s="27">
-        <f t="shared" si="32"/>
-        <v>37.700000000000003</v>
+        <f t="shared" si="60"/>
+        <v>308.7</v>
       </c>
     </row>
     <row r="104" spans="2:28">
       <c r="B104" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
+      </c>
+      <c r="J104" s="27">
+        <v>0</v>
+      </c>
+      <c r="K104" s="27">
+        <v>0</v>
+      </c>
+      <c r="L104" s="27">
+        <v>12.7</v>
+      </c>
+      <c r="M104" s="27">
+        <v>3.6</v>
       </c>
       <c r="N104" s="27">
-        <v>114.2</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="O104" s="27">
+        <v>7.4</v>
       </c>
       <c r="P104" s="27">
-        <v>112.3</v>
+        <v>4.7</v>
       </c>
       <c r="Q104" s="27">
-        <v>108.4</v>
+        <v>3.6</v>
       </c>
       <c r="R104" s="27">
-        <v>120.5</v>
+        <v>3</v>
       </c>
       <c r="S104" s="27">
-        <v>141.9</v>
+        <v>0</v>
       </c>
       <c r="T104" s="27">
-        <v>133.4</v>
+        <v>0</v>
       </c>
       <c r="AA104" s="27">
-        <f t="shared" si="31"/>
-        <v>114.2</v>
+        <f t="shared" si="59"/>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AB104" s="27">
-        <f t="shared" si="32"/>
-        <v>120.5</v>
+        <f t="shared" si="60"/>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="2:28">
       <c r="B105" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="J105" s="27">
+        <v>13.4</v>
+      </c>
+      <c r="K105" s="27">
+        <v>11</v>
+      </c>
+      <c r="L105" s="27">
+        <v>10.6</v>
+      </c>
+      <c r="M105" s="27">
+        <v>10</v>
       </c>
       <c r="N105" s="27">
-        <f>SUM(N95:N104)+N94</f>
-        <v>7608.5</v>
+        <v>11.8</v>
+      </c>
+      <c r="O105" s="27">
+        <v>10.8</v>
       </c>
       <c r="P105" s="27">
-        <f>SUM(P95:P104)+P94</f>
-        <v>7455.6400000000012</v>
+        <v>12.4</v>
       </c>
       <c r="Q105" s="27">
-        <f>SUM(Q95:Q104)+Q94</f>
-        <v>7574.5</v>
+        <v>10</v>
       </c>
       <c r="R105" s="27">
-        <f>SUM(R95:R104)+R94</f>
-        <v>7379.9999999999991</v>
+        <v>10</v>
       </c>
       <c r="S105" s="27">
-        <f>SUM(S95:S104)+S94</f>
-        <v>7111.5000000000009</v>
+        <v>13</v>
       </c>
       <c r="T105" s="27">
-        <f>SUM(T95:T104)+T94</f>
-        <v>6826.0999999999995</v>
+        <v>12.1</v>
       </c>
       <c r="AA105" s="27">
-        <f>SUM(AA95:AA104)+AA94</f>
-        <v>7608.5</v>
+        <f t="shared" si="59"/>
+        <v>11.8</v>
       </c>
       <c r="AB105" s="27">
-        <f>SUM(AB95:AB104)+AB94</f>
-        <v>7379.9999999999991</v>
+        <f t="shared" si="60"/>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="2:28">
-      <c r="P106" s="27"/>
-      <c r="Q106" s="27"/>
-      <c r="R106" s="27"/>
-      <c r="S106" s="27"/>
-      <c r="T106" s="27"/>
+      <c r="B106" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J106" s="27">
+        <v>301</v>
+      </c>
+      <c r="K106" s="27">
+        <v>492.1</v>
+      </c>
+      <c r="L106" s="27">
+        <v>508.6</v>
+      </c>
+      <c r="M106" s="27">
+        <v>428.6</v>
+      </c>
+      <c r="N106" s="27">
+        <v>474.7</v>
+      </c>
+      <c r="O106" s="27">
+        <v>488.7</v>
+      </c>
+      <c r="P106" s="27">
+        <v>444.8</v>
+      </c>
+      <c r="Q106" s="27">
+        <v>428.6</v>
+      </c>
+      <c r="R106" s="27">
+        <v>505.8</v>
+      </c>
+      <c r="S106" s="27">
+        <v>376.1</v>
+      </c>
+      <c r="T106" s="27">
+        <v>334.4</v>
+      </c>
+      <c r="AA106" s="27">
+        <f t="shared" si="59"/>
+        <v>474.7</v>
+      </c>
+      <c r="AB106" s="27">
+        <f t="shared" si="60"/>
+        <v>505.8</v>
+      </c>
     </row>
     <row r="107" spans="2:28">
       <c r="B107" s="3" t="s">
-        <v>119</v>
+        <v>187</v>
+      </c>
+      <c r="J107" s="27">
+        <v>109.6</v>
+      </c>
+      <c r="K107" s="27">
+        <v>99.4</v>
+      </c>
+      <c r="L107" s="27">
+        <v>69.2</v>
+      </c>
+      <c r="M107" s="27">
+        <v>63.1</v>
       </c>
       <c r="N107" s="27">
-        <v>2907.5</v>
+        <v>82.6</v>
+      </c>
+      <c r="O107" s="27">
+        <v>78.599999999999994</v>
       </c>
       <c r="P107" s="27">
-        <v>2885.7</v>
+        <v>73.8</v>
       </c>
       <c r="Q107" s="27">
-        <v>2808.2</v>
+        <v>63.1</v>
       </c>
       <c r="R107" s="27">
-        <v>2775</v>
+        <v>2.9</v>
       </c>
       <c r="S107" s="27">
-        <v>2756.9</v>
+        <v>0</v>
       </c>
       <c r="T107" s="27">
-        <v>2872.7</v>
+        <v>0</v>
       </c>
       <c r="AA107" s="27">
-        <f>N107</f>
-        <v>2907.5</v>
+        <f t="shared" si="59"/>
+        <v>82.6</v>
       </c>
       <c r="AB107" s="27">
-        <f>R107</f>
-        <v>2775</v>
+        <f t="shared" si="60"/>
+        <v>2.9</v>
       </c>
     </row>
     <row r="108" spans="2:28">
       <c r="B108" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
+      </c>
+      <c r="J108" s="27">
+        <v>63.7</v>
+      </c>
+      <c r="K108" s="27">
+        <v>61.2</v>
+      </c>
+      <c r="L108" s="27">
+        <v>60.1</v>
+      </c>
+      <c r="M108" s="27">
+        <v>66.400000000000006</v>
       </c>
       <c r="N108" s="27">
-        <f>N107+N105</f>
-        <v>10516</v>
+        <v>57.3</v>
+      </c>
+      <c r="O108" s="27">
+        <v>56.5</v>
       </c>
       <c r="P108" s="27">
-        <f>P107+P105</f>
-        <v>10341.34</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="Q108" s="27">
-        <f>Q107+Q105</f>
-        <v>10382.700000000001</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="R108" s="27">
-        <f>R107+R105</f>
-        <v>10155</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="S108" s="27">
-        <f>S107+S105</f>
-        <v>9868.4000000000015</v>
+        <v>37.6</v>
       </c>
       <c r="T108" s="27">
-        <f>T107+T105</f>
-        <v>9698.7999999999993</v>
+        <v>27.2</v>
       </c>
       <c r="AA108" s="27">
-        <f>AA107+AA105</f>
-        <v>10516</v>
+        <f t="shared" si="59"/>
+        <v>57.3</v>
       </c>
       <c r="AB108" s="27">
-        <f>AB107+AB105</f>
-        <v>10155</v>
+        <f t="shared" si="60"/>
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="2:28">
+      <c r="B109" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J109" s="27">
+        <v>125.2</v>
+      </c>
+      <c r="K109" s="27">
+        <v>108.7</v>
+      </c>
+      <c r="L109" s="27">
+        <v>107.8</v>
+      </c>
+      <c r="M109" s="27">
+        <v>108.4</v>
+      </c>
+      <c r="N109" s="27">
+        <v>114.2</v>
+      </c>
+      <c r="O109" s="27">
+        <v>105.1</v>
+      </c>
+      <c r="P109" s="27">
+        <v>112.3</v>
+      </c>
+      <c r="Q109" s="27">
+        <v>108.4</v>
+      </c>
+      <c r="R109" s="27">
+        <v>120.5</v>
+      </c>
+      <c r="S109" s="27">
+        <v>141.9</v>
+      </c>
+      <c r="T109" s="27">
+        <v>133.4</v>
+      </c>
+      <c r="AA109" s="27">
+        <f t="shared" si="59"/>
+        <v>114.2</v>
+      </c>
+      <c r="AB109" s="27">
+        <f t="shared" si="60"/>
+        <v>120.5</v>
       </c>
     </row>
     <row r="110" spans="2:28">
       <c r="B110" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="J110" s="27">
+        <f>SUM(J99:J109)+J98</f>
+        <v>6957.9</v>
+      </c>
+      <c r="K110" s="27">
+        <f>SUM(K99:K109)+K98</f>
+        <v>7571.6999999999989</v>
+      </c>
+      <c r="L110" s="27">
+        <f>SUM(L99:L109)+L98</f>
+        <v>7345.1</v>
+      </c>
+      <c r="M110" s="27">
+        <f>SUM(M99:M109)+M98</f>
+        <v>7574.5</v>
       </c>
       <c r="N110" s="27">
-        <f t="shared" ref="N110" si="33">N78-N105</f>
+        <f>SUM(N99:N109)+N98</f>
+        <v>7608.5</v>
+      </c>
+      <c r="O110" s="27">
+        <f>SUM(O99:O109)+O98</f>
+        <v>7513.7</v>
+      </c>
+      <c r="P110" s="27">
+        <f>SUM(P99:P109)+P98</f>
+        <v>7455.6400000000012</v>
+      </c>
+      <c r="Q110" s="27">
+        <f>SUM(Q99:Q109)+Q98</f>
+        <v>7574.5</v>
+      </c>
+      <c r="R110" s="27">
+        <f>SUM(R99:R109)+R98</f>
+        <v>7379.9999999999991</v>
+      </c>
+      <c r="S110" s="27">
+        <f>SUM(S99:S109)+S98</f>
+        <v>7111.5000000000009</v>
+      </c>
+      <c r="T110" s="27">
+        <f>SUM(T99:T109)+T98</f>
+        <v>6826.0999999999995</v>
+      </c>
+      <c r="AA110" s="27">
+        <f>SUM(AA99:AA109)+AA98</f>
+        <v>7608.5</v>
+      </c>
+      <c r="AB110" s="27">
+        <f>SUM(AB99:AB109)+AB98</f>
+        <v>7379.9999999999991</v>
+      </c>
+    </row>
+    <row r="111" spans="2:28">
+      <c r="L111" s="27"/>
+      <c r="P111" s="27"/>
+      <c r="Q111" s="27"/>
+      <c r="R111" s="27"/>
+      <c r="S111" s="27"/>
+      <c r="T111" s="27"/>
+    </row>
+    <row r="112" spans="2:28">
+      <c r="B112" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J112" s="27">
+        <v>3614.6</v>
+      </c>
+      <c r="K112" s="27">
+        <v>3284.4</v>
+      </c>
+      <c r="L112" s="27">
+        <v>2980.3</v>
+      </c>
+      <c r="M112" s="27">
+        <v>2808.2</v>
+      </c>
+      <c r="N112" s="27">
         <v>2907.5</v>
       </c>
-      <c r="P110" s="27">
-        <f t="shared" ref="P110:Q110" si="34">P78-P105</f>
-        <v>2885.659999999998</v>
-      </c>
-      <c r="Q110" s="27">
-        <f t="shared" si="34"/>
-        <v>2808.2000000000007</v>
-      </c>
-      <c r="R110" s="27">
-        <f t="shared" ref="R110" si="35">R78-R105</f>
-        <v>2775.0000000000009</v>
-      </c>
-      <c r="S110" s="27">
-        <f>S78-S105</f>
-        <v>2756.8999999999987</v>
-      </c>
-      <c r="T110" s="27">
-        <f>T78-T105</f>
+      <c r="O112" s="27">
+        <v>2794.4</v>
+      </c>
+      <c r="P112" s="27">
+        <v>2885.7</v>
+      </c>
+      <c r="Q112" s="27">
+        <v>2808.2</v>
+      </c>
+      <c r="R112" s="27">
+        <v>2775</v>
+      </c>
+      <c r="S112" s="27">
+        <v>2756.9</v>
+      </c>
+      <c r="T112" s="27">
         <v>2872.7</v>
       </c>
-      <c r="AA110" s="27">
-        <f t="shared" ref="AA110" si="36">AA78-AA105</f>
+      <c r="AA112" s="27">
+        <f>N112</f>
         <v>2907.5</v>
       </c>
-      <c r="AB110" s="27">
-        <f>AB78-AB105</f>
-        <v>2775.0000000000009</v>
-      </c>
-    </row>
-    <row r="111" spans="2:28">
-      <c r="B111" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N111" s="3">
-        <f t="shared" ref="N111:Q111" si="37">N110/N27</f>
-        <v>3.9493344199945666</v>
-      </c>
-      <c r="P111" s="3">
-        <f t="shared" si="37"/>
-        <v>3.9271366358192683</v>
-      </c>
-      <c r="Q111" s="3">
-        <f t="shared" si="37"/>
-        <v>3.821720195971694</v>
-      </c>
-      <c r="R111" s="3">
-        <f t="shared" ref="R111" si="38">R110/R27</f>
-        <v>3.7770518579011854</v>
-      </c>
-      <c r="S111" s="3">
-        <f>S110/S27</f>
-        <v>3.7529267628641421</v>
-      </c>
-      <c r="T111" s="3">
-        <f>T110/T27</f>
-        <v>3.9105635720119789</v>
-      </c>
-      <c r="AA111" s="3">
-        <f t="shared" ref="AA111" si="39">AA110/AA27</f>
-        <v>3.9493344199945666</v>
-      </c>
-      <c r="AB111" s="3">
-        <f>AB110/AB27</f>
-        <v>3.7770518579011854</v>
-      </c>
-    </row>
-    <row r="113" spans="2:28" s="39" customFormat="1">
-      <c r="B113" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="N113" s="52">
-        <f t="shared" ref="N113" si="40">N54+N55+N66+N68</f>
-        <v>2753.6</v>
-      </c>
-      <c r="P113" s="52">
-        <f t="shared" ref="P113:Q113" si="41">P54+P55+P66+P68</f>
-        <v>2514.3000000000002</v>
-      </c>
-      <c r="Q113" s="52">
-        <f t="shared" si="41"/>
-        <v>2503.6999999999998</v>
-      </c>
-      <c r="R113" s="52">
-        <f t="shared" ref="R113" si="42">R54+R55+R66+R68</f>
-        <v>2634.7</v>
-      </c>
-      <c r="S113" s="52">
-        <f t="shared" ref="S113" si="43">S54+S55+S66+S68</f>
-        <v>2104.1999999999998</v>
-      </c>
-      <c r="T113" s="52">
-        <f>T54+T55+T66+T68</f>
-        <v>1968.2</v>
-      </c>
-      <c r="AA113" s="52">
-        <f t="shared" ref="AA113" si="44">AA54+AA55+AA66+AA68</f>
-        <v>2753.6</v>
-      </c>
-      <c r="AB113" s="52">
-        <f>AB54+AB55+AB66+AB68</f>
-        <v>2634.7</v>
-      </c>
-    </row>
-    <row r="114" spans="2:28" s="39" customFormat="1">
-      <c r="B114" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="N114" s="52">
-        <f t="shared" ref="N114" si="45">N83+N86+N96</f>
-        <v>4449.2</v>
-      </c>
-      <c r="P114" s="52">
-        <f t="shared" ref="P114:Q114" si="46">P83+P86+P96</f>
-        <v>4334.0999999999995</v>
-      </c>
-      <c r="Q114" s="52">
-        <f t="shared" si="46"/>
-        <v>4310.1000000000004</v>
-      </c>
-      <c r="R114" s="52">
-        <f t="shared" ref="R114" si="47">R83+R86+R96</f>
-        <v>4029.7999999999997</v>
-      </c>
-      <c r="S114" s="52">
-        <f>S83+S86+S96</f>
-        <v>3559</v>
-      </c>
-      <c r="T114" s="52">
-        <f>T83+T86+T96</f>
-        <v>3173.8999999999996</v>
-      </c>
-      <c r="AA114" s="52">
-        <f t="shared" ref="AA114" si="48">AA83+AA86+AA96</f>
-        <v>4449.2</v>
-      </c>
-      <c r="AB114" s="52">
-        <f>AB83+AB86+AB96</f>
-        <v>4029.7999999999997</v>
-      </c>
+      <c r="AB112" s="27">
+        <f>R112</f>
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="113" spans="2:28">
+      <c r="B113" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J113" s="27">
+        <f t="shared" ref="J113:K113" si="61">J112+J110</f>
+        <v>10572.5</v>
+      </c>
+      <c r="K113" s="27">
+        <f t="shared" si="61"/>
+        <v>10856.099999999999</v>
+      </c>
+      <c r="L113" s="27">
+        <f>L112+L110</f>
+        <v>10325.400000000001</v>
+      </c>
+      <c r="M113" s="27">
+        <f>M112+M110</f>
+        <v>10382.700000000001</v>
+      </c>
+      <c r="N113" s="27">
+        <f>N112+N110</f>
+        <v>10516</v>
+      </c>
+      <c r="O113" s="27">
+        <f>O112+O110</f>
+        <v>10308.1</v>
+      </c>
+      <c r="P113" s="27">
+        <f>P112+P110</f>
+        <v>10341.34</v>
+      </c>
+      <c r="Q113" s="27">
+        <f>Q112+Q110</f>
+        <v>10382.700000000001</v>
+      </c>
+      <c r="R113" s="27">
+        <f>R112+R110</f>
+        <v>10155</v>
+      </c>
+      <c r="S113" s="27">
+        <f>S112+S110</f>
+        <v>9868.4000000000015</v>
+      </c>
+      <c r="T113" s="27">
+        <f>T112+T110</f>
+        <v>9698.7999999999993</v>
+      </c>
+      <c r="AA113" s="27">
+        <f>AA112+AA110</f>
+        <v>10516</v>
+      </c>
+      <c r="AB113" s="27">
+        <f>AB112+AB110</f>
+        <v>10155</v>
+      </c>
+    </row>
+    <row r="114" spans="2:28">
+      <c r="J114" s="27"/>
+      <c r="K114" s="27"/>
+      <c r="L114" s="27"/>
     </row>
     <row r="115" spans="2:28">
       <c r="B115" s="3" t="s">
-        <v>8</v>
+        <v>121</v>
+      </c>
+      <c r="J115" s="27">
+        <f t="shared" ref="J115:L115" si="62">J81-J110</f>
+        <v>3614.6000000000004</v>
+      </c>
+      <c r="K115" s="27">
+        <f t="shared" si="62"/>
+        <v>3284.3999999999996</v>
+      </c>
+      <c r="L115" s="27">
+        <f t="shared" ref="L115:O115" si="63">L81-L110</f>
+        <v>2980.3000000000011</v>
+      </c>
+      <c r="M115" s="27">
+        <f t="shared" ref="M115:N115" si="64">M81-M110</f>
+        <v>2808.2000000000007</v>
       </c>
       <c r="N115" s="27">
-        <f t="shared" ref="N115:R115" si="49">N113-N114</f>
-        <v>-1695.6</v>
+        <f t="shared" si="63"/>
+        <v>2907.5</v>
+      </c>
+      <c r="O115" s="27">
+        <f t="shared" si="63"/>
+        <v>2794.4000000000005</v>
       </c>
       <c r="P115" s="27">
-        <f t="shared" si="49"/>
-        <v>-1819.7999999999993</v>
+        <f t="shared" ref="P115:Q115" si="65">P81-P110</f>
+        <v>2885.659999999998</v>
       </c>
       <c r="Q115" s="27">
-        <f t="shared" si="49"/>
-        <v>-1806.4000000000005</v>
+        <f t="shared" si="65"/>
+        <v>2808.2000000000007</v>
       </c>
       <c r="R115" s="27">
-        <f t="shared" si="49"/>
-        <v>-1395.1</v>
+        <f t="shared" ref="R115" si="66">R81-R110</f>
+        <v>2775.0000000000009</v>
       </c>
       <c r="S115" s="27">
-        <f>S113-S114</f>
-        <v>-1454.8000000000002</v>
+        <f>S81-S110</f>
+        <v>2756.8999999999987</v>
       </c>
       <c r="T115" s="27">
-        <f>T113-T114</f>
-        <v>-1205.6999999999996</v>
+        <f>T81-T110</f>
+        <v>2872.7</v>
       </c>
       <c r="AA115" s="27">
-        <f t="shared" ref="AA115" si="50">AA113-AA114</f>
-        <v>-1695.6</v>
+        <f t="shared" ref="AA115" si="67">AA81-AA110</f>
+        <v>2907.5</v>
       </c>
       <c r="AB115" s="27">
-        <f>AB113-AB114</f>
-        <v>-1395.1</v>
-      </c>
-    </row>
-    <row r="117" spans="2:28" s="2" customFormat="1">
-      <c r="B117" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q117" s="34"/>
-      <c r="R117" s="34">
-        <f t="shared" ref="R117" si="51">R60/N60-1</f>
-        <v>-0.18536445301283899</v>
-      </c>
-      <c r="S117" s="34"/>
-      <c r="T117" s="34">
-        <f>T60/P60-1</f>
-        <v>3.36501079913607E-2</v>
-      </c>
-      <c r="AB117" s="34">
-        <f>AB60/AA60-1</f>
-        <v>-0.18536445301283899</v>
-      </c>
-    </row>
-    <row r="118" spans="2:28">
-      <c r="B118" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q118" s="25">
-        <f>Q60/P60-1</f>
-        <v>-4.3196544276458138E-3</v>
-      </c>
-      <c r="R118" s="25">
-        <f t="shared" ref="R118:S118" si="52">R60/Q60-1</f>
-        <v>-0.13839479392624732</v>
-      </c>
-      <c r="S118" s="25">
-        <f t="shared" si="52"/>
-        <v>0.11923464249748239</v>
-      </c>
-      <c r="T118" s="25">
-        <f>T60/S60-1</f>
-        <v>7.6525103473096934E-2</v>
-      </c>
-      <c r="AA118" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB118" s="14" t="s">
-        <v>191</v>
+        <f>AB81-AB110</f>
+        <v>2775.0000000000009</v>
+      </c>
+    </row>
+    <row r="116" spans="2:28">
+      <c r="B116" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J116" s="3">
+        <f t="shared" ref="J116:L116" si="68">J115/J27</f>
+        <v>4.911808669656204</v>
+      </c>
+      <c r="K116" s="3">
+        <f t="shared" si="68"/>
+        <v>4.4618937644341798</v>
+      </c>
+      <c r="L116" s="3">
+        <f t="shared" ref="L116:M116" si="69">L115/L27</f>
+        <v>4.0482205922303738</v>
+      </c>
+      <c r="M116" s="3">
+        <f t="shared" si="69"/>
+        <v>3.8144525944036953</v>
+      </c>
+      <c r="N116" s="3">
+        <f t="shared" ref="N116:Q116" si="70">N115/N27</f>
+        <v>3.9493344199945666</v>
+      </c>
+      <c r="O116" s="3">
+        <f t="shared" ref="O116:P116" si="71">O115/O27</f>
+        <v>3.8019047619047628</v>
+      </c>
+      <c r="P116" s="3">
+        <f t="shared" si="70"/>
+        <v>3.9271366358192683</v>
+      </c>
+      <c r="Q116" s="3">
+        <f t="shared" si="70"/>
+        <v>3.821720195971694</v>
+      </c>
+      <c r="R116" s="3">
+        <f t="shared" ref="R116" si="72">R115/R27</f>
+        <v>3.7770518579011854</v>
+      </c>
+      <c r="S116" s="3">
+        <f>S115/S27</f>
+        <v>3.7529267628641421</v>
+      </c>
+      <c r="T116" s="3">
+        <f>T115/T27</f>
+        <v>3.9105635720119789</v>
+      </c>
+      <c r="AA116" s="3">
+        <f t="shared" ref="AA116" si="73">AA115/AA27</f>
+        <v>3.9493344199945666</v>
+      </c>
+      <c r="AB116" s="3">
+        <f>AB115/AB27</f>
+        <v>3.7770518579011854</v>
+      </c>
+    </row>
+    <row r="118" spans="2:28" s="39" customFormat="1">
+      <c r="B118" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J118" s="52">
+        <f t="shared" ref="J118:L118" si="74">J55+J56+J68+J70</f>
+        <v>2780.6</v>
+      </c>
+      <c r="K118" s="52">
+        <f t="shared" si="74"/>
+        <v>2501.1</v>
+      </c>
+      <c r="L118" s="52">
+        <f t="shared" ref="L118:O118" si="75">L55+L56+L68+L70</f>
+        <v>1998.9</v>
+      </c>
+      <c r="M118" s="52">
+        <f t="shared" ref="M118:N118" si="76">M55+M56+M68+M70</f>
+        <v>2503.6999999999998</v>
+      </c>
+      <c r="N118" s="52">
+        <f t="shared" si="75"/>
+        <v>2753.6</v>
+      </c>
+      <c r="O118" s="52">
+        <f t="shared" si="75"/>
+        <v>2463.4</v>
+      </c>
+      <c r="P118" s="52">
+        <f t="shared" ref="P118:Q118" si="77">P55+P56+P68+P70</f>
+        <v>2514.3000000000002</v>
+      </c>
+      <c r="Q118" s="52">
+        <f t="shared" si="77"/>
+        <v>2503.6999999999998</v>
+      </c>
+      <c r="R118" s="52">
+        <f t="shared" ref="R118" si="78">R55+R56+R68+R70</f>
+        <v>2634.7</v>
+      </c>
+      <c r="S118" s="52">
+        <f t="shared" ref="S118" si="79">S55+S56+S68+S70</f>
+        <v>2104.1999999999998</v>
+      </c>
+      <c r="T118" s="52">
+        <f>T55+T56+T68+T70</f>
+        <v>1968.2</v>
+      </c>
+      <c r="AA118" s="52">
+        <f t="shared" ref="AA118" si="80">AA55+AA56+AA68+AA70</f>
+        <v>2753.6</v>
+      </c>
+      <c r="AB118" s="52">
+        <f>AB55+AB56+AB68+AB70</f>
+        <v>2634.7</v>
+      </c>
+    </row>
+    <row r="119" spans="2:28" s="39" customFormat="1">
+      <c r="B119" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J119" s="52">
+        <f t="shared" ref="J119:L119" si="81">J86+J90+J100+J87+J101</f>
+        <v>3414.4</v>
+      </c>
+      <c r="K119" s="52">
+        <f t="shared" si="81"/>
+        <v>3862.2</v>
+      </c>
+      <c r="L119" s="52">
+        <f>L86+L90+L100+L87+L101</f>
+        <v>3826.3999999999996</v>
+      </c>
+      <c r="M119" s="52">
+        <f t="shared" ref="M119:N119" si="82">M86+M90+M100+M87+M101</f>
+        <v>4310.1000000000004</v>
+      </c>
+      <c r="N119" s="52">
+        <f>N86+N90+N100+N87+N101</f>
+        <v>4449.2</v>
+      </c>
+      <c r="O119" s="52">
+        <f t="shared" ref="O119:P119" si="83">O86+O90+O100+O87+O101</f>
+        <v>4380</v>
+      </c>
+      <c r="P119" s="52">
+        <f t="shared" ref="P119:T119" si="84">P86+P90+P100+P87+P101</f>
+        <v>4334.0999999999995</v>
+      </c>
+      <c r="Q119" s="52">
+        <f t="shared" si="84"/>
+        <v>4310.1000000000004</v>
+      </c>
+      <c r="R119" s="52">
+        <f t="shared" si="84"/>
+        <v>4029.7999999999997</v>
+      </c>
+      <c r="S119" s="52">
+        <f t="shared" si="84"/>
+        <v>3559</v>
+      </c>
+      <c r="T119" s="52">
+        <f t="shared" si="84"/>
+        <v>3173.8999999999996</v>
+      </c>
+      <c r="AA119" s="52">
+        <f t="shared" ref="AA119:AB119" si="85">AA86+AA90+AA100+AA87+AA101</f>
+        <v>4449.2</v>
+      </c>
+      <c r="AB119" s="52">
+        <f t="shared" si="85"/>
+        <v>4029.7999999999997</v>
       </c>
     </row>
     <row r="120" spans="2:28">
       <c r="B120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J120" s="27">
+        <f t="shared" ref="J120:L120" si="86">J118-J119</f>
+        <v>-633.80000000000018</v>
+      </c>
+      <c r="K120" s="27">
+        <f t="shared" si="86"/>
+        <v>-1361.1</v>
+      </c>
+      <c r="L120" s="27">
+        <f t="shared" ref="L120:M120" si="87">L118-L119</f>
+        <v>-1827.4999999999995</v>
+      </c>
+      <c r="M120" s="27">
+        <f t="shared" si="87"/>
+        <v>-1806.4000000000005</v>
+      </c>
+      <c r="N120" s="27">
+        <f t="shared" ref="N120:R120" si="88">N118-N119</f>
+        <v>-1695.6</v>
+      </c>
+      <c r="O120" s="27">
+        <f t="shared" ref="O120:P120" si="89">O118-O119</f>
+        <v>-1916.6</v>
+      </c>
+      <c r="P120" s="27">
+        <f t="shared" si="88"/>
+        <v>-1819.7999999999993</v>
+      </c>
+      <c r="Q120" s="27">
+        <f t="shared" si="88"/>
+        <v>-1806.4000000000005</v>
+      </c>
+      <c r="R120" s="27">
+        <f t="shared" si="88"/>
+        <v>-1395.1</v>
+      </c>
+      <c r="S120" s="27">
+        <f>S118-S119</f>
+        <v>-1454.8000000000002</v>
+      </c>
+      <c r="T120" s="27">
+        <f>T118-T119</f>
+        <v>-1205.6999999999996</v>
+      </c>
+      <c r="AA120" s="27">
+        <f t="shared" ref="AA120" si="90">AA118-AA119</f>
+        <v>-1695.6</v>
+      </c>
+      <c r="AB120" s="27">
+        <f>AB118-AB119</f>
+        <v>-1395.1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:28" s="2" customFormat="1">
+      <c r="B122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N122" s="34">
+        <f t="shared" ref="N122" si="91">N62/J62-1</f>
+        <v>2.2609060402684511E-2</v>
+      </c>
+      <c r="O122" s="34">
+        <f t="shared" ref="O122" si="92">O62/K62-1</f>
+        <v>-0.15109561412504702</v>
+      </c>
+      <c r="P122" s="34">
+        <f t="shared" ref="P122:S122" si="93">P62/L62-1</f>
+        <v>-0.26009971874200977</v>
+      </c>
+      <c r="Q122" s="34">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="R122" s="34">
+        <f t="shared" si="93"/>
+        <v>-0.18536445301283899</v>
+      </c>
+      <c r="S122" s="34">
+        <f t="shared" si="93"/>
+        <v>-0.10490073692264323</v>
+      </c>
+      <c r="T122" s="34">
+        <f>T62/P62-1</f>
+        <v>3.36501079913607E-2</v>
+      </c>
+      <c r="AB122" s="34">
+        <f>AB62/AA62-1</f>
+        <v>-0.18536445301283899</v>
+      </c>
+    </row>
+    <row r="123" spans="2:28">
+      <c r="B123" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K123" s="25">
+        <f t="shared" ref="K123:Q123" si="94">K62/J62-1</f>
+        <v>0.22705536912751678</v>
+      </c>
+      <c r="L123" s="25">
+        <f t="shared" si="94"/>
+        <v>6.9565514648070259E-2</v>
+      </c>
+      <c r="M123" s="25">
+        <f t="shared" si="94"/>
+        <v>-0.26329583226796216</v>
+      </c>
+      <c r="N123" s="25">
+        <f t="shared" si="94"/>
+        <v>5.7657266811279806E-2</v>
+      </c>
+      <c r="O123" s="25">
+        <f t="shared" si="94"/>
+        <v>1.862258501169034E-2</v>
+      </c>
+      <c r="P123" s="25">
+        <f t="shared" si="94"/>
+        <v>-6.7772721781500511E-2</v>
+      </c>
+      <c r="Q123" s="25">
+        <f>Q62/P62-1</f>
+        <v>-4.3196544276458138E-3</v>
+      </c>
+      <c r="R123" s="25">
+        <f t="shared" ref="R123:S123" si="95">R62/Q62-1</f>
+        <v>-0.13839479392624732</v>
+      </c>
+      <c r="S123" s="25">
+        <f t="shared" si="95"/>
+        <v>0.11923464249748239</v>
+      </c>
+      <c r="T123" s="25">
+        <f>T62/S62-1</f>
+        <v>7.6525103473096934E-2</v>
+      </c>
+      <c r="AA123" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB123" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="125" spans="2:28">
+      <c r="B125" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="122" spans="2:28">
-      <c r="B122" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="M122" s="3">
-        <v>4.41</v>
-      </c>
-      <c r="N122" s="3">
-        <v>6.81</v>
-      </c>
-      <c r="O122" s="3">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="P122" s="3">
-        <v>15.14</v>
-      </c>
-      <c r="Q122" s="27">
-        <v>17</v>
-      </c>
-      <c r="R122" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="S122" s="3">
-        <v>12.61</v>
-      </c>
-      <c r="T122" s="3">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="AA122" s="3">
-        <f>N122</f>
-        <v>6.81</v>
-      </c>
-      <c r="AB122" s="3">
-        <f>R122</f>
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="123" spans="2:28" s="27" customFormat="1">
-      <c r="B123" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="M123" s="27">
-        <f t="shared" ref="M123:T123" si="53">M122*M27</f>
-        <v>3246.6420000000003</v>
-      </c>
-      <c r="N123" s="27">
-        <f t="shared" si="53"/>
-        <v>5013.5219999999999</v>
-      </c>
-      <c r="O123" s="27">
-        <f t="shared" si="53"/>
-        <v>7320.6</v>
-      </c>
-      <c r="P123" s="27">
-        <f t="shared" si="53"/>
-        <v>11124.871999999999</v>
-      </c>
-      <c r="Q123" s="27">
-        <f t="shared" si="53"/>
-        <v>12491.599999999999</v>
-      </c>
-      <c r="R123" s="27">
-        <f t="shared" si="53"/>
-        <v>10212.330000000002</v>
-      </c>
-      <c r="S123" s="27">
-        <f t="shared" si="53"/>
-        <v>9263.3060000000005</v>
-      </c>
-      <c r="T123" s="27">
-        <f t="shared" si="53"/>
-        <v>6449.7879999999996</v>
-      </c>
-      <c r="AA123" s="27">
-        <f t="shared" ref="AA123" si="54">AA122*AA27</f>
-        <v>5013.5219999999999</v>
-      </c>
-      <c r="AB123" s="27">
-        <f>AB122*AB27</f>
-        <v>10212.330000000002</v>
-      </c>
-    </row>
-    <row r="124" spans="2:28" s="27" customFormat="1">
-      <c r="B124" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="M124" s="27">
-        <f t="shared" ref="M124:T124" si="55">M123-M115</f>
-        <v>3246.6420000000003</v>
-      </c>
-      <c r="N124" s="27">
-        <f t="shared" si="55"/>
-        <v>6709.1219999999994</v>
-      </c>
-      <c r="O124" s="27">
-        <f t="shared" si="55"/>
-        <v>7320.6</v>
-      </c>
-      <c r="P124" s="27">
-        <f t="shared" si="55"/>
-        <v>12944.671999999999</v>
-      </c>
-      <c r="Q124" s="27">
-        <f t="shared" si="55"/>
-        <v>14298</v>
-      </c>
-      <c r="R124" s="27">
-        <f t="shared" si="55"/>
-        <v>11607.430000000002</v>
-      </c>
-      <c r="S124" s="27">
-        <f t="shared" si="55"/>
-        <v>10718.106</v>
-      </c>
-      <c r="T124" s="27">
-        <f t="shared" si="55"/>
-        <v>7655.4879999999994</v>
-      </c>
-      <c r="AA124" s="27">
-        <f t="shared" ref="AA124" si="56">AA123-AA115</f>
-        <v>6709.1219999999994</v>
-      </c>
-      <c r="AB124" s="27">
-        <f>AB123-AB115</f>
-        <v>11607.430000000002</v>
-      </c>
-    </row>
-    <row r="126" spans="2:28">
-      <c r="B126" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N126" s="57">
-        <f>N122/N111</f>
-        <v>1.7243411865864144</v>
-      </c>
-      <c r="P126" s="57">
-        <f>P122/P111</f>
-        <v>3.8552261874233302</v>
-      </c>
-      <c r="Q126" s="57">
-        <f>Q122/Q111</f>
-        <v>4.4482586710348251</v>
-      </c>
-      <c r="R126" s="57">
-        <f>R122/R111</f>
-        <v>3.6801189189189176</v>
-      </c>
-      <c r="S126" s="57">
-        <f>S122/S111</f>
-        <v>3.3600442526025622</v>
-      </c>
-      <c r="T126" s="57">
-        <f>T122/T111</f>
-        <v>2.2452006822849584</v>
-      </c>
-      <c r="AA126" s="57">
-        <f>AA122/AA111</f>
-        <v>1.7243411865864144</v>
-      </c>
-      <c r="AB126" s="57">
-        <f>AB122/AB111</f>
-        <v>3.6801189189189176</v>
+      <c r="P125" s="25">
+        <f t="shared" ref="P125:S125" si="96">P62/SUM(M9:P9)</f>
+        <v>0.51014786575288118</v>
+      </c>
+      <c r="Q125" s="25">
+        <f t="shared" si="96"/>
+        <v>0.48656407658370798</v>
+      </c>
+      <c r="R125" s="25">
+        <f t="shared" si="96"/>
+        <v>0.47317259125131039</v>
+      </c>
+      <c r="S125" s="25">
+        <f t="shared" si="96"/>
+        <v>0.55698105642978857</v>
+      </c>
+      <c r="T125" s="25">
+        <f>T62/SUM(Q9:T9)</f>
+        <v>0.61685399051350787</v>
+      </c>
+      <c r="AA125" s="25">
+        <f t="shared" ref="AA125:AB125" si="97">AA62/AA9</f>
+        <v>0.64646919996817909</v>
+      </c>
+      <c r="AB125" s="25">
+        <f>AB62/AB9</f>
+        <v>0.47317259125131039</v>
       </c>
     </row>
     <row r="127" spans="2:28">
       <c r="B127" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J127" s="3">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="K127" s="3">
+        <v>7.22</v>
+      </c>
+      <c r="L127" s="3">
+        <v>5.98</v>
+      </c>
+      <c r="M127" s="3">
+        <v>4.41</v>
+      </c>
+      <c r="N127" s="3">
+        <v>6.81</v>
+      </c>
+      <c r="O127" s="3">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="P127" s="3">
+        <v>15.14</v>
+      </c>
+      <c r="Q127" s="27">
+        <v>17</v>
+      </c>
+      <c r="R127" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="S127" s="3">
+        <v>12.61</v>
+      </c>
+      <c r="T127" s="3">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="AA127" s="3">
+        <f>N127</f>
+        <v>6.81</v>
+      </c>
+      <c r="AB127" s="3">
+        <f>R127</f>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="128" spans="2:28" s="27" customFormat="1">
+      <c r="B128" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="J128" s="27">
+        <f t="shared" ref="J128:L128" si="98">J127*J27</f>
+        <v>14342.690999999999</v>
+      </c>
+      <c r="K128" s="27">
+        <f t="shared" si="98"/>
+        <v>5314.6419999999998</v>
+      </c>
+      <c r="L128" s="27">
+        <f t="shared" ref="L128:M128" si="99">L127*L27</f>
+        <v>4402.4760000000006</v>
+      </c>
+      <c r="M128" s="27">
+        <f t="shared" ref="M128:T128" si="100">M127*M27</f>
+        <v>3246.6420000000003</v>
+      </c>
+      <c r="N128" s="27">
+        <f t="shared" si="100"/>
+        <v>5013.5219999999999</v>
+      </c>
+      <c r="O128" s="27">
+        <f t="shared" si="100"/>
+        <v>7320.6</v>
+      </c>
+      <c r="P128" s="27">
+        <f t="shared" si="100"/>
+        <v>11124.871999999999</v>
+      </c>
+      <c r="Q128" s="27">
+        <f t="shared" si="100"/>
+        <v>12491.599999999999</v>
+      </c>
+      <c r="R128" s="27">
+        <f t="shared" si="100"/>
+        <v>10212.330000000002</v>
+      </c>
+      <c r="S128" s="27">
+        <f t="shared" si="100"/>
+        <v>9263.3060000000005</v>
+      </c>
+      <c r="T128" s="27">
+        <f t="shared" si="100"/>
+        <v>6449.7879999999996</v>
+      </c>
+      <c r="AA128" s="27">
+        <f t="shared" ref="AA128" si="101">AA127*AA27</f>
+        <v>5013.5219999999999</v>
+      </c>
+      <c r="AB128" s="27">
+        <f>AB127*AB27</f>
+        <v>10212.330000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="2:28" s="27" customFormat="1">
+      <c r="B129" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J129" s="27">
+        <f t="shared" ref="J129:L129" si="102">J128-J120</f>
+        <v>14976.490999999998</v>
+      </c>
+      <c r="K129" s="27">
+        <f t="shared" si="102"/>
+        <v>6675.7420000000002</v>
+      </c>
+      <c r="L129" s="27">
+        <f t="shared" ref="L129:M129" si="103">L128-L120</f>
+        <v>6229.9760000000006</v>
+      </c>
+      <c r="M129" s="27">
+        <f t="shared" ref="M129:T129" si="104">M128-M120</f>
+        <v>5053.0420000000013</v>
+      </c>
+      <c r="N129" s="27">
+        <f t="shared" si="104"/>
+        <v>6709.1219999999994</v>
+      </c>
+      <c r="O129" s="27">
+        <f t="shared" si="104"/>
+        <v>9237.2000000000007</v>
+      </c>
+      <c r="P129" s="27">
+        <f t="shared" si="104"/>
+        <v>12944.671999999999</v>
+      </c>
+      <c r="Q129" s="27">
+        <f t="shared" si="104"/>
+        <v>14298</v>
+      </c>
+      <c r="R129" s="27">
+        <f t="shared" si="104"/>
+        <v>11607.430000000002</v>
+      </c>
+      <c r="S129" s="27">
+        <f t="shared" si="104"/>
+        <v>10718.106</v>
+      </c>
+      <c r="T129" s="27">
+        <f t="shared" si="104"/>
+        <v>7655.4879999999994</v>
+      </c>
+      <c r="AA129" s="27">
+        <f t="shared" ref="AA129" si="105">AA128-AA120</f>
+        <v>6709.1219999999994</v>
+      </c>
+      <c r="AB129" s="27">
+        <f>AB128-AB120</f>
+        <v>11607.430000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="2:28">
+      <c r="B131" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J131" s="57">
+        <f t="shared" ref="J131:L131" si="106">J127/J116</f>
+        <v>3.9679884357881914</v>
+      </c>
+      <c r="K131" s="57">
+        <f t="shared" si="106"/>
+        <v>1.6181469979296066</v>
+      </c>
+      <c r="L131" s="57">
+        <f>L127/L116</f>
+        <v>1.4771922289702375</v>
+      </c>
+      <c r="M131" s="57">
+        <f>M127/M116</f>
+        <v>1.156129193077416</v>
+      </c>
+      <c r="N131" s="57">
+        <f>N127/N116</f>
+        <v>1.7243411865864144</v>
+      </c>
+      <c r="O131" s="57">
+        <f t="shared" ref="O131:P131" si="107">O127/O116</f>
+        <v>2.6197394789579156</v>
+      </c>
+      <c r="P131" s="57">
+        <f>P127/P116</f>
+        <v>3.8552261874233302</v>
+      </c>
+      <c r="Q131" s="57">
+        <f>Q127/Q116</f>
+        <v>4.4482586710348251</v>
+      </c>
+      <c r="R131" s="57">
+        <f>R127/R116</f>
+        <v>3.6801189189189176</v>
+      </c>
+      <c r="S131" s="57">
+        <f>S127/S116</f>
+        <v>3.3600442526025622</v>
+      </c>
+      <c r="T131" s="57">
+        <f>T127/T116</f>
+        <v>2.2452006822849584</v>
+      </c>
+      <c r="AA131" s="57">
+        <f>AA127/AA116</f>
+        <v>1.7243411865864144</v>
+      </c>
+      <c r="AB131" s="57">
+        <f>AB127/AB116</f>
+        <v>3.6801189189189176</v>
+      </c>
+    </row>
+    <row r="132" spans="2:28">
+      <c r="B132" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P127" s="57">
-        <f t="shared" ref="P127:S127" si="57">P122/SUM(M9:P9)</f>
+      <c r="L132" s="57"/>
+      <c r="N132" s="57">
+        <f t="shared" ref="N132" si="108">N127/SUM(K9:N9)</f>
+        <v>1.8058391450770329E-3</v>
+      </c>
+      <c r="O132" s="57">
+        <f t="shared" ref="O132" si="109">O127/SUM(L9:O9)</f>
+        <v>2.5249708462201492E-3</v>
+      </c>
+      <c r="P132" s="57">
+        <f t="shared" ref="N132:S132" si="110">P127/SUM(M9:P9)</f>
         <v>3.3363450053989726E-3</v>
       </c>
-      <c r="Q127" s="57">
-        <f t="shared" si="57"/>
+      <c r="Q132" s="57">
+        <f t="shared" si="110"/>
         <v>3.5885419964958943E-3</v>
       </c>
-      <c r="R127" s="57">
-        <f t="shared" si="57"/>
+      <c r="R132" s="57">
+        <f t="shared" si="110"/>
         <v>3.3117316306108839E-3</v>
       </c>
-      <c r="S127" s="57">
-        <f t="shared" si="57"/>
+      <c r="S132" s="57">
+        <f t="shared" si="110"/>
         <v>3.1597674651698908E-3</v>
       </c>
-      <c r="T127" s="57">
-        <f>T122/SUM(Q9:T9)</f>
+      <c r="T132" s="57">
+        <f>T127/SUM(Q9:T9)</f>
         <v>2.2633532687151986E-3</v>
       </c>
-      <c r="AA127" s="57">
-        <f t="shared" ref="AA127" si="58">AA123/AA9</f>
+      <c r="AA132" s="57">
+        <f t="shared" ref="AA132" si="111">AA128/AA9</f>
         <v>1.3294587786057119</v>
       </c>
-      <c r="AB127" s="57">
-        <f>AB123/AB9</f>
+      <c r="AB132" s="57">
+        <f>AB128/AB9</f>
         <v>2.4331292290098165</v>
       </c>
     </row>
-    <row r="128" spans="2:28">
-      <c r="B128" s="3" t="s">
+    <row r="133" spans="2:28">
+      <c r="B133" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P128" s="57">
-        <f t="shared" ref="P128:S128" si="59">P122/SUM(M26:P26)</f>
+      <c r="L133" s="57"/>
+      <c r="N133" s="57">
+        <f t="shared" ref="N133" si="112">N127/SUM(K26:N26)</f>
+        <v>-6.8505742659676452</v>
+      </c>
+      <c r="O133" s="57">
+        <f t="shared" ref="O133" si="113">O127/SUM(L26:O26)</f>
+        <v>-13.844238952468716</v>
+      </c>
+      <c r="P133" s="57">
+        <f t="shared" ref="N133:S133" si="114">P127/SUM(M26:P26)</f>
         <v>-88.265429889576552</v>
       </c>
-      <c r="Q128" s="57">
-        <f t="shared" si="59"/>
+      <c r="Q133" s="57">
+        <f t="shared" si="114"/>
         <v>-249.48613055071797</v>
       </c>
-      <c r="R128" s="57">
-        <f t="shared" si="59"/>
+      <c r="R133" s="57">
+        <f t="shared" si="114"/>
         <v>-228.62115367889854</v>
       </c>
-      <c r="S128" s="57">
-        <f t="shared" si="59"/>
+      <c r="S133" s="57">
+        <f t="shared" si="114"/>
         <v>697.1161832155442</v>
       </c>
-      <c r="T128" s="57">
-        <f>T122/SUM(Q26:T26)</f>
+      <c r="T133" s="57">
+        <f>T127/SUM(Q26:T26)</f>
         <v>-16621.554193892349</v>
       </c>
-      <c r="AA128" s="57">
-        <f>AA122/AA26</f>
+      <c r="AA133" s="57">
+        <f>AA127/AA26</f>
         <v>-6.8500095641481078</v>
       </c>
-      <c r="AB128" s="57">
-        <f>AB122/AB26</f>
+      <c r="AB133" s="57">
+        <f>AB127/AB26</f>
         <v>-228.46375838926176</v>
       </c>
     </row>
@@ -6321,23 +8453,27 @@
     <hyperlink ref="Q1" r:id="rId3" xr:uid="{9752E2CB-3CEF-4245-BFA9-C0218E68B8CA}"/>
     <hyperlink ref="R1" r:id="rId4" xr:uid="{BA3118D8-58BD-4D30-9D14-69D83EF60AFC}"/>
     <hyperlink ref="AB1" r:id="rId5" xr:uid="{F4157810-6A61-4ACC-AAA5-22475F0942B7}"/>
+    <hyperlink ref="L1" r:id="rId6" xr:uid="{4A2FE63D-A9F3-4037-935C-8455203BEE40}"/>
+    <hyperlink ref="O1" r:id="rId7" xr:uid="{66600F56-CF80-42D1-8E73-9CE055BBB6DC}"/>
+    <hyperlink ref="M1" r:id="rId8" xr:uid="{2AE4CA56-39D1-4F5D-9F20-09CE6D413D01}"/>
+    <hyperlink ref="K1" r:id="rId9" xr:uid="{0065F09B-E102-4CAA-BD33-29109F5335BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
   <ignoredErrors>
-    <ignoredError sqref="AA65:AB65 AA94:AB94" formula="1"/>
-    <ignoredError sqref="P127:T127" formulaRange="1"/>
+    <ignoredError sqref="AA67:AB67 AA98:AB98" formula="1"/>
+    <ignoredError sqref="Q132:T132 P132 P125:T125 N132:O132" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258CA0E5-563F-4C1F-B583-AD76D8E7BBD2}">
-  <dimension ref="C4:D7"/>
+  <dimension ref="C4:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6366,6 +8502,22 @@
         <v>182</v>
       </c>
     </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EBCF00-D6CD-42B3-BA8F-CF117E2F6467}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54ECF55-C5F5-4D4A-A89D-AC49250D50BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" activeTab="1" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="213">
   <si>
     <t>$ERJ</t>
   </si>
@@ -699,6 +699,15 @@
   </si>
   <si>
     <t>turboprops</t>
+  </si>
+  <si>
+    <t>Q3 19</t>
+  </si>
+  <si>
+    <t>https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/8307c88a-cbb3-4e54-9db4-f192e081992a?origin=1</t>
+  </si>
+  <si>
+    <t>Embraer 170</t>
   </si>
 </sst>
 </file>
@@ -1043,6 +1052,9 @@
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1052,16 +1064,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,21 +1099,6 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1187,7 +1196,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1237,7 +1246,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1580,7 +1589,7 @@
   <dimension ref="A2:X44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1600,31 +1609,31 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="G5" s="61" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="G5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="63"/>
-      <c r="U5" s="61" t="s">
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="64"/>
+      <c r="U5" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="64"/>
     </row>
     <row r="6" spans="1:24">
       <c r="B6" s="4" t="s">
@@ -1724,7 +1733,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="12">
-        <f>'Financial Model'!S118</f>
+        <f>'Financial Model'!S119</f>
         <v>2104.1999999999998</v>
       </c>
       <c r="D9" s="18" t="str">
@@ -1755,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="12">
-        <f>'Financial Model'!T119</f>
+        <f>'Financial Model'!T120</f>
         <v>3173.8999999999996</v>
       </c>
       <c r="D10" s="18" t="str">
@@ -1889,11 +1898,11 @@
       <c r="X14" s="38"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
       <c r="G15" s="10"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -1920,10 +1929,10 @@
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="67"/>
+      <c r="D16" s="68"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -1947,10 +1956,10 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="67"/>
+      <c r="D17" s="68"/>
       <c r="G17" s="9">
         <v>44805</v>
       </c>
@@ -1974,8 +1983,8 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="16"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8" t="s">
         <v>201</v>
@@ -1999,8 +2008,8 @@
     </row>
     <row r="19" spans="2:24">
       <c r="B19" s="17"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
       <c r="G19" s="10"/>
       <c r="H19" s="8" t="s">
         <v>202</v>
@@ -2067,11 +2076,11 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
       <c r="G22" s="10"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
@@ -2095,10 +2104,10 @@
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="68"/>
       <c r="G23" s="9">
         <v>44743</v>
       </c>
@@ -2124,10 +2133,10 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="67">
         <v>1969</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="68"/>
       <c r="G24" s="10"/>
       <c r="H24" s="8" t="s">
         <v>206</v>
@@ -2151,8 +2160,8 @@
     </row>
     <row r="25" spans="2:24">
       <c r="B25" s="10"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
       <c r="G25" s="10"/>
       <c r="H25" s="50" t="s">
         <v>207</v>
@@ -2178,11 +2187,11 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="72">
-        <f>'Financial Model'!T62</f>
+      <c r="C26" s="65">
+        <f>'Financial Model'!T63</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="73"/>
+      <c r="D26" s="66"/>
       <c r="G26" s="10"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
@@ -2204,8 +2213,8 @@
     </row>
     <row r="27" spans="2:24">
       <c r="B27" s="10"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
       <c r="G27" s="9">
         <v>43922</v>
       </c>
@@ -2264,10 +2273,10 @@
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="69"/>
+      <c r="D29" s="74"/>
       <c r="G29" s="10"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
@@ -2326,11 +2335,11 @@
       <c r="X31" s="38"/>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="G32" s="9">
         <v>43770</v>
       </c>
@@ -2358,11 +2367,11 @@
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="70">
-        <f>C6/'Financial Model'!T116</f>
+      <c r="C33" s="75">
+        <f>C6/'Financial Model'!T117</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="71"/>
+      <c r="D33" s="76"/>
       <c r="G33" s="10"/>
       <c r="H33" s="50" t="s">
         <v>168</v>
@@ -2386,11 +2395,11 @@
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="70">
+      <c r="C34" s="75">
         <f>C6/'Financial Model'!AB9</f>
         <v>2.2515010006671113E-3</v>
       </c>
-      <c r="D34" s="71"/>
+      <c r="D34" s="76"/>
       <c r="G34" s="10"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
@@ -2412,11 +2421,11 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="71">
         <f>C6/'Financial Model'!AB26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="65"/>
+      <c r="D35" s="72"/>
       <c r="G35" s="10"/>
       <c r="H35" s="60"/>
       <c r="I35" s="37"/>
@@ -2463,12 +2472,12 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
-      <c r="U37" s="61" t="s">
+      <c r="U37" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="64"/>
     </row>
     <row r="38" spans="2:24">
       <c r="G38" s="10"/>
@@ -2567,7 +2576,7 @@
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
       <c r="R42" s="38"/>
-      <c r="U42" s="76" t="s">
+      <c r="U42" s="61" t="s">
         <v>208</v>
       </c>
       <c r="V42" s="60"/>
@@ -2589,7 +2598,7 @@
       <c r="P43" s="35"/>
       <c r="Q43" s="35"/>
       <c r="R43" s="36"/>
-      <c r="U43" s="76" t="s">
+      <c r="U43" s="61" t="s">
         <v>209</v>
       </c>
       <c r="V43" s="60"/>
@@ -2604,6 +2613,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B5:D5"/>
@@ -2617,13 +2633,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
@@ -2643,13 +2652,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D70B2A-3077-4926-AE7B-39AF91889CD9}">
-  <dimension ref="B1:AL133"/>
+  <dimension ref="B1:AL134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E131" sqref="E131"/>
+      <selection pane="bottomRight" activeCell="N133" sqref="L133:N134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2683,7 +2692,7 @@
       <c r="H1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="24" t="s">
         <v>38</v>
       </c>
       <c r="J1" s="15" t="s">
@@ -2770,12 +2779,18 @@
     </row>
     <row r="2" spans="2:38" s="21" customFormat="1">
       <c r="B2" s="20"/>
+      <c r="E2" s="22">
+        <v>43373</v>
+      </c>
       <c r="G2" s="22">
         <v>43555</v>
       </c>
       <c r="H2" s="22">
         <v>43646</v>
       </c>
+      <c r="I2" s="22">
+        <v>43738</v>
+      </c>
       <c r="J2" s="22">
         <v>43830</v>
       </c>
@@ -2818,6 +2833,9 @@
     </row>
     <row r="3" spans="2:38" s="21" customFormat="1">
       <c r="B3" s="20"/>
+      <c r="I3" s="23">
+        <v>43781</v>
+      </c>
       <c r="K3" s="23">
         <v>43983</v>
       </c>
@@ -2848,11 +2866,17 @@
       <c r="B4" s="55" t="s">
         <v>172</v>
       </c>
+      <c r="E4" s="52">
+        <v>382.1</v>
+      </c>
       <c r="G4" s="52">
         <v>281.10000000000002</v>
       </c>
       <c r="H4" s="52">
         <v>630.5</v>
+      </c>
+      <c r="I4" s="52">
+        <v>407.8</v>
       </c>
       <c r="J4" s="52">
         <v>915.1</v>
@@ -2898,11 +2922,17 @@
       <c r="B5" s="55" t="s">
         <v>173</v>
       </c>
+      <c r="E5" s="52">
+        <v>312</v>
+      </c>
       <c r="G5" s="52">
         <v>117.3</v>
       </c>
       <c r="H5" s="52">
         <v>297</v>
+      </c>
+      <c r="I5" s="52">
+        <v>363</v>
       </c>
       <c r="J5" s="52">
         <v>619.70000000000005</v>
@@ -2948,11 +2978,17 @@
       <c r="B6" s="55" t="s">
         <v>174</v>
       </c>
+      <c r="E6" s="52">
+        <v>230.2</v>
+      </c>
       <c r="G6" s="52">
         <v>179.4</v>
       </c>
       <c r="H6" s="52">
         <v>141.5</v>
+      </c>
+      <c r="I6" s="52">
+        <v>164.1</v>
       </c>
       <c r="J6" s="52">
         <v>236.1</v>
@@ -2998,11 +3034,17 @@
       <c r="B7" s="55" t="s">
         <v>175</v>
       </c>
+      <c r="E7" s="52">
+        <v>232.5</v>
+      </c>
       <c r="G7" s="52">
         <v>244.2</v>
       </c>
       <c r="H7" s="52">
         <v>309.10000000000002</v>
+      </c>
+      <c r="I7" s="52">
+        <v>20.100000000000001</v>
       </c>
       <c r="J7" s="52">
         <v>309.2</v>
@@ -3048,11 +3090,17 @@
       <c r="B8" s="55" t="s">
         <v>176</v>
       </c>
+      <c r="E8" s="52">
+        <v>2.5</v>
+      </c>
       <c r="G8" s="52">
         <v>1.3</v>
       </c>
       <c r="H8" s="52">
         <v>0.6</v>
+      </c>
+      <c r="I8" s="52">
+        <v>0.1</v>
       </c>
       <c r="J8" s="52">
         <v>4.9000000000000004</v>
@@ -3099,11 +3147,17 @@
         <v>50</v>
       </c>
       <c r="C9" s="56"/>
+      <c r="E9" s="26">
+        <v>1159.3</v>
+      </c>
       <c r="G9" s="26">
         <v>823.3</v>
       </c>
       <c r="H9" s="26">
         <v>1378.7</v>
+      </c>
+      <c r="I9" s="26">
+        <v>1175.5999999999999</v>
       </c>
       <c r="J9" s="26">
         <v>2085</v>
@@ -3149,13 +3203,19 @@
       <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E10" s="27">
+        <v>940.5</v>
+      </c>
       <c r="G10" s="27">
         <v>659.4</v>
       </c>
       <c r="H10" s="27">
         <v>1180.0999999999999</v>
       </c>
-      <c r="J10" s="3">
+      <c r="I10" s="3">
+        <v>1021.2</v>
+      </c>
+      <c r="J10" s="27">
         <v>1806.4</v>
       </c>
       <c r="K10" s="27">
@@ -3199,6 +3259,10 @@
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E11" s="26">
+        <f>E9-E10</f>
+        <v>218.79999999999995</v>
+      </c>
       <c r="G11" s="26">
         <f>G9-G10</f>
         <v>163.89999999999998</v>
@@ -3207,6 +3271,10 @@
         <f>H9-H10</f>
         <v>198.60000000000014</v>
       </c>
+      <c r="I11" s="26">
+        <f>I9-I10</f>
+        <v>154.39999999999986</v>
+      </c>
       <c r="J11" s="26">
         <f>J9-J10</f>
         <v>278.59999999999991</v>
@@ -3264,13 +3332,19 @@
       <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E12" s="27">
+        <v>44.4</v>
+      </c>
       <c r="G12" s="27">
         <v>46</v>
       </c>
       <c r="H12" s="27">
         <v>46.2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="I12" s="3">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="J12" s="27">
         <v>60.6</v>
       </c>
       <c r="K12" s="27">
@@ -3314,13 +3388,19 @@
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="E13" s="27">
+        <v>73.7</v>
+      </c>
       <c r="G13" s="27">
         <v>70.3</v>
       </c>
       <c r="H13" s="27">
         <v>76.2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="I13" s="3">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="J13" s="27">
         <v>71.900000000000006</v>
       </c>
       <c r="K13" s="27">
@@ -3364,13 +3444,19 @@
       <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
       <c r="G14" s="27">
         <v>0</v>
       </c>
       <c r="H14" s="27">
         <v>-3.3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
         <v>0</v>
       </c>
       <c r="K14" s="27">
@@ -3414,13 +3500,19 @@
       <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E15" s="27">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="G15" s="27">
         <v>9.3000000000000007</v>
       </c>
       <c r="H15" s="27">
         <v>11.8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="I15" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="J15" s="27">
         <v>16.8</v>
       </c>
       <c r="K15" s="27">
@@ -3464,13 +3556,19 @@
       <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E16" s="27">
+        <v>-37.700000000000003</v>
+      </c>
       <c r="G16" s="27">
         <v>-53.5</v>
       </c>
       <c r="H16" s="27">
         <v>-41</v>
       </c>
-      <c r="J16" s="3">
+      <c r="I16" s="3">
+        <v>-55.4</v>
+      </c>
+      <c r="J16" s="27">
         <v>-196.8</v>
       </c>
       <c r="K16" s="27">
@@ -3514,13 +3612,19 @@
       <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
       <c r="G17" s="27">
         <v>0</v>
       </c>
       <c r="H17" s="27">
         <v>-0.1</v>
       </c>
-      <c r="J17" s="3">
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="27">
         <v>-0.1</v>
       </c>
       <c r="K17" s="27">
@@ -3564,6 +3668,10 @@
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E18" s="26">
+        <f>E11-E12-E13-E14-E15+E16+E17</f>
+        <v>54.29999999999994</v>
+      </c>
       <c r="G18" s="26">
         <f>G11-G12-G13-G14-G15+G16+G17</f>
         <v>-15.200000000000017</v>
@@ -3572,6 +3680,10 @@
         <f>H11-H12-H13-H14-H15+H16+H17</f>
         <v>26.600000000000144</v>
       </c>
+      <c r="I18" s="26">
+        <f>I11-I12-I13-I14-I15+I16+I17</f>
+        <v>-20.800000000000139</v>
+      </c>
       <c r="J18" s="26">
         <f>J11-J12-J13-J14-J15+J16+J17</f>
         <v>-67.600000000000108</v>
@@ -3629,13 +3741,19 @@
       <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="E19" s="27">
+        <v>-48.9</v>
+      </c>
       <c r="G19" s="27">
         <v>-41.1</v>
       </c>
       <c r="H19" s="27">
         <v>-30</v>
       </c>
-      <c r="J19" s="3">
+      <c r="I19" s="3">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="J19" s="27">
         <v>-26.9</v>
       </c>
       <c r="K19" s="27">
@@ -3679,13 +3797,19 @@
       <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E20" s="27">
+        <v>2.5</v>
+      </c>
       <c r="G20" s="27">
         <v>9.1</v>
       </c>
       <c r="H20" s="27">
         <v>-3</v>
       </c>
-      <c r="J20" s="3">
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="27">
         <v>-2.2000000000000002</v>
       </c>
       <c r="K20" s="27">
@@ -3729,6 +3853,10 @@
       <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E21" s="27">
+        <f>E18+E19+E20</f>
+        <v>7.8999999999999417</v>
+      </c>
       <c r="G21" s="27">
         <f>G18+G19+G20</f>
         <v>-47.200000000000017</v>
@@ -3737,6 +3865,10 @@
         <f>H18+H19+H20</f>
         <v>-6.3999999999998565</v>
       </c>
+      <c r="I21" s="27">
+        <f>I18+I19+I20</f>
+        <v>-35.900000000000141</v>
+      </c>
       <c r="J21" s="27">
         <f>J18+J19+J20</f>
         <v>-96.700000000000117</v>
@@ -3794,13 +3926,19 @@
       <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="E22" s="27">
+        <v>18.5</v>
+      </c>
       <c r="G22" s="27">
         <v>-6</v>
       </c>
       <c r="H22" s="27">
         <v>-15.6</v>
       </c>
-      <c r="J22" s="3">
+      <c r="I22" s="3">
+        <v>39.4</v>
+      </c>
+      <c r="J22" s="27">
         <v>112.5</v>
       </c>
       <c r="K22" s="27">
@@ -3844,6 +3982,10 @@
       <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="E23" s="26">
+        <f>E21-E22</f>
+        <v>-10.600000000000058</v>
+      </c>
       <c r="G23" s="26">
         <f>G21-G22</f>
         <v>-41.200000000000017</v>
@@ -3852,6 +3994,10 @@
         <f>H21-H22</f>
         <v>9.2000000000001432</v>
       </c>
+      <c r="I23" s="26">
+        <f>I21-I22</f>
+        <v>-75.300000000000139</v>
+      </c>
       <c r="J23" s="26">
         <f>J21-J22</f>
         <v>-209.2000000000001</v>
@@ -3909,13 +4055,19 @@
       <c r="B24" s="29" t="s">
         <v>72</v>
       </c>
+      <c r="E24" s="26">
+        <v>-12.5</v>
+      </c>
       <c r="G24" s="26">
         <v>-42.5</v>
       </c>
       <c r="H24" s="26">
         <v>7.2</v>
       </c>
-      <c r="J24" s="2">
+      <c r="I24" s="2">
+        <v>-77.2</v>
+      </c>
+      <c r="J24" s="26">
         <v>-209.8</v>
       </c>
       <c r="K24" s="26">
@@ -3959,13 +4111,19 @@
       <c r="B25" s="30" t="s">
         <v>73</v>
       </c>
+      <c r="E25" s="27">
+        <v>1.9</v>
+      </c>
       <c r="G25" s="27">
         <v>1.3</v>
       </c>
       <c r="H25" s="27">
         <v>2</v>
       </c>
-      <c r="J25" s="3">
+      <c r="I25" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="J25" s="27">
         <v>0.6</v>
       </c>
       <c r="K25" s="27">
@@ -4009,6 +4167,10 @@
       <c r="B26" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="E26" s="28">
+        <f>E24/E27</f>
+        <v>-1.7034614336331428E-2</v>
+      </c>
       <c r="G26" s="28">
         <f>G24/G27</f>
         <v>-5.7768112002174798E-2</v>
@@ -4017,6 +4179,10 @@
         <f>H24/H27</f>
         <v>9.7852677357977719E-3</v>
       </c>
+      <c r="I26" s="28">
+        <f>I24/I27</f>
+        <v>-0.104919815167165</v>
+      </c>
       <c r="J26" s="28">
         <f>J24/J27</f>
         <v>-0.28509308329936134</v>
@@ -4074,10 +4240,16 @@
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E27" s="3">
+        <v>733.8</v>
+      </c>
       <c r="G27" s="3">
         <v>735.7</v>
       </c>
       <c r="H27" s="3">
+        <v>735.8</v>
+      </c>
+      <c r="I27" s="3">
         <v>735.8</v>
       </c>
       <c r="J27" s="3">
@@ -4124,6 +4296,10 @@
       <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="I30" s="34">
+        <f>I9/E9-1</f>
+        <v>1.4060208746657477E-2</v>
+      </c>
       <c r="K30" s="34">
         <f>K9/G9-1</f>
         <v>-0.23017126199441273</v>
@@ -4132,33 +4308,36 @@
         <f>L9/H9-1</f>
         <v>-0.61035758323057954</v>
       </c>
-      <c r="M30" s="34"/>
+      <c r="M30" s="34">
+        <f>M9/I9-1</f>
+        <v>-0.35462742429397742</v>
+      </c>
       <c r="N30" s="34">
-        <f>N9/J9-1</f>
+        <f t="shared" ref="N30:T30" si="8">N9/J9-1</f>
         <v>-0.11683453237410069</v>
       </c>
       <c r="O30" s="34">
-        <f>O9/K9-1</f>
+        <f t="shared" si="8"/>
         <v>0.27374566109182719</v>
       </c>
       <c r="P30" s="34">
-        <f>P9/L9-1</f>
+        <f t="shared" si="8"/>
         <v>1.1044303797468351</v>
       </c>
       <c r="Q30" s="34">
-        <f>Q9/M9-1</f>
+        <f t="shared" si="8"/>
         <v>0.26281797812046914</v>
       </c>
       <c r="R30" s="34">
-        <f>R9/N9-1</f>
+        <f t="shared" si="8"/>
         <v>-0.29330943847072888</v>
       </c>
       <c r="S30" s="34">
-        <f>S9/O9-1</f>
+        <f t="shared" si="8"/>
         <v>-0.25566703827573389</v>
       </c>
       <c r="T30" s="34">
-        <f>T9/P9-1</f>
+        <f t="shared" si="8"/>
         <v>-9.8717381689517936E-2</v>
       </c>
       <c r="AB30" s="34">
@@ -4171,27 +4350,35 @@
         <v>67</v>
       </c>
       <c r="H31" s="25">
-        <f t="shared" ref="H31" si="8">H9/G9-1</f>
+        <f t="shared" ref="H31" si="9">H9/G9-1</f>
         <v>0.67460221061581449</v>
       </c>
+      <c r="I31" s="25">
+        <f t="shared" ref="I31" si="10">I9/H9-1</f>
+        <v>-0.14731268586349466</v>
+      </c>
+      <c r="J31" s="25">
+        <f t="shared" ref="J31" si="11">J9/I9-1</f>
+        <v>0.77356243620279019</v>
+      </c>
       <c r="K31" s="25">
-        <f t="shared" ref="K31" si="9">K9/J9-1</f>
+        <f t="shared" ref="K31" si="12">K9/J9-1</f>
         <v>-0.69601918465227819</v>
       </c>
       <c r="L31" s="25">
-        <f t="shared" ref="L31" si="10">L9/K9-1</f>
+        <f t="shared" ref="L31" si="13">L9/K9-1</f>
         <v>-0.15241401072893646</v>
       </c>
       <c r="M31" s="25">
-        <f t="shared" ref="M31" si="11">M9/L9-1</f>
+        <f t="shared" ref="M31" si="14">M9/L9-1</f>
         <v>0.41232315711094558</v>
       </c>
       <c r="N31" s="25">
-        <f t="shared" ref="N31:O31" si="12">N9/M9-1</f>
+        <f t="shared" ref="N31:O31" si="15">N9/M9-1</f>
         <v>1.4270462633451957</v>
       </c>
       <c r="O31" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.56158357771261003</v>
       </c>
       <c r="P31" s="25">
@@ -4199,11 +4386,11 @@
         <v>0.40034683512944391</v>
       </c>
       <c r="Q31" s="25">
-        <f t="shared" ref="Q31:R31" si="13">Q9/P9-1</f>
+        <f t="shared" ref="Q31:R31" si="16">Q9/P9-1</f>
         <v>-0.15249889429455987</v>
       </c>
       <c r="R31" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.35820895522388052</v>
       </c>
       <c r="S31" s="25">
@@ -4219,24 +4406,32 @@
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="E34" s="25">
+        <f t="shared" ref="E34:G34" si="17">E11/E9</f>
+        <v>0.18873458121280079</v>
+      </c>
       <c r="G34" s="25">
-        <f t="shared" ref="G34:H34" si="14">G11/G9</f>
+        <f t="shared" si="17"/>
         <v>0.19907688570387463</v>
       </c>
       <c r="H34" s="25">
         <f>H11/H9</f>
         <v>0.14404874156814398</v>
       </c>
+      <c r="I34" s="25">
+        <f t="shared" ref="I34:J34" si="18">I11/I9</f>
+        <v>0.13133718952024487</v>
+      </c>
       <c r="J34" s="25">
-        <f t="shared" ref="J34:K34" si="15">J11/J9</f>
+        <f t="shared" si="18"/>
         <v>0.13362110311750594</v>
       </c>
       <c r="K34" s="25">
-        <f t="shared" ref="K34:L34" si="16">K11/K9</f>
+        <f t="shared" ref="K34" si="19">K11/K9</f>
         <v>0.29031240138845055</v>
       </c>
       <c r="L34" s="25">
-        <f t="shared" ref="L34:M34" si="17">L11/L9</f>
+        <f t="shared" ref="L34" si="20">L11/L9</f>
         <v>3.0528667163067926E-2</v>
       </c>
       <c r="M34" s="25">
@@ -4244,7 +4439,7 @@
         <v>7.2228812442335658E-2</v>
       </c>
       <c r="N34" s="25">
-        <f t="shared" ref="N34" si="18">N11/N9</f>
+        <f t="shared" ref="N34" si="21">N11/N9</f>
         <v>0.12077766916476598</v>
       </c>
       <c r="O34" s="25">
@@ -4256,15 +4451,15 @@
         <v>0.18195488721804515</v>
       </c>
       <c r="Q34" s="25">
-        <f t="shared" ref="Q34:R34" si="19">Q11/Q9</f>
+        <f t="shared" ref="Q34:R34" si="22">Q11/Q9</f>
         <v>0.18964617472080164</v>
       </c>
       <c r="R34" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.1504649196956889</v>
       </c>
       <c r="S34" s="25">
-        <f t="shared" ref="S34" si="20">S11/S9</f>
+        <f t="shared" ref="S34" si="23">S11/S9</f>
         <v>0.20086536861374604</v>
       </c>
       <c r="T34" s="25">
@@ -4284,24 +4479,32 @@
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="E35" s="25">
+        <f t="shared" ref="E35:G35" si="24">E18/E9</f>
+        <v>4.6838609505736171E-2</v>
+      </c>
       <c r="G35" s="25">
-        <f t="shared" ref="G35:H35" si="21">G18/G9</f>
+        <f t="shared" si="24"/>
         <v>-1.8462285922507007E-2</v>
       </c>
       <c r="H35" s="25">
         <f>H18/H9</f>
         <v>1.9293537390295309E-2</v>
       </c>
+      <c r="I35" s="25">
+        <f t="shared" ref="I35:J35" si="25">I18/I9</f>
+        <v>-1.7693092888737785E-2</v>
+      </c>
       <c r="J35" s="25">
-        <f t="shared" ref="J35:K35" si="22">J18/J9</f>
+        <f t="shared" si="25"/>
         <v>-3.2422062350119955E-2</v>
       </c>
       <c r="K35" s="25">
-        <f t="shared" ref="K35:L35" si="23">K18/K9</f>
+        <f t="shared" ref="K35" si="26">K18/K9</f>
         <v>-7.3998106658251905E-2</v>
       </c>
       <c r="L35" s="25">
-        <f t="shared" ref="L35:M35" si="24">L18/L9</f>
+        <f t="shared" ref="L35" si="27">L18/L9</f>
         <v>-0.63737900223380473</v>
       </c>
       <c r="M35" s="25">
@@ -4309,7 +4512,7 @@
         <v>-4.9690259654672372E-2</v>
       </c>
       <c r="N35" s="25">
-        <f t="shared" ref="N35" si="25">N18/N9</f>
+        <f t="shared" ref="N35" si="28">N18/N9</f>
         <v>5.6261540132507927E-2</v>
       </c>
       <c r="O35" s="25">
@@ -4321,15 +4524,15 @@
         <v>0.12720035382574085</v>
       </c>
       <c r="Q35" s="25">
-        <f t="shared" ref="Q35:R35" si="26">Q18/Q9</f>
+        <f t="shared" ref="Q35:R35" si="29">Q18/Q9</f>
         <v>3.1311971610479127E-2</v>
       </c>
       <c r="R35" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.6568815799584988E-2</v>
       </c>
       <c r="S35" s="25">
-        <f t="shared" ref="S35" si="27">S18/S9</f>
+        <f t="shared" ref="S35" si="30">S18/S9</f>
         <v>-6.0409385921118344E-2</v>
       </c>
       <c r="T35" s="25">
@@ -4349,24 +4552,32 @@
       <c r="B36" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="E36" s="25">
+        <f t="shared" ref="E36:G36" si="31">E23/E9</f>
+        <v>-9.1434486327957032E-3</v>
+      </c>
       <c r="G36" s="25">
-        <f t="shared" ref="G36:H36" si="28">G23/G9</f>
+        <f t="shared" si="31"/>
         <v>-5.0042511842584743E-2</v>
       </c>
       <c r="H36" s="25">
         <f>H23/H9</f>
         <v>6.6729527816059642E-3</v>
       </c>
+      <c r="I36" s="25">
+        <f t="shared" ref="I36:J36" si="32">I23/I9</f>
+        <v>-6.4052398775093694E-2</v>
+      </c>
       <c r="J36" s="25">
-        <f t="shared" ref="J36:K36" si="29">J23/J9</f>
+        <f t="shared" si="32"/>
         <v>-0.10033573141486815</v>
       </c>
       <c r="K36" s="25">
-        <f t="shared" ref="K36:L36" si="30">K23/K9</f>
+        <f t="shared" ref="K36" si="33">K23/K9</f>
         <v>-0.45850426001893357</v>
       </c>
       <c r="L36" s="25">
-        <f t="shared" ref="L36:M36" si="31">L23/L9</f>
+        <f t="shared" ref="L36" si="34">L23/L9</f>
         <v>-0.58190618019359619</v>
       </c>
       <c r="M36" s="25">
@@ -4374,7 +4585,7 @@
         <v>-0.15750626070910759</v>
       </c>
       <c r="N36" s="25">
-        <f t="shared" ref="N36" si="32">N23/N9</f>
+        <f t="shared" ref="N36" si="35">N23/N9</f>
         <v>-2.9868578255674411E-3</v>
       </c>
       <c r="O36" s="25">
@@ -4386,15 +4597,15 @@
         <v>7.8903140203449823E-2</v>
       </c>
       <c r="Q36" s="25">
-        <f t="shared" ref="Q36:R36" si="33">Q23/Q9</f>
+        <f t="shared" ref="Q36:R36" si="36">Q23/Q9</f>
         <v>-4.7698570086629734E-2</v>
       </c>
       <c r="R36" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2.3053869207714925E-3</v>
       </c>
       <c r="S36" s="25">
-        <f t="shared" ref="S36" si="34">S23/S9</f>
+        <f t="shared" ref="S36" si="37">S23/S9</f>
         <v>-5.1090031619237815E-2</v>
       </c>
       <c r="T36" s="25">
@@ -4414,24 +4625,32 @@
       <c r="B37" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="E37" s="25">
+        <f t="shared" ref="E37:G37" si="38">E22/E21</f>
+        <v>2.3417721518987515</v>
+      </c>
       <c r="G37" s="25">
-        <f t="shared" ref="G37:H37" si="35">G22/G21</f>
+        <f t="shared" si="38"/>
         <v>0.12711864406779658</v>
       </c>
       <c r="H37" s="25">
         <f>H22/H21</f>
         <v>2.4375000000000546</v>
       </c>
+      <c r="I37" s="25">
+        <f t="shared" ref="I37:J37" si="39">I22/I21</f>
+        <v>-1.0974930362116948</v>
+      </c>
       <c r="J37" s="25">
-        <f t="shared" ref="J37:K37" si="36">J22/J21</f>
+        <f t="shared" si="39"/>
         <v>-1.1633919338159242</v>
       </c>
       <c r="K37" s="25">
-        <f t="shared" ref="K37:L37" si="37">K22/K21</f>
+        <f t="shared" ref="K37:L37" si="40">K22/K21</f>
         <v>-1.6982358402971207</v>
       </c>
       <c r="L37" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.19887237314197853</v>
       </c>
       <c r="M37" s="25">
@@ -4439,7 +4658,7 @@
         <v>0.19582772543741597</v>
       </c>
       <c r="N37" s="25">
-        <f t="shared" ref="N37" si="38">N22/N21</f>
+        <f t="shared" ref="N37" si="41">N22/N21</f>
         <v>1.4824561403508625</v>
       </c>
       <c r="O37" s="25">
@@ -4451,15 +4670,15 @@
         <v>-6.6985645933014315E-2</v>
       </c>
       <c r="Q37" s="25">
-        <f t="shared" ref="Q37:R37" si="39">Q22/Q21</f>
+        <f t="shared" ref="Q37:R37" si="42">Q22/Q21</f>
         <v>-0.82800000000000162</v>
       </c>
       <c r="R37" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.94800693240901301</v>
       </c>
       <c r="S37" s="25">
-        <f t="shared" ref="S37" si="40">S22/S21</f>
+        <f t="shared" ref="S37" si="43">S22/S21</f>
         <v>0.62098765432098757</v>
       </c>
       <c r="T37" s="25">
@@ -4484,60 +4703,76 @@
       <c r="B41" s="29" t="s">
         <v>83</v>
       </c>
+      <c r="D41" s="2">
+        <f t="shared" ref="D41:E41" si="44">D42+D50</f>
+        <v>48</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ref="E41" si="45">E42+E50</f>
+        <v>39</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" ref="G41:H41" si="46">G42+G50</f>
+        <v>22</v>
+      </c>
       <c r="H41" s="2">
-        <f t="shared" ref="H41" si="41">H42+H49</f>
+        <f t="shared" si="46"/>
         <v>51</v>
       </c>
+      <c r="I41" s="2">
+        <f t="shared" ref="I41:J41" si="47">I42+I50</f>
+        <v>44</v>
+      </c>
       <c r="J41" s="2">
-        <f t="shared" ref="J41:K41" si="42">J42+J49</f>
+        <f t="shared" si="47"/>
         <v>81</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" ref="K41:L41" si="43">K42+K49</f>
+        <f t="shared" ref="K41:L41" si="48">K42+K50</f>
         <v>14</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>17</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" ref="M41" si="44">M42+M49</f>
+        <f t="shared" ref="M41" si="49">M42+M50</f>
         <v>48</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" ref="N41:S41" si="45">N42+N49</f>
+        <f t="shared" ref="N41:S41" si="50">N42+N50</f>
         <v>71</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" ref="O41" si="46">O42+O49</f>
+        <f t="shared" ref="O41" si="51">O42+O50</f>
         <v>22</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>34</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>30</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>55</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>26</v>
       </c>
       <c r="T41" s="2">
-        <f>T42+T49</f>
+        <f>T42+T50</f>
         <v>32</v>
       </c>
       <c r="AA41" s="2">
-        <f>AA42+AA49</f>
-        <v>129</v>
+        <f>AA42+AA50</f>
+        <v>130</v>
       </c>
       <c r="AB41" s="2">
-        <f>AB42+AB49</f>
+        <f>AB42+AB50</f>
         <v>141</v>
       </c>
     </row>
@@ -4545,222 +4780,292 @@
       <c r="B42" s="49" t="s">
         <v>84</v>
       </c>
+      <c r="D42" s="40">
+        <f>SUM(D43:D48)</f>
+        <v>28</v>
+      </c>
+      <c r="E42" s="40">
+        <f>SUM(E43:E48)</f>
+        <v>15</v>
+      </c>
+      <c r="G42" s="40">
+        <f t="shared" ref="G42" si="52">SUM(G43:G48)</f>
+        <v>11</v>
+      </c>
       <c r="H42" s="40">
-        <f>SUM(H43:H47)</f>
+        <f t="shared" ref="G42:T44" si="53">SUM(H43:H48)</f>
         <v>26</v>
       </c>
+      <c r="I42" s="40">
+        <f t="shared" si="53"/>
+        <v>17</v>
+      </c>
       <c r="J42" s="40">
-        <f t="shared" ref="J42" si="47">SUM(J43:J47)</f>
+        <f t="shared" si="53"/>
         <v>35</v>
       </c>
       <c r="K42" s="40">
-        <f t="shared" ref="K42:M42" si="48">SUM(K43:K47)</f>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="L42" s="40">
-        <f>SUM(L43:L47)</f>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="M42" s="40">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>27</v>
       </c>
       <c r="N42" s="40">
-        <f>SUM(N43:N47)</f>
+        <f t="shared" si="53"/>
         <v>28</v>
       </c>
       <c r="O42" s="40">
-        <f t="shared" ref="O42" si="49">SUM(O43:O47)</f>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="P42" s="40">
-        <f>SUM(P43:P47)</f>
+        <f t="shared" si="53"/>
         <v>14</v>
       </c>
       <c r="Q42" s="40">
-        <f>SUM(Q43:Q47)</f>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="R42" s="40">
-        <f>SUM(R43:R47)</f>
+        <f t="shared" si="53"/>
         <v>16</v>
       </c>
       <c r="S42" s="40">
-        <f>SUM(S43:S47)</f>
+        <f t="shared" si="53"/>
         <v>6</v>
       </c>
       <c r="T42" s="40">
-        <f>SUM(T43:T47)</f>
+        <f t="shared" si="53"/>
         <v>11</v>
       </c>
       <c r="AA42" s="40">
-        <f t="shared" ref="AA42:AB42" si="50">AA43+AA46+AA47</f>
-        <v>43</v>
+        <f t="shared" ref="AA42:AB42" si="54">SUM(AA43:AA48)</f>
+        <v>44</v>
       </c>
       <c r="AB42" s="40">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>48</v>
       </c>
     </row>
     <row r="43" spans="2:28" s="39" customFormat="1">
       <c r="B43" s="48" t="s">
-        <v>85</v>
+        <v>212</v>
+      </c>
+      <c r="D43" s="39">
+        <v>1</v>
+      </c>
+      <c r="E43" s="39">
+        <v>0</v>
+      </c>
+      <c r="G43" s="39">
+        <v>0</v>
       </c>
       <c r="H43" s="39">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="I43" s="39">
+        <v>0</v>
       </c>
       <c r="J43" s="39">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K43" s="39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43" s="39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M43" s="39">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N43" s="39">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O43" s="39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P43" s="39">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R43" s="39">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S43" s="39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T43" s="39">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="39">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="39">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:28" s="39" customFormat="1">
       <c r="B44" s="48" t="s">
-        <v>190</v>
+        <v>85</v>
+      </c>
+      <c r="D44" s="39">
+        <v>20</v>
+      </c>
+      <c r="E44" s="39">
+        <v>13</v>
+      </c>
+      <c r="G44" s="39">
+        <v>10</v>
       </c>
       <c r="H44" s="39">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="I44" s="39">
+        <v>13</v>
       </c>
       <c r="J44" s="39">
+        <v>22</v>
+      </c>
+      <c r="K44" s="39">
+        <v>3</v>
+      </c>
+      <c r="L44" s="39">
         <v>2</v>
       </c>
-      <c r="K44" s="39">
-        <v>0</v>
-      </c>
-      <c r="L44" s="39">
-        <v>0</v>
-      </c>
       <c r="M44" s="39">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N44" s="39">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O44" s="39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P44" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q44" s="39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R44" s="39">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S44" s="39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T44" s="39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA44" s="39">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AB44" s="39">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="2:28" s="39" customFormat="1">
       <c r="B45" s="48" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+      <c r="D45" s="39">
+        <v>2</v>
+      </c>
+      <c r="E45" s="39">
+        <v>2</v>
+      </c>
+      <c r="G45" s="39">
+        <v>0</v>
       </c>
       <c r="H45" s="39">
+        <v>1</v>
+      </c>
+      <c r="I45" s="39">
         <v>2</v>
       </c>
       <c r="J45" s="39">
+        <v>2</v>
+      </c>
+      <c r="K45" s="39">
+        <v>0</v>
+      </c>
+      <c r="L45" s="39">
+        <v>0</v>
+      </c>
+      <c r="M45" s="39">
+        <v>0</v>
+      </c>
+      <c r="N45" s="39">
+        <v>0</v>
+      </c>
+      <c r="O45" s="39">
+        <v>0</v>
+      </c>
+      <c r="P45" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="39">
+        <v>0</v>
+      </c>
+      <c r="R45" s="39">
+        <v>0</v>
+      </c>
+      <c r="S45" s="39">
+        <v>0</v>
+      </c>
+      <c r="T45" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="39">
         <v>1</v>
       </c>
-      <c r="K45" s="39">
-        <v>0</v>
-      </c>
-      <c r="L45" s="39">
-        <v>0</v>
-      </c>
-      <c r="M45" s="39">
-        <v>0</v>
-      </c>
-      <c r="N45" s="39">
-        <v>0</v>
-      </c>
-      <c r="O45" s="39">
-        <v>0</v>
-      </c>
-      <c r="P45" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="39">
-        <v>0</v>
-      </c>
-      <c r="R45" s="39">
-        <v>0</v>
-      </c>
-      <c r="S45" s="39">
-        <v>0</v>
-      </c>
-      <c r="T45" s="39">
+      <c r="AB45" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:28" s="39" customFormat="1">
       <c r="B46" s="48" t="s">
-        <v>183</v>
+        <v>195</v>
+      </c>
+      <c r="D46" s="39">
+        <v>2</v>
+      </c>
+      <c r="E46" s="39">
+        <v>0</v>
+      </c>
+      <c r="G46" s="39">
+        <v>0</v>
       </c>
       <c r="H46" s="39">
+        <v>2</v>
+      </c>
+      <c r="I46" s="39">
+        <v>0</v>
+      </c>
+      <c r="J46" s="39">
         <v>1</v>
       </c>
-      <c r="J46" s="39">
-        <v>4</v>
-      </c>
       <c r="K46" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M46" s="39">
         <v>0</v>
       </c>
       <c r="N46" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P46" s="39">
         <v>0</v>
@@ -4776,1094 +5081,1269 @@
       </c>
       <c r="T46" s="39">
         <v>0</v>
-      </c>
-      <c r="AA46" s="39">
-        <v>4</v>
-      </c>
-      <c r="AB46" s="39">
-        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:28" s="39" customFormat="1">
       <c r="B47" s="48" t="s">
-        <v>86</v>
+        <v>183</v>
+      </c>
+      <c r="D47" s="39">
+        <v>3</v>
+      </c>
+      <c r="E47" s="39">
+        <v>0</v>
+      </c>
+      <c r="G47" s="39">
+        <v>1</v>
       </c>
       <c r="H47" s="39">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I47" s="39">
+        <v>1</v>
       </c>
       <c r="J47" s="39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K47" s="39">
         <v>1</v>
       </c>
       <c r="L47" s="39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M47" s="39">
+        <v>0</v>
+      </c>
+      <c r="N47" s="39">
+        <v>1</v>
+      </c>
+      <c r="O47" s="39">
+        <v>2</v>
+      </c>
+      <c r="P47" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="39">
+        <v>0</v>
+      </c>
+      <c r="R47" s="39">
+        <v>0</v>
+      </c>
+      <c r="S47" s="39">
+        <v>0</v>
+      </c>
+      <c r="T47" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="39">
+        <v>4</v>
+      </c>
+      <c r="AB47" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" s="39" customFormat="1">
+      <c r="B48" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="39">
+        <v>0</v>
+      </c>
+      <c r="E48" s="39">
+        <v>0</v>
+      </c>
+      <c r="G48" s="39">
+        <v>0</v>
+      </c>
+      <c r="H48" s="39">
+        <v>0</v>
+      </c>
+      <c r="I48" s="39">
+        <v>1</v>
+      </c>
+      <c r="J48" s="39">
         <v>6</v>
       </c>
-      <c r="N47" s="39">
+      <c r="K48" s="39">
+        <v>1</v>
+      </c>
+      <c r="L48" s="39">
+        <v>0</v>
+      </c>
+      <c r="M48" s="39">
         <v>6</v>
       </c>
-      <c r="O47" s="39">
+      <c r="N48" s="39">
+        <v>6</v>
+      </c>
+      <c r="O48" s="39">
         <v>5</v>
       </c>
-      <c r="P47" s="39">
+      <c r="P48" s="39">
         <v>7</v>
       </c>
-      <c r="Q47" s="39">
+      <c r="Q48" s="39">
         <v>3</v>
       </c>
-      <c r="R47" s="39">
+      <c r="R48" s="39">
         <v>4</v>
       </c>
-      <c r="S47" s="39">
+      <c r="S48" s="39">
         <v>2</v>
       </c>
-      <c r="T47" s="39">
+      <c r="T48" s="39">
         <v>3</v>
       </c>
-      <c r="AA47" s="39">
+      <c r="AA48" s="39">
         <v>7</v>
       </c>
-      <c r="AB47" s="39">
+      <c r="AB48" s="39">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:28" s="39" customFormat="1">
-      <c r="B48" s="48"/>
-    </row>
-    <row r="49" spans="2:28" s="40" customFormat="1">
-      <c r="B49" s="49" t="s">
+    <row r="49" spans="2:28" s="39" customFormat="1">
+      <c r="B49" s="48"/>
+    </row>
+    <row r="50" spans="2:28" s="40" customFormat="1">
+      <c r="B50" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H49" s="40">
-        <f>H50+H51+H52</f>
+      <c r="D50" s="40">
+        <f>D51+D52+D53</f>
+        <v>20</v>
+      </c>
+      <c r="E50" s="40">
+        <f>E51+E52+E53</f>
+        <v>24</v>
+      </c>
+      <c r="G50" s="40">
+        <f>G51+G52+G53</f>
+        <v>11</v>
+      </c>
+      <c r="H50" s="40">
+        <f>H51+H52+H53</f>
         <v>25</v>
       </c>
-      <c r="J49" s="40">
-        <f t="shared" ref="J49" si="51">J50+J51+J52</f>
+      <c r="I50" s="40">
+        <f t="shared" ref="I50:J50" si="55">I51+I52+I53</f>
+        <v>27</v>
+      </c>
+      <c r="J50" s="40">
+        <f t="shared" si="55"/>
         <v>46</v>
       </c>
-      <c r="K49" s="40">
-        <f>K50+K51+K52</f>
+      <c r="K50" s="40">
+        <f>K51+K52+K53</f>
         <v>9</v>
       </c>
-      <c r="L49" s="40">
-        <f>L50+L51+L52</f>
+      <c r="L50" s="40">
+        <f>L51+L52+L53</f>
         <v>13</v>
       </c>
-      <c r="M49" s="40">
-        <f t="shared" ref="M49" si="52">M50+M51+M52</f>
+      <c r="M50" s="40">
+        <f t="shared" ref="M50" si="56">M51+M52+M53</f>
         <v>21</v>
       </c>
-      <c r="N49" s="40">
-        <f>N50+N51+N52</f>
+      <c r="N50" s="40">
+        <f t="shared" ref="N50:T50" si="57">N51+N52+N53</f>
         <v>43</v>
       </c>
-      <c r="O49" s="40">
-        <f>O50+O51+O52</f>
+      <c r="O50" s="40">
+        <f t="shared" si="57"/>
         <v>13</v>
       </c>
-      <c r="P49" s="40">
-        <f>P50+P51+P52</f>
+      <c r="P50" s="40">
+        <f t="shared" si="57"/>
         <v>20</v>
       </c>
-      <c r="Q49" s="40">
-        <f>Q50+Q51+Q52</f>
+      <c r="Q50" s="40">
+        <f t="shared" si="57"/>
         <v>21</v>
       </c>
-      <c r="R49" s="40">
-        <f>R50+R51+R52</f>
+      <c r="R50" s="40">
+        <f t="shared" si="57"/>
         <v>39</v>
       </c>
-      <c r="S49" s="40">
-        <f>S50+S51+S52</f>
+      <c r="S50" s="40">
+        <f t="shared" si="57"/>
         <v>20</v>
       </c>
-      <c r="T49" s="40">
-        <f>T50+T51+T52</f>
+      <c r="T50" s="40">
+        <f t="shared" si="57"/>
         <v>21</v>
       </c>
-      <c r="AA49" s="40">
-        <f>AA50+AA51+AA52</f>
+      <c r="AA50" s="40">
+        <f>AA51+AA52+AA53</f>
         <v>86</v>
       </c>
-      <c r="AB49" s="40">
-        <f>AB50+AB51+AB52</f>
+      <c r="AB50" s="40">
+        <f>AB51+AB52+AB53</f>
         <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="2:28" s="39" customFormat="1">
-      <c r="B50" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="H50" s="39">
-        <v>19</v>
-      </c>
-      <c r="J50" s="39">
-        <v>20</v>
-      </c>
-      <c r="K50" s="39">
-        <v>5</v>
-      </c>
-      <c r="L50" s="39">
-        <v>9</v>
-      </c>
-      <c r="M50" s="39">
-        <v>19</v>
-      </c>
-      <c r="N50" s="39">
-        <v>23</v>
-      </c>
-      <c r="O50" s="39">
-        <v>10</v>
-      </c>
-      <c r="P50" s="39">
-        <v>12</v>
-      </c>
-      <c r="Q50" s="39">
-        <v>14</v>
-      </c>
-      <c r="R50" s="39">
-        <v>26</v>
-      </c>
-      <c r="S50" s="39">
-        <v>12</v>
-      </c>
-      <c r="T50" s="39">
-        <v>12</v>
-      </c>
-      <c r="AA50" s="39">
-        <v>56</v>
-      </c>
-      <c r="AB50" s="39">
-        <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:28" s="39" customFormat="1">
       <c r="B51" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="D51" s="39">
+        <v>15</v>
+      </c>
+      <c r="E51" s="39">
+        <v>17</v>
+      </c>
+      <c r="G51" s="39">
+        <v>8</v>
       </c>
       <c r="H51" s="39">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="I51" s="39">
+        <v>15</v>
       </c>
       <c r="J51" s="39">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K51" s="39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L51" s="39">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M51" s="39">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N51" s="39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O51" s="39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P51" s="39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q51" s="39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R51" s="39">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="S51" s="39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T51" s="39">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA51" s="39">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="AB51" s="39">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="2:28" s="39" customFormat="1">
       <c r="B52" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="39">
+        <v>0</v>
+      </c>
+      <c r="E52" s="39">
+        <v>0</v>
+      </c>
+      <c r="G52" s="39">
+        <v>0</v>
+      </c>
+      <c r="H52" s="39">
+        <v>0</v>
+      </c>
+      <c r="I52" s="39">
+        <v>0</v>
+      </c>
+      <c r="J52" s="39">
+        <v>0</v>
+      </c>
+      <c r="K52" s="39">
+        <v>0</v>
+      </c>
+      <c r="L52" s="39">
+        <v>0</v>
+      </c>
+      <c r="M52" s="39">
+        <v>0</v>
+      </c>
+      <c r="N52" s="39">
+        <v>20</v>
+      </c>
+      <c r="O52" s="39">
+        <v>0</v>
+      </c>
+      <c r="P52" s="39">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="39">
+        <v>0</v>
+      </c>
+      <c r="R52" s="39">
+        <v>13</v>
+      </c>
+      <c r="S52" s="39">
+        <v>8</v>
+      </c>
+      <c r="T52" s="39">
+        <v>9</v>
+      </c>
+      <c r="AA52" s="39">
+        <v>30</v>
+      </c>
+      <c r="AB52" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" s="39" customFormat="1">
+      <c r="B53" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="H52" s="39">
+      <c r="D53" s="39">
+        <v>5</v>
+      </c>
+      <c r="E53" s="39">
+        <v>7</v>
+      </c>
+      <c r="G53" s="39">
+        <v>3</v>
+      </c>
+      <c r="H53" s="39">
         <v>6</v>
       </c>
-      <c r="J52" s="39">
+      <c r="I53" s="39">
+        <v>12</v>
+      </c>
+      <c r="J53" s="39">
         <v>26</v>
       </c>
-      <c r="K52" s="39">
+      <c r="K53" s="39">
         <v>4</v>
       </c>
-      <c r="L52" s="39">
+      <c r="L53" s="39">
         <v>4</v>
       </c>
-      <c r="M52" s="39">
+      <c r="M53" s="39">
         <v>2</v>
       </c>
-      <c r="N52" s="39">
-        <v>0</v>
-      </c>
-      <c r="O52" s="39">
+      <c r="N53" s="39">
+        <v>0</v>
+      </c>
+      <c r="O53" s="39">
         <v>3</v>
       </c>
-      <c r="P52" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="39">
+      <c r="P53" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="39">
         <v>7</v>
       </c>
-      <c r="R52" s="39">
-        <v>0</v>
-      </c>
-      <c r="S52" s="39">
-        <v>0</v>
-      </c>
-      <c r="T52" s="39">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="39">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:28">
-      <c r="B54" s="33" t="s">
+      <c r="R53" s="39">
+        <v>0</v>
+      </c>
+      <c r="S53" s="39">
+        <v>0</v>
+      </c>
+      <c r="T53" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28">
+      <c r="B55" s="33" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="2:28" s="2" customFormat="1">
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J55" s="26">
-        <v>2307.6999999999998</v>
-      </c>
-      <c r="K55" s="26">
-        <v>2394.4</v>
-      </c>
-      <c r="L55" s="26">
-        <v>1872.8</v>
-      </c>
-      <c r="M55" s="26">
-        <v>1596.8</v>
-      </c>
-      <c r="N55" s="26">
-        <v>1883.1</v>
-      </c>
-      <c r="O55" s="26">
-        <v>1123.2</v>
-      </c>
-      <c r="P55" s="26">
-        <v>1351.2</v>
-      </c>
-      <c r="Q55" s="26">
-        <v>1596.8</v>
-      </c>
-      <c r="R55" s="26">
-        <v>1818.3</v>
-      </c>
-      <c r="S55" s="26">
-        <v>1129.8</v>
-      </c>
-      <c r="T55" s="26">
-        <v>1041.3</v>
-      </c>
-      <c r="AA55" s="26">
-        <f>N55</f>
-        <v>1883.1</v>
-      </c>
-      <c r="AB55" s="26">
-        <f>R55</f>
-        <v>1818.3</v>
       </c>
     </row>
     <row r="56" spans="2:28" s="2" customFormat="1">
       <c r="B56" s="2" t="s">
-        <v>90</v>
+        <v>6</v>
+      </c>
+      <c r="H56" s="26">
+        <v>855.5</v>
+      </c>
+      <c r="I56" s="26">
+        <v>1156.4000000000001</v>
       </c>
       <c r="J56" s="26">
-        <v>410.9</v>
+        <v>2307.6999999999998</v>
       </c>
       <c r="K56" s="26">
-        <v>60.1</v>
+        <v>2394.4</v>
       </c>
       <c r="L56" s="26">
-        <v>125.7</v>
+        <v>1872.8</v>
       </c>
       <c r="M56" s="26">
-        <v>855.3</v>
+        <v>1596.8</v>
       </c>
       <c r="N56" s="26">
-        <v>817.5</v>
+        <v>1883.1</v>
       </c>
       <c r="O56" s="26">
-        <v>1288.4000000000001</v>
+        <v>1123.2</v>
       </c>
       <c r="P56" s="26">
-        <v>1092.8</v>
+        <v>1351.2</v>
       </c>
       <c r="Q56" s="26">
-        <v>855.3</v>
+        <v>1596.8</v>
       </c>
       <c r="R56" s="26">
-        <v>750.8</v>
+        <v>1818.3</v>
       </c>
       <c r="S56" s="26">
-        <v>802.9</v>
+        <v>1129.8</v>
       </c>
       <c r="T56" s="26">
-        <v>753.8</v>
+        <v>1041.3</v>
       </c>
       <c r="AA56" s="26">
         <f>N56</f>
-        <v>817.5</v>
+        <v>1883.1</v>
       </c>
       <c r="AB56" s="26">
         <f>R56</f>
+        <v>1818.3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28" s="2" customFormat="1">
+      <c r="B57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="26">
+        <v>1561.7</v>
+      </c>
+      <c r="I57" s="26">
+        <v>957.4</v>
+      </c>
+      <c r="J57" s="26">
+        <v>410.9</v>
+      </c>
+      <c r="K57" s="26">
+        <v>60.1</v>
+      </c>
+      <c r="L57" s="26">
+        <v>125.7</v>
+      </c>
+      <c r="M57" s="26">
+        <v>855.3</v>
+      </c>
+      <c r="N57" s="26">
+        <v>817.5</v>
+      </c>
+      <c r="O57" s="26">
+        <v>1288.4000000000001</v>
+      </c>
+      <c r="P57" s="26">
+        <v>1092.8</v>
+      </c>
+      <c r="Q57" s="26">
+        <v>855.3</v>
+      </c>
+      <c r="R57" s="26">
         <v>750.8</v>
       </c>
-    </row>
-    <row r="57" spans="2:28">
-      <c r="B57" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J57" s="27">
-        <v>294.2</v>
-      </c>
-      <c r="K57" s="27">
-        <v>272.39999999999998</v>
-      </c>
-      <c r="L57" s="27">
-        <v>230.9</v>
-      </c>
-      <c r="M57" s="27">
-        <v>203.1</v>
-      </c>
-      <c r="N57" s="27">
-        <v>203.4</v>
-      </c>
-      <c r="O57" s="27">
-        <v>190.2</v>
-      </c>
-      <c r="P57" s="27">
-        <v>198.8</v>
-      </c>
-      <c r="Q57" s="27">
-        <v>203.1</v>
-      </c>
-      <c r="R57" s="27">
-        <v>189</v>
-      </c>
-      <c r="S57" s="27">
-        <v>197</v>
-      </c>
-      <c r="T57" s="27">
-        <v>240.4</v>
-      </c>
-      <c r="AA57" s="27">
-        <f t="shared" ref="AA57:AA61" si="53">N57</f>
-        <v>203.4</v>
-      </c>
-      <c r="AB57" s="27">
+      <c r="S57" s="26">
+        <v>802.9</v>
+      </c>
+      <c r="T57" s="26">
+        <v>753.8</v>
+      </c>
+      <c r="AA57" s="26">
+        <f>N57</f>
+        <v>817.5</v>
+      </c>
+      <c r="AB57" s="26">
         <f>R57</f>
-        <v>189</v>
+        <v>750.8</v>
       </c>
     </row>
     <row r="58" spans="2:28">
       <c r="B58" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="H58" s="27">
+        <v>329.4</v>
+      </c>
+      <c r="I58" s="27">
+        <v>335.1</v>
       </c>
       <c r="J58" s="27">
-        <v>1.4</v>
+        <v>294.2</v>
       </c>
       <c r="K58" s="27">
-        <v>0.7</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="L58" s="27">
-        <v>1</v>
+        <v>230.9</v>
       </c>
       <c r="M58" s="27">
-        <v>0.5</v>
+        <v>203.1</v>
       </c>
       <c r="N58" s="27">
-        <v>8.3000000000000007</v>
+        <v>203.4</v>
       </c>
       <c r="O58" s="27">
-        <v>1.6</v>
+        <v>190.2</v>
       </c>
       <c r="P58" s="27">
-        <v>4.3</v>
+        <v>198.8</v>
       </c>
       <c r="Q58" s="27">
-        <v>0.5</v>
+        <v>203.1</v>
       </c>
       <c r="R58" s="27">
-        <v>0.1</v>
+        <v>189</v>
       </c>
       <c r="S58" s="27">
-        <v>9.6999999999999993</v>
+        <v>197</v>
       </c>
       <c r="T58" s="27">
-        <v>2.5</v>
+        <v>240.4</v>
       </c>
       <c r="AA58" s="27">
-        <f t="shared" si="53"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" ref="AA58:AA62" si="58">N58</f>
+        <v>203.4</v>
       </c>
       <c r="AB58" s="27">
-        <f t="shared" ref="AB58:AB80" si="54">R58</f>
-        <v>0.1</v>
+        <f>R58</f>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="2:28">
       <c r="B59" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="H59" s="27">
+        <v>5.2</v>
+      </c>
+      <c r="I59" s="27">
+        <v>3.2</v>
       </c>
       <c r="J59" s="27">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K59" s="27">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="L59" s="27">
         <v>1</v>
       </c>
       <c r="M59" s="27">
-        <v>7.9</v>
+        <v>0.5</v>
       </c>
       <c r="N59" s="27">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="O59" s="27">
-        <v>6.6</v>
+        <v>1.6</v>
       </c>
       <c r="P59" s="27">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q59" s="27">
-        <v>7.9</v>
+        <v>0.5</v>
       </c>
       <c r="R59" s="27">
-        <v>9.6</v>
+        <v>0.1</v>
       </c>
       <c r="S59" s="27">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="T59" s="27">
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="AA59" s="27">
-        <f t="shared" si="53"/>
-        <v>8.5</v>
+        <f t="shared" si="58"/>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AB59" s="27">
-        <f t="shared" si="54"/>
-        <v>9.6</v>
+        <f t="shared" ref="AB59:AB81" si="59">R59</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="60" spans="2:28">
       <c r="B60" s="3" t="s">
-        <v>196</v>
+        <v>93</v>
+      </c>
+      <c r="H60" s="27">
+        <v>1.3</v>
+      </c>
+      <c r="I60" s="27">
+        <v>1.3</v>
       </c>
       <c r="J60" s="27">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="K60" s="27">
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L60" s="27">
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="M60" s="27">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="N60" s="27">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="O60" s="27">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="P60" s="27">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Q60" s="27">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="R60" s="27">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S60" s="27">
-        <v>0</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="T60" s="27">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AA60" s="27">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>8.5</v>
       </c>
       <c r="AB60" s="27">
-        <f>R60</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>9.6</v>
       </c>
     </row>
     <row r="61" spans="2:28">
       <c r="B61" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H61" s="27">
+        <v>141.6</v>
+      </c>
+      <c r="I61" s="27">
+        <v>71.8</v>
+      </c>
+      <c r="J61" s="27">
+        <v>4</v>
+      </c>
+      <c r="K61" s="27">
+        <v>4</v>
+      </c>
+      <c r="L61" s="27">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M61" s="27">
+        <v>0</v>
+      </c>
+      <c r="N61" s="27">
+        <v>0</v>
+      </c>
+      <c r="O61" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="P61" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="27">
+        <v>0</v>
+      </c>
+      <c r="R61" s="27">
+        <v>0</v>
+      </c>
+      <c r="S61" s="27">
+        <v>0</v>
+      </c>
+      <c r="T61" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="27">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AB61" s="27">
+        <f>R61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28">
+      <c r="B62" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J61" s="27">
+      <c r="H62" s="27">
+        <v>488.1</v>
+      </c>
+      <c r="I62" s="27">
+        <v>556.20000000000005</v>
+      </c>
+      <c r="J62" s="27">
         <v>495.7</v>
       </c>
-      <c r="K61" s="27">
+      <c r="K62" s="27">
         <v>469.5</v>
       </c>
-      <c r="L61" s="27">
+      <c r="L62" s="27">
         <v>402.8</v>
       </c>
-      <c r="M61" s="27">
+      <c r="M62" s="27">
         <v>618.79999999999995</v>
       </c>
-      <c r="N61" s="27">
+      <c r="N62" s="27">
         <v>461.8</v>
       </c>
-      <c r="O61" s="27">
+      <c r="O62" s="27">
         <v>517.1</v>
       </c>
-      <c r="P61" s="27">
+      <c r="P62" s="27">
         <v>630.70000000000005</v>
       </c>
-      <c r="Q61" s="27">
+      <c r="Q62" s="27">
         <v>618.79999999999995</v>
       </c>
-      <c r="R61" s="27">
+      <c r="R62" s="27">
         <v>582.29999999999995</v>
       </c>
-      <c r="S61" s="27">
+      <c r="S62" s="27">
         <v>615.5</v>
       </c>
-      <c r="T61" s="27">
+      <c r="T62" s="27">
         <v>620</v>
       </c>
-      <c r="AA61" s="27">
-        <f t="shared" si="53"/>
+      <c r="AA62" s="27">
+        <f t="shared" si="58"/>
         <v>461.8</v>
       </c>
-      <c r="AB61" s="27">
-        <f t="shared" si="54"/>
+      <c r="AB62" s="27">
+        <f t="shared" si="59"/>
         <v>582.29999999999995</v>
       </c>
     </row>
-    <row r="62" spans="2:28" s="2" customFormat="1">
-      <c r="B62" s="2" t="s">
+    <row r="63" spans="2:28" s="2" customFormat="1">
+      <c r="B63" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J62" s="26">
+      <c r="H63" s="26">
+        <v>3004.3</v>
+      </c>
+      <c r="I63" s="26">
+        <v>3082.7</v>
+      </c>
+      <c r="J63" s="26">
         <v>2384</v>
       </c>
-      <c r="K62" s="26">
+      <c r="K63" s="26">
         <v>2925.3</v>
       </c>
-      <c r="L62" s="26">
+      <c r="L63" s="26">
         <v>3128.8</v>
       </c>
-      <c r="M62" s="26">
+      <c r="M63" s="26">
         <v>2305</v>
       </c>
-      <c r="N62" s="26">
+      <c r="N63" s="26">
         <v>2437.9</v>
       </c>
-      <c r="O62" s="26">
+      <c r="O63" s="26">
         <v>2483.3000000000002</v>
       </c>
-      <c r="P62" s="26">
+      <c r="P63" s="26">
         <v>2315</v>
       </c>
-      <c r="Q62" s="26">
+      <c r="Q63" s="26">
         <v>2305</v>
       </c>
-      <c r="R62" s="26">
+      <c r="R63" s="26">
         <v>1986</v>
       </c>
-      <c r="S62" s="26">
+      <c r="S63" s="26">
         <v>2222.8000000000002</v>
       </c>
-      <c r="T62" s="26">
+      <c r="T63" s="26">
         <v>2392.9</v>
       </c>
-      <c r="AA62" s="26">
-        <f>N62</f>
+      <c r="AA63" s="26">
+        <f>N63</f>
         <v>2437.9</v>
       </c>
-      <c r="AB62" s="26">
-        <f>R62</f>
+      <c r="AB63" s="26">
+        <f>R63</f>
         <v>1986</v>
-      </c>
-    </row>
-    <row r="63" spans="2:28">
-      <c r="B63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J63" s="27">
-        <v>92.6</v>
-      </c>
-      <c r="K63" s="27">
-        <v>96.9</v>
-      </c>
-      <c r="L63" s="27">
-        <v>95.1</v>
-      </c>
-      <c r="M63" s="27">
-        <v>128.19999999999999</v>
-      </c>
-      <c r="N63" s="27">
-        <v>114.1</v>
-      </c>
-      <c r="O63" s="27">
-        <v>108.8</v>
-      </c>
-      <c r="P63" s="27">
-        <v>134.69999999999999</v>
-      </c>
-      <c r="Q63" s="27">
-        <v>128.19999999999999</v>
-      </c>
-      <c r="R63" s="27">
-        <v>114.5</v>
-      </c>
-      <c r="S63" s="27">
-        <v>105</v>
-      </c>
-      <c r="T63" s="27">
-        <v>101.9</v>
-      </c>
-      <c r="AA63" s="27">
-        <f t="shared" ref="AA63:AA66" si="55">N63</f>
-        <v>114.1</v>
-      </c>
-      <c r="AB63" s="27">
-        <f t="shared" si="54"/>
-        <v>114.5</v>
       </c>
     </row>
     <row r="64" spans="2:28">
       <c r="B64" s="3" t="s">
-        <v>185</v>
+        <v>63</v>
+      </c>
+      <c r="H64" s="27">
+        <v>88.7</v>
+      </c>
+      <c r="I64" s="27">
+        <v>89.8</v>
       </c>
       <c r="J64" s="27">
-        <v>0.2</v>
+        <v>92.6</v>
       </c>
       <c r="K64" s="27">
-        <v>0.2</v>
+        <v>96.9</v>
       </c>
       <c r="L64" s="27">
-        <v>0.2</v>
+        <v>95.1</v>
       </c>
       <c r="M64" s="27">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="N64" s="27">
+        <v>114.1</v>
+      </c>
+      <c r="O64" s="27">
+        <v>108.8</v>
+      </c>
+      <c r="P64" s="27">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="Q64" s="27">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="R64" s="27">
+        <v>114.5</v>
+      </c>
+      <c r="S64" s="27">
+        <v>105</v>
+      </c>
+      <c r="T64" s="27">
         <v>101.9</v>
       </c>
-      <c r="N64" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="O64" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="P64" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="Q64" s="27">
-        <v>101.9</v>
-      </c>
-      <c r="R64" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="S64" s="27">
-        <v>0</v>
-      </c>
-      <c r="T64" s="27">
-        <v>0</v>
-      </c>
       <c r="AA64" s="27">
-        <f t="shared" si="55"/>
-        <v>0.2</v>
+        <f t="shared" ref="AA64:AA67" si="60">N64</f>
+        <v>114.1</v>
       </c>
       <c r="AB64" s="27">
-        <f t="shared" si="54"/>
-        <v>0.6</v>
+        <f t="shared" si="59"/>
+        <v>114.5</v>
       </c>
     </row>
     <row r="65" spans="2:28">
       <c r="B65" s="3" t="s">
-        <v>96</v>
+        <v>185</v>
+      </c>
+      <c r="H65" s="27">
+        <v>306.39999999999998</v>
+      </c>
+      <c r="I65" s="27">
+        <v>273.39999999999998</v>
       </c>
       <c r="J65" s="27">
-        <v>199.4</v>
+        <v>0.2</v>
       </c>
       <c r="K65" s="27">
-        <v>217.6</v>
+        <v>0.2</v>
       </c>
       <c r="L65" s="27">
-        <v>219</v>
+        <v>0.2</v>
       </c>
       <c r="M65" s="27">
-        <v>202.3</v>
+        <v>101.9</v>
       </c>
       <c r="N65" s="27">
-        <v>180.9</v>
+        <v>0.2</v>
       </c>
       <c r="O65" s="27">
-        <v>179.4</v>
+        <v>0.2</v>
       </c>
       <c r="P65" s="27">
-        <v>194.2</v>
+        <v>0.2</v>
       </c>
       <c r="Q65" s="27">
-        <v>202.3</v>
+        <v>101.9</v>
       </c>
       <c r="R65" s="3">
-        <v>193.7</v>
+        <v>0.6</v>
       </c>
       <c r="S65" s="27">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="T65" s="27">
-        <v>209.3</v>
+        <v>0</v>
       </c>
       <c r="AA65" s="27">
-        <f t="shared" si="55"/>
-        <v>180.9</v>
+        <f t="shared" si="60"/>
+        <v>0.2</v>
       </c>
       <c r="AB65" s="27">
-        <f t="shared" si="54"/>
-        <v>193.7</v>
+        <f t="shared" si="59"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="66" spans="2:28">
       <c r="B66" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="H66" s="27">
+        <v>227</v>
+      </c>
+      <c r="I66" s="27">
+        <v>209.9</v>
       </c>
       <c r="J66" s="27">
-        <v>0</v>
+        <v>199.4</v>
       </c>
       <c r="K66" s="27">
-        <v>0</v>
+        <v>217.6</v>
       </c>
       <c r="L66" s="27">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="M66" s="27">
-        <v>0</v>
+        <v>202.3</v>
       </c>
       <c r="N66" s="27">
-        <v>0</v>
+        <v>180.9</v>
       </c>
       <c r="O66" s="27">
-        <v>0</v>
+        <v>179.4</v>
       </c>
       <c r="P66" s="27">
-        <v>0</v>
+        <v>194.2</v>
       </c>
       <c r="Q66" s="27">
-        <v>0</v>
+        <v>202.3</v>
       </c>
       <c r="R66" s="3">
-        <v>230.9</v>
+        <v>193.7</v>
       </c>
       <c r="S66" s="27">
-        <v>227.1</v>
+        <v>217</v>
       </c>
       <c r="T66" s="27">
-        <v>0</v>
+        <v>209.3</v>
       </c>
       <c r="AA66" s="27">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="60"/>
+        <v>180.9</v>
       </c>
       <c r="AB66" s="27">
-        <f t="shared" si="54"/>
-        <v>230.9</v>
+        <f t="shared" si="59"/>
+        <v>193.7</v>
       </c>
     </row>
     <row r="67" spans="2:28">
       <c r="B67" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="27">
+        <v>0</v>
+      </c>
+      <c r="I67" s="27">
+        <v>0</v>
+      </c>
+      <c r="J67" s="27">
+        <v>0</v>
+      </c>
+      <c r="K67" s="27">
+        <v>0</v>
+      </c>
+      <c r="L67" s="27">
+        <v>0</v>
+      </c>
+      <c r="M67" s="27">
+        <v>0</v>
+      </c>
+      <c r="N67" s="27">
+        <v>0</v>
+      </c>
+      <c r="O67" s="27">
+        <v>0</v>
+      </c>
+      <c r="P67" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="27">
+        <v>0</v>
+      </c>
+      <c r="R67" s="3">
+        <v>230.9</v>
+      </c>
+      <c r="S67" s="27">
+        <v>227.1</v>
+      </c>
+      <c r="T67" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="27">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="27">
+        <f t="shared" si="59"/>
+        <v>230.9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28">
+      <c r="B68" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J67" s="27">
-        <f>SUM(J55:J66)</f>
+      <c r="H68" s="27">
+        <f t="shared" ref="H68:T68" si="61">SUM(H56:H67)</f>
+        <v>7009.2</v>
+      </c>
+      <c r="I68" s="27">
+        <f t="shared" si="61"/>
+        <v>6737.2</v>
+      </c>
+      <c r="J68" s="27">
+        <f t="shared" si="61"/>
         <v>6191.5999999999995</v>
       </c>
-      <c r="K67" s="27">
-        <f>SUM(K55:K66)</f>
+      <c r="K68" s="27">
+        <f t="shared" si="61"/>
         <v>6442.2</v>
       </c>
-      <c r="L67" s="27">
-        <f>SUM(L55:L66)</f>
+      <c r="L68" s="27">
+        <f t="shared" si="61"/>
         <v>6081.4000000000005</v>
       </c>
-      <c r="M67" s="27">
-        <f>SUM(M55:M66)</f>
+      <c r="M68" s="27">
+        <f t="shared" si="61"/>
         <v>6019.7999999999993</v>
       </c>
-      <c r="N67" s="27">
-        <f>SUM(N55:N66)</f>
+      <c r="N68" s="27">
+        <f t="shared" si="61"/>
         <v>6115.7</v>
       </c>
-      <c r="O67" s="27">
-        <f>SUM(O55:O66)</f>
+      <c r="O68" s="27">
+        <f t="shared" si="61"/>
         <v>5903</v>
       </c>
-      <c r="P67" s="27">
-        <f>SUM(P55:P66)</f>
+      <c r="P68" s="27">
+        <f t="shared" si="61"/>
         <v>5929.3</v>
       </c>
-      <c r="Q67" s="27">
-        <f>SUM(Q55:Q66)</f>
+      <c r="Q68" s="27">
+        <f t="shared" si="61"/>
         <v>6019.7999999999993</v>
       </c>
-      <c r="R67" s="27">
-        <f>SUM(R55:R66)</f>
+      <c r="R68" s="27">
+        <f t="shared" si="61"/>
         <v>5875.7999999999993</v>
       </c>
-      <c r="S67" s="27">
-        <f>SUM(S55:S66)</f>
+      <c r="S68" s="27">
+        <f t="shared" si="61"/>
         <v>5536.6</v>
       </c>
-      <c r="T67" s="27">
-        <f>SUM(T55:T66)</f>
+      <c r="T68" s="27">
+        <f t="shared" si="61"/>
         <v>5367.9000000000005</v>
       </c>
-      <c r="AA67" s="27">
-        <f>SUM(AA55:AA66)</f>
+      <c r="AA68" s="27">
+        <f>SUM(AA56:AA67)</f>
         <v>6115.7</v>
       </c>
-      <c r="AB67" s="27">
-        <f>SUM(AB55:AB66)</f>
+      <c r="AB68" s="27">
+        <f>SUM(AB56:AB67)</f>
         <v>5875.7999999999993</v>
       </c>
     </row>
-    <row r="68" spans="2:28" s="2" customFormat="1">
-      <c r="B68" s="2" t="s">
+    <row r="69" spans="2:28" s="2" customFormat="1">
+      <c r="B69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J68" s="26">
+      <c r="H69" s="26">
+        <v>61.6</v>
+      </c>
+      <c r="I69" s="26">
+        <v>61.6</v>
+      </c>
+      <c r="J69" s="26">
         <v>61.3</v>
       </c>
-      <c r="K68" s="26">
+      <c r="K69" s="26">
         <v>46.1</v>
       </c>
-      <c r="L68" s="26">
-        <v>0</v>
-      </c>
-      <c r="M68" s="26">
+      <c r="L69" s="26">
+        <v>0</v>
+      </c>
+      <c r="M69" s="26">
         <v>51.6</v>
       </c>
-      <c r="N68" s="26">
+      <c r="N69" s="26">
         <v>51.7</v>
       </c>
-      <c r="O68" s="26">
+      <c r="O69" s="26">
         <v>51.7</v>
       </c>
-      <c r="P68" s="26">
+      <c r="P69" s="26">
         <v>47.3</v>
       </c>
-      <c r="Q68" s="26">
+      <c r="Q69" s="26">
         <v>51.6</v>
       </c>
-      <c r="R68" s="26">
+      <c r="R69" s="26">
         <v>65.599999999999994</v>
       </c>
-      <c r="S68" s="26">
+      <c r="S69" s="26">
         <v>169.9</v>
       </c>
-      <c r="T68" s="26">
+      <c r="T69" s="26">
         <v>169.9</v>
       </c>
-      <c r="AA68" s="26">
-        <f>N68</f>
+      <c r="AA69" s="26">
+        <f>N69</f>
         <v>51.7</v>
       </c>
-      <c r="AB68" s="26">
-        <f>R68</f>
+      <c r="AB69" s="26">
+        <f>R69</f>
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="69" spans="2:28">
-      <c r="B69" s="3" t="s">
+    <row r="70" spans="2:28">
+      <c r="B70" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J69" s="27">
-        <v>0</v>
-      </c>
-      <c r="K69" s="27">
-        <v>0</v>
-      </c>
-      <c r="L69" s="27">
-        <v>0</v>
-      </c>
-      <c r="M69" s="27">
-        <v>0</v>
-      </c>
-      <c r="N69" s="27">
-        <v>0</v>
-      </c>
-      <c r="O69" s="27">
-        <v>0</v>
-      </c>
-      <c r="P69" s="27">
+      <c r="H70" s="27">
+        <v>0</v>
+      </c>
+      <c r="I70" s="27">
+        <v>0</v>
+      </c>
+      <c r="J70" s="27">
+        <v>0</v>
+      </c>
+      <c r="K70" s="27">
+        <v>0</v>
+      </c>
+      <c r="L70" s="27">
+        <v>0</v>
+      </c>
+      <c r="M70" s="27">
+        <v>0</v>
+      </c>
+      <c r="N70" s="27">
+        <v>0</v>
+      </c>
+      <c r="O70" s="27">
+        <v>0</v>
+      </c>
+      <c r="P70" s="27">
         <v>0.1</v>
       </c>
-      <c r="Q69" s="27">
-        <v>0</v>
-      </c>
-      <c r="R69" s="27">
-        <v>0</v>
-      </c>
-      <c r="S69" s="27">
+      <c r="Q70" s="27">
+        <v>0</v>
+      </c>
+      <c r="R70" s="27">
+        <v>0</v>
+      </c>
+      <c r="S70" s="27">
         <v>1.6</v>
       </c>
-      <c r="T69" s="27">
+      <c r="T70" s="27">
         <v>1.5</v>
       </c>
-      <c r="AA69" s="27">
-        <f t="shared" ref="AA69:AA79" si="56">N69</f>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="27">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:28" s="2" customFormat="1">
-      <c r="B70" s="2" t="s">
+      <c r="AA70" s="27">
+        <f t="shared" ref="AA70:AA80" si="62">N70</f>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="27">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" s="2" customFormat="1">
+      <c r="B71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J70" s="26">
+      <c r="H71" s="26">
+        <v>2.1</v>
+      </c>
+      <c r="I71" s="26">
+        <v>1.8</v>
+      </c>
+      <c r="J71" s="26">
         <v>0.7</v>
       </c>
-      <c r="K70" s="26">
+      <c r="K71" s="26">
         <v>0.5</v>
       </c>
-      <c r="L70" s="26">
+      <c r="L71" s="26">
         <v>0.4</v>
       </c>
-      <c r="M70" s="26">
-        <v>0</v>
-      </c>
-      <c r="N70" s="26">
+      <c r="M71" s="26">
+        <v>0</v>
+      </c>
+      <c r="N71" s="26">
         <v>1.3</v>
       </c>
-      <c r="O70" s="26">
+      <c r="O71" s="26">
         <v>0.1</v>
       </c>
-      <c r="P70" s="26">
+      <c r="P71" s="26">
         <v>23</v>
       </c>
-      <c r="Q70" s="26">
-        <v>0</v>
-      </c>
-      <c r="R70" s="26">
-        <v>0</v>
-      </c>
-      <c r="S70" s="26">
+      <c r="Q71" s="26">
+        <v>0</v>
+      </c>
+      <c r="R71" s="26">
+        <v>0</v>
+      </c>
+      <c r="S71" s="26">
         <v>1.6</v>
       </c>
-      <c r="T70" s="26">
+      <c r="T71" s="26">
         <v>3.2</v>
       </c>
-      <c r="AA70" s="26">
-        <f>N70</f>
+      <c r="AA71" s="26">
+        <f>N71</f>
         <v>1.3</v>
       </c>
-      <c r="AB70" s="26">
-        <f>R70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:28">
-      <c r="B71" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J71" s="27">
-        <v>13.6</v>
-      </c>
-      <c r="K71" s="27">
-        <v>12.4</v>
-      </c>
-      <c r="L71" s="27">
-        <v>11.7</v>
-      </c>
-      <c r="M71" s="27">
-        <v>0</v>
-      </c>
-      <c r="N71" s="27">
-        <v>0</v>
-      </c>
-      <c r="O71" s="27">
-        <v>8.4</v>
-      </c>
-      <c r="P71" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="27">
-        <v>0</v>
-      </c>
-      <c r="R71" s="27">
-        <v>0</v>
-      </c>
-      <c r="S71" s="27">
-        <v>0</v>
-      </c>
-      <c r="T71" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="27">
-        <f>N71</f>
-        <v>0</v>
-      </c>
-      <c r="AB71" s="27">
+      <c r="AB71" s="26">
         <f>R71</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:28">
       <c r="B72" s="3" t="s">
-        <v>185</v>
+        <v>196</v>
+      </c>
+      <c r="H72" s="27">
+        <v>15.5</v>
+      </c>
+      <c r="I72" s="27">
+        <v>14.3</v>
       </c>
       <c r="J72" s="27">
-        <v>0.8</v>
+        <v>13.6</v>
       </c>
       <c r="K72" s="27">
-        <v>0.9</v>
+        <v>12.4</v>
       </c>
       <c r="L72" s="27">
-        <v>1.2</v>
+        <v>11.7</v>
       </c>
       <c r="M72" s="27">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="N72" s="27">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="O72" s="27">
-        <v>16.600000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="P72" s="27">
         <v>0</v>
       </c>
       <c r="Q72" s="27">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="R72" s="27">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="S72" s="27">
         <v>0</v>
@@ -5872,2577 +6352,2976 @@
         <v>0</v>
       </c>
       <c r="AA72" s="27">
-        <f t="shared" si="56"/>
-        <v>1.5</v>
+        <f>N72</f>
+        <v>0</v>
       </c>
       <c r="AB72" s="27">
-        <f t="shared" si="54"/>
-        <v>2.4</v>
+        <f>R72</f>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:28">
       <c r="B73" s="3" t="s">
-        <v>93</v>
+        <v>185</v>
+      </c>
+      <c r="H73" s="27">
+        <v>9.9</v>
+      </c>
+      <c r="I73" s="27">
+        <v>9</v>
       </c>
       <c r="J73" s="27">
-        <v>9.1999999999999993</v>
+        <v>0.8</v>
       </c>
       <c r="K73" s="27">
-        <v>6.8</v>
+        <v>0.9</v>
       </c>
       <c r="L73" s="27">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="M73" s="27">
-        <v>25.4</v>
+        <v>2.4</v>
       </c>
       <c r="N73" s="27">
-        <v>21.4</v>
+        <v>1.5</v>
       </c>
       <c r="O73" s="27">
-        <v>21.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="P73" s="27">
-        <v>42.1</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="27">
-        <v>25.4</v>
+        <v>2.4</v>
       </c>
       <c r="R73" s="27">
-        <v>22.4</v>
+        <v>2.4</v>
       </c>
       <c r="S73" s="27">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="T73" s="27">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AA73" s="27">
-        <f t="shared" si="56"/>
-        <v>21.4</v>
+        <f t="shared" si="62"/>
+        <v>1.5</v>
       </c>
       <c r="AB73" s="27">
-        <f t="shared" si="54"/>
-        <v>22.4</v>
+        <f t="shared" si="59"/>
+        <v>2.4</v>
       </c>
     </row>
     <row r="74" spans="2:28">
       <c r="B74" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="H74" s="27">
+        <v>9.9</v>
+      </c>
+      <c r="I74" s="27">
+        <v>9.6</v>
       </c>
       <c r="J74" s="27">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K74" s="27">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="L74" s="27">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M74" s="27">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="N74" s="27">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="O74" s="27">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="P74" s="27">
-        <v>0</v>
+        <v>42.1</v>
       </c>
       <c r="Q74" s="27">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="R74" s="27">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="S74" s="27">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="T74" s="27">
-        <v>0.9</v>
+        <v>14.5</v>
       </c>
       <c r="AA74" s="27">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="62"/>
+        <v>21.4</v>
       </c>
       <c r="AB74" s="27">
-        <f t="shared" si="54"/>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>22.4</v>
       </c>
     </row>
     <row r="75" spans="2:28">
       <c r="B75" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="H75" s="27">
+        <v>0</v>
+      </c>
+      <c r="I75" s="27">
+        <v>0</v>
       </c>
       <c r="J75" s="27">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K75" s="27">
-        <v>93.6</v>
+        <v>0</v>
       </c>
       <c r="L75" s="27">
-        <v>160.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="M75" s="27">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="N75" s="27">
-        <v>104.6</v>
+        <v>0</v>
       </c>
       <c r="O75" s="27">
-        <v>124.4</v>
+        <v>0</v>
       </c>
       <c r="P75" s="27">
-        <v>99.9</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="27">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="R75" s="27">
-        <v>97.6</v>
+        <v>0</v>
       </c>
       <c r="S75" s="27">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="T75" s="27">
-        <v>23.3</v>
+        <v>0.9</v>
       </c>
       <c r="AA75" s="27">
-        <f t="shared" si="56"/>
-        <v>104.6</v>
+        <f t="shared" si="62"/>
+        <v>0</v>
       </c>
       <c r="AB75" s="27">
-        <f t="shared" si="54"/>
-        <v>97.6</v>
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:28">
       <c r="B76" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="H76" s="27">
+        <v>22.4</v>
+      </c>
+      <c r="I76" s="27">
+        <v>21.8</v>
       </c>
       <c r="J76" s="27">
-        <v>93.9</v>
+        <v>35</v>
       </c>
       <c r="K76" s="27">
-        <v>76</v>
+        <v>93.6</v>
       </c>
       <c r="L76" s="27">
-        <v>77.2</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="M76" s="27">
-        <v>121.2</v>
+        <v>77</v>
       </c>
       <c r="N76" s="27">
-        <v>120.7</v>
+        <v>104.6</v>
       </c>
       <c r="O76" s="27">
-        <v>103.9</v>
+        <v>124.4</v>
       </c>
       <c r="P76" s="27">
-        <v>126.9</v>
+        <v>99.9</v>
       </c>
       <c r="Q76" s="27">
-        <v>121.2</v>
+        <v>77</v>
       </c>
       <c r="R76" s="27">
-        <v>125.6</v>
+        <v>97.6</v>
       </c>
       <c r="S76" s="27">
-        <v>142.9</v>
+        <v>22.8</v>
       </c>
       <c r="T76" s="27">
-        <v>165</v>
+        <v>23.3</v>
       </c>
       <c r="AA76" s="27">
-        <f t="shared" si="56"/>
-        <v>120.7</v>
+        <f t="shared" si="62"/>
+        <v>104.6</v>
       </c>
       <c r="AB76" s="27">
-        <f t="shared" si="54"/>
-        <v>125.6</v>
+        <f t="shared" si="59"/>
+        <v>97.6</v>
       </c>
     </row>
     <row r="77" spans="2:28">
       <c r="B77" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="H77" s="27">
+        <v>97</v>
+      </c>
+      <c r="I77" s="27">
+        <v>93.1</v>
       </c>
       <c r="J77" s="27">
-        <v>8.1</v>
+        <v>93.9</v>
       </c>
       <c r="K77" s="27">
-        <v>8.4</v>
+        <v>76</v>
       </c>
       <c r="L77" s="27">
-        <v>8.8000000000000007</v>
+        <v>77.2</v>
       </c>
       <c r="M77" s="27">
-        <v>6.6</v>
+        <v>121.2</v>
       </c>
       <c r="N77" s="27">
-        <v>5.2</v>
+        <v>120.7</v>
       </c>
       <c r="O77" s="27">
-        <v>5.4</v>
+        <v>103.9</v>
       </c>
       <c r="P77" s="27">
-        <v>6.1</v>
+        <v>126.9</v>
       </c>
       <c r="Q77" s="27">
-        <v>6.6</v>
+        <v>121.2</v>
       </c>
       <c r="R77" s="27">
-        <v>4.4000000000000004</v>
+        <v>125.6</v>
       </c>
       <c r="S77" s="27">
-        <v>6.9</v>
+        <v>142.9</v>
       </c>
       <c r="T77" s="27">
-        <v>9.3000000000000007</v>
+        <v>165</v>
       </c>
       <c r="AA77" s="27">
-        <f t="shared" si="56"/>
-        <v>5.2</v>
+        <f t="shared" si="62"/>
+        <v>120.7</v>
       </c>
       <c r="AB77" s="27">
-        <f t="shared" si="54"/>
-        <v>4.4000000000000004</v>
+        <f t="shared" si="59"/>
+        <v>125.6</v>
       </c>
     </row>
     <row r="78" spans="2:28">
       <c r="B78" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="H78" s="27">
+        <v>8.4</v>
+      </c>
+      <c r="I78" s="27">
+        <v>8</v>
       </c>
       <c r="J78" s="27">
-        <v>2058.6</v>
+        <v>8.1</v>
       </c>
       <c r="K78" s="27">
-        <v>2035.5</v>
+        <v>8.4</v>
       </c>
       <c r="L78" s="27">
-        <v>1943.7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M78" s="27">
-        <v>1902</v>
+        <v>6.6</v>
       </c>
       <c r="N78" s="27">
-        <v>1956</v>
+        <v>5.2</v>
       </c>
       <c r="O78" s="27">
-        <v>1934.3</v>
+        <v>5.4</v>
       </c>
       <c r="P78" s="27">
-        <v>1913.1</v>
+        <v>6.1</v>
       </c>
       <c r="Q78" s="27">
-        <v>1902</v>
+        <v>6.6</v>
       </c>
       <c r="R78" s="27">
-        <v>1687.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S78" s="27">
-        <v>1679.3</v>
+        <v>6.9</v>
       </c>
       <c r="T78" s="27">
-        <v>1652.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AA78" s="27">
-        <f t="shared" si="56"/>
-        <v>1956</v>
+        <f t="shared" si="62"/>
+        <v>5.2</v>
       </c>
       <c r="AB78" s="27">
-        <f t="shared" si="54"/>
-        <v>1687.6</v>
+        <f t="shared" si="59"/>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="79" spans="2:28">
       <c r="B79" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="H79" s="27">
+        <v>1989.6</v>
+      </c>
+      <c r="I79" s="27">
+        <v>2017.1</v>
       </c>
       <c r="J79" s="27">
-        <v>2051.6999999999998</v>
+        <v>2058.6</v>
       </c>
       <c r="K79" s="27">
-        <v>2070.1</v>
+        <v>2035.5</v>
       </c>
       <c r="L79" s="27">
-        <v>1972.4</v>
+        <v>1943.7</v>
       </c>
       <c r="M79" s="27">
-        <v>2115.9</v>
+        <v>1902</v>
       </c>
       <c r="N79" s="27">
-        <v>2075.6</v>
+        <v>1956</v>
       </c>
       <c r="O79" s="27">
-        <v>2079.3000000000002</v>
+        <v>1934.3</v>
       </c>
       <c r="P79" s="27">
-        <v>2097.6999999999998</v>
+        <v>1913.1</v>
       </c>
       <c r="Q79" s="27">
-        <v>2115.9</v>
+        <v>1902</v>
       </c>
       <c r="R79" s="27">
-        <v>2213.4</v>
+        <v>1687.6</v>
       </c>
       <c r="S79" s="27">
-        <v>2227.5</v>
+        <v>1679.3</v>
       </c>
       <c r="T79" s="27">
-        <v>2231.3000000000002</v>
+        <v>1652.5</v>
       </c>
       <c r="AA79" s="27">
-        <f t="shared" si="56"/>
-        <v>2075.6</v>
+        <f t="shared" si="62"/>
+        <v>1956</v>
       </c>
       <c r="AB79" s="27">
-        <f t="shared" si="54"/>
-        <v>2213.4</v>
+        <f t="shared" si="59"/>
+        <v>1687.6</v>
       </c>
     </row>
     <row r="80" spans="2:28">
       <c r="B80" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="H80" s="27">
+        <v>1998.5</v>
+      </c>
+      <c r="I80" s="27">
+        <v>2042.1</v>
       </c>
       <c r="J80" s="27">
-        <v>48</v>
+        <v>2051.6999999999998</v>
       </c>
       <c r="K80" s="27">
-        <v>63.6</v>
+        <v>2070.1</v>
       </c>
       <c r="L80" s="27">
-        <v>61.7</v>
+        <v>1972.4</v>
       </c>
       <c r="M80" s="27">
-        <v>60.8</v>
+        <v>2115.9</v>
       </c>
       <c r="N80" s="27">
-        <v>62.3</v>
+        <v>2075.6</v>
       </c>
       <c r="O80" s="27">
-        <v>59.5</v>
+        <v>2079.3000000000002</v>
       </c>
       <c r="P80" s="27">
-        <v>55.8</v>
+        <v>2097.6999999999998</v>
       </c>
       <c r="Q80" s="27">
-        <v>60.8</v>
+        <v>2115.9</v>
       </c>
       <c r="R80" s="27">
-        <v>60.2</v>
+        <v>2213.4</v>
       </c>
       <c r="S80" s="27">
-        <v>55.9</v>
+        <v>2227.5</v>
       </c>
       <c r="T80" s="27">
-        <v>59.5</v>
+        <v>2231.3000000000002</v>
       </c>
       <c r="AA80" s="27">
-        <f>N80</f>
-        <v>62.3</v>
+        <f t="shared" si="62"/>
+        <v>2075.6</v>
       </c>
       <c r="AB80" s="27">
-        <f t="shared" si="54"/>
-        <v>60.2</v>
+        <f t="shared" si="59"/>
+        <v>2213.4</v>
       </c>
     </row>
     <row r="81" spans="2:28">
       <c r="B81" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H81" s="27">
+        <v>49.3</v>
+      </c>
+      <c r="I81" s="27">
+        <v>46.9</v>
+      </c>
+      <c r="J81" s="27">
+        <v>48</v>
+      </c>
+      <c r="K81" s="27">
+        <v>63.6</v>
+      </c>
+      <c r="L81" s="27">
+        <v>61.7</v>
+      </c>
+      <c r="M81" s="27">
+        <v>60.8</v>
+      </c>
+      <c r="N81" s="27">
+        <v>62.3</v>
+      </c>
+      <c r="O81" s="27">
+        <v>59.5</v>
+      </c>
+      <c r="P81" s="27">
+        <v>55.8</v>
+      </c>
+      <c r="Q81" s="27">
+        <v>60.8</v>
+      </c>
+      <c r="R81" s="27">
+        <v>60.2</v>
+      </c>
+      <c r="S81" s="27">
+        <v>55.9</v>
+      </c>
+      <c r="T81" s="27">
+        <v>59.5</v>
+      </c>
+      <c r="AA81" s="27">
+        <f>N81</f>
+        <v>62.3</v>
+      </c>
+      <c r="AB81" s="27">
+        <f t="shared" si="59"/>
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:28">
+      <c r="B82" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J81" s="27">
-        <f>SUM(J68:J80)+J67</f>
+      <c r="H82" s="27">
+        <f t="shared" ref="H82:T82" si="63">SUM(H69:H81)+H68</f>
+        <v>11273.4</v>
+      </c>
+      <c r="I82" s="27">
+        <f t="shared" si="63"/>
+        <v>11062.5</v>
+      </c>
+      <c r="J82" s="27">
+        <f t="shared" si="63"/>
         <v>10572.5</v>
       </c>
-      <c r="K81" s="27">
-        <f>SUM(K68:K80)+K67</f>
+      <c r="K82" s="27">
+        <f t="shared" si="63"/>
         <v>10856.099999999999</v>
       </c>
-      <c r="L81" s="27">
-        <f>SUM(L68:L80)+L67</f>
+      <c r="L82" s="27">
+        <f t="shared" si="63"/>
         <v>10325.400000000001</v>
       </c>
-      <c r="M81" s="27">
-        <f>SUM(M68:M80)+M67</f>
+      <c r="M82" s="27">
+        <f t="shared" si="63"/>
         <v>10382.700000000001</v>
       </c>
-      <c r="N81" s="27">
-        <f>SUM(N68:N80)+N67</f>
+      <c r="N82" s="27">
+        <f t="shared" si="63"/>
         <v>10516</v>
       </c>
-      <c r="O81" s="27">
-        <f>SUM(O68:O80)+O67</f>
+      <c r="O82" s="27">
+        <f t="shared" si="63"/>
         <v>10308.1</v>
       </c>
-      <c r="P81" s="27">
-        <f>SUM(P68:P80)+P67</f>
+      <c r="P82" s="27">
+        <f t="shared" si="63"/>
         <v>10341.299999999999</v>
       </c>
-      <c r="Q81" s="27">
-        <f>SUM(Q68:Q80)+Q67</f>
+      <c r="Q82" s="27">
+        <f t="shared" si="63"/>
         <v>10382.700000000001</v>
       </c>
-      <c r="R81" s="27">
-        <f>SUM(R68:R80)+R67</f>
+      <c r="R82" s="27">
+        <f t="shared" si="63"/>
         <v>10155</v>
       </c>
-      <c r="S81" s="27">
-        <f>SUM(S68:S80)+S67</f>
+      <c r="S82" s="27">
+        <f t="shared" si="63"/>
         <v>9868.4</v>
       </c>
-      <c r="T81" s="27">
-        <f>SUM(T68:T80)+T67</f>
+      <c r="T82" s="27">
+        <f t="shared" si="63"/>
         <v>9698.7999999999993</v>
       </c>
-      <c r="AA81" s="27">
-        <f>SUM(AA68:AA80)+AA67</f>
+      <c r="AA82" s="27">
+        <f>SUM(AA69:AA81)+AA68</f>
         <v>10516</v>
       </c>
-      <c r="AB81" s="27">
-        <f>SUM(AB68:AB80)+AB67</f>
+      <c r="AB82" s="27">
+        <f>SUM(AB69:AB81)+AB68</f>
         <v>10155</v>
       </c>
     </row>
-    <row r="82" spans="2:28">
-      <c r="L82" s="27"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="27"/>
-      <c r="T82" s="27"/>
-    </row>
     <row r="83" spans="2:28">
-      <c r="B83" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J83" s="27">
-        <v>832.7</v>
-      </c>
-      <c r="K83" s="27">
-        <v>860.8</v>
-      </c>
-      <c r="L83" s="27">
-        <v>787.1</v>
-      </c>
-      <c r="M83" s="27">
-        <v>548.79999999999995</v>
-      </c>
-      <c r="N83" s="27">
-        <v>502.3</v>
-      </c>
-      <c r="O83" s="27">
-        <v>524.4</v>
-      </c>
-      <c r="P83" s="27">
-        <v>515.4</v>
-      </c>
-      <c r="Q83" s="27">
-        <v>548.79999999999995</v>
-      </c>
-      <c r="R83" s="27">
-        <v>495.2</v>
-      </c>
-      <c r="S83" s="27">
-        <v>562.70000000000005</v>
-      </c>
-      <c r="T83" s="27">
-        <v>727.4</v>
-      </c>
-      <c r="AA83" s="27">
-        <f>N83</f>
-        <v>502.3</v>
-      </c>
-      <c r="AB83" s="27">
-        <f>R83</f>
-        <v>495.2</v>
-      </c>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
     </row>
     <row r="84" spans="2:28">
       <c r="B84" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="H84" s="27">
+        <v>925.6</v>
+      </c>
+      <c r="I84" s="27">
+        <v>856.6</v>
       </c>
       <c r="J84" s="27">
-        <v>0</v>
+        <v>832.7</v>
       </c>
       <c r="K84" s="27">
-        <v>0</v>
-      </c>
-      <c r="L84" s="3">
-        <v>0</v>
+        <v>860.8</v>
+      </c>
+      <c r="L84" s="27">
+        <v>787.1</v>
       </c>
       <c r="M84" s="27">
-        <v>6.5</v>
+        <v>548.79999999999995</v>
       </c>
       <c r="N84" s="27">
-        <v>0</v>
+        <v>502.3</v>
       </c>
       <c r="O84" s="27">
-        <v>15.9</v>
+        <v>524.4</v>
       </c>
       <c r="P84" s="27">
-        <v>2</v>
+        <v>515.4</v>
       </c>
       <c r="Q84" s="27">
-        <v>6.5</v>
+        <v>548.79999999999995</v>
       </c>
       <c r="R84" s="27">
-        <v>14.8</v>
+        <v>495.2</v>
       </c>
       <c r="S84" s="27">
-        <v>14.1</v>
+        <v>562.70000000000005</v>
       </c>
       <c r="T84" s="27">
-        <v>12.3</v>
+        <v>727.4</v>
       </c>
       <c r="AA84" s="27">
-        <f t="shared" ref="AA84:AA97" si="57">N84</f>
-        <v>0</v>
+        <f>N84</f>
+        <v>502.3</v>
       </c>
       <c r="AB84" s="27">
-        <f t="shared" ref="AB84:AB97" si="58">R84</f>
-        <v>14.8</v>
+        <f>R84</f>
+        <v>495.2</v>
       </c>
     </row>
     <row r="85" spans="2:28">
       <c r="B85" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H85" s="27">
+        <v>0</v>
+      </c>
+      <c r="I85" s="27">
+        <v>0</v>
+      </c>
+      <c r="J85" s="27">
+        <v>0</v>
+      </c>
+      <c r="K85" s="27">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="N85" s="27">
+        <v>0</v>
+      </c>
+      <c r="O85" s="27">
+        <v>15.9</v>
+      </c>
+      <c r="P85" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q85" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="R85" s="27">
+        <v>14.8</v>
+      </c>
+      <c r="S85" s="27">
+        <v>14.1</v>
+      </c>
+      <c r="T85" s="27">
+        <v>12.3</v>
+      </c>
+      <c r="AA85" s="27">
+        <f t="shared" ref="AA85:AA98" si="64">N85</f>
+        <v>0</v>
+      </c>
+      <c r="AB85" s="27">
+        <f t="shared" ref="AB85:AB98" si="65">R85</f>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="86" spans="2:28">
+      <c r="B86" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J85" s="27">
+      <c r="H86" s="27">
+        <v>9.5</v>
+      </c>
+      <c r="I86" s="27">
+        <v>9.1</v>
+      </c>
+      <c r="J86" s="27">
         <v>8</v>
       </c>
-      <c r="K85" s="27">
+      <c r="K86" s="27">
         <v>9.4</v>
       </c>
-      <c r="L85" s="27">
+      <c r="L86" s="27">
         <v>9.6</v>
       </c>
-      <c r="M85" s="27">
+      <c r="M86" s="27">
         <v>11.2</v>
       </c>
-      <c r="N85" s="27">
+      <c r="N86" s="27">
         <v>11.4</v>
       </c>
-      <c r="O85" s="27">
+      <c r="O86" s="27">
         <v>11.4</v>
       </c>
-      <c r="P85" s="27">
+      <c r="P86" s="27">
         <v>10.8</v>
       </c>
-      <c r="Q85" s="27">
+      <c r="Q86" s="27">
         <v>11.2</v>
       </c>
-      <c r="R85" s="27">
+      <c r="R86" s="27">
         <v>11.5</v>
       </c>
-      <c r="S85" s="27">
+      <c r="S86" s="27">
         <v>11</v>
       </c>
-      <c r="T85" s="27">
+      <c r="T86" s="27">
         <v>11.3</v>
       </c>
-      <c r="AA85" s="27">
-        <f t="shared" si="57"/>
+      <c r="AA86" s="27">
+        <f t="shared" si="64"/>
         <v>11.4</v>
       </c>
-      <c r="AB85" s="27">
-        <f t="shared" si="58"/>
+      <c r="AB86" s="27">
+        <f t="shared" si="65"/>
         <v>11.5</v>
-      </c>
-    </row>
-    <row r="86" spans="2:28" s="2" customFormat="1">
-      <c r="B86" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J86" s="26">
-        <v>215</v>
-      </c>
-      <c r="K86" s="26">
-        <v>663</v>
-      </c>
-      <c r="L86" s="26">
-        <v>471.2</v>
-      </c>
-      <c r="M86" s="26">
-        <v>783.8</v>
-      </c>
-      <c r="N86" s="26">
-        <v>375.5</v>
-      </c>
-      <c r="O86" s="26">
-        <v>357.2</v>
-      </c>
-      <c r="P86" s="26">
-        <v>808.6</v>
-      </c>
-      <c r="Q86" s="26">
-        <v>783.8</v>
-      </c>
-      <c r="R86" s="26">
-        <v>574.20000000000005</v>
-      </c>
-      <c r="S86" s="26">
-        <v>326.8</v>
-      </c>
-      <c r="T86" s="26">
-        <v>70.2</v>
-      </c>
-      <c r="AA86" s="26">
-        <f>N86</f>
-        <v>375.5</v>
-      </c>
-      <c r="AB86" s="26">
-        <f>R86</f>
-        <v>574.20000000000005</v>
       </c>
     </row>
     <row r="87" spans="2:28" s="2" customFormat="1">
       <c r="B87" s="2" t="s">
-        <v>197</v>
+        <v>116</v>
+      </c>
+      <c r="H87" s="27">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="I87" s="26">
+        <v>275</v>
       </c>
       <c r="J87" s="26">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="K87" s="26">
-        <v>4</v>
+        <v>663</v>
       </c>
       <c r="L87" s="26">
-        <v>4.0999999999999996</v>
+        <v>471.2</v>
       </c>
       <c r="M87" s="26">
-        <v>0</v>
+        <v>783.8</v>
       </c>
       <c r="N87" s="26">
-        <v>0</v>
+        <v>375.5</v>
       </c>
       <c r="O87" s="26">
-        <v>4.2</v>
+        <v>357.2</v>
       </c>
       <c r="P87" s="26">
-        <v>0</v>
+        <v>808.6</v>
       </c>
       <c r="Q87" s="26">
-        <v>0</v>
+        <v>783.8</v>
       </c>
       <c r="R87" s="26">
-        <v>0</v>
+        <v>574.20000000000005</v>
       </c>
       <c r="S87" s="26">
-        <v>0</v>
+        <v>326.8</v>
       </c>
       <c r="T87" s="26">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="AA87" s="26">
         <f>N87</f>
-        <v>0</v>
+        <v>375.5</v>
       </c>
       <c r="AB87" s="26">
         <f>R87</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:28">
-      <c r="B88" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J88" s="27">
-        <v>289.8</v>
-      </c>
-      <c r="K88" s="27">
-        <v>250.4</v>
-      </c>
-      <c r="L88" s="27">
-        <v>234.8</v>
-      </c>
-      <c r="M88" s="27">
-        <v>283.89999999999998</v>
-      </c>
-      <c r="N88" s="27">
-        <v>249.9</v>
-      </c>
-      <c r="O88" s="27">
-        <v>235.3</v>
-      </c>
-      <c r="P88" s="27">
-        <v>251.8</v>
-      </c>
-      <c r="Q88" s="27">
-        <v>283.89999999999998</v>
-      </c>
-      <c r="R88" s="27">
-        <v>241.3</v>
-      </c>
-      <c r="S88" s="27">
-        <v>263.3</v>
-      </c>
-      <c r="T88" s="27">
-        <v>258.8</v>
-      </c>
-      <c r="AA88" s="27">
-        <f t="shared" si="57"/>
-        <v>249.9</v>
-      </c>
-      <c r="AB88" s="27">
-        <f t="shared" si="58"/>
-        <v>241.3</v>
+        <v>574.20000000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="2:28" s="2" customFormat="1">
+      <c r="B88" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H88" s="26">
+        <v>292.89999999999998</v>
+      </c>
+      <c r="I88" s="26">
+        <v>256.60000000000002</v>
+      </c>
+      <c r="J88" s="26">
+        <v>4</v>
+      </c>
+      <c r="K88" s="26">
+        <v>4</v>
+      </c>
+      <c r="L88" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M88" s="26">
+        <v>0</v>
+      </c>
+      <c r="N88" s="26">
+        <v>0</v>
+      </c>
+      <c r="O88" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="P88" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="26">
+        <v>0</v>
+      </c>
+      <c r="R88" s="26">
+        <v>0</v>
+      </c>
+      <c r="S88" s="26">
+        <v>0</v>
+      </c>
+      <c r="T88" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="26">
+        <f>N88</f>
+        <v>0</v>
+      </c>
+      <c r="AB88" s="26">
+        <f>R88</f>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:28">
       <c r="B89" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H89" s="27">
+        <v>288</v>
+      </c>
+      <c r="I89" s="27">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="J89" s="27">
+        <v>289.8</v>
+      </c>
+      <c r="K89" s="27">
+        <v>250.4</v>
+      </c>
+      <c r="L89" s="27">
+        <v>234.8</v>
+      </c>
+      <c r="M89" s="27">
+        <v>283.89999999999998</v>
+      </c>
+      <c r="N89" s="27">
+        <v>249.9</v>
+      </c>
+      <c r="O89" s="27">
+        <v>235.3</v>
+      </c>
+      <c r="P89" s="27">
+        <v>251.8</v>
+      </c>
+      <c r="Q89" s="27">
+        <v>283.89999999999998</v>
+      </c>
+      <c r="R89" s="27">
+        <v>241.3</v>
+      </c>
+      <c r="S89" s="27">
+        <v>263.3</v>
+      </c>
+      <c r="T89" s="27">
+        <v>258.8</v>
+      </c>
+      <c r="AA89" s="27">
+        <f t="shared" si="64"/>
+        <v>249.9</v>
+      </c>
+      <c r="AB89" s="27">
+        <f t="shared" si="65"/>
+        <v>241.3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:28">
+      <c r="B90" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J89" s="27">
+      <c r="H90" s="27">
+        <v>1167.9000000000001</v>
+      </c>
+      <c r="I90" s="27">
+        <v>1220</v>
+      </c>
+      <c r="J90" s="27">
         <v>1171.7</v>
       </c>
-      <c r="K89" s="27">
+      <c r="K90" s="27">
         <v>1211.5999999999999</v>
       </c>
-      <c r="L89" s="27">
+      <c r="L90" s="27">
         <v>1084.8</v>
       </c>
-      <c r="M89" s="27">
+      <c r="M90" s="27">
         <v>1041.4000000000001</v>
       </c>
-      <c r="N89" s="27">
+      <c r="N90" s="27">
         <v>1033</v>
       </c>
-      <c r="O89" s="27">
+      <c r="O90" s="27">
         <v>1016.4</v>
       </c>
-      <c r="P89" s="27">
+      <c r="P90" s="27">
         <v>991.7</v>
       </c>
-      <c r="Q89" s="27">
+      <c r="Q90" s="27">
         <v>1041.4000000000001</v>
       </c>
-      <c r="R89" s="27">
+      <c r="R90" s="27">
         <v>1204.5999999999999</v>
       </c>
-      <c r="S89" s="27">
+      <c r="S90" s="27">
         <v>1301.8</v>
       </c>
-      <c r="T89" s="27">
+      <c r="T90" s="27">
         <v>1317.8</v>
       </c>
-      <c r="AA89" s="27">
-        <f t="shared" si="57"/>
+      <c r="AA90" s="27">
+        <f t="shared" si="64"/>
         <v>1033</v>
       </c>
-      <c r="AB89" s="27">
-        <f t="shared" si="58"/>
+      <c r="AB90" s="27">
+        <f t="shared" si="65"/>
         <v>1204.5999999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:28" s="2" customFormat="1">
-      <c r="B90" s="2" t="s">
+    <row r="91" spans="2:28" s="2" customFormat="1">
+      <c r="B91" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J90" s="26">
+      <c r="H91" s="26">
+        <v>2</v>
+      </c>
+      <c r="I91" s="26">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J91" s="26">
         <v>4.5</v>
       </c>
-      <c r="K90" s="26">
+      <c r="K91" s="26">
         <v>13.6</v>
       </c>
-      <c r="L90" s="26">
+      <c r="L91" s="26">
         <v>11.4</v>
       </c>
-      <c r="M90" s="26">
+      <c r="M91" s="26">
         <v>2.8</v>
       </c>
-      <c r="N90" s="26">
+      <c r="N91" s="26">
         <v>1.2</v>
       </c>
-      <c r="O90" s="26">
+      <c r="O91" s="26">
         <v>1.9</v>
       </c>
-      <c r="P90" s="26">
+      <c r="P91" s="26">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q90" s="26">
+      <c r="Q91" s="26">
         <v>2.8</v>
       </c>
-      <c r="R90" s="26">
+      <c r="R91" s="26">
         <v>2.9</v>
       </c>
-      <c r="S90" s="26">
+      <c r="S91" s="26">
         <v>3.2</v>
       </c>
-      <c r="T90" s="26">
+      <c r="T91" s="26">
         <v>11</v>
       </c>
-      <c r="AA90" s="26">
-        <f>N90</f>
+      <c r="AA91" s="26">
+        <f>N91</f>
         <v>1.2</v>
       </c>
-      <c r="AB90" s="26">
-        <f>R90</f>
+      <c r="AB91" s="26">
+        <f>R91</f>
         <v>2.9</v>
-      </c>
-    </row>
-    <row r="91" spans="2:28">
-      <c r="B91" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J91" s="27">
-        <v>63.8</v>
-      </c>
-      <c r="K91" s="27">
-        <v>70.7</v>
-      </c>
-      <c r="L91" s="27">
-        <v>81.2</v>
-      </c>
-      <c r="M91" s="27">
-        <v>38</v>
-      </c>
-      <c r="N91" s="27">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="O91" s="27">
-        <v>60.9</v>
-      </c>
-      <c r="P91" s="27">
-        <v>44.3</v>
-      </c>
-      <c r="Q91" s="27">
-        <v>38</v>
-      </c>
-      <c r="R91" s="27">
-        <v>40.4</v>
-      </c>
-      <c r="S91" s="27">
-        <v>38</v>
-      </c>
-      <c r="T91" s="27">
-        <v>37.1</v>
-      </c>
-      <c r="AA91" s="27">
-        <f t="shared" si="57"/>
-        <v>71.900000000000006</v>
-      </c>
-      <c r="AB91" s="27">
-        <f t="shared" si="58"/>
-        <v>40.4</v>
       </c>
     </row>
     <row r="92" spans="2:28">
       <c r="B92" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="H92" s="27">
+        <v>73.3</v>
+      </c>
+      <c r="I92" s="27">
+        <v>70.400000000000006</v>
       </c>
       <c r="J92" s="27">
-        <v>97.5</v>
+        <v>63.8</v>
       </c>
       <c r="K92" s="27">
-        <v>139.5</v>
+        <v>70.7</v>
       </c>
       <c r="L92" s="27">
-        <v>101.8</v>
+        <v>81.2</v>
       </c>
       <c r="M92" s="27">
-        <v>85.3</v>
+        <v>38</v>
       </c>
       <c r="N92" s="27">
-        <v>40.700000000000003</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="O92" s="27">
-        <v>47.2</v>
+        <v>60.9</v>
       </c>
       <c r="P92" s="27">
-        <v>73.5</v>
+        <v>44.3</v>
       </c>
       <c r="Q92" s="27">
-        <v>85.3</v>
+        <v>38</v>
       </c>
       <c r="R92" s="27">
-        <v>71.599999999999994</v>
+        <v>40.4</v>
       </c>
       <c r="S92" s="27">
-        <v>71.400000000000006</v>
+        <v>38</v>
       </c>
       <c r="T92" s="27">
-        <v>79.8</v>
+        <v>37.1</v>
       </c>
       <c r="AA92" s="27">
-        <f t="shared" si="57"/>
-        <v>40.700000000000003</v>
+        <f t="shared" si="64"/>
+        <v>71.900000000000006</v>
       </c>
       <c r="AB92" s="27">
-        <f t="shared" si="58"/>
-        <v>71.599999999999994</v>
+        <f t="shared" si="65"/>
+        <v>40.4</v>
       </c>
     </row>
     <row r="93" spans="2:28">
       <c r="B93" s="3" t="s">
-        <v>187</v>
+        <v>111</v>
+      </c>
+      <c r="H93" s="27">
+        <v>30.9</v>
+      </c>
+      <c r="I93" s="27">
+        <v>37.200000000000003</v>
       </c>
       <c r="J93" s="27">
-        <v>30.7</v>
+        <v>97.5</v>
       </c>
       <c r="K93" s="27">
-        <v>35.200000000000003</v>
+        <v>139.5</v>
       </c>
       <c r="L93" s="27">
-        <v>51.7</v>
+        <v>101.8</v>
       </c>
       <c r="M93" s="27">
-        <v>34.1</v>
+        <v>85.3</v>
       </c>
       <c r="N93" s="27">
-        <v>42.6</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="O93" s="27">
-        <v>38.799999999999997</v>
+        <v>47.2</v>
       </c>
       <c r="P93" s="27">
-        <v>38.700000000000003</v>
+        <v>73.5</v>
       </c>
       <c r="Q93" s="27">
-        <v>34.1</v>
+        <v>85.3</v>
       </c>
       <c r="R93" s="27">
-        <v>15.8</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="S93" s="27">
-        <v>0</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="T93" s="27">
-        <v>0</v>
+        <v>79.8</v>
       </c>
       <c r="AA93" s="27">
-        <f t="shared" si="57"/>
-        <v>42.6</v>
+        <f t="shared" si="64"/>
+        <v>40.700000000000003</v>
       </c>
       <c r="AB93" s="27">
-        <f t="shared" si="58"/>
-        <v>15.8</v>
+        <f t="shared" si="65"/>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="94" spans="2:28">
       <c r="B94" s="3" t="s">
-        <v>112</v>
+        <v>187</v>
+      </c>
+      <c r="H94" s="27">
+        <v>21.9</v>
+      </c>
+      <c r="I94" s="27">
+        <v>21.2</v>
       </c>
       <c r="J94" s="27">
-        <v>2</v>
+        <v>30.7</v>
       </c>
       <c r="K94" s="27">
-        <v>2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="L94" s="27">
-        <v>2.5</v>
+        <v>51.7</v>
       </c>
       <c r="M94" s="27">
-        <v>2.5</v>
+        <v>34.1</v>
       </c>
       <c r="N94" s="27">
-        <v>0.5</v>
+        <v>42.6</v>
       </c>
       <c r="O94" s="27">
-        <v>0</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="P94" s="27">
-        <v>2.5</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="Q94" s="27">
-        <v>2.5</v>
+        <v>34.1</v>
       </c>
       <c r="R94" s="27">
-        <v>2.5</v>
+        <v>15.8</v>
       </c>
       <c r="S94" s="27">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="T94" s="27">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AA94" s="27">
-        <f t="shared" si="57"/>
-        <v>0.5</v>
+        <f t="shared" si="64"/>
+        <v>42.6</v>
       </c>
       <c r="AB94" s="27">
-        <f t="shared" si="58"/>
-        <v>2.5</v>
+        <f t="shared" si="65"/>
+        <v>15.8</v>
       </c>
     </row>
     <row r="95" spans="2:28">
       <c r="B95" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="H95" s="27">
+        <v>2</v>
+      </c>
+      <c r="I95" s="27">
+        <v>2</v>
       </c>
       <c r="J95" s="27">
-        <v>117.3</v>
+        <v>2</v>
       </c>
       <c r="K95" s="27">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="L95" s="27">
-        <v>96.8</v>
+        <v>2.5</v>
       </c>
       <c r="M95" s="27">
-        <v>114.1</v>
+        <v>2.5</v>
       </c>
       <c r="N95" s="27">
-        <v>98.5</v>
+        <v>0.5</v>
       </c>
       <c r="O95" s="27">
-        <v>95.6</v>
+        <v>0</v>
       </c>
       <c r="P95" s="27">
-        <v>113.54</v>
+        <v>2.5</v>
       </c>
       <c r="Q95" s="27">
-        <v>114.1</v>
+        <v>2.5</v>
       </c>
       <c r="R95" s="27">
-        <v>108.9</v>
+        <v>2.5</v>
       </c>
       <c r="S95" s="27">
-        <v>113.8</v>
+        <v>2.8</v>
       </c>
       <c r="T95" s="27">
-        <v>111.8</v>
+        <v>2.6</v>
       </c>
       <c r="AA95" s="27">
-        <f t="shared" si="57"/>
-        <v>98.5</v>
+        <f t="shared" si="64"/>
+        <v>0.5</v>
       </c>
       <c r="AB95" s="27">
-        <f t="shared" si="58"/>
-        <v>108.9</v>
+        <f t="shared" si="65"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="96" spans="2:28">
       <c r="B96" s="3" t="s">
-        <v>186</v>
+        <v>113</v>
+      </c>
+      <c r="H96" s="27">
+        <v>123</v>
+      </c>
+      <c r="I96" s="27">
+        <v>128.19999999999999</v>
       </c>
       <c r="J96" s="27">
-        <v>1.4</v>
+        <v>117.3</v>
       </c>
       <c r="K96" s="27">
-        <v>1.1000000000000001</v>
+        <v>103</v>
       </c>
       <c r="L96" s="27">
-        <v>1</v>
+        <v>96.8</v>
       </c>
       <c r="M96" s="27">
-        <v>1.2</v>
+        <v>114.1</v>
       </c>
       <c r="N96" s="27">
-        <v>1.2</v>
+        <v>98.5</v>
       </c>
       <c r="O96" s="27">
-        <v>1</v>
+        <v>95.6</v>
       </c>
       <c r="P96" s="27">
-        <v>1.1000000000000001</v>
+        <v>113.54</v>
       </c>
       <c r="Q96" s="27">
-        <v>1.2</v>
+        <v>114.1</v>
       </c>
       <c r="R96" s="27">
-        <v>0</v>
+        <v>108.9</v>
       </c>
       <c r="S96" s="27">
-        <v>0</v>
+        <v>113.8</v>
       </c>
       <c r="T96" s="27">
-        <v>0</v>
+        <v>111.8</v>
       </c>
       <c r="AA96" s="27">
-        <f t="shared" si="57"/>
-        <v>1.2</v>
+        <f t="shared" si="64"/>
+        <v>98.5</v>
       </c>
       <c r="AB96" s="27">
-        <f t="shared" si="58"/>
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>108.9</v>
       </c>
     </row>
     <row r="97" spans="2:28">
       <c r="B97" s="3" t="s">
-        <v>114</v>
+        <v>186</v>
+      </c>
+      <c r="H97" s="27">
+        <v>2</v>
+      </c>
+      <c r="I97" s="27">
+        <v>1.4</v>
       </c>
       <c r="J97" s="27">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="K97" s="27">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L97" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" s="27">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="N97" s="27">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="O97" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97" s="27">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q97" s="27">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R97" s="27">
-        <v>45.1</v>
-      </c>
-      <c r="S97" s="3">
-        <v>47.4</v>
+        <v>0</v>
+      </c>
+      <c r="S97" s="27">
+        <v>0</v>
       </c>
       <c r="T97" s="27">
         <v>0</v>
       </c>
       <c r="AA97" s="27">
-        <f t="shared" si="57"/>
-        <v>0</v>
+        <f t="shared" si="64"/>
+        <v>1.2</v>
       </c>
       <c r="AB97" s="27">
-        <f t="shared" si="58"/>
-        <v>45.1</v>
+        <f t="shared" si="65"/>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:28">
       <c r="B98" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="H98" s="27">
+        <v>0</v>
+      </c>
+      <c r="I98" s="27">
+        <v>0</v>
       </c>
       <c r="J98" s="27">
-        <f>SUM(J83:J97)</f>
-        <v>2838.4</v>
+        <v>0</v>
       </c>
       <c r="K98" s="27">
-        <f>SUM(K83:K97)</f>
-        <v>3364.2999999999993</v>
+        <v>0</v>
       </c>
       <c r="L98" s="27">
-        <f>SUM(L83:L97)</f>
-        <v>2938</v>
+        <v>0</v>
       </c>
       <c r="M98" s="27">
-        <f>SUM(M83:M97)</f>
-        <v>2953.6</v>
+        <v>0</v>
       </c>
       <c r="N98" s="27">
-        <f>SUM(N83:N97)</f>
-        <v>2428.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="O98" s="27">
-        <f>SUM(O83:O97)</f>
-        <v>2410.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="P98" s="27">
-        <f>SUM(P83:P97)</f>
-        <v>2856.2400000000002</v>
+        <v>0</v>
       </c>
       <c r="Q98" s="27">
-        <f>SUM(Q83:Q97)</f>
-        <v>2953.6</v>
+        <v>0</v>
       </c>
       <c r="R98" s="27">
-        <f>SUM(R83:R97)</f>
-        <v>2828.8</v>
-      </c>
-      <c r="S98" s="27">
-        <f>SUM(S83:S97)</f>
-        <v>2756.3</v>
+        <v>45.1</v>
+      </c>
+      <c r="S98" s="3">
+        <v>47.4</v>
       </c>
       <c r="T98" s="27">
-        <f>SUM(T83:T97)</f>
-        <v>2640.1000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA98" s="27">
-        <f>SUM(AA83:AA97)</f>
-        <v>2428.6999999999998</v>
+        <f t="shared" si="64"/>
+        <v>0</v>
       </c>
       <c r="AB98" s="27">
-        <f>SUM(AB83:AB97)</f>
-        <v>2828.8</v>
+        <f t="shared" si="65"/>
+        <v>45.1</v>
       </c>
     </row>
     <row r="99" spans="2:28">
       <c r="B99" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H99" s="27">
+        <f t="shared" ref="H99:T99" si="66">SUM(H84:H98)</f>
+        <v>3235.1000000000004</v>
+      </c>
+      <c r="I99" s="27">
+        <f t="shared" si="66"/>
+        <v>3200.8999999999996</v>
+      </c>
+      <c r="J99" s="27">
+        <f t="shared" si="66"/>
+        <v>2838.4</v>
+      </c>
+      <c r="K99" s="27">
+        <f t="shared" si="66"/>
+        <v>3364.2999999999993</v>
+      </c>
+      <c r="L99" s="27">
+        <f t="shared" si="66"/>
+        <v>2938</v>
+      </c>
+      <c r="M99" s="27">
+        <f t="shared" si="66"/>
+        <v>2953.6</v>
+      </c>
+      <c r="N99" s="27">
+        <f t="shared" si="66"/>
+        <v>2428.6999999999998</v>
+      </c>
+      <c r="O99" s="27">
+        <f t="shared" si="66"/>
+        <v>2410.1999999999998</v>
+      </c>
+      <c r="P99" s="27">
+        <f t="shared" si="66"/>
+        <v>2856.2400000000002</v>
+      </c>
+      <c r="Q99" s="27">
+        <f t="shared" si="66"/>
+        <v>2953.6</v>
+      </c>
+      <c r="R99" s="27">
+        <f t="shared" si="66"/>
+        <v>2828.8</v>
+      </c>
+      <c r="S99" s="27">
+        <f t="shared" si="66"/>
+        <v>2756.3</v>
+      </c>
+      <c r="T99" s="27">
+        <f t="shared" si="66"/>
+        <v>2640.1000000000004</v>
+      </c>
+      <c r="AA99" s="27">
+        <f>SUM(AA84:AA98)</f>
+        <v>2428.6999999999998</v>
+      </c>
+      <c r="AB99" s="27">
+        <f>SUM(AB84:AB98)</f>
+        <v>2828.8</v>
+      </c>
+    </row>
+    <row r="100" spans="2:28">
+      <c r="B100" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J99" s="27">
+      <c r="H100" s="27">
+        <v>40.4</v>
+      </c>
+      <c r="I100" s="27">
+        <v>37.6</v>
+      </c>
+      <c r="J100" s="27">
         <v>39.9</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K100" s="3">
         <v>54.9</v>
       </c>
-      <c r="L99" s="27">
+      <c r="L100" s="27">
         <v>53.3</v>
       </c>
-      <c r="M99" s="27">
+      <c r="M100" s="27">
         <v>52.9</v>
       </c>
-      <c r="N99" s="27">
+      <c r="N100" s="27">
         <v>53.3</v>
       </c>
-      <c r="O99" s="27">
+      <c r="O100" s="27">
         <v>50.6</v>
       </c>
-      <c r="P99" s="27">
+      <c r="P100" s="27">
         <v>48.2</v>
       </c>
-      <c r="Q99" s="27">
+      <c r="Q100" s="27">
         <v>52.9</v>
       </c>
-      <c r="R99" s="27">
+      <c r="R100" s="27">
         <v>52.3</v>
       </c>
-      <c r="S99" s="27">
+      <c r="S100" s="27">
         <v>49</v>
       </c>
-      <c r="T99" s="27">
+      <c r="T100" s="27">
         <v>52.6</v>
       </c>
-      <c r="AA99" s="27">
-        <f>N99</f>
+      <c r="AA100" s="27">
+        <f>N100</f>
         <v>53.3</v>
       </c>
-      <c r="AB99" s="27">
-        <f>R99</f>
+      <c r="AB100" s="27">
+        <f>R100</f>
         <v>52.3</v>
-      </c>
-    </row>
-    <row r="100" spans="2:28" s="2" customFormat="1">
-      <c r="B100" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J100" s="26">
-        <v>3177.3</v>
-      </c>
-      <c r="K100" s="26">
-        <v>3169.2</v>
-      </c>
-      <c r="L100" s="26">
-        <v>3328</v>
-      </c>
-      <c r="M100" s="26">
-        <v>3523.5</v>
-      </c>
-      <c r="N100" s="26">
-        <v>4072.5</v>
-      </c>
-      <c r="O100" s="26">
-        <v>4008.3</v>
-      </c>
-      <c r="P100" s="26">
-        <v>3523.2</v>
-      </c>
-      <c r="Q100" s="26">
-        <v>3523.5</v>
-      </c>
-      <c r="R100" s="26">
-        <v>3452.7</v>
-      </c>
-      <c r="S100" s="26">
-        <v>3229</v>
-      </c>
-      <c r="T100" s="26">
-        <v>3092.7</v>
-      </c>
-      <c r="AA100" s="26">
-        <f>N100</f>
-        <v>4072.5</v>
-      </c>
-      <c r="AB100" s="26">
-        <f>R100</f>
-        <v>3452.7</v>
       </c>
     </row>
     <row r="101" spans="2:28" s="2" customFormat="1">
       <c r="B101" s="2" t="s">
-        <v>197</v>
+        <v>116</v>
+      </c>
+      <c r="H101" s="26">
+        <v>3273</v>
+      </c>
+      <c r="I101" s="26">
+        <v>3247.6</v>
       </c>
       <c r="J101" s="26">
-        <v>13.6</v>
+        <v>3177.3</v>
       </c>
       <c r="K101" s="26">
-        <v>12.4</v>
+        <v>3169.2</v>
       </c>
       <c r="L101" s="26">
-        <v>11.7</v>
+        <v>3328</v>
       </c>
       <c r="M101" s="26">
-        <v>0</v>
+        <v>3523.5</v>
       </c>
       <c r="N101" s="26">
-        <v>0</v>
+        <v>4072.5</v>
       </c>
       <c r="O101" s="26">
-        <v>8.4</v>
+        <v>4008.3</v>
       </c>
       <c r="P101" s="26">
-        <v>0</v>
+        <v>3523.2</v>
       </c>
       <c r="Q101" s="26">
-        <v>0</v>
+        <v>3523.5</v>
       </c>
       <c r="R101" s="26">
-        <v>0</v>
+        <v>3452.7</v>
       </c>
       <c r="S101" s="26">
-        <v>0</v>
+        <v>3229</v>
       </c>
       <c r="T101" s="26">
-        <v>0</v>
+        <v>3092.7</v>
       </c>
       <c r="AA101" s="26">
         <f>N101</f>
-        <v>0</v>
+        <v>4072.5</v>
       </c>
       <c r="AB101" s="26">
         <f>R101</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:28">
-      <c r="B102" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J102" s="27">
-        <v>18</v>
-      </c>
-      <c r="K102" s="27">
-        <v>8</v>
-      </c>
-      <c r="L102" s="27">
-        <v>6</v>
-      </c>
-      <c r="M102" s="27">
-        <v>39.6</v>
-      </c>
-      <c r="N102" s="27">
-        <v>42.3</v>
-      </c>
-      <c r="O102" s="27">
-        <v>34.9</v>
-      </c>
-      <c r="P102" s="27">
-        <v>44.9</v>
-      </c>
-      <c r="Q102" s="27">
-        <v>39.6</v>
-      </c>
-      <c r="R102" s="27">
-        <v>57.6</v>
-      </c>
-      <c r="S102" s="27">
-        <v>53.8</v>
-      </c>
-      <c r="T102" s="27">
-        <v>55.1</v>
-      </c>
-      <c r="AA102" s="27">
-        <f t="shared" ref="AA102:AA109" si="59">N102</f>
-        <v>42.3</v>
-      </c>
-      <c r="AB102" s="27">
-        <f t="shared" ref="AB102:AB109" si="60">R102</f>
-        <v>57.6</v>
+        <v>3452.7</v>
+      </c>
+    </row>
+    <row r="102" spans="2:28" s="2" customFormat="1">
+      <c r="B102" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H102" s="26">
+        <v>15.5</v>
+      </c>
+      <c r="I102" s="26">
+        <v>14.3</v>
+      </c>
+      <c r="J102" s="26">
+        <v>13.6</v>
+      </c>
+      <c r="K102" s="26">
+        <v>12.4</v>
+      </c>
+      <c r="L102" s="26">
+        <v>11.7</v>
+      </c>
+      <c r="M102" s="26">
+        <v>0</v>
+      </c>
+      <c r="N102" s="26">
+        <v>0</v>
+      </c>
+      <c r="O102" s="26">
+        <v>8.4</v>
+      </c>
+      <c r="P102" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="26">
+        <v>0</v>
+      </c>
+      <c r="R102" s="26">
+        <v>0</v>
+      </c>
+      <c r="S102" s="26">
+        <v>0</v>
+      </c>
+      <c r="T102" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="26">
+        <f>N102</f>
+        <v>0</v>
+      </c>
+      <c r="AB102" s="26">
+        <f>R102</f>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:28">
       <c r="B103" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="H103" s="27">
+        <v>24.7</v>
+      </c>
+      <c r="I103" s="27">
+        <v>23.1</v>
       </c>
       <c r="J103" s="27">
-        <v>257.8</v>
+        <v>18</v>
       </c>
       <c r="K103" s="27">
-        <v>190.5</v>
+        <v>8</v>
       </c>
       <c r="L103" s="27">
-        <v>239.1</v>
+        <v>6</v>
       </c>
       <c r="M103" s="27">
-        <v>324.8</v>
+        <v>39.6</v>
       </c>
       <c r="N103" s="27">
-        <v>262.39999999999998</v>
+        <v>42.3</v>
       </c>
       <c r="O103" s="27">
-        <v>254.2</v>
+        <v>34.9</v>
       </c>
       <c r="P103" s="27">
-        <v>267.5</v>
+        <v>44.9</v>
       </c>
       <c r="Q103" s="27">
-        <v>324.8</v>
+        <v>39.6</v>
       </c>
       <c r="R103" s="27">
-        <v>308.7</v>
+        <v>57.6</v>
       </c>
       <c r="S103" s="27">
-        <v>454.8</v>
+        <v>53.8</v>
       </c>
       <c r="T103" s="27">
-        <v>478.5</v>
+        <v>55.1</v>
       </c>
       <c r="AA103" s="27">
-        <f t="shared" si="59"/>
-        <v>262.39999999999998</v>
+        <f t="shared" ref="AA103:AA110" si="67">N103</f>
+        <v>42.3</v>
       </c>
       <c r="AB103" s="27">
-        <f t="shared" si="60"/>
-        <v>308.7</v>
+        <f t="shared" ref="AB103:AB110" si="68">R103</f>
+        <v>57.6</v>
       </c>
     </row>
     <row r="104" spans="2:28">
       <c r="B104" s="3" t="s">
-        <v>92</v>
+        <v>109</v>
+      </c>
+      <c r="H104" s="27">
+        <v>179</v>
+      </c>
+      <c r="I104" s="27">
+        <v>158.5</v>
       </c>
       <c r="J104" s="27">
-        <v>0</v>
+        <v>257.8</v>
       </c>
       <c r="K104" s="27">
-        <v>0</v>
+        <v>190.5</v>
       </c>
       <c r="L104" s="27">
-        <v>12.7</v>
+        <v>239.1</v>
       </c>
       <c r="M104" s="27">
-        <v>3.6</v>
+        <v>324.8</v>
       </c>
       <c r="N104" s="27">
-        <v>8.6999999999999993</v>
+        <v>262.39999999999998</v>
       </c>
       <c r="O104" s="27">
-        <v>7.4</v>
+        <v>254.2</v>
       </c>
       <c r="P104" s="27">
-        <v>4.7</v>
+        <v>267.5</v>
       </c>
       <c r="Q104" s="27">
-        <v>3.6</v>
+        <v>324.8</v>
       </c>
       <c r="R104" s="27">
-        <v>3</v>
+        <v>308.7</v>
       </c>
       <c r="S104" s="27">
-        <v>0</v>
+        <v>454.8</v>
       </c>
       <c r="T104" s="27">
-        <v>0</v>
+        <v>478.5</v>
       </c>
       <c r="AA104" s="27">
-        <f t="shared" si="59"/>
-        <v>8.6999999999999993</v>
+        <f t="shared" si="67"/>
+        <v>262.39999999999998</v>
       </c>
       <c r="AB104" s="27">
-        <f t="shared" si="60"/>
-        <v>3</v>
+        <f t="shared" si="68"/>
+        <v>308.7</v>
       </c>
     </row>
     <row r="105" spans="2:28">
       <c r="B105" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
+      </c>
+      <c r="H105" s="27">
+        <v>3</v>
+      </c>
+      <c r="I105" s="27">
+        <v>5.2</v>
       </c>
       <c r="J105" s="27">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="K105" s="27">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L105" s="27">
-        <v>10.6</v>
+        <v>12.7</v>
       </c>
       <c r="M105" s="27">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="N105" s="27">
-        <v>11.8</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="O105" s="27">
-        <v>10.8</v>
+        <v>7.4</v>
       </c>
       <c r="P105" s="27">
-        <v>12.4</v>
+        <v>4.7</v>
       </c>
       <c r="Q105" s="27">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="R105" s="27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S105" s="27">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T105" s="27">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="AA105" s="27">
-        <f t="shared" si="59"/>
-        <v>11.8</v>
+        <f t="shared" si="67"/>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AB105" s="27">
-        <f t="shared" si="60"/>
-        <v>10</v>
+        <f t="shared" si="68"/>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="2:28">
       <c r="B106" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="H106" s="27">
+        <v>61.5</v>
+      </c>
+      <c r="I106" s="27">
+        <v>12.5</v>
       </c>
       <c r="J106" s="27">
-        <v>301</v>
+        <v>13.4</v>
       </c>
       <c r="K106" s="27">
-        <v>492.1</v>
+        <v>11</v>
       </c>
       <c r="L106" s="27">
-        <v>508.6</v>
+        <v>10.6</v>
       </c>
       <c r="M106" s="27">
-        <v>428.6</v>
+        <v>10</v>
       </c>
       <c r="N106" s="27">
-        <v>474.7</v>
+        <v>11.8</v>
       </c>
       <c r="O106" s="27">
-        <v>488.7</v>
+        <v>10.8</v>
       </c>
       <c r="P106" s="27">
-        <v>444.8</v>
+        <v>12.4</v>
       </c>
       <c r="Q106" s="27">
-        <v>428.6</v>
+        <v>10</v>
       </c>
       <c r="R106" s="27">
-        <v>505.8</v>
+        <v>10</v>
       </c>
       <c r="S106" s="27">
-        <v>376.1</v>
+        <v>13</v>
       </c>
       <c r="T106" s="27">
-        <v>334.4</v>
+        <v>12.1</v>
       </c>
       <c r="AA106" s="27">
-        <f t="shared" si="59"/>
-        <v>474.7</v>
+        <f t="shared" si="67"/>
+        <v>11.8</v>
       </c>
       <c r="AB106" s="27">
-        <f t="shared" si="60"/>
-        <v>505.8</v>
+        <f t="shared" si="68"/>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="2:28">
       <c r="B107" s="3" t="s">
-        <v>187</v>
+        <v>117</v>
+      </c>
+      <c r="H107" s="27">
+        <v>214.2</v>
+      </c>
+      <c r="I107" s="27">
+        <v>242.7</v>
       </c>
       <c r="J107" s="27">
-        <v>109.6</v>
+        <v>301</v>
       </c>
       <c r="K107" s="27">
-        <v>99.4</v>
+        <v>492.1</v>
       </c>
       <c r="L107" s="27">
-        <v>69.2</v>
+        <v>508.6</v>
       </c>
       <c r="M107" s="27">
-        <v>63.1</v>
+        <v>428.6</v>
       </c>
       <c r="N107" s="27">
-        <v>82.6</v>
+        <v>474.7</v>
       </c>
       <c r="O107" s="27">
-        <v>78.599999999999994</v>
+        <v>488.7</v>
       </c>
       <c r="P107" s="27">
-        <v>73.8</v>
+        <v>444.8</v>
       </c>
       <c r="Q107" s="27">
-        <v>63.1</v>
+        <v>428.6</v>
       </c>
       <c r="R107" s="27">
-        <v>2.9</v>
+        <v>505.8</v>
       </c>
       <c r="S107" s="27">
-        <v>0</v>
+        <v>376.1</v>
       </c>
       <c r="T107" s="27">
-        <v>0</v>
+        <v>334.4</v>
       </c>
       <c r="AA107" s="27">
-        <f t="shared" si="59"/>
-        <v>82.6</v>
+        <f t="shared" si="67"/>
+        <v>474.7</v>
       </c>
       <c r="AB107" s="27">
-        <f t="shared" si="60"/>
-        <v>2.9</v>
+        <f t="shared" si="68"/>
+        <v>505.8</v>
       </c>
     </row>
     <row r="108" spans="2:28">
       <c r="B108" s="3" t="s">
-        <v>112</v>
+        <v>187</v>
+      </c>
+      <c r="H108" s="27">
+        <v>123</v>
+      </c>
+      <c r="I108" s="27">
+        <v>129.69999999999999</v>
       </c>
       <c r="J108" s="27">
-        <v>63.7</v>
+        <v>109.6</v>
       </c>
       <c r="K108" s="27">
-        <v>61.2</v>
+        <v>99.4</v>
       </c>
       <c r="L108" s="27">
-        <v>60.1</v>
+        <v>69.2</v>
       </c>
       <c r="M108" s="27">
-        <v>66.400000000000006</v>
+        <v>63.1</v>
       </c>
       <c r="N108" s="27">
-        <v>57.3</v>
+        <v>82.6</v>
       </c>
       <c r="O108" s="27">
-        <v>56.5</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="P108" s="27">
-        <v>67.599999999999994</v>
+        <v>73.8</v>
       </c>
       <c r="Q108" s="27">
-        <v>66.400000000000006</v>
+        <v>63.1</v>
       </c>
       <c r="R108" s="27">
-        <v>37.700000000000003</v>
+        <v>2.9</v>
       </c>
       <c r="S108" s="27">
-        <v>37.6</v>
+        <v>0</v>
       </c>
       <c r="T108" s="27">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="AA108" s="27">
-        <f t="shared" si="59"/>
-        <v>57.3</v>
+        <f t="shared" si="67"/>
+        <v>82.6</v>
       </c>
       <c r="AB108" s="27">
-        <f t="shared" si="60"/>
-        <v>37.700000000000003</v>
+        <f t="shared" si="68"/>
+        <v>2.9</v>
       </c>
     </row>
     <row r="109" spans="2:28">
       <c r="B109" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="H109" s="27">
+        <v>68.2</v>
+      </c>
+      <c r="I109" s="27">
+        <v>65.2</v>
       </c>
       <c r="J109" s="27">
-        <v>125.2</v>
+        <v>63.7</v>
       </c>
       <c r="K109" s="27">
-        <v>108.7</v>
+        <v>61.2</v>
       </c>
       <c r="L109" s="27">
-        <v>107.8</v>
+        <v>60.1</v>
       </c>
       <c r="M109" s="27">
-        <v>108.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="N109" s="27">
-        <v>114.2</v>
+        <v>57.3</v>
       </c>
       <c r="O109" s="27">
-        <v>105.1</v>
+        <v>56.5</v>
       </c>
       <c r="P109" s="27">
-        <v>112.3</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="Q109" s="27">
-        <v>108.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="R109" s="27">
-        <v>120.5</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="S109" s="27">
-        <v>141.9</v>
+        <v>37.6</v>
       </c>
       <c r="T109" s="27">
-        <v>133.4</v>
+        <v>27.2</v>
       </c>
       <c r="AA109" s="27">
-        <f t="shared" si="59"/>
-        <v>114.2</v>
+        <f t="shared" si="67"/>
+        <v>57.3</v>
       </c>
       <c r="AB109" s="27">
-        <f t="shared" si="60"/>
-        <v>120.5</v>
+        <f t="shared" si="68"/>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="110" spans="2:28">
       <c r="B110" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H110" s="27">
+        <v>125.7</v>
+      </c>
+      <c r="I110" s="27">
+        <v>122.9</v>
+      </c>
+      <c r="J110" s="27">
+        <v>125.2</v>
+      </c>
+      <c r="K110" s="27">
+        <v>108.7</v>
+      </c>
+      <c r="L110" s="27">
+        <v>107.8</v>
+      </c>
+      <c r="M110" s="27">
+        <v>108.4</v>
+      </c>
+      <c r="N110" s="27">
+        <v>114.2</v>
+      </c>
+      <c r="O110" s="27">
+        <v>105.1</v>
+      </c>
+      <c r="P110" s="27">
+        <v>112.3</v>
+      </c>
+      <c r="Q110" s="27">
+        <v>108.4</v>
+      </c>
+      <c r="R110" s="27">
+        <v>120.5</v>
+      </c>
+      <c r="S110" s="27">
+        <v>141.9</v>
+      </c>
+      <c r="T110" s="27">
+        <v>133.4</v>
+      </c>
+      <c r="AA110" s="27">
+        <f t="shared" si="67"/>
+        <v>114.2</v>
+      </c>
+      <c r="AB110" s="27">
+        <f t="shared" si="68"/>
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="111" spans="2:28">
+      <c r="B111" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J110" s="27">
-        <f>SUM(J99:J109)+J98</f>
+      <c r="H111" s="27">
+        <f t="shared" ref="H111:T111" si="69">SUM(H100:H110)+H99</f>
+        <v>7363.3</v>
+      </c>
+      <c r="I111" s="27">
+        <f t="shared" si="69"/>
+        <v>7260.1999999999989</v>
+      </c>
+      <c r="J111" s="27">
+        <f t="shared" si="69"/>
         <v>6957.9</v>
       </c>
-      <c r="K110" s="27">
-        <f>SUM(K99:K109)+K98</f>
+      <c r="K111" s="27">
+        <f t="shared" si="69"/>
         <v>7571.6999999999989</v>
       </c>
-      <c r="L110" s="27">
-        <f>SUM(L99:L109)+L98</f>
+      <c r="L111" s="27">
+        <f t="shared" si="69"/>
         <v>7345.1</v>
       </c>
-      <c r="M110" s="27">
-        <f>SUM(M99:M109)+M98</f>
+      <c r="M111" s="27">
+        <f t="shared" si="69"/>
         <v>7574.5</v>
       </c>
-      <c r="N110" s="27">
-        <f>SUM(N99:N109)+N98</f>
+      <c r="N111" s="27">
+        <f t="shared" si="69"/>
         <v>7608.5</v>
       </c>
-      <c r="O110" s="27">
-        <f>SUM(O99:O109)+O98</f>
+      <c r="O111" s="27">
+        <f t="shared" si="69"/>
         <v>7513.7</v>
       </c>
-      <c r="P110" s="27">
-        <f>SUM(P99:P109)+P98</f>
+      <c r="P111" s="27">
+        <f t="shared" si="69"/>
         <v>7455.6400000000012</v>
       </c>
-      <c r="Q110" s="27">
-        <f>SUM(Q99:Q109)+Q98</f>
+      <c r="Q111" s="27">
+        <f t="shared" si="69"/>
         <v>7574.5</v>
       </c>
-      <c r="R110" s="27">
-        <f>SUM(R99:R109)+R98</f>
+      <c r="R111" s="27">
+        <f t="shared" si="69"/>
         <v>7379.9999999999991</v>
       </c>
-      <c r="S110" s="27">
-        <f>SUM(S99:S109)+S98</f>
+      <c r="S111" s="27">
+        <f t="shared" si="69"/>
         <v>7111.5000000000009</v>
       </c>
-      <c r="T110" s="27">
-        <f>SUM(T99:T109)+T98</f>
+      <c r="T111" s="27">
+        <f t="shared" si="69"/>
         <v>6826.0999999999995</v>
       </c>
-      <c r="AA110" s="27">
-        <f>SUM(AA99:AA109)+AA98</f>
+      <c r="AA111" s="27">
+        <f>SUM(AA100:AA110)+AA99</f>
         <v>7608.5</v>
       </c>
-      <c r="AB110" s="27">
-        <f>SUM(AB99:AB109)+AB98</f>
+      <c r="AB111" s="27">
+        <f>SUM(AB100:AB110)+AB99</f>
         <v>7379.9999999999991</v>
       </c>
     </row>
-    <row r="111" spans="2:28">
-      <c r="L111" s="27"/>
-      <c r="P111" s="27"/>
-      <c r="Q111" s="27"/>
-      <c r="R111" s="27"/>
-      <c r="S111" s="27"/>
-      <c r="T111" s="27"/>
-    </row>
     <row r="112" spans="2:28">
-      <c r="B112" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J112" s="27">
-        <v>3614.6</v>
-      </c>
-      <c r="K112" s="27">
-        <v>3284.4</v>
-      </c>
-      <c r="L112" s="27">
-        <v>2980.3</v>
-      </c>
-      <c r="M112" s="27">
-        <v>2808.2</v>
-      </c>
-      <c r="N112" s="27">
-        <v>2907.5</v>
-      </c>
-      <c r="O112" s="27">
-        <v>2794.4</v>
-      </c>
-      <c r="P112" s="27">
-        <v>2885.7</v>
-      </c>
-      <c r="Q112" s="27">
-        <v>2808.2</v>
-      </c>
-      <c r="R112" s="27">
-        <v>2775</v>
-      </c>
-      <c r="S112" s="27">
-        <v>2756.9</v>
-      </c>
-      <c r="T112" s="27">
-        <v>2872.7</v>
-      </c>
-      <c r="AA112" s="27">
-        <f>N112</f>
-        <v>2907.5</v>
-      </c>
-      <c r="AB112" s="27">
-        <f>R112</f>
-        <v>2775</v>
-      </c>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="L112" s="27"/>
+      <c r="P112" s="27"/>
+      <c r="Q112" s="27"/>
+      <c r="R112" s="27"/>
+      <c r="S112" s="27"/>
+      <c r="T112" s="27"/>
     </row>
     <row r="113" spans="2:28">
       <c r="B113" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H113" s="27">
+        <v>3910.1</v>
+      </c>
+      <c r="I113" s="27">
+        <v>3802.3</v>
+      </c>
+      <c r="J113" s="27">
+        <v>3614.6</v>
+      </c>
+      <c r="K113" s="27">
+        <v>3284.4</v>
+      </c>
+      <c r="L113" s="27">
+        <v>2980.3</v>
+      </c>
+      <c r="M113" s="27">
+        <v>2808.2</v>
+      </c>
+      <c r="N113" s="27">
+        <v>2907.5</v>
+      </c>
+      <c r="O113" s="27">
+        <v>2794.4</v>
+      </c>
+      <c r="P113" s="27">
+        <v>2885.7</v>
+      </c>
+      <c r="Q113" s="27">
+        <v>2808.2</v>
+      </c>
+      <c r="R113" s="27">
+        <v>2775</v>
+      </c>
+      <c r="S113" s="27">
+        <v>2756.9</v>
+      </c>
+      <c r="T113" s="27">
+        <v>2872.7</v>
+      </c>
+      <c r="AA113" s="27">
+        <f>N113</f>
+        <v>2907.5</v>
+      </c>
+      <c r="AB113" s="27">
+        <f>R113</f>
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="114" spans="2:28">
+      <c r="B114" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J113" s="27">
-        <f t="shared" ref="J113:K113" si="61">J112+J110</f>
+      <c r="H114" s="27">
+        <f t="shared" ref="H114:K114" si="70">H113+H111</f>
+        <v>11273.4</v>
+      </c>
+      <c r="I114" s="27">
+        <f t="shared" si="70"/>
+        <v>11062.5</v>
+      </c>
+      <c r="J114" s="27">
+        <f t="shared" si="70"/>
         <v>10572.5</v>
       </c>
-      <c r="K113" s="27">
-        <f t="shared" si="61"/>
+      <c r="K114" s="27">
+        <f t="shared" si="70"/>
         <v>10856.099999999999</v>
       </c>
-      <c r="L113" s="27">
-        <f>L112+L110</f>
+      <c r="L114" s="27">
+        <f t="shared" ref="L114:T114" si="71">L113+L111</f>
         <v>10325.400000000001</v>
       </c>
-      <c r="M113" s="27">
-        <f>M112+M110</f>
+      <c r="M114" s="27">
+        <f t="shared" si="71"/>
         <v>10382.700000000001</v>
       </c>
-      <c r="N113" s="27">
-        <f>N112+N110</f>
+      <c r="N114" s="27">
+        <f t="shared" si="71"/>
         <v>10516</v>
       </c>
-      <c r="O113" s="27">
-        <f>O112+O110</f>
+      <c r="O114" s="27">
+        <f t="shared" si="71"/>
         <v>10308.1</v>
       </c>
-      <c r="P113" s="27">
-        <f>P112+P110</f>
+      <c r="P114" s="27">
+        <f t="shared" si="71"/>
         <v>10341.34</v>
       </c>
-      <c r="Q113" s="27">
-        <f>Q112+Q110</f>
+      <c r="Q114" s="27">
+        <f t="shared" si="71"/>
         <v>10382.700000000001</v>
       </c>
-      <c r="R113" s="27">
-        <f>R112+R110</f>
+      <c r="R114" s="27">
+        <f t="shared" si="71"/>
         <v>10155</v>
       </c>
-      <c r="S113" s="27">
-        <f>S112+S110</f>
+      <c r="S114" s="27">
+        <f t="shared" si="71"/>
         <v>9868.4000000000015</v>
       </c>
-      <c r="T113" s="27">
-        <f>T112+T110</f>
+      <c r="T114" s="27">
+        <f t="shared" si="71"/>
         <v>9698.7999999999993</v>
       </c>
-      <c r="AA113" s="27">
-        <f>AA112+AA110</f>
+      <c r="AA114" s="27">
+        <f>AA113+AA111</f>
         <v>10516</v>
       </c>
-      <c r="AB113" s="27">
-        <f>AB112+AB110</f>
+      <c r="AB114" s="27">
+        <f>AB113+AB111</f>
         <v>10155</v>
       </c>
     </row>
-    <row r="114" spans="2:28">
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="27"/>
-    </row>
     <row r="115" spans="2:28">
-      <c r="B115" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J115" s="27">
-        <f t="shared" ref="J115:L115" si="62">J81-J110</f>
-        <v>3614.6000000000004</v>
-      </c>
-      <c r="K115" s="27">
-        <f t="shared" si="62"/>
-        <v>3284.3999999999996</v>
-      </c>
-      <c r="L115" s="27">
-        <f t="shared" ref="L115:O115" si="63">L81-L110</f>
-        <v>2980.3000000000011</v>
-      </c>
-      <c r="M115" s="27">
-        <f t="shared" ref="M115:N115" si="64">M81-M110</f>
-        <v>2808.2000000000007</v>
-      </c>
-      <c r="N115" s="27">
-        <f t="shared" si="63"/>
-        <v>2907.5</v>
-      </c>
-      <c r="O115" s="27">
-        <f t="shared" si="63"/>
-        <v>2794.4000000000005</v>
-      </c>
-      <c r="P115" s="27">
-        <f t="shared" ref="P115:Q115" si="65">P81-P110</f>
-        <v>2885.659999999998</v>
-      </c>
-      <c r="Q115" s="27">
-        <f t="shared" si="65"/>
-        <v>2808.2000000000007</v>
-      </c>
-      <c r="R115" s="27">
-        <f t="shared" ref="R115" si="66">R81-R110</f>
-        <v>2775.0000000000009</v>
-      </c>
-      <c r="S115" s="27">
-        <f>S81-S110</f>
-        <v>2756.8999999999987</v>
-      </c>
-      <c r="T115" s="27">
-        <f>T81-T110</f>
-        <v>2872.7</v>
-      </c>
-      <c r="AA115" s="27">
-        <f t="shared" ref="AA115" si="67">AA81-AA110</f>
-        <v>2907.5</v>
-      </c>
-      <c r="AB115" s="27">
-        <f>AB81-AB110</f>
-        <v>2775.0000000000009</v>
-      </c>
+      <c r="H115" s="27"/>
+      <c r="J115" s="27"/>
+      <c r="K115" s="27"/>
+      <c r="L115" s="27"/>
     </row>
     <row r="116" spans="2:28">
       <c r="B116" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H116" s="27">
+        <f t="shared" ref="H116:J116" si="72">H82-H111</f>
+        <v>3910.0999999999995</v>
+      </c>
+      <c r="I116" s="27">
+        <f t="shared" si="72"/>
+        <v>3802.3000000000011</v>
+      </c>
+      <c r="J116" s="27">
+        <f t="shared" ref="J116:K116" si="73">J82-J111</f>
+        <v>3614.6000000000004</v>
+      </c>
+      <c r="K116" s="27">
+        <f t="shared" si="73"/>
+        <v>3284.3999999999996</v>
+      </c>
+      <c r="L116" s="27">
+        <f t="shared" ref="L116:O116" si="74">L82-L111</f>
+        <v>2980.3000000000011</v>
+      </c>
+      <c r="M116" s="27">
+        <f t="shared" ref="M116" si="75">M82-M111</f>
+        <v>2808.2000000000007</v>
+      </c>
+      <c r="N116" s="27">
+        <f t="shared" si="74"/>
+        <v>2907.5</v>
+      </c>
+      <c r="O116" s="27">
+        <f t="shared" si="74"/>
+        <v>2794.4000000000005</v>
+      </c>
+      <c r="P116" s="27">
+        <f t="shared" ref="P116:Q116" si="76">P82-P111</f>
+        <v>2885.659999999998</v>
+      </c>
+      <c r="Q116" s="27">
+        <f t="shared" si="76"/>
+        <v>2808.2000000000007</v>
+      </c>
+      <c r="R116" s="27">
+        <f t="shared" ref="R116" si="77">R82-R111</f>
+        <v>2775.0000000000009</v>
+      </c>
+      <c r="S116" s="27">
+        <f>S82-S111</f>
+        <v>2756.8999999999987</v>
+      </c>
+      <c r="T116" s="27">
+        <f>T82-T111</f>
+        <v>2872.7</v>
+      </c>
+      <c r="AA116" s="27">
+        <f t="shared" ref="AA116" si="78">AA82-AA111</f>
+        <v>2907.5</v>
+      </c>
+      <c r="AB116" s="27">
+        <f>AB82-AB111</f>
+        <v>2775.0000000000009</v>
+      </c>
+    </row>
+    <row r="117" spans="2:28">
+      <c r="B117" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J116" s="3">
-        <f t="shared" ref="J116:L116" si="68">J115/J27</f>
+      <c r="H117" s="3">
+        <f t="shared" ref="H117:J117" si="79">H116/H27</f>
+        <v>5.3140799130198415</v>
+      </c>
+      <c r="I117" s="3">
+        <f t="shared" si="79"/>
+        <v>5.1675727099755386</v>
+      </c>
+      <c r="J117" s="3">
+        <f t="shared" ref="J117:K117" si="80">J116/J27</f>
         <v>4.911808669656204</v>
       </c>
-      <c r="K116" s="3">
-        <f t="shared" si="68"/>
+      <c r="K117" s="3">
+        <f t="shared" si="80"/>
         <v>4.4618937644341798</v>
       </c>
-      <c r="L116" s="3">
-        <f t="shared" ref="L116:M116" si="69">L115/L27</f>
+      <c r="L117" s="3">
+        <f t="shared" ref="L117:M117" si="81">L116/L27</f>
         <v>4.0482205922303738</v>
       </c>
-      <c r="M116" s="3">
-        <f t="shared" si="69"/>
+      <c r="M117" s="3">
+        <f t="shared" si="81"/>
         <v>3.8144525944036953</v>
       </c>
-      <c r="N116" s="3">
-        <f t="shared" ref="N116:Q116" si="70">N115/N27</f>
+      <c r="N117" s="3">
+        <f t="shared" ref="N117:Q117" si="82">N116/N27</f>
         <v>3.9493344199945666</v>
       </c>
-      <c r="O116" s="3">
-        <f t="shared" ref="O116:P116" si="71">O115/O27</f>
+      <c r="O117" s="3">
+        <f t="shared" ref="O117" si="83">O116/O27</f>
         <v>3.8019047619047628</v>
       </c>
-      <c r="P116" s="3">
-        <f t="shared" si="70"/>
+      <c r="P117" s="3">
+        <f t="shared" si="82"/>
         <v>3.9271366358192683</v>
       </c>
-      <c r="Q116" s="3">
-        <f t="shared" si="70"/>
+      <c r="Q117" s="3">
+        <f t="shared" si="82"/>
         <v>3.821720195971694</v>
       </c>
-      <c r="R116" s="3">
-        <f t="shared" ref="R116" si="72">R115/R27</f>
+      <c r="R117" s="3">
+        <f t="shared" ref="R117" si="84">R116/R27</f>
         <v>3.7770518579011854</v>
       </c>
-      <c r="S116" s="3">
-        <f>S115/S27</f>
+      <c r="S117" s="3">
+        <f>S116/S27</f>
         <v>3.7529267628641421</v>
       </c>
-      <c r="T116" s="3">
-        <f>T115/T27</f>
+      <c r="T117" s="3">
+        <f>T116/T27</f>
         <v>3.9105635720119789</v>
       </c>
-      <c r="AA116" s="3">
-        <f t="shared" ref="AA116" si="73">AA115/AA27</f>
+      <c r="AA117" s="3">
+        <f t="shared" ref="AA117" si="85">AA116/AA27</f>
         <v>3.9493344199945666</v>
       </c>
-      <c r="AB116" s="3">
-        <f>AB115/AB27</f>
+      <c r="AB117" s="3">
+        <f>AB116/AB27</f>
         <v>3.7770518579011854</v>
-      </c>
-    </row>
-    <row r="118" spans="2:28" s="39" customFormat="1">
-      <c r="B118" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="J118" s="52">
-        <f t="shared" ref="J118:L118" si="74">J55+J56+J68+J70</f>
-        <v>2780.6</v>
-      </c>
-      <c r="K118" s="52">
-        <f t="shared" si="74"/>
-        <v>2501.1</v>
-      </c>
-      <c r="L118" s="52">
-        <f t="shared" ref="L118:O118" si="75">L55+L56+L68+L70</f>
-        <v>1998.9</v>
-      </c>
-      <c r="M118" s="52">
-        <f t="shared" ref="M118:N118" si="76">M55+M56+M68+M70</f>
-        <v>2503.6999999999998</v>
-      </c>
-      <c r="N118" s="52">
-        <f t="shared" si="75"/>
-        <v>2753.6</v>
-      </c>
-      <c r="O118" s="52">
-        <f t="shared" si="75"/>
-        <v>2463.4</v>
-      </c>
-      <c r="P118" s="52">
-        <f t="shared" ref="P118:Q118" si="77">P55+P56+P68+P70</f>
-        <v>2514.3000000000002</v>
-      </c>
-      <c r="Q118" s="52">
-        <f t="shared" si="77"/>
-        <v>2503.6999999999998</v>
-      </c>
-      <c r="R118" s="52">
-        <f t="shared" ref="R118" si="78">R55+R56+R68+R70</f>
-        <v>2634.7</v>
-      </c>
-      <c r="S118" s="52">
-        <f t="shared" ref="S118" si="79">S55+S56+S68+S70</f>
-        <v>2104.1999999999998</v>
-      </c>
-      <c r="T118" s="52">
-        <f>T55+T56+T68+T70</f>
-        <v>1968.2</v>
-      </c>
-      <c r="AA118" s="52">
-        <f t="shared" ref="AA118" si="80">AA55+AA56+AA68+AA70</f>
-        <v>2753.6</v>
-      </c>
-      <c r="AB118" s="52">
-        <f>AB55+AB56+AB68+AB70</f>
-        <v>2634.7</v>
       </c>
     </row>
     <row r="119" spans="2:28" s="39" customFormat="1">
       <c r="B119" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" s="52">
+        <f t="shared" ref="H119:J119" si="86">H56+H57+H69+H71</f>
+        <v>2480.8999999999996</v>
+      </c>
+      <c r="I119" s="52">
+        <f t="shared" si="86"/>
+        <v>2177.2000000000003</v>
+      </c>
+      <c r="J119" s="52">
+        <f t="shared" ref="J119:K119" si="87">J56+J57+J69+J71</f>
+        <v>2780.6</v>
+      </c>
+      <c r="K119" s="52">
+        <f t="shared" si="87"/>
+        <v>2501.1</v>
+      </c>
+      <c r="L119" s="52">
+        <f t="shared" ref="L119:O119" si="88">L56+L57+L69+L71</f>
+        <v>1998.9</v>
+      </c>
+      <c r="M119" s="52">
+        <f t="shared" ref="M119" si="89">M56+M57+M69+M71</f>
+        <v>2503.6999999999998</v>
+      </c>
+      <c r="N119" s="52">
+        <f t="shared" si="88"/>
+        <v>2753.6</v>
+      </c>
+      <c r="O119" s="52">
+        <f t="shared" si="88"/>
+        <v>2463.4</v>
+      </c>
+      <c r="P119" s="52">
+        <f t="shared" ref="P119:Q119" si="90">P56+P57+P69+P71</f>
+        <v>2514.3000000000002</v>
+      </c>
+      <c r="Q119" s="52">
+        <f t="shared" si="90"/>
+        <v>2503.6999999999998</v>
+      </c>
+      <c r="R119" s="52">
+        <f t="shared" ref="R119" si="91">R56+R57+R69+R71</f>
+        <v>2634.7</v>
+      </c>
+      <c r="S119" s="52">
+        <f t="shared" ref="S119" si="92">S56+S57+S69+S71</f>
+        <v>2104.1999999999998</v>
+      </c>
+      <c r="T119" s="52">
+        <f>T56+T57+T69+T71</f>
+        <v>1968.2</v>
+      </c>
+      <c r="AA119" s="52">
+        <f t="shared" ref="AA119" si="93">AA56+AA57+AA69+AA71</f>
+        <v>2753.6</v>
+      </c>
+      <c r="AB119" s="52">
+        <f>AB56+AB57+AB69+AB71</f>
+        <v>2634.7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:28" s="39" customFormat="1">
+      <c r="B120" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J119" s="52">
-        <f t="shared" ref="J119:L119" si="81">J86+J90+J100+J87+J101</f>
+      <c r="H120" s="52">
+        <f t="shared" ref="H120:J120" si="94">H87+H91+H101+H88+H102</f>
+        <v>3879.5</v>
+      </c>
+      <c r="I120" s="52">
+        <f t="shared" si="94"/>
+        <v>3811.6</v>
+      </c>
+      <c r="J120" s="52">
+        <f t="shared" ref="J120:K120" si="95">J87+J91+J101+J88+J102</f>
         <v>3414.4</v>
       </c>
-      <c r="K119" s="52">
-        <f t="shared" si="81"/>
+      <c r="K120" s="52">
+        <f t="shared" si="95"/>
         <v>3862.2</v>
       </c>
-      <c r="L119" s="52">
-        <f>L86+L90+L100+L87+L101</f>
+      <c r="L120" s="52">
+        <f>L87+L91+L101+L88+L102</f>
         <v>3826.3999999999996</v>
       </c>
-      <c r="M119" s="52">
-        <f t="shared" ref="M119:N119" si="82">M86+M90+M100+M87+M101</f>
+      <c r="M120" s="52">
+        <f t="shared" ref="M120" si="96">M87+M91+M101+M88+M102</f>
         <v>4310.1000000000004</v>
       </c>
-      <c r="N119" s="52">
-        <f>N86+N90+N100+N87+N101</f>
+      <c r="N120" s="52">
+        <f>N87+N91+N101+N88+N102</f>
         <v>4449.2</v>
       </c>
-      <c r="O119" s="52">
-        <f t="shared" ref="O119:P119" si="83">O86+O90+O100+O87+O101</f>
+      <c r="O120" s="52">
+        <f t="shared" ref="O120" si="97">O87+O91+O101+O88+O102</f>
         <v>4380</v>
       </c>
-      <c r="P119" s="52">
-        <f t="shared" ref="P119:T119" si="84">P86+P90+P100+P87+P101</f>
+      <c r="P120" s="52">
+        <f t="shared" ref="P120:T120" si="98">P87+P91+P101+P88+P102</f>
         <v>4334.0999999999995</v>
       </c>
-      <c r="Q119" s="52">
-        <f t="shared" si="84"/>
+      <c r="Q120" s="52">
+        <f t="shared" si="98"/>
         <v>4310.1000000000004</v>
       </c>
-      <c r="R119" s="52">
-        <f t="shared" si="84"/>
+      <c r="R120" s="52">
+        <f t="shared" si="98"/>
         <v>4029.7999999999997</v>
       </c>
-      <c r="S119" s="52">
-        <f t="shared" si="84"/>
+      <c r="S120" s="52">
+        <f t="shared" si="98"/>
         <v>3559</v>
       </c>
-      <c r="T119" s="52">
-        <f t="shared" si="84"/>
+      <c r="T120" s="52">
+        <f t="shared" si="98"/>
         <v>3173.8999999999996</v>
       </c>
-      <c r="AA119" s="52">
-        <f t="shared" ref="AA119:AB119" si="85">AA86+AA90+AA100+AA87+AA101</f>
+      <c r="AA120" s="52">
+        <f t="shared" ref="AA120:AB120" si="99">AA87+AA91+AA101+AA88+AA102</f>
         <v>4449.2</v>
       </c>
-      <c r="AB119" s="52">
-        <f t="shared" si="85"/>
+      <c r="AB120" s="52">
+        <f t="shared" si="99"/>
         <v>4029.7999999999997</v>
       </c>
     </row>
-    <row r="120" spans="2:28">
-      <c r="B120" s="3" t="s">
+    <row r="121" spans="2:28">
+      <c r="B121" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J120" s="27">
-        <f t="shared" ref="J120:L120" si="86">J118-J119</f>
+      <c r="H121" s="27">
+        <f t="shared" ref="H121:J121" si="100">H119-H120</f>
+        <v>-1398.6000000000004</v>
+      </c>
+      <c r="I121" s="27">
+        <f t="shared" si="100"/>
+        <v>-1634.3999999999996</v>
+      </c>
+      <c r="J121" s="27">
+        <f t="shared" ref="J121:K121" si="101">J119-J120</f>
         <v>-633.80000000000018</v>
       </c>
-      <c r="K120" s="27">
-        <f t="shared" si="86"/>
+      <c r="K121" s="27">
+        <f t="shared" si="101"/>
         <v>-1361.1</v>
       </c>
-      <c r="L120" s="27">
-        <f t="shared" ref="L120:M120" si="87">L118-L119</f>
+      <c r="L121" s="27">
+        <f t="shared" ref="L121:M121" si="102">L119-L120</f>
         <v>-1827.4999999999995</v>
       </c>
-      <c r="M120" s="27">
-        <f t="shared" si="87"/>
+      <c r="M121" s="27">
+        <f t="shared" si="102"/>
         <v>-1806.4000000000005</v>
       </c>
-      <c r="N120" s="27">
-        <f t="shared" ref="N120:R120" si="88">N118-N119</f>
+      <c r="N121" s="27">
+        <f t="shared" ref="N121:R121" si="103">N119-N120</f>
         <v>-1695.6</v>
       </c>
-      <c r="O120" s="27">
-        <f t="shared" ref="O120:P120" si="89">O118-O119</f>
+      <c r="O121" s="27">
+        <f t="shared" ref="O121" si="104">O119-O120</f>
         <v>-1916.6</v>
       </c>
-      <c r="P120" s="27">
-        <f t="shared" si="88"/>
+      <c r="P121" s="27">
+        <f t="shared" si="103"/>
         <v>-1819.7999999999993</v>
       </c>
-      <c r="Q120" s="27">
-        <f t="shared" si="88"/>
+      <c r="Q121" s="27">
+        <f t="shared" si="103"/>
         <v>-1806.4000000000005</v>
       </c>
-      <c r="R120" s="27">
-        <f t="shared" si="88"/>
+      <c r="R121" s="27">
+        <f t="shared" si="103"/>
         <v>-1395.1</v>
       </c>
-      <c r="S120" s="27">
-        <f>S118-S119</f>
+      <c r="S121" s="27">
+        <f>S119-S120</f>
         <v>-1454.8000000000002</v>
       </c>
-      <c r="T120" s="27">
-        <f>T118-T119</f>
+      <c r="T121" s="27">
+        <f>T119-T120</f>
         <v>-1205.6999999999996</v>
       </c>
-      <c r="AA120" s="27">
-        <f t="shared" ref="AA120" si="90">AA118-AA119</f>
+      <c r="AA121" s="27">
+        <f t="shared" ref="AA121" si="105">AA119-AA120</f>
         <v>-1695.6</v>
       </c>
-      <c r="AB120" s="27">
-        <f>AB118-AB119</f>
+      <c r="AB121" s="27">
+        <f>AB119-AB120</f>
         <v>-1395.1</v>
       </c>
     </row>
-    <row r="122" spans="2:28" s="2" customFormat="1">
-      <c r="B122" s="2" t="s">
+    <row r="123" spans="2:28" s="2" customFormat="1">
+      <c r="B123" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N122" s="34">
-        <f t="shared" ref="N122" si="91">N62/J62-1</f>
+      <c r="L123" s="34">
+        <f t="shared" ref="L123" si="106">L63/H63-1</f>
+        <v>4.1440601804080712E-2</v>
+      </c>
+      <c r="M123" s="34">
+        <f t="shared" ref="M123" si="107">M63/I63-1</f>
+        <v>-0.25227884646576049</v>
+      </c>
+      <c r="N123" s="34">
+        <f t="shared" ref="N123" si="108">N63/J63-1</f>
         <v>2.2609060402684511E-2</v>
       </c>
-      <c r="O122" s="34">
-        <f t="shared" ref="O122" si="92">O62/K62-1</f>
+      <c r="O123" s="34">
+        <f t="shared" ref="O123" si="109">O63/K63-1</f>
         <v>-0.15109561412504702</v>
       </c>
-      <c r="P122" s="34">
-        <f t="shared" ref="P122:S122" si="93">P62/L62-1</f>
+      <c r="P123" s="34">
+        <f t="shared" ref="P123:S123" si="110">P63/L63-1</f>
         <v>-0.26009971874200977</v>
       </c>
-      <c r="Q122" s="34">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="R122" s="34">
-        <f t="shared" si="93"/>
+      <c r="Q123" s="34">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="R123" s="34">
+        <f t="shared" si="110"/>
         <v>-0.18536445301283899</v>
       </c>
-      <c r="S122" s="34">
-        <f t="shared" si="93"/>
+      <c r="S123" s="34">
+        <f t="shared" si="110"/>
         <v>-0.10490073692264323</v>
       </c>
-      <c r="T122" s="34">
-        <f>T62/P62-1</f>
+      <c r="T123" s="34">
+        <f>T63/P63-1</f>
         <v>3.36501079913607E-2</v>
       </c>
-      <c r="AB122" s="34">
-        <f>AB62/AA62-1</f>
+      <c r="AB123" s="34">
+        <f>AB63/AA63-1</f>
         <v>-0.18536445301283899</v>
       </c>
     </row>
-    <row r="123" spans="2:28">
-      <c r="B123" s="3" t="s">
+    <row r="124" spans="2:28">
+      <c r="B124" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K123" s="25">
-        <f t="shared" ref="K123:Q123" si="94">K62/J62-1</f>
+      <c r="I124" s="25">
+        <f t="shared" ref="I124" si="111">I63/H63-1</f>
+        <v>2.6095929168192145E-2</v>
+      </c>
+      <c r="J124" s="25">
+        <f t="shared" ref="J124" si="112">J63/I63-1</f>
+        <v>-0.22665196094332885</v>
+      </c>
+      <c r="K124" s="25">
+        <f t="shared" ref="K124:P124" si="113">K63/J63-1</f>
         <v>0.22705536912751678</v>
       </c>
-      <c r="L123" s="25">
-        <f t="shared" si="94"/>
+      <c r="L124" s="25">
+        <f t="shared" si="113"/>
         <v>6.9565514648070259E-2</v>
       </c>
-      <c r="M123" s="25">
-        <f t="shared" si="94"/>
+      <c r="M124" s="25">
+        <f t="shared" si="113"/>
         <v>-0.26329583226796216</v>
       </c>
-      <c r="N123" s="25">
-        <f t="shared" si="94"/>
+      <c r="N124" s="25">
+        <f t="shared" si="113"/>
         <v>5.7657266811279806E-2</v>
       </c>
-      <c r="O123" s="25">
-        <f t="shared" si="94"/>
+      <c r="O124" s="25">
+        <f t="shared" si="113"/>
         <v>1.862258501169034E-2</v>
       </c>
-      <c r="P123" s="25">
-        <f t="shared" si="94"/>
+      <c r="P124" s="25">
+        <f t="shared" si="113"/>
         <v>-6.7772721781500511E-2</v>
       </c>
-      <c r="Q123" s="25">
-        <f>Q62/P62-1</f>
+      <c r="Q124" s="25">
+        <f>Q63/P63-1</f>
         <v>-4.3196544276458138E-3</v>
       </c>
-      <c r="R123" s="25">
-        <f t="shared" ref="R123:S123" si="95">R62/Q62-1</f>
+      <c r="R124" s="25">
+        <f t="shared" ref="R124:S124" si="114">R63/Q63-1</f>
         <v>-0.13839479392624732</v>
       </c>
-      <c r="S123" s="25">
-        <f t="shared" si="95"/>
+      <c r="S124" s="25">
+        <f t="shared" si="114"/>
         <v>0.11923464249748239</v>
       </c>
-      <c r="T123" s="25">
-        <f>T62/S62-1</f>
+      <c r="T124" s="25">
+        <f>T63/S63-1</f>
         <v>7.6525103473096934E-2</v>
       </c>
-      <c r="AA123" s="14" t="s">
+      <c r="AA124" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="AB123" s="14" t="s">
+      <c r="AB124" s="14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="125" spans="2:28">
-      <c r="B125" s="3" t="s">
+    <row r="126" spans="2:28">
+      <c r="B126" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="P125" s="25">
-        <f t="shared" ref="P125:S125" si="96">P62/SUM(M9:P9)</f>
+      <c r="P126" s="25">
+        <f t="shared" ref="P126:S126" si="115">P63/SUM(M9:P9)</f>
         <v>0.51014786575288118</v>
       </c>
-      <c r="Q125" s="25">
-        <f t="shared" si="96"/>
+      <c r="Q126" s="25">
+        <f t="shared" si="115"/>
         <v>0.48656407658370798</v>
       </c>
-      <c r="R125" s="25">
-        <f t="shared" si="96"/>
+      <c r="R126" s="25">
+        <f t="shared" si="115"/>
         <v>0.47317259125131039</v>
       </c>
-      <c r="S125" s="25">
-        <f t="shared" si="96"/>
+      <c r="S126" s="25">
+        <f t="shared" si="115"/>
         <v>0.55698105642978857</v>
       </c>
-      <c r="T125" s="25">
-        <f>T62/SUM(Q9:T9)</f>
+      <c r="T126" s="25">
+        <f>T63/SUM(Q9:T9)</f>
         <v>0.61685399051350787</v>
       </c>
-      <c r="AA125" s="25">
-        <f t="shared" ref="AA125:AB125" si="97">AA62/AA9</f>
+      <c r="AA126" s="25">
+        <f t="shared" ref="AA126" si="116">AA63/AA9</f>
         <v>0.64646919996817909</v>
       </c>
-      <c r="AB125" s="25">
-        <f>AB62/AB9</f>
+      <c r="AB126" s="25">
+        <f>AB63/AB9</f>
         <v>0.47317259125131039</v>
       </c>
     </row>
-    <row r="127" spans="2:28">
-      <c r="B127" s="3" t="s">
+    <row r="128" spans="2:28">
+      <c r="B128" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="J127" s="3">
+      <c r="H128" s="3">
+        <v>20.22</v>
+      </c>
+      <c r="I128" s="3">
+        <v>17.25</v>
+      </c>
+      <c r="J128" s="3">
         <v>19.489999999999998</v>
       </c>
-      <c r="K127" s="3">
+      <c r="K128" s="3">
         <v>7.22</v>
       </c>
-      <c r="L127" s="3">
+      <c r="L128" s="3">
         <v>5.98</v>
       </c>
-      <c r="M127" s="3">
+      <c r="M128" s="3">
         <v>4.41</v>
       </c>
-      <c r="N127" s="3">
+      <c r="N128" s="3">
         <v>6.81</v>
       </c>
-      <c r="O127" s="3">
+      <c r="O128" s="3">
         <v>9.9600000000000009</v>
       </c>
-      <c r="P127" s="3">
+      <c r="P128" s="3">
         <v>15.14</v>
       </c>
-      <c r="Q127" s="27">
+      <c r="Q128" s="27">
         <v>17</v>
       </c>
-      <c r="R127" s="3">
+      <c r="R128" s="3">
         <v>13.9</v>
       </c>
-      <c r="S127" s="3">
+      <c r="S128" s="3">
         <v>12.61</v>
       </c>
-      <c r="T127" s="3">
+      <c r="T128" s="3">
         <v>8.7799999999999994</v>
       </c>
-      <c r="AA127" s="3">
-        <f>N127</f>
+      <c r="AA128" s="3">
+        <f>N128</f>
         <v>6.81</v>
       </c>
-      <c r="AB127" s="3">
-        <f>R127</f>
+      <c r="AB128" s="3">
+        <f>R128</f>
         <v>13.9</v>
-      </c>
-    </row>
-    <row r="128" spans="2:28" s="27" customFormat="1">
-      <c r="B128" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="J128" s="27">
-        <f t="shared" ref="J128:L128" si="98">J127*J27</f>
-        <v>14342.690999999999</v>
-      </c>
-      <c r="K128" s="27">
-        <f t="shared" si="98"/>
-        <v>5314.6419999999998</v>
-      </c>
-      <c r="L128" s="27">
-        <f t="shared" ref="L128:M128" si="99">L127*L27</f>
-        <v>4402.4760000000006</v>
-      </c>
-      <c r="M128" s="27">
-        <f t="shared" ref="M128:T128" si="100">M127*M27</f>
-        <v>3246.6420000000003</v>
-      </c>
-      <c r="N128" s="27">
-        <f t="shared" si="100"/>
-        <v>5013.5219999999999</v>
-      </c>
-      <c r="O128" s="27">
-        <f t="shared" si="100"/>
-        <v>7320.6</v>
-      </c>
-      <c r="P128" s="27">
-        <f t="shared" si="100"/>
-        <v>11124.871999999999</v>
-      </c>
-      <c r="Q128" s="27">
-        <f t="shared" si="100"/>
-        <v>12491.599999999999</v>
-      </c>
-      <c r="R128" s="27">
-        <f t="shared" si="100"/>
-        <v>10212.330000000002</v>
-      </c>
-      <c r="S128" s="27">
-        <f t="shared" si="100"/>
-        <v>9263.3060000000005</v>
-      </c>
-      <c r="T128" s="27">
-        <f t="shared" si="100"/>
-        <v>6449.7879999999996</v>
-      </c>
-      <c r="AA128" s="27">
-        <f t="shared" ref="AA128" si="101">AA127*AA27</f>
-        <v>5013.5219999999999</v>
-      </c>
-      <c r="AB128" s="27">
-        <f>AB127*AB27</f>
-        <v>10212.330000000002</v>
       </c>
     </row>
     <row r="129" spans="2:28" s="27" customFormat="1">
       <c r="B129" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H129" s="27">
+        <f t="shared" ref="H129:J129" si="117">H128*H27</f>
+        <v>14877.875999999998</v>
+      </c>
+      <c r="I129" s="27">
+        <f t="shared" si="117"/>
+        <v>12692.55</v>
+      </c>
+      <c r="J129" s="27">
+        <f t="shared" ref="J129:K129" si="118">J128*J27</f>
+        <v>14342.690999999999</v>
+      </c>
+      <c r="K129" s="27">
+        <f t="shared" si="118"/>
+        <v>5314.6419999999998</v>
+      </c>
+      <c r="L129" s="27">
+        <f t="shared" ref="L129" si="119">L128*L27</f>
+        <v>4402.4760000000006</v>
+      </c>
+      <c r="M129" s="27">
+        <f t="shared" ref="M129:T129" si="120">M128*M27</f>
+        <v>3246.6420000000003</v>
+      </c>
+      <c r="N129" s="27">
+        <f t="shared" si="120"/>
+        <v>5013.5219999999999</v>
+      </c>
+      <c r="O129" s="27">
+        <f t="shared" si="120"/>
+        <v>7320.6</v>
+      </c>
+      <c r="P129" s="27">
+        <f t="shared" si="120"/>
+        <v>11124.871999999999</v>
+      </c>
+      <c r="Q129" s="27">
+        <f t="shared" si="120"/>
+        <v>12491.599999999999</v>
+      </c>
+      <c r="R129" s="27">
+        <f t="shared" si="120"/>
+        <v>10212.330000000002</v>
+      </c>
+      <c r="S129" s="27">
+        <f t="shared" si="120"/>
+        <v>9263.3060000000005</v>
+      </c>
+      <c r="T129" s="27">
+        <f t="shared" si="120"/>
+        <v>6449.7879999999996</v>
+      </c>
+      <c r="AA129" s="27">
+        <f t="shared" ref="AA129" si="121">AA128*AA27</f>
+        <v>5013.5219999999999</v>
+      </c>
+      <c r="AB129" s="27">
+        <f>AB128*AB27</f>
+        <v>10212.330000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="2:28" s="27" customFormat="1">
+      <c r="B130" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J129" s="27">
-        <f t="shared" ref="J129:L129" si="102">J128-J120</f>
+      <c r="H130" s="27">
+        <f t="shared" ref="H130:J130" si="122">H129-H121</f>
+        <v>16276.475999999999</v>
+      </c>
+      <c r="I130" s="27">
+        <f t="shared" si="122"/>
+        <v>14326.949999999999</v>
+      </c>
+      <c r="J130" s="27">
+        <f t="shared" ref="J130:K130" si="123">J129-J121</f>
         <v>14976.490999999998</v>
       </c>
-      <c r="K129" s="27">
-        <f t="shared" si="102"/>
+      <c r="K130" s="27">
+        <f t="shared" si="123"/>
         <v>6675.7420000000002</v>
       </c>
-      <c r="L129" s="27">
-        <f t="shared" ref="L129:M129" si="103">L128-L120</f>
+      <c r="L130" s="27">
+        <f t="shared" ref="L130" si="124">L129-L121</f>
         <v>6229.9760000000006</v>
       </c>
-      <c r="M129" s="27">
-        <f t="shared" ref="M129:T129" si="104">M128-M120</f>
+      <c r="M130" s="27">
+        <f t="shared" ref="M130:T130" si="125">M129-M121</f>
         <v>5053.0420000000013</v>
       </c>
-      <c r="N129" s="27">
-        <f t="shared" si="104"/>
+      <c r="N130" s="27">
+        <f t="shared" si="125"/>
         <v>6709.1219999999994</v>
       </c>
-      <c r="O129" s="27">
-        <f t="shared" si="104"/>
+      <c r="O130" s="27">
+        <f t="shared" si="125"/>
         <v>9237.2000000000007</v>
       </c>
-      <c r="P129" s="27">
-        <f t="shared" si="104"/>
+      <c r="P130" s="27">
+        <f t="shared" si="125"/>
         <v>12944.671999999999</v>
       </c>
-      <c r="Q129" s="27">
-        <f t="shared" si="104"/>
+      <c r="Q130" s="27">
+        <f t="shared" si="125"/>
         <v>14298</v>
       </c>
-      <c r="R129" s="27">
-        <f t="shared" si="104"/>
+      <c r="R130" s="27">
+        <f t="shared" si="125"/>
         <v>11607.430000000002</v>
       </c>
-      <c r="S129" s="27">
-        <f t="shared" si="104"/>
+      <c r="S130" s="27">
+        <f t="shared" si="125"/>
         <v>10718.106</v>
       </c>
-      <c r="T129" s="27">
-        <f t="shared" si="104"/>
+      <c r="T130" s="27">
+        <f t="shared" si="125"/>
         <v>7655.4879999999994</v>
       </c>
-      <c r="AA129" s="27">
-        <f t="shared" ref="AA129" si="105">AA128-AA120</f>
+      <c r="AA130" s="27">
+        <f t="shared" ref="AA130" si="126">AA129-AA121</f>
         <v>6709.1219999999994</v>
       </c>
-      <c r="AB129" s="27">
-        <f>AB128-AB120</f>
+      <c r="AB130" s="27">
+        <f>AB129-AB121</f>
         <v>11607.430000000002</v>
-      </c>
-    </row>
-    <row r="131" spans="2:28">
-      <c r="B131" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J131" s="57">
-        <f t="shared" ref="J131:L131" si="106">J127/J116</f>
-        <v>3.9679884357881914</v>
-      </c>
-      <c r="K131" s="57">
-        <f t="shared" si="106"/>
-        <v>1.6181469979296066</v>
-      </c>
-      <c r="L131" s="57">
-        <f>L127/L116</f>
-        <v>1.4771922289702375</v>
-      </c>
-      <c r="M131" s="57">
-        <f>M127/M116</f>
-        <v>1.156129193077416</v>
-      </c>
-      <c r="N131" s="57">
-        <f>N127/N116</f>
-        <v>1.7243411865864144</v>
-      </c>
-      <c r="O131" s="57">
-        <f t="shared" ref="O131:P131" si="107">O127/O116</f>
-        <v>2.6197394789579156</v>
-      </c>
-      <c r="P131" s="57">
-        <f>P127/P116</f>
-        <v>3.8552261874233302</v>
-      </c>
-      <c r="Q131" s="57">
-        <f>Q127/Q116</f>
-        <v>4.4482586710348251</v>
-      </c>
-      <c r="R131" s="57">
-        <f>R127/R116</f>
-        <v>3.6801189189189176</v>
-      </c>
-      <c r="S131" s="57">
-        <f>S127/S116</f>
-        <v>3.3600442526025622</v>
-      </c>
-      <c r="T131" s="57">
-        <f>T127/T116</f>
-        <v>2.2452006822849584</v>
-      </c>
-      <c r="AA131" s="57">
-        <f>AA127/AA116</f>
-        <v>1.7243411865864144</v>
-      </c>
-      <c r="AB131" s="57">
-        <f>AB127/AB116</f>
-        <v>3.6801189189189176</v>
       </c>
     </row>
     <row r="132" spans="2:28">
       <c r="B132" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L132" s="57"/>
+        <v>26</v>
+      </c>
+      <c r="H132" s="57">
+        <f t="shared" ref="H132:J132" si="127">H128/H117</f>
+        <v>3.8049860617375519</v>
+      </c>
+      <c r="I132" s="57">
+        <f t="shared" si="127"/>
+        <v>3.3381242931909623</v>
+      </c>
+      <c r="J132" s="57">
+        <f t="shared" ref="J132:K132" si="128">J128/J117</f>
+        <v>3.9679884357881914</v>
+      </c>
+      <c r="K132" s="57">
+        <f t="shared" si="128"/>
+        <v>1.6181469979296066</v>
+      </c>
+      <c r="L132" s="57">
+        <f>L128/L117</f>
+        <v>1.4771922289702375</v>
+      </c>
+      <c r="M132" s="57">
+        <f>M128/M117</f>
+        <v>1.156129193077416</v>
+      </c>
       <c r="N132" s="57">
-        <f t="shared" ref="N132" si="108">N127/SUM(K9:N9)</f>
-        <v>1.8058391450770329E-3</v>
+        <f>N128/N117</f>
+        <v>1.7243411865864144</v>
       </c>
       <c r="O132" s="57">
-        <f t="shared" ref="O132" si="109">O127/SUM(L9:O9)</f>
-        <v>2.5249708462201492E-3</v>
+        <f t="shared" ref="O132" si="129">O128/O117</f>
+        <v>2.6197394789579156</v>
       </c>
       <c r="P132" s="57">
-        <f t="shared" ref="N132:S132" si="110">P127/SUM(M9:P9)</f>
-        <v>3.3363450053989726E-3</v>
+        <f>P128/P117</f>
+        <v>3.8552261874233302</v>
       </c>
       <c r="Q132" s="57">
-        <f t="shared" si="110"/>
-        <v>3.5885419964958943E-3</v>
+        <f>Q128/Q117</f>
+        <v>4.4482586710348251</v>
       </c>
       <c r="R132" s="57">
-        <f t="shared" si="110"/>
-        <v>3.3117316306108839E-3</v>
+        <f>R128/R117</f>
+        <v>3.6801189189189176</v>
       </c>
       <c r="S132" s="57">
-        <f t="shared" si="110"/>
-        <v>3.1597674651698908E-3</v>
+        <f>S128/S117</f>
+        <v>3.3600442526025622</v>
       </c>
       <c r="T132" s="57">
-        <f>T127/SUM(Q9:T9)</f>
-        <v>2.2633532687151986E-3</v>
+        <f>T128/T117</f>
+        <v>2.2452006822849584</v>
       </c>
       <c r="AA132" s="57">
-        <f t="shared" ref="AA132" si="111">AA128/AA9</f>
-        <v>1.3294587786057119</v>
+        <f>AA128/AA117</f>
+        <v>1.7243411865864144</v>
       </c>
       <c r="AB132" s="57">
-        <f>AB128/AB9</f>
-        <v>2.4331292290098165</v>
+        <f>AB128/AB117</f>
+        <v>3.6801189189189176</v>
       </c>
     </row>
     <row r="133" spans="2:28">
       <c r="B133" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L133" s="57">
+        <f t="shared" ref="L133" si="130">L128/SUM(I9:L9)</f>
+        <v>1.3493997653217802E-3</v>
+      </c>
+      <c r="M133" s="57">
+        <f t="shared" ref="M133" si="131">M128/SUM(J9:M9)</f>
+        <v>1.0984631479313523E-3</v>
+      </c>
+      <c r="N133" s="57">
+        <f t="shared" ref="N133" si="132">N128/SUM(K9:N9)</f>
+        <v>1.8058391450770329E-3</v>
+      </c>
+      <c r="O133" s="57">
+        <f t="shared" ref="O133" si="133">O128/SUM(L9:O9)</f>
+        <v>2.5249708462201492E-3</v>
+      </c>
+      <c r="P133" s="57">
+        <f t="shared" ref="P133:S133" si="134">P128/SUM(M9:P9)</f>
+        <v>3.3363450053989726E-3</v>
+      </c>
+      <c r="Q133" s="57">
+        <f t="shared" si="134"/>
+        <v>3.5885419964958943E-3</v>
+      </c>
+      <c r="R133" s="57">
+        <f t="shared" si="134"/>
+        <v>3.3117316306108839E-3</v>
+      </c>
+      <c r="S133" s="57">
+        <f t="shared" si="134"/>
+        <v>3.1597674651698908E-3</v>
+      </c>
+      <c r="T133" s="57">
+        <f>T128/SUM(Q9:T9)</f>
+        <v>2.2633532687151986E-3</v>
+      </c>
+      <c r="AA133" s="57">
+        <f t="shared" ref="AA133" si="135">AA129/AA9</f>
+        <v>1.3294587786057119</v>
+      </c>
+      <c r="AB133" s="57">
+        <f>AB129/AB9</f>
+        <v>2.4331292290098165</v>
+      </c>
+    </row>
+    <row r="134" spans="2:28">
+      <c r="B134" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L133" s="57"/>
-      <c r="N133" s="57">
-        <f t="shared" ref="N133" si="112">N127/SUM(K26:N26)</f>
+      <c r="L134" s="57">
+        <f t="shared" ref="L134" si="136">L128/SUM(I26:L26)</f>
+        <v>-4.921897835209367</v>
+      </c>
+      <c r="M134" s="57">
+        <f t="shared" ref="M134" si="137">M128/SUM(J26:M26)</f>
+        <v>-3.4596705334508839</v>
+      </c>
+      <c r="N134" s="57">
+        <f t="shared" ref="N134" si="138">N128/SUM(K26:N26)</f>
         <v>-6.8505742659676452</v>
       </c>
-      <c r="O133" s="57">
-        <f t="shared" ref="O133" si="113">O127/SUM(L26:O26)</f>
+      <c r="O134" s="57">
+        <f t="shared" ref="O134" si="139">O128/SUM(L26:O26)</f>
         <v>-13.844238952468716</v>
       </c>
-      <c r="P133" s="57">
-        <f t="shared" ref="N133:S133" si="114">P127/SUM(M26:P26)</f>
+      <c r="P134" s="57">
+        <f t="shared" ref="P134:S134" si="140">P128/SUM(M26:P26)</f>
         <v>-88.265429889576552</v>
       </c>
-      <c r="Q133" s="57">
-        <f t="shared" si="114"/>
+      <c r="Q134" s="57">
+        <f t="shared" si="140"/>
         <v>-249.48613055071797</v>
       </c>
-      <c r="R133" s="57">
-        <f t="shared" si="114"/>
+      <c r="R134" s="57">
+        <f t="shared" si="140"/>
         <v>-228.62115367889854</v>
       </c>
-      <c r="S133" s="57">
-        <f t="shared" si="114"/>
+      <c r="S134" s="57">
+        <f t="shared" si="140"/>
         <v>697.1161832155442</v>
       </c>
-      <c r="T133" s="57">
-        <f>T127/SUM(Q26:T26)</f>
+      <c r="T134" s="57">
+        <f>T128/SUM(Q26:T26)</f>
         <v>-16621.554193892349</v>
       </c>
-      <c r="AA133" s="57">
-        <f>AA127/AA26</f>
+      <c r="AA134" s="57">
+        <f>AA128/AA26</f>
         <v>-6.8500095641481078</v>
       </c>
-      <c r="AB133" s="57">
-        <f>AB127/AB26</f>
+      <c r="AB134" s="57">
+        <f>AB128/AB26</f>
         <v>-228.46375838926176</v>
       </c>
     </row>
@@ -8457,23 +9336,24 @@
     <hyperlink ref="O1" r:id="rId7" xr:uid="{66600F56-CF80-42D1-8E73-9CE055BBB6DC}"/>
     <hyperlink ref="M1" r:id="rId8" xr:uid="{2AE4CA56-39D1-4F5D-9F20-09CE6D413D01}"/>
     <hyperlink ref="K1" r:id="rId9" xr:uid="{0065F09B-E102-4CAA-BD33-29109F5335BA}"/>
+    <hyperlink ref="I1" r:id="rId10" xr:uid="{32463CDE-F6F0-4494-9C98-7AA14A13E3D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
   <ignoredErrors>
-    <ignoredError sqref="AA67:AB67 AA98:AB98" formula="1"/>
-    <ignoredError sqref="Q132:T132 P132 P125:T125 N132:O132" formulaRange="1"/>
+    <ignoredError sqref="AA68:AB68 AA99:AB99" formula="1"/>
+    <ignoredError sqref="Q133:T133 P133 P126:T126 O133" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258CA0E5-563F-4C1F-B583-AD76D8E7BBD2}">
-  <dimension ref="C4:D10"/>
+  <dimension ref="C4:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="D45" sqref="D45:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8518,6 +9398,14 @@
         <v>194</v>
       </c>
     </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54ECF55-C5F5-4D4A-A89D-AC49250D50BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A0F3E6-7F3B-44FF-BC19-0CC9E5FA81A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" activeTab="1" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="213">
   <si>
     <t>$ERJ</t>
   </si>
@@ -926,7 +926,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1055,6 +1055,9 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1064,28 +1067,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1098,6 +1089,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1588,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F324B-1DEB-44A7-A7E2-319E26170844}">
   <dimension ref="A2:X44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1609,31 +1612,31 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="G5" s="62" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="G5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="64"/>
-      <c r="U5" s="62" t="s">
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="65"/>
+      <c r="U5" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="65"/>
     </row>
     <row r="6" spans="1:24">
       <c r="B6" s="4" t="s">
@@ -1898,11 +1901,11 @@
       <c r="X14" s="38"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
       <c r="G15" s="10"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -1929,10 +1932,10 @@
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="68"/>
+      <c r="D16" s="69"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -1956,10 +1959,10 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="68"/>
+      <c r="D17" s="69"/>
       <c r="G17" s="9">
         <v>44805</v>
       </c>
@@ -1983,8 +1986,8 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="16"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8" t="s">
         <v>201</v>
@@ -2008,8 +2011,8 @@
     </row>
     <row r="19" spans="2:24">
       <c r="B19" s="17"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="77"/>
       <c r="G19" s="10"/>
       <c r="H19" s="8" t="s">
         <v>202</v>
@@ -2076,11 +2079,11 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
       <c r="G22" s="10"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
@@ -2104,10 +2107,10 @@
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="68"/>
+      <c r="D23" s="69"/>
       <c r="G23" s="9">
         <v>44743</v>
       </c>
@@ -2133,10 +2136,10 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="68">
         <v>1969</v>
       </c>
-      <c r="D24" s="68"/>
+      <c r="D24" s="69"/>
       <c r="G24" s="10"/>
       <c r="H24" s="8" t="s">
         <v>206</v>
@@ -2160,8 +2163,8 @@
     </row>
     <row r="25" spans="2:24">
       <c r="B25" s="10"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
       <c r="G25" s="10"/>
       <c r="H25" s="50" t="s">
         <v>207</v>
@@ -2187,11 +2190,11 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="74">
         <f>'Financial Model'!T63</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="66"/>
+      <c r="D26" s="75"/>
       <c r="G26" s="10"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
@@ -2213,8 +2216,8 @@
     </row>
     <row r="27" spans="2:24">
       <c r="B27" s="10"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
       <c r="G27" s="9">
         <v>43922</v>
       </c>
@@ -2273,10 +2276,10 @@
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="74"/>
+      <c r="D29" s="71"/>
       <c r="G29" s="10"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
@@ -2335,11 +2338,11 @@
       <c r="X31" s="38"/>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
       <c r="G32" s="9">
         <v>43770</v>
       </c>
@@ -2367,11 +2370,11 @@
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="75">
+      <c r="C33" s="72">
         <f>C6/'Financial Model'!T117</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="76"/>
+      <c r="D33" s="73"/>
       <c r="G33" s="10"/>
       <c r="H33" s="50" t="s">
         <v>168</v>
@@ -2395,11 +2398,11 @@
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="75">
+      <c r="C34" s="72">
         <f>C6/'Financial Model'!AB9</f>
         <v>2.2515010006671113E-3</v>
       </c>
-      <c r="D34" s="76"/>
+      <c r="D34" s="73"/>
       <c r="G34" s="10"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
@@ -2421,11 +2424,11 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="71">
+      <c r="C35" s="66">
         <f>C6/'Financial Model'!AB26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="72"/>
+      <c r="D35" s="67"/>
       <c r="G35" s="10"/>
       <c r="H35" s="60"/>
       <c r="I35" s="37"/>
@@ -2472,12 +2475,12 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
-      <c r="U37" s="62" t="s">
+      <c r="U37" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="V37" s="63"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="64"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="65"/>
     </row>
     <row r="38" spans="2:24">
       <c r="G38" s="10"/>
@@ -2609,17 +2612,12 @@
       <c r="U44" s="43"/>
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
-      <c r="X44" s="36"/>
+      <c r="X44" s="62" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B5:D5"/>
@@ -2633,6 +2631,13 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
@@ -2643,10 +2648,11 @@
     <hyperlink ref="H17" r:id="rId6" display="L3Harris &amp; Embraer to develop new agile tanker varient of KC-390 to support USAF Operational Imperatives" xr:uid="{51AAA14D-A039-4171-BC04-5AAB9894A308}"/>
     <hyperlink ref="R20" r:id="rId7" display="Link" xr:uid="{AE9B4E32-1957-4A54-8E54-10A62C8F25C4}"/>
     <hyperlink ref="H23" r:id="rId8" display="Reuters report $ERJ expected to select engine in Q4 for potential turboprop launch in 2023" xr:uid="{3D245668-921A-4888-B384-DE0FC15EB559}"/>
+    <hyperlink ref="X44" r:id="rId9" xr:uid="{F9FF1395-9489-4EC9-819E-D412DF0569AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -2654,11 +2660,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D70B2A-3077-4926-AE7B-39AF91889CD9}">
   <dimension ref="B1:AL134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N133" sqref="L133:N134"/>
+      <selection pane="bottomRight" activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3264,59 +3270,59 @@
         <v>218.79999999999995</v>
       </c>
       <c r="G11" s="26">
-        <f>G9-G10</f>
+        <f t="shared" ref="G11:M11" si="0">G9-G10</f>
         <v>163.89999999999998</v>
       </c>
       <c r="H11" s="26">
-        <f>H9-H10</f>
+        <f t="shared" si="0"/>
         <v>198.60000000000014</v>
       </c>
       <c r="I11" s="26">
-        <f>I9-I10</f>
+        <f t="shared" si="0"/>
         <v>154.39999999999986</v>
       </c>
       <c r="J11" s="26">
-        <f>J9-J10</f>
+        <f t="shared" si="0"/>
         <v>278.59999999999991</v>
       </c>
       <c r="K11" s="26">
-        <f>K9-K10</f>
+        <f t="shared" si="0"/>
         <v>183.99999999999994</v>
       </c>
       <c r="L11" s="26">
-        <f>L9-L10</f>
+        <f t="shared" si="0"/>
         <v>16.400000000000091</v>
       </c>
       <c r="M11" s="26">
-        <f>M9-M10</f>
+        <f t="shared" si="0"/>
         <v>54.800000000000068</v>
       </c>
       <c r="N11" s="26">
-        <f t="shared" ref="N11:T11" si="0">N9-N10</f>
+        <f t="shared" ref="N11:T11" si="1">N9-N10</f>
         <v>222.40000000000009</v>
       </c>
       <c r="O11" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76.399999999999977</v>
       </c>
       <c r="P11" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>205.70000000000005</v>
       </c>
       <c r="Q11" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>181.70000000000005</v>
       </c>
       <c r="R11" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195.79999999999995</v>
       </c>
       <c r="S11" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120.69999999999999</v>
       </c>
       <c r="T11" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>233.29999999999995</v>
       </c>
       <c r="AA11" s="26">
@@ -3673,67 +3679,67 @@
         <v>54.29999999999994</v>
       </c>
       <c r="G18" s="26">
-        <f>G11-G12-G13-G14-G15+G16+G17</f>
+        <f t="shared" ref="G18:M18" si="2">G11-G12-G13-G14-G15+G16+G17</f>
         <v>-15.200000000000017</v>
       </c>
       <c r="H18" s="26">
-        <f>H11-H12-H13-H14-H15+H16+H17</f>
+        <f t="shared" si="2"/>
         <v>26.600000000000144</v>
       </c>
       <c r="I18" s="26">
-        <f>I11-I12-I13-I14-I15+I16+I17</f>
+        <f t="shared" si="2"/>
         <v>-20.800000000000139</v>
       </c>
       <c r="J18" s="26">
-        <f>J11-J12-J13-J14-J15+J16+J17</f>
+        <f t="shared" si="2"/>
         <v>-67.600000000000108</v>
       </c>
       <c r="K18" s="26">
-        <f>K11-K12-K13-K14-K15+K16+K17</f>
+        <f t="shared" si="2"/>
         <v>-46.900000000000055</v>
       </c>
       <c r="L18" s="26">
-        <f>L11-L12-L13-L14-L15+L16+L17</f>
+        <f t="shared" si="2"/>
         <v>-342.39999999999992</v>
       </c>
       <c r="M18" s="26">
-        <f>M11-M12-M13-M14-M15+M16+M17</f>
+        <f t="shared" si="2"/>
         <v>-37.699999999999932</v>
       </c>
       <c r="N18" s="26">
-        <f t="shared" ref="N18:T18" si="1">N11-N12-N13-N14-N15+N16+N17</f>
+        <f t="shared" ref="N18:T18" si="3">N11-N12-N13-N14-N15+N16+N17</f>
         <v>103.60000000000011</v>
       </c>
       <c r="O18" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-33.100000000000023</v>
       </c>
       <c r="P18" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>143.80000000000004</v>
       </c>
       <c r="Q18" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30.000000000000053</v>
       </c>
       <c r="R18" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60.599999999999945</v>
       </c>
       <c r="S18" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-36.300000000000011</v>
       </c>
       <c r="T18" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>66.69999999999996</v>
       </c>
       <c r="AA18" s="26">
-        <f t="shared" ref="AA18:AB18" si="2">AA11-AA12-AA13-AA14-AA15+AA16+AA17</f>
+        <f t="shared" ref="AA18:AB18" si="4">AA11-AA12-AA13-AA14-AA15+AA16+AA17</f>
         <v>-323.40000000000003</v>
       </c>
       <c r="AB18" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>201.29999999999987</v>
       </c>
     </row>
@@ -3858,67 +3864,67 @@
         <v>7.8999999999999417</v>
       </c>
       <c r="G21" s="27">
-        <f>G18+G19+G20</f>
+        <f t="shared" ref="G21:M21" si="5">G18+G19+G20</f>
         <v>-47.200000000000017</v>
       </c>
       <c r="H21" s="27">
-        <f>H18+H19+H20</f>
+        <f t="shared" si="5"/>
         <v>-6.3999999999998565</v>
       </c>
       <c r="I21" s="27">
-        <f>I18+I19+I20</f>
+        <f t="shared" si="5"/>
         <v>-35.900000000000141</v>
       </c>
       <c r="J21" s="27">
-        <f>J18+J19+J20</f>
+        <f t="shared" si="5"/>
         <v>-96.700000000000117</v>
       </c>
       <c r="K21" s="27">
-        <f>K18+K19+K20</f>
+        <f t="shared" si="5"/>
         <v>-107.70000000000006</v>
       </c>
       <c r="L21" s="27">
-        <f>L18+L19+L20</f>
+        <f t="shared" si="5"/>
         <v>-390.19999999999987</v>
       </c>
       <c r="M21" s="27">
-        <f>M18+M19+M20</f>
+        <f t="shared" si="5"/>
         <v>-148.59999999999994</v>
       </c>
       <c r="N21" s="27">
-        <f t="shared" ref="N21:T21" si="3">N18+N19+N20</f>
+        <f t="shared" ref="N21:T21" si="6">N18+N19+N20</f>
         <v>11.400000000000112</v>
       </c>
       <c r="O21" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-88.900000000000034</v>
       </c>
       <c r="P21" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000037</v>
       </c>
       <c r="Q21" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-24.99999999999995</v>
       </c>
       <c r="R21" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>57.699999999999946</v>
       </c>
       <c r="S21" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-81</v>
       </c>
       <c r="T21" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>49.499999999999957</v>
       </c>
       <c r="AA21" s="27">
-        <f t="shared" ref="AA21:AB21" si="4">AA18+AA19+AA20</f>
+        <f t="shared" ref="AA21:AB21" si="7">AA18+AA19+AA20</f>
         <v>-635.20000000000005</v>
       </c>
       <c r="AB21" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>27.399999999999864</v>
       </c>
     </row>
@@ -3987,59 +3993,59 @@
         <v>-10.600000000000058</v>
       </c>
       <c r="G23" s="26">
-        <f>G21-G22</f>
+        <f t="shared" ref="G23:M23" si="8">G21-G22</f>
         <v>-41.200000000000017</v>
       </c>
       <c r="H23" s="26">
-        <f>H21-H22</f>
+        <f t="shared" si="8"/>
         <v>9.2000000000001432</v>
       </c>
       <c r="I23" s="26">
-        <f>I21-I22</f>
+        <f t="shared" si="8"/>
         <v>-75.300000000000139</v>
       </c>
       <c r="J23" s="26">
-        <f>J21-J22</f>
+        <f t="shared" si="8"/>
         <v>-209.2000000000001</v>
       </c>
       <c r="K23" s="26">
-        <f>K21-K22</f>
+        <f t="shared" si="8"/>
         <v>-290.60000000000008</v>
       </c>
       <c r="L23" s="26">
-        <f>L21-L22</f>
+        <f t="shared" si="8"/>
         <v>-312.59999999999991</v>
       </c>
       <c r="M23" s="26">
-        <f>M21-M22</f>
+        <f t="shared" si="8"/>
         <v>-119.49999999999994</v>
       </c>
       <c r="N23" s="26">
-        <f t="shared" ref="N23:T23" si="5">N21-N22</f>
+        <f t="shared" ref="N23:T23" si="9">N21-N22</f>
         <v>-5.4999999999998863</v>
       </c>
       <c r="O23" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-90.000000000000028</v>
       </c>
       <c r="P23" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>89.200000000000031</v>
       </c>
       <c r="Q23" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-45.699999999999946</v>
       </c>
       <c r="R23" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.9999999999999432</v>
       </c>
       <c r="S23" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-30.700000000000003</v>
       </c>
       <c r="T23" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>74.099999999999966</v>
       </c>
       <c r="AA23" s="26">
@@ -4172,67 +4178,67 @@
         <v>-1.7034614336331428E-2</v>
       </c>
       <c r="G26" s="28">
-        <f>G24/G27</f>
+        <f t="shared" ref="G26:M26" si="10">G24/G27</f>
         <v>-5.7768112002174798E-2</v>
       </c>
       <c r="H26" s="28">
-        <f>H24/H27</f>
+        <f t="shared" si="10"/>
         <v>9.7852677357977719E-3</v>
       </c>
       <c r="I26" s="28">
-        <f>I24/I27</f>
+        <f t="shared" si="10"/>
         <v>-0.104919815167165</v>
       </c>
       <c r="J26" s="28">
-        <f>J24/J27</f>
+        <f t="shared" si="10"/>
         <v>-0.28509308329936134</v>
       </c>
       <c r="K26" s="28">
-        <f>K24/K27</f>
+        <f t="shared" si="10"/>
         <v>-0.39668523298464881</v>
       </c>
       <c r="L26" s="28">
-        <f>L24/L27</f>
+        <f t="shared" si="10"/>
         <v>-0.42828035859820701</v>
       </c>
       <c r="M26" s="28">
-        <f>M24/M27</f>
+        <f t="shared" si="10"/>
         <v>-0.16462917685411571</v>
       </c>
       <c r="N26" s="28">
-        <f t="shared" ref="N26:T26" si="6">N24/N27</f>
+        <f t="shared" ref="N26:T26" si="11">N24/N27</f>
         <v>-4.4824775876120618E-3</v>
       </c>
       <c r="O26" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.12204081632653062</v>
       </c>
       <c r="P26" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.11962438758845946</v>
       </c>
       <c r="Q26" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-6.1241154055525319E-2</v>
       </c>
       <c r="R26" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.8583095140873828E-3</v>
       </c>
       <c r="S26" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-4.3152736182956709E-2</v>
       </c>
       <c r="T26" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.10100735093928669</v>
       </c>
       <c r="AA26" s="28">
-        <f t="shared" ref="AA26:AB26" si="7">AA24/AA27</f>
+        <f t="shared" ref="AA26:AB26" si="12">AA24/AA27</f>
         <v>-0.99415919587068724</v>
       </c>
       <c r="AB26" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-6.0841159657002861E-2</v>
       </c>
     </row>
@@ -4313,31 +4319,31 @@
         <v>-0.35462742429397742</v>
       </c>
       <c r="N30" s="34">
-        <f t="shared" ref="N30:T30" si="8">N9/J9-1</f>
+        <f t="shared" ref="N30:T30" si="13">N9/J9-1</f>
         <v>-0.11683453237410069</v>
       </c>
       <c r="O30" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.27374566109182719</v>
       </c>
       <c r="P30" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.1044303797468351</v>
       </c>
       <c r="Q30" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.26281797812046914</v>
       </c>
       <c r="R30" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.29330943847072888</v>
       </c>
       <c r="S30" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.25566703827573389</v>
       </c>
       <c r="T30" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-9.8717381689517936E-2</v>
       </c>
       <c r="AB30" s="34">
@@ -4350,35 +4356,35 @@
         <v>67</v>
       </c>
       <c r="H31" s="25">
-        <f t="shared" ref="H31" si="9">H9/G9-1</f>
+        <f t="shared" ref="H31" si="14">H9/G9-1</f>
         <v>0.67460221061581449</v>
       </c>
       <c r="I31" s="25">
-        <f t="shared" ref="I31" si="10">I9/H9-1</f>
+        <f t="shared" ref="I31" si="15">I9/H9-1</f>
         <v>-0.14731268586349466</v>
       </c>
       <c r="J31" s="25">
-        <f t="shared" ref="J31" si="11">J9/I9-1</f>
+        <f t="shared" ref="J31" si="16">J9/I9-1</f>
         <v>0.77356243620279019</v>
       </c>
       <c r="K31" s="25">
-        <f t="shared" ref="K31" si="12">K9/J9-1</f>
+        <f t="shared" ref="K31" si="17">K9/J9-1</f>
         <v>-0.69601918465227819</v>
       </c>
       <c r="L31" s="25">
-        <f t="shared" ref="L31" si="13">L9/K9-1</f>
+        <f t="shared" ref="L31" si="18">L9/K9-1</f>
         <v>-0.15241401072893646</v>
       </c>
       <c r="M31" s="25">
-        <f t="shared" ref="M31" si="14">M9/L9-1</f>
+        <f t="shared" ref="M31" si="19">M9/L9-1</f>
         <v>0.41232315711094558</v>
       </c>
       <c r="N31" s="25">
-        <f t="shared" ref="N31:O31" si="15">N9/M9-1</f>
+        <f t="shared" ref="N31:O31" si="20">N9/M9-1</f>
         <v>1.4270462633451957</v>
       </c>
       <c r="O31" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-0.56158357771261003</v>
       </c>
       <c r="P31" s="25">
@@ -4386,11 +4392,11 @@
         <v>0.40034683512944391</v>
       </c>
       <c r="Q31" s="25">
-        <f t="shared" ref="Q31:R31" si="16">Q9/P9-1</f>
+        <f t="shared" ref="Q31:R31" si="21">Q9/P9-1</f>
         <v>-0.15249889429455987</v>
       </c>
       <c r="R31" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.35820895522388052</v>
       </c>
       <c r="S31" s="25">
@@ -4407,11 +4413,11 @@
         <v>68</v>
       </c>
       <c r="E34" s="25">
-        <f t="shared" ref="E34:G34" si="17">E11/E9</f>
+        <f t="shared" ref="E34:G34" si="22">E11/E9</f>
         <v>0.18873458121280079</v>
       </c>
       <c r="G34" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.19907688570387463</v>
       </c>
       <c r="H34" s="25">
@@ -4419,19 +4425,19 @@
         <v>0.14404874156814398</v>
       </c>
       <c r="I34" s="25">
-        <f t="shared" ref="I34:J34" si="18">I11/I9</f>
+        <f t="shared" ref="I34:J34" si="23">I11/I9</f>
         <v>0.13133718952024487</v>
       </c>
       <c r="J34" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.13362110311750594</v>
       </c>
       <c r="K34" s="25">
-        <f t="shared" ref="K34" si="19">K11/K9</f>
+        <f t="shared" ref="K34" si="24">K11/K9</f>
         <v>0.29031240138845055</v>
       </c>
       <c r="L34" s="25">
-        <f t="shared" ref="L34" si="20">L11/L9</f>
+        <f t="shared" ref="L34" si="25">L11/L9</f>
         <v>3.0528667163067926E-2</v>
       </c>
       <c r="M34" s="25">
@@ -4439,7 +4445,7 @@
         <v>7.2228812442335658E-2</v>
       </c>
       <c r="N34" s="25">
-        <f t="shared" ref="N34" si="21">N11/N9</f>
+        <f t="shared" ref="N34" si="26">N11/N9</f>
         <v>0.12077766916476598</v>
       </c>
       <c r="O34" s="25">
@@ -4451,15 +4457,15 @@
         <v>0.18195488721804515</v>
       </c>
       <c r="Q34" s="25">
-        <f t="shared" ref="Q34:R34" si="22">Q11/Q9</f>
+        <f t="shared" ref="Q34:R34" si="27">Q11/Q9</f>
         <v>0.18964617472080164</v>
       </c>
       <c r="R34" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.1504649196956889</v>
       </c>
       <c r="S34" s="25">
-        <f t="shared" ref="S34" si="23">S11/S9</f>
+        <f t="shared" ref="S34" si="28">S11/S9</f>
         <v>0.20086536861374604</v>
       </c>
       <c r="T34" s="25">
@@ -4480,11 +4486,11 @@
         <v>69</v>
       </c>
       <c r="E35" s="25">
-        <f t="shared" ref="E35:G35" si="24">E18/E9</f>
+        <f t="shared" ref="E35:G35" si="29">E18/E9</f>
         <v>4.6838609505736171E-2</v>
       </c>
       <c r="G35" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-1.8462285922507007E-2</v>
       </c>
       <c r="H35" s="25">
@@ -4492,19 +4498,19 @@
         <v>1.9293537390295309E-2</v>
       </c>
       <c r="I35" s="25">
-        <f t="shared" ref="I35:J35" si="25">I18/I9</f>
+        <f t="shared" ref="I35:J35" si="30">I18/I9</f>
         <v>-1.7693092888737785E-2</v>
       </c>
       <c r="J35" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>-3.2422062350119955E-2</v>
       </c>
       <c r="K35" s="25">
-        <f t="shared" ref="K35" si="26">K18/K9</f>
+        <f t="shared" ref="K35" si="31">K18/K9</f>
         <v>-7.3998106658251905E-2</v>
       </c>
       <c r="L35" s="25">
-        <f t="shared" ref="L35" si="27">L18/L9</f>
+        <f t="shared" ref="L35" si="32">L18/L9</f>
         <v>-0.63737900223380473</v>
       </c>
       <c r="M35" s="25">
@@ -4512,7 +4518,7 @@
         <v>-4.9690259654672372E-2</v>
       </c>
       <c r="N35" s="25">
-        <f t="shared" ref="N35" si="28">N18/N9</f>
+        <f t="shared" ref="N35" si="33">N18/N9</f>
         <v>5.6261540132507927E-2</v>
       </c>
       <c r="O35" s="25">
@@ -4524,15 +4530,15 @@
         <v>0.12720035382574085</v>
       </c>
       <c r="Q35" s="25">
-        <f t="shared" ref="Q35:R35" si="29">Q18/Q9</f>
+        <f t="shared" ref="Q35:R35" si="34">Q18/Q9</f>
         <v>3.1311971610479127E-2</v>
       </c>
       <c r="R35" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>4.6568815799584988E-2</v>
       </c>
       <c r="S35" s="25">
-        <f t="shared" ref="S35" si="30">S18/S9</f>
+        <f t="shared" ref="S35" si="35">S18/S9</f>
         <v>-6.0409385921118344E-2</v>
       </c>
       <c r="T35" s="25">
@@ -4553,11 +4559,11 @@
         <v>70</v>
       </c>
       <c r="E36" s="25">
-        <f t="shared" ref="E36:G36" si="31">E23/E9</f>
+        <f t="shared" ref="E36:G36" si="36">E23/E9</f>
         <v>-9.1434486327957032E-3</v>
       </c>
       <c r="G36" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>-5.0042511842584743E-2</v>
       </c>
       <c r="H36" s="25">
@@ -4565,19 +4571,19 @@
         <v>6.6729527816059642E-3</v>
       </c>
       <c r="I36" s="25">
-        <f t="shared" ref="I36:J36" si="32">I23/I9</f>
+        <f t="shared" ref="I36:J36" si="37">I23/I9</f>
         <v>-6.4052398775093694E-2</v>
       </c>
       <c r="J36" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-0.10033573141486815</v>
       </c>
       <c r="K36" s="25">
-        <f t="shared" ref="K36" si="33">K23/K9</f>
+        <f t="shared" ref="K36" si="38">K23/K9</f>
         <v>-0.45850426001893357</v>
       </c>
       <c r="L36" s="25">
-        <f t="shared" ref="L36" si="34">L23/L9</f>
+        <f t="shared" ref="L36" si="39">L23/L9</f>
         <v>-0.58190618019359619</v>
       </c>
       <c r="M36" s="25">
@@ -4585,7 +4591,7 @@
         <v>-0.15750626070910759</v>
       </c>
       <c r="N36" s="25">
-        <f t="shared" ref="N36" si="35">N23/N9</f>
+        <f t="shared" ref="N36" si="40">N23/N9</f>
         <v>-2.9868578255674411E-3</v>
       </c>
       <c r="O36" s="25">
@@ -4597,15 +4603,15 @@
         <v>7.8903140203449823E-2</v>
       </c>
       <c r="Q36" s="25">
-        <f t="shared" ref="Q36:R36" si="36">Q23/Q9</f>
+        <f t="shared" ref="Q36:R36" si="41">Q23/Q9</f>
         <v>-4.7698570086629734E-2</v>
       </c>
       <c r="R36" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>2.3053869207714925E-3</v>
       </c>
       <c r="S36" s="25">
-        <f t="shared" ref="S36" si="37">S23/S9</f>
+        <f t="shared" ref="S36" si="42">S23/S9</f>
         <v>-5.1090031619237815E-2</v>
       </c>
       <c r="T36" s="25">
@@ -4626,11 +4632,11 @@
         <v>71</v>
       </c>
       <c r="E37" s="25">
-        <f t="shared" ref="E37:G37" si="38">E22/E21</f>
+        <f t="shared" ref="E37:G37" si="43">E22/E21</f>
         <v>2.3417721518987515</v>
       </c>
       <c r="G37" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0.12711864406779658</v>
       </c>
       <c r="H37" s="25">
@@ -4638,19 +4644,19 @@
         <v>2.4375000000000546</v>
       </c>
       <c r="I37" s="25">
-        <f t="shared" ref="I37:J37" si="39">I22/I21</f>
+        <f t="shared" ref="I37:J37" si="44">I22/I21</f>
         <v>-1.0974930362116948</v>
       </c>
       <c r="J37" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>-1.1633919338159242</v>
       </c>
       <c r="K37" s="25">
-        <f t="shared" ref="K37:L37" si="40">K22/K21</f>
+        <f t="shared" ref="K37:L37" si="45">K22/K21</f>
         <v>-1.6982358402971207</v>
       </c>
       <c r="L37" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0.19887237314197853</v>
       </c>
       <c r="M37" s="25">
@@ -4658,7 +4664,7 @@
         <v>0.19582772543741597</v>
       </c>
       <c r="N37" s="25">
-        <f t="shared" ref="N37" si="41">N22/N21</f>
+        <f t="shared" ref="N37" si="46">N22/N21</f>
         <v>1.4824561403508625</v>
       </c>
       <c r="O37" s="25">
@@ -4670,15 +4676,15 @@
         <v>-6.6985645933014315E-2</v>
       </c>
       <c r="Q37" s="25">
-        <f t="shared" ref="Q37:R37" si="42">Q22/Q21</f>
+        <f t="shared" ref="Q37:R37" si="47">Q22/Q21</f>
         <v>-0.82800000000000162</v>
       </c>
       <c r="R37" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.94800693240901301</v>
       </c>
       <c r="S37" s="25">
-        <f t="shared" ref="S37" si="43">S22/S21</f>
+        <f t="shared" ref="S37" si="48">S22/S21</f>
         <v>0.62098765432098757</v>
       </c>
       <c r="T37" s="25">
@@ -4704,63 +4710,63 @@
         <v>83</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" ref="D41:E41" si="44">D42+D50</f>
+        <f t="shared" ref="D41" si="49">D42+D50</f>
         <v>48</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41" si="45">E42+E50</f>
+        <f t="shared" ref="E41" si="50">E42+E50</f>
         <v>39</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" ref="G41:H41" si="46">G42+G50</f>
+        <f t="shared" ref="G41:H41" si="51">G42+G50</f>
         <v>22</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>51</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" ref="I41:J41" si="47">I42+I50</f>
+        <f t="shared" ref="I41:J41" si="52">I42+I50</f>
         <v>44</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>81</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" ref="K41:L41" si="48">K42+K50</f>
+        <f t="shared" ref="K41:L41" si="53">K42+K50</f>
         <v>14</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>17</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" ref="M41" si="49">M42+M50</f>
+        <f t="shared" ref="M41" si="54">M42+M50</f>
         <v>48</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" ref="N41:S41" si="50">N42+N50</f>
+        <f t="shared" ref="N41:S41" si="55">N42+N50</f>
         <v>71</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" ref="O41" si="51">O42+O50</f>
+        <f t="shared" ref="O41" si="56">O42+O50</f>
         <v>22</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>34</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>30</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>55</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>26</v>
       </c>
       <c r="T41" s="2">
@@ -4789,67 +4795,67 @@
         <v>15</v>
       </c>
       <c r="G42" s="40">
-        <f t="shared" ref="G42" si="52">SUM(G43:G48)</f>
+        <f t="shared" ref="G42" si="57">SUM(G43:G48)</f>
         <v>11</v>
       </c>
       <c r="H42" s="40">
-        <f t="shared" ref="G42:T44" si="53">SUM(H43:H48)</f>
+        <f t="shared" ref="H42:T42" si="58">SUM(H43:H48)</f>
         <v>26</v>
       </c>
       <c r="I42" s="40">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>17</v>
       </c>
       <c r="J42" s="40">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>35</v>
       </c>
       <c r="K42" s="40">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>5</v>
       </c>
       <c r="L42" s="40">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>4</v>
       </c>
       <c r="M42" s="40">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>27</v>
       </c>
       <c r="N42" s="40">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>28</v>
       </c>
       <c r="O42" s="40">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>9</v>
       </c>
       <c r="P42" s="40">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
       <c r="Q42" s="40">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>9</v>
       </c>
       <c r="R42" s="40">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>16</v>
       </c>
       <c r="S42" s="40">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>6</v>
       </c>
       <c r="T42" s="40">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>11</v>
       </c>
       <c r="AA42" s="40">
-        <f t="shared" ref="AA42:AB42" si="54">SUM(AA43:AA48)</f>
+        <f t="shared" ref="AA42:AB42" si="59">SUM(AA43:AA48)</f>
         <v>44</v>
       </c>
       <c r="AB42" s="40">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>48</v>
       </c>
     </row>
@@ -5225,11 +5231,11 @@
         <v>25</v>
       </c>
       <c r="I50" s="40">
-        <f t="shared" ref="I50:J50" si="55">I51+I52+I53</f>
+        <f t="shared" ref="I50:J50" si="60">I51+I52+I53</f>
         <v>27</v>
       </c>
       <c r="J50" s="40">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>46</v>
       </c>
       <c r="K50" s="40">
@@ -5241,35 +5247,35 @@
         <v>13</v>
       </c>
       <c r="M50" s="40">
-        <f t="shared" ref="M50" si="56">M51+M52+M53</f>
+        <f t="shared" ref="M50" si="61">M51+M52+M53</f>
         <v>21</v>
       </c>
       <c r="N50" s="40">
-        <f t="shared" ref="N50:T50" si="57">N51+N52+N53</f>
+        <f t="shared" ref="N50:T50" si="62">N51+N52+N53</f>
         <v>43</v>
       </c>
       <c r="O50" s="40">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>13</v>
       </c>
       <c r="P50" s="40">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>20</v>
       </c>
       <c r="Q50" s="40">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>21</v>
       </c>
       <c r="R50" s="40">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>39</v>
       </c>
       <c r="S50" s="40">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>20</v>
       </c>
       <c r="T50" s="40">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>21</v>
       </c>
       <c r="AA50" s="40">
@@ -5611,7 +5617,7 @@
         <v>240.4</v>
       </c>
       <c r="AA58" s="27">
-        <f t="shared" ref="AA58:AA62" si="58">N58</f>
+        <f t="shared" ref="AA58:AA62" si="63">N58</f>
         <v>203.4</v>
       </c>
       <c r="AB58" s="27">
@@ -5663,11 +5669,11 @@
         <v>2.5</v>
       </c>
       <c r="AA59" s="27">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="AB59" s="27">
-        <f t="shared" ref="AB59:AB81" si="59">R59</f>
+        <f t="shared" ref="AB59:AB81" si="64">R59</f>
         <v>0.1</v>
       </c>
     </row>
@@ -5715,11 +5721,11 @@
         <v>5.8</v>
       </c>
       <c r="AA60" s="27">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>8.5</v>
       </c>
       <c r="AB60" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>9.6</v>
       </c>
     </row>
@@ -5767,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="AA61" s="27">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AB61" s="27">
@@ -5819,11 +5825,11 @@
         <v>620</v>
       </c>
       <c r="AA62" s="27">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>461.8</v>
       </c>
       <c r="AB62" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>582.29999999999995</v>
       </c>
     </row>
@@ -5923,11 +5929,11 @@
         <v>101.9</v>
       </c>
       <c r="AA64" s="27">
-        <f t="shared" ref="AA64:AA67" si="60">N64</f>
+        <f t="shared" ref="AA64:AA67" si="65">N64</f>
         <v>114.1</v>
       </c>
       <c r="AB64" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>114.5</v>
       </c>
     </row>
@@ -5975,11 +5981,11 @@
         <v>0</v>
       </c>
       <c r="AA65" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>0.2</v>
       </c>
       <c r="AB65" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.6</v>
       </c>
     </row>
@@ -6027,11 +6033,11 @@
         <v>209.3</v>
       </c>
       <c r="AA66" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>180.9</v>
       </c>
       <c r="AB66" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>193.7</v>
       </c>
     </row>
@@ -6079,11 +6085,11 @@
         <v>0</v>
       </c>
       <c r="AA67" s="27">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AB67" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>230.9</v>
       </c>
     </row>
@@ -6092,55 +6098,55 @@
         <v>104</v>
       </c>
       <c r="H68" s="27">
-        <f t="shared" ref="H68:T68" si="61">SUM(H56:H67)</f>
+        <f t="shared" ref="H68:T68" si="66">SUM(H56:H67)</f>
         <v>7009.2</v>
       </c>
       <c r="I68" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>6737.2</v>
       </c>
       <c r="J68" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>6191.5999999999995</v>
       </c>
       <c r="K68" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>6442.2</v>
       </c>
       <c r="L68" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>6081.4000000000005</v>
       </c>
       <c r="M68" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>6019.7999999999993</v>
       </c>
       <c r="N68" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>6115.7</v>
       </c>
       <c r="O68" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>5903</v>
       </c>
       <c r="P68" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>5929.3</v>
       </c>
       <c r="Q68" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>6019.7999999999993</v>
       </c>
       <c r="R68" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>5875.7999999999993</v>
       </c>
       <c r="S68" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>5536.6</v>
       </c>
       <c r="T68" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>5367.9000000000005</v>
       </c>
       <c r="AA68" s="27">
@@ -6248,11 +6254,11 @@
         <v>1.5</v>
       </c>
       <c r="AA70" s="27">
-        <f t="shared" ref="AA70:AA80" si="62">N70</f>
+        <f t="shared" ref="AA70:AA80" si="67">N70</f>
         <v>0</v>
       </c>
       <c r="AB70" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
     </row>
@@ -6404,11 +6410,11 @@
         <v>0</v>
       </c>
       <c r="AA73" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>1.5</v>
       </c>
       <c r="AB73" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>2.4</v>
       </c>
     </row>
@@ -6456,11 +6462,11 @@
         <v>14.5</v>
       </c>
       <c r="AA74" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>21.4</v>
       </c>
       <c r="AB74" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>22.4</v>
       </c>
     </row>
@@ -6508,11 +6514,11 @@
         <v>0.9</v>
       </c>
       <c r="AA75" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AB75" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
     </row>
@@ -6560,11 +6566,11 @@
         <v>23.3</v>
       </c>
       <c r="AA76" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>104.6</v>
       </c>
       <c r="AB76" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>97.6</v>
       </c>
     </row>
@@ -6612,11 +6618,11 @@
         <v>165</v>
       </c>
       <c r="AA77" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>120.7</v>
       </c>
       <c r="AB77" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>125.6</v>
       </c>
     </row>
@@ -6664,11 +6670,11 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="AA78" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>5.2</v>
       </c>
       <c r="AB78" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -6716,11 +6722,11 @@
         <v>1652.5</v>
       </c>
       <c r="AA79" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>1956</v>
       </c>
       <c r="AB79" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>1687.6</v>
       </c>
     </row>
@@ -6768,11 +6774,11 @@
         <v>2231.3000000000002</v>
       </c>
       <c r="AA80" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>2075.6</v>
       </c>
       <c r="AB80" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>2213.4</v>
       </c>
     </row>
@@ -6824,7 +6830,7 @@
         <v>62.3</v>
       </c>
       <c r="AB81" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>60.2</v>
       </c>
     </row>
@@ -6833,55 +6839,55 @@
         <v>98</v>
       </c>
       <c r="H82" s="27">
-        <f t="shared" ref="H82:T82" si="63">SUM(H69:H81)+H68</f>
+        <f t="shared" ref="H82:T82" si="68">SUM(H69:H81)+H68</f>
         <v>11273.4</v>
       </c>
       <c r="I82" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>11062.5</v>
       </c>
       <c r="J82" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>10572.5</v>
       </c>
       <c r="K82" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>10856.099999999999</v>
       </c>
       <c r="L82" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>10325.400000000001</v>
       </c>
       <c r="M82" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>10382.700000000001</v>
       </c>
       <c r="N82" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>10516</v>
       </c>
       <c r="O82" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>10308.1</v>
       </c>
       <c r="P82" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>10341.299999999999</v>
       </c>
       <c r="Q82" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>10382.700000000001</v>
       </c>
       <c r="R82" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>10155</v>
       </c>
       <c r="S82" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>9868.4</v>
       </c>
       <c r="T82" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>9698.7999999999993</v>
       </c>
       <c r="AA82" s="27">
@@ -6999,11 +7005,11 @@
         <v>12.3</v>
       </c>
       <c r="AA85" s="27">
-        <f t="shared" ref="AA85:AA98" si="64">N85</f>
+        <f t="shared" ref="AA85:AA98" si="69">N85</f>
         <v>0</v>
       </c>
       <c r="AB85" s="27">
-        <f t="shared" ref="AB85:AB98" si="65">R85</f>
+        <f t="shared" ref="AB85:AB98" si="70">R85</f>
         <v>14.8</v>
       </c>
     </row>
@@ -7051,11 +7057,11 @@
         <v>11.3</v>
       </c>
       <c r="AA86" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>11.4</v>
       </c>
       <c r="AB86" s="27">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>11.5</v>
       </c>
     </row>
@@ -7207,11 +7213,11 @@
         <v>258.8</v>
       </c>
       <c r="AA89" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>249.9</v>
       </c>
       <c r="AB89" s="27">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>241.3</v>
       </c>
     </row>
@@ -7259,11 +7265,11 @@
         <v>1317.8</v>
       </c>
       <c r="AA90" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>1033</v>
       </c>
       <c r="AB90" s="27">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>1204.5999999999999</v>
       </c>
     </row>
@@ -7363,11 +7369,11 @@
         <v>37.1</v>
       </c>
       <c r="AA92" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>71.900000000000006</v>
       </c>
       <c r="AB92" s="27">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>40.4</v>
       </c>
     </row>
@@ -7415,11 +7421,11 @@
         <v>79.8</v>
       </c>
       <c r="AA93" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>40.700000000000003</v>
       </c>
       <c r="AB93" s="27">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>71.599999999999994</v>
       </c>
     </row>
@@ -7467,11 +7473,11 @@
         <v>0</v>
       </c>
       <c r="AA94" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>42.6</v>
       </c>
       <c r="AB94" s="27">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>15.8</v>
       </c>
     </row>
@@ -7519,11 +7525,11 @@
         <v>2.6</v>
       </c>
       <c r="AA95" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.5</v>
       </c>
       <c r="AB95" s="27">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>2.5</v>
       </c>
     </row>
@@ -7571,11 +7577,11 @@
         <v>111.8</v>
       </c>
       <c r="AA96" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>98.5</v>
       </c>
       <c r="AB96" s="27">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>108.9</v>
       </c>
     </row>
@@ -7623,11 +7629,11 @@
         <v>0</v>
       </c>
       <c r="AA97" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>1.2</v>
       </c>
       <c r="AB97" s="27">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
     </row>
@@ -7675,11 +7681,11 @@
         <v>0</v>
       </c>
       <c r="AA98" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AB98" s="27">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>45.1</v>
       </c>
     </row>
@@ -7688,55 +7694,55 @@
         <v>115</v>
       </c>
       <c r="H99" s="27">
-        <f t="shared" ref="H99:T99" si="66">SUM(H84:H98)</f>
+        <f t="shared" ref="H99:T99" si="71">SUM(H84:H98)</f>
         <v>3235.1000000000004</v>
       </c>
       <c r="I99" s="27">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>3200.8999999999996</v>
       </c>
       <c r="J99" s="27">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>2838.4</v>
       </c>
       <c r="K99" s="27">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>3364.2999999999993</v>
       </c>
       <c r="L99" s="27">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>2938</v>
       </c>
       <c r="M99" s="27">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>2953.6</v>
       </c>
       <c r="N99" s="27">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>2428.6999999999998</v>
       </c>
       <c r="O99" s="27">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>2410.1999999999998</v>
       </c>
       <c r="P99" s="27">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>2856.2400000000002</v>
       </c>
       <c r="Q99" s="27">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>2953.6</v>
       </c>
       <c r="R99" s="27">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>2828.8</v>
       </c>
       <c r="S99" s="27">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>2756.3</v>
       </c>
       <c r="T99" s="27">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>2640.1000000000004</v>
       </c>
       <c r="AA99" s="27">
@@ -7948,11 +7954,11 @@
         <v>55.1</v>
       </c>
       <c r="AA103" s="27">
-        <f t="shared" ref="AA103:AA110" si="67">N103</f>
+        <f t="shared" ref="AA103:AA110" si="72">N103</f>
         <v>42.3</v>
       </c>
       <c r="AB103" s="27">
-        <f t="shared" ref="AB103:AB110" si="68">R103</f>
+        <f t="shared" ref="AB103:AB110" si="73">R103</f>
         <v>57.6</v>
       </c>
     </row>
@@ -8000,11 +8006,11 @@
         <v>478.5</v>
       </c>
       <c r="AA104" s="27">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>262.39999999999998</v>
       </c>
       <c r="AB104" s="27">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>308.7</v>
       </c>
     </row>
@@ -8052,11 +8058,11 @@
         <v>0</v>
       </c>
       <c r="AA105" s="27">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="AB105" s="27">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
     </row>
@@ -8104,11 +8110,11 @@
         <v>12.1</v>
       </c>
       <c r="AA106" s="27">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>11.8</v>
       </c>
       <c r="AB106" s="27">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>10</v>
       </c>
     </row>
@@ -8156,11 +8162,11 @@
         <v>334.4</v>
       </c>
       <c r="AA107" s="27">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>474.7</v>
       </c>
       <c r="AB107" s="27">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>505.8</v>
       </c>
     </row>
@@ -8208,11 +8214,11 @@
         <v>0</v>
       </c>
       <c r="AA108" s="27">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>82.6</v>
       </c>
       <c r="AB108" s="27">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>2.9</v>
       </c>
     </row>
@@ -8260,11 +8266,11 @@
         <v>27.2</v>
       </c>
       <c r="AA109" s="27">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>57.3</v>
       </c>
       <c r="AB109" s="27">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>37.700000000000003</v>
       </c>
     </row>
@@ -8312,11 +8318,11 @@
         <v>133.4</v>
       </c>
       <c r="AA110" s="27">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>114.2</v>
       </c>
       <c r="AB110" s="27">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>120.5</v>
       </c>
     </row>
@@ -8325,55 +8331,55 @@
         <v>118</v>
       </c>
       <c r="H111" s="27">
-        <f t="shared" ref="H111:T111" si="69">SUM(H100:H110)+H99</f>
+        <f t="shared" ref="H111:T111" si="74">SUM(H100:H110)+H99</f>
         <v>7363.3</v>
       </c>
       <c r="I111" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>7260.1999999999989</v>
       </c>
       <c r="J111" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>6957.9</v>
       </c>
       <c r="K111" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>7571.6999999999989</v>
       </c>
       <c r="L111" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>7345.1</v>
       </c>
       <c r="M111" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>7574.5</v>
       </c>
       <c r="N111" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>7608.5</v>
       </c>
       <c r="O111" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>7513.7</v>
       </c>
       <c r="P111" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>7455.6400000000012</v>
       </c>
       <c r="Q111" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>7574.5</v>
       </c>
       <c r="R111" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>7379.9999999999991</v>
       </c>
       <c r="S111" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>7111.5000000000009</v>
       </c>
       <c r="T111" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>6826.0999999999995</v>
       </c>
       <c r="AA111" s="27">
@@ -8452,55 +8458,55 @@
         <v>120</v>
       </c>
       <c r="H114" s="27">
-        <f t="shared" ref="H114:K114" si="70">H113+H111</f>
+        <f t="shared" ref="H114:K114" si="75">H113+H111</f>
         <v>11273.4</v>
       </c>
       <c r="I114" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>11062.5</v>
       </c>
       <c r="J114" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>10572.5</v>
       </c>
       <c r="K114" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>10856.099999999999</v>
       </c>
       <c r="L114" s="27">
-        <f t="shared" ref="L114:T114" si="71">L113+L111</f>
+        <f t="shared" ref="L114:T114" si="76">L113+L111</f>
         <v>10325.400000000001</v>
       </c>
       <c r="M114" s="27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>10382.700000000001</v>
       </c>
       <c r="N114" s="27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>10516</v>
       </c>
       <c r="O114" s="27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>10308.1</v>
       </c>
       <c r="P114" s="27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>10341.34</v>
       </c>
       <c r="Q114" s="27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>10382.700000000001</v>
       </c>
       <c r="R114" s="27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>10155</v>
       </c>
       <c r="S114" s="27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>9868.4000000000015</v>
       </c>
       <c r="T114" s="27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>9698.7999999999993</v>
       </c>
       <c r="AA114" s="27">
@@ -8523,47 +8529,47 @@
         <v>121</v>
       </c>
       <c r="H116" s="27">
-        <f t="shared" ref="H116:J116" si="72">H82-H111</f>
+        <f t="shared" ref="H116:I116" si="77">H82-H111</f>
         <v>3910.0999999999995</v>
       </c>
       <c r="I116" s="27">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>3802.3000000000011</v>
       </c>
       <c r="J116" s="27">
-        <f t="shared" ref="J116:K116" si="73">J82-J111</f>
+        <f t="shared" ref="J116:K116" si="78">J82-J111</f>
         <v>3614.6000000000004</v>
       </c>
       <c r="K116" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>3284.3999999999996</v>
       </c>
       <c r="L116" s="27">
-        <f t="shared" ref="L116:O116" si="74">L82-L111</f>
+        <f t="shared" ref="L116:O116" si="79">L82-L111</f>
         <v>2980.3000000000011</v>
       </c>
       <c r="M116" s="27">
-        <f t="shared" ref="M116" si="75">M82-M111</f>
+        <f t="shared" ref="M116" si="80">M82-M111</f>
         <v>2808.2000000000007</v>
       </c>
       <c r="N116" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>2907.5</v>
       </c>
       <c r="O116" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>2794.4000000000005</v>
       </c>
       <c r="P116" s="27">
-        <f t="shared" ref="P116:Q116" si="76">P82-P111</f>
+        <f t="shared" ref="P116:Q116" si="81">P82-P111</f>
         <v>2885.659999999998</v>
       </c>
       <c r="Q116" s="27">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>2808.2000000000007</v>
       </c>
       <c r="R116" s="27">
-        <f t="shared" ref="R116" si="77">R82-R111</f>
+        <f t="shared" ref="R116" si="82">R82-R111</f>
         <v>2775.0000000000009</v>
       </c>
       <c r="S116" s="27">
@@ -8575,7 +8581,7 @@
         <v>2872.7</v>
       </c>
       <c r="AA116" s="27">
-        <f t="shared" ref="AA116" si="78">AA82-AA111</f>
+        <f t="shared" ref="AA116" si="83">AA82-AA111</f>
         <v>2907.5</v>
       </c>
       <c r="AB116" s="27">
@@ -8588,47 +8594,47 @@
         <v>122</v>
       </c>
       <c r="H117" s="3">
-        <f t="shared" ref="H117:J117" si="79">H116/H27</f>
+        <f t="shared" ref="H117:I117" si="84">H116/H27</f>
         <v>5.3140799130198415</v>
       </c>
       <c r="I117" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>5.1675727099755386</v>
       </c>
       <c r="J117" s="3">
-        <f t="shared" ref="J117:K117" si="80">J116/J27</f>
+        <f t="shared" ref="J117:K117" si="85">J116/J27</f>
         <v>4.911808669656204</v>
       </c>
       <c r="K117" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>4.4618937644341798</v>
       </c>
       <c r="L117" s="3">
-        <f t="shared" ref="L117:M117" si="81">L116/L27</f>
+        <f t="shared" ref="L117:M117" si="86">L116/L27</f>
         <v>4.0482205922303738</v>
       </c>
       <c r="M117" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>3.8144525944036953</v>
       </c>
       <c r="N117" s="3">
-        <f t="shared" ref="N117:Q117" si="82">N116/N27</f>
+        <f t="shared" ref="N117:Q117" si="87">N116/N27</f>
         <v>3.9493344199945666</v>
       </c>
       <c r="O117" s="3">
-        <f t="shared" ref="O117" si="83">O116/O27</f>
+        <f t="shared" ref="O117" si="88">O116/O27</f>
         <v>3.8019047619047628</v>
       </c>
       <c r="P117" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>3.9271366358192683</v>
       </c>
       <c r="Q117" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>3.821720195971694</v>
       </c>
       <c r="R117" s="3">
-        <f t="shared" ref="R117" si="84">R116/R27</f>
+        <f t="shared" ref="R117" si="89">R116/R27</f>
         <v>3.7770518579011854</v>
       </c>
       <c r="S117" s="3">
@@ -8640,7 +8646,7 @@
         <v>3.9105635720119789</v>
       </c>
       <c r="AA117" s="3">
-        <f t="shared" ref="AA117" si="85">AA116/AA27</f>
+        <f t="shared" ref="AA117" si="90">AA116/AA27</f>
         <v>3.9493344199945666</v>
       </c>
       <c r="AB117" s="3">
@@ -8653,51 +8659,51 @@
         <v>6</v>
       </c>
       <c r="H119" s="52">
-        <f t="shared" ref="H119:J119" si="86">H56+H57+H69+H71</f>
+        <f t="shared" ref="H119:I119" si="91">H56+H57+H69+H71</f>
         <v>2480.8999999999996</v>
       </c>
       <c r="I119" s="52">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>2177.2000000000003</v>
       </c>
       <c r="J119" s="52">
-        <f t="shared" ref="J119:K119" si="87">J56+J57+J69+J71</f>
+        <f t="shared" ref="J119:K119" si="92">J56+J57+J69+J71</f>
         <v>2780.6</v>
       </c>
       <c r="K119" s="52">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>2501.1</v>
       </c>
       <c r="L119" s="52">
-        <f t="shared" ref="L119:O119" si="88">L56+L57+L69+L71</f>
+        <f t="shared" ref="L119:O119" si="93">L56+L57+L69+L71</f>
         <v>1998.9</v>
       </c>
       <c r="M119" s="52">
-        <f t="shared" ref="M119" si="89">M56+M57+M69+M71</f>
+        <f t="shared" ref="M119" si="94">M56+M57+M69+M71</f>
         <v>2503.6999999999998</v>
       </c>
       <c r="N119" s="52">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>2753.6</v>
       </c>
       <c r="O119" s="52">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>2463.4</v>
       </c>
       <c r="P119" s="52">
-        <f t="shared" ref="P119:Q119" si="90">P56+P57+P69+P71</f>
+        <f t="shared" ref="P119:Q119" si="95">P56+P57+P69+P71</f>
         <v>2514.3000000000002</v>
       </c>
       <c r="Q119" s="52">
-        <f t="shared" si="90"/>
+        <f t="shared" si="95"/>
         <v>2503.6999999999998</v>
       </c>
       <c r="R119" s="52">
-        <f t="shared" ref="R119" si="91">R56+R57+R69+R71</f>
+        <f t="shared" ref="R119" si="96">R56+R57+R69+R71</f>
         <v>2634.7</v>
       </c>
       <c r="S119" s="52">
-        <f t="shared" ref="S119" si="92">S56+S57+S69+S71</f>
+        <f t="shared" ref="S119" si="97">S56+S57+S69+S71</f>
         <v>2104.1999999999998</v>
       </c>
       <c r="T119" s="52">
@@ -8705,7 +8711,7 @@
         <v>1968.2</v>
       </c>
       <c r="AA119" s="52">
-        <f t="shared" ref="AA119" si="93">AA56+AA57+AA69+AA71</f>
+        <f t="shared" ref="AA119" si="98">AA56+AA57+AA69+AA71</f>
         <v>2753.6</v>
       </c>
       <c r="AB119" s="52">
@@ -8718,19 +8724,19 @@
         <v>7</v>
       </c>
       <c r="H120" s="52">
-        <f t="shared" ref="H120:J120" si="94">H87+H91+H101+H88+H102</f>
+        <f t="shared" ref="H120:I120" si="99">H87+H91+H101+H88+H102</f>
         <v>3879.5</v>
       </c>
       <c r="I120" s="52">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>3811.6</v>
       </c>
       <c r="J120" s="52">
-        <f t="shared" ref="J120:K120" si="95">J87+J91+J101+J88+J102</f>
+        <f t="shared" ref="J120:K120" si="100">J87+J91+J101+J88+J102</f>
         <v>3414.4</v>
       </c>
       <c r="K120" s="52">
-        <f t="shared" si="95"/>
+        <f t="shared" si="100"/>
         <v>3862.2</v>
       </c>
       <c r="L120" s="52">
@@ -8738,7 +8744,7 @@
         <v>3826.3999999999996</v>
       </c>
       <c r="M120" s="52">
-        <f t="shared" ref="M120" si="96">M87+M91+M101+M88+M102</f>
+        <f t="shared" ref="M120" si="101">M87+M91+M101+M88+M102</f>
         <v>4310.1000000000004</v>
       </c>
       <c r="N120" s="52">
@@ -8746,35 +8752,35 @@
         <v>4449.2</v>
       </c>
       <c r="O120" s="52">
-        <f t="shared" ref="O120" si="97">O87+O91+O101+O88+O102</f>
+        <f t="shared" ref="O120" si="102">O87+O91+O101+O88+O102</f>
         <v>4380</v>
       </c>
       <c r="P120" s="52">
-        <f t="shared" ref="P120:T120" si="98">P87+P91+P101+P88+P102</f>
+        <f t="shared" ref="P120:T120" si="103">P87+P91+P101+P88+P102</f>
         <v>4334.0999999999995</v>
       </c>
       <c r="Q120" s="52">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>4310.1000000000004</v>
       </c>
       <c r="R120" s="52">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>4029.7999999999997</v>
       </c>
       <c r="S120" s="52">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>3559</v>
       </c>
       <c r="T120" s="52">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>3173.8999999999996</v>
       </c>
       <c r="AA120" s="52">
-        <f t="shared" ref="AA120:AB120" si="99">AA87+AA91+AA101+AA88+AA102</f>
+        <f t="shared" ref="AA120:AB120" si="104">AA87+AA91+AA101+AA88+AA102</f>
         <v>4449.2</v>
       </c>
       <c r="AB120" s="52">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>4029.7999999999997</v>
       </c>
     </row>
@@ -8783,47 +8789,47 @@
         <v>8</v>
       </c>
       <c r="H121" s="27">
-        <f t="shared" ref="H121:J121" si="100">H119-H120</f>
+        <f t="shared" ref="H121:I121" si="105">H119-H120</f>
         <v>-1398.6000000000004</v>
       </c>
       <c r="I121" s="27">
-        <f t="shared" si="100"/>
+        <f t="shared" si="105"/>
         <v>-1634.3999999999996</v>
       </c>
       <c r="J121" s="27">
-        <f t="shared" ref="J121:K121" si="101">J119-J120</f>
+        <f t="shared" ref="J121:K121" si="106">J119-J120</f>
         <v>-633.80000000000018</v>
       </c>
       <c r="K121" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="106"/>
         <v>-1361.1</v>
       </c>
       <c r="L121" s="27">
-        <f t="shared" ref="L121:M121" si="102">L119-L120</f>
+        <f t="shared" ref="L121:M121" si="107">L119-L120</f>
         <v>-1827.4999999999995</v>
       </c>
       <c r="M121" s="27">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>-1806.4000000000005</v>
       </c>
       <c r="N121" s="27">
-        <f t="shared" ref="N121:R121" si="103">N119-N120</f>
+        <f t="shared" ref="N121:R121" si="108">N119-N120</f>
         <v>-1695.6</v>
       </c>
       <c r="O121" s="27">
-        <f t="shared" ref="O121" si="104">O119-O120</f>
+        <f t="shared" ref="O121" si="109">O119-O120</f>
         <v>-1916.6</v>
       </c>
       <c r="P121" s="27">
-        <f t="shared" si="103"/>
+        <f t="shared" si="108"/>
         <v>-1819.7999999999993</v>
       </c>
       <c r="Q121" s="27">
-        <f t="shared" si="103"/>
+        <f t="shared" si="108"/>
         <v>-1806.4000000000005</v>
       </c>
       <c r="R121" s="27">
-        <f t="shared" si="103"/>
+        <f t="shared" si="108"/>
         <v>-1395.1</v>
       </c>
       <c r="S121" s="27">
@@ -8835,7 +8841,7 @@
         <v>-1205.6999999999996</v>
       </c>
       <c r="AA121" s="27">
-        <f t="shared" ref="AA121" si="105">AA119-AA120</f>
+        <f t="shared" ref="AA121" si="110">AA119-AA120</f>
         <v>-1695.6</v>
       </c>
       <c r="AB121" s="27">
@@ -8848,35 +8854,35 @@
         <v>134</v>
       </c>
       <c r="L123" s="34">
-        <f t="shared" ref="L123" si="106">L63/H63-1</f>
+        <f t="shared" ref="L123" si="111">L63/H63-1</f>
         <v>4.1440601804080712E-2</v>
       </c>
       <c r="M123" s="34">
-        <f t="shared" ref="M123" si="107">M63/I63-1</f>
+        <f t="shared" ref="M123" si="112">M63/I63-1</f>
         <v>-0.25227884646576049</v>
       </c>
       <c r="N123" s="34">
-        <f t="shared" ref="N123" si="108">N63/J63-1</f>
+        <f t="shared" ref="N123" si="113">N63/J63-1</f>
         <v>2.2609060402684511E-2</v>
       </c>
       <c r="O123" s="34">
-        <f t="shared" ref="O123" si="109">O63/K63-1</f>
+        <f t="shared" ref="O123" si="114">O63/K63-1</f>
         <v>-0.15109561412504702</v>
       </c>
       <c r="P123" s="34">
-        <f t="shared" ref="P123:S123" si="110">P63/L63-1</f>
+        <f t="shared" ref="P123:S123" si="115">P63/L63-1</f>
         <v>-0.26009971874200977</v>
       </c>
       <c r="Q123" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="R123" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>-0.18536445301283899</v>
       </c>
       <c r="S123" s="34">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>-0.10490073692264323</v>
       </c>
       <c r="T123" s="34">
@@ -8893,35 +8899,35 @@
         <v>135</v>
       </c>
       <c r="I124" s="25">
-        <f t="shared" ref="I124" si="111">I63/H63-1</f>
+        <f t="shared" ref="I124" si="116">I63/H63-1</f>
         <v>2.6095929168192145E-2</v>
       </c>
       <c r="J124" s="25">
-        <f t="shared" ref="J124" si="112">J63/I63-1</f>
+        <f t="shared" ref="J124" si="117">J63/I63-1</f>
         <v>-0.22665196094332885</v>
       </c>
       <c r="K124" s="25">
-        <f t="shared" ref="K124:P124" si="113">K63/J63-1</f>
+        <f t="shared" ref="K124:P124" si="118">K63/J63-1</f>
         <v>0.22705536912751678</v>
       </c>
       <c r="L124" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>6.9565514648070259E-2</v>
       </c>
       <c r="M124" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>-0.26329583226796216</v>
       </c>
       <c r="N124" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>5.7657266811279806E-2</v>
       </c>
       <c r="O124" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>1.862258501169034E-2</v>
       </c>
       <c r="P124" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>-6.7772721781500511E-2</v>
       </c>
       <c r="Q124" s="25">
@@ -8929,11 +8935,11 @@
         <v>-4.3196544276458138E-3</v>
       </c>
       <c r="R124" s="25">
-        <f t="shared" ref="R124:S124" si="114">R63/Q63-1</f>
+        <f t="shared" ref="R124:S124" si="119">R63/Q63-1</f>
         <v>-0.13839479392624732</v>
       </c>
       <c r="S124" s="25">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0.11923464249748239</v>
       </c>
       <c r="T124" s="25">
@@ -8952,19 +8958,19 @@
         <v>136</v>
       </c>
       <c r="P126" s="25">
-        <f t="shared" ref="P126:S126" si="115">P63/SUM(M9:P9)</f>
+        <f t="shared" ref="P126:S126" si="120">P63/SUM(M9:P9)</f>
         <v>0.51014786575288118</v>
       </c>
       <c r="Q126" s="25">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0.48656407658370798</v>
       </c>
       <c r="R126" s="25">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0.47317259125131039</v>
       </c>
       <c r="S126" s="25">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0.55698105642978857</v>
       </c>
       <c r="T126" s="25">
@@ -8972,7 +8978,7 @@
         <v>0.61685399051350787</v>
       </c>
       <c r="AA126" s="25">
-        <f t="shared" ref="AA126" si="116">AA63/AA9</f>
+        <f t="shared" ref="AA126" si="121">AA63/AA9</f>
         <v>0.64646919996817909</v>
       </c>
       <c r="AB126" s="25">
@@ -9037,59 +9043,59 @@
         <v>179</v>
       </c>
       <c r="H129" s="27">
-        <f t="shared" ref="H129:J129" si="117">H128*H27</f>
+        <f t="shared" ref="H129:I129" si="122">H128*H27</f>
         <v>14877.875999999998</v>
       </c>
       <c r="I129" s="27">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>12692.55</v>
       </c>
       <c r="J129" s="27">
-        <f t="shared" ref="J129:K129" si="118">J128*J27</f>
+        <f t="shared" ref="J129:K129" si="123">J128*J27</f>
         <v>14342.690999999999</v>
       </c>
       <c r="K129" s="27">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>5314.6419999999998</v>
       </c>
       <c r="L129" s="27">
-        <f t="shared" ref="L129" si="119">L128*L27</f>
+        <f t="shared" ref="L129" si="124">L128*L27</f>
         <v>4402.4760000000006</v>
       </c>
       <c r="M129" s="27">
-        <f t="shared" ref="M129:T129" si="120">M128*M27</f>
+        <f t="shared" ref="M129:T129" si="125">M128*M27</f>
         <v>3246.6420000000003</v>
       </c>
       <c r="N129" s="27">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>5013.5219999999999</v>
       </c>
       <c r="O129" s="27">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>7320.6</v>
       </c>
       <c r="P129" s="27">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>11124.871999999999</v>
       </c>
       <c r="Q129" s="27">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>12491.599999999999</v>
       </c>
       <c r="R129" s="27">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>10212.330000000002</v>
       </c>
       <c r="S129" s="27">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>9263.3060000000005</v>
       </c>
       <c r="T129" s="27">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>6449.7879999999996</v>
       </c>
       <c r="AA129" s="27">
-        <f t="shared" ref="AA129" si="121">AA128*AA27</f>
+        <f t="shared" ref="AA129" si="126">AA128*AA27</f>
         <v>5013.5219999999999</v>
       </c>
       <c r="AB129" s="27">
@@ -9102,59 +9108,59 @@
         <v>9</v>
       </c>
       <c r="H130" s="27">
-        <f t="shared" ref="H130:J130" si="122">H129-H121</f>
+        <f t="shared" ref="H130:I130" si="127">H129-H121</f>
         <v>16276.475999999999</v>
       </c>
       <c r="I130" s="27">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>14326.949999999999</v>
       </c>
       <c r="J130" s="27">
-        <f t="shared" ref="J130:K130" si="123">J129-J121</f>
+        <f t="shared" ref="J130:K130" si="128">J129-J121</f>
         <v>14976.490999999998</v>
       </c>
       <c r="K130" s="27">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>6675.7420000000002</v>
       </c>
       <c r="L130" s="27">
-        <f t="shared" ref="L130" si="124">L129-L121</f>
+        <f t="shared" ref="L130" si="129">L129-L121</f>
         <v>6229.9760000000006</v>
       </c>
       <c r="M130" s="27">
-        <f t="shared" ref="M130:T130" si="125">M129-M121</f>
+        <f t="shared" ref="M130:T130" si="130">M129-M121</f>
         <v>5053.0420000000013</v>
       </c>
       <c r="N130" s="27">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>6709.1219999999994</v>
       </c>
       <c r="O130" s="27">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>9237.2000000000007</v>
       </c>
       <c r="P130" s="27">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>12944.671999999999</v>
       </c>
       <c r="Q130" s="27">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>14298</v>
       </c>
       <c r="R130" s="27">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>11607.430000000002</v>
       </c>
       <c r="S130" s="27">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>10718.106</v>
       </c>
       <c r="T130" s="27">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>7655.4879999999994</v>
       </c>
       <c r="AA130" s="27">
-        <f t="shared" ref="AA130" si="126">AA129-AA121</f>
+        <f t="shared" ref="AA130" si="131">AA129-AA121</f>
         <v>6709.1219999999994</v>
       </c>
       <c r="AB130" s="27">
@@ -9167,19 +9173,19 @@
         <v>26</v>
       </c>
       <c r="H132" s="57">
-        <f t="shared" ref="H132:J132" si="127">H128/H117</f>
+        <f t="shared" ref="H132:I132" si="132">H128/H117</f>
         <v>3.8049860617375519</v>
       </c>
       <c r="I132" s="57">
-        <f t="shared" si="127"/>
+        <f t="shared" si="132"/>
         <v>3.3381242931909623</v>
       </c>
       <c r="J132" s="57">
-        <f t="shared" ref="J132:K132" si="128">J128/J117</f>
+        <f t="shared" ref="J132:K132" si="133">J128/J117</f>
         <v>3.9679884357881914</v>
       </c>
       <c r="K132" s="57">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>1.6181469979296066</v>
       </c>
       <c r="L132" s="57">
@@ -9195,7 +9201,7 @@
         <v>1.7243411865864144</v>
       </c>
       <c r="O132" s="57">
-        <f t="shared" ref="O132" si="129">O128/O117</f>
+        <f t="shared" ref="O132" si="134">O128/O117</f>
         <v>2.6197394789579156</v>
       </c>
       <c r="P132" s="57">
@@ -9232,35 +9238,35 @@
         <v>27</v>
       </c>
       <c r="L133" s="57">
-        <f t="shared" ref="L133" si="130">L128/SUM(I9:L9)</f>
+        <f t="shared" ref="L133" si="135">L128/SUM(I9:L9)</f>
         <v>1.3493997653217802E-3</v>
       </c>
       <c r="M133" s="57">
-        <f t="shared" ref="M133" si="131">M128/SUM(J9:M9)</f>
+        <f t="shared" ref="M133" si="136">M128/SUM(J9:M9)</f>
         <v>1.0984631479313523E-3</v>
       </c>
       <c r="N133" s="57">
-        <f t="shared" ref="N133" si="132">N128/SUM(K9:N9)</f>
+        <f t="shared" ref="N133" si="137">N128/SUM(K9:N9)</f>
         <v>1.8058391450770329E-3</v>
       </c>
       <c r="O133" s="57">
-        <f t="shared" ref="O133" si="133">O128/SUM(L9:O9)</f>
+        <f t="shared" ref="O133" si="138">O128/SUM(L9:O9)</f>
         <v>2.5249708462201492E-3</v>
       </c>
       <c r="P133" s="57">
-        <f t="shared" ref="P133:S133" si="134">P128/SUM(M9:P9)</f>
+        <f t="shared" ref="P133:S133" si="139">P128/SUM(M9:P9)</f>
         <v>3.3363450053989726E-3</v>
       </c>
       <c r="Q133" s="57">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>3.5885419964958943E-3</v>
       </c>
       <c r="R133" s="57">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>3.3117316306108839E-3</v>
       </c>
       <c r="S133" s="57">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>3.1597674651698908E-3</v>
       </c>
       <c r="T133" s="57">
@@ -9268,7 +9274,7 @@
         <v>2.2633532687151986E-3</v>
       </c>
       <c r="AA133" s="57">
-        <f t="shared" ref="AA133" si="135">AA129/AA9</f>
+        <f t="shared" ref="AA133" si="140">AA129/AA9</f>
         <v>1.3294587786057119</v>
       </c>
       <c r="AB133" s="57">
@@ -9281,35 +9287,35 @@
         <v>28</v>
       </c>
       <c r="L134" s="57">
-        <f t="shared" ref="L134" si="136">L128/SUM(I26:L26)</f>
+        <f t="shared" ref="L134" si="141">L128/SUM(I26:L26)</f>
         <v>-4.921897835209367</v>
       </c>
       <c r="M134" s="57">
-        <f t="shared" ref="M134" si="137">M128/SUM(J26:M26)</f>
+        <f t="shared" ref="M134" si="142">M128/SUM(J26:M26)</f>
         <v>-3.4596705334508839</v>
       </c>
       <c r="N134" s="57">
-        <f t="shared" ref="N134" si="138">N128/SUM(K26:N26)</f>
+        <f t="shared" ref="N134" si="143">N128/SUM(K26:N26)</f>
         <v>-6.8505742659676452</v>
       </c>
       <c r="O134" s="57">
-        <f t="shared" ref="O134" si="139">O128/SUM(L26:O26)</f>
+        <f t="shared" ref="O134" si="144">O128/SUM(L26:O26)</f>
         <v>-13.844238952468716</v>
       </c>
       <c r="P134" s="57">
-        <f t="shared" ref="P134:S134" si="140">P128/SUM(M26:P26)</f>
+        <f t="shared" ref="P134:S134" si="145">P128/SUM(M26:P26)</f>
         <v>-88.265429889576552</v>
       </c>
       <c r="Q134" s="57">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>-249.48613055071797</v>
       </c>
       <c r="R134" s="57">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>-228.62115367889854</v>
       </c>
       <c r="S134" s="57">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>697.1161832155442</v>
       </c>
       <c r="T134" s="57">
@@ -9342,7 +9348,7 @@
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
   <ignoredErrors>
     <ignoredError sqref="AA68:AB68 AA99:AB99" formula="1"/>
-    <ignoredError sqref="Q133:T133 P133 P126:T126 O133" formulaRange="1"/>
+    <ignoredError sqref="Q133:T133 P133 P126:T126 O133 L133:N134" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId12"/>
 </worksheet>

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A0F3E6-7F3B-44FF-BC19-0CC9E5FA81A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E6B591-717E-4589-BADE-21D54D452D48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" activeTab="1" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="215">
   <si>
     <t>$ERJ</t>
   </si>
@@ -708,6 +708,12 @@
   </si>
   <si>
     <t>Embraer 170</t>
+  </si>
+  <si>
+    <t>Deliveries Y/Y</t>
+  </si>
+  <si>
+    <t>Deliveries Q/Q</t>
   </si>
 </sst>
 </file>
@@ -926,7 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1067,16 +1073,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,17 +1109,13 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1199,7 +1213,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1249,7 +1263,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1591,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F324B-1DEB-44A7-A7E2-319E26170844}">
   <dimension ref="A2:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="X44" sqref="X44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1736,7 +1750,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="12">
-        <f>'Financial Model'!S119</f>
+        <f>'Financial Model'!S122</f>
         <v>2104.1999999999998</v>
       </c>
       <c r="D9" s="18" t="str">
@@ -1767,7 +1781,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="12">
-        <f>'Financial Model'!T120</f>
+        <f>'Financial Model'!T123</f>
         <v>3173.8999999999996</v>
       </c>
       <c r="D10" s="18" t="str">
@@ -2011,8 +2025,8 @@
     </row>
     <row r="19" spans="2:24">
       <c r="B19" s="17"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
       <c r="G19" s="10"/>
       <c r="H19" s="8" t="s">
         <v>202</v>
@@ -2190,11 +2204,11 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="74">
-        <f>'Financial Model'!T63</f>
+      <c r="C26" s="66">
+        <f>'Financial Model'!T66</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="67"/>
       <c r="G26" s="10"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
@@ -2276,10 +2290,10 @@
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="71"/>
+      <c r="D29" s="75"/>
       <c r="G29" s="10"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
@@ -2370,11 +2384,11 @@
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="72">
-        <f>C6/'Financial Model'!T117</f>
+      <c r="C33" s="76">
+        <f>C6/'Financial Model'!T120</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="73"/>
+      <c r="D33" s="77"/>
       <c r="G33" s="10"/>
       <c r="H33" s="50" t="s">
         <v>168</v>
@@ -2398,11 +2412,11 @@
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="76">
         <f>C6/'Financial Model'!AB9</f>
         <v>2.2515010006671113E-3</v>
       </c>
-      <c r="D34" s="73"/>
+      <c r="D34" s="77"/>
       <c r="G34" s="10"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
@@ -2424,11 +2438,11 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="72">
         <f>C6/'Financial Model'!AB26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="67"/>
+      <c r="D35" s="73"/>
       <c r="G35" s="10"/>
       <c r="H35" s="60"/>
       <c r="I35" s="37"/>
@@ -2618,6 +2632,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B5:D5"/>
@@ -2631,13 +2652,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
@@ -2658,13 +2672,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D70B2A-3077-4926-AE7B-39AF91889CD9}">
-  <dimension ref="B1:AL134"/>
+  <dimension ref="B1:AL137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W51" sqref="W51"/>
+      <selection pane="bottomRight" activeCell="AB55" sqref="Z55:AB55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2701,7 +2715,7 @@
       <c r="I1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="24" t="s">
         <v>39</v>
       </c>
       <c r="K1" s="24" t="s">
@@ -2743,7 +2757,7 @@
       <c r="Y1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="24" t="s">
         <v>78</v>
       </c>
       <c r="AA1" s="15" t="s">
@@ -2785,9 +2799,15 @@
     </row>
     <row r="2" spans="2:38" s="21" customFormat="1">
       <c r="B2" s="20"/>
+      <c r="C2" s="22">
+        <v>43190</v>
+      </c>
       <c r="E2" s="22">
         <v>43373</v>
       </c>
+      <c r="F2" s="22">
+        <v>43465</v>
+      </c>
       <c r="G2" s="22">
         <v>43555</v>
       </c>
@@ -2829,6 +2849,12 @@
       </c>
       <c r="T2" s="22">
         <v>44742</v>
+      </c>
+      <c r="Y2" s="22">
+        <v>43465</v>
+      </c>
+      <c r="Z2" s="22">
+        <v>43830</v>
       </c>
       <c r="AA2" s="22">
         <v>44196</v>
@@ -2842,6 +2868,9 @@
       <c r="I3" s="23">
         <v>43781</v>
       </c>
+      <c r="J3" s="23">
+        <v>43916</v>
+      </c>
       <c r="K3" s="23">
         <v>43983</v>
       </c>
@@ -2864,6 +2893,9 @@
       <c r="T3" s="23">
         <v>44777</v>
       </c>
+      <c r="Z3" s="23">
+        <v>43916</v>
+      </c>
       <c r="AB3" s="23">
         <v>44629</v>
       </c>
@@ -2872,9 +2904,15 @@
       <c r="B4" s="55" t="s">
         <v>172</v>
       </c>
+      <c r="C4" s="52">
+        <v>379.7</v>
+      </c>
       <c r="E4" s="52">
         <v>382.1</v>
       </c>
+      <c r="F4" s="52">
+        <v>839.5</v>
+      </c>
       <c r="G4" s="52">
         <v>281.10000000000002</v>
       </c>
@@ -2916,6 +2954,12 @@
       </c>
       <c r="T4" s="52">
         <v>299.89999999999998</v>
+      </c>
+      <c r="Y4" s="52">
+        <v>2358.3000000000002</v>
+      </c>
+      <c r="Z4" s="52">
+        <v>2234.5</v>
       </c>
       <c r="AA4" s="52">
         <v>1114.4000000000001</v>
@@ -2928,9 +2972,15 @@
       <c r="B5" s="55" t="s">
         <v>173</v>
       </c>
+      <c r="C5" s="52">
+        <v>127.8</v>
+      </c>
       <c r="E5" s="52">
         <v>312</v>
       </c>
+      <c r="F5" s="52">
+        <v>457.2</v>
+      </c>
       <c r="G5" s="52">
         <v>117.3</v>
       </c>
@@ -2972,6 +3022,12 @@
       </c>
       <c r="T5" s="52">
         <v>266.7</v>
+      </c>
+      <c r="Y5" s="52">
+        <v>1104.3</v>
+      </c>
+      <c r="Z5" s="52">
+        <v>1397</v>
       </c>
       <c r="AA5" s="52">
         <v>1071.5</v>
@@ -2984,9 +3040,15 @@
       <c r="B6" s="55" t="s">
         <v>174</v>
       </c>
+      <c r="C6" s="52">
+        <v>210.8</v>
+      </c>
       <c r="E6" s="52">
         <v>230.2</v>
       </c>
+      <c r="F6" s="52">
+        <v>139.4</v>
+      </c>
       <c r="G6" s="52">
         <v>179.4</v>
       </c>
@@ -3028,6 +3090,12 @@
       </c>
       <c r="T6" s="52">
         <v>126.6</v>
+      </c>
+      <c r="Y6" s="52">
+        <v>612.1</v>
+      </c>
+      <c r="Z6" s="52">
+        <v>775.3</v>
       </c>
       <c r="AA6" s="52">
         <v>653.9</v>
@@ -3040,9 +3108,15 @@
       <c r="B7" s="55" t="s">
         <v>175</v>
       </c>
+      <c r="C7" s="52">
+        <v>239</v>
+      </c>
       <c r="E7" s="52">
         <v>232.5</v>
       </c>
+      <c r="F7" s="52">
+        <v>253</v>
+      </c>
       <c r="G7" s="52">
         <v>244.2</v>
       </c>
@@ -3084,6 +3158,12 @@
       </c>
       <c r="T7" s="52">
         <v>320.10000000000002</v>
+      </c>
+      <c r="Y7" s="52">
+        <v>980.8</v>
+      </c>
+      <c r="Z7" s="52">
+        <v>1046.7</v>
       </c>
       <c r="AA7" s="52">
         <v>920</v>
@@ -3096,9 +3176,15 @@
       <c r="B8" s="55" t="s">
         <v>176</v>
       </c>
+      <c r="C8" s="52">
+        <v>3</v>
+      </c>
       <c r="E8" s="52">
         <v>2.5</v>
       </c>
+      <c r="F8" s="52">
+        <v>8.5</v>
+      </c>
       <c r="G8" s="52">
         <v>1.3</v>
       </c>
@@ -3140,6 +3226,12 @@
       </c>
       <c r="T8" s="52">
         <v>5.6</v>
+      </c>
+      <c r="Y8" s="52">
+        <v>15.6</v>
+      </c>
+      <c r="Z8" s="52">
+        <v>9.1</v>
       </c>
       <c r="AA8" s="52">
         <v>11.3</v>
@@ -3152,10 +3244,15 @@
       <c r="B9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="56">
+        <v>960.3</v>
+      </c>
       <c r="E9" s="26">
         <v>1159.3</v>
       </c>
+      <c r="F9" s="26">
+        <v>1697.6</v>
+      </c>
       <c r="G9" s="26">
         <v>823.3</v>
       </c>
@@ -3197,6 +3294,12 @@
       </c>
       <c r="T9" s="26">
         <v>1018.9</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>5071.1000000000004</v>
+      </c>
+      <c r="Z9" s="26">
+        <v>5462.6</v>
       </c>
       <c r="AA9" s="26">
         <v>3771.1</v>
@@ -3209,9 +3312,15 @@
       <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="C10" s="27">
+        <v>810.2</v>
+      </c>
       <c r="E10" s="27">
         <v>940.5</v>
       </c>
+      <c r="F10" s="3">
+        <v>1436.2</v>
+      </c>
       <c r="G10" s="27">
         <v>659.4</v>
       </c>
@@ -3253,6 +3362,12 @@
       </c>
       <c r="T10" s="27">
         <v>785.6</v>
+      </c>
+      <c r="Y10" s="27">
+        <v>4303.1000000000004</v>
+      </c>
+      <c r="Z10" s="27">
+        <v>4667.1000000000004</v>
       </c>
       <c r="AA10" s="27">
         <v>3293.5</v>
@@ -3265,12 +3380,20 @@
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C11" s="26">
+        <f>C9-C10</f>
+        <v>150.09999999999991</v>
+      </c>
       <c r="E11" s="26">
         <f>E9-E10</f>
         <v>218.79999999999995</v>
       </c>
+      <c r="F11" s="26">
+        <f t="shared" ref="F11:M11" si="0">F9-F10</f>
+        <v>261.39999999999986</v>
+      </c>
       <c r="G11" s="26">
-        <f t="shared" ref="G11:M11" si="0">G9-G10</f>
+        <f t="shared" si="0"/>
         <v>163.89999999999998</v>
       </c>
       <c r="H11" s="26">
@@ -3325,6 +3448,14 @@
         <f t="shared" si="1"/>
         <v>233.29999999999995</v>
       </c>
+      <c r="Y11" s="26">
+        <f t="shared" ref="Y11:Z11" si="2">Y9-Y10</f>
+        <v>768</v>
+      </c>
+      <c r="Z11" s="26">
+        <f t="shared" si="2"/>
+        <v>795.5</v>
+      </c>
       <c r="AA11" s="26">
         <f>AA9-AA10</f>
         <v>477.59999999999991</v>
@@ -3338,9 +3469,15 @@
       <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="C12" s="27">
+        <v>44.3</v>
+      </c>
       <c r="E12" s="27">
         <v>44.4</v>
       </c>
+      <c r="F12" s="3">
+        <v>52.5</v>
+      </c>
       <c r="G12" s="27">
         <v>46</v>
       </c>
@@ -3382,6 +3519,12 @@
       </c>
       <c r="T12" s="27">
         <v>43.9</v>
+      </c>
+      <c r="Y12" s="27">
+        <v>182.6</v>
+      </c>
+      <c r="Z12" s="27">
+        <v>190.2</v>
       </c>
       <c r="AA12" s="27">
         <v>143.4</v>
@@ -3394,9 +3537,15 @@
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C13" s="27">
+        <v>71.3</v>
+      </c>
       <c r="E13" s="27">
         <v>73.7</v>
       </c>
+      <c r="F13" s="3">
+        <v>88.2</v>
+      </c>
       <c r="G13" s="27">
         <v>70.3</v>
       </c>
@@ -3438,6 +3587,12 @@
       </c>
       <c r="T13" s="27">
         <v>67.400000000000006</v>
+      </c>
+      <c r="Y13" s="27">
+        <v>304.2</v>
+      </c>
+      <c r="Z13" s="27">
+        <v>285.89999999999998</v>
       </c>
       <c r="AA13" s="27">
         <v>194</v>
@@ -3450,7 +3605,13 @@
       <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="C14" s="27">
+        <v>0</v>
+      </c>
       <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="27">
@@ -3494,6 +3655,12 @@
       </c>
       <c r="T14" s="27">
         <v>21.3</v>
+      </c>
+      <c r="Y14" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="27">
+        <v>0</v>
       </c>
       <c r="AA14" s="27">
         <v>61.8</v>
@@ -3506,9 +3673,15 @@
       <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="C15" s="27">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="E15" s="27">
         <v>8.6999999999999993</v>
       </c>
+      <c r="F15" s="3">
+        <v>17.5</v>
+      </c>
       <c r="G15" s="27">
         <v>9.3000000000000007</v>
       </c>
@@ -3550,6 +3723,12 @@
       </c>
       <c r="T15" s="27">
         <v>24.9</v>
+      </c>
+      <c r="Y15" s="27">
+        <v>46.1</v>
+      </c>
+      <c r="Z15" s="27">
+        <v>49.4</v>
       </c>
       <c r="AA15" s="27">
         <v>29.8</v>
@@ -3562,9 +3741,15 @@
       <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="C16" s="27">
+        <v>-29.7</v>
+      </c>
       <c r="E16" s="27">
         <v>-37.700000000000003</v>
       </c>
+      <c r="F16" s="3">
+        <v>-96.5</v>
+      </c>
       <c r="G16" s="27">
         <v>-53.5</v>
       </c>
@@ -3606,6 +3791,12 @@
       </c>
       <c r="T16" s="27">
         <v>-13.5</v>
+      </c>
+      <c r="Y16" s="27">
+        <v>-199.4</v>
+      </c>
+      <c r="Z16" s="27">
+        <v>-346.8</v>
       </c>
       <c r="AA16" s="27">
         <v>-374.7</v>
@@ -3618,8 +3809,14 @@
       <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="C17" s="27">
+        <v>-0.3</v>
+      </c>
       <c r="E17" s="27">
         <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-0.1</v>
       </c>
       <c r="G17" s="27">
         <v>0</v>
@@ -3662,6 +3859,12 @@
       </c>
       <c r="T17" s="27">
         <v>4.4000000000000004</v>
+      </c>
+      <c r="Y17" s="27">
+        <v>-0.4</v>
+      </c>
+      <c r="Z17" s="27">
+        <v>-0.2</v>
       </c>
       <c r="AA17" s="27">
         <v>2.7</v>
@@ -3674,72 +3877,88 @@
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="C18" s="26">
+        <f>C11-C12-C13-C14-C15+C16+C17</f>
+        <v>-5.3000000000000851</v>
+      </c>
       <c r="E18" s="26">
         <f>E11-E12-E13-E14-E15+E16+E17</f>
         <v>54.29999999999994</v>
       </c>
+      <c r="F18" s="26">
+        <f t="shared" ref="F18:M18" si="3">F11-F12-F13-F14-F15+F16+F17</f>
+        <v>6.5999999999998611</v>
+      </c>
       <c r="G18" s="26">
-        <f t="shared" ref="G18:M18" si="2">G11-G12-G13-G14-G15+G16+G17</f>
+        <f t="shared" si="3"/>
         <v>-15.200000000000017</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.600000000000144</v>
       </c>
       <c r="I18" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-20.800000000000139</v>
       </c>
       <c r="J18" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-67.600000000000108</v>
       </c>
       <c r="K18" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-46.900000000000055</v>
       </c>
       <c r="L18" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-342.39999999999992</v>
       </c>
       <c r="M18" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-37.699999999999932</v>
       </c>
       <c r="N18" s="26">
-        <f t="shared" ref="N18:T18" si="3">N11-N12-N13-N14-N15+N16+N17</f>
+        <f t="shared" ref="N18:T18" si="4">N11-N12-N13-N14-N15+N16+N17</f>
         <v>103.60000000000011</v>
       </c>
       <c r="O18" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-33.100000000000023</v>
       </c>
       <c r="P18" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>143.80000000000004</v>
       </c>
       <c r="Q18" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30.000000000000053</v>
       </c>
       <c r="R18" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60.599999999999945</v>
       </c>
       <c r="S18" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-36.300000000000011</v>
       </c>
       <c r="T18" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66.69999999999996</v>
       </c>
+      <c r="Y18" s="26">
+        <f t="shared" ref="Y18:AB18" si="5">Y11-Y12-Y13-Y14-Y15+Y16+Y17</f>
+        <v>35.29999999999999</v>
+      </c>
+      <c r="Z18" s="26">
+        <f t="shared" si="5"/>
+        <v>-77.000000000000014</v>
+      </c>
       <c r="AA18" s="26">
-        <f t="shared" ref="AA18:AB18" si="4">AA11-AA12-AA13-AA14-AA15+AA16+AA17</f>
+        <f t="shared" si="5"/>
         <v>-323.40000000000003</v>
       </c>
       <c r="AB18" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>201.29999999999987</v>
       </c>
     </row>
@@ -3747,9 +3966,15 @@
       <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="C19" s="27">
+        <v>-49</v>
+      </c>
       <c r="E19" s="27">
         <v>-48.9</v>
       </c>
+      <c r="F19" s="3">
+        <v>-28</v>
+      </c>
       <c r="G19" s="27">
         <v>-41.1</v>
       </c>
@@ -3791,6 +4016,12 @@
       </c>
       <c r="T19" s="27">
         <v>-38</v>
+      </c>
+      <c r="Y19" s="27">
+        <v>-171.5</v>
+      </c>
+      <c r="Z19" s="27">
+        <v>-116.1</v>
       </c>
       <c r="AA19" s="27">
         <v>-232.7</v>
@@ -3803,9 +4034,15 @@
       <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="C20" s="27">
+        <v>0.4</v>
+      </c>
       <c r="E20" s="27">
         <v>2.5</v>
       </c>
+      <c r="F20" s="3">
+        <v>6.5</v>
+      </c>
       <c r="G20" s="27">
         <v>9.1</v>
       </c>
@@ -3847,6 +4084,12 @@
       </c>
       <c r="T20" s="27">
         <v>20.8</v>
+      </c>
+      <c r="Y20" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="27">
+        <v>6.9</v>
       </c>
       <c r="AA20" s="27">
         <v>-79.099999999999994</v>
@@ -3859,72 +4102,88 @@
       <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="C21" s="27">
+        <f>C18+C19+C20</f>
+        <v>-53.900000000000084</v>
+      </c>
       <c r="E21" s="27">
         <f>E18+E19+E20</f>
         <v>7.8999999999999417</v>
       </c>
+      <c r="F21" s="27">
+        <f t="shared" ref="F21:M21" si="6">F18+F19+F20</f>
+        <v>-14.900000000000141</v>
+      </c>
       <c r="G21" s="27">
-        <f t="shared" ref="G21:M21" si="5">G18+G19+G20</f>
+        <f t="shared" si="6"/>
         <v>-47.200000000000017</v>
       </c>
       <c r="H21" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.3999999999998565</v>
       </c>
       <c r="I21" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-35.900000000000141</v>
       </c>
       <c r="J21" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-96.700000000000117</v>
       </c>
       <c r="K21" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-107.70000000000006</v>
       </c>
       <c r="L21" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-390.19999999999987</v>
       </c>
       <c r="M21" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-148.59999999999994</v>
       </c>
       <c r="N21" s="27">
-        <f t="shared" ref="N21:T21" si="6">N18+N19+N20</f>
+        <f t="shared" ref="N21:T21" si="7">N18+N19+N20</f>
         <v>11.400000000000112</v>
       </c>
       <c r="O21" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-88.900000000000034</v>
       </c>
       <c r="P21" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83.600000000000037</v>
       </c>
       <c r="Q21" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-24.99999999999995</v>
       </c>
       <c r="R21" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>57.699999999999946</v>
       </c>
       <c r="S21" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-81</v>
       </c>
       <c r="T21" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49.499999999999957</v>
       </c>
+      <c r="Y21" s="27">
+        <f t="shared" ref="Y21:AB21" si="8">Y18+Y19+Y20</f>
+        <v>-136.20000000000002</v>
+      </c>
+      <c r="Z21" s="27">
+        <f t="shared" si="8"/>
+        <v>-186.20000000000002</v>
+      </c>
       <c r="AA21" s="27">
-        <f t="shared" ref="AA21:AB21" si="7">AA18+AA19+AA20</f>
+        <f t="shared" si="8"/>
         <v>-635.20000000000005</v>
       </c>
       <c r="AB21" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.399999999999864</v>
       </c>
     </row>
@@ -3932,9 +4191,15 @@
       <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="C22" s="27">
+        <v>-19</v>
+      </c>
       <c r="E22" s="27">
         <v>18.5</v>
       </c>
+      <c r="F22" s="3">
+        <v>-18.7</v>
+      </c>
       <c r="G22" s="27">
         <v>-6</v>
       </c>
@@ -3976,6 +4241,12 @@
       </c>
       <c r="T22" s="27">
         <v>-24.6</v>
+      </c>
+      <c r="Y22" s="27">
+        <v>35</v>
+      </c>
+      <c r="Z22" s="27">
+        <v>130.30000000000001</v>
       </c>
       <c r="AA22" s="27">
         <v>93.1</v>
@@ -3988,65 +4259,81 @@
       <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="C23" s="26">
+        <f>C21-C22</f>
+        <v>-34.900000000000084</v>
+      </c>
       <c r="E23" s="26">
         <f>E21-E22</f>
         <v>-10.600000000000058</v>
       </c>
+      <c r="F23" s="26">
+        <f t="shared" ref="F23:M23" si="9">F21-F22</f>
+        <v>3.7999999999998586</v>
+      </c>
       <c r="G23" s="26">
-        <f t="shared" ref="G23:M23" si="8">G21-G22</f>
+        <f t="shared" si="9"/>
         <v>-41.200000000000017</v>
       </c>
       <c r="H23" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.2000000000001432</v>
       </c>
       <c r="I23" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-75.300000000000139</v>
       </c>
       <c r="J23" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-209.2000000000001</v>
       </c>
       <c r="K23" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-290.60000000000008</v>
       </c>
       <c r="L23" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-312.59999999999991</v>
       </c>
       <c r="M23" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-119.49999999999994</v>
       </c>
       <c r="N23" s="26">
-        <f t="shared" ref="N23:T23" si="9">N21-N22</f>
+        <f t="shared" ref="N23:T23" si="10">N21-N22</f>
         <v>-5.4999999999998863</v>
       </c>
       <c r="O23" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-90.000000000000028</v>
       </c>
       <c r="P23" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>89.200000000000031</v>
       </c>
       <c r="Q23" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-45.699999999999946</v>
       </c>
       <c r="R23" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.9999999999999432</v>
       </c>
       <c r="S23" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-30.700000000000003</v>
       </c>
       <c r="T23" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>74.099999999999966</v>
+      </c>
+      <c r="Y23" s="26">
+        <f t="shared" ref="Y23:Z23" si="11">Y21-Y22</f>
+        <v>-171.20000000000002</v>
+      </c>
+      <c r="Z23" s="26">
+        <f t="shared" si="11"/>
+        <v>-316.5</v>
       </c>
       <c r="AA23" s="26">
         <f>AA21-AA22</f>
@@ -4061,9 +4348,15 @@
       <c r="B24" s="29" t="s">
         <v>72</v>
       </c>
+      <c r="C24" s="26">
+        <v>-37</v>
+      </c>
       <c r="E24" s="26">
         <v>-12.5</v>
       </c>
+      <c r="F24" s="2">
+        <v>2.6</v>
+      </c>
       <c r="G24" s="26">
         <v>-42.5</v>
       </c>
@@ -4105,6 +4398,12 @@
       </c>
       <c r="T24" s="26">
         <v>74.2</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>-178.2</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>-322.3</v>
       </c>
       <c r="AA24" s="26">
         <v>-731.9</v>
@@ -4117,9 +4416,15 @@
       <c r="B25" s="30" t="s">
         <v>73</v>
       </c>
+      <c r="C25" s="27">
+        <v>2.1</v>
+      </c>
       <c r="E25" s="27">
         <v>1.9</v>
       </c>
+      <c r="F25" s="3">
+        <v>1.2</v>
+      </c>
       <c r="G25" s="27">
         <v>1.3</v>
       </c>
@@ -4161,6 +4466,12 @@
       </c>
       <c r="T25" s="27">
         <v>-0.1</v>
+      </c>
+      <c r="Y25" s="27">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>5.8</v>
       </c>
       <c r="AA25" s="27">
         <v>3.6</v>
@@ -4173,72 +4484,88 @@
       <c r="B26" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C26" s="28">
+        <f>C24/C27</f>
+        <v>-5.0456838947224879E-2</v>
+      </c>
       <c r="E26" s="28">
         <f>E24/E27</f>
         <v>-1.7034614336331428E-2</v>
       </c>
+      <c r="F26" s="28">
+        <f t="shared" ref="F26:M26" si="12">F24/F27</f>
+        <v>3.5417518049312082E-3</v>
+      </c>
       <c r="G26" s="28">
-        <f t="shared" ref="G26:M26" si="10">G24/G27</f>
+        <f t="shared" si="12"/>
         <v>-5.7768112002174798E-2</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.7852677357977719E-3</v>
       </c>
       <c r="I26" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.104919815167165</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.28509308329936134</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.39668523298464881</v>
       </c>
       <c r="L26" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.42828035859820701</v>
       </c>
       <c r="M26" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.16462917685411571</v>
       </c>
       <c r="N26" s="28">
-        <f t="shared" ref="N26:T26" si="11">N24/N27</f>
+        <f t="shared" ref="N26:T26" si="13">N24/N27</f>
         <v>-4.4824775876120618E-3</v>
       </c>
       <c r="O26" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.12204081632653062</v>
       </c>
       <c r="P26" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.11962438758845946</v>
       </c>
       <c r="Q26" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-6.1241154055525319E-2</v>
       </c>
       <c r="R26" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.8583095140873828E-3</v>
       </c>
       <c r="S26" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-4.3152736182956709E-2</v>
       </c>
       <c r="T26" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.10100735093928669</v>
       </c>
+      <c r="Y26" s="28">
+        <f t="shared" ref="Y26:AB26" si="14">Y24/Y27</f>
+        <v>-0.24274621986105432</v>
+      </c>
+      <c r="Z26" s="28">
+        <f t="shared" si="14"/>
+        <v>-0.43796711509715996</v>
+      </c>
       <c r="AA26" s="28">
-        <f t="shared" ref="AA26:AB26" si="12">AA24/AA27</f>
+        <f t="shared" si="14"/>
         <v>-0.99415919587068724</v>
       </c>
       <c r="AB26" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-6.0841159657002861E-2</v>
       </c>
     </row>
@@ -4246,9 +4573,15 @@
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C27" s="3">
+        <v>733.3</v>
+      </c>
       <c r="E27" s="3">
         <v>733.8</v>
       </c>
+      <c r="F27" s="3">
+        <v>734.1</v>
+      </c>
       <c r="G27" s="3">
         <v>735.7</v>
       </c>
@@ -4290,6 +4623,12 @@
       </c>
       <c r="T27" s="3">
         <v>734.6</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>734.1</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>735.9</v>
       </c>
       <c r="AA27" s="3">
         <v>736.2</v>
@@ -4302,10 +4641,34 @@
       <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="C30" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="34">
+        <f t="shared" ref="G30:H30" si="15">G9/C9-1</f>
+        <v>-0.14266375091117356</v>
+      </c>
+      <c r="H30" s="34" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I30" s="34">
         <f>I9/E9-1</f>
         <v>1.4060208746657477E-2</v>
       </c>
+      <c r="J30" s="34">
+        <f t="shared" ref="J30" si="16">J9/F9-1</f>
+        <v>0.22820452403393032</v>
+      </c>
       <c r="K30" s="34">
         <f>K9/G9-1</f>
         <v>-0.23017126199441273</v>
@@ -4319,32 +4682,43 @@
         <v>-0.35462742429397742</v>
       </c>
       <c r="N30" s="34">
-        <f t="shared" ref="N30:T30" si="13">N9/J9-1</f>
+        <f t="shared" ref="N30:T30" si="17">N9/J9-1</f>
         <v>-0.11683453237410069</v>
       </c>
       <c r="O30" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.27374566109182719</v>
       </c>
       <c r="P30" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.1044303797468351</v>
       </c>
       <c r="Q30" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.26281797812046914</v>
       </c>
       <c r="R30" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-0.29330943847072888</v>
       </c>
       <c r="S30" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-0.25566703827573389</v>
       </c>
       <c r="T30" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-9.8717381689517936E-2</v>
+      </c>
+      <c r="Y30" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z30" s="34">
+        <f t="shared" ref="Z30:AB30" si="18">Z9/Y9-1</f>
+        <v>7.7202184930291295E-2</v>
+      </c>
+      <c r="AA30" s="34">
+        <f t="shared" si="18"/>
+        <v>-0.30965108190239088</v>
       </c>
       <c r="AB30" s="34">
         <f>AB9/AA9-1</f>
@@ -4355,36 +4729,47 @@
       <c r="B31" s="25" t="s">
         <v>67</v>
       </c>
+      <c r="C31" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="25">
+        <f t="shared" ref="F31" si="19">F9/E9-1</f>
+        <v>0.46433192443716043</v>
+      </c>
+      <c r="G31" s="25">
+        <f t="shared" ref="G31" si="20">G9/F9-1</f>
+        <v>-0.51502120640904803</v>
+      </c>
       <c r="H31" s="25">
-        <f t="shared" ref="H31" si="14">H9/G9-1</f>
+        <f t="shared" ref="H31" si="21">H9/G9-1</f>
         <v>0.67460221061581449</v>
       </c>
       <c r="I31" s="25">
-        <f t="shared" ref="I31" si="15">I9/H9-1</f>
+        <f t="shared" ref="I31" si="22">I9/H9-1</f>
         <v>-0.14731268586349466</v>
       </c>
       <c r="J31" s="25">
-        <f t="shared" ref="J31" si="16">J9/I9-1</f>
+        <f t="shared" ref="J31" si="23">J9/I9-1</f>
         <v>0.77356243620279019</v>
       </c>
       <c r="K31" s="25">
-        <f t="shared" ref="K31" si="17">K9/J9-1</f>
+        <f t="shared" ref="K31" si="24">K9/J9-1</f>
         <v>-0.69601918465227819</v>
       </c>
       <c r="L31" s="25">
-        <f t="shared" ref="L31" si="18">L9/K9-1</f>
+        <f t="shared" ref="L31" si="25">L9/K9-1</f>
         <v>-0.15241401072893646</v>
       </c>
       <c r="M31" s="25">
-        <f t="shared" ref="M31" si="19">M9/L9-1</f>
+        <f t="shared" ref="M31" si="26">M9/L9-1</f>
         <v>0.41232315711094558</v>
       </c>
       <c r="N31" s="25">
-        <f t="shared" ref="N31:O31" si="20">N9/M9-1</f>
+        <f t="shared" ref="N31:O31" si="27">N9/M9-1</f>
         <v>1.4270462633451957</v>
       </c>
       <c r="O31" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-0.56158357771261003</v>
       </c>
       <c r="P31" s="25">
@@ -4392,11 +4777,11 @@
         <v>0.40034683512944391</v>
       </c>
       <c r="Q31" s="25">
-        <f t="shared" ref="Q31:R31" si="21">Q9/P9-1</f>
+        <f t="shared" ref="Q31:R31" si="28">Q9/P9-1</f>
         <v>-0.15249889429455987</v>
       </c>
       <c r="R31" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0.35820895522388052</v>
       </c>
       <c r="S31" s="25">
@@ -4407,17 +4792,37 @@
         <f>T9/S9-1</f>
         <v>0.69562323181893837</v>
       </c>
+      <c r="Y31" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z31" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA31" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB31" s="78" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="C34" s="25">
+        <f t="shared" ref="C34" si="29">C11/C9</f>
+        <v>0.15630532125377478</v>
+      </c>
       <c r="E34" s="25">
-        <f t="shared" ref="E34:G34" si="22">E11/E9</f>
+        <f t="shared" ref="E34:G34" si="30">E11/E9</f>
         <v>0.18873458121280079</v>
       </c>
+      <c r="F34" s="25">
+        <f t="shared" ref="F34:G34" si="31">F11/F9</f>
+        <v>0.15398209236569266</v>
+      </c>
       <c r="G34" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0.19907688570387463</v>
       </c>
       <c r="H34" s="25">
@@ -4425,19 +4830,19 @@
         <v>0.14404874156814398</v>
       </c>
       <c r="I34" s="25">
-        <f t="shared" ref="I34:J34" si="23">I11/I9</f>
+        <f t="shared" ref="I34:J34" si="32">I11/I9</f>
         <v>0.13133718952024487</v>
       </c>
       <c r="J34" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.13362110311750594</v>
       </c>
       <c r="K34" s="25">
-        <f t="shared" ref="K34" si="24">K11/K9</f>
+        <f t="shared" ref="K34" si="33">K11/K9</f>
         <v>0.29031240138845055</v>
       </c>
       <c r="L34" s="25">
-        <f t="shared" ref="L34" si="25">L11/L9</f>
+        <f t="shared" ref="L34" si="34">L11/L9</f>
         <v>3.0528667163067926E-2</v>
       </c>
       <c r="M34" s="25">
@@ -4445,7 +4850,7 @@
         <v>7.2228812442335658E-2</v>
       </c>
       <c r="N34" s="25">
-        <f t="shared" ref="N34" si="26">N11/N9</f>
+        <f t="shared" ref="N34" si="35">N11/N9</f>
         <v>0.12077766916476598</v>
       </c>
       <c r="O34" s="25">
@@ -4457,21 +4862,29 @@
         <v>0.18195488721804515</v>
       </c>
       <c r="Q34" s="25">
-        <f t="shared" ref="Q34:R34" si="27">Q11/Q9</f>
+        <f t="shared" ref="Q34:R34" si="36">Q11/Q9</f>
         <v>0.18964617472080164</v>
       </c>
       <c r="R34" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0.1504649196956889</v>
       </c>
       <c r="S34" s="25">
-        <f t="shared" ref="S34" si="28">S11/S9</f>
+        <f t="shared" ref="S34" si="37">S11/S9</f>
         <v>0.20086536861374604</v>
       </c>
       <c r="T34" s="25">
         <f>T11/T9</f>
         <v>0.2289724212385906</v>
       </c>
+      <c r="Y34" s="25">
+        <f t="shared" ref="Y34:AA34" si="38">Y11/Y9</f>
+        <v>0.15144643174064798</v>
+      </c>
+      <c r="Z34" s="25">
+        <f t="shared" si="38"/>
+        <v>0.1456266246842163</v>
+      </c>
       <c r="AA34" s="25">
         <f>AA11/AA9</f>
         <v>0.12664739731112937</v>
@@ -4485,12 +4898,20 @@
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="C35" s="25">
+        <f t="shared" ref="C35" si="39">C18/C9</f>
+        <v>-5.5191086118922062E-3</v>
+      </c>
       <c r="E35" s="25">
-        <f t="shared" ref="E35:G35" si="29">E18/E9</f>
+        <f t="shared" ref="E35:G35" si="40">E18/E9</f>
         <v>4.6838609505736171E-2</v>
       </c>
+      <c r="F35" s="25">
+        <f t="shared" ref="F35:G35" si="41">F18/F9</f>
+        <v>3.8878416588123597E-3</v>
+      </c>
       <c r="G35" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>-1.8462285922507007E-2</v>
       </c>
       <c r="H35" s="25">
@@ -4498,19 +4919,19 @@
         <v>1.9293537390295309E-2</v>
       </c>
       <c r="I35" s="25">
-        <f t="shared" ref="I35:J35" si="30">I18/I9</f>
+        <f t="shared" ref="I35:J35" si="42">I18/I9</f>
         <v>-1.7693092888737785E-2</v>
       </c>
       <c r="J35" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>-3.2422062350119955E-2</v>
       </c>
       <c r="K35" s="25">
-        <f t="shared" ref="K35" si="31">K18/K9</f>
+        <f t="shared" ref="K35" si="43">K18/K9</f>
         <v>-7.3998106658251905E-2</v>
       </c>
       <c r="L35" s="25">
-        <f t="shared" ref="L35" si="32">L18/L9</f>
+        <f t="shared" ref="L35" si="44">L18/L9</f>
         <v>-0.63737900223380473</v>
       </c>
       <c r="M35" s="25">
@@ -4518,7 +4939,7 @@
         <v>-4.9690259654672372E-2</v>
       </c>
       <c r="N35" s="25">
-        <f t="shared" ref="N35" si="33">N18/N9</f>
+        <f t="shared" ref="N35" si="45">N18/N9</f>
         <v>5.6261540132507927E-2</v>
       </c>
       <c r="O35" s="25">
@@ -4530,21 +4951,29 @@
         <v>0.12720035382574085</v>
       </c>
       <c r="Q35" s="25">
-        <f t="shared" ref="Q35:R35" si="34">Q18/Q9</f>
+        <f t="shared" ref="Q35:R35" si="46">Q18/Q9</f>
         <v>3.1311971610479127E-2</v>
       </c>
       <c r="R35" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>4.6568815799584988E-2</v>
       </c>
       <c r="S35" s="25">
-        <f t="shared" ref="S35" si="35">S18/S9</f>
+        <f t="shared" ref="S35" si="47">S18/S9</f>
         <v>-6.0409385921118344E-2</v>
       </c>
       <c r="T35" s="25">
         <f>T18/T9</f>
         <v>6.5462753950338556E-2</v>
       </c>
+      <c r="Y35" s="25">
+        <f t="shared" ref="Y35:AA35" si="48">Y18/Y9</f>
+        <v>6.9610143755792601E-3</v>
+      </c>
+      <c r="Z35" s="25">
+        <f t="shared" si="48"/>
+        <v>-1.4095851792186873E-2</v>
+      </c>
       <c r="AA35" s="25">
         <f>AA18/AA9</f>
         <v>-8.5757471294847662E-2</v>
@@ -4558,12 +4987,20 @@
       <c r="B36" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="C36" s="25">
+        <f t="shared" ref="C36" si="49">C23/C9</f>
+        <v>-3.6342809538685919E-2</v>
+      </c>
       <c r="E36" s="25">
-        <f t="shared" ref="E36:G36" si="36">E23/E9</f>
+        <f t="shared" ref="E36:G36" si="50">E23/E9</f>
         <v>-9.1434486327957032E-3</v>
       </c>
+      <c r="F36" s="25">
+        <f t="shared" ref="F36:G36" si="51">F23/F9</f>
+        <v>2.2384542884070799E-3</v>
+      </c>
       <c r="G36" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>-5.0042511842584743E-2</v>
       </c>
       <c r="H36" s="25">
@@ -4571,19 +5008,19 @@
         <v>6.6729527816059642E-3</v>
       </c>
       <c r="I36" s="25">
-        <f t="shared" ref="I36:J36" si="37">I23/I9</f>
+        <f t="shared" ref="I36:J36" si="52">I23/I9</f>
         <v>-6.4052398775093694E-2</v>
       </c>
       <c r="J36" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-0.10033573141486815</v>
       </c>
       <c r="K36" s="25">
-        <f t="shared" ref="K36" si="38">K23/K9</f>
+        <f t="shared" ref="K36" si="53">K23/K9</f>
         <v>-0.45850426001893357</v>
       </c>
       <c r="L36" s="25">
-        <f t="shared" ref="L36" si="39">L23/L9</f>
+        <f t="shared" ref="L36" si="54">L23/L9</f>
         <v>-0.58190618019359619</v>
       </c>
       <c r="M36" s="25">
@@ -4591,7 +5028,7 @@
         <v>-0.15750626070910759</v>
       </c>
       <c r="N36" s="25">
-        <f t="shared" ref="N36" si="40">N23/N9</f>
+        <f t="shared" ref="N36" si="55">N23/N9</f>
         <v>-2.9868578255674411E-3</v>
       </c>
       <c r="O36" s="25">
@@ -4603,21 +5040,29 @@
         <v>7.8903140203449823E-2</v>
       </c>
       <c r="Q36" s="25">
-        <f t="shared" ref="Q36:R36" si="41">Q23/Q9</f>
+        <f t="shared" ref="Q36:R36" si="56">Q23/Q9</f>
         <v>-4.7698570086629734E-2</v>
       </c>
       <c r="R36" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>2.3053869207714925E-3</v>
       </c>
       <c r="S36" s="25">
-        <f t="shared" ref="S36" si="42">S23/S9</f>
+        <f t="shared" ref="S36" si="57">S23/S9</f>
         <v>-5.1090031619237815E-2</v>
       </c>
       <c r="T36" s="25">
         <f>T23/T9</f>
         <v>7.2725488271665487E-2</v>
       </c>
+      <c r="Y36" s="25">
+        <f t="shared" ref="Y36:AA36" si="58">Y23/Y9</f>
+        <v>-3.3759933742186117E-2</v>
+      </c>
+      <c r="Z36" s="25">
+        <f t="shared" si="58"/>
+        <v>-5.7939442756196682E-2</v>
+      </c>
       <c r="AA36" s="25">
         <f>AA23/AA9</f>
         <v>-0.1931266739147729</v>
@@ -4631,12 +5076,20 @@
       <c r="B37" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="C37" s="25">
+        <f t="shared" ref="C37" si="59">C22/C21</f>
+        <v>0.35250463821892336</v>
+      </c>
       <c r="E37" s="25">
-        <f t="shared" ref="E37:G37" si="43">E22/E21</f>
+        <f t="shared" ref="E37:G37" si="60">E22/E21</f>
         <v>2.3417721518987515</v>
       </c>
+      <c r="F37" s="25">
+        <f t="shared" ref="F37:G37" si="61">F22/F21</f>
+        <v>1.255033557046968</v>
+      </c>
       <c r="G37" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="60"/>
         <v>0.12711864406779658</v>
       </c>
       <c r="H37" s="25">
@@ -4644,19 +5097,19 @@
         <v>2.4375000000000546</v>
       </c>
       <c r="I37" s="25">
-        <f t="shared" ref="I37:J37" si="44">I22/I21</f>
+        <f t="shared" ref="I37:J37" si="62">I22/I21</f>
         <v>-1.0974930362116948</v>
       </c>
       <c r="J37" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="62"/>
         <v>-1.1633919338159242</v>
       </c>
       <c r="K37" s="25">
-        <f t="shared" ref="K37:L37" si="45">K22/K21</f>
+        <f t="shared" ref="K37:L37" si="63">K22/K21</f>
         <v>-1.6982358402971207</v>
       </c>
       <c r="L37" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="63"/>
         <v>0.19887237314197853</v>
       </c>
       <c r="M37" s="25">
@@ -4664,7 +5117,7 @@
         <v>0.19582772543741597</v>
       </c>
       <c r="N37" s="25">
-        <f t="shared" ref="N37" si="46">N22/N21</f>
+        <f t="shared" ref="N37" si="64">N22/N21</f>
         <v>1.4824561403508625</v>
       </c>
       <c r="O37" s="25">
@@ -4676,21 +5129,29 @@
         <v>-6.6985645933014315E-2</v>
       </c>
       <c r="Q37" s="25">
-        <f t="shared" ref="Q37:R37" si="47">Q22/Q21</f>
+        <f t="shared" ref="Q37:R37" si="65">Q22/Q21</f>
         <v>-0.82800000000000162</v>
       </c>
       <c r="R37" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="65"/>
         <v>0.94800693240901301</v>
       </c>
       <c r="S37" s="25">
-        <f t="shared" ref="S37" si="48">S22/S21</f>
+        <f t="shared" ref="S37" si="66">S22/S21</f>
         <v>0.62098765432098757</v>
       </c>
       <c r="T37" s="25">
         <f>T22/T21</f>
         <v>-0.49696969696969745</v>
       </c>
+      <c r="Y37" s="25">
+        <f t="shared" ref="Y37:AA37" si="67">Y22/Y21</f>
+        <v>-0.25697503671071947</v>
+      </c>
+      <c r="Z37" s="25">
+        <f t="shared" si="67"/>
+        <v>-0.6997851772287863</v>
+      </c>
       <c r="AA37" s="25">
         <f>AA22/AA21</f>
         <v>-0.14656801007556672</v>
@@ -4709,70 +5170,86 @@
       <c r="B41" s="29" t="s">
         <v>83</v>
       </c>
+      <c r="C41" s="2">
+        <f t="shared" ref="C41:D41" si="68">C42+C50</f>
+        <v>25</v>
+      </c>
       <c r="D41" s="2">
-        <f t="shared" ref="D41" si="49">D42+D50</f>
+        <f t="shared" si="68"/>
         <v>48</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41" si="50">E42+E50</f>
+        <f t="shared" ref="E41:F41" si="69">E42+E50</f>
         <v>39</v>
       </c>
+      <c r="F41" s="2">
+        <f t="shared" si="69"/>
+        <v>69</v>
+      </c>
       <c r="G41" s="2">
-        <f t="shared" ref="G41:H41" si="51">G42+G50</f>
+        <f t="shared" ref="G41:H41" si="70">G42+G50</f>
         <v>22</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>51</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" ref="I41:J41" si="52">I42+I50</f>
+        <f t="shared" ref="I41:J41" si="71">I42+I50</f>
         <v>44</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="71"/>
         <v>81</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" ref="K41:L41" si="53">K42+K50</f>
+        <f t="shared" ref="K41:L41" si="72">K42+K50</f>
         <v>14</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="72"/>
         <v>17</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" ref="M41" si="54">M42+M50</f>
+        <f t="shared" ref="M41" si="73">M42+M50</f>
         <v>48</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" ref="N41:S41" si="55">N42+N50</f>
+        <f t="shared" ref="N41:S41" si="74">N42+N50</f>
         <v>71</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" ref="O41" si="56">O42+O50</f>
+        <f t="shared" ref="O41" si="75">O42+O50</f>
         <v>22</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>34</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>30</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>55</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="74"/>
         <v>26</v>
       </c>
       <c r="T41" s="2">
         <f>T42+T50</f>
         <v>32</v>
       </c>
+      <c r="Y41" s="2">
+        <f t="shared" ref="Y41:Z41" si="76">Y42+Y50</f>
+        <v>178</v>
+      </c>
+      <c r="Z41" s="2">
+        <f t="shared" si="76"/>
+        <v>198</v>
+      </c>
       <c r="AA41" s="2">
         <f>AA42+AA50</f>
         <v>130</v>
@@ -4786,6 +5263,10 @@
       <c r="B42" s="49" t="s">
         <v>84</v>
       </c>
+      <c r="C42" s="40">
+        <f t="shared" ref="C42" si="77">SUM(C43:C48)</f>
+        <v>14</v>
+      </c>
       <c r="D42" s="40">
         <f>SUM(D43:D48)</f>
         <v>28</v>
@@ -4794,68 +5275,80 @@
         <f>SUM(E43:E48)</f>
         <v>15</v>
       </c>
+      <c r="F42" s="40">
+        <f t="shared" ref="F42" si="78">SUM(F43:F48)</f>
+        <v>33</v>
+      </c>
       <c r="G42" s="40">
-        <f t="shared" ref="G42" si="57">SUM(G43:G48)</f>
+        <f t="shared" ref="G42" si="79">SUM(G43:G48)</f>
         <v>11</v>
       </c>
       <c r="H42" s="40">
-        <f t="shared" ref="H42:T42" si="58">SUM(H43:H48)</f>
+        <f t="shared" ref="H42:T42" si="80">SUM(H43:H48)</f>
         <v>26</v>
       </c>
       <c r="I42" s="40">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>17</v>
       </c>
       <c r="J42" s="40">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>35</v>
       </c>
       <c r="K42" s="40">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>5</v>
       </c>
       <c r="L42" s="40">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>4</v>
       </c>
       <c r="M42" s="40">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>27</v>
       </c>
       <c r="N42" s="40">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>28</v>
       </c>
       <c r="O42" s="40">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>9</v>
       </c>
       <c r="P42" s="40">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>14</v>
       </c>
       <c r="Q42" s="40">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>9</v>
       </c>
       <c r="R42" s="40">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>16</v>
       </c>
       <c r="S42" s="40">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>6</v>
       </c>
       <c r="T42" s="40">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>11</v>
       </c>
+      <c r="Y42" s="40">
+        <f t="shared" ref="Y42:AA42" si="81">SUM(Y43:Y48)</f>
+        <v>90</v>
+      </c>
+      <c r="Z42" s="40">
+        <f t="shared" si="81"/>
+        <v>89</v>
+      </c>
       <c r="AA42" s="40">
-        <f t="shared" ref="AA42:AB42" si="59">SUM(AA43:AA48)</f>
+        <f t="shared" ref="AA42:AB42" si="82">SUM(AA43:AA48)</f>
         <v>44</v>
       </c>
       <c r="AB42" s="40">
-        <f t="shared" si="59"/>
+        <f t="shared" si="82"/>
         <v>48</v>
       </c>
     </row>
@@ -4863,12 +5356,18 @@
       <c r="B43" s="48" t="s">
         <v>212</v>
       </c>
+      <c r="C43" s="39">
+        <v>0</v>
+      </c>
       <c r="D43" s="39">
         <v>1</v>
       </c>
       <c r="E43" s="39">
         <v>0</v>
       </c>
+      <c r="F43" s="39">
+        <v>0</v>
+      </c>
       <c r="G43" s="39">
         <v>0</v>
       </c>
@@ -4909,6 +5408,12 @@
         <v>0</v>
       </c>
       <c r="T43" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="39">
         <v>0</v>
       </c>
       <c r="AA43" s="39">
@@ -4922,12 +5427,18 @@
       <c r="B44" s="48" t="s">
         <v>85</v>
       </c>
+      <c r="C44" s="39">
+        <v>11</v>
+      </c>
       <c r="D44" s="39">
         <v>20</v>
       </c>
       <c r="E44" s="39">
         <v>13</v>
       </c>
+      <c r="F44" s="39">
+        <v>23</v>
+      </c>
       <c r="G44" s="39">
         <v>10</v>
       </c>
@@ -4969,6 +5480,12 @@
       </c>
       <c r="T44" s="39">
         <v>8</v>
+      </c>
+      <c r="Y44" s="39">
+        <v>67</v>
+      </c>
+      <c r="Z44" s="39">
+        <v>67</v>
       </c>
       <c r="AA44" s="39">
         <v>32</v>
@@ -4981,12 +5498,18 @@
       <c r="B45" s="48" t="s">
         <v>190</v>
       </c>
+      <c r="C45" s="39">
+        <v>3</v>
+      </c>
       <c r="D45" s="39">
         <v>2</v>
       </c>
       <c r="E45" s="39">
         <v>2</v>
       </c>
+      <c r="F45" s="39">
+        <v>6</v>
+      </c>
       <c r="G45" s="39">
         <v>0</v>
       </c>
@@ -5028,6 +5551,12 @@
       </c>
       <c r="T45" s="39">
         <v>0</v>
+      </c>
+      <c r="Y45" s="39">
+        <v>13</v>
+      </c>
+      <c r="Z45" s="39">
+        <v>5</v>
       </c>
       <c r="AA45" s="39">
         <v>1</v>
@@ -5040,12 +5569,18 @@
       <c r="B46" s="48" t="s">
         <v>195</v>
       </c>
+      <c r="C46" s="39">
+        <v>0</v>
+      </c>
       <c r="D46" s="39">
         <v>2</v>
       </c>
       <c r="E46" s="39">
         <v>0</v>
       </c>
+      <c r="F46" s="39">
+        <v>3</v>
+      </c>
       <c r="G46" s="39">
         <v>0</v>
       </c>
@@ -5086,6 +5621,18 @@
         <v>0</v>
       </c>
       <c r="T46" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="39">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="39">
+        <v>3</v>
+      </c>
+      <c r="AA46" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="39">
         <v>0</v>
       </c>
     </row>
@@ -5093,12 +5640,18 @@
       <c r="B47" s="48" t="s">
         <v>183</v>
       </c>
+      <c r="C47" s="39">
+        <v>0</v>
+      </c>
       <c r="D47" s="39">
         <v>3</v>
       </c>
       <c r="E47" s="39">
         <v>0</v>
       </c>
+      <c r="F47" s="39">
+        <v>1</v>
+      </c>
       <c r="G47" s="39">
         <v>1</v>
       </c>
@@ -5140,6 +5693,12 @@
       </c>
       <c r="T47" s="39">
         <v>0</v>
+      </c>
+      <c r="Y47" s="39">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="39">
+        <v>7</v>
       </c>
       <c r="AA47" s="39">
         <v>4</v>
@@ -5152,10 +5711,16 @@
       <c r="B48" s="48" t="s">
         <v>86</v>
       </c>
+      <c r="C48" s="39">
+        <v>0</v>
+      </c>
       <c r="D48" s="39">
         <v>0</v>
       </c>
       <c r="E48" s="39">
+        <v>0</v>
+      </c>
+      <c r="F48" s="39">
         <v>0</v>
       </c>
       <c r="G48" s="39">
@@ -5199,6 +5764,12 @@
       </c>
       <c r="T48" s="39">
         <v>3</v>
+      </c>
+      <c r="Y48" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="39">
+        <v>7</v>
       </c>
       <c r="AA48" s="39">
         <v>7</v>
@@ -5214,6 +5785,10 @@
       <c r="B50" s="49" t="s">
         <v>87</v>
       </c>
+      <c r="C50" s="40">
+        <f t="shared" ref="C50" si="83">C51+C52+C53</f>
+        <v>11</v>
+      </c>
       <c r="D50" s="40">
         <f>D51+D52+D53</f>
         <v>20</v>
@@ -5222,6 +5797,10 @@
         <f>E51+E52+E53</f>
         <v>24</v>
       </c>
+      <c r="F50" s="40">
+        <f t="shared" ref="F50" si="84">F51+F52+F53</f>
+        <v>36</v>
+      </c>
       <c r="G50" s="40">
         <f>G51+G52+G53</f>
         <v>11</v>
@@ -5231,11 +5810,11 @@
         <v>25</v>
       </c>
       <c r="I50" s="40">
-        <f t="shared" ref="I50:J50" si="60">I51+I52+I53</f>
+        <f t="shared" ref="I50:J50" si="85">I51+I52+I53</f>
         <v>27</v>
       </c>
       <c r="J50" s="40">
-        <f t="shared" si="60"/>
+        <f t="shared" si="85"/>
         <v>46</v>
       </c>
       <c r="K50" s="40">
@@ -5247,36 +5826,44 @@
         <v>13</v>
       </c>
       <c r="M50" s="40">
-        <f t="shared" ref="M50" si="61">M51+M52+M53</f>
+        <f t="shared" ref="M50" si="86">M51+M52+M53</f>
         <v>21</v>
       </c>
       <c r="N50" s="40">
-        <f t="shared" ref="N50:T50" si="62">N51+N52+N53</f>
+        <f t="shared" ref="N50:T50" si="87">N51+N52+N53</f>
         <v>43</v>
       </c>
       <c r="O50" s="40">
-        <f t="shared" si="62"/>
+        <f t="shared" si="87"/>
         <v>13</v>
       </c>
       <c r="P50" s="40">
-        <f t="shared" si="62"/>
+        <f t="shared" si="87"/>
         <v>20</v>
       </c>
       <c r="Q50" s="40">
-        <f t="shared" si="62"/>
+        <f t="shared" si="87"/>
         <v>21</v>
       </c>
       <c r="R50" s="40">
-        <f t="shared" si="62"/>
+        <f t="shared" si="87"/>
         <v>39</v>
       </c>
       <c r="S50" s="40">
-        <f t="shared" si="62"/>
+        <f t="shared" si="87"/>
         <v>20</v>
       </c>
       <c r="T50" s="40">
-        <f t="shared" si="62"/>
+        <f t="shared" si="87"/>
         <v>21</v>
+      </c>
+      <c r="Y50" s="40">
+        <f t="shared" ref="Y50:Z50" si="88">Y51+Y52+Y53</f>
+        <v>88</v>
+      </c>
+      <c r="Z50" s="40">
+        <f t="shared" si="88"/>
+        <v>109</v>
       </c>
       <c r="AA50" s="40">
         <f>AA51+AA52+AA53</f>
@@ -5291,12 +5878,18 @@
       <c r="B51" s="48" t="s">
         <v>88</v>
       </c>
+      <c r="C51" s="39">
+        <v>8</v>
+      </c>
       <c r="D51" s="39">
         <v>15</v>
       </c>
       <c r="E51" s="39">
         <v>17</v>
       </c>
+      <c r="F51" s="39">
+        <v>24</v>
+      </c>
       <c r="G51" s="39">
         <v>8</v>
       </c>
@@ -5338,6 +5931,12 @@
       </c>
       <c r="T51" s="39">
         <v>12</v>
+      </c>
+      <c r="Y51" s="39">
+        <v>64</v>
+      </c>
+      <c r="Z51" s="39">
+        <v>62</v>
       </c>
       <c r="AA51" s="39">
         <v>56</v>
@@ -5350,10 +5949,16 @@
       <c r="B52" s="48" t="s">
         <v>89</v>
       </c>
+      <c r="C52" s="39">
+        <v>0</v>
+      </c>
       <c r="D52" s="39">
         <v>0</v>
       </c>
       <c r="E52" s="39">
+        <v>0</v>
+      </c>
+      <c r="F52" s="39">
         <v>0</v>
       </c>
       <c r="G52" s="39">
@@ -5397,6 +6002,12 @@
       </c>
       <c r="T52" s="39">
         <v>9</v>
+      </c>
+      <c r="Y52" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="39">
+        <v>0</v>
       </c>
       <c r="AA52" s="39">
         <v>30</v>
@@ -5409,12 +6020,18 @@
       <c r="B53" s="48" t="s">
         <v>184</v>
       </c>
+      <c r="C53" s="39">
+        <v>3</v>
+      </c>
       <c r="D53" s="39">
         <v>5</v>
       </c>
       <c r="E53" s="39">
         <v>7</v>
       </c>
+      <c r="F53" s="39">
+        <v>12</v>
+      </c>
       <c r="G53" s="39">
         <v>3</v>
       </c>
@@ -5457,6 +6074,12 @@
       <c r="T53" s="39">
         <v>0</v>
       </c>
+      <c r="Y53" s="39">
+        <v>24</v>
+      </c>
+      <c r="Z53" s="39">
+        <v>47</v>
+      </c>
       <c r="AA53" s="39">
         <v>0</v>
       </c>
@@ -5464,755 +6087,786 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:28">
-      <c r="B55" s="33" t="s">
+    <row r="54" spans="2:28" s="39" customFormat="1">
+      <c r="B54" s="48"/>
+    </row>
+    <row r="55" spans="2:28" s="40" customFormat="1">
+      <c r="B55" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="F55" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="G55" s="80">
+        <f t="shared" ref="G55:S55" si="89">G41/C41-1</f>
+        <v>-0.12</v>
+      </c>
+      <c r="H55" s="80">
+        <f t="shared" si="89"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I55" s="80">
+        <f t="shared" si="89"/>
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="J55" s="80">
+        <f t="shared" si="89"/>
+        <v>0.17391304347826098</v>
+      </c>
+      <c r="K55" s="80">
+        <f t="shared" si="89"/>
+        <v>-0.36363636363636365</v>
+      </c>
+      <c r="L55" s="80">
+        <f t="shared" si="89"/>
+        <v>-0.66666666666666674</v>
+      </c>
+      <c r="M55" s="80">
+        <f t="shared" si="89"/>
+        <v>9.0909090909090828E-2</v>
+      </c>
+      <c r="N55" s="80">
+        <f t="shared" si="89"/>
+        <v>-0.12345679012345678</v>
+      </c>
+      <c r="O55" s="80">
+        <f t="shared" si="89"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="P55" s="80">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="Q55" s="80">
+        <f t="shared" si="89"/>
+        <v>-0.375</v>
+      </c>
+      <c r="R55" s="80">
+        <f t="shared" si="89"/>
+        <v>-0.22535211267605637</v>
+      </c>
+      <c r="S55" s="80">
+        <f t="shared" si="89"/>
+        <v>0.18181818181818188</v>
+      </c>
+      <c r="T55" s="80">
+        <f>T41/P41-1</f>
+        <v>-5.8823529411764719E-2</v>
+      </c>
+      <c r="Z55" s="80">
+        <f t="shared" ref="Z55:AB55" si="90">Z9/Y9-1</f>
+        <v>7.7202184930291295E-2</v>
+      </c>
+      <c r="AA55" s="80">
+        <f t="shared" si="90"/>
+        <v>-0.30965108190239088</v>
+      </c>
+      <c r="AB55" s="80">
+        <f>AB9/AA9-1</f>
+        <v>0.11299090451062033</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" s="39" customFormat="1">
+      <c r="B56" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="79">
+        <f t="shared" ref="D56" si="91">D41/C41-1</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="E56" s="79">
+        <f t="shared" ref="E56" si="92">E41/D41-1</f>
+        <v>-0.1875</v>
+      </c>
+      <c r="F56" s="79">
+        <f t="shared" ref="F56:T56" si="93">F41/E41-1</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="G56" s="79">
+        <f t="shared" si="93"/>
+        <v>-0.6811594202898551</v>
+      </c>
+      <c r="H56" s="79">
+        <f t="shared" si="93"/>
+        <v>1.3181818181818183</v>
+      </c>
+      <c r="I56" s="79">
+        <f t="shared" si="93"/>
+        <v>-0.13725490196078427</v>
+      </c>
+      <c r="J56" s="79">
+        <f t="shared" si="93"/>
+        <v>0.84090909090909083</v>
+      </c>
+      <c r="K56" s="79">
+        <f t="shared" si="93"/>
+        <v>-0.8271604938271605</v>
+      </c>
+      <c r="L56" s="79">
+        <f t="shared" si="93"/>
+        <v>0.21428571428571419</v>
+      </c>
+      <c r="M56" s="79">
+        <f t="shared" si="93"/>
+        <v>1.8235294117647061</v>
+      </c>
+      <c r="N56" s="79">
+        <f t="shared" si="93"/>
+        <v>0.47916666666666674</v>
+      </c>
+      <c r="O56" s="79">
+        <f t="shared" si="93"/>
+        <v>-0.6901408450704225</v>
+      </c>
+      <c r="P56" s="79">
+        <f t="shared" si="93"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="Q56" s="79">
+        <f t="shared" si="93"/>
+        <v>-0.11764705882352944</v>
+      </c>
+      <c r="R56" s="79">
+        <f t="shared" si="93"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="S56" s="79">
+        <f t="shared" si="93"/>
+        <v>-0.52727272727272734</v>
+      </c>
+      <c r="T56" s="79">
+        <f>T41/S41-1</f>
+        <v>0.23076923076923084</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28">
+      <c r="B58" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="2:28" s="2" customFormat="1">
-      <c r="B56" s="2" t="s">
+    <row r="59" spans="2:28" s="2" customFormat="1">
+      <c r="B59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="26">
+      <c r="F59" s="26">
+        <v>1280.9000000000001</v>
+      </c>
+      <c r="H59" s="26">
         <v>855.5</v>
       </c>
-      <c r="I56" s="26">
+      <c r="I59" s="26">
         <v>1156.4000000000001</v>
       </c>
-      <c r="J56" s="26">
+      <c r="J59" s="26">
         <v>2307.6999999999998</v>
       </c>
-      <c r="K56" s="26">
+      <c r="K59" s="26">
         <v>2394.4</v>
       </c>
-      <c r="L56" s="26">
+      <c r="L59" s="26">
         <v>1872.8</v>
       </c>
-      <c r="M56" s="26">
+      <c r="M59" s="26">
         <v>1596.8</v>
       </c>
-      <c r="N56" s="26">
+      <c r="N59" s="26">
         <v>1883.1</v>
       </c>
-      <c r="O56" s="26">
+      <c r="O59" s="26">
         <v>1123.2</v>
       </c>
-      <c r="P56" s="26">
+      <c r="P59" s="26">
         <v>1351.2</v>
       </c>
-      <c r="Q56" s="26">
+      <c r="Q59" s="26">
         <v>1596.8</v>
       </c>
-      <c r="R56" s="26">
+      <c r="R59" s="26">
         <v>1818.3</v>
       </c>
-      <c r="S56" s="26">
+      <c r="S59" s="26">
         <v>1129.8</v>
       </c>
-      <c r="T56" s="26">
+      <c r="T59" s="26">
         <v>1041.3</v>
       </c>
-      <c r="AA56" s="26">
-        <f>N56</f>
+      <c r="AA59" s="26">
+        <f>N59</f>
         <v>1883.1</v>
       </c>
-      <c r="AB56" s="26">
-        <f>R56</f>
+      <c r="AB59" s="26">
+        <f>R59</f>
         <v>1818.3</v>
       </c>
     </row>
-    <row r="57" spans="2:28" s="2" customFormat="1">
-      <c r="B57" s="2" t="s">
+    <row r="60" spans="2:28" s="2" customFormat="1">
+      <c r="B60" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H57" s="26">
+      <c r="F60" s="26">
+        <v>1743.4</v>
+      </c>
+      <c r="H60" s="26">
         <v>1561.7</v>
       </c>
-      <c r="I57" s="26">
+      <c r="I60" s="26">
         <v>957.4</v>
       </c>
-      <c r="J57" s="26">
+      <c r="J60" s="26">
         <v>410.9</v>
       </c>
-      <c r="K57" s="26">
+      <c r="K60" s="26">
         <v>60.1</v>
       </c>
-      <c r="L57" s="26">
+      <c r="L60" s="26">
         <v>125.7</v>
       </c>
-      <c r="M57" s="26">
+      <c r="M60" s="26">
         <v>855.3</v>
       </c>
-      <c r="N57" s="26">
+      <c r="N60" s="26">
         <v>817.5</v>
       </c>
-      <c r="O57" s="26">
+      <c r="O60" s="26">
         <v>1288.4000000000001</v>
       </c>
-      <c r="P57" s="26">
+      <c r="P60" s="26">
         <v>1092.8</v>
       </c>
-      <c r="Q57" s="26">
+      <c r="Q60" s="26">
         <v>855.3</v>
       </c>
-      <c r="R57" s="26">
+      <c r="R60" s="26">
         <v>750.8</v>
       </c>
-      <c r="S57" s="26">
+      <c r="S60" s="26">
         <v>802.9</v>
       </c>
-      <c r="T57" s="26">
+      <c r="T60" s="26">
         <v>753.8</v>
       </c>
-      <c r="AA57" s="26">
-        <f>N57</f>
+      <c r="AA60" s="26">
+        <f>N60</f>
         <v>817.5</v>
       </c>
-      <c r="AB57" s="26">
-        <f>R57</f>
+      <c r="AB60" s="26">
+        <f>R60</f>
         <v>750.8</v>
-      </c>
-    </row>
-    <row r="58" spans="2:28">
-      <c r="B58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H58" s="27">
-        <v>329.4</v>
-      </c>
-      <c r="I58" s="27">
-        <v>335.1</v>
-      </c>
-      <c r="J58" s="27">
-        <v>294.2</v>
-      </c>
-      <c r="K58" s="27">
-        <v>272.39999999999998</v>
-      </c>
-      <c r="L58" s="27">
-        <v>230.9</v>
-      </c>
-      <c r="M58" s="27">
-        <v>203.1</v>
-      </c>
-      <c r="N58" s="27">
-        <v>203.4</v>
-      </c>
-      <c r="O58" s="27">
-        <v>190.2</v>
-      </c>
-      <c r="P58" s="27">
-        <v>198.8</v>
-      </c>
-      <c r="Q58" s="27">
-        <v>203.1</v>
-      </c>
-      <c r="R58" s="27">
-        <v>189</v>
-      </c>
-      <c r="S58" s="27">
-        <v>197</v>
-      </c>
-      <c r="T58" s="27">
-        <v>240.4</v>
-      </c>
-      <c r="AA58" s="27">
-        <f t="shared" ref="AA58:AA62" si="63">N58</f>
-        <v>203.4</v>
-      </c>
-      <c r="AB58" s="27">
-        <f>R58</f>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="2:28">
-      <c r="B59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H59" s="27">
-        <v>5.2</v>
-      </c>
-      <c r="I59" s="27">
-        <v>3.2</v>
-      </c>
-      <c r="J59" s="27">
-        <v>1.4</v>
-      </c>
-      <c r="K59" s="27">
-        <v>0.7</v>
-      </c>
-      <c r="L59" s="27">
-        <v>1</v>
-      </c>
-      <c r="M59" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="N59" s="27">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="O59" s="27">
-        <v>1.6</v>
-      </c>
-      <c r="P59" s="27">
-        <v>4.3</v>
-      </c>
-      <c r="Q59" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="R59" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="S59" s="27">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="T59" s="27">
-        <v>2.5</v>
-      </c>
-      <c r="AA59" s="27">
-        <f t="shared" si="63"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AB59" s="27">
-        <f t="shared" ref="AB59:AB81" si="64">R59</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:28">
-      <c r="B60" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H60" s="27">
-        <v>1.3</v>
-      </c>
-      <c r="I60" s="27">
-        <v>1.3</v>
-      </c>
-      <c r="J60" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="K60" s="27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L60" s="27">
-        <v>1</v>
-      </c>
-      <c r="M60" s="27">
-        <v>7.9</v>
-      </c>
-      <c r="N60" s="27">
-        <v>8.5</v>
-      </c>
-      <c r="O60" s="27">
-        <v>6.6</v>
-      </c>
-      <c r="P60" s="27">
-        <v>7.4</v>
-      </c>
-      <c r="Q60" s="27">
-        <v>7.9</v>
-      </c>
-      <c r="R60" s="27">
-        <v>9.6</v>
-      </c>
-      <c r="S60" s="27">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="T60" s="27">
-        <v>5.8</v>
-      </c>
-      <c r="AA60" s="27">
-        <f t="shared" si="63"/>
-        <v>8.5</v>
-      </c>
-      <c r="AB60" s="27">
-        <f t="shared" si="64"/>
-        <v>9.6</v>
       </c>
     </row>
     <row r="61" spans="2:28">
       <c r="B61" s="3" t="s">
-        <v>196</v>
+        <v>91</v>
+      </c>
+      <c r="F61" s="27">
+        <v>318</v>
       </c>
       <c r="H61" s="27">
-        <v>141.6</v>
+        <v>329.4</v>
       </c>
       <c r="I61" s="27">
-        <v>71.8</v>
+        <v>335.1</v>
       </c>
       <c r="J61" s="27">
-        <v>4</v>
+        <v>294.2</v>
       </c>
       <c r="K61" s="27">
-        <v>4</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="L61" s="27">
-        <v>4.0999999999999996</v>
+        <v>230.9</v>
       </c>
       <c r="M61" s="27">
-        <v>0</v>
+        <v>203.1</v>
       </c>
       <c r="N61" s="27">
-        <v>0</v>
+        <v>203.4</v>
       </c>
       <c r="O61" s="27">
-        <v>4.2</v>
+        <v>190.2</v>
       </c>
       <c r="P61" s="27">
-        <v>0</v>
+        <v>198.8</v>
       </c>
       <c r="Q61" s="27">
-        <v>0</v>
+        <v>203.1</v>
       </c>
       <c r="R61" s="27">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="S61" s="27">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="T61" s="27">
-        <v>0</v>
+        <v>240.4</v>
       </c>
       <c r="AA61" s="27">
-        <f t="shared" si="63"/>
-        <v>0</v>
+        <f t="shared" ref="AA61:AA65" si="94">N61</f>
+        <v>203.4</v>
       </c>
       <c r="AB61" s="27">
         <f>R61</f>
-        <v>0</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="2:28">
       <c r="B62" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="F62" s="27">
+        <v>5.4</v>
       </c>
       <c r="H62" s="27">
-        <v>488.1</v>
+        <v>5.2</v>
       </c>
       <c r="I62" s="27">
-        <v>556.20000000000005</v>
+        <v>3.2</v>
       </c>
       <c r="J62" s="27">
-        <v>495.7</v>
+        <v>1.4</v>
       </c>
       <c r="K62" s="27">
-        <v>469.5</v>
+        <v>0.7</v>
       </c>
       <c r="L62" s="27">
-        <v>402.8</v>
+        <v>1</v>
       </c>
       <c r="M62" s="27">
-        <v>618.79999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="N62" s="27">
-        <v>461.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="O62" s="27">
-        <v>517.1</v>
+        <v>1.6</v>
       </c>
       <c r="P62" s="27">
-        <v>630.70000000000005</v>
+        <v>4.3</v>
       </c>
       <c r="Q62" s="27">
-        <v>618.79999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="R62" s="27">
-        <v>582.29999999999995</v>
+        <v>0.1</v>
       </c>
       <c r="S62" s="27">
-        <v>615.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="T62" s="27">
-        <v>620</v>
+        <v>2.5</v>
       </c>
       <c r="AA62" s="27">
-        <f t="shared" si="63"/>
-        <v>461.8</v>
+        <f t="shared" si="94"/>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AB62" s="27">
-        <f t="shared" si="64"/>
-        <v>582.29999999999995</v>
-      </c>
-    </row>
-    <row r="63" spans="2:28" s="2" customFormat="1">
-      <c r="B63" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H63" s="26">
-        <v>3004.3</v>
-      </c>
-      <c r="I63" s="26">
-        <v>3082.7</v>
-      </c>
-      <c r="J63" s="26">
-        <v>2384</v>
-      </c>
-      <c r="K63" s="26">
-        <v>2925.3</v>
-      </c>
-      <c r="L63" s="26">
-        <v>3128.8</v>
-      </c>
-      <c r="M63" s="26">
-        <v>2305</v>
-      </c>
-      <c r="N63" s="26">
-        <v>2437.9</v>
-      </c>
-      <c r="O63" s="26">
-        <v>2483.3000000000002</v>
-      </c>
-      <c r="P63" s="26">
-        <v>2315</v>
-      </c>
-      <c r="Q63" s="26">
-        <v>2305</v>
-      </c>
-      <c r="R63" s="26">
-        <v>1986</v>
-      </c>
-      <c r="S63" s="26">
-        <v>2222.8000000000002</v>
-      </c>
-      <c r="T63" s="26">
-        <v>2392.9</v>
-      </c>
-      <c r="AA63" s="26">
-        <f>N63</f>
-        <v>2437.9</v>
-      </c>
-      <c r="AB63" s="26">
-        <f>R63</f>
-        <v>1986</v>
+        <f t="shared" ref="AB62:AB84" si="95">R62</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28">
+      <c r="B63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F63" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="H63" s="27">
+        <v>1.3</v>
+      </c>
+      <c r="I63" s="27">
+        <v>1.3</v>
+      </c>
+      <c r="J63" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="K63" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L63" s="27">
+        <v>1</v>
+      </c>
+      <c r="M63" s="27">
+        <v>7.9</v>
+      </c>
+      <c r="N63" s="27">
+        <v>8.5</v>
+      </c>
+      <c r="O63" s="27">
+        <v>6.6</v>
+      </c>
+      <c r="P63" s="27">
+        <v>7.4</v>
+      </c>
+      <c r="Q63" s="27">
+        <v>7.9</v>
+      </c>
+      <c r="R63" s="27">
+        <v>9.6</v>
+      </c>
+      <c r="S63" s="27">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="T63" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="AA63" s="27">
+        <f t="shared" si="94"/>
+        <v>8.5</v>
+      </c>
+      <c r="AB63" s="27">
+        <f t="shared" si="95"/>
+        <v>9.6</v>
       </c>
     </row>
     <row r="64" spans="2:28">
       <c r="B64" s="3" t="s">
-        <v>63</v>
+        <v>196</v>
+      </c>
+      <c r="F64" s="27">
+        <v>218.5</v>
       </c>
       <c r="H64" s="27">
-        <v>88.7</v>
+        <v>141.6</v>
       </c>
       <c r="I64" s="27">
-        <v>89.8</v>
+        <v>71.8</v>
       </c>
       <c r="J64" s="27">
-        <v>92.6</v>
+        <v>4</v>
       </c>
       <c r="K64" s="27">
-        <v>96.9</v>
+        <v>4</v>
       </c>
       <c r="L64" s="27">
-        <v>95.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M64" s="27">
-        <v>128.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="N64" s="27">
-        <v>114.1</v>
+        <v>0</v>
       </c>
       <c r="O64" s="27">
-        <v>108.8</v>
+        <v>4.2</v>
       </c>
       <c r="P64" s="27">
-        <v>134.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="27">
-        <v>128.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="R64" s="27">
-        <v>114.5</v>
+        <v>0</v>
       </c>
       <c r="S64" s="27">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="T64" s="27">
-        <v>101.9</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="27">
-        <f t="shared" ref="AA64:AA67" si="65">N64</f>
-        <v>114.1</v>
+        <f t="shared" si="94"/>
+        <v>0</v>
       </c>
       <c r="AB64" s="27">
-        <f t="shared" si="64"/>
-        <v>114.5</v>
+        <f>R64</f>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:28">
       <c r="B65" s="3" t="s">
-        <v>185</v>
+        <v>94</v>
+      </c>
+      <c r="F65" s="27">
+        <v>358</v>
       </c>
       <c r="H65" s="27">
-        <v>306.39999999999998</v>
+        <v>488.1</v>
       </c>
       <c r="I65" s="27">
-        <v>273.39999999999998</v>
+        <v>556.20000000000005</v>
       </c>
       <c r="J65" s="27">
-        <v>0.2</v>
+        <v>495.7</v>
       </c>
       <c r="K65" s="27">
-        <v>0.2</v>
+        <v>469.5</v>
       </c>
       <c r="L65" s="27">
-        <v>0.2</v>
+        <v>402.8</v>
       </c>
       <c r="M65" s="27">
-        <v>101.9</v>
+        <v>618.79999999999995</v>
       </c>
       <c r="N65" s="27">
-        <v>0.2</v>
+        <v>461.8</v>
       </c>
       <c r="O65" s="27">
-        <v>0.2</v>
+        <v>517.1</v>
       </c>
       <c r="P65" s="27">
-        <v>0.2</v>
+        <v>630.70000000000005</v>
       </c>
       <c r="Q65" s="27">
-        <v>101.9</v>
-      </c>
-      <c r="R65" s="3">
-        <v>0.6</v>
+        <v>618.79999999999995</v>
+      </c>
+      <c r="R65" s="27">
+        <v>582.29999999999995</v>
       </c>
       <c r="S65" s="27">
-        <v>0</v>
+        <v>615.5</v>
       </c>
       <c r="T65" s="27">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="AA65" s="27">
-        <f t="shared" si="65"/>
-        <v>0.2</v>
+        <f t="shared" si="94"/>
+        <v>461.8</v>
       </c>
       <c r="AB65" s="27">
-        <f t="shared" si="64"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="66" spans="2:28">
-      <c r="B66" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H66" s="27">
-        <v>227</v>
-      </c>
-      <c r="I66" s="27">
-        <v>209.9</v>
-      </c>
-      <c r="J66" s="27">
-        <v>199.4</v>
-      </c>
-      <c r="K66" s="27">
-        <v>217.6</v>
-      </c>
-      <c r="L66" s="27">
-        <v>219</v>
-      </c>
-      <c r="M66" s="27">
-        <v>202.3</v>
-      </c>
-      <c r="N66" s="27">
-        <v>180.9</v>
-      </c>
-      <c r="O66" s="27">
-        <v>179.4</v>
-      </c>
-      <c r="P66" s="27">
-        <v>194.2</v>
-      </c>
-      <c r="Q66" s="27">
-        <v>202.3</v>
-      </c>
-      <c r="R66" s="3">
-        <v>193.7</v>
-      </c>
-      <c r="S66" s="27">
-        <v>217</v>
-      </c>
-      <c r="T66" s="27">
-        <v>209.3</v>
-      </c>
-      <c r="AA66" s="27">
-        <f t="shared" si="65"/>
-        <v>180.9</v>
-      </c>
-      <c r="AB66" s="27">
-        <f t="shared" si="64"/>
-        <v>193.7</v>
+        <f t="shared" si="95"/>
+        <v>582.29999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" s="2" customFormat="1">
+      <c r="B66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="26">
+        <v>2507</v>
+      </c>
+      <c r="H66" s="26">
+        <v>3004.3</v>
+      </c>
+      <c r="I66" s="26">
+        <v>3082.7</v>
+      </c>
+      <c r="J66" s="26">
+        <v>2384</v>
+      </c>
+      <c r="K66" s="26">
+        <v>2925.3</v>
+      </c>
+      <c r="L66" s="26">
+        <v>3128.8</v>
+      </c>
+      <c r="M66" s="26">
+        <v>2305</v>
+      </c>
+      <c r="N66" s="26">
+        <v>2437.9</v>
+      </c>
+      <c r="O66" s="26">
+        <v>2483.3000000000002</v>
+      </c>
+      <c r="P66" s="26">
+        <v>2315</v>
+      </c>
+      <c r="Q66" s="26">
+        <v>2305</v>
+      </c>
+      <c r="R66" s="26">
+        <v>1986</v>
+      </c>
+      <c r="S66" s="26">
+        <v>2222.8000000000002</v>
+      </c>
+      <c r="T66" s="26">
+        <v>2392.9</v>
+      </c>
+      <c r="AA66" s="26">
+        <f>N66</f>
+        <v>2437.9</v>
+      </c>
+      <c r="AB66" s="26">
+        <f>R66</f>
+        <v>1986</v>
       </c>
     </row>
     <row r="67" spans="2:28">
       <c r="B67" s="3" t="s">
-        <v>97</v>
+        <v>63</v>
+      </c>
+      <c r="F67" s="27">
+        <v>95.3</v>
       </c>
       <c r="H67" s="27">
-        <v>0</v>
+        <v>88.7</v>
       </c>
       <c r="I67" s="27">
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="J67" s="27">
-        <v>0</v>
+        <v>92.6</v>
       </c>
       <c r="K67" s="27">
-        <v>0</v>
+        <v>96.9</v>
       </c>
       <c r="L67" s="27">
-        <v>0</v>
+        <v>95.1</v>
       </c>
       <c r="M67" s="27">
-        <v>0</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="N67" s="27">
-        <v>0</v>
+        <v>114.1</v>
       </c>
       <c r="O67" s="27">
-        <v>0</v>
+        <v>108.8</v>
       </c>
       <c r="P67" s="27">
-        <v>0</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="Q67" s="27">
-        <v>0</v>
-      </c>
-      <c r="R67" s="3">
-        <v>230.9</v>
+        <v>128.19999999999999</v>
+      </c>
+      <c r="R67" s="27">
+        <v>114.5</v>
       </c>
       <c r="S67" s="27">
-        <v>227.1</v>
+        <v>105</v>
       </c>
       <c r="T67" s="27">
-        <v>0</v>
+        <v>101.9</v>
       </c>
       <c r="AA67" s="27">
-        <f t="shared" si="65"/>
-        <v>0</v>
+        <f t="shared" ref="AA67:AA70" si="96">N67</f>
+        <v>114.1</v>
       </c>
       <c r="AB67" s="27">
-        <f t="shared" si="64"/>
-        <v>230.9</v>
+        <f t="shared" si="95"/>
+        <v>114.5</v>
       </c>
     </row>
     <row r="68" spans="2:28">
       <c r="B68" s="3" t="s">
-        <v>104</v>
+        <v>185</v>
+      </c>
+      <c r="F68" s="27">
+        <v>339.9</v>
       </c>
       <c r="H68" s="27">
-        <f t="shared" ref="H68:T68" si="66">SUM(H56:H67)</f>
-        <v>7009.2</v>
+        <v>306.39999999999998</v>
       </c>
       <c r="I68" s="27">
-        <f t="shared" si="66"/>
-        <v>6737.2</v>
+        <v>273.39999999999998</v>
       </c>
       <c r="J68" s="27">
-        <f t="shared" si="66"/>
-        <v>6191.5999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="K68" s="27">
-        <f t="shared" si="66"/>
-        <v>6442.2</v>
+        <v>0.2</v>
       </c>
       <c r="L68" s="27">
-        <f t="shared" si="66"/>
-        <v>6081.4000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="M68" s="27">
-        <f t="shared" si="66"/>
-        <v>6019.7999999999993</v>
+        <v>101.9</v>
       </c>
       <c r="N68" s="27">
-        <f t="shared" si="66"/>
-        <v>6115.7</v>
+        <v>0.2</v>
       </c>
       <c r="O68" s="27">
-        <f t="shared" si="66"/>
-        <v>5903</v>
+        <v>0.2</v>
       </c>
       <c r="P68" s="27">
-        <f t="shared" si="66"/>
-        <v>5929.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q68" s="27">
-        <f t="shared" si="66"/>
-        <v>6019.7999999999993</v>
-      </c>
-      <c r="R68" s="27">
-        <f t="shared" si="66"/>
-        <v>5875.7999999999993</v>
+        <v>101.9</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0.6</v>
       </c>
       <c r="S68" s="27">
-        <f t="shared" si="66"/>
-        <v>5536.6</v>
+        <v>0</v>
       </c>
       <c r="T68" s="27">
-        <f t="shared" si="66"/>
-        <v>5367.9000000000005</v>
+        <v>0</v>
       </c>
       <c r="AA68" s="27">
-        <f>SUM(AA56:AA67)</f>
-        <v>6115.7</v>
+        <f t="shared" si="96"/>
+        <v>0.2</v>
       </c>
       <c r="AB68" s="27">
-        <f>SUM(AB56:AB67)</f>
-        <v>5875.7999999999993</v>
-      </c>
-    </row>
-    <row r="69" spans="2:28" s="2" customFormat="1">
-      <c r="B69" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H69" s="26">
-        <v>61.6</v>
-      </c>
-      <c r="I69" s="26">
-        <v>61.6</v>
-      </c>
-      <c r="J69" s="26">
-        <v>61.3</v>
-      </c>
-      <c r="K69" s="26">
-        <v>46.1</v>
-      </c>
-      <c r="L69" s="26">
-        <v>0</v>
-      </c>
-      <c r="M69" s="26">
-        <v>51.6</v>
-      </c>
-      <c r="N69" s="26">
-        <v>51.7</v>
-      </c>
-      <c r="O69" s="26">
-        <v>51.7</v>
-      </c>
-      <c r="P69" s="26">
-        <v>47.3</v>
-      </c>
-      <c r="Q69" s="26">
-        <v>51.6</v>
-      </c>
-      <c r="R69" s="26">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="S69" s="26">
-        <v>169.9</v>
-      </c>
-      <c r="T69" s="26">
-        <v>169.9</v>
-      </c>
-      <c r="AA69" s="26">
-        <f>N69</f>
-        <v>51.7</v>
-      </c>
-      <c r="AB69" s="26">
-        <f>R69</f>
-        <v>65.599999999999994</v>
+        <f t="shared" si="95"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28">
+      <c r="B69" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="27">
+        <v>203.5</v>
+      </c>
+      <c r="H69" s="27">
+        <v>227</v>
+      </c>
+      <c r="I69" s="27">
+        <v>209.9</v>
+      </c>
+      <c r="J69" s="27">
+        <v>199.4</v>
+      </c>
+      <c r="K69" s="27">
+        <v>217.6</v>
+      </c>
+      <c r="L69" s="27">
+        <v>219</v>
+      </c>
+      <c r="M69" s="27">
+        <v>202.3</v>
+      </c>
+      <c r="N69" s="27">
+        <v>180.9</v>
+      </c>
+      <c r="O69" s="27">
+        <v>179.4</v>
+      </c>
+      <c r="P69" s="27">
+        <v>194.2</v>
+      </c>
+      <c r="Q69" s="27">
+        <v>202.3</v>
+      </c>
+      <c r="R69" s="3">
+        <v>193.7</v>
+      </c>
+      <c r="S69" s="27">
+        <v>217</v>
+      </c>
+      <c r="T69" s="27">
+        <v>209.3</v>
+      </c>
+      <c r="AA69" s="27">
+        <f t="shared" si="96"/>
+        <v>180.9</v>
+      </c>
+      <c r="AB69" s="27">
+        <f t="shared" si="95"/>
+        <v>193.7</v>
       </c>
     </row>
     <row r="70" spans="2:28">
       <c r="B70" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="F70" s="27">
+        <v>0</v>
       </c>
       <c r="H70" s="27">
         <v>0</v>
@@ -6239,255 +6893,284 @@
         <v>0</v>
       </c>
       <c r="P70" s="27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="27">
         <v>0</v>
       </c>
-      <c r="R70" s="27">
-        <v>0</v>
+      <c r="R70" s="3">
+        <v>230.9</v>
       </c>
       <c r="S70" s="27">
-        <v>1.6</v>
+        <v>227.1</v>
       </c>
       <c r="T70" s="27">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AA70" s="27">
-        <f t="shared" ref="AA70:AA80" si="67">N70</f>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AB70" s="27">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:28" s="2" customFormat="1">
-      <c r="B71" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H71" s="26">
-        <v>2.1</v>
-      </c>
-      <c r="I71" s="26">
-        <v>1.8</v>
-      </c>
-      <c r="J71" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="K71" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="L71" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="M71" s="26">
-        <v>0</v>
-      </c>
-      <c r="N71" s="26">
-        <v>1.3</v>
-      </c>
-      <c r="O71" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="P71" s="26">
-        <v>23</v>
-      </c>
-      <c r="Q71" s="26">
-        <v>0</v>
-      </c>
-      <c r="R71" s="26">
-        <v>0</v>
-      </c>
-      <c r="S71" s="26">
-        <v>1.6</v>
-      </c>
-      <c r="T71" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="AA71" s="26">
-        <f>N71</f>
-        <v>1.3</v>
-      </c>
-      <c r="AB71" s="26">
-        <f>R71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:28">
-      <c r="B72" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H72" s="27">
-        <v>15.5</v>
-      </c>
-      <c r="I72" s="27">
-        <v>14.3</v>
-      </c>
-      <c r="J72" s="27">
-        <v>13.6</v>
-      </c>
-      <c r="K72" s="27">
-        <v>12.4</v>
-      </c>
-      <c r="L72" s="27">
-        <v>11.7</v>
-      </c>
-      <c r="M72" s="27">
-        <v>0</v>
-      </c>
-      <c r="N72" s="27">
-        <v>0</v>
-      </c>
-      <c r="O72" s="27">
-        <v>8.4</v>
-      </c>
-      <c r="P72" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="27">
-        <v>0</v>
-      </c>
-      <c r="R72" s="27">
-        <v>0</v>
-      </c>
-      <c r="S72" s="27">
-        <v>0</v>
-      </c>
-      <c r="T72" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="27">
+        <f t="shared" si="95"/>
+        <v>230.9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28">
+      <c r="B71" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F71" s="27">
+        <f t="shared" ref="F71:T71" si="97">SUM(F59:F70)</f>
+        <v>7071.0999999999995</v>
+      </c>
+      <c r="H71" s="27">
+        <f t="shared" si="97"/>
+        <v>7009.2</v>
+      </c>
+      <c r="I71" s="27">
+        <f t="shared" si="97"/>
+        <v>6737.2</v>
+      </c>
+      <c r="J71" s="27">
+        <f t="shared" si="97"/>
+        <v>6191.5999999999995</v>
+      </c>
+      <c r="K71" s="27">
+        <f t="shared" si="97"/>
+        <v>6442.2</v>
+      </c>
+      <c r="L71" s="27">
+        <f t="shared" si="97"/>
+        <v>6081.4000000000005</v>
+      </c>
+      <c r="M71" s="27">
+        <f t="shared" si="97"/>
+        <v>6019.7999999999993</v>
+      </c>
+      <c r="N71" s="27">
+        <f t="shared" si="97"/>
+        <v>6115.7</v>
+      </c>
+      <c r="O71" s="27">
+        <f t="shared" si="97"/>
+        <v>5903</v>
+      </c>
+      <c r="P71" s="27">
+        <f t="shared" si="97"/>
+        <v>5929.3</v>
+      </c>
+      <c r="Q71" s="27">
+        <f t="shared" si="97"/>
+        <v>6019.7999999999993</v>
+      </c>
+      <c r="R71" s="27">
+        <f t="shared" si="97"/>
+        <v>5875.7999999999993</v>
+      </c>
+      <c r="S71" s="27">
+        <f t="shared" si="97"/>
+        <v>5536.6</v>
+      </c>
+      <c r="T71" s="27">
+        <f t="shared" si="97"/>
+        <v>5367.9000000000005</v>
+      </c>
+      <c r="AA71" s="27">
+        <f>SUM(AA59:AA70)</f>
+        <v>6115.7</v>
+      </c>
+      <c r="AB71" s="27">
+        <f>SUM(AB59:AB70)</f>
+        <v>5875.7999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" s="2" customFormat="1">
+      <c r="B72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F72" s="26">
+        <v>183.5</v>
+      </c>
+      <c r="H72" s="26">
+        <v>61.6</v>
+      </c>
+      <c r="I72" s="26">
+        <v>61.6</v>
+      </c>
+      <c r="J72" s="26">
+        <v>61.3</v>
+      </c>
+      <c r="K72" s="26">
+        <v>46.1</v>
+      </c>
+      <c r="L72" s="26">
+        <v>0</v>
+      </c>
+      <c r="M72" s="26">
+        <v>51.6</v>
+      </c>
+      <c r="N72" s="26">
+        <v>51.7</v>
+      </c>
+      <c r="O72" s="26">
+        <v>51.7</v>
+      </c>
+      <c r="P72" s="26">
+        <v>47.3</v>
+      </c>
+      <c r="Q72" s="26">
+        <v>51.6</v>
+      </c>
+      <c r="R72" s="26">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="S72" s="26">
+        <v>169.9</v>
+      </c>
+      <c r="T72" s="26">
+        <v>169.9</v>
+      </c>
+      <c r="AA72" s="26">
         <f>N72</f>
-        <v>0</v>
-      </c>
-      <c r="AB72" s="27">
+        <v>51.7</v>
+      </c>
+      <c r="AB72" s="26">
         <f>R72</f>
-        <v>0</v>
+        <v>65.599999999999994</v>
       </c>
     </row>
     <row r="73" spans="2:28">
       <c r="B73" s="3" t="s">
-        <v>185</v>
+        <v>94</v>
+      </c>
+      <c r="F73" s="27">
+        <v>0</v>
       </c>
       <c r="H73" s="27">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="I73" s="27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J73" s="27">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K73" s="27">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L73" s="27">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M73" s="27">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="N73" s="27">
+        <v>0</v>
+      </c>
+      <c r="O73" s="27">
+        <v>0</v>
+      </c>
+      <c r="P73" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Q73" s="27">
+        <v>0</v>
+      </c>
+      <c r="R73" s="27">
+        <v>0</v>
+      </c>
+      <c r="S73" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="T73" s="27">
         <v>1.5</v>
       </c>
-      <c r="O73" s="27">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="P73" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="27">
-        <v>2.4</v>
-      </c>
-      <c r="R73" s="27">
-        <v>2.4</v>
-      </c>
-      <c r="S73" s="27">
-        <v>0</v>
-      </c>
-      <c r="T73" s="27">
-        <v>0</v>
-      </c>
       <c r="AA73" s="27">
-        <f t="shared" si="67"/>
-        <v>1.5</v>
+        <f t="shared" ref="AA73:AA83" si="98">N73</f>
+        <v>0</v>
       </c>
       <c r="AB73" s="27">
-        <f t="shared" si="64"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="74" spans="2:28">
-      <c r="B74" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H74" s="27">
-        <v>9.9</v>
-      </c>
-      <c r="I74" s="27">
-        <v>9.6</v>
-      </c>
-      <c r="J74" s="27">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K74" s="27">
-        <v>6.8</v>
-      </c>
-      <c r="L74" s="27">
-        <v>6.6</v>
-      </c>
-      <c r="M74" s="27">
-        <v>25.4</v>
-      </c>
-      <c r="N74" s="27">
-        <v>21.4</v>
-      </c>
-      <c r="O74" s="27">
-        <v>21.5</v>
-      </c>
-      <c r="P74" s="27">
-        <v>42.1</v>
-      </c>
-      <c r="Q74" s="27">
-        <v>25.4</v>
-      </c>
-      <c r="R74" s="27">
-        <v>22.4</v>
-      </c>
-      <c r="S74" s="27">
-        <v>23.4</v>
-      </c>
-      <c r="T74" s="27">
-        <v>14.5</v>
-      </c>
-      <c r="AA74" s="27">
-        <f t="shared" si="67"/>
-        <v>21.4</v>
-      </c>
-      <c r="AB74" s="27">
-        <f t="shared" si="64"/>
-        <v>22.4</v>
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" s="2" customFormat="1">
+      <c r="B74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H74" s="26">
+        <v>2.1</v>
+      </c>
+      <c r="I74" s="26">
+        <v>1.8</v>
+      </c>
+      <c r="J74" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="K74" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="L74" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="M74" s="26">
+        <v>0</v>
+      </c>
+      <c r="N74" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="O74" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="P74" s="26">
+        <v>23</v>
+      </c>
+      <c r="Q74" s="26">
+        <v>0</v>
+      </c>
+      <c r="R74" s="26">
+        <v>0</v>
+      </c>
+      <c r="S74" s="26">
+        <v>1.6</v>
+      </c>
+      <c r="T74" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="AA74" s="26">
+        <f>N74</f>
+        <v>1.3</v>
+      </c>
+      <c r="AB74" s="26">
+        <f>R74</f>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:28">
       <c r="B75" s="3" t="s">
-        <v>91</v>
+        <v>196</v>
+      </c>
+      <c r="F75" s="27">
+        <v>17.399999999999999</v>
       </c>
       <c r="H75" s="27">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="I75" s="27">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="J75" s="27">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="K75" s="27">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="L75" s="27">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="M75" s="27">
         <v>0</v>
@@ -6496,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="27">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="P75" s="27">
         <v>0</v>
@@ -6511,1116 +7194,1180 @@
         <v>0</v>
       </c>
       <c r="T75" s="27">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AA75" s="27">
-        <f t="shared" si="67"/>
+        <f>N75</f>
         <v>0</v>
       </c>
       <c r="AB75" s="27">
-        <f t="shared" si="64"/>
+        <f>R75</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:28">
       <c r="B76" s="3" t="s">
-        <v>99</v>
+        <v>185</v>
+      </c>
+      <c r="F76" s="27">
+        <v>9.8000000000000007</v>
       </c>
       <c r="H76" s="27">
-        <v>22.4</v>
+        <v>9.9</v>
       </c>
       <c r="I76" s="27">
-        <v>21.8</v>
+        <v>9</v>
       </c>
       <c r="J76" s="27">
-        <v>35</v>
+        <v>0.8</v>
       </c>
       <c r="K76" s="27">
-        <v>93.6</v>
+        <v>0.9</v>
       </c>
       <c r="L76" s="27">
-        <v>160.30000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="M76" s="27">
-        <v>77</v>
+        <v>2.4</v>
       </c>
       <c r="N76" s="27">
-        <v>104.6</v>
+        <v>1.5</v>
       </c>
       <c r="O76" s="27">
-        <v>124.4</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="P76" s="27">
-        <v>99.9</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="27">
-        <v>77</v>
+        <v>2.4</v>
       </c>
       <c r="R76" s="27">
-        <v>97.6</v>
+        <v>2.4</v>
       </c>
       <c r="S76" s="27">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="T76" s="27">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="27">
-        <f t="shared" si="67"/>
-        <v>104.6</v>
+        <f t="shared" si="98"/>
+        <v>1.5</v>
       </c>
       <c r="AB76" s="27">
-        <f t="shared" si="64"/>
-        <v>97.6</v>
+        <f t="shared" si="95"/>
+        <v>2.4</v>
       </c>
     </row>
     <row r="77" spans="2:28">
       <c r="B77" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="F77" s="27">
+        <v>10.5</v>
       </c>
       <c r="H77" s="27">
-        <v>97</v>
+        <v>9.9</v>
       </c>
       <c r="I77" s="27">
-        <v>93.1</v>
+        <v>9.6</v>
       </c>
       <c r="J77" s="27">
-        <v>93.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K77" s="27">
-        <v>76</v>
+        <v>6.8</v>
       </c>
       <c r="L77" s="27">
-        <v>77.2</v>
+        <v>6.6</v>
       </c>
       <c r="M77" s="27">
-        <v>121.2</v>
+        <v>25.4</v>
       </c>
       <c r="N77" s="27">
-        <v>120.7</v>
+        <v>21.4</v>
       </c>
       <c r="O77" s="27">
-        <v>103.9</v>
+        <v>21.5</v>
       </c>
       <c r="P77" s="27">
-        <v>126.9</v>
+        <v>42.1</v>
       </c>
       <c r="Q77" s="27">
-        <v>121.2</v>
+        <v>25.4</v>
       </c>
       <c r="R77" s="27">
-        <v>125.6</v>
+        <v>22.4</v>
       </c>
       <c r="S77" s="27">
-        <v>142.9</v>
+        <v>23.4</v>
       </c>
       <c r="T77" s="27">
-        <v>165</v>
+        <v>14.5</v>
       </c>
       <c r="AA77" s="27">
-        <f t="shared" si="67"/>
-        <v>120.7</v>
+        <f t="shared" si="98"/>
+        <v>21.4</v>
       </c>
       <c r="AB77" s="27">
-        <f t="shared" si="64"/>
-        <v>125.6</v>
+        <f t="shared" si="95"/>
+        <v>22.4</v>
       </c>
     </row>
     <row r="78" spans="2:28">
       <c r="B78" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="F78" s="27">
+        <v>0</v>
       </c>
       <c r="H78" s="27">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="I78" s="27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J78" s="27">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="27">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="L78" s="27">
-        <v>8.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="M78" s="27">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="N78" s="27">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="O78" s="27">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="P78" s="27">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="27">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="R78" s="27">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="S78" s="27">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="T78" s="27">
-        <v>9.3000000000000007</v>
+        <v>0.9</v>
       </c>
       <c r="AA78" s="27">
-        <f t="shared" si="67"/>
-        <v>5.2</v>
+        <f t="shared" si="98"/>
+        <v>0</v>
       </c>
       <c r="AB78" s="27">
-        <f t="shared" si="64"/>
-        <v>4.4000000000000004</v>
+        <f t="shared" si="95"/>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:28">
       <c r="B79" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="F79" s="27">
+        <v>21.6</v>
       </c>
       <c r="H79" s="27">
-        <v>1989.6</v>
+        <v>22.4</v>
       </c>
       <c r="I79" s="27">
-        <v>2017.1</v>
+        <v>21.8</v>
       </c>
       <c r="J79" s="27">
-        <v>2058.6</v>
+        <v>35</v>
       </c>
       <c r="K79" s="27">
-        <v>2035.5</v>
+        <v>93.6</v>
       </c>
       <c r="L79" s="27">
-        <v>1943.7</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="M79" s="27">
-        <v>1902</v>
+        <v>77</v>
       </c>
       <c r="N79" s="27">
-        <v>1956</v>
+        <v>104.6</v>
       </c>
       <c r="O79" s="27">
-        <v>1934.3</v>
+        <v>124.4</v>
       </c>
       <c r="P79" s="27">
-        <v>1913.1</v>
+        <v>99.9</v>
       </c>
       <c r="Q79" s="27">
-        <v>1902</v>
+        <v>77</v>
       </c>
       <c r="R79" s="27">
-        <v>1687.6</v>
+        <v>97.6</v>
       </c>
       <c r="S79" s="27">
-        <v>1679.3</v>
+        <v>22.8</v>
       </c>
       <c r="T79" s="27">
-        <v>1652.5</v>
+        <v>23.3</v>
       </c>
       <c r="AA79" s="27">
-        <f t="shared" si="67"/>
-        <v>1956</v>
+        <f t="shared" si="98"/>
+        <v>104.6</v>
       </c>
       <c r="AB79" s="27">
-        <f t="shared" si="64"/>
-        <v>1687.6</v>
+        <f t="shared" si="95"/>
+        <v>97.6</v>
       </c>
     </row>
     <row r="80" spans="2:28">
       <c r="B80" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="F80" s="27">
+        <v>105.6</v>
       </c>
       <c r="H80" s="27">
-        <v>1998.5</v>
+        <v>97</v>
       </c>
       <c r="I80" s="27">
-        <v>2042.1</v>
+        <v>93.1</v>
       </c>
       <c r="J80" s="27">
-        <v>2051.6999999999998</v>
+        <v>93.9</v>
       </c>
       <c r="K80" s="27">
-        <v>2070.1</v>
+        <v>76</v>
       </c>
       <c r="L80" s="27">
-        <v>1972.4</v>
+        <v>77.2</v>
       </c>
       <c r="M80" s="27">
-        <v>2115.9</v>
+        <v>121.2</v>
       </c>
       <c r="N80" s="27">
-        <v>2075.6</v>
+        <v>120.7</v>
       </c>
       <c r="O80" s="27">
-        <v>2079.3000000000002</v>
+        <v>103.9</v>
       </c>
       <c r="P80" s="27">
-        <v>2097.6999999999998</v>
+        <v>126.9</v>
       </c>
       <c r="Q80" s="27">
-        <v>2115.9</v>
+        <v>121.2</v>
       </c>
       <c r="R80" s="27">
-        <v>2213.4</v>
+        <v>125.6</v>
       </c>
       <c r="S80" s="27">
-        <v>2227.5</v>
+        <v>142.9</v>
       </c>
       <c r="T80" s="27">
-        <v>2231.3000000000002</v>
+        <v>165</v>
       </c>
       <c r="AA80" s="27">
-        <f t="shared" si="67"/>
-        <v>2075.6</v>
+        <f t="shared" si="98"/>
+        <v>120.7</v>
       </c>
       <c r="AB80" s="27">
-        <f t="shared" si="64"/>
-        <v>2213.4</v>
+        <f t="shared" si="95"/>
+        <v>125.6</v>
       </c>
     </row>
     <row r="81" spans="2:28">
       <c r="B81" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="F81" s="27">
+        <v>6.3</v>
       </c>
       <c r="H81" s="27">
-        <v>49.3</v>
+        <v>8.4</v>
       </c>
       <c r="I81" s="27">
-        <v>46.9</v>
+        <v>8</v>
       </c>
       <c r="J81" s="27">
-        <v>48</v>
+        <v>8.1</v>
       </c>
       <c r="K81" s="27">
-        <v>63.6</v>
+        <v>8.4</v>
       </c>
       <c r="L81" s="27">
-        <v>61.7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M81" s="27">
-        <v>60.8</v>
+        <v>6.6</v>
       </c>
       <c r="N81" s="27">
-        <v>62.3</v>
+        <v>5.2</v>
       </c>
       <c r="O81" s="27">
-        <v>59.5</v>
+        <v>5.4</v>
       </c>
       <c r="P81" s="27">
-        <v>55.8</v>
+        <v>6.1</v>
       </c>
       <c r="Q81" s="27">
-        <v>60.8</v>
+        <v>6.6</v>
       </c>
       <c r="R81" s="27">
-        <v>60.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S81" s="27">
-        <v>55.9</v>
+        <v>6.9</v>
       </c>
       <c r="T81" s="27">
-        <v>59.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AA81" s="27">
-        <f>N81</f>
-        <v>62.3</v>
+        <f t="shared" si="98"/>
+        <v>5.2</v>
       </c>
       <c r="AB81" s="27">
-        <f t="shared" si="64"/>
-        <v>60.2</v>
+        <f t="shared" si="95"/>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="82" spans="2:28">
       <c r="B82" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="F82" s="27">
+        <v>1964.7</v>
       </c>
       <c r="H82" s="27">
-        <f t="shared" ref="H82:T82" si="68">SUM(H69:H81)+H68</f>
-        <v>11273.4</v>
+        <v>1989.6</v>
       </c>
       <c r="I82" s="27">
-        <f t="shared" si="68"/>
-        <v>11062.5</v>
+        <v>2017.1</v>
       </c>
       <c r="J82" s="27">
-        <f t="shared" si="68"/>
-        <v>10572.5</v>
+        <v>2058.6</v>
       </c>
       <c r="K82" s="27">
-        <f t="shared" si="68"/>
-        <v>10856.099999999999</v>
+        <v>2035.5</v>
       </c>
       <c r="L82" s="27">
-        <f t="shared" si="68"/>
-        <v>10325.400000000001</v>
+        <v>1943.7</v>
       </c>
       <c r="M82" s="27">
-        <f t="shared" si="68"/>
-        <v>10382.700000000001</v>
+        <v>1902</v>
       </c>
       <c r="N82" s="27">
-        <f t="shared" si="68"/>
-        <v>10516</v>
+        <v>1956</v>
       </c>
       <c r="O82" s="27">
-        <f t="shared" si="68"/>
-        <v>10308.1</v>
+        <v>1934.3</v>
       </c>
       <c r="P82" s="27">
-        <f t="shared" si="68"/>
-        <v>10341.299999999999</v>
+        <v>1913.1</v>
       </c>
       <c r="Q82" s="27">
-        <f t="shared" si="68"/>
-        <v>10382.700000000001</v>
+        <v>1902</v>
       </c>
       <c r="R82" s="27">
-        <f t="shared" si="68"/>
-        <v>10155</v>
+        <v>1687.6</v>
       </c>
       <c r="S82" s="27">
-        <f t="shared" si="68"/>
-        <v>9868.4</v>
+        <v>1679.3</v>
       </c>
       <c r="T82" s="27">
-        <f t="shared" si="68"/>
-        <v>9698.7999999999993</v>
+        <v>1652.5</v>
       </c>
       <c r="AA82" s="27">
-        <f>SUM(AA69:AA81)+AA68</f>
-        <v>10516</v>
+        <f t="shared" si="98"/>
+        <v>1956</v>
       </c>
       <c r="AB82" s="27">
-        <f>SUM(AB69:AB81)+AB68</f>
-        <v>10155</v>
+        <f t="shared" si="95"/>
+        <v>1687.6</v>
       </c>
     </row>
     <row r="83" spans="2:28">
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="27"/>
-      <c r="T83" s="27"/>
+      <c r="B83" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F83" s="27">
+        <v>1898.8</v>
+      </c>
+      <c r="H83" s="27">
+        <v>1998.5</v>
+      </c>
+      <c r="I83" s="27">
+        <v>2042.1</v>
+      </c>
+      <c r="J83" s="27">
+        <v>2051.6999999999998</v>
+      </c>
+      <c r="K83" s="27">
+        <v>2070.1</v>
+      </c>
+      <c r="L83" s="27">
+        <v>1972.4</v>
+      </c>
+      <c r="M83" s="27">
+        <v>2115.9</v>
+      </c>
+      <c r="N83" s="27">
+        <v>2075.6</v>
+      </c>
+      <c r="O83" s="27">
+        <v>2079.3000000000002</v>
+      </c>
+      <c r="P83" s="27">
+        <v>2097.6999999999998</v>
+      </c>
+      <c r="Q83" s="27">
+        <v>2115.9</v>
+      </c>
+      <c r="R83" s="27">
+        <v>2213.4</v>
+      </c>
+      <c r="S83" s="27">
+        <v>2227.5</v>
+      </c>
+      <c r="T83" s="27">
+        <v>2231.3000000000002</v>
+      </c>
+      <c r="AA83" s="27">
+        <f t="shared" si="98"/>
+        <v>2075.6</v>
+      </c>
+      <c r="AB83" s="27">
+        <f t="shared" si="95"/>
+        <v>2213.4</v>
+      </c>
     </row>
     <row r="84" spans="2:28">
       <c r="B84" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="F84" s="27">
+        <v>0</v>
       </c>
       <c r="H84" s="27">
-        <v>925.6</v>
+        <v>49.3</v>
       </c>
       <c r="I84" s="27">
-        <v>856.6</v>
+        <v>46.9</v>
       </c>
       <c r="J84" s="27">
-        <v>832.7</v>
+        <v>48</v>
       </c>
       <c r="K84" s="27">
-        <v>860.8</v>
+        <v>63.6</v>
       </c>
       <c r="L84" s="27">
-        <v>787.1</v>
+        <v>61.7</v>
       </c>
       <c r="M84" s="27">
-        <v>548.79999999999995</v>
+        <v>60.8</v>
       </c>
       <c r="N84" s="27">
-        <v>502.3</v>
+        <v>62.3</v>
       </c>
       <c r="O84" s="27">
-        <v>524.4</v>
+        <v>59.5</v>
       </c>
       <c r="P84" s="27">
-        <v>515.4</v>
+        <v>55.8</v>
       </c>
       <c r="Q84" s="27">
-        <v>548.79999999999995</v>
+        <v>60.8</v>
       </c>
       <c r="R84" s="27">
-        <v>495.2</v>
+        <v>60.2</v>
       </c>
       <c r="S84" s="27">
-        <v>562.70000000000005</v>
+        <v>55.9</v>
       </c>
       <c r="T84" s="27">
-        <v>727.4</v>
+        <v>59.5</v>
       </c>
       <c r="AA84" s="27">
         <f>N84</f>
-        <v>502.3</v>
+        <v>62.3</v>
       </c>
       <c r="AB84" s="27">
-        <f>R84</f>
-        <v>495.2</v>
+        <f t="shared" si="95"/>
+        <v>60.2</v>
       </c>
     </row>
     <row r="85" spans="2:28">
       <c r="B85" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" s="27">
+        <f t="shared" ref="F85:T85" si="99">SUM(F72:F84)+F71</f>
+        <v>11293.4</v>
+      </c>
+      <c r="H85" s="27">
+        <f t="shared" si="99"/>
+        <v>11273.4</v>
+      </c>
+      <c r="I85" s="27">
+        <f t="shared" si="99"/>
+        <v>11062.5</v>
+      </c>
+      <c r="J85" s="27">
+        <f t="shared" si="99"/>
+        <v>10572.5</v>
+      </c>
+      <c r="K85" s="27">
+        <f t="shared" si="99"/>
+        <v>10856.099999999999</v>
+      </c>
+      <c r="L85" s="27">
+        <f t="shared" si="99"/>
+        <v>10325.400000000001</v>
+      </c>
+      <c r="M85" s="27">
+        <f t="shared" si="99"/>
+        <v>10382.700000000001</v>
+      </c>
+      <c r="N85" s="27">
+        <f t="shared" si="99"/>
+        <v>10516</v>
+      </c>
+      <c r="O85" s="27">
+        <f t="shared" si="99"/>
+        <v>10308.1</v>
+      </c>
+      <c r="P85" s="27">
+        <f t="shared" si="99"/>
+        <v>10341.299999999999</v>
+      </c>
+      <c r="Q85" s="27">
+        <f t="shared" si="99"/>
+        <v>10382.700000000001</v>
+      </c>
+      <c r="R85" s="27">
+        <f t="shared" si="99"/>
+        <v>10155</v>
+      </c>
+      <c r="S85" s="27">
+        <f t="shared" si="99"/>
+        <v>9868.4</v>
+      </c>
+      <c r="T85" s="27">
+        <f t="shared" si="99"/>
+        <v>9698.7999999999993</v>
+      </c>
+      <c r="AA85" s="27">
+        <f>SUM(AA72:AA84)+AA71</f>
+        <v>10516</v>
+      </c>
+      <c r="AB85" s="27">
+        <f>SUM(AB72:AB84)+AB71</f>
+        <v>10155</v>
+      </c>
+    </row>
+    <row r="86" spans="2:28">
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="27"/>
+      <c r="S86" s="27"/>
+      <c r="T86" s="27"/>
+    </row>
+    <row r="87" spans="2:28">
+      <c r="B87" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F87" s="27">
+        <v>892.1</v>
+      </c>
+      <c r="H87" s="27">
+        <v>925.6</v>
+      </c>
+      <c r="I87" s="27">
+        <v>856.6</v>
+      </c>
+      <c r="J87" s="27">
+        <v>832.7</v>
+      </c>
+      <c r="K87" s="27">
+        <v>860.8</v>
+      </c>
+      <c r="L87" s="27">
+        <v>787.1</v>
+      </c>
+      <c r="M87" s="27">
+        <v>548.79999999999995</v>
+      </c>
+      <c r="N87" s="27">
+        <v>502.3</v>
+      </c>
+      <c r="O87" s="27">
+        <v>524.4</v>
+      </c>
+      <c r="P87" s="27">
+        <v>515.4</v>
+      </c>
+      <c r="Q87" s="27">
+        <v>548.79999999999995</v>
+      </c>
+      <c r="R87" s="27">
+        <v>495.2</v>
+      </c>
+      <c r="S87" s="27">
+        <v>562.70000000000005</v>
+      </c>
+      <c r="T87" s="27">
+        <v>727.4</v>
+      </c>
+      <c r="AA87" s="27">
+        <f>N87</f>
+        <v>502.3</v>
+      </c>
+      <c r="AB87" s="27">
+        <f>R87</f>
+        <v>495.2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:28">
+      <c r="B88" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H85" s="27">
-        <v>0</v>
-      </c>
-      <c r="I85" s="27">
-        <v>0</v>
-      </c>
-      <c r="J85" s="27">
-        <v>0</v>
-      </c>
-      <c r="K85" s="27">
-        <v>0</v>
-      </c>
-      <c r="L85" s="3">
-        <v>0</v>
-      </c>
-      <c r="M85" s="27">
+      <c r="F88" s="27">
+        <v>0</v>
+      </c>
+      <c r="H88" s="27">
+        <v>0</v>
+      </c>
+      <c r="I88" s="27">
+        <v>0</v>
+      </c>
+      <c r="J88" s="27">
+        <v>0</v>
+      </c>
+      <c r="K88" s="27">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="27">
         <v>6.5</v>
       </c>
-      <c r="N85" s="27">
-        <v>0</v>
-      </c>
-      <c r="O85" s="27">
+      <c r="N88" s="27">
+        <v>0</v>
+      </c>
+      <c r="O88" s="27">
         <v>15.9</v>
       </c>
-      <c r="P85" s="27">
+      <c r="P88" s="27">
         <v>2</v>
       </c>
-      <c r="Q85" s="27">
+      <c r="Q88" s="27">
         <v>6.5</v>
       </c>
-      <c r="R85" s="27">
+      <c r="R88" s="27">
         <v>14.8</v>
       </c>
-      <c r="S85" s="27">
+      <c r="S88" s="27">
         <v>14.1</v>
       </c>
-      <c r="T85" s="27">
+      <c r="T88" s="27">
         <v>12.3</v>
       </c>
-      <c r="AA85" s="27">
-        <f t="shared" ref="AA85:AA98" si="69">N85</f>
-        <v>0</v>
-      </c>
-      <c r="AB85" s="27">
-        <f t="shared" ref="AB85:AB98" si="70">R85</f>
+      <c r="AA88" s="27">
+        <f t="shared" ref="AA88:AA101" si="100">N88</f>
+        <v>0</v>
+      </c>
+      <c r="AB88" s="27">
+        <f t="shared" ref="AB88:AB101" si="101">R88</f>
         <v>14.8</v>
-      </c>
-    </row>
-    <row r="86" spans="2:28">
-      <c r="B86" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H86" s="27">
-        <v>9.5</v>
-      </c>
-      <c r="I86" s="27">
-        <v>9.1</v>
-      </c>
-      <c r="J86" s="27">
-        <v>8</v>
-      </c>
-      <c r="K86" s="27">
-        <v>9.4</v>
-      </c>
-      <c r="L86" s="27">
-        <v>9.6</v>
-      </c>
-      <c r="M86" s="27">
-        <v>11.2</v>
-      </c>
-      <c r="N86" s="27">
-        <v>11.4</v>
-      </c>
-      <c r="O86" s="27">
-        <v>11.4</v>
-      </c>
-      <c r="P86" s="27">
-        <v>10.8</v>
-      </c>
-      <c r="Q86" s="27">
-        <v>11.2</v>
-      </c>
-      <c r="R86" s="27">
-        <v>11.5</v>
-      </c>
-      <c r="S86" s="27">
-        <v>11</v>
-      </c>
-      <c r="T86" s="27">
-        <v>11.3</v>
-      </c>
-      <c r="AA86" s="27">
-        <f t="shared" si="69"/>
-        <v>11.4</v>
-      </c>
-      <c r="AB86" s="27">
-        <f t="shared" si="70"/>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="87" spans="2:28" s="2" customFormat="1">
-      <c r="B87" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H87" s="27">
-        <v>296.10000000000002</v>
-      </c>
-      <c r="I87" s="26">
-        <v>275</v>
-      </c>
-      <c r="J87" s="26">
-        <v>215</v>
-      </c>
-      <c r="K87" s="26">
-        <v>663</v>
-      </c>
-      <c r="L87" s="26">
-        <v>471.2</v>
-      </c>
-      <c r="M87" s="26">
-        <v>783.8</v>
-      </c>
-      <c r="N87" s="26">
-        <v>375.5</v>
-      </c>
-      <c r="O87" s="26">
-        <v>357.2</v>
-      </c>
-      <c r="P87" s="26">
-        <v>808.6</v>
-      </c>
-      <c r="Q87" s="26">
-        <v>783.8</v>
-      </c>
-      <c r="R87" s="26">
-        <v>574.20000000000005</v>
-      </c>
-      <c r="S87" s="26">
-        <v>326.8</v>
-      </c>
-      <c r="T87" s="26">
-        <v>70.2</v>
-      </c>
-      <c r="AA87" s="26">
-        <f>N87</f>
-        <v>375.5</v>
-      </c>
-      <c r="AB87" s="26">
-        <f>R87</f>
-        <v>574.20000000000005</v>
-      </c>
-    </row>
-    <row r="88" spans="2:28" s="2" customFormat="1">
-      <c r="B88" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H88" s="26">
-        <v>292.89999999999998</v>
-      </c>
-      <c r="I88" s="26">
-        <v>256.60000000000002</v>
-      </c>
-      <c r="J88" s="26">
-        <v>4</v>
-      </c>
-      <c r="K88" s="26">
-        <v>4</v>
-      </c>
-      <c r="L88" s="26">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M88" s="26">
-        <v>0</v>
-      </c>
-      <c r="N88" s="26">
-        <v>0</v>
-      </c>
-      <c r="O88" s="26">
-        <v>4.2</v>
-      </c>
-      <c r="P88" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="26">
-        <v>0</v>
-      </c>
-      <c r="R88" s="26">
-        <v>0</v>
-      </c>
-      <c r="S88" s="26">
-        <v>0</v>
-      </c>
-      <c r="T88" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA88" s="26">
-        <f>N88</f>
-        <v>0</v>
-      </c>
-      <c r="AB88" s="26">
-        <f>R88</f>
-        <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:28">
       <c r="B89" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F89" s="27">
+        <v>0</v>
       </c>
       <c r="H89" s="27">
-        <v>288</v>
+        <v>9.5</v>
       </c>
       <c r="I89" s="27">
-        <v>305.10000000000002</v>
+        <v>9.1</v>
       </c>
       <c r="J89" s="27">
-        <v>289.8</v>
+        <v>8</v>
       </c>
       <c r="K89" s="27">
-        <v>250.4</v>
+        <v>9.4</v>
       </c>
       <c r="L89" s="27">
-        <v>234.8</v>
+        <v>9.6</v>
       </c>
       <c r="M89" s="27">
-        <v>283.89999999999998</v>
+        <v>11.2</v>
       </c>
       <c r="N89" s="27">
-        <v>249.9</v>
+        <v>11.4</v>
       </c>
       <c r="O89" s="27">
-        <v>235.3</v>
+        <v>11.4</v>
       </c>
       <c r="P89" s="27">
-        <v>251.8</v>
+        <v>10.8</v>
       </c>
       <c r="Q89" s="27">
-        <v>283.89999999999998</v>
+        <v>11.2</v>
       </c>
       <c r="R89" s="27">
-        <v>241.3</v>
+        <v>11.5</v>
       </c>
       <c r="S89" s="27">
-        <v>263.3</v>
+        <v>11</v>
       </c>
       <c r="T89" s="27">
-        <v>258.8</v>
+        <v>11.3</v>
       </c>
       <c r="AA89" s="27">
-        <f t="shared" si="69"/>
-        <v>249.9</v>
+        <f t="shared" si="100"/>
+        <v>11.4</v>
       </c>
       <c r="AB89" s="27">
-        <f t="shared" si="70"/>
-        <v>241.3</v>
-      </c>
-    </row>
-    <row r="90" spans="2:28">
-      <c r="B90" s="3" t="s">
-        <v>109</v>
+        <f t="shared" si="101"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:28" s="2" customFormat="1">
+      <c r="B90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F90" s="26">
+        <v>179.3</v>
       </c>
       <c r="H90" s="27">
-        <v>1167.9000000000001</v>
-      </c>
-      <c r="I90" s="27">
-        <v>1220</v>
-      </c>
-      <c r="J90" s="27">
-        <v>1171.7</v>
-      </c>
-      <c r="K90" s="27">
-        <v>1211.5999999999999</v>
-      </c>
-      <c r="L90" s="27">
-        <v>1084.8</v>
-      </c>
-      <c r="M90" s="27">
-        <v>1041.4000000000001</v>
-      </c>
-      <c r="N90" s="27">
-        <v>1033</v>
-      </c>
-      <c r="O90" s="27">
-        <v>1016.4</v>
-      </c>
-      <c r="P90" s="27">
-        <v>991.7</v>
-      </c>
-      <c r="Q90" s="27">
-        <v>1041.4000000000001</v>
-      </c>
-      <c r="R90" s="27">
-        <v>1204.5999999999999</v>
-      </c>
-      <c r="S90" s="27">
-        <v>1301.8</v>
-      </c>
-      <c r="T90" s="27">
-        <v>1317.8</v>
-      </c>
-      <c r="AA90" s="27">
-        <f t="shared" si="69"/>
-        <v>1033</v>
-      </c>
-      <c r="AB90" s="27">
-        <f t="shared" si="70"/>
-        <v>1204.5999999999999</v>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="I90" s="26">
+        <v>275</v>
+      </c>
+      <c r="J90" s="26">
+        <v>215</v>
+      </c>
+      <c r="K90" s="26">
+        <v>663</v>
+      </c>
+      <c r="L90" s="26">
+        <v>471.2</v>
+      </c>
+      <c r="M90" s="26">
+        <v>783.8</v>
+      </c>
+      <c r="N90" s="26">
+        <v>375.5</v>
+      </c>
+      <c r="O90" s="26">
+        <v>357.2</v>
+      </c>
+      <c r="P90" s="26">
+        <v>808.6</v>
+      </c>
+      <c r="Q90" s="26">
+        <v>783.8</v>
+      </c>
+      <c r="R90" s="26">
+        <v>574.20000000000005</v>
+      </c>
+      <c r="S90" s="26">
+        <v>326.8</v>
+      </c>
+      <c r="T90" s="26">
+        <v>70.2</v>
+      </c>
+      <c r="AA90" s="26">
+        <f>N90</f>
+        <v>375.5</v>
+      </c>
+      <c r="AB90" s="26">
+        <f>R90</f>
+        <v>574.20000000000005</v>
       </c>
     </row>
     <row r="91" spans="2:28" s="2" customFormat="1">
       <c r="B91" s="2" t="s">
-        <v>92</v>
+        <v>197</v>
+      </c>
+      <c r="F91" s="26">
+        <v>324</v>
       </c>
       <c r="H91" s="26">
-        <v>2</v>
+        <v>292.89999999999998</v>
       </c>
       <c r="I91" s="26">
-        <v>18.100000000000001</v>
+        <v>256.60000000000002</v>
       </c>
       <c r="J91" s="26">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K91" s="26">
-        <v>13.6</v>
+        <v>4</v>
       </c>
       <c r="L91" s="26">
-        <v>11.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M91" s="26">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N91" s="26">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="O91" s="26">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="P91" s="26">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="26">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="R91" s="26">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="S91" s="26">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="T91" s="26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA91" s="26">
         <f>N91</f>
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AB91" s="26">
         <f>R91</f>
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:28">
       <c r="B92" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="F92" s="27">
+        <v>288.39999999999998</v>
       </c>
       <c r="H92" s="27">
-        <v>73.3</v>
+        <v>288</v>
       </c>
       <c r="I92" s="27">
-        <v>70.400000000000006</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="J92" s="27">
-        <v>63.8</v>
+        <v>289.8</v>
       </c>
       <c r="K92" s="27">
-        <v>70.7</v>
+        <v>250.4</v>
       </c>
       <c r="L92" s="27">
-        <v>81.2</v>
+        <v>234.8</v>
       </c>
       <c r="M92" s="27">
-        <v>38</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="N92" s="27">
-        <v>71.900000000000006</v>
+        <v>249.9</v>
       </c>
       <c r="O92" s="27">
-        <v>60.9</v>
+        <v>235.3</v>
       </c>
       <c r="P92" s="27">
-        <v>44.3</v>
+        <v>251.8</v>
       </c>
       <c r="Q92" s="27">
-        <v>38</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="R92" s="27">
-        <v>40.4</v>
+        <v>241.3</v>
       </c>
       <c r="S92" s="27">
-        <v>38</v>
+        <v>263.3</v>
       </c>
       <c r="T92" s="27">
-        <v>37.1</v>
+        <v>258.8</v>
       </c>
       <c r="AA92" s="27">
-        <f t="shared" si="69"/>
-        <v>71.900000000000006</v>
+        <f t="shared" si="100"/>
+        <v>249.9</v>
       </c>
       <c r="AB92" s="27">
-        <f t="shared" si="70"/>
-        <v>40.4</v>
+        <f t="shared" si="101"/>
+        <v>241.3</v>
       </c>
     </row>
     <row r="93" spans="2:28">
       <c r="B93" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="F93" s="27">
+        <v>1045.4000000000001</v>
       </c>
       <c r="H93" s="27">
-        <v>30.9</v>
+        <v>1167.9000000000001</v>
       </c>
       <c r="I93" s="27">
-        <v>37.200000000000003</v>
+        <v>1220</v>
       </c>
       <c r="J93" s="27">
-        <v>97.5</v>
+        <v>1171.7</v>
       </c>
       <c r="K93" s="27">
-        <v>139.5</v>
+        <v>1211.5999999999999</v>
       </c>
       <c r="L93" s="27">
-        <v>101.8</v>
+        <v>1084.8</v>
       </c>
       <c r="M93" s="27">
-        <v>85.3</v>
+        <v>1041.4000000000001</v>
       </c>
       <c r="N93" s="27">
-        <v>40.700000000000003</v>
+        <v>1033</v>
       </c>
       <c r="O93" s="27">
-        <v>47.2</v>
+        <v>1016.4</v>
       </c>
       <c r="P93" s="27">
-        <v>73.5</v>
+        <v>991.7</v>
       </c>
       <c r="Q93" s="27">
-        <v>85.3</v>
+        <v>1041.4000000000001</v>
       </c>
       <c r="R93" s="27">
-        <v>71.599999999999994</v>
+        <v>1204.5999999999999</v>
       </c>
       <c r="S93" s="27">
-        <v>71.400000000000006</v>
+        <v>1301.8</v>
       </c>
       <c r="T93" s="27">
-        <v>79.8</v>
+        <v>1317.8</v>
       </c>
       <c r="AA93" s="27">
-        <f t="shared" si="69"/>
-        <v>40.700000000000003</v>
+        <f t="shared" si="100"/>
+        <v>1033</v>
       </c>
       <c r="AB93" s="27">
-        <f t="shared" si="70"/>
-        <v>71.599999999999994</v>
-      </c>
-    </row>
-    <row r="94" spans="2:28">
-      <c r="B94" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H94" s="27">
-        <v>21.9</v>
-      </c>
-      <c r="I94" s="27">
-        <v>21.2</v>
-      </c>
-      <c r="J94" s="27">
-        <v>30.7</v>
-      </c>
-      <c r="K94" s="27">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="L94" s="27">
-        <v>51.7</v>
-      </c>
-      <c r="M94" s="27">
-        <v>34.1</v>
-      </c>
-      <c r="N94" s="27">
-        <v>42.6</v>
-      </c>
-      <c r="O94" s="27">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="P94" s="27">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="Q94" s="27">
-        <v>34.1</v>
-      </c>
-      <c r="R94" s="27">
-        <v>15.8</v>
-      </c>
-      <c r="S94" s="27">
-        <v>0</v>
-      </c>
-      <c r="T94" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="27">
-        <f t="shared" si="69"/>
-        <v>42.6</v>
-      </c>
-      <c r="AB94" s="27">
-        <f t="shared" si="70"/>
-        <v>15.8</v>
+        <f t="shared" si="101"/>
+        <v>1204.5999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="2:28" s="2" customFormat="1">
+      <c r="B94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F94" s="26">
+        <v>8.1</v>
+      </c>
+      <c r="H94" s="26">
+        <v>2</v>
+      </c>
+      <c r="I94" s="26">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J94" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="K94" s="26">
+        <v>13.6</v>
+      </c>
+      <c r="L94" s="26">
+        <v>11.4</v>
+      </c>
+      <c r="M94" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="N94" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="O94" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="P94" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q94" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="R94" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="S94" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="T94" s="26">
+        <v>11</v>
+      </c>
+      <c r="AA94" s="26">
+        <f>N94</f>
+        <v>1.2</v>
+      </c>
+      <c r="AB94" s="26">
+        <f>R94</f>
+        <v>2.9</v>
       </c>
     </row>
     <row r="95" spans="2:28">
       <c r="B95" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="F95" s="27">
+        <v>68.400000000000006</v>
       </c>
       <c r="H95" s="27">
-        <v>2</v>
+        <v>73.3</v>
       </c>
       <c r="I95" s="27">
-        <v>2</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="J95" s="27">
-        <v>2</v>
+        <v>63.8</v>
       </c>
       <c r="K95" s="27">
-        <v>2</v>
+        <v>70.7</v>
       </c>
       <c r="L95" s="27">
-        <v>2.5</v>
+        <v>81.2</v>
       </c>
       <c r="M95" s="27">
-        <v>2.5</v>
+        <v>38</v>
       </c>
       <c r="N95" s="27">
-        <v>0.5</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="O95" s="27">
-        <v>0</v>
+        <v>60.9</v>
       </c>
       <c r="P95" s="27">
-        <v>2.5</v>
+        <v>44.3</v>
       </c>
       <c r="Q95" s="27">
-        <v>2.5</v>
+        <v>38</v>
       </c>
       <c r="R95" s="27">
-        <v>2.5</v>
+        <v>40.4</v>
       </c>
       <c r="S95" s="27">
-        <v>2.8</v>
+        <v>38</v>
       </c>
       <c r="T95" s="27">
-        <v>2.6</v>
+        <v>37.1</v>
       </c>
       <c r="AA95" s="27">
-        <f t="shared" si="69"/>
-        <v>0.5</v>
+        <f t="shared" si="100"/>
+        <v>71.900000000000006</v>
       </c>
       <c r="AB95" s="27">
-        <f t="shared" si="70"/>
-        <v>2.5</v>
+        <f t="shared" si="101"/>
+        <v>40.4</v>
       </c>
     </row>
     <row r="96" spans="2:28">
       <c r="B96" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="F96" s="27">
+        <v>48</v>
       </c>
       <c r="H96" s="27">
-        <v>123</v>
+        <v>30.9</v>
       </c>
       <c r="I96" s="27">
-        <v>128.19999999999999</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="J96" s="27">
-        <v>117.3</v>
+        <v>97.5</v>
       </c>
       <c r="K96" s="27">
-        <v>103</v>
+        <v>139.5</v>
       </c>
       <c r="L96" s="27">
-        <v>96.8</v>
+        <v>101.8</v>
       </c>
       <c r="M96" s="27">
-        <v>114.1</v>
+        <v>85.3</v>
       </c>
       <c r="N96" s="27">
-        <v>98.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="O96" s="27">
-        <v>95.6</v>
+        <v>47.2</v>
       </c>
       <c r="P96" s="27">
-        <v>113.54</v>
+        <v>73.5</v>
       </c>
       <c r="Q96" s="27">
-        <v>114.1</v>
+        <v>85.3</v>
       </c>
       <c r="R96" s="27">
-        <v>108.9</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="S96" s="27">
-        <v>113.8</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="T96" s="27">
-        <v>111.8</v>
+        <v>79.8</v>
       </c>
       <c r="AA96" s="27">
-        <f t="shared" si="69"/>
-        <v>98.5</v>
+        <f t="shared" si="100"/>
+        <v>40.700000000000003</v>
       </c>
       <c r="AB96" s="27">
-        <f t="shared" si="70"/>
-        <v>108.9</v>
+        <f t="shared" si="101"/>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="97" spans="2:28">
       <c r="B97" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="F97" s="27">
+        <v>51</v>
       </c>
       <c r="H97" s="27">
-        <v>2</v>
+        <v>21.9</v>
       </c>
       <c r="I97" s="27">
-        <v>1.4</v>
+        <v>21.2</v>
       </c>
       <c r="J97" s="27">
-        <v>1.4</v>
+        <v>30.7</v>
       </c>
       <c r="K97" s="27">
-        <v>1.1000000000000001</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="L97" s="27">
-        <v>1</v>
+        <v>51.7</v>
       </c>
       <c r="M97" s="27">
-        <v>1.2</v>
+        <v>34.1</v>
       </c>
       <c r="N97" s="27">
-        <v>1.2</v>
+        <v>42.6</v>
       </c>
       <c r="O97" s="27">
-        <v>1</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="P97" s="27">
-        <v>1.1000000000000001</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="Q97" s="27">
-        <v>1.2</v>
+        <v>34.1</v>
       </c>
       <c r="R97" s="27">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="S97" s="27">
         <v>0</v>
@@ -7629,583 +8376,617 @@
         <v>0</v>
       </c>
       <c r="AA97" s="27">
-        <f t="shared" si="69"/>
-        <v>1.2</v>
+        <f t="shared" si="100"/>
+        <v>42.6</v>
       </c>
       <c r="AB97" s="27">
-        <f t="shared" si="70"/>
-        <v>0</v>
+        <f t="shared" si="101"/>
+        <v>15.8</v>
       </c>
     </row>
     <row r="98" spans="2:28">
       <c r="B98" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="F98" s="27">
+        <v>2</v>
       </c>
       <c r="H98" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K98" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L98" s="27">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M98" s="27">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N98" s="27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O98" s="27">
         <v>0</v>
       </c>
       <c r="P98" s="27">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q98" s="27">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R98" s="27">
-        <v>45.1</v>
-      </c>
-      <c r="S98" s="3">
-        <v>47.4</v>
+        <v>2.5</v>
+      </c>
+      <c r="S98" s="27">
+        <v>2.8</v>
       </c>
       <c r="T98" s="27">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AA98" s="27">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <f t="shared" si="100"/>
+        <v>0.5</v>
       </c>
       <c r="AB98" s="27">
-        <f t="shared" si="70"/>
-        <v>45.1</v>
+        <f t="shared" si="101"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="99" spans="2:28">
       <c r="B99" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="F99" s="27">
+        <v>116.9</v>
       </c>
       <c r="H99" s="27">
-        <f t="shared" ref="H99:T99" si="71">SUM(H84:H98)</f>
-        <v>3235.1000000000004</v>
+        <v>123</v>
       </c>
       <c r="I99" s="27">
-        <f t="shared" si="71"/>
-        <v>3200.8999999999996</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="J99" s="27">
-        <f t="shared" si="71"/>
-        <v>2838.4</v>
+        <v>117.3</v>
       </c>
       <c r="K99" s="27">
-        <f t="shared" si="71"/>
-        <v>3364.2999999999993</v>
+        <v>103</v>
       </c>
       <c r="L99" s="27">
-        <f t="shared" si="71"/>
-        <v>2938</v>
+        <v>96.8</v>
       </c>
       <c r="M99" s="27">
-        <f t="shared" si="71"/>
-        <v>2953.6</v>
+        <v>114.1</v>
       </c>
       <c r="N99" s="27">
-        <f t="shared" si="71"/>
-        <v>2428.6999999999998</v>
+        <v>98.5</v>
       </c>
       <c r="O99" s="27">
-        <f t="shared" si="71"/>
-        <v>2410.1999999999998</v>
+        <v>95.6</v>
       </c>
       <c r="P99" s="27">
-        <f t="shared" si="71"/>
-        <v>2856.2400000000002</v>
+        <v>113.54</v>
       </c>
       <c r="Q99" s="27">
-        <f t="shared" si="71"/>
-        <v>2953.6</v>
+        <v>114.1</v>
       </c>
       <c r="R99" s="27">
-        <f t="shared" si="71"/>
-        <v>2828.8</v>
+        <v>108.9</v>
       </c>
       <c r="S99" s="27">
-        <f t="shared" si="71"/>
-        <v>2756.3</v>
+        <v>113.8</v>
       </c>
       <c r="T99" s="27">
-        <f t="shared" si="71"/>
-        <v>2640.1000000000004</v>
+        <v>111.8</v>
       </c>
       <c r="AA99" s="27">
-        <f>SUM(AA84:AA98)</f>
-        <v>2428.6999999999998</v>
+        <f t="shared" si="100"/>
+        <v>98.5</v>
       </c>
       <c r="AB99" s="27">
-        <f>SUM(AB84:AB98)</f>
-        <v>2828.8</v>
+        <f t="shared" si="101"/>
+        <v>108.9</v>
       </c>
     </row>
     <row r="100" spans="2:28">
       <c r="B100" s="3" t="s">
-        <v>107</v>
+        <v>186</v>
+      </c>
+      <c r="F100" s="27">
+        <v>5</v>
       </c>
       <c r="H100" s="27">
-        <v>40.4</v>
+        <v>2</v>
       </c>
       <c r="I100" s="27">
-        <v>37.6</v>
+        <v>1.4</v>
       </c>
       <c r="J100" s="27">
-        <v>39.9</v>
-      </c>
-      <c r="K100" s="3">
-        <v>54.9</v>
+        <v>1.4</v>
+      </c>
+      <c r="K100" s="27">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L100" s="27">
-        <v>53.3</v>
+        <v>1</v>
       </c>
       <c r="M100" s="27">
-        <v>52.9</v>
+        <v>1.2</v>
       </c>
       <c r="N100" s="27">
-        <v>53.3</v>
+        <v>1.2</v>
       </c>
       <c r="O100" s="27">
-        <v>50.6</v>
+        <v>1</v>
       </c>
       <c r="P100" s="27">
-        <v>48.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q100" s="27">
-        <v>52.9</v>
+        <v>1.2</v>
       </c>
       <c r="R100" s="27">
-        <v>52.3</v>
+        <v>0</v>
       </c>
       <c r="S100" s="27">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="T100" s="27">
-        <v>52.6</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="27">
-        <f>N100</f>
-        <v>53.3</v>
+        <f t="shared" si="100"/>
+        <v>1.2</v>
       </c>
       <c r="AB100" s="27">
-        <f>R100</f>
-        <v>52.3</v>
-      </c>
-    </row>
-    <row r="101" spans="2:28" s="2" customFormat="1">
-      <c r="B101" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H101" s="26">
-        <v>3273</v>
-      </c>
-      <c r="I101" s="26">
-        <v>3247.6</v>
-      </c>
-      <c r="J101" s="26">
-        <v>3177.3</v>
-      </c>
-      <c r="K101" s="26">
-        <v>3169.2</v>
-      </c>
-      <c r="L101" s="26">
-        <v>3328</v>
-      </c>
-      <c r="M101" s="26">
-        <v>3523.5</v>
-      </c>
-      <c r="N101" s="26">
-        <v>4072.5</v>
-      </c>
-      <c r="O101" s="26">
-        <v>4008.3</v>
-      </c>
-      <c r="P101" s="26">
-        <v>3523.2</v>
-      </c>
-      <c r="Q101" s="26">
-        <v>3523.5</v>
-      </c>
-      <c r="R101" s="26">
-        <v>3452.7</v>
-      </c>
-      <c r="S101" s="26">
-        <v>3229</v>
-      </c>
-      <c r="T101" s="26">
-        <v>3092.7</v>
-      </c>
-      <c r="AA101" s="26">
-        <f>N101</f>
-        <v>4072.5</v>
-      </c>
-      <c r="AB101" s="26">
-        <f>R101</f>
-        <v>3452.7</v>
-      </c>
-    </row>
-    <row r="102" spans="2:28" s="2" customFormat="1">
-      <c r="B102" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H102" s="26">
-        <v>15.5</v>
-      </c>
-      <c r="I102" s="26">
-        <v>14.3</v>
-      </c>
-      <c r="J102" s="26">
-        <v>13.6</v>
-      </c>
-      <c r="K102" s="26">
-        <v>12.4</v>
-      </c>
-      <c r="L102" s="26">
-        <v>11.7</v>
-      </c>
-      <c r="M102" s="26">
-        <v>0</v>
-      </c>
-      <c r="N102" s="26">
-        <v>0</v>
-      </c>
-      <c r="O102" s="26">
-        <v>8.4</v>
-      </c>
-      <c r="P102" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="26">
-        <v>0</v>
-      </c>
-      <c r="R102" s="26">
-        <v>0</v>
-      </c>
-      <c r="S102" s="26">
-        <v>0</v>
-      </c>
-      <c r="T102" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="26">
-        <f>N102</f>
-        <v>0</v>
-      </c>
-      <c r="AB102" s="26">
-        <f>R102</f>
-        <v>0</v>
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:28">
+      <c r="B101" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F101" s="27">
+        <v>0</v>
+      </c>
+      <c r="H101" s="27">
+        <v>0</v>
+      </c>
+      <c r="I101" s="27">
+        <v>0</v>
+      </c>
+      <c r="J101" s="27">
+        <v>0</v>
+      </c>
+      <c r="K101" s="27">
+        <v>0</v>
+      </c>
+      <c r="L101" s="27">
+        <v>0</v>
+      </c>
+      <c r="M101" s="27">
+        <v>0</v>
+      </c>
+      <c r="N101" s="27">
+        <v>0</v>
+      </c>
+      <c r="O101" s="27">
+        <v>0</v>
+      </c>
+      <c r="P101" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="27">
+        <v>0</v>
+      </c>
+      <c r="R101" s="27">
+        <v>45.1</v>
+      </c>
+      <c r="S101" s="3">
+        <v>47.4</v>
+      </c>
+      <c r="T101" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="27">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="AB101" s="27">
+        <f t="shared" si="101"/>
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:28">
+      <c r="B102" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F102" s="27">
+        <f t="shared" ref="F102:T102" si="102">SUM(F87:F101)</f>
+        <v>3028.6000000000004</v>
+      </c>
+      <c r="H102" s="27">
+        <f t="shared" si="102"/>
+        <v>3235.1000000000004</v>
+      </c>
+      <c r="I102" s="27">
+        <f t="shared" si="102"/>
+        <v>3200.8999999999996</v>
+      </c>
+      <c r="J102" s="27">
+        <f t="shared" si="102"/>
+        <v>2838.4</v>
+      </c>
+      <c r="K102" s="27">
+        <f t="shared" si="102"/>
+        <v>3364.2999999999993</v>
+      </c>
+      <c r="L102" s="27">
+        <f t="shared" si="102"/>
+        <v>2938</v>
+      </c>
+      <c r="M102" s="27">
+        <f t="shared" si="102"/>
+        <v>2953.6</v>
+      </c>
+      <c r="N102" s="27">
+        <f t="shared" si="102"/>
+        <v>2428.6999999999998</v>
+      </c>
+      <c r="O102" s="27">
+        <f t="shared" si="102"/>
+        <v>2410.1999999999998</v>
+      </c>
+      <c r="P102" s="27">
+        <f t="shared" si="102"/>
+        <v>2856.2400000000002</v>
+      </c>
+      <c r="Q102" s="27">
+        <f t="shared" si="102"/>
+        <v>2953.6</v>
+      </c>
+      <c r="R102" s="27">
+        <f t="shared" si="102"/>
+        <v>2828.8</v>
+      </c>
+      <c r="S102" s="27">
+        <f t="shared" si="102"/>
+        <v>2756.3</v>
+      </c>
+      <c r="T102" s="27">
+        <f t="shared" si="102"/>
+        <v>2640.1000000000004</v>
+      </c>
+      <c r="AA102" s="27">
+        <f>SUM(AA87:AA101)</f>
+        <v>2428.6999999999998</v>
+      </c>
+      <c r="AB102" s="27">
+        <f>SUM(AB87:AB101)</f>
+        <v>2828.8</v>
       </c>
     </row>
     <row r="103" spans="2:28">
       <c r="B103" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F103" s="27">
+        <v>0</v>
       </c>
       <c r="H103" s="27">
-        <v>24.7</v>
+        <v>40.4</v>
       </c>
       <c r="I103" s="27">
-        <v>23.1</v>
+        <v>37.6</v>
       </c>
       <c r="J103" s="27">
-        <v>18</v>
-      </c>
-      <c r="K103" s="27">
-        <v>8</v>
+        <v>39.9</v>
+      </c>
+      <c r="K103" s="3">
+        <v>54.9</v>
       </c>
       <c r="L103" s="27">
-        <v>6</v>
+        <v>53.3</v>
       </c>
       <c r="M103" s="27">
-        <v>39.6</v>
+        <v>52.9</v>
       </c>
       <c r="N103" s="27">
-        <v>42.3</v>
+        <v>53.3</v>
       </c>
       <c r="O103" s="27">
-        <v>34.9</v>
+        <v>50.6</v>
       </c>
       <c r="P103" s="27">
-        <v>44.9</v>
+        <v>48.2</v>
       </c>
       <c r="Q103" s="27">
-        <v>39.6</v>
+        <v>52.9</v>
       </c>
       <c r="R103" s="27">
-        <v>57.6</v>
+        <v>52.3</v>
       </c>
       <c r="S103" s="27">
-        <v>53.8</v>
+        <v>49</v>
       </c>
       <c r="T103" s="27">
-        <v>55.1</v>
+        <v>52.6</v>
       </c>
       <c r="AA103" s="27">
-        <f t="shared" ref="AA103:AA110" si="72">N103</f>
-        <v>42.3</v>
+        <f>N103</f>
+        <v>53.3</v>
       </c>
       <c r="AB103" s="27">
-        <f t="shared" ref="AB103:AB110" si="73">R103</f>
-        <v>57.6</v>
-      </c>
-    </row>
-    <row r="104" spans="2:28">
-      <c r="B104" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H104" s="27">
-        <v>179</v>
-      </c>
-      <c r="I104" s="27">
-        <v>158.5</v>
-      </c>
-      <c r="J104" s="27">
-        <v>257.8</v>
-      </c>
-      <c r="K104" s="27">
-        <v>190.5</v>
-      </c>
-      <c r="L104" s="27">
-        <v>239.1</v>
-      </c>
-      <c r="M104" s="27">
-        <v>324.8</v>
-      </c>
-      <c r="N104" s="27">
-        <v>262.39999999999998</v>
-      </c>
-      <c r="O104" s="27">
-        <v>254.2</v>
-      </c>
-      <c r="P104" s="27">
-        <v>267.5</v>
-      </c>
-      <c r="Q104" s="27">
-        <v>324.8</v>
-      </c>
-      <c r="R104" s="27">
-        <v>308.7</v>
-      </c>
-      <c r="S104" s="27">
-        <v>454.8</v>
-      </c>
-      <c r="T104" s="27">
-        <v>478.5</v>
-      </c>
-      <c r="AA104" s="27">
-        <f t="shared" si="72"/>
-        <v>262.39999999999998</v>
-      </c>
-      <c r="AB104" s="27">
-        <f t="shared" si="73"/>
-        <v>308.7</v>
-      </c>
-    </row>
-    <row r="105" spans="2:28">
-      <c r="B105" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H105" s="27">
-        <v>3</v>
-      </c>
-      <c r="I105" s="27">
-        <v>5.2</v>
-      </c>
-      <c r="J105" s="27">
-        <v>0</v>
-      </c>
-      <c r="K105" s="27">
-        <v>0</v>
-      </c>
-      <c r="L105" s="27">
-        <v>12.7</v>
-      </c>
-      <c r="M105" s="27">
-        <v>3.6</v>
-      </c>
-      <c r="N105" s="27">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="O105" s="27">
-        <v>7.4</v>
-      </c>
-      <c r="P105" s="27">
-        <v>4.7</v>
-      </c>
-      <c r="Q105" s="27">
-        <v>3.6</v>
-      </c>
-      <c r="R105" s="27">
-        <v>3</v>
-      </c>
-      <c r="S105" s="27">
-        <v>0</v>
-      </c>
-      <c r="T105" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA105" s="27">
-        <f t="shared" si="72"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AB105" s="27">
-        <f t="shared" si="73"/>
-        <v>3</v>
+        <f>R103</f>
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:28" s="2" customFormat="1">
+      <c r="B104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F104" s="26">
+        <v>3468.4</v>
+      </c>
+      <c r="H104" s="26">
+        <v>3273</v>
+      </c>
+      <c r="I104" s="26">
+        <v>3247.6</v>
+      </c>
+      <c r="J104" s="26">
+        <v>3177.3</v>
+      </c>
+      <c r="K104" s="26">
+        <v>3169.2</v>
+      </c>
+      <c r="L104" s="26">
+        <v>3328</v>
+      </c>
+      <c r="M104" s="26">
+        <v>3523.5</v>
+      </c>
+      <c r="N104" s="26">
+        <v>4072.5</v>
+      </c>
+      <c r="O104" s="26">
+        <v>4008.3</v>
+      </c>
+      <c r="P104" s="26">
+        <v>3523.2</v>
+      </c>
+      <c r="Q104" s="26">
+        <v>3523.5</v>
+      </c>
+      <c r="R104" s="26">
+        <v>3452.7</v>
+      </c>
+      <c r="S104" s="26">
+        <v>3229</v>
+      </c>
+      <c r="T104" s="26">
+        <v>3092.7</v>
+      </c>
+      <c r="AA104" s="26">
+        <f>N104</f>
+        <v>4072.5</v>
+      </c>
+      <c r="AB104" s="26">
+        <f>R104</f>
+        <v>3452.7</v>
+      </c>
+    </row>
+    <row r="105" spans="2:28" s="2" customFormat="1">
+      <c r="B105" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F105" s="26">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H105" s="26">
+        <v>15.5</v>
+      </c>
+      <c r="I105" s="26">
+        <v>14.3</v>
+      </c>
+      <c r="J105" s="26">
+        <v>13.6</v>
+      </c>
+      <c r="K105" s="26">
+        <v>12.4</v>
+      </c>
+      <c r="L105" s="26">
+        <v>11.7</v>
+      </c>
+      <c r="M105" s="26">
+        <v>0</v>
+      </c>
+      <c r="N105" s="26">
+        <v>0</v>
+      </c>
+      <c r="O105" s="26">
+        <v>8.4</v>
+      </c>
+      <c r="P105" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="26">
+        <v>0</v>
+      </c>
+      <c r="R105" s="26">
+        <v>0</v>
+      </c>
+      <c r="S105" s="26">
+        <v>0</v>
+      </c>
+      <c r="T105" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="26">
+        <f>N105</f>
+        <v>0</v>
+      </c>
+      <c r="AB105" s="26">
+        <f>R105</f>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:28">
       <c r="B106" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="F106" s="27">
+        <v>28.6</v>
       </c>
       <c r="H106" s="27">
-        <v>61.5</v>
+        <v>24.7</v>
       </c>
       <c r="I106" s="27">
-        <v>12.5</v>
+        <v>23.1</v>
       </c>
       <c r="J106" s="27">
-        <v>13.4</v>
+        <v>18</v>
       </c>
       <c r="K106" s="27">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L106" s="27">
-        <v>10.6</v>
+        <v>6</v>
       </c>
       <c r="M106" s="27">
-        <v>10</v>
+        <v>39.6</v>
       </c>
       <c r="N106" s="27">
-        <v>11.8</v>
+        <v>42.3</v>
       </c>
       <c r="O106" s="27">
-        <v>10.8</v>
+        <v>34.9</v>
       </c>
       <c r="P106" s="27">
-        <v>12.4</v>
+        <v>44.9</v>
       </c>
       <c r="Q106" s="27">
-        <v>10</v>
+        <v>39.6</v>
       </c>
       <c r="R106" s="27">
-        <v>10</v>
+        <v>57.6</v>
       </c>
       <c r="S106" s="27">
-        <v>13</v>
+        <v>53.8</v>
       </c>
       <c r="T106" s="27">
-        <v>12.1</v>
+        <v>55.1</v>
       </c>
       <c r="AA106" s="27">
-        <f t="shared" si="72"/>
-        <v>11.8</v>
+        <f t="shared" ref="AA106:AA113" si="103">N106</f>
+        <v>42.3</v>
       </c>
       <c r="AB106" s="27">
-        <f t="shared" si="73"/>
-        <v>10</v>
+        <f t="shared" ref="AB106:AB113" si="104">R106</f>
+        <v>57.6</v>
       </c>
     </row>
     <row r="107" spans="2:28">
       <c r="B107" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="F107" s="27">
+        <v>198.2</v>
       </c>
       <c r="H107" s="27">
-        <v>214.2</v>
+        <v>179</v>
       </c>
       <c r="I107" s="27">
-        <v>242.7</v>
+        <v>158.5</v>
       </c>
       <c r="J107" s="27">
-        <v>301</v>
+        <v>257.8</v>
       </c>
       <c r="K107" s="27">
-        <v>492.1</v>
+        <v>190.5</v>
       </c>
       <c r="L107" s="27">
-        <v>508.6</v>
+        <v>239.1</v>
       </c>
       <c r="M107" s="27">
-        <v>428.6</v>
+        <v>324.8</v>
       </c>
       <c r="N107" s="27">
-        <v>474.7</v>
+        <v>262.39999999999998</v>
       </c>
       <c r="O107" s="27">
-        <v>488.7</v>
+        <v>254.2</v>
       </c>
       <c r="P107" s="27">
-        <v>444.8</v>
+        <v>267.5</v>
       </c>
       <c r="Q107" s="27">
-        <v>428.6</v>
+        <v>324.8</v>
       </c>
       <c r="R107" s="27">
-        <v>505.8</v>
+        <v>308.7</v>
       </c>
       <c r="S107" s="27">
-        <v>376.1</v>
+        <v>454.8</v>
       </c>
       <c r="T107" s="27">
-        <v>334.4</v>
+        <v>478.5</v>
       </c>
       <c r="AA107" s="27">
-        <f t="shared" si="72"/>
-        <v>474.7</v>
+        <f t="shared" si="103"/>
+        <v>262.39999999999998</v>
       </c>
       <c r="AB107" s="27">
-        <f t="shared" si="73"/>
-        <v>505.8</v>
+        <f t="shared" si="104"/>
+        <v>308.7</v>
       </c>
     </row>
     <row r="108" spans="2:28">
       <c r="B108" s="3" t="s">
-        <v>187</v>
+        <v>92</v>
+      </c>
+      <c r="F108" s="27">
+        <v>0</v>
       </c>
       <c r="H108" s="27">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="I108" s="27">
-        <v>129.69999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="J108" s="27">
-        <v>109.6</v>
+        <v>0</v>
       </c>
       <c r="K108" s="27">
-        <v>99.4</v>
+        <v>0</v>
       </c>
       <c r="L108" s="27">
-        <v>69.2</v>
+        <v>12.7</v>
       </c>
       <c r="M108" s="27">
-        <v>63.1</v>
+        <v>3.6</v>
       </c>
       <c r="N108" s="27">
-        <v>82.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="O108" s="27">
-        <v>78.599999999999994</v>
+        <v>7.4</v>
       </c>
       <c r="P108" s="27">
-        <v>73.8</v>
+        <v>4.7</v>
       </c>
       <c r="Q108" s="27">
-        <v>63.1</v>
+        <v>3.6</v>
       </c>
       <c r="R108" s="27">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="S108" s="27">
         <v>0</v>
@@ -8214,1120 +8995,1334 @@
         <v>0</v>
       </c>
       <c r="AA108" s="27">
-        <f t="shared" si="72"/>
-        <v>82.6</v>
+        <f t="shared" si="103"/>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AB108" s="27">
-        <f t="shared" si="73"/>
-        <v>2.9</v>
+        <f t="shared" si="104"/>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="2:28">
       <c r="B109" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="F109" s="27">
+        <v>58.2</v>
       </c>
       <c r="H109" s="27">
-        <v>68.2</v>
+        <v>61.5</v>
       </c>
       <c r="I109" s="27">
-        <v>65.2</v>
+        <v>12.5</v>
       </c>
       <c r="J109" s="27">
-        <v>63.7</v>
+        <v>13.4</v>
       </c>
       <c r="K109" s="27">
-        <v>61.2</v>
+        <v>11</v>
       </c>
       <c r="L109" s="27">
-        <v>60.1</v>
+        <v>10.6</v>
       </c>
       <c r="M109" s="27">
-        <v>66.400000000000006</v>
+        <v>10</v>
       </c>
       <c r="N109" s="27">
-        <v>57.3</v>
+        <v>11.8</v>
       </c>
       <c r="O109" s="27">
-        <v>56.5</v>
+        <v>10.8</v>
       </c>
       <c r="P109" s="27">
-        <v>67.599999999999994</v>
+        <v>12.4</v>
       </c>
       <c r="Q109" s="27">
-        <v>66.400000000000006</v>
+        <v>10</v>
       </c>
       <c r="R109" s="27">
-        <v>37.700000000000003</v>
+        <v>10</v>
       </c>
       <c r="S109" s="27">
-        <v>37.6</v>
+        <v>13</v>
       </c>
       <c r="T109" s="27">
-        <v>27.2</v>
+        <v>12.1</v>
       </c>
       <c r="AA109" s="27">
-        <f t="shared" si="72"/>
-        <v>57.3</v>
+        <f t="shared" si="103"/>
+        <v>11.8</v>
       </c>
       <c r="AB109" s="27">
-        <f t="shared" si="73"/>
-        <v>37.700000000000003</v>
+        <f t="shared" si="104"/>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="2:28">
       <c r="B110" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="F110" s="27">
+        <v>254</v>
       </c>
       <c r="H110" s="27">
-        <v>125.7</v>
+        <v>214.2</v>
       </c>
       <c r="I110" s="27">
-        <v>122.9</v>
+        <v>242.7</v>
       </c>
       <c r="J110" s="27">
-        <v>125.2</v>
+        <v>301</v>
       </c>
       <c r="K110" s="27">
-        <v>108.7</v>
+        <v>492.1</v>
       </c>
       <c r="L110" s="27">
-        <v>107.8</v>
+        <v>508.6</v>
       </c>
       <c r="M110" s="27">
-        <v>108.4</v>
+        <v>428.6</v>
       </c>
       <c r="N110" s="27">
-        <v>114.2</v>
+        <v>474.7</v>
       </c>
       <c r="O110" s="27">
-        <v>105.1</v>
+        <v>488.7</v>
       </c>
       <c r="P110" s="27">
-        <v>112.3</v>
+        <v>444.8</v>
       </c>
       <c r="Q110" s="27">
-        <v>108.4</v>
+        <v>428.6</v>
       </c>
       <c r="R110" s="27">
-        <v>120.5</v>
+        <v>505.8</v>
       </c>
       <c r="S110" s="27">
-        <v>141.9</v>
+        <v>376.1</v>
       </c>
       <c r="T110" s="27">
-        <v>133.4</v>
+        <v>334.4</v>
       </c>
       <c r="AA110" s="27">
-        <f t="shared" si="72"/>
-        <v>114.2</v>
+        <f t="shared" si="103"/>
+        <v>474.7</v>
       </c>
       <c r="AB110" s="27">
-        <f t="shared" si="73"/>
-        <v>120.5</v>
+        <f t="shared" si="104"/>
+        <v>505.8</v>
       </c>
     </row>
     <row r="111" spans="2:28">
       <c r="B111" s="3" t="s">
-        <v>118</v>
+        <v>187</v>
+      </c>
+      <c r="F111" s="27">
+        <v>101.1</v>
       </c>
       <c r="H111" s="27">
-        <f t="shared" ref="H111:T111" si="74">SUM(H100:H110)+H99</f>
-        <v>7363.3</v>
+        <v>123</v>
       </c>
       <c r="I111" s="27">
-        <f t="shared" si="74"/>
-        <v>7260.1999999999989</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="J111" s="27">
-        <f t="shared" si="74"/>
-        <v>6957.9</v>
+        <v>109.6</v>
       </c>
       <c r="K111" s="27">
-        <f t="shared" si="74"/>
-        <v>7571.6999999999989</v>
+        <v>99.4</v>
       </c>
       <c r="L111" s="27">
-        <f t="shared" si="74"/>
-        <v>7345.1</v>
+        <v>69.2</v>
       </c>
       <c r="M111" s="27">
-        <f t="shared" si="74"/>
-        <v>7574.5</v>
+        <v>63.1</v>
       </c>
       <c r="N111" s="27">
-        <f t="shared" si="74"/>
-        <v>7608.5</v>
+        <v>82.6</v>
       </c>
       <c r="O111" s="27">
-        <f t="shared" si="74"/>
-        <v>7513.7</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="P111" s="27">
-        <f t="shared" si="74"/>
-        <v>7455.6400000000012</v>
+        <v>73.8</v>
       </c>
       <c r="Q111" s="27">
-        <f t="shared" si="74"/>
-        <v>7574.5</v>
+        <v>63.1</v>
       </c>
       <c r="R111" s="27">
-        <f t="shared" si="74"/>
-        <v>7379.9999999999991</v>
+        <v>2.9</v>
       </c>
       <c r="S111" s="27">
-        <f t="shared" si="74"/>
-        <v>7111.5000000000009</v>
+        <v>0</v>
       </c>
       <c r="T111" s="27">
-        <f t="shared" si="74"/>
-        <v>6826.0999999999995</v>
+        <v>0</v>
       </c>
       <c r="AA111" s="27">
-        <f>SUM(AA100:AA110)+AA99</f>
-        <v>7608.5</v>
+        <f t="shared" si="103"/>
+        <v>82.6</v>
       </c>
       <c r="AB111" s="27">
-        <f>SUM(AB100:AB110)+AB99</f>
-        <v>7379.9999999999991</v>
+        <f t="shared" si="104"/>
+        <v>2.9</v>
       </c>
     </row>
     <row r="112" spans="2:28">
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="L112" s="27"/>
-      <c r="P112" s="27"/>
-      <c r="Q112" s="27"/>
-      <c r="R112" s="27"/>
-      <c r="S112" s="27"/>
-      <c r="T112" s="27"/>
+      <c r="B112" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F112" s="27">
+        <v>73.2</v>
+      </c>
+      <c r="H112" s="27">
+        <v>68.2</v>
+      </c>
+      <c r="I112" s="27">
+        <v>65.2</v>
+      </c>
+      <c r="J112" s="27">
+        <v>63.7</v>
+      </c>
+      <c r="K112" s="27">
+        <v>61.2</v>
+      </c>
+      <c r="L112" s="27">
+        <v>60.1</v>
+      </c>
+      <c r="M112" s="27">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="N112" s="27">
+        <v>57.3</v>
+      </c>
+      <c r="O112" s="27">
+        <v>56.5</v>
+      </c>
+      <c r="P112" s="27">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="Q112" s="27">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="R112" s="27">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="S112" s="27">
+        <v>37.6</v>
+      </c>
+      <c r="T112" s="27">
+        <v>27.2</v>
+      </c>
+      <c r="AA112" s="27">
+        <f t="shared" si="103"/>
+        <v>57.3</v>
+      </c>
+      <c r="AB112" s="27">
+        <f t="shared" si="104"/>
+        <v>37.700000000000003</v>
+      </c>
     </row>
     <row r="113" spans="2:28">
       <c r="B113" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="F113" s="27">
+        <v>125.5</v>
       </c>
       <c r="H113" s="27">
-        <v>3910.1</v>
+        <v>125.7</v>
       </c>
       <c r="I113" s="27">
-        <v>3802.3</v>
+        <v>122.9</v>
       </c>
       <c r="J113" s="27">
-        <v>3614.6</v>
+        <v>125.2</v>
       </c>
       <c r="K113" s="27">
-        <v>3284.4</v>
+        <v>108.7</v>
       </c>
       <c r="L113" s="27">
-        <v>2980.3</v>
+        <v>107.8</v>
       </c>
       <c r="M113" s="27">
-        <v>2808.2</v>
+        <v>108.4</v>
       </c>
       <c r="N113" s="27">
-        <v>2907.5</v>
+        <v>114.2</v>
       </c>
       <c r="O113" s="27">
-        <v>2794.4</v>
+        <v>105.1</v>
       </c>
       <c r="P113" s="27">
-        <v>2885.7</v>
+        <v>112.3</v>
       </c>
       <c r="Q113" s="27">
-        <v>2808.2</v>
+        <v>108.4</v>
       </c>
       <c r="R113" s="27">
-        <v>2775</v>
+        <v>120.5</v>
       </c>
       <c r="S113" s="27">
-        <v>2756.9</v>
+        <v>141.9</v>
       </c>
       <c r="T113" s="27">
-        <v>2872.7</v>
+        <v>133.4</v>
       </c>
       <c r="AA113" s="27">
-        <f>N113</f>
-        <v>2907.5</v>
+        <f t="shared" si="103"/>
+        <v>114.2</v>
       </c>
       <c r="AB113" s="27">
-        <f>R113</f>
-        <v>2775</v>
+        <f t="shared" si="104"/>
+        <v>120.5</v>
       </c>
     </row>
     <row r="114" spans="2:28">
       <c r="B114" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="F114" s="27">
+        <f t="shared" ref="F114:T114" si="105">SUM(F103:F113)+F102</f>
+        <v>7353.2</v>
       </c>
       <c r="H114" s="27">
-        <f t="shared" ref="H114:K114" si="75">H113+H111</f>
-        <v>11273.4</v>
+        <f t="shared" si="105"/>
+        <v>7363.3</v>
       </c>
       <c r="I114" s="27">
-        <f t="shared" si="75"/>
-        <v>11062.5</v>
+        <f t="shared" si="105"/>
+        <v>7260.1999999999989</v>
       </c>
       <c r="J114" s="27">
-        <f t="shared" si="75"/>
-        <v>10572.5</v>
+        <f t="shared" si="105"/>
+        <v>6957.9</v>
       </c>
       <c r="K114" s="27">
-        <f t="shared" si="75"/>
-        <v>10856.099999999999</v>
+        <f t="shared" si="105"/>
+        <v>7571.6999999999989</v>
       </c>
       <c r="L114" s="27">
-        <f t="shared" ref="L114:T114" si="76">L113+L111</f>
-        <v>10325.400000000001</v>
+        <f t="shared" si="105"/>
+        <v>7345.1</v>
       </c>
       <c r="M114" s="27">
-        <f t="shared" si="76"/>
-        <v>10382.700000000001</v>
+        <f t="shared" si="105"/>
+        <v>7574.5</v>
       </c>
       <c r="N114" s="27">
-        <f t="shared" si="76"/>
-        <v>10516</v>
+        <f t="shared" si="105"/>
+        <v>7608.5</v>
       </c>
       <c r="O114" s="27">
-        <f t="shared" si="76"/>
-        <v>10308.1</v>
+        <f t="shared" si="105"/>
+        <v>7513.7</v>
       </c>
       <c r="P114" s="27">
-        <f t="shared" si="76"/>
-        <v>10341.34</v>
+        <f t="shared" si="105"/>
+        <v>7455.6400000000012</v>
       </c>
       <c r="Q114" s="27">
-        <f t="shared" si="76"/>
-        <v>10382.700000000001</v>
+        <f t="shared" si="105"/>
+        <v>7574.5</v>
       </c>
       <c r="R114" s="27">
-        <f t="shared" si="76"/>
-        <v>10155</v>
+        <f t="shared" si="105"/>
+        <v>7379.9999999999991</v>
       </c>
       <c r="S114" s="27">
-        <f t="shared" si="76"/>
-        <v>9868.4000000000015</v>
+        <f t="shared" si="105"/>
+        <v>7111.5000000000009</v>
       </c>
       <c r="T114" s="27">
-        <f t="shared" si="76"/>
-        <v>9698.7999999999993</v>
+        <f t="shared" si="105"/>
+        <v>6826.0999999999995</v>
       </c>
       <c r="AA114" s="27">
-        <f>AA113+AA111</f>
-        <v>10516</v>
+        <f>SUM(AA103:AA113)+AA102</f>
+        <v>7608.5</v>
       </c>
       <c r="AB114" s="27">
-        <f>AB113+AB111</f>
-        <v>10155</v>
+        <f>SUM(AB103:AB113)+AB102</f>
+        <v>7379.9999999999991</v>
       </c>
     </row>
     <row r="115" spans="2:28">
       <c r="H115" s="27"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
+      <c r="I115" s="27"/>
       <c r="L115" s="27"/>
+      <c r="P115" s="27"/>
+      <c r="Q115" s="27"/>
+      <c r="R115" s="27"/>
+      <c r="S115" s="27"/>
+      <c r="T115" s="27"/>
     </row>
     <row r="116" spans="2:28">
       <c r="B116" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="F116" s="27">
+        <v>3940.1</v>
       </c>
       <c r="H116" s="27">
-        <f t="shared" ref="H116:I116" si="77">H82-H111</f>
-        <v>3910.0999999999995</v>
+        <v>3910.1</v>
       </c>
       <c r="I116" s="27">
-        <f t="shared" si="77"/>
-        <v>3802.3000000000011</v>
+        <v>3802.3</v>
       </c>
       <c r="J116" s="27">
-        <f t="shared" ref="J116:K116" si="78">J82-J111</f>
-        <v>3614.6000000000004</v>
+        <v>3614.6</v>
       </c>
       <c r="K116" s="27">
-        <f t="shared" si="78"/>
-        <v>3284.3999999999996</v>
+        <v>3284.4</v>
       </c>
       <c r="L116" s="27">
-        <f t="shared" ref="L116:O116" si="79">L82-L111</f>
-        <v>2980.3000000000011</v>
+        <v>2980.3</v>
       </c>
       <c r="M116" s="27">
-        <f t="shared" ref="M116" si="80">M82-M111</f>
-        <v>2808.2000000000007</v>
+        <v>2808.2</v>
       </c>
       <c r="N116" s="27">
-        <f t="shared" si="79"/>
         <v>2907.5</v>
       </c>
       <c r="O116" s="27">
-        <f t="shared" si="79"/>
-        <v>2794.4000000000005</v>
+        <v>2794.4</v>
       </c>
       <c r="P116" s="27">
-        <f t="shared" ref="P116:Q116" si="81">P82-P111</f>
-        <v>2885.659999999998</v>
+        <v>2885.7</v>
       </c>
       <c r="Q116" s="27">
-        <f t="shared" si="81"/>
-        <v>2808.2000000000007</v>
+        <v>2808.2</v>
       </c>
       <c r="R116" s="27">
-        <f t="shared" ref="R116" si="82">R82-R111</f>
-        <v>2775.0000000000009</v>
+        <v>2775</v>
       </c>
       <c r="S116" s="27">
-        <f>S82-S111</f>
-        <v>2756.8999999999987</v>
+        <v>2756.9</v>
       </c>
       <c r="T116" s="27">
-        <f>T82-T111</f>
         <v>2872.7</v>
       </c>
       <c r="AA116" s="27">
-        <f t="shared" ref="AA116" si="83">AA82-AA111</f>
+        <f>N116</f>
         <v>2907.5</v>
       </c>
       <c r="AB116" s="27">
-        <f>AB82-AB111</f>
-        <v>2775.0000000000009</v>
+        <f>R116</f>
+        <v>2775</v>
       </c>
     </row>
     <row r="117" spans="2:28">
       <c r="B117" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F117" s="27">
+        <f t="shared" ref="F117:K117" si="106">F116+F114</f>
+        <v>11293.3</v>
+      </c>
+      <c r="H117" s="27">
+        <f t="shared" si="106"/>
+        <v>11273.4</v>
+      </c>
+      <c r="I117" s="27">
+        <f t="shared" si="106"/>
+        <v>11062.5</v>
+      </c>
+      <c r="J117" s="27">
+        <f t="shared" si="106"/>
+        <v>10572.5</v>
+      </c>
+      <c r="K117" s="27">
+        <f t="shared" si="106"/>
+        <v>10856.099999999999</v>
+      </c>
+      <c r="L117" s="27">
+        <f t="shared" ref="L117:T117" si="107">L116+L114</f>
+        <v>10325.400000000001</v>
+      </c>
+      <c r="M117" s="27">
+        <f t="shared" si="107"/>
+        <v>10382.700000000001</v>
+      </c>
+      <c r="N117" s="27">
+        <f t="shared" si="107"/>
+        <v>10516</v>
+      </c>
+      <c r="O117" s="27">
+        <f t="shared" si="107"/>
+        <v>10308.1</v>
+      </c>
+      <c r="P117" s="27">
+        <f t="shared" si="107"/>
+        <v>10341.34</v>
+      </c>
+      <c r="Q117" s="27">
+        <f t="shared" si="107"/>
+        <v>10382.700000000001</v>
+      </c>
+      <c r="R117" s="27">
+        <f t="shared" si="107"/>
+        <v>10155</v>
+      </c>
+      <c r="S117" s="27">
+        <f t="shared" si="107"/>
+        <v>9868.4000000000015</v>
+      </c>
+      <c r="T117" s="27">
+        <f t="shared" si="107"/>
+        <v>9698.7999999999993</v>
+      </c>
+      <c r="AA117" s="27">
+        <f>AA116+AA114</f>
+        <v>10516</v>
+      </c>
+      <c r="AB117" s="27">
+        <f>AB116+AB114</f>
+        <v>10155</v>
+      </c>
+    </row>
+    <row r="118" spans="2:28">
+      <c r="F118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="J118" s="27"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="27"/>
+    </row>
+    <row r="119" spans="2:28">
+      <c r="B119" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F119" s="27">
+        <f t="shared" ref="F119" si="108">F85-F114</f>
+        <v>3940.2</v>
+      </c>
+      <c r="H119" s="27">
+        <f t="shared" ref="H119:I119" si="109">H85-H114</f>
+        <v>3910.0999999999995</v>
+      </c>
+      <c r="I119" s="27">
+        <f t="shared" si="109"/>
+        <v>3802.3000000000011</v>
+      </c>
+      <c r="J119" s="27">
+        <f t="shared" ref="J119:K119" si="110">J85-J114</f>
+        <v>3614.6000000000004</v>
+      </c>
+      <c r="K119" s="27">
+        <f t="shared" si="110"/>
+        <v>3284.3999999999996</v>
+      </c>
+      <c r="L119" s="27">
+        <f t="shared" ref="L119:O119" si="111">L85-L114</f>
+        <v>2980.3000000000011</v>
+      </c>
+      <c r="M119" s="27">
+        <f t="shared" ref="M119" si="112">M85-M114</f>
+        <v>2808.2000000000007</v>
+      </c>
+      <c r="N119" s="27">
+        <f t="shared" si="111"/>
+        <v>2907.5</v>
+      </c>
+      <c r="O119" s="27">
+        <f t="shared" si="111"/>
+        <v>2794.4000000000005</v>
+      </c>
+      <c r="P119" s="27">
+        <f t="shared" ref="P119:Q119" si="113">P85-P114</f>
+        <v>2885.659999999998</v>
+      </c>
+      <c r="Q119" s="27">
+        <f t="shared" si="113"/>
+        <v>2808.2000000000007</v>
+      </c>
+      <c r="R119" s="27">
+        <f t="shared" ref="R119" si="114">R85-R114</f>
+        <v>2775.0000000000009</v>
+      </c>
+      <c r="S119" s="27">
+        <f>S85-S114</f>
+        <v>2756.8999999999987</v>
+      </c>
+      <c r="T119" s="27">
+        <f>T85-T114</f>
+        <v>2872.7</v>
+      </c>
+      <c r="AA119" s="27">
+        <f t="shared" ref="AA119" si="115">AA85-AA114</f>
+        <v>2907.5</v>
+      </c>
+      <c r="AB119" s="27">
+        <f>AB85-AB114</f>
+        <v>2775.0000000000009</v>
+      </c>
+    </row>
+    <row r="120" spans="2:28">
+      <c r="B120" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H117" s="3">
-        <f t="shared" ref="H117:I117" si="84">H116/H27</f>
+      <c r="F120" s="3">
+        <f t="shared" ref="F120" si="116">F119/F27</f>
+        <v>5.3673886391499792</v>
+      </c>
+      <c r="H120" s="3">
+        <f t="shared" ref="H120:I120" si="117">H119/H27</f>
         <v>5.3140799130198415</v>
       </c>
-      <c r="I117" s="3">
-        <f t="shared" si="84"/>
+      <c r="I120" s="3">
+        <f t="shared" si="117"/>
         <v>5.1675727099755386</v>
       </c>
-      <c r="J117" s="3">
-        <f t="shared" ref="J117:K117" si="85">J116/J27</f>
+      <c r="J120" s="3">
+        <f t="shared" ref="J120:K120" si="118">J119/J27</f>
         <v>4.911808669656204</v>
       </c>
-      <c r="K117" s="3">
-        <f t="shared" si="85"/>
+      <c r="K120" s="3">
+        <f t="shared" si="118"/>
         <v>4.4618937644341798</v>
       </c>
-      <c r="L117" s="3">
-        <f t="shared" ref="L117:M117" si="86">L116/L27</f>
+      <c r="L120" s="3">
+        <f t="shared" ref="L120:M120" si="119">L119/L27</f>
         <v>4.0482205922303738</v>
       </c>
-      <c r="M117" s="3">
-        <f t="shared" si="86"/>
+      <c r="M120" s="3">
+        <f t="shared" si="119"/>
         <v>3.8144525944036953</v>
       </c>
-      <c r="N117" s="3">
-        <f t="shared" ref="N117:Q117" si="87">N116/N27</f>
+      <c r="N120" s="3">
+        <f t="shared" ref="N120:Q120" si="120">N119/N27</f>
         <v>3.9493344199945666</v>
       </c>
-      <c r="O117" s="3">
-        <f t="shared" ref="O117" si="88">O116/O27</f>
+      <c r="O120" s="3">
+        <f t="shared" ref="O120" si="121">O119/O27</f>
         <v>3.8019047619047628</v>
       </c>
-      <c r="P117" s="3">
-        <f t="shared" si="87"/>
+      <c r="P120" s="3">
+        <f t="shared" si="120"/>
         <v>3.9271366358192683</v>
       </c>
-      <c r="Q117" s="3">
-        <f t="shared" si="87"/>
+      <c r="Q120" s="3">
+        <f t="shared" si="120"/>
         <v>3.821720195971694</v>
       </c>
-      <c r="R117" s="3">
-        <f t="shared" ref="R117" si="89">R116/R27</f>
+      <c r="R120" s="3">
+        <f t="shared" ref="R120" si="122">R119/R27</f>
         <v>3.7770518579011854</v>
       </c>
-      <c r="S117" s="3">
-        <f>S116/S27</f>
+      <c r="S120" s="3">
+        <f>S119/S27</f>
         <v>3.7529267628641421</v>
       </c>
-      <c r="T117" s="3">
-        <f>T116/T27</f>
+      <c r="T120" s="3">
+        <f>T119/T27</f>
         <v>3.9105635720119789</v>
       </c>
-      <c r="AA117" s="3">
-        <f t="shared" ref="AA117" si="90">AA116/AA27</f>
+      <c r="AA120" s="3">
+        <f t="shared" ref="AA120" si="123">AA119/AA27</f>
         <v>3.9493344199945666</v>
       </c>
-      <c r="AB117" s="3">
-        <f>AB116/AB27</f>
+      <c r="AB120" s="3">
+        <f>AB119/AB27</f>
         <v>3.7770518579011854</v>
       </c>
     </row>
-    <row r="119" spans="2:28" s="39" customFormat="1">
-      <c r="B119" s="39" t="s">
+    <row r="121" spans="2:28">
+      <c r="F121" s="27"/>
+    </row>
+    <row r="122" spans="2:28" s="39" customFormat="1">
+      <c r="B122" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H119" s="52">
-        <f t="shared" ref="H119:I119" si="91">H56+H57+H69+H71</f>
+      <c r="F122" s="52">
+        <f t="shared" ref="F122" si="124">F59+F60+F72+F74</f>
+        <v>3211.9</v>
+      </c>
+      <c r="H122" s="52">
+        <f t="shared" ref="H122:I122" si="125">H59+H60+H72+H74</f>
         <v>2480.8999999999996</v>
       </c>
-      <c r="I119" s="52">
-        <f t="shared" si="91"/>
+      <c r="I122" s="52">
+        <f t="shared" si="125"/>
         <v>2177.2000000000003</v>
       </c>
-      <c r="J119" s="52">
-        <f t="shared" ref="J119:K119" si="92">J56+J57+J69+J71</f>
+      <c r="J122" s="52">
+        <f t="shared" ref="J122:K122" si="126">J59+J60+J72+J74</f>
         <v>2780.6</v>
       </c>
-      <c r="K119" s="52">
-        <f t="shared" si="92"/>
+      <c r="K122" s="52">
+        <f t="shared" si="126"/>
         <v>2501.1</v>
       </c>
-      <c r="L119" s="52">
-        <f t="shared" ref="L119:O119" si="93">L56+L57+L69+L71</f>
+      <c r="L122" s="52">
+        <f t="shared" ref="L122:O122" si="127">L59+L60+L72+L74</f>
         <v>1998.9</v>
       </c>
-      <c r="M119" s="52">
-        <f t="shared" ref="M119" si="94">M56+M57+M69+M71</f>
+      <c r="M122" s="52">
+        <f t="shared" ref="M122" si="128">M59+M60+M72+M74</f>
         <v>2503.6999999999998</v>
       </c>
-      <c r="N119" s="52">
-        <f t="shared" si="93"/>
+      <c r="N122" s="52">
+        <f t="shared" si="127"/>
         <v>2753.6</v>
       </c>
-      <c r="O119" s="52">
-        <f t="shared" si="93"/>
+      <c r="O122" s="52">
+        <f t="shared" si="127"/>
         <v>2463.4</v>
       </c>
-      <c r="P119" s="52">
-        <f t="shared" ref="P119:Q119" si="95">P56+P57+P69+P71</f>
+      <c r="P122" s="52">
+        <f t="shared" ref="P122:Q122" si="129">P59+P60+P72+P74</f>
         <v>2514.3000000000002</v>
       </c>
-      <c r="Q119" s="52">
-        <f t="shared" si="95"/>
+      <c r="Q122" s="52">
+        <f t="shared" si="129"/>
         <v>2503.6999999999998</v>
       </c>
-      <c r="R119" s="52">
-        <f t="shared" ref="R119" si="96">R56+R57+R69+R71</f>
+      <c r="R122" s="52">
+        <f t="shared" ref="R122" si="130">R59+R60+R72+R74</f>
         <v>2634.7</v>
       </c>
-      <c r="S119" s="52">
-        <f t="shared" ref="S119" si="97">S56+S57+S69+S71</f>
+      <c r="S122" s="52">
+        <f t="shared" ref="S122" si="131">S59+S60+S72+S74</f>
         <v>2104.1999999999998</v>
       </c>
-      <c r="T119" s="52">
-        <f>T56+T57+T69+T71</f>
+      <c r="T122" s="52">
+        <f>T59+T60+T72+T74</f>
         <v>1968.2</v>
       </c>
-      <c r="AA119" s="52">
-        <f t="shared" ref="AA119" si="98">AA56+AA57+AA69+AA71</f>
+      <c r="AA122" s="52">
+        <f t="shared" ref="AA122" si="132">AA59+AA60+AA72+AA74</f>
         <v>2753.6</v>
       </c>
-      <c r="AB119" s="52">
-        <f>AB56+AB57+AB69+AB71</f>
+      <c r="AB122" s="52">
+        <f>AB59+AB60+AB72+AB74</f>
         <v>2634.7</v>
       </c>
     </row>
-    <row r="120" spans="2:28" s="39" customFormat="1">
-      <c r="B120" s="39" t="s">
+    <row r="123" spans="2:28" s="39" customFormat="1">
+      <c r="B123" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H120" s="52">
-        <f t="shared" ref="H120:I120" si="99">H87+H91+H101+H88+H102</f>
+      <c r="F123" s="52">
+        <f t="shared" ref="F123" si="133">F90+F94+F104+F91+F105</f>
+        <v>3997.2000000000003</v>
+      </c>
+      <c r="H123" s="52">
+        <f t="shared" ref="H123:I123" si="134">H90+H94+H104+H91+H105</f>
         <v>3879.5</v>
       </c>
-      <c r="I120" s="52">
-        <f t="shared" si="99"/>
+      <c r="I123" s="52">
+        <f t="shared" si="134"/>
         <v>3811.6</v>
       </c>
-      <c r="J120" s="52">
-        <f t="shared" ref="J120:K120" si="100">J87+J91+J101+J88+J102</f>
+      <c r="J123" s="52">
+        <f t="shared" ref="J123:K123" si="135">J90+J94+J104+J91+J105</f>
         <v>3414.4</v>
       </c>
-      <c r="K120" s="52">
-        <f t="shared" si="100"/>
+      <c r="K123" s="52">
+        <f t="shared" si="135"/>
         <v>3862.2</v>
       </c>
-      <c r="L120" s="52">
-        <f>L87+L91+L101+L88+L102</f>
+      <c r="L123" s="52">
+        <f>L90+L94+L104+L91+L105</f>
         <v>3826.3999999999996</v>
       </c>
-      <c r="M120" s="52">
-        <f t="shared" ref="M120" si="101">M87+M91+M101+M88+M102</f>
+      <c r="M123" s="52">
+        <f t="shared" ref="M123" si="136">M90+M94+M104+M91+M105</f>
         <v>4310.1000000000004</v>
       </c>
-      <c r="N120" s="52">
-        <f>N87+N91+N101+N88+N102</f>
+      <c r="N123" s="52">
+        <f>N90+N94+N104+N91+N105</f>
         <v>4449.2</v>
       </c>
-      <c r="O120" s="52">
-        <f t="shared" ref="O120" si="102">O87+O91+O101+O88+O102</f>
+      <c r="O123" s="52">
+        <f t="shared" ref="O123" si="137">O90+O94+O104+O91+O105</f>
         <v>4380</v>
       </c>
-      <c r="P120" s="52">
-        <f t="shared" ref="P120:T120" si="103">P87+P91+P101+P88+P102</f>
+      <c r="P123" s="52">
+        <f t="shared" ref="P123:T123" si="138">P90+P94+P104+P91+P105</f>
         <v>4334.0999999999995</v>
       </c>
-      <c r="Q120" s="52">
-        <f t="shared" si="103"/>
+      <c r="Q123" s="52">
+        <f t="shared" si="138"/>
         <v>4310.1000000000004</v>
       </c>
-      <c r="R120" s="52">
-        <f t="shared" si="103"/>
+      <c r="R123" s="52">
+        <f t="shared" si="138"/>
         <v>4029.7999999999997</v>
       </c>
-      <c r="S120" s="52">
-        <f t="shared" si="103"/>
+      <c r="S123" s="52">
+        <f t="shared" si="138"/>
         <v>3559</v>
       </c>
-      <c r="T120" s="52">
-        <f t="shared" si="103"/>
+      <c r="T123" s="52">
+        <f t="shared" si="138"/>
         <v>3173.8999999999996</v>
       </c>
-      <c r="AA120" s="52">
-        <f t="shared" ref="AA120:AB120" si="104">AA87+AA91+AA101+AA88+AA102</f>
+      <c r="AA123" s="52">
+        <f t="shared" ref="AA123:AB123" si="139">AA90+AA94+AA104+AA91+AA105</f>
         <v>4449.2</v>
       </c>
-      <c r="AB120" s="52">
-        <f t="shared" si="104"/>
+      <c r="AB123" s="52">
+        <f t="shared" si="139"/>
         <v>4029.7999999999997</v>
-      </c>
-    </row>
-    <row r="121" spans="2:28">
-      <c r="B121" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H121" s="27">
-        <f t="shared" ref="H121:I121" si="105">H119-H120</f>
-        <v>-1398.6000000000004</v>
-      </c>
-      <c r="I121" s="27">
-        <f t="shared" si="105"/>
-        <v>-1634.3999999999996</v>
-      </c>
-      <c r="J121" s="27">
-        <f t="shared" ref="J121:K121" si="106">J119-J120</f>
-        <v>-633.80000000000018</v>
-      </c>
-      <c r="K121" s="27">
-        <f t="shared" si="106"/>
-        <v>-1361.1</v>
-      </c>
-      <c r="L121" s="27">
-        <f t="shared" ref="L121:M121" si="107">L119-L120</f>
-        <v>-1827.4999999999995</v>
-      </c>
-      <c r="M121" s="27">
-        <f t="shared" si="107"/>
-        <v>-1806.4000000000005</v>
-      </c>
-      <c r="N121" s="27">
-        <f t="shared" ref="N121:R121" si="108">N119-N120</f>
-        <v>-1695.6</v>
-      </c>
-      <c r="O121" s="27">
-        <f t="shared" ref="O121" si="109">O119-O120</f>
-        <v>-1916.6</v>
-      </c>
-      <c r="P121" s="27">
-        <f t="shared" si="108"/>
-        <v>-1819.7999999999993</v>
-      </c>
-      <c r="Q121" s="27">
-        <f t="shared" si="108"/>
-        <v>-1806.4000000000005</v>
-      </c>
-      <c r="R121" s="27">
-        <f t="shared" si="108"/>
-        <v>-1395.1</v>
-      </c>
-      <c r="S121" s="27">
-        <f>S119-S120</f>
-        <v>-1454.8000000000002</v>
-      </c>
-      <c r="T121" s="27">
-        <f>T119-T120</f>
-        <v>-1205.6999999999996</v>
-      </c>
-      <c r="AA121" s="27">
-        <f t="shared" ref="AA121" si="110">AA119-AA120</f>
-        <v>-1695.6</v>
-      </c>
-      <c r="AB121" s="27">
-        <f>AB119-AB120</f>
-        <v>-1395.1</v>
-      </c>
-    </row>
-    <row r="123" spans="2:28" s="2" customFormat="1">
-      <c r="B123" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L123" s="34">
-        <f t="shared" ref="L123" si="111">L63/H63-1</f>
-        <v>4.1440601804080712E-2</v>
-      </c>
-      <c r="M123" s="34">
-        <f t="shared" ref="M123" si="112">M63/I63-1</f>
-        <v>-0.25227884646576049</v>
-      </c>
-      <c r="N123" s="34">
-        <f t="shared" ref="N123" si="113">N63/J63-1</f>
-        <v>2.2609060402684511E-2</v>
-      </c>
-      <c r="O123" s="34">
-        <f t="shared" ref="O123" si="114">O63/K63-1</f>
-        <v>-0.15109561412504702</v>
-      </c>
-      <c r="P123" s="34">
-        <f t="shared" ref="P123:S123" si="115">P63/L63-1</f>
-        <v>-0.26009971874200977</v>
-      </c>
-      <c r="Q123" s="34">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="R123" s="34">
-        <f t="shared" si="115"/>
-        <v>-0.18536445301283899</v>
-      </c>
-      <c r="S123" s="34">
-        <f t="shared" si="115"/>
-        <v>-0.10490073692264323</v>
-      </c>
-      <c r="T123" s="34">
-        <f>T63/P63-1</f>
-        <v>3.36501079913607E-2</v>
-      </c>
-      <c r="AB123" s="34">
-        <f>AB63/AA63-1</f>
-        <v>-0.18536445301283899</v>
       </c>
     </row>
     <row r="124" spans="2:28">
       <c r="B124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="27">
+        <f t="shared" ref="F124" si="140">F122-F123</f>
+        <v>-785.30000000000018</v>
+      </c>
+      <c r="H124" s="27">
+        <f t="shared" ref="H124:I124" si="141">H122-H123</f>
+        <v>-1398.6000000000004</v>
+      </c>
+      <c r="I124" s="27">
+        <f t="shared" si="141"/>
+        <v>-1634.3999999999996</v>
+      </c>
+      <c r="J124" s="27">
+        <f t="shared" ref="J124:K124" si="142">J122-J123</f>
+        <v>-633.80000000000018</v>
+      </c>
+      <c r="K124" s="27">
+        <f t="shared" si="142"/>
+        <v>-1361.1</v>
+      </c>
+      <c r="L124" s="27">
+        <f t="shared" ref="L124:M124" si="143">L122-L123</f>
+        <v>-1827.4999999999995</v>
+      </c>
+      <c r="M124" s="27">
+        <f t="shared" si="143"/>
+        <v>-1806.4000000000005</v>
+      </c>
+      <c r="N124" s="27">
+        <f t="shared" ref="N124:R124" si="144">N122-N123</f>
+        <v>-1695.6</v>
+      </c>
+      <c r="O124" s="27">
+        <f t="shared" ref="O124" si="145">O122-O123</f>
+        <v>-1916.6</v>
+      </c>
+      <c r="P124" s="27">
+        <f t="shared" si="144"/>
+        <v>-1819.7999999999993</v>
+      </c>
+      <c r="Q124" s="27">
+        <f t="shared" si="144"/>
+        <v>-1806.4000000000005</v>
+      </c>
+      <c r="R124" s="27">
+        <f t="shared" si="144"/>
+        <v>-1395.1</v>
+      </c>
+      <c r="S124" s="27">
+        <f>S122-S123</f>
+        <v>-1454.8000000000002</v>
+      </c>
+      <c r="T124" s="27">
+        <f>T122-T123</f>
+        <v>-1205.6999999999996</v>
+      </c>
+      <c r="AA124" s="27">
+        <f t="shared" ref="AA124" si="146">AA122-AA123</f>
+        <v>-1695.6</v>
+      </c>
+      <c r="AB124" s="27">
+        <f>AB122-AB123</f>
+        <v>-1395.1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:28" s="2" customFormat="1">
+      <c r="B126" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J126" s="34">
+        <f t="shared" ref="J126:L126" si="147">J66/F66-1</f>
+        <v>-4.9062624650977216E-2</v>
+      </c>
+      <c r="K126" s="34" t="e">
+        <f t="shared" ref="K126" si="148">K66/G66-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L126" s="34">
+        <f t="shared" si="147"/>
+        <v>4.1440601804080712E-2</v>
+      </c>
+      <c r="M126" s="34">
+        <f t="shared" ref="M126" si="149">M66/I66-1</f>
+        <v>-0.25227884646576049</v>
+      </c>
+      <c r="N126" s="34">
+        <f t="shared" ref="N126" si="150">N66/J66-1</f>
+        <v>2.2609060402684511E-2</v>
+      </c>
+      <c r="O126" s="34">
+        <f t="shared" ref="O126" si="151">O66/K66-1</f>
+        <v>-0.15109561412504702</v>
+      </c>
+      <c r="P126" s="34">
+        <f t="shared" ref="P126:S126" si="152">P66/L66-1</f>
+        <v>-0.26009971874200977</v>
+      </c>
+      <c r="Q126" s="34">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="R126" s="34">
+        <f t="shared" si="152"/>
+        <v>-0.18536445301283899</v>
+      </c>
+      <c r="S126" s="34">
+        <f t="shared" si="152"/>
+        <v>-0.10490073692264323</v>
+      </c>
+      <c r="T126" s="34">
+        <f>T66/P66-1</f>
+        <v>3.36501079913607E-2</v>
+      </c>
+      <c r="AB126" s="34">
+        <f>AB66/AA66-1</f>
+        <v>-0.18536445301283899</v>
+      </c>
+    </row>
+    <row r="127" spans="2:28">
+      <c r="B127" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I124" s="25">
-        <f t="shared" ref="I124" si="116">I63/H63-1</f>
+      <c r="I127" s="25">
+        <f t="shared" ref="I127" si="153">I66/H66-1</f>
         <v>2.6095929168192145E-2</v>
       </c>
-      <c r="J124" s="25">
-        <f t="shared" ref="J124" si="117">J63/I63-1</f>
+      <c r="J127" s="25">
+        <f t="shared" ref="J127" si="154">J66/I66-1</f>
         <v>-0.22665196094332885</v>
       </c>
-      <c r="K124" s="25">
-        <f t="shared" ref="K124:P124" si="118">K63/J63-1</f>
+      <c r="K127" s="25">
+        <f t="shared" ref="K127:P127" si="155">K66/J66-1</f>
         <v>0.22705536912751678</v>
       </c>
-      <c r="L124" s="25">
-        <f t="shared" si="118"/>
+      <c r="L127" s="25">
+        <f t="shared" si="155"/>
         <v>6.9565514648070259E-2</v>
       </c>
-      <c r="M124" s="25">
-        <f t="shared" si="118"/>
+      <c r="M127" s="25">
+        <f t="shared" si="155"/>
         <v>-0.26329583226796216</v>
       </c>
-      <c r="N124" s="25">
-        <f t="shared" si="118"/>
+      <c r="N127" s="25">
+        <f t="shared" si="155"/>
         <v>5.7657266811279806E-2</v>
       </c>
-      <c r="O124" s="25">
-        <f t="shared" si="118"/>
+      <c r="O127" s="25">
+        <f t="shared" si="155"/>
         <v>1.862258501169034E-2</v>
       </c>
-      <c r="P124" s="25">
-        <f t="shared" si="118"/>
+      <c r="P127" s="25">
+        <f t="shared" si="155"/>
         <v>-6.7772721781500511E-2</v>
       </c>
-      <c r="Q124" s="25">
-        <f>Q63/P63-1</f>
+      <c r="Q127" s="25">
+        <f>Q66/P66-1</f>
         <v>-4.3196544276458138E-3</v>
       </c>
-      <c r="R124" s="25">
-        <f t="shared" ref="R124:S124" si="119">R63/Q63-1</f>
+      <c r="R127" s="25">
+        <f t="shared" ref="R127:S127" si="156">R66/Q66-1</f>
         <v>-0.13839479392624732</v>
       </c>
-      <c r="S124" s="25">
-        <f t="shared" si="119"/>
+      <c r="S127" s="25">
+        <f t="shared" si="156"/>
         <v>0.11923464249748239</v>
       </c>
-      <c r="T124" s="25">
-        <f>T63/S63-1</f>
+      <c r="T127" s="25">
+        <f>T66/S66-1</f>
         <v>7.6525103473096934E-2</v>
       </c>
-      <c r="AA124" s="14" t="s">
+      <c r="AA127" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="AB124" s="14" t="s">
+      <c r="AB127" s="14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="126" spans="2:28">
-      <c r="B126" s="3" t="s">
+    <row r="129" spans="2:28">
+      <c r="B129" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="P126" s="25">
-        <f t="shared" ref="P126:S126" si="120">P63/SUM(M9:P9)</f>
+      <c r="P129" s="25">
+        <f t="shared" ref="P129:S129" si="157">P66/SUM(M9:P9)</f>
         <v>0.51014786575288118</v>
       </c>
-      <c r="Q126" s="25">
-        <f t="shared" si="120"/>
+      <c r="Q129" s="25">
+        <f t="shared" si="157"/>
         <v>0.48656407658370798</v>
       </c>
-      <c r="R126" s="25">
-        <f t="shared" si="120"/>
+      <c r="R129" s="25">
+        <f t="shared" si="157"/>
         <v>0.47317259125131039</v>
       </c>
-      <c r="S126" s="25">
-        <f t="shared" si="120"/>
+      <c r="S129" s="25">
+        <f t="shared" si="157"/>
         <v>0.55698105642978857</v>
       </c>
-      <c r="T126" s="25">
-        <f>T63/SUM(Q9:T9)</f>
+      <c r="T129" s="25">
+        <f>T66/SUM(Q9:T9)</f>
         <v>0.61685399051350787</v>
       </c>
-      <c r="AA126" s="25">
-        <f t="shared" ref="AA126" si="121">AA63/AA9</f>
+      <c r="AA129" s="25">
+        <f t="shared" ref="AA129" si="158">AA66/AA9</f>
         <v>0.64646919996817909</v>
       </c>
-      <c r="AB126" s="25">
-        <f>AB63/AB9</f>
+      <c r="AB129" s="25">
+        <f>AB66/AB9</f>
         <v>0.47317259125131039</v>
       </c>
     </row>
-    <row r="128" spans="2:28">
-      <c r="B128" s="3" t="s">
+    <row r="131" spans="2:28">
+      <c r="B131" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H128" s="3">
+      <c r="H131" s="3">
         <v>20.22</v>
       </c>
-      <c r="I128" s="3">
+      <c r="I131" s="3">
         <v>17.25</v>
       </c>
-      <c r="J128" s="3">
+      <c r="J131" s="3">
         <v>19.489999999999998</v>
       </c>
-      <c r="K128" s="3">
+      <c r="K131" s="3">
         <v>7.22</v>
       </c>
-      <c r="L128" s="3">
+      <c r="L131" s="3">
         <v>5.98</v>
       </c>
-      <c r="M128" s="3">
+      <c r="M131" s="3">
         <v>4.41</v>
       </c>
-      <c r="N128" s="3">
+      <c r="N131" s="3">
         <v>6.81</v>
       </c>
-      <c r="O128" s="3">
+      <c r="O131" s="3">
         <v>9.9600000000000009</v>
       </c>
-      <c r="P128" s="3">
+      <c r="P131" s="3">
         <v>15.14</v>
       </c>
-      <c r="Q128" s="27">
+      <c r="Q131" s="27">
         <v>17</v>
       </c>
-      <c r="R128" s="3">
+      <c r="R131" s="3">
         <v>13.9</v>
       </c>
-      <c r="S128" s="3">
+      <c r="S131" s="3">
         <v>12.61</v>
       </c>
-      <c r="T128" s="3">
+      <c r="T131" s="3">
         <v>8.7799999999999994</v>
       </c>
-      <c r="AA128" s="3">
-        <f>N128</f>
+      <c r="AA131" s="3">
+        <f>N131</f>
         <v>6.81</v>
       </c>
-      <c r="AB128" s="3">
-        <f>R128</f>
+      <c r="AB131" s="3">
+        <f>R131</f>
         <v>13.9</v>
       </c>
     </row>
-    <row r="129" spans="2:28" s="27" customFormat="1">
-      <c r="B129" s="27" t="s">
+    <row r="132" spans="2:28" s="27" customFormat="1">
+      <c r="B132" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="H129" s="27">
-        <f t="shared" ref="H129:I129" si="122">H128*H27</f>
+      <c r="H132" s="27">
+        <f t="shared" ref="H132:I132" si="159">H131*H27</f>
         <v>14877.875999999998</v>
       </c>
-      <c r="I129" s="27">
-        <f t="shared" si="122"/>
+      <c r="I132" s="27">
+        <f t="shared" si="159"/>
         <v>12692.55</v>
       </c>
-      <c r="J129" s="27">
-        <f t="shared" ref="J129:K129" si="123">J128*J27</f>
+      <c r="J132" s="27">
+        <f t="shared" ref="J132:K132" si="160">J131*J27</f>
         <v>14342.690999999999</v>
       </c>
-      <c r="K129" s="27">
-        <f t="shared" si="123"/>
+      <c r="K132" s="27">
+        <f t="shared" si="160"/>
         <v>5314.6419999999998</v>
       </c>
-      <c r="L129" s="27">
-        <f t="shared" ref="L129" si="124">L128*L27</f>
+      <c r="L132" s="27">
+        <f t="shared" ref="L132" si="161">L131*L27</f>
         <v>4402.4760000000006</v>
       </c>
-      <c r="M129" s="27">
-        <f t="shared" ref="M129:T129" si="125">M128*M27</f>
+      <c r="M132" s="27">
+        <f t="shared" ref="M132:T132" si="162">M131*M27</f>
         <v>3246.6420000000003</v>
       </c>
-      <c r="N129" s="27">
-        <f t="shared" si="125"/>
+      <c r="N132" s="27">
+        <f t="shared" si="162"/>
         <v>5013.5219999999999</v>
       </c>
-      <c r="O129" s="27">
-        <f t="shared" si="125"/>
+      <c r="O132" s="27">
+        <f t="shared" si="162"/>
         <v>7320.6</v>
       </c>
-      <c r="P129" s="27">
-        <f t="shared" si="125"/>
+      <c r="P132" s="27">
+        <f t="shared" si="162"/>
         <v>11124.871999999999</v>
       </c>
-      <c r="Q129" s="27">
-        <f t="shared" si="125"/>
+      <c r="Q132" s="27">
+        <f t="shared" si="162"/>
         <v>12491.599999999999</v>
       </c>
-      <c r="R129" s="27">
-        <f t="shared" si="125"/>
+      <c r="R132" s="27">
+        <f t="shared" si="162"/>
         <v>10212.330000000002</v>
       </c>
-      <c r="S129" s="27">
-        <f t="shared" si="125"/>
+      <c r="S132" s="27">
+        <f t="shared" si="162"/>
         <v>9263.3060000000005</v>
       </c>
-      <c r="T129" s="27">
-        <f t="shared" si="125"/>
+      <c r="T132" s="27">
+        <f t="shared" si="162"/>
         <v>6449.7879999999996</v>
       </c>
-      <c r="AA129" s="27">
-        <f t="shared" ref="AA129" si="126">AA128*AA27</f>
+      <c r="AA132" s="27">
+        <f t="shared" ref="AA132" si="163">AA131*AA27</f>
         <v>5013.5219999999999</v>
       </c>
-      <c r="AB129" s="27">
-        <f>AB128*AB27</f>
+      <c r="AB132" s="27">
+        <f>AB131*AB27</f>
         <v>10212.330000000002</v>
       </c>
     </row>
-    <row r="130" spans="2:28" s="27" customFormat="1">
-      <c r="B130" s="27" t="s">
+    <row r="133" spans="2:28" s="27" customFormat="1">
+      <c r="B133" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H130" s="27">
-        <f t="shared" ref="H130:I130" si="127">H129-H121</f>
+      <c r="H133" s="27">
+        <f t="shared" ref="H133:I133" si="164">H132-H124</f>
         <v>16276.475999999999</v>
       </c>
-      <c r="I130" s="27">
-        <f t="shared" si="127"/>
+      <c r="I133" s="27">
+        <f t="shared" si="164"/>
         <v>14326.949999999999</v>
       </c>
-      <c r="J130" s="27">
-        <f t="shared" ref="J130:K130" si="128">J129-J121</f>
+      <c r="J133" s="27">
+        <f t="shared" ref="J133:K133" si="165">J132-J124</f>
         <v>14976.490999999998</v>
       </c>
-      <c r="K130" s="27">
-        <f t="shared" si="128"/>
+      <c r="K133" s="27">
+        <f t="shared" si="165"/>
         <v>6675.7420000000002</v>
       </c>
-      <c r="L130" s="27">
-        <f t="shared" ref="L130" si="129">L129-L121</f>
+      <c r="L133" s="27">
+        <f t="shared" ref="L133" si="166">L132-L124</f>
         <v>6229.9760000000006</v>
       </c>
-      <c r="M130" s="27">
-        <f t="shared" ref="M130:T130" si="130">M129-M121</f>
+      <c r="M133" s="27">
+        <f t="shared" ref="M133:T133" si="167">M132-M124</f>
         <v>5053.0420000000013</v>
       </c>
-      <c r="N130" s="27">
-        <f t="shared" si="130"/>
+      <c r="N133" s="27">
+        <f t="shared" si="167"/>
         <v>6709.1219999999994</v>
       </c>
-      <c r="O130" s="27">
-        <f t="shared" si="130"/>
+      <c r="O133" s="27">
+        <f t="shared" si="167"/>
         <v>9237.2000000000007</v>
       </c>
-      <c r="P130" s="27">
-        <f t="shared" si="130"/>
+      <c r="P133" s="27">
+        <f t="shared" si="167"/>
         <v>12944.671999999999</v>
       </c>
-      <c r="Q130" s="27">
-        <f t="shared" si="130"/>
+      <c r="Q133" s="27">
+        <f t="shared" si="167"/>
         <v>14298</v>
       </c>
-      <c r="R130" s="27">
-        <f t="shared" si="130"/>
+      <c r="R133" s="27">
+        <f t="shared" si="167"/>
         <v>11607.430000000002</v>
       </c>
-      <c r="S130" s="27">
-        <f t="shared" si="130"/>
+      <c r="S133" s="27">
+        <f t="shared" si="167"/>
         <v>10718.106</v>
       </c>
-      <c r="T130" s="27">
-        <f t="shared" si="130"/>
+      <c r="T133" s="27">
+        <f t="shared" si="167"/>
         <v>7655.4879999999994</v>
       </c>
-      <c r="AA130" s="27">
-        <f t="shared" ref="AA130" si="131">AA129-AA121</f>
+      <c r="AA133" s="27">
+        <f t="shared" ref="AA133" si="168">AA132-AA124</f>
         <v>6709.1219999999994</v>
       </c>
-      <c r="AB130" s="27">
-        <f>AB129-AB121</f>
+      <c r="AB133" s="27">
+        <f>AB132-AB124</f>
         <v>11607.430000000002</v>
       </c>
     </row>
-    <row r="132" spans="2:28">
-      <c r="B132" s="3" t="s">
+    <row r="135" spans="2:28">
+      <c r="B135" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H132" s="57">
-        <f t="shared" ref="H132:I132" si="132">H128/H117</f>
+      <c r="H135" s="57">
+        <f t="shared" ref="H135:I135" si="169">H131/H120</f>
         <v>3.8049860617375519</v>
       </c>
-      <c r="I132" s="57">
-        <f t="shared" si="132"/>
+      <c r="I135" s="57">
+        <f t="shared" si="169"/>
         <v>3.3381242931909623</v>
       </c>
-      <c r="J132" s="57">
-        <f t="shared" ref="J132:K132" si="133">J128/J117</f>
+      <c r="J135" s="57">
+        <f t="shared" ref="J135:K135" si="170">J131/J120</f>
         <v>3.9679884357881914</v>
       </c>
-      <c r="K132" s="57">
-        <f t="shared" si="133"/>
+      <c r="K135" s="57">
+        <f t="shared" si="170"/>
         <v>1.6181469979296066</v>
       </c>
-      <c r="L132" s="57">
-        <f>L128/L117</f>
+      <c r="L135" s="57">
+        <f>L131/L120</f>
         <v>1.4771922289702375</v>
       </c>
-      <c r="M132" s="57">
-        <f>M128/M117</f>
+      <c r="M135" s="57">
+        <f>M131/M120</f>
         <v>1.156129193077416</v>
       </c>
-      <c r="N132" s="57">
-        <f>N128/N117</f>
+      <c r="N135" s="57">
+        <f>N131/N120</f>
         <v>1.7243411865864144</v>
       </c>
-      <c r="O132" s="57">
-        <f t="shared" ref="O132" si="134">O128/O117</f>
+      <c r="O135" s="57">
+        <f t="shared" ref="O135" si="171">O131/O120</f>
         <v>2.6197394789579156</v>
       </c>
-      <c r="P132" s="57">
-        <f>P128/P117</f>
+      <c r="P135" s="57">
+        <f>P131/P120</f>
         <v>3.8552261874233302</v>
       </c>
-      <c r="Q132" s="57">
-        <f>Q128/Q117</f>
+      <c r="Q135" s="57">
+        <f>Q131/Q120</f>
         <v>4.4482586710348251</v>
       </c>
-      <c r="R132" s="57">
-        <f>R128/R117</f>
+      <c r="R135" s="57">
+        <f>R131/R120</f>
         <v>3.6801189189189176</v>
       </c>
-      <c r="S132" s="57">
-        <f>S128/S117</f>
+      <c r="S135" s="57">
+        <f>S131/S120</f>
         <v>3.3600442526025622</v>
       </c>
-      <c r="T132" s="57">
-        <f>T128/T117</f>
+      <c r="T135" s="57">
+        <f>T131/T120</f>
         <v>2.2452006822849584</v>
       </c>
-      <c r="AA132" s="57">
-        <f>AA128/AA117</f>
+      <c r="AA135" s="57">
+        <f>AA131/AA120</f>
         <v>1.7243411865864144</v>
       </c>
-      <c r="AB132" s="57">
-        <f>AB128/AB117</f>
+      <c r="AB135" s="57">
+        <f>AB131/AB120</f>
         <v>3.6801189189189176</v>
       </c>
     </row>
-    <row r="133" spans="2:28">
-      <c r="B133" s="3" t="s">
+    <row r="136" spans="2:28">
+      <c r="B136" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L133" s="57">
-        <f t="shared" ref="L133" si="135">L128/SUM(I9:L9)</f>
+      <c r="L136" s="57">
+        <f t="shared" ref="L136" si="172">L131/SUM(I9:L9)</f>
         <v>1.3493997653217802E-3</v>
       </c>
-      <c r="M133" s="57">
-        <f t="shared" ref="M133" si="136">M128/SUM(J9:M9)</f>
+      <c r="M136" s="57">
+        <f t="shared" ref="M136" si="173">M131/SUM(J9:M9)</f>
         <v>1.0984631479313523E-3</v>
       </c>
-      <c r="N133" s="57">
-        <f t="shared" ref="N133" si="137">N128/SUM(K9:N9)</f>
+      <c r="N136" s="57">
+        <f t="shared" ref="N136" si="174">N131/SUM(K9:N9)</f>
         <v>1.8058391450770329E-3</v>
       </c>
-      <c r="O133" s="57">
-        <f t="shared" ref="O133" si="138">O128/SUM(L9:O9)</f>
+      <c r="O136" s="57">
+        <f t="shared" ref="O136" si="175">O131/SUM(L9:O9)</f>
         <v>2.5249708462201492E-3</v>
       </c>
-      <c r="P133" s="57">
-        <f t="shared" ref="P133:S133" si="139">P128/SUM(M9:P9)</f>
+      <c r="P136" s="57">
+        <f t="shared" ref="P136:S136" si="176">P131/SUM(M9:P9)</f>
         <v>3.3363450053989726E-3</v>
       </c>
-      <c r="Q133" s="57">
-        <f t="shared" si="139"/>
+      <c r="Q136" s="57">
+        <f t="shared" si="176"/>
         <v>3.5885419964958943E-3</v>
       </c>
-      <c r="R133" s="57">
-        <f t="shared" si="139"/>
+      <c r="R136" s="57">
+        <f t="shared" si="176"/>
         <v>3.3117316306108839E-3</v>
       </c>
-      <c r="S133" s="57">
-        <f t="shared" si="139"/>
+      <c r="S136" s="57">
+        <f t="shared" si="176"/>
         <v>3.1597674651698908E-3</v>
       </c>
-      <c r="T133" s="57">
-        <f>T128/SUM(Q9:T9)</f>
+      <c r="T136" s="57">
+        <f>T131/SUM(Q9:T9)</f>
         <v>2.2633532687151986E-3</v>
       </c>
-      <c r="AA133" s="57">
-        <f t="shared" ref="AA133" si="140">AA129/AA9</f>
+      <c r="AA136" s="57">
+        <f t="shared" ref="AA136" si="177">AA132/AA9</f>
         <v>1.3294587786057119</v>
       </c>
-      <c r="AB133" s="57">
-        <f>AB129/AB9</f>
+      <c r="AB136" s="57">
+        <f>AB132/AB9</f>
         <v>2.4331292290098165</v>
       </c>
     </row>
-    <row r="134" spans="2:28">
-      <c r="B134" s="3" t="s">
+    <row r="137" spans="2:28">
+      <c r="B137" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L134" s="57">
-        <f t="shared" ref="L134" si="141">L128/SUM(I26:L26)</f>
+      <c r="L137" s="57">
+        <f t="shared" ref="L137" si="178">L131/SUM(I26:L26)</f>
         <v>-4.921897835209367</v>
       </c>
-      <c r="M134" s="57">
-        <f t="shared" ref="M134" si="142">M128/SUM(J26:M26)</f>
+      <c r="M137" s="57">
+        <f t="shared" ref="M137" si="179">M131/SUM(J26:M26)</f>
         <v>-3.4596705334508839</v>
       </c>
-      <c r="N134" s="57">
-        <f t="shared" ref="N134" si="143">N128/SUM(K26:N26)</f>
+      <c r="N137" s="57">
+        <f t="shared" ref="N137" si="180">N131/SUM(K26:N26)</f>
         <v>-6.8505742659676452</v>
       </c>
-      <c r="O134" s="57">
-        <f t="shared" ref="O134" si="144">O128/SUM(L26:O26)</f>
+      <c r="O137" s="57">
+        <f t="shared" ref="O137" si="181">O131/SUM(L26:O26)</f>
         <v>-13.844238952468716</v>
       </c>
-      <c r="P134" s="57">
-        <f t="shared" ref="P134:S134" si="145">P128/SUM(M26:P26)</f>
+      <c r="P137" s="57">
+        <f t="shared" ref="P137:S137" si="182">P131/SUM(M26:P26)</f>
         <v>-88.265429889576552</v>
       </c>
-      <c r="Q134" s="57">
-        <f t="shared" si="145"/>
+      <c r="Q137" s="57">
+        <f t="shared" si="182"/>
         <v>-249.48613055071797</v>
       </c>
-      <c r="R134" s="57">
-        <f t="shared" si="145"/>
+      <c r="R137" s="57">
+        <f t="shared" si="182"/>
         <v>-228.62115367889854</v>
       </c>
-      <c r="S134" s="57">
-        <f t="shared" si="145"/>
+      <c r="S137" s="57">
+        <f t="shared" si="182"/>
         <v>697.1161832155442</v>
       </c>
-      <c r="T134" s="57">
-        <f>T128/SUM(Q26:T26)</f>
+      <c r="T137" s="57">
+        <f>T131/SUM(Q26:T26)</f>
         <v>-16621.554193892349</v>
       </c>
-      <c r="AA134" s="57">
-        <f>AA128/AA26</f>
+      <c r="AA137" s="57">
+        <f>AA131/AA26</f>
         <v>-6.8500095641481078</v>
       </c>
-      <c r="AB134" s="57">
-        <f>AB128/AB26</f>
+      <c r="AB137" s="57">
+        <f>AB131/AB26</f>
         <v>-228.46375838926176</v>
       </c>
     </row>
@@ -9343,14 +10338,16 @@
     <hyperlink ref="M1" r:id="rId8" xr:uid="{2AE4CA56-39D1-4F5D-9F20-09CE6D413D01}"/>
     <hyperlink ref="K1" r:id="rId9" xr:uid="{0065F09B-E102-4CAA-BD33-29109F5335BA}"/>
     <hyperlink ref="I1" r:id="rId10" xr:uid="{32463CDE-F6F0-4494-9C98-7AA14A13E3D2}"/>
+    <hyperlink ref="J1" r:id="rId11" xr:uid="{D84EF78D-A3AC-46C1-8928-F728FE758F99}"/>
+    <hyperlink ref="Z1" r:id="rId12" xr:uid="{4ACEBDC9-1AD7-4429-9A6E-EDAB58B0EC87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId13"/>
   <ignoredErrors>
-    <ignoredError sqref="AA68:AB68 AA99:AB99" formula="1"/>
-    <ignoredError sqref="Q133:T133 P133 P126:T126 O133 L133:N134" formulaRange="1"/>
+    <ignoredError sqref="AA71:AB71 AA102:AB102" formula="1"/>
+    <ignoredError sqref="Q136:T136 P136 P129:T129 O136 L136:N137" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E6B591-717E-4589-BADE-21D54D452D48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5602D85D-E87A-4A05-82BC-AD45D4BA84C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" activeTab="1" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="215">
   <si>
     <t>$ERJ</t>
   </si>
@@ -1064,6 +1064,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1073,28 +1081,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,13 +1105,17 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1606,7 +1606,7 @@
   <dimension ref="A2:X44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1626,31 +1626,31 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="G5" s="63" t="s">
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="G5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="65"/>
-      <c r="U5" s="63" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="69"/>
+      <c r="U5" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="65"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="69"/>
     </row>
     <row r="6" spans="1:24">
       <c r="B6" s="4" t="s">
@@ -1915,11 +1915,11 @@
       <c r="X14" s="38"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
       <c r="G15" s="10"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -1946,10 +1946,10 @@
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="69"/>
+      <c r="D16" s="73"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -1973,10 +1973,10 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="69"/>
+      <c r="D17" s="73"/>
       <c r="G17" s="9">
         <v>44805</v>
       </c>
@@ -2000,8 +2000,8 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="16"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8" t="s">
         <v>201</v>
@@ -2025,8 +2025,8 @@
     </row>
     <row r="19" spans="2:24">
       <c r="B19" s="17"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
       <c r="G19" s="10"/>
       <c r="H19" s="8" t="s">
         <v>202</v>
@@ -2093,11 +2093,11 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
       <c r="G22" s="10"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
@@ -2121,10 +2121,10 @@
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="69"/>
+      <c r="D23" s="73"/>
       <c r="G23" s="9">
         <v>44743</v>
       </c>
@@ -2150,10 +2150,10 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="72">
         <v>1969</v>
       </c>
-      <c r="D24" s="69"/>
+      <c r="D24" s="73"/>
       <c r="G24" s="10"/>
       <c r="H24" s="8" t="s">
         <v>206</v>
@@ -2177,8 +2177,8 @@
     </row>
     <row r="25" spans="2:24">
       <c r="B25" s="10"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
       <c r="G25" s="10"/>
       <c r="H25" s="50" t="s">
         <v>207</v>
@@ -2204,11 +2204,11 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="78">
         <f>'Financial Model'!T66</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="67"/>
+      <c r="D26" s="79"/>
       <c r="G26" s="10"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
@@ -2230,8 +2230,8 @@
     </row>
     <row r="27" spans="2:24">
       <c r="B27" s="10"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
       <c r="G27" s="9">
         <v>43922</v>
       </c>
@@ -2352,11 +2352,11 @@
       <c r="X31" s="38"/>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
       <c r="G32" s="9">
         <v>43770</v>
       </c>
@@ -2438,11 +2438,11 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="70">
         <f>C6/'Financial Model'!AB26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="73"/>
+      <c r="D35" s="71"/>
       <c r="G35" s="10"/>
       <c r="H35" s="60"/>
       <c r="I35" s="37"/>
@@ -2489,12 +2489,12 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
-      <c r="U37" s="63" t="s">
+      <c r="U37" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="65"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="69"/>
     </row>
     <row r="38" spans="2:24">
       <c r="G38" s="10"/>
@@ -2632,13 +2632,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B5:D5"/>
@@ -2652,6 +2645,13 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
@@ -2675,10 +2675,10 @@
   <dimension ref="B1:AL137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AB55" sqref="Z55:AB55"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2877,6 +2877,9 @@
       <c r="L3" s="23">
         <v>44048</v>
       </c>
+      <c r="M3" s="23">
+        <v>44140</v>
+      </c>
       <c r="O3" s="23">
         <v>44315</v>
       </c>
@@ -4709,11 +4712,11 @@
         <f t="shared" si="17"/>
         <v>-9.8717381689517936E-2</v>
       </c>
-      <c r="Y30" s="78" t="s">
+      <c r="Y30" s="63" t="s">
         <v>191</v>
       </c>
       <c r="Z30" s="34">
-        <f t="shared" ref="Z30:AB30" si="18">Z9/Y9-1</f>
+        <f t="shared" ref="Z30:AA30" si="18">Z9/Y9-1</f>
         <v>7.7202184930291295E-2</v>
       </c>
       <c r="AA30" s="34">
@@ -4729,7 +4732,7 @@
       <c r="B31" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="63" t="s">
         <v>191</v>
       </c>
       <c r="F31" s="25">
@@ -4792,16 +4795,16 @@
         <f>T9/S9-1</f>
         <v>0.69562323181893837</v>
       </c>
-      <c r="Y31" s="78" t="s">
+      <c r="Y31" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="Z31" s="78" t="s">
+      <c r="Z31" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="AA31" s="78" t="s">
+      <c r="AA31" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="AB31" s="78" t="s">
+      <c r="AB31" s="63" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4818,7 +4821,7 @@
         <v>0.18873458121280079</v>
       </c>
       <c r="F34" s="25">
-        <f t="shared" ref="F34:G34" si="31">F11/F9</f>
+        <f t="shared" ref="F34" si="31">F11/F9</f>
         <v>0.15398209236569266</v>
       </c>
       <c r="G34" s="25">
@@ -4878,7 +4881,7 @@
         <v>0.2289724212385906</v>
       </c>
       <c r="Y34" s="25">
-        <f t="shared" ref="Y34:AA34" si="38">Y11/Y9</f>
+        <f t="shared" ref="Y34:Z34" si="38">Y11/Y9</f>
         <v>0.15144643174064798</v>
       </c>
       <c r="Z34" s="25">
@@ -4907,7 +4910,7 @@
         <v>4.6838609505736171E-2</v>
       </c>
       <c r="F35" s="25">
-        <f t="shared" ref="F35:G35" si="41">F18/F9</f>
+        <f t="shared" ref="F35" si="41">F18/F9</f>
         <v>3.8878416588123597E-3</v>
       </c>
       <c r="G35" s="25">
@@ -4967,7 +4970,7 @@
         <v>6.5462753950338556E-2</v>
       </c>
       <c r="Y35" s="25">
-        <f t="shared" ref="Y35:AA35" si="48">Y18/Y9</f>
+        <f t="shared" ref="Y35:Z35" si="48">Y18/Y9</f>
         <v>6.9610143755792601E-3</v>
       </c>
       <c r="Z35" s="25">
@@ -4996,7 +4999,7 @@
         <v>-9.1434486327957032E-3</v>
       </c>
       <c r="F36" s="25">
-        <f t="shared" ref="F36:G36" si="51">F23/F9</f>
+        <f t="shared" ref="F36" si="51">F23/F9</f>
         <v>2.2384542884070799E-3</v>
       </c>
       <c r="G36" s="25">
@@ -5056,7 +5059,7 @@
         <v>7.2725488271665487E-2</v>
       </c>
       <c r="Y36" s="25">
-        <f t="shared" ref="Y36:AA36" si="58">Y23/Y9</f>
+        <f t="shared" ref="Y36:Z36" si="58">Y23/Y9</f>
         <v>-3.3759933742186117E-2</v>
       </c>
       <c r="Z36" s="25">
@@ -5085,7 +5088,7 @@
         <v>2.3417721518987515</v>
       </c>
       <c r="F37" s="25">
-        <f t="shared" ref="F37:G37" si="61">F22/F21</f>
+        <f t="shared" ref="F37" si="61">F22/F21</f>
         <v>1.255033557046968</v>
       </c>
       <c r="G37" s="25">
@@ -5145,7 +5148,7 @@
         <v>-0.49696969696969745</v>
       </c>
       <c r="Y37" s="25">
-        <f t="shared" ref="Y37:AA37" si="67">Y22/Y21</f>
+        <f t="shared" ref="Y37:Z37" si="67">Y22/Y21</f>
         <v>-0.25697503671071947</v>
       </c>
       <c r="Z37" s="25">
@@ -5336,7 +5339,7 @@
         <v>11</v>
       </c>
       <c r="Y42" s="40">
-        <f t="shared" ref="Y42:AA42" si="81">SUM(Y43:Y48)</f>
+        <f t="shared" ref="Y42:Z42" si="81">SUM(Y43:Y48)</f>
         <v>90</v>
       </c>
       <c r="Z42" s="40">
@@ -6094,161 +6097,176 @@
       <c r="B55" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C55" s="81" t="s">
+      <c r="C55" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="D55" s="81" t="s">
+      <c r="D55" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="E55" s="81" t="s">
+      <c r="E55" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="F55" s="81" t="s">
+      <c r="F55" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="G55" s="80">
+      <c r="G55" s="65">
         <f t="shared" ref="G55:S55" si="89">G41/C41-1</f>
         <v>-0.12</v>
       </c>
-      <c r="H55" s="80">
+      <c r="H55" s="65">
         <f t="shared" si="89"/>
         <v>6.25E-2</v>
       </c>
-      <c r="I55" s="80">
+      <c r="I55" s="65">
         <f t="shared" si="89"/>
         <v>0.12820512820512819</v>
       </c>
-      <c r="J55" s="80">
+      <c r="J55" s="65">
         <f t="shared" si="89"/>
         <v>0.17391304347826098</v>
       </c>
-      <c r="K55" s="80">
+      <c r="K55" s="65">
         <f t="shared" si="89"/>
         <v>-0.36363636363636365</v>
       </c>
-      <c r="L55" s="80">
+      <c r="L55" s="65">
         <f t="shared" si="89"/>
         <v>-0.66666666666666674</v>
       </c>
-      <c r="M55" s="80">
+      <c r="M55" s="65">
         <f t="shared" si="89"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="N55" s="80">
+      <c r="N55" s="65">
         <f t="shared" si="89"/>
         <v>-0.12345679012345678</v>
       </c>
-      <c r="O55" s="80">
+      <c r="O55" s="65">
         <f t="shared" si="89"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="P55" s="80">
+      <c r="P55" s="65">
         <f t="shared" si="89"/>
         <v>1</v>
       </c>
-      <c r="Q55" s="80">
+      <c r="Q55" s="65">
         <f t="shared" si="89"/>
         <v>-0.375</v>
       </c>
-      <c r="R55" s="80">
+      <c r="R55" s="65">
         <f t="shared" si="89"/>
         <v>-0.22535211267605637</v>
       </c>
-      <c r="S55" s="80">
+      <c r="S55" s="65">
         <f t="shared" si="89"/>
         <v>0.18181818181818188</v>
       </c>
-      <c r="T55" s="80">
+      <c r="T55" s="65">
         <f>T41/P41-1</f>
         <v>-5.8823529411764719E-2</v>
       </c>
-      <c r="Z55" s="80">
-        <f t="shared" ref="Z55:AB55" si="90">Z9/Y9-1</f>
-        <v>7.7202184930291295E-2</v>
-      </c>
-      <c r="AA55" s="80">
+      <c r="Y55" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z55" s="65">
+        <f t="shared" ref="Z55:AB55" si="90">Z41/Y41-1</f>
+        <v>0.11235955056179781</v>
+      </c>
+      <c r="AA55" s="65">
         <f t="shared" si="90"/>
-        <v>-0.30965108190239088</v>
-      </c>
-      <c r="AB55" s="80">
-        <f>AB9/AA9-1</f>
-        <v>0.11299090451062033</v>
+        <v>-0.34343434343434343</v>
+      </c>
+      <c r="AB55" s="65">
+        <f>AB41/AA41-1</f>
+        <v>8.4615384615384537E-2</v>
       </c>
     </row>
     <row r="56" spans="2:28" s="39" customFormat="1">
       <c r="B56" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C56" s="81" t="s">
+      <c r="C56" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="D56" s="79">
+      <c r="D56" s="64">
         <f t="shared" ref="D56" si="91">D41/C41-1</f>
         <v>0.91999999999999993</v>
       </c>
-      <c r="E56" s="79">
+      <c r="E56" s="64">
         <f t="shared" ref="E56" si="92">E41/D41-1</f>
         <v>-0.1875</v>
       </c>
-      <c r="F56" s="79">
-        <f t="shared" ref="F56:T56" si="93">F41/E41-1</f>
+      <c r="F56" s="64">
+        <f t="shared" ref="F56:S56" si="93">F41/E41-1</f>
         <v>0.76923076923076916</v>
       </c>
-      <c r="G56" s="79">
+      <c r="G56" s="64">
         <f t="shared" si="93"/>
         <v>-0.6811594202898551</v>
       </c>
-      <c r="H56" s="79">
+      <c r="H56" s="64">
         <f t="shared" si="93"/>
         <v>1.3181818181818183</v>
       </c>
-      <c r="I56" s="79">
+      <c r="I56" s="64">
         <f t="shared" si="93"/>
         <v>-0.13725490196078427</v>
       </c>
-      <c r="J56" s="79">
+      <c r="J56" s="64">
         <f t="shared" si="93"/>
         <v>0.84090909090909083</v>
       </c>
-      <c r="K56" s="79">
+      <c r="K56" s="64">
         <f t="shared" si="93"/>
         <v>-0.8271604938271605</v>
       </c>
-      <c r="L56" s="79">
+      <c r="L56" s="64">
         <f t="shared" si="93"/>
         <v>0.21428571428571419</v>
       </c>
-      <c r="M56" s="79">
+      <c r="M56" s="64">
         <f t="shared" si="93"/>
         <v>1.8235294117647061</v>
       </c>
-      <c r="N56" s="79">
+      <c r="N56" s="64">
         <f t="shared" si="93"/>
         <v>0.47916666666666674</v>
       </c>
-      <c r="O56" s="79">
+      <c r="O56" s="64">
         <f t="shared" si="93"/>
         <v>-0.6901408450704225</v>
       </c>
-      <c r="P56" s="79">
+      <c r="P56" s="64">
         <f t="shared" si="93"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="Q56" s="79">
+      <c r="Q56" s="64">
         <f t="shared" si="93"/>
         <v>-0.11764705882352944</v>
       </c>
-      <c r="R56" s="79">
+      <c r="R56" s="64">
         <f t="shared" si="93"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="S56" s="79">
+      <c r="S56" s="64">
         <f t="shared" si="93"/>
         <v>-0.52727272727272734</v>
       </c>
-      <c r="T56" s="79">
+      <c r="T56" s="64">
         <f>T41/S41-1</f>
         <v>0.23076923076923084</v>
+      </c>
+      <c r="Y56" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z56" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA56" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB56" s="66" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="2:28">

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F0F54F-20ED-4A16-BA25-4397442B8E96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3258551-B508-4399-B4EC-03D4AC4BF04E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" activeTab="1" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
@@ -1216,6 +1216,16 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1225,16 +1235,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,28 +1271,6 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1574,215 +1574,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F0ED-4DAE-9383-B6CA67C32BB6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Financial Model'!$C$1:$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>Q118</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q218</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q318</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q418</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Q119</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Q219</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q319</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q419</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q120</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q220</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q320</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q420</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q121</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q221</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q321</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Q421</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Q122</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Q222</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Financial Model'!$C$1:$T$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F0ED-4DAE-9383-B6CA67C32BB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1982,6 +1773,2426 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Deliveries</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Model'!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deliveries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Model'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Model'!$C$43:$T$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-910E-42D2-98AE-6E9E7558FBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Model'!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Commercial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Model'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Model'!$C$44:$T$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-910E-42D2-98AE-6E9E7558FBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Model'!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Embraer 170</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Model'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Model'!$C$45:$T$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-910E-42D2-98AE-6E9E7558FBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Model'!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Embraer 175</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Model'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Model'!$C$46:$T$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-910E-42D2-98AE-6E9E7558FBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Model'!$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Embraer 190</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Model'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Model'!$C$47:$T$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-910E-42D2-98AE-6E9E7558FBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Model'!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Embraer 195</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Model'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Model'!$C$48:$T$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-910E-42D2-98AE-6E9E7558FBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Model'!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Embraer 190-E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Model'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Model'!$C$49:$T$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-910E-42D2-98AE-6E9E7558FBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Model'!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Embraer 195-E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Model'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Model'!$C$50:$T$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-910E-42D2-98AE-6E9E7558FBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Model'!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Executive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Model'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Model'!$C$52:$T$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-910E-42D2-98AE-6E9E7558FBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Model'!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Light Jets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Model'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Model'!$C$53:$T$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-910E-42D2-98AE-6E9E7558FBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Model'!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium Jets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Model'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Model'!$C$54:$T$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-910E-42D2-98AE-6E9E7558FBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Model'!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Large Jets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Model'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Model'!$C$55:$T$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-910E-42D2-98AE-6E9E7558FBE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1867229503"/>
+        <c:axId val="1865061199"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Financial Model'!$B$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:glow rad="139700">
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                        <a:satMod val="175000"/>
+                        <a:alpha val="14000"/>
+                      </a:schemeClr>
+                    </a:glow>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Financial Model'!$C$1:$T$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>Q118</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Q218</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Q318</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Q418</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Q119</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Q219</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Q319</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Q419</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Q120</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Q220</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Q320</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Q420</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Q121</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Q221</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Q321</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Q421</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Q122</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>Q222</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Financial Model'!$C$51:$T$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="18"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-910E-42D2-98AE-6E9E7558FBE8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1867229503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1865061199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1865061199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1867229503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2022,7 +4233,596 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2747,15 +5547,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>437205</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>361005</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2777,6 +5577,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>561969</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469B1363-D592-4AEB-ABD4-61C23E9D3B35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3105,35 +5943,35 @@
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
-      <c r="G5" s="70" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="G5" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="72"/>
-      <c r="U5" s="70" t="s">
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="78"/>
+      <c r="U5" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="72"/>
-      <c r="AA5" s="85" t="s">
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="78"/>
+      <c r="AA5" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="AB5" s="86"/>
+      <c r="AB5" s="75"/>
     </row>
     <row r="6" spans="1:28">
       <c r="B6" s="4" t="s">
@@ -3165,7 +6003,7 @@
       <c r="V6" s="37"/>
       <c r="W6" s="37"/>
       <c r="X6" s="38"/>
-      <c r="AA6" s="87" t="s">
+      <c r="AA6" s="70" t="s">
         <v>217</v>
       </c>
       <c r="AB6" s="38"/>
@@ -3201,7 +6039,7 @@
       <c r="V7" s="37"/>
       <c r="W7" s="37"/>
       <c r="X7" s="38"/>
-      <c r="AA7" s="87" t="s">
+      <c r="AA7" s="70" t="s">
         <v>218</v>
       </c>
       <c r="AB7" s="38"/>
@@ -3235,7 +6073,7 @@
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
       <c r="X8" s="38"/>
-      <c r="AA8" s="88" t="s">
+      <c r="AA8" s="71" t="s">
         <v>219</v>
       </c>
       <c r="AB8" s="36"/>
@@ -3410,11 +6248,11 @@
       <c r="X14" s="38"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
       <c r="G15" s="10"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -3441,10 +6279,10 @@
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="76"/>
+      <c r="D16" s="82"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -3468,10 +6306,10 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="76"/>
+      <c r="D17" s="82"/>
       <c r="G17" s="9">
         <v>44805</v>
       </c>
@@ -3495,8 +6333,8 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="16"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8" t="s">
         <v>201</v>
@@ -3588,11 +6426,11 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
       <c r="G22" s="10"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
@@ -3616,10 +6454,10 @@
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="76"/>
+      <c r="D23" s="82"/>
       <c r="G23" s="9">
         <v>44743</v>
       </c>
@@ -3645,10 +6483,10 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="81">
         <v>1969</v>
       </c>
-      <c r="D24" s="76"/>
+      <c r="D24" s="82"/>
       <c r="G24" s="10"/>
       <c r="H24" s="8" t="s">
         <v>206</v>
@@ -3672,8 +6510,8 @@
     </row>
     <row r="25" spans="2:24">
       <c r="B25" s="10"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
       <c r="G25" s="10"/>
       <c r="H25" s="50" t="s">
         <v>207</v>
@@ -3699,11 +6537,11 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="79">
         <f>'Financial Model'!T68</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="82"/>
+      <c r="D26" s="80"/>
       <c r="G26" s="10"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
@@ -3725,8 +6563,8 @@
     </row>
     <row r="27" spans="2:24">
       <c r="B27" s="10"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
       <c r="G27" s="9">
         <v>43922</v>
       </c>
@@ -3785,10 +6623,10 @@
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="78"/>
+      <c r="D29" s="88"/>
       <c r="G29" s="10"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
@@ -3847,11 +6685,11 @@
       <c r="X31" s="38"/>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
       <c r="G32" s="9">
         <v>43770</v>
       </c>
@@ -3879,11 +6717,11 @@
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="79">
+      <c r="C33" s="89">
         <f>C6/'Financial Model'!T122</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="80"/>
+      <c r="D33" s="90"/>
       <c r="G33" s="10"/>
       <c r="H33" s="50" t="s">
         <v>168</v>
@@ -3907,11 +6745,11 @@
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="79">
+      <c r="C34" s="89">
         <f>C6/'Financial Model'!AB9</f>
         <v>2.2515010006671113E-3</v>
       </c>
-      <c r="D34" s="80"/>
+      <c r="D34" s="90"/>
       <c r="G34" s="10"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
@@ -3933,11 +6771,11 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="73">
+      <c r="C35" s="85">
         <f>C6/'Financial Model'!AB26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="74"/>
+      <c r="D35" s="86"/>
       <c r="G35" s="10"/>
       <c r="H35" s="60"/>
       <c r="I35" s="37"/>
@@ -3984,12 +6822,12 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
-      <c r="U37" s="70" t="s">
+      <c r="U37" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="72"/>
+      <c r="V37" s="77"/>
+      <c r="W37" s="77"/>
+      <c r="X37" s="78"/>
     </row>
     <row r="38" spans="2:24">
       <c r="G38" s="10"/>
@@ -4127,6 +6965,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="C26:D26"/>
@@ -4141,13 +6986,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
@@ -4171,10 +7009,10 @@
   <dimension ref="B1:AL141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C131" sqref="C131:F131"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12060,7 +14898,7 @@
         <v>120</v>
       </c>
       <c r="C119" s="27">
-        <f t="shared" ref="C119:E119" si="119">C118+C116</f>
+        <f t="shared" ref="C119:D119" si="119">C118+C116</f>
         <v>11995.1</v>
       </c>
       <c r="D119" s="27">
@@ -12076,7 +14914,7 @@
         <v>11293.3</v>
       </c>
       <c r="G119" s="27">
-        <f t="shared" ref="G119:H119" si="121">G118+G116</f>
+        <f t="shared" ref="G119" si="121">G118+G116</f>
         <v>11185.5</v>
       </c>
       <c r="H119" s="27">
@@ -12160,7 +14998,7 @@
         <v>121</v>
       </c>
       <c r="C121" s="27">
-        <f t="shared" ref="C121:E121" si="123">C87-C116</f>
+        <f t="shared" ref="C121:D121" si="123">C87-C116</f>
         <v>4183.8999999999978</v>
       </c>
       <c r="D121" s="27">
@@ -12168,7 +15006,7 @@
         <v>3990.0999999999985</v>
       </c>
       <c r="E121" s="27">
-        <f t="shared" ref="E121:F121" si="124">E87-E116</f>
+        <f t="shared" ref="E121" si="124">E87-E116</f>
         <v>3969.7000000000007</v>
       </c>
       <c r="F121" s="27">
@@ -12249,7 +15087,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="3">
-        <f t="shared" ref="C122:E122" si="133">C121/C27</f>
+        <f t="shared" ref="C122:D122" si="133">C121/C27</f>
         <v>5.705577526251191</v>
       </c>
       <c r="D122" s="3">
@@ -12257,7 +15095,7 @@
         <v>5.4398091342876596</v>
       </c>
       <c r="E122" s="3">
-        <f t="shared" ref="E122:F122" si="134">E121/E27</f>
+        <f t="shared" ref="E122" si="134">E121/E27</f>
         <v>5.4097846824747897</v>
       </c>
       <c r="F122" s="3">
@@ -12344,7 +15182,7 @@
         <v>6</v>
       </c>
       <c r="C124" s="52">
-        <f t="shared" ref="C124:E124" si="143">C61+C62+C74+C76</f>
+        <f t="shared" ref="C124:D124" si="143">C61+C62+C74+C76</f>
         <v>3435.7999999999997</v>
       </c>
       <c r="D124" s="52">
@@ -12352,7 +15190,7 @@
         <v>3346.5</v>
       </c>
       <c r="E124" s="52">
-        <f t="shared" ref="E124:F124" si="144">E61+E62+E74+E76</f>
+        <f t="shared" ref="E124" si="144">E61+E62+E74+E76</f>
         <v>3147.6</v>
       </c>
       <c r="F124" s="52">
@@ -12433,7 +15271,7 @@
         <v>7</v>
       </c>
       <c r="C125" s="52">
-        <f t="shared" ref="C125:E125" si="154">C92+C96+C106+C93+C107</f>
+        <f t="shared" ref="C125:D125" si="154">C92+C96+C106+C93+C107</f>
         <v>4559.1000000000004</v>
       </c>
       <c r="D125" s="52">
@@ -12441,7 +15279,7 @@
         <v>4452.8</v>
       </c>
       <c r="E125" s="52">
-        <f t="shared" ref="E125:F125" si="155">E92+E96+E106+E93+E107</f>
+        <f t="shared" ref="E125" si="155">E92+E96+E106+E93+E107</f>
         <v>4399.8</v>
       </c>
       <c r="F125" s="52">
@@ -12505,7 +15343,7 @@
         <v>3173.8999999999996</v>
       </c>
       <c r="Z125" s="52">
-        <f t="shared" ref="Z125:AA125" si="162">Z92+Z96+Z106+Z93+Z107</f>
+        <f t="shared" ref="Z125" si="162">Z92+Z96+Z106+Z93+Z107</f>
         <v>3414.4</v>
       </c>
       <c r="AA125" s="52">
@@ -12522,7 +15360,7 @@
         <v>8</v>
       </c>
       <c r="C126" s="27">
-        <f t="shared" ref="C126:E126" si="164">C124-C125</f>
+        <f t="shared" ref="C126:D126" si="164">C124-C125</f>
         <v>-1123.3000000000006</v>
       </c>
       <c r="D126" s="27">
@@ -12530,7 +15368,7 @@
         <v>-1106.3000000000002</v>
       </c>
       <c r="E126" s="27">
-        <f t="shared" ref="E126:F126" si="165">E124-E125</f>
+        <f t="shared" ref="E126" si="165">E124-E125</f>
         <v>-1252.2000000000003</v>
       </c>
       <c r="F126" s="27">
@@ -12679,7 +15517,7 @@
         <v>3.36501079913607E-2</v>
       </c>
       <c r="AA128" s="34">
-        <f t="shared" ref="AA128:AB128" si="182">AA68/Z68-1</f>
+        <f t="shared" ref="AA128" si="182">AA68/Z68-1</f>
         <v>2.2609060402684511E-2</v>
       </c>
       <c r="AB128" s="34">
@@ -12861,19 +15699,19 @@
       <c r="B133" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C133" s="90">
+      <c r="C133" s="73">
         <v>26</v>
       </c>
-      <c r="D133" s="90">
+      <c r="D133" s="73">
         <v>24.9</v>
       </c>
-      <c r="E133" s="90">
+      <c r="E133" s="73">
         <v>19.59</v>
       </c>
-      <c r="F133" s="90">
+      <c r="F133" s="73">
         <v>22.13</v>
       </c>
-      <c r="G133" s="90">
+      <c r="G133" s="73">
         <v>19.010000000000002</v>
       </c>
       <c r="H133" s="3">
@@ -12933,7 +15771,7 @@
         <v>179</v>
       </c>
       <c r="C134" s="27">
-        <f t="shared" ref="C134:H134" si="203">C133*C27</f>
+        <f t="shared" ref="C134:G134" si="203">C133*C27</f>
         <v>19065.8</v>
       </c>
       <c r="D134" s="27">
@@ -13022,7 +15860,7 @@
         <v>9</v>
       </c>
       <c r="C135" s="27">
-        <f t="shared" ref="C135:H135" si="209">C134-C126</f>
+        <f t="shared" ref="C135:G135" si="209">C134-C126</f>
         <v>20189.099999999999</v>
       </c>
       <c r="D135" s="27">
@@ -13111,7 +15949,7 @@
         <v>26</v>
       </c>
       <c r="C137" s="57">
-        <f t="shared" ref="C137:H137" si="215">C133/C122</f>
+        <f t="shared" ref="C137:G137" si="215">C133/C122</f>
         <v>4.5569444776404806</v>
       </c>
       <c r="D137" s="57">
@@ -13183,7 +16021,7 @@
         <v>2.2452006822849584</v>
       </c>
       <c r="Z137" s="57">
-        <f t="shared" ref="Z137:AA137" si="219">Z133/Z122</f>
+        <f t="shared" ref="Z137" si="219">Z133/Z122</f>
         <v>3.9679884357881914</v>
       </c>
       <c r="AA137" s="57">
@@ -13351,7 +16189,7 @@
         <v>-16621.554193892349</v>
       </c>
       <c r="Z139" s="57">
-        <f t="shared" ref="Z139:AA139" si="239">Z133/Z26</f>
+        <f t="shared" ref="Z139" si="239">Z133/Z26</f>
         <v>-44.501058020477807</v>
       </c>
       <c r="AA139" s="57">
@@ -13371,7 +16209,7 @@
         <v>191</v>
       </c>
       <c r="D141" s="25">
-        <f t="shared" ref="D141:T141" si="240">D15:D15/D9</f>
+        <f t="shared" ref="D141:S141" si="240">D15:D15/D9</f>
         <v>8.0382013529645847E-3</v>
       </c>
       <c r="E141" s="25">
@@ -13485,13 +16323,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1F7BB5-1110-4DCF-A4D2-2BD3A135983C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="89"/>
+    <col min="1" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3258551-B508-4399-B4EC-03D4AC4BF04E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09753C38-A2FE-43AB-B1CD-D9C4786D7195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" activeTab="1" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
@@ -830,11 +830,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0\x"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0000\x"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1067,7 +1068,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1220,12 +1221,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1235,28 +1230,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1271,6 +1254,25 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5923,7 +5925,7 @@
   <dimension ref="A2:AB44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5943,35 +5945,35 @@
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="G5" s="76" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="G5" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="78"/>
-      <c r="U5" s="76" t="s">
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="76"/>
+      <c r="U5" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="78"/>
-      <c r="AA5" s="74" t="s">
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="76"/>
+      <c r="AA5" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="AB5" s="75"/>
+      <c r="AB5" s="86"/>
     </row>
     <row r="6" spans="1:28">
       <c r="B6" s="4" t="s">
@@ -6248,11 +6250,11 @@
       <c r="X14" s="38"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
       <c r="G15" s="10"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -6279,10 +6281,10 @@
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="80"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -6306,10 +6308,10 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="80"/>
       <c r="G17" s="9">
         <v>44805</v>
       </c>
@@ -6333,8 +6335,8 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="16"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8" t="s">
         <v>201</v>
@@ -6358,8 +6360,8 @@
     </row>
     <row r="19" spans="2:24">
       <c r="B19" s="17"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
       <c r="G19" s="10"/>
       <c r="H19" s="8" t="s">
         <v>202</v>
@@ -6426,11 +6428,11 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
       <c r="G22" s="10"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
@@ -6454,10 +6456,10 @@
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="80"/>
       <c r="G23" s="9">
         <v>44743</v>
       </c>
@@ -6483,10 +6485,10 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="79">
         <v>1969</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="80"/>
       <c r="G24" s="10"/>
       <c r="H24" s="8" t="s">
         <v>206</v>
@@ -6510,8 +6512,8 @@
     </row>
     <row r="25" spans="2:24">
       <c r="B25" s="10"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
       <c r="G25" s="10"/>
       <c r="H25" s="50" t="s">
         <v>207</v>
@@ -6537,11 +6539,11 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="87">
         <f>'Financial Model'!T68</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="80"/>
+      <c r="D26" s="88"/>
       <c r="G26" s="10"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
@@ -6563,8 +6565,8 @@
     </row>
     <row r="27" spans="2:24">
       <c r="B27" s="10"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="G27" s="9">
         <v>43922</v>
       </c>
@@ -6623,10 +6625,10 @@
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="88"/>
+      <c r="D29" s="82"/>
       <c r="G29" s="10"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
@@ -6685,11 +6687,11 @@
       <c r="X31" s="38"/>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
       <c r="G32" s="9">
         <v>43770</v>
       </c>
@@ -6717,11 +6719,11 @@
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="89">
+      <c r="C33" s="83">
         <f>C6/'Financial Model'!T122</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="90"/>
+      <c r="D33" s="84"/>
       <c r="G33" s="10"/>
       <c r="H33" s="50" t="s">
         <v>168</v>
@@ -6745,11 +6747,11 @@
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="89">
+      <c r="C34" s="83">
         <f>C6/'Financial Model'!AB9</f>
         <v>2.2515010006671113E-3</v>
       </c>
-      <c r="D34" s="90"/>
+      <c r="D34" s="84"/>
       <c r="G34" s="10"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
@@ -6771,11 +6773,11 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="85">
+      <c r="C35" s="77">
         <f>C6/'Financial Model'!AB26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="86"/>
+      <c r="D35" s="78"/>
       <c r="G35" s="10"/>
       <c r="H35" s="60"/>
       <c r="I35" s="37"/>
@@ -6822,12 +6824,12 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
-      <c r="U37" s="76" t="s">
+      <c r="U37" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="V37" s="77"/>
-      <c r="W37" s="77"/>
-      <c r="X37" s="78"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="76"/>
     </row>
     <row r="38" spans="2:24">
       <c r="G38" s="10"/>
@@ -6965,13 +6967,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="C26:D26"/>
@@ -6986,6 +6981,13 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
@@ -7009,10 +7011,10 @@
   <dimension ref="B1:AL141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="L129" sqref="L129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16052,55 +16054,55 @@
       <c r="G138" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="H138" s="57">
+      <c r="H138" s="91">
         <f t="shared" ref="H138" si="220">H133/SUM(E9:H9)</f>
         <v>3.9969163256834486E-3</v>
       </c>
-      <c r="I138" s="57">
+      <c r="I138" s="91">
         <f t="shared" ref="I138" si="221">I133/SUM(F9:I9)</f>
         <v>3.3988808322824725E-3</v>
       </c>
-      <c r="J138" s="57">
+      <c r="J138" s="91">
         <f t="shared" ref="J138" si="222">J133/SUM(G9:J9)</f>
         <v>3.5678980705158708E-3</v>
       </c>
-      <c r="K138" s="57">
+      <c r="K138" s="91">
         <f t="shared" ref="K138" si="223">K133/SUM(H9:K9)</f>
         <v>1.3692135555934837E-3</v>
       </c>
-      <c r="L138" s="57">
+      <c r="L138" s="91">
         <f t="shared" ref="L138" si="224">L133/SUM(I9:L9)</f>
         <v>1.3493997653217802E-3</v>
       </c>
-      <c r="M138" s="57">
+      <c r="M138" s="91">
         <f t="shared" ref="M138" si="225">M133/SUM(J9:M9)</f>
         <v>1.0984631479313523E-3</v>
       </c>
-      <c r="N138" s="57">
+      <c r="N138" s="91">
         <f t="shared" ref="N138" si="226">N133/SUM(K9:N9)</f>
         <v>1.8058391450770329E-3</v>
       </c>
-      <c r="O138" s="57">
+      <c r="O138" s="91">
         <f t="shared" ref="O138" si="227">O133/SUM(L9:O9)</f>
         <v>2.5249708462201492E-3</v>
       </c>
-      <c r="P138" s="57">
+      <c r="P138" s="91">
         <f t="shared" ref="P138:S138" si="228">P133/SUM(M9:P9)</f>
         <v>3.3363450053989726E-3</v>
       </c>
-      <c r="Q138" s="57">
+      <c r="Q138" s="91">
         <f t="shared" si="228"/>
         <v>3.5885419964958943E-3</v>
       </c>
-      <c r="R138" s="57">
+      <c r="R138" s="91">
         <f t="shared" si="228"/>
         <v>3.3117316306108839E-3</v>
       </c>
-      <c r="S138" s="57">
+      <c r="S138" s="91">
         <f t="shared" si="228"/>
         <v>3.1597674651698908E-3</v>
       </c>
-      <c r="T138" s="57">
+      <c r="T138" s="91">
         <f>T133/SUM(Q9:T9)</f>
         <v>2.2633532687151986E-3</v>
       </c>
@@ -16324,7 +16326,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09753C38-A2FE-43AB-B1CD-D9C4786D7195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3735B4BD-28AD-C941-B05F-4910276F46B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10500" activeTab="1" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="3" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -122,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="217">
   <si>
     <t>$ERJ</t>
   </si>
@@ -697,9 +707,6 @@
     <t>Others</t>
   </si>
   <si>
-    <t>https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/0552e176-6b29-4f1c-820c-8020af5b31eb?origin=1</t>
-  </si>
-  <si>
     <t>Share Price</t>
   </si>
   <si>
@@ -709,12 +716,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/6180d10a-38ab-421f-9f8b-22fbb0bcd380?origin=1</t>
-  </si>
-  <si>
     <t>Embraer 190-E2</t>
   </si>
   <si>
@@ -730,12 +731,6 @@
     <t>Financial Guarantee &amp; Residual</t>
   </si>
   <si>
-    <t>Q4 21</t>
-  </si>
-  <si>
-    <t>https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/282b37b7-69b6-46c3-86f1-3d03bb11cc0e?origin=1</t>
-  </si>
-  <si>
     <t>Embraer 190</t>
   </si>
   <si>
@@ -745,12 +740,6 @@
     <t>Embraer confident with a deal offered to Croatia airlines to replace all existing 6 Dash-8 &amp; 7 A320 aircraft with E2 jet</t>
   </si>
   <si>
-    <t>Q2 20</t>
-  </si>
-  <si>
-    <t>https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/1083816a-dedc-4569-947a-0418e30ccac3?origin=1</t>
-  </si>
-  <si>
     <t>Embraer 195</t>
   </si>
   <si>
@@ -760,12 +749,6 @@
     <t>Recourse &amp; Non-Recourse Debt</t>
   </si>
   <si>
-    <t>Q1 21</t>
-  </si>
-  <si>
-    <t>https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/a30b7884-cd47-4bdd-bad3-db5809146933?origin=1</t>
-  </si>
-  <si>
     <t>"This may result in a steady flow of contracts from the Pentagon involving the upgraded KC-390"</t>
   </si>
   <si>
@@ -796,12 +779,6 @@
     <t>turboprops</t>
   </si>
   <si>
-    <t>Q3 19</t>
-  </si>
-  <si>
-    <t>https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/8307c88a-cbb3-4e54-9db4-f192e081992a?origin=1</t>
-  </si>
-  <si>
     <t>Embraer 170</t>
   </si>
   <si>
@@ -824,6 +801,30 @@
   </si>
   <si>
     <t>Prev FY data entry</t>
+  </si>
+  <si>
+    <t>FY17</t>
+  </si>
+  <si>
+    <t>Firm Orders</t>
+  </si>
+  <si>
+    <t>Firm Order Backlog</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>Firm Orders Y/Y</t>
+  </si>
+  <si>
+    <t>Firm Orders Q/Q</t>
+  </si>
+  <si>
+    <t>Firm Order Backlog Y/Y</t>
+  </si>
+  <si>
+    <t>Firm Order Backlog Q/Q</t>
   </si>
 </sst>
 </file>
@@ -835,9 +836,9 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0\x"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0000\x"/>
+    <numFmt numFmtId="168" formatCode="0.0000\x"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,6 +942,42 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1068,7 +1105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1221,6 +1258,13 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1230,16 +1274,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,25 +1310,20 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1300,7 +1351,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1778,7 +1829,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5925,12 +5976,12 @@
   <dimension ref="A2:AB44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="15">
@@ -5945,35 +5996,35 @@
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="G5" s="74" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="G5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="76"/>
-      <c r="U5" s="74" t="s">
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="79"/>
+      <c r="U5" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="76"/>
-      <c r="AA5" s="85" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB5" s="86"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="79"/>
+      <c r="AA5" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB5" s="76"/>
     </row>
     <row r="6" spans="1:28">
       <c r="B6" s="4" t="s">
@@ -6006,7 +6057,7 @@
       <c r="W6" s="37"/>
       <c r="X6" s="38"/>
       <c r="AA6" s="70" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AB6" s="38"/>
     </row>
@@ -6042,7 +6093,7 @@
       <c r="W7" s="37"/>
       <c r="X7" s="38"/>
       <c r="AA7" s="70" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="AB7" s="38"/>
     </row>
@@ -6076,7 +6127,7 @@
       <c r="W8" s="37"/>
       <c r="X8" s="38"/>
       <c r="AA8" s="71" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="AB8" s="36"/>
     </row>
@@ -6230,7 +6281,7 @@
         <v>44805</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
@@ -6250,11 +6301,11 @@
       <c r="X14" s="38"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
       <c r="G15" s="10"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -6281,10 +6332,10 @@
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="80"/>
+      <c r="D16" s="83"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -6308,15 +6359,15 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="80"/>
+      <c r="D17" s="83"/>
       <c r="G17" s="9">
         <v>44805</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I17" s="60"/>
       <c r="J17" s="60"/>
@@ -6335,11 +6386,11 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="16"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I18" s="60"/>
       <c r="J18" s="60"/>
@@ -6360,11 +6411,11 @@
     </row>
     <row r="19" spans="2:24">
       <c r="B19" s="17"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
       <c r="G19" s="10"/>
       <c r="H19" s="8" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I19" s="60"/>
       <c r="J19" s="60"/>
@@ -6386,7 +6437,7 @@
     <row r="20" spans="2:24">
       <c r="G20" s="10"/>
       <c r="H20" s="8" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I20" s="60"/>
       <c r="J20" s="60"/>
@@ -6398,7 +6449,7 @@
       <c r="P20" s="60"/>
       <c r="Q20" s="60"/>
       <c r="R20" s="51" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="U20" s="45" t="s">
         <v>141</v>
@@ -6428,11 +6479,11 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
       <c r="G22" s="10"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
@@ -6456,15 +6507,15 @@
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="80"/>
+      <c r="D23" s="83"/>
       <c r="G23" s="9">
         <v>44743</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="I23" s="60"/>
       <c r="J23" s="60"/>
@@ -6485,13 +6536,13 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="79">
+      <c r="C24" s="82">
         <v>1969</v>
       </c>
-      <c r="D24" s="80"/>
+      <c r="D24" s="83"/>
       <c r="G24" s="10"/>
       <c r="H24" s="8" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I24" s="60"/>
       <c r="J24" s="60"/>
@@ -6512,11 +6563,11 @@
     </row>
     <row r="25" spans="2:24">
       <c r="B25" s="10"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
       <c r="G25" s="10"/>
       <c r="H25" s="50" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I25" s="60"/>
       <c r="J25" s="60"/>
@@ -6539,11 +6590,11 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="87">
+      <c r="C26" s="80">
         <f>'Financial Model'!T68</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="88"/>
+      <c r="D26" s="81"/>
       <c r="G26" s="10"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
@@ -6565,8 +6616,8 @@
     </row>
     <row r="27" spans="2:24">
       <c r="B27" s="10"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
       <c r="G27" s="9">
         <v>43922</v>
       </c>
@@ -6625,10 +6676,10 @@
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="82"/>
+      <c r="D29" s="89"/>
       <c r="G29" s="10"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
@@ -6687,11 +6738,11 @@
       <c r="X31" s="38"/>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
       <c r="G32" s="9">
         <v>43770</v>
       </c>
@@ -6719,11 +6770,11 @@
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="83">
+      <c r="C33" s="90">
         <f>C6/'Financial Model'!T122</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="84"/>
+      <c r="D33" s="91"/>
       <c r="G33" s="10"/>
       <c r="H33" s="50" t="s">
         <v>168</v>
@@ -6747,11 +6798,11 @@
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="83">
+      <c r="C34" s="90">
         <f>C6/'Financial Model'!AB9</f>
         <v>2.2515010006671113E-3</v>
       </c>
-      <c r="D34" s="84"/>
+      <c r="D34" s="91"/>
       <c r="G34" s="10"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
@@ -6773,11 +6824,11 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="77">
+      <c r="C35" s="86">
         <f>C6/'Financial Model'!AB26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="78"/>
+      <c r="D35" s="87"/>
       <c r="G35" s="10"/>
       <c r="H35" s="60"/>
       <c r="I35" s="37"/>
@@ -6789,7 +6840,7 @@
       <c r="O35" s="37"/>
       <c r="P35" s="37"/>
       <c r="Q35" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R35" s="38"/>
     </row>
@@ -6824,12 +6875,12 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
-      <c r="U37" s="74" t="s">
+      <c r="U37" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="V37" s="75"/>
-      <c r="W37" s="75"/>
-      <c r="X37" s="76"/>
+      <c r="V37" s="78"/>
+      <c r="W37" s="78"/>
+      <c r="X37" s="79"/>
     </row>
     <row r="38" spans="2:24">
       <c r="G38" s="10"/>
@@ -6929,7 +6980,7 @@
       <c r="Q42" s="37"/>
       <c r="R42" s="38"/>
       <c r="U42" s="61" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="V42" s="60"/>
       <c r="W42" s="60"/>
@@ -6951,7 +7002,7 @@
       <c r="Q43" s="35"/>
       <c r="R43" s="36"/>
       <c r="U43" s="61" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="V43" s="60"/>
       <c r="W43" s="60"/>
@@ -6967,6 +7018,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="C26:D26"/>
@@ -6981,13 +7039,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
@@ -7010,20 +7061,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D70B2A-3077-4926-AE7B-39AF91889CD9}">
   <dimension ref="B1:AL141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C106" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L129" sqref="L129"/>
+      <selection pane="bottomRight" activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="9.140625" style="3"/>
-    <col min="20" max="20" width="9.140625" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="30.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="9.1640625" style="3"/>
+    <col min="20" max="20" width="9.1640625" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:38" s="15" customFormat="1">
@@ -7090,6 +7141,9 @@
       <c r="V1" s="15" t="s">
         <v>76</v>
       </c>
+      <c r="X1" s="15" t="s">
+        <v>209</v>
+      </c>
       <c r="Y1" s="15" t="s">
         <v>77</v>
       </c>
@@ -9073,16 +9127,16 @@
         <v>66</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" ref="G30:H30" si="15">G9/C9-1</f>
@@ -9141,7 +9195,7 @@
         <v>-9.8717381689517936E-2</v>
       </c>
       <c r="Y30" s="63" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Z30" s="34">
         <f t="shared" ref="Z30:AA30" si="18">Z9/Y9-1</f>
@@ -9161,7 +9215,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D31" s="25">
         <f t="shared" ref="D31" si="19">D9/C9-1</f>
@@ -9232,16 +9286,16 @@
         <v>0.69562323181893837</v>
       </c>
       <c r="Y31" s="63" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Z31" s="63" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AA31" s="63" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AB31" s="63" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="2:28" s="64" customFormat="1">
@@ -9249,7 +9303,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D32" s="64">
         <f t="shared" ref="D32" si="31">D15/C15-1</f>
@@ -9909,7 +9963,7 @@
     </row>
     <row r="45" spans="2:28" s="39" customFormat="1">
       <c r="B45" s="48" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C45" s="39">
         <v>0</v>
@@ -10051,7 +10105,7 @@
     </row>
     <row r="47" spans="2:28" s="39" customFormat="1">
       <c r="B47" s="48" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C47" s="39">
         <v>3</v>
@@ -10122,7 +10176,7 @@
     </row>
     <row r="48" spans="2:28" s="39" customFormat="1">
       <c r="B48" s="48" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C48" s="39">
         <v>0</v>
@@ -10193,7 +10247,7 @@
     </row>
     <row r="49" spans="2:28" s="39" customFormat="1">
       <c r="B49" s="48" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C49" s="39">
         <v>0</v>
@@ -10573,7 +10627,7 @@
     </row>
     <row r="55" spans="2:28" s="39" customFormat="1">
       <c r="B55" s="48" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C55" s="39">
         <v>3</v>
@@ -10647,19 +10701,19 @@
     </row>
     <row r="57" spans="2:28" s="40" customFormat="1">
       <c r="B57" s="29" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D57" s="66" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E57" s="66" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F57" s="66" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G57" s="65">
         <f t="shared" ref="G57:S57" si="95">G43/C43-1</f>
@@ -10718,7 +10772,7 @@
         <v>-5.8823529411764719E-2</v>
       </c>
       <c r="Y57" s="66" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Z57" s="65">
         <f t="shared" ref="Z57:AA57" si="96">Z43/Y43-1</f>
@@ -10735,10 +10789,10 @@
     </row>
     <row r="58" spans="2:28" s="39" customFormat="1">
       <c r="B58" s="30" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D58" s="64">
         <f t="shared" ref="D58" si="97">D43/C43-1</f>
@@ -10809,16 +10863,16 @@
         <v>0.23076923076923084</v>
       </c>
       <c r="Y58" s="66" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Z58" s="66" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AA58" s="66" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AB58" s="66" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="2:28">
@@ -11183,7 +11237,7 @@
     </row>
     <row r="66" spans="2:28">
       <c r="B66" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C66" s="27">
         <v>195.2</v>
@@ -11467,7 +11521,7 @@
     </row>
     <row r="70" spans="2:28">
       <c r="B70" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C70" s="27">
         <v>0</v>
@@ -11982,7 +12036,7 @@
     </row>
     <row r="77" spans="2:28">
       <c r="B77" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C77" s="27">
         <v>88.6</v>
@@ -12053,7 +12107,7 @@
     </row>
     <row r="78" spans="2:28">
       <c r="B78" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C78" s="27">
         <v>396.9</v>
@@ -13075,7 +13129,7 @@
     </row>
     <row r="93" spans="2:28" s="2" customFormat="1">
       <c r="B93" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C93" s="26">
         <v>21.7</v>
@@ -13501,7 +13555,7 @@
     </row>
     <row r="99" spans="2:28">
       <c r="B99" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C99" s="27">
         <v>35.9</v>
@@ -13714,7 +13768,7 @@
     </row>
     <row r="102" spans="2:28">
       <c r="B102" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C102" s="27">
         <v>23.3</v>
@@ -14087,7 +14141,7 @@
     </row>
     <row r="107" spans="2:28" s="2" customFormat="1">
       <c r="B107" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C107" s="26">
         <v>345.3</v>
@@ -14513,7 +14567,7 @@
     </row>
     <row r="113" spans="2:28">
       <c r="B113" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C113" s="27">
         <v>115.8</v>
@@ -15451,16 +15505,16 @@
         <v>134</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G128" s="34">
         <f t="shared" ref="G128" si="173">G68/C68-1</f>
@@ -15532,7 +15586,7 @@
         <v>135</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D129" s="25">
         <f t="shared" ref="D129" si="183">D68/C68-1</f>
@@ -15603,10 +15657,10 @@
         <v>7.6525103473096934E-2</v>
       </c>
       <c r="AA129" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AB129" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="2:28">
@@ -15617,16 +15671,16 @@
         <v>136</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G131" s="25">
         <f t="shared" ref="G131" si="192">G68/SUM(D9:G9)</f>
@@ -15699,7 +15753,7 @@
     </row>
     <row r="133" spans="2:28">
       <c r="B133" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C133" s="73">
         <v>26</v>
@@ -15770,7 +15824,7 @@
     </row>
     <row r="134" spans="2:28" s="27" customFormat="1">
       <c r="B134" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C134" s="27">
         <f t="shared" ref="C134:G134" si="203">C133*C27</f>
@@ -16040,69 +16094,69 @@
         <v>27</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="H138" s="91">
+        <v>186</v>
+      </c>
+      <c r="H138" s="74">
         <f t="shared" ref="H138" si="220">H133/SUM(E9:H9)</f>
         <v>3.9969163256834486E-3</v>
       </c>
-      <c r="I138" s="91">
+      <c r="I138" s="74">
         <f t="shared" ref="I138" si="221">I133/SUM(F9:I9)</f>
         <v>3.3988808322824725E-3</v>
       </c>
-      <c r="J138" s="91">
+      <c r="J138" s="74">
         <f t="shared" ref="J138" si="222">J133/SUM(G9:J9)</f>
         <v>3.5678980705158708E-3</v>
       </c>
-      <c r="K138" s="91">
+      <c r="K138" s="74">
         <f t="shared" ref="K138" si="223">K133/SUM(H9:K9)</f>
         <v>1.3692135555934837E-3</v>
       </c>
-      <c r="L138" s="91">
+      <c r="L138" s="74">
         <f t="shared" ref="L138" si="224">L133/SUM(I9:L9)</f>
         <v>1.3493997653217802E-3</v>
       </c>
-      <c r="M138" s="91">
+      <c r="M138" s="74">
         <f t="shared" ref="M138" si="225">M133/SUM(J9:M9)</f>
         <v>1.0984631479313523E-3</v>
       </c>
-      <c r="N138" s="91">
+      <c r="N138" s="74">
         <f t="shared" ref="N138" si="226">N133/SUM(K9:N9)</f>
         <v>1.8058391450770329E-3</v>
       </c>
-      <c r="O138" s="91">
+      <c r="O138" s="74">
         <f t="shared" ref="O138" si="227">O133/SUM(L9:O9)</f>
         <v>2.5249708462201492E-3</v>
       </c>
-      <c r="P138" s="91">
+      <c r="P138" s="74">
         <f t="shared" ref="P138:S138" si="228">P133/SUM(M9:P9)</f>
         <v>3.3363450053989726E-3</v>
       </c>
-      <c r="Q138" s="91">
+      <c r="Q138" s="74">
         <f t="shared" si="228"/>
         <v>3.5885419964958943E-3</v>
       </c>
-      <c r="R138" s="91">
+      <c r="R138" s="74">
         <f t="shared" si="228"/>
         <v>3.3117316306108839E-3</v>
       </c>
-      <c r="S138" s="91">
+      <c r="S138" s="74">
         <f t="shared" si="228"/>
         <v>3.1597674651698908E-3</v>
       </c>
-      <c r="T138" s="91">
+      <c r="T138" s="74">
         <f>T133/SUM(Q9:T9)</f>
         <v>2.2633532687151986E-3</v>
       </c>
@@ -16124,19 +16178,19 @@
         <v>28</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H139" s="57">
         <f t="shared" ref="H139" si="230">H133/SUM(E26:H26)</f>
@@ -16205,10 +16259,10 @@
     </row>
     <row r="141" spans="2:28">
       <c r="B141" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D141" s="25">
         <f t="shared" ref="D141:S141" si="240">D15:D15/D9</f>
@@ -16326,12 +16380,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="72"/>
+    <col min="1" max="16384" width="9.1640625" style="72"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16341,63 +16395,1700 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258CA0E5-563F-4C1F-B583-AD76D8E7BBD2}">
-  <dimension ref="C4:D12"/>
+  <dimension ref="A2:AG46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4">
-      <c r="D4" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="3" t="s">
+    <row r="2" spans="1:33" s="2" customFormat="1" ht="13">
+      <c r="B2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="2">
+        <v>2016</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>2017</v>
+      </c>
+      <c r="Z2" s="97">
+        <v>2018</v>
+      </c>
+      <c r="AA2" s="97">
+        <f>Z2+1</f>
+        <v>2019</v>
+      </c>
+      <c r="AB2" s="97">
+        <f t="shared" ref="AB2:AG2" si="0">AA2+1</f>
+        <v>2020</v>
+      </c>
+      <c r="AC2" s="97">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="AD2" s="2">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="AE2" s="2">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="AF2" s="2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="AG2" s="2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="94" customFormat="1" ht="13">
+      <c r="A3" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="94">
+        <f t="shared" ref="B3" si="1">SUM(B4:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="94">
+        <f t="shared" ref="C3" si="2">SUM(C4:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="94">
+        <f t="shared" ref="D3" si="3">SUM(D4:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="94">
+        <f t="shared" ref="E3" si="4">SUM(E4:E9)</f>
+        <v>1858</v>
+      </c>
+      <c r="F3" s="94">
+        <f t="shared" ref="F3" si="5">SUM(F4:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="94">
+        <f t="shared" ref="G3" si="6">SUM(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="94">
+        <f t="shared" ref="H3" si="7">SUM(H4:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="94">
+        <f t="shared" ref="I3" si="8">SUM(I4:I9)</f>
+        <v>1917</v>
+      </c>
+      <c r="J3" s="94">
+        <f t="shared" ref="J3" si="9">SUM(J4:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="94">
+        <f t="shared" ref="K3" si="10">SUM(K4:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="94">
+        <f t="shared" ref="L3" si="11">SUM(L4:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="94">
+        <f t="shared" ref="M3:Q3" si="12">SUM(M4:M9)</f>
+        <v>1904</v>
+      </c>
+      <c r="N3" s="94">
+        <f t="shared" si="12"/>
+        <v>1904</v>
+      </c>
+      <c r="O3" s="94">
+        <f t="shared" ref="O3" si="13">SUM(O4:O9)</f>
+        <v>1952</v>
+      </c>
+      <c r="P3" s="94">
+        <f t="shared" si="12"/>
+        <v>1968</v>
+      </c>
+      <c r="Q3" s="94">
+        <f t="shared" si="12"/>
+        <v>1996</v>
+      </c>
+      <c r="R3" s="94">
+        <f>SUM(R4:R9)</f>
+        <v>1992</v>
+      </c>
+      <c r="S3" s="94">
+        <f t="shared" ref="S3" si="14">SUM(S4:S9)</f>
+        <v>2000</v>
+      </c>
+      <c r="Z3" s="94">
+        <f t="shared" ref="Z3" si="15">SUM(Z4:Z9)</f>
+        <v>1858</v>
+      </c>
+      <c r="AA3" s="94">
+        <f t="shared" ref="AA3" si="16">SUM(AA4:AA9)</f>
+        <v>1917</v>
+      </c>
+      <c r="AB3" s="94">
+        <f t="shared" ref="AB3" si="17">SUM(AB4:AB9)</f>
+        <v>1904</v>
+      </c>
+      <c r="AC3" s="94">
+        <f t="shared" ref="AC3" si="18">SUM(AC4:AC9)</f>
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="95" customFormat="1" ht="13">
+      <c r="A4" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="95">
+        <v>191</v>
+      </c>
+      <c r="I4" s="95">
+        <v>191</v>
+      </c>
+      <c r="M4" s="95">
+        <v>191</v>
+      </c>
+      <c r="N4" s="95">
+        <v>191</v>
+      </c>
+      <c r="O4" s="95">
+        <v>191</v>
+      </c>
+      <c r="P4" s="95">
+        <v>191</v>
+      </c>
+      <c r="Q4" s="95">
+        <v>191</v>
+      </c>
+      <c r="R4" s="95">
+        <v>191</v>
+      </c>
+      <c r="S4" s="95">
+        <v>191</v>
+      </c>
+      <c r="Z4" s="95">
+        <v>191</v>
+      </c>
+      <c r="AA4" s="95">
+        <v>191</v>
+      </c>
+      <c r="AB4" s="95">
+        <v>191</v>
+      </c>
+      <c r="AC4" s="95">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="95" customFormat="1" ht="13">
+      <c r="A5" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="95">
+        <v>771</v>
+      </c>
+      <c r="I5" s="95">
+        <v>815</v>
+      </c>
+      <c r="M5" s="95">
+        <v>798</v>
+      </c>
+      <c r="N5" s="95">
+        <v>798</v>
+      </c>
+      <c r="O5" s="95">
+        <v>816</v>
+      </c>
+      <c r="P5" s="95">
+        <v>832</v>
+      </c>
+      <c r="Q5" s="95">
+        <v>840</v>
+      </c>
+      <c r="R5" s="95">
+        <v>840</v>
+      </c>
+      <c r="S5" s="95">
+        <v>848</v>
+      </c>
+      <c r="Z5" s="95">
+        <v>771</v>
+      </c>
+      <c r="AA5" s="95">
+        <v>815</v>
+      </c>
+      <c r="AB5" s="95">
+        <v>798</v>
+      </c>
+      <c r="AC5" s="95">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="95" customFormat="1" ht="13">
+      <c r="A6" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="95">
+        <v>566</v>
+      </c>
+      <c r="I6" s="95">
+        <v>568</v>
+      </c>
+      <c r="M6" s="95">
+        <v>568</v>
+      </c>
+      <c r="N6" s="95">
+        <v>568</v>
+      </c>
+      <c r="O6" s="95">
+        <v>568</v>
+      </c>
+      <c r="P6" s="95">
+        <v>568</v>
+      </c>
+      <c r="Q6" s="95">
+        <v>568</v>
+      </c>
+      <c r="R6" s="95">
+        <v>568</v>
+      </c>
+      <c r="S6" s="95">
+        <v>568</v>
+      </c>
+      <c r="Z6" s="95">
+        <v>566</v>
+      </c>
+      <c r="AA6" s="95">
+        <v>568</v>
+      </c>
+      <c r="AB6" s="95">
+        <v>568</v>
+      </c>
+      <c r="AC6" s="95">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="95" customFormat="1" ht="13">
+      <c r="A7" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="95">
+        <v>172</v>
+      </c>
+      <c r="I7" s="95">
+        <v>172</v>
+      </c>
+      <c r="M7" s="95">
+        <v>172</v>
+      </c>
+      <c r="N7" s="95">
+        <v>172</v>
+      </c>
+      <c r="O7" s="95">
+        <v>172</v>
+      </c>
+      <c r="P7" s="95">
+        <v>172</v>
+      </c>
+      <c r="Q7" s="95">
+        <v>172</v>
+      </c>
+      <c r="R7" s="95">
+        <v>172</v>
+      </c>
+      <c r="S7" s="95">
+        <v>172</v>
+      </c>
+      <c r="Z7" s="95">
+        <v>172</v>
+      </c>
+      <c r="AA7" s="95">
+        <v>172</v>
+      </c>
+      <c r="AB7" s="95">
+        <v>172</v>
+      </c>
+      <c r="AC7" s="95">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="95" customFormat="1" ht="13">
+      <c r="A8" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="95">
+        <v>47</v>
+      </c>
+      <c r="I8" s="95">
+        <v>27</v>
+      </c>
+      <c r="M8" s="95">
+        <v>22</v>
+      </c>
+      <c r="N8" s="95">
+        <v>22</v>
+      </c>
+      <c r="O8" s="95">
+        <v>22</v>
+      </c>
+      <c r="P8" s="95">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="95">
+        <v>22</v>
+      </c>
+      <c r="R8" s="95">
+        <v>20</v>
+      </c>
+      <c r="S8" s="95">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="95">
+        <v>47</v>
+      </c>
+      <c r="AA8" s="95">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="95">
+        <v>22</v>
+      </c>
+      <c r="AC8" s="95">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="95" customFormat="1" ht="13">
+      <c r="A9" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="95">
+        <v>111</v>
+      </c>
+      <c r="I9" s="95">
+        <v>144</v>
+      </c>
+      <c r="M9" s="95">
+        <v>153</v>
+      </c>
+      <c r="N9" s="95">
+        <v>153</v>
+      </c>
+      <c r="O9" s="95">
+        <v>183</v>
+      </c>
+      <c r="P9" s="95">
+        <v>183</v>
+      </c>
+      <c r="Q9" s="95">
+        <v>203</v>
+      </c>
+      <c r="R9" s="95">
+        <v>201</v>
+      </c>
+      <c r="S9" s="95">
+        <v>201</v>
+      </c>
+      <c r="Z9" s="95">
+        <v>111</v>
+      </c>
+      <c r="AA9" s="95">
+        <v>144</v>
+      </c>
+      <c r="AB9" s="95">
+        <v>153</v>
+      </c>
+      <c r="AC9" s="95">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="95" customFormat="1" ht="13"/>
+    <row r="11" spans="1:33" s="94" customFormat="1" ht="13">
+      <c r="A11" s="94" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="94">
+        <f t="shared" ref="B11" si="19">SUM(B12:B17)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="94">
+        <f t="shared" ref="C11" si="20">SUM(C12:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="94">
+        <f t="shared" ref="D11" si="21">SUM(D12:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="94">
+        <f t="shared" ref="E11" si="22">SUM(E12:E17)</f>
+        <v>1490</v>
+      </c>
+      <c r="F11" s="94">
+        <f t="shared" ref="F11" si="23">SUM(F12:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="94">
+        <f t="shared" ref="G11" si="24">SUM(G12:G17)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="94">
+        <f t="shared" ref="H11" si="25">SUM(H12:H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="94">
+        <f t="shared" ref="I11" si="26">SUM(I12:I17)</f>
+        <v>1579</v>
+      </c>
+      <c r="J11" s="94">
+        <f t="shared" ref="J11" si="27">SUM(J12:J17)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="94">
+        <f t="shared" ref="K11" si="28">SUM(K12:K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="94">
+        <f t="shared" ref="L11" si="29">SUM(L12:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="94">
+        <f t="shared" ref="M11" si="30">SUM(M12:M17)</f>
+        <v>1623</v>
+      </c>
+      <c r="N11" s="94">
+        <f t="shared" ref="N11:Q11" si="31">SUM(N12:N17)</f>
+        <v>1632</v>
+      </c>
+      <c r="O11" s="94">
+        <f t="shared" ref="O11" si="32">SUM(O12:O17)</f>
+        <v>1646</v>
+      </c>
+      <c r="P11" s="94">
+        <f t="shared" si="31"/>
+        <v>1655</v>
+      </c>
+      <c r="Q11" s="94">
+        <f t="shared" si="31"/>
+        <v>1671</v>
+      </c>
+      <c r="R11" s="94">
+        <f>SUM(R12:R17)</f>
+        <v>1677</v>
+      </c>
+      <c r="S11" s="94">
+        <f t="shared" ref="S11" si="33">SUM(S12:S17)</f>
+        <v>1688</v>
+      </c>
+      <c r="Z11" s="94">
+        <f t="shared" ref="Z11" si="34">SUM(Z12:Z17)</f>
+        <v>1490</v>
+      </c>
+      <c r="AA11" s="94">
+        <f t="shared" ref="AA11" si="35">SUM(AA12:AA17)</f>
+        <v>1579</v>
+      </c>
+      <c r="AB11" s="94">
+        <f t="shared" ref="AB11" si="36">SUM(AB12:AB17)</f>
+        <v>1623</v>
+      </c>
+      <c r="AC11" s="94">
+        <f t="shared" ref="AC11" si="37">SUM(AC12:AC17)</f>
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="95" customFormat="1" ht="13">
+      <c r="A12" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="95">
+        <v>191</v>
+      </c>
+      <c r="I12" s="95">
+        <v>191</v>
+      </c>
+      <c r="M12" s="95">
+        <v>191</v>
+      </c>
+      <c r="N12" s="95">
+        <v>191</v>
+      </c>
+      <c r="O12" s="95">
+        <v>191</v>
+      </c>
+      <c r="P12" s="95">
+        <v>191</v>
+      </c>
+      <c r="Q12" s="95">
+        <v>191</v>
+      </c>
+      <c r="R12" s="95">
+        <v>191</v>
+      </c>
+      <c r="S12" s="95">
+        <v>191</v>
+      </c>
+      <c r="Z12" s="95">
+        <v>191</v>
+      </c>
+      <c r="AA12" s="95">
+        <v>191</v>
+      </c>
+      <c r="AB12" s="95">
+        <v>191</v>
+      </c>
+      <c r="AC12" s="95">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="95" customFormat="1" ht="13">
+      <c r="A13" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="95">
+        <v>567</v>
+      </c>
+      <c r="I13" s="95">
+        <v>634</v>
+      </c>
+      <c r="M13" s="95">
+        <v>666</v>
+      </c>
+      <c r="N13" s="95">
+        <v>668</v>
+      </c>
+      <c r="O13" s="95">
+        <v>675</v>
+      </c>
+      <c r="P13" s="95">
+        <v>681</v>
+      </c>
+      <c r="Q13" s="95">
+        <v>693</v>
+      </c>
+      <c r="R13" s="95">
+        <v>697</v>
+      </c>
+      <c r="S13" s="95">
+        <v>705</v>
+      </c>
+      <c r="Z13" s="95">
+        <v>567</v>
+      </c>
+      <c r="AA13" s="95">
+        <v>634</v>
+      </c>
+      <c r="AB13" s="95">
+        <v>666</v>
+      </c>
+      <c r="AC13" s="95">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="95" customFormat="1" ht="13">
+      <c r="A14" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="95">
+        <v>559</v>
+      </c>
+      <c r="I14" s="95">
+        <v>564</v>
+      </c>
+      <c r="M14" s="95">
+        <v>565</v>
+      </c>
+      <c r="N14" s="95">
+        <v>565</v>
+      </c>
+      <c r="O14" s="95">
+        <v>565</v>
+      </c>
+      <c r="P14" s="95">
+        <v>565</v>
+      </c>
+      <c r="Q14" s="95">
+        <v>565</v>
+      </c>
+      <c r="R14" s="95">
+        <v>565</v>
+      </c>
+      <c r="S14" s="95">
+        <v>565</v>
+      </c>
+      <c r="Z14" s="95">
+        <v>559</v>
+      </c>
+      <c r="AA14" s="95">
+        <v>564</v>
+      </c>
+      <c r="AB14" s="95">
+        <v>565</v>
+      </c>
+      <c r="AC14" s="95">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="95" customFormat="1" ht="13">
+      <c r="A15" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="95">
+        <v>169</v>
+      </c>
+      <c r="I15" s="95">
+        <v>172</v>
+      </c>
+      <c r="M15" s="95">
+        <v>172</v>
+      </c>
+      <c r="N15" s="95">
+        <v>172</v>
+      </c>
+      <c r="O15" s="95">
+        <v>172</v>
+      </c>
+      <c r="P15" s="95">
+        <v>172</v>
+      </c>
+      <c r="Q15" s="95">
+        <v>172</v>
+      </c>
+      <c r="R15" s="95">
+        <v>172</v>
+      </c>
+      <c r="S15" s="95">
+        <v>172</v>
+      </c>
+      <c r="Z15" s="95">
+        <v>169</v>
+      </c>
+      <c r="AA15" s="95">
+        <v>172</v>
+      </c>
+      <c r="AB15" s="95">
+        <v>172</v>
+      </c>
+      <c r="AC15" s="95">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="95" customFormat="1" ht="13">
+      <c r="A16" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="95">
+        <v>4</v>
+      </c>
+      <c r="I16" s="95">
+        <v>11</v>
+      </c>
+      <c r="M16" s="95">
+        <v>15</v>
+      </c>
+      <c r="N16" s="95">
+        <v>17</v>
+      </c>
+      <c r="O16" s="95">
+        <v>17</v>
+      </c>
+      <c r="P16" s="95">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="95">
+        <v>17</v>
+      </c>
+      <c r="R16" s="95">
+        <v>17</v>
+      </c>
+      <c r="S16" s="95">
+        <v>17</v>
+      </c>
+      <c r="Z16" s="95">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="95">
+        <v>11</v>
+      </c>
+      <c r="AB16" s="95">
+        <v>15</v>
+      </c>
+      <c r="AC16" s="95">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="95" customFormat="1" ht="13">
+      <c r="A17" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="95">
+        <v>0</v>
+      </c>
+      <c r="I17" s="95">
+        <v>7</v>
+      </c>
+      <c r="M17" s="95">
+        <v>14</v>
+      </c>
+      <c r="N17" s="95">
+        <v>19</v>
+      </c>
+      <c r="O17" s="95">
+        <v>26</v>
+      </c>
+      <c r="P17" s="95">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="95">
+        <v>33</v>
+      </c>
+      <c r="R17" s="95">
+        <v>35</v>
+      </c>
+      <c r="S17" s="95">
+        <v>38</v>
+      </c>
+      <c r="Z17" s="95">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="95">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="95">
+        <v>14</v>
+      </c>
+      <c r="AC17" s="95">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="95" customFormat="1" ht="13">
+      <c r="A18" s="96"/>
+    </row>
+    <row r="19" spans="1:29" s="94" customFormat="1" ht="13">
+      <c r="A19" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="94">
+        <f t="shared" ref="B19" si="38">SUM(B20:B25)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="94">
+        <f t="shared" ref="C19" si="39">SUM(C20:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="94">
+        <f t="shared" ref="D19" si="40">SUM(D20:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="94">
+        <f t="shared" ref="E19" si="41">SUM(E20:E25)</f>
+        <v>368</v>
+      </c>
+      <c r="F19" s="94">
+        <f t="shared" ref="F19" si="42">SUM(F20:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="94">
+        <f t="shared" ref="G19" si="43">SUM(G20:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="94">
+        <f t="shared" ref="H19" si="44">SUM(H20:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="94">
+        <f t="shared" ref="I19" si="45">SUM(I20:I25)</f>
+        <v>338</v>
+      </c>
+      <c r="J19" s="94">
+        <f t="shared" ref="J19" si="46">SUM(J20:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="94">
+        <f t="shared" ref="K19" si="47">SUM(K20:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="94">
+        <f t="shared" ref="L19" si="48">SUM(L20:L25)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="94">
+        <f t="shared" ref="M19" si="49">SUM(M20:M25)</f>
+        <v>281</v>
+      </c>
+      <c r="N19" s="94">
+        <f t="shared" ref="N19:Q19" si="50">SUM(N20:N25)</f>
+        <v>272</v>
+      </c>
+      <c r="O19" s="94">
+        <f t="shared" ref="O19" si="51">SUM(O20:O25)</f>
+        <v>306</v>
+      </c>
+      <c r="P19" s="94">
+        <f t="shared" si="50"/>
+        <v>313</v>
+      </c>
+      <c r="Q19" s="94">
+        <f t="shared" si="50"/>
+        <v>325</v>
+      </c>
+      <c r="R19" s="94">
+        <f>SUM(R20:R25)</f>
+        <v>315</v>
+      </c>
+      <c r="S19" s="94">
+        <f t="shared" ref="S19" si="52">SUM(S20:S25)</f>
+        <v>312</v>
+      </c>
+      <c r="Z19" s="94">
+        <f t="shared" ref="Z19" si="53">SUM(Z20:Z25)</f>
+        <v>368</v>
+      </c>
+      <c r="AA19" s="94">
+        <f t="shared" ref="AA19" si="54">SUM(AA20:AA25)</f>
+        <v>338</v>
+      </c>
+      <c r="AB19" s="94">
+        <f t="shared" ref="AB19" si="55">SUM(AB20:AB25)</f>
+        <v>281</v>
+      </c>
+      <c r="AC19" s="94">
+        <f t="shared" ref="AC19" si="56">SUM(AC20:AC25)</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="95" customFormat="1" ht="13">
+      <c r="A20" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="95">
+        <v>0</v>
+      </c>
+      <c r="I20" s="95">
+        <v>0</v>
+      </c>
+      <c r="M20" s="95">
+        <v>0</v>
+      </c>
+      <c r="N20" s="95">
+        <v>0</v>
+      </c>
+      <c r="O20" s="95">
+        <v>0</v>
+      </c>
+      <c r="P20" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="95">
+        <v>0</v>
+      </c>
+      <c r="R20" s="95">
+        <v>0</v>
+      </c>
+      <c r="S20" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="95">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="95">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="95">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="95" customFormat="1" ht="13">
+      <c r="A21" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="95">
+        <v>204</v>
+      </c>
+      <c r="I21" s="95">
         <v>181</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="M21" s="95">
+        <v>132</v>
+      </c>
+      <c r="N21" s="95">
+        <v>130</v>
+      </c>
+      <c r="O21" s="95">
+        <v>141</v>
+      </c>
+      <c r="P21" s="95">
+        <v>151</v>
+      </c>
+      <c r="Q21" s="95">
+        <v>147</v>
+      </c>
+      <c r="R21" s="95">
+        <v>143</v>
+      </c>
+      <c r="S21" s="95">
+        <v>143</v>
+      </c>
+      <c r="Z21" s="95">
+        <v>204</v>
+      </c>
+      <c r="AA21" s="95">
+        <v>181</v>
+      </c>
+      <c r="AB21" s="95">
+        <v>132</v>
+      </c>
+      <c r="AC21" s="95">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="95" customFormat="1" ht="13">
+      <c r="A22" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="95">
+        <v>7</v>
+      </c>
+      <c r="I22" s="95">
+        <v>4</v>
+      </c>
+      <c r="M22" s="95">
+        <v>3</v>
+      </c>
+      <c r="N22" s="95">
+        <v>3</v>
+      </c>
+      <c r="O22" s="95">
+        <v>3</v>
+      </c>
+      <c r="P22" s="95">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="95">
+        <v>3</v>
+      </c>
+      <c r="R22" s="95">
+        <v>3</v>
+      </c>
+      <c r="S22" s="95">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="95">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="95">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="95">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" s="95" customFormat="1" ht="13">
+      <c r="A23" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="95">
+        <v>3</v>
+      </c>
+      <c r="I23" s="95">
+        <v>0</v>
+      </c>
+      <c r="M23" s="95">
+        <v>0</v>
+      </c>
+      <c r="N23" s="95">
+        <v>0</v>
+      </c>
+      <c r="O23" s="95">
+        <v>0</v>
+      </c>
+      <c r="P23" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="95">
+        <v>0</v>
+      </c>
+      <c r="R23" s="95">
+        <v>0</v>
+      </c>
+      <c r="S23" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="95">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="95">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="95">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="95" customFormat="1" ht="13">
+      <c r="A24" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="95">
+        <v>43</v>
+      </c>
+      <c r="I24" s="95">
+        <v>16</v>
+      </c>
+      <c r="M24" s="95">
+        <v>7</v>
+      </c>
+      <c r="N24" s="95">
+        <v>5</v>
+      </c>
+      <c r="O24" s="95">
+        <v>5</v>
+      </c>
+      <c r="P24" s="95">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="95">
+        <v>5</v>
+      </c>
+      <c r="R24" s="95">
+        <v>3</v>
+      </c>
+      <c r="S24" s="95">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="95">
+        <v>43</v>
+      </c>
+      <c r="AA24" s="95">
+        <v>16</v>
+      </c>
+      <c r="AB24" s="95">
+        <v>7</v>
+      </c>
+      <c r="AC24" s="95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" s="95" customFormat="1" ht="13">
+      <c r="A25" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="95">
+        <v>111</v>
+      </c>
+      <c r="I25" s="95">
+        <v>137</v>
+      </c>
+      <c r="M25" s="95">
+        <v>139</v>
+      </c>
+      <c r="N25" s="95">
+        <v>134</v>
+      </c>
+      <c r="O25" s="95">
+        <v>157</v>
+      </c>
+      <c r="P25" s="95">
+        <v>154</v>
+      </c>
+      <c r="Q25" s="95">
+        <v>170</v>
+      </c>
+      <c r="R25" s="95">
+        <v>166</v>
+      </c>
+      <c r="S25" s="95">
+        <v>163</v>
+      </c>
+      <c r="Z25" s="95">
+        <v>111</v>
+      </c>
+      <c r="AA25" s="95">
+        <v>137</v>
+      </c>
+      <c r="AB25" s="95">
+        <v>139</v>
+      </c>
+      <c r="AC25" s="95">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="2" customFormat="1" ht="13">
+      <c r="A28" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="34">
+        <f t="shared" ref="I28" si="57">I3/E3-1</f>
+        <v>3.1754574811625469E-2</v>
+      </c>
+      <c r="M28" s="34">
+        <f t="shared" ref="M28" si="58">M3/I3-1</f>
+        <v>-6.7814293166406081E-3</v>
+      </c>
+      <c r="Q28" s="34">
+        <f t="shared" ref="Q28" si="59">Q3/M3-1</f>
+        <v>4.8319327731092487E-2</v>
+      </c>
+      <c r="R28" s="34">
+        <f>R3/N3-1</f>
+        <v>4.6218487394958041E-2</v>
+      </c>
+      <c r="S28" s="34">
+        <f t="shared" ref="S28" si="60">S3/O3-1</f>
+        <v>2.4590163934426146E-2</v>
+      </c>
+      <c r="AA28" s="34">
+        <f t="shared" ref="AA28:AC28" si="61">AA3/Z3-1</f>
+        <v>3.1754574811625469E-2</v>
+      </c>
+      <c r="AB28" s="34">
+        <f t="shared" si="61"/>
+        <v>-6.7814293166406081E-3</v>
+      </c>
+      <c r="AC28" s="34">
+        <f>AC3/AB3-1</f>
+        <v>4.8319327731092487E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="98" customFormat="1" ht="13">
+      <c r="A29" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" s="98">
+        <f t="shared" ref="I29" si="62">I3-E3</f>
+        <v>59</v>
+      </c>
+      <c r="M29" s="98">
+        <f t="shared" ref="M29" si="63">M3-I3</f>
+        <v>-13</v>
+      </c>
+      <c r="Q29" s="98">
+        <f t="shared" ref="Q29:R29" si="64">Q3-M3</f>
+        <v>92</v>
+      </c>
+      <c r="R29" s="98">
+        <f t="shared" si="64"/>
+        <v>88</v>
+      </c>
+      <c r="S29" s="98">
+        <f>S3-O3</f>
+        <v>48</v>
+      </c>
+      <c r="AA29" s="98">
+        <f t="shared" ref="AA29:AC29" si="65">AA3-Z3</f>
+        <v>59</v>
+      </c>
+      <c r="AB29" s="98">
+        <f t="shared" si="65"/>
+        <v>-13</v>
+      </c>
+      <c r="AC29" s="98">
+        <f>AC3-AB3</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" ref="N30:Q30" si="66">N3/M3-1</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="25">
+        <f t="shared" si="66"/>
+        <v>2.5210084033613356E-2</v>
+      </c>
+      <c r="P30" s="25">
+        <f t="shared" si="66"/>
+        <v>8.1967213114753079E-3</v>
+      </c>
+      <c r="Q30" s="25">
+        <f t="shared" ref="Q30:R30" si="67">Q3/P3-1</f>
+        <v>1.4227642276422703E-2</v>
+      </c>
+      <c r="R30" s="25">
+        <f>R3/Q3-1</f>
+        <v>-2.0040080160320661E-3</v>
+      </c>
+      <c r="S30" s="25">
+        <f t="shared" ref="S30" si="68">S3/R3-1</f>
+        <v>4.0160642570281624E-3</v>
+      </c>
+      <c r="Z30" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA30" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB30" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC30" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" s="99" customFormat="1">
+      <c r="A31" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="N31" s="98">
+        <f>N3-M3</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="98">
+        <f>O3-N3</f>
+        <v>48</v>
+      </c>
+      <c r="P31" s="98">
+        <f>P3-O3</f>
+        <v>16</v>
+      </c>
+      <c r="Q31" s="98">
+        <f>Q3-P3</f>
+        <v>28</v>
+      </c>
+      <c r="R31" s="98">
+        <f>R3-Q3</f>
+        <v>-4</v>
+      </c>
+      <c r="S31" s="98">
+        <f>S3-R3</f>
+        <v>8</v>
+      </c>
+      <c r="Z31" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA31" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB31" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC31" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="AC32" s="25"/>
+    </row>
+    <row r="33" spans="1:29" s="2" customFormat="1" ht="13">
+      <c r="A33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I33" s="34">
+        <f t="shared" ref="I33" si="69">I11/E11-1</f>
+        <v>5.9731543624160999E-2</v>
+      </c>
+      <c r="M33" s="34">
+        <f t="shared" ref="M33" si="70">M11/I11-1</f>
+        <v>2.7865737808739688E-2</v>
+      </c>
+      <c r="Q33" s="34">
+        <f t="shared" ref="Q33" si="71">Q11/M11-1</f>
+        <v>2.9574861367837268E-2</v>
+      </c>
+      <c r="R33" s="34">
+        <f>R11/N11-1</f>
+        <v>2.7573529411764719E-2</v>
+      </c>
+      <c r="S33" s="34">
+        <f t="shared" ref="S33" si="72">S11/O11-1</f>
+        <v>2.5516403402187082E-2</v>
+      </c>
+      <c r="AA33" s="34">
+        <f t="shared" ref="AA33:AB33" si="73">AA11/Z11-1</f>
+        <v>5.9731543624160999E-2</v>
+      </c>
+      <c r="AB33" s="34">
+        <f>AB11/AA11-1</f>
+        <v>2.7865737808739688E-2</v>
+      </c>
+      <c r="AC33" s="34">
+        <f>AC11/AB11-1</f>
+        <v>2.9574861367837268E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" s="98" customFormat="1" ht="13">
+      <c r="A34" s="98" t="s">
+        <v>202</v>
+      </c>
+      <c r="I34" s="98">
+        <f t="shared" ref="I34" si="74">I11-E11</f>
+        <v>89</v>
+      </c>
+      <c r="M34" s="98">
+        <f t="shared" ref="M34" si="75">M11-I11</f>
+        <v>44</v>
+      </c>
+      <c r="Q34" s="98">
+        <f t="shared" ref="Q34:R34" si="76">Q11-M11</f>
+        <v>48</v>
+      </c>
+      <c r="R34" s="98">
+        <f t="shared" si="76"/>
+        <v>45</v>
+      </c>
+      <c r="S34" s="98">
+        <f>S11-O11</f>
+        <v>42</v>
+      </c>
+      <c r="AA34" s="98">
+        <f t="shared" ref="AA34:AC34" si="77">AA11-Z11</f>
+        <v>89</v>
+      </c>
+      <c r="AB34" s="98">
+        <f t="shared" si="77"/>
+        <v>44</v>
+      </c>
+      <c r="AC34" s="98">
+        <f>AC11-AB11</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N35" s="25">
+        <f t="shared" ref="N35:Q35" si="78">N11/M11-1</f>
+        <v>5.5452865064695711E-3</v>
+      </c>
+      <c r="O35" s="25">
+        <f t="shared" si="78"/>
+        <v>8.5784313725489891E-3</v>
+      </c>
+      <c r="P35" s="25">
+        <f t="shared" si="78"/>
+        <v>5.4678007290400732E-3</v>
+      </c>
+      <c r="Q35" s="25">
+        <f t="shared" ref="Q35:R35" si="79">Q11/P11-1</f>
+        <v>9.6676737160121817E-3</v>
+      </c>
+      <c r="R35" s="25">
+        <f>R11/Q11-1</f>
+        <v>3.5906642728904536E-3</v>
+      </c>
+      <c r="S35" s="25">
+        <f t="shared" ref="S35" si="80">S11/R11-1</f>
+        <v>6.5593321407275695E-3</v>
+      </c>
+      <c r="Z35" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA35" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB35" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC35" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" s="101" customFormat="1">
+      <c r="A36" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="N36" s="98">
+        <f t="shared" ref="N36:S36" si="81">N11-M11</f>
+        <v>9</v>
+      </c>
+      <c r="O36" s="98">
+        <f t="shared" si="81"/>
+        <v>14</v>
+      </c>
+      <c r="P36" s="98">
+        <f t="shared" si="81"/>
+        <v>9</v>
+      </c>
+      <c r="Q36" s="98">
+        <f t="shared" si="81"/>
+        <v>16</v>
+      </c>
+      <c r="R36" s="98">
+        <f t="shared" si="81"/>
+        <v>6</v>
+      </c>
+      <c r="S36" s="98">
+        <f>S11-R11</f>
+        <v>11</v>
+      </c>
+      <c r="Z36" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA36" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB36" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC36" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="AC37" s="25"/>
+    </row>
+    <row r="38" spans="1:29" s="2" customFormat="1" ht="13">
+      <c r="A38" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I38" s="34">
+        <f t="shared" ref="I38" si="82">I19/E19-1</f>
+        <v>-8.1521739130434812E-2</v>
+      </c>
+      <c r="M38" s="34">
+        <f t="shared" ref="M38" si="83">M19/I19-1</f>
+        <v>-0.16863905325443784</v>
+      </c>
+      <c r="Q38" s="34">
+        <f t="shared" ref="Q38" si="84">Q19/M19-1</f>
+        <v>0.15658362989323837</v>
+      </c>
+      <c r="R38" s="34">
+        <f>R19/N19-1</f>
+        <v>0.15808823529411775</v>
+      </c>
+      <c r="S38" s="34">
+        <f t="shared" ref="S38" si="85">S19/O19-1</f>
+        <v>1.9607843137254832E-2</v>
+      </c>
+      <c r="AA38" s="34">
+        <f t="shared" ref="AA38:AB38" si="86">AA19/Z19-1</f>
+        <v>-8.1521739130434812E-2</v>
+      </c>
+      <c r="AB38" s="34">
+        <f>AB19/AA19-1</f>
+        <v>-0.16863905325443784</v>
+      </c>
+      <c r="AC38" s="34">
+        <f>AC19/AB19-1</f>
+        <v>0.15658362989323837</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" s="103" customFormat="1" ht="13">
+      <c r="A39" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="I39" s="103">
+        <f>I19-E19</f>
+        <v>-30</v>
+      </c>
+      <c r="M39" s="103">
+        <f>M19-I19</f>
+        <v>-57</v>
+      </c>
+      <c r="Q39" s="103">
+        <f t="shared" ref="Q39:R39" si="87">Q19-M19</f>
+        <v>44</v>
+      </c>
+      <c r="R39" s="103">
+        <f t="shared" si="87"/>
+        <v>43</v>
+      </c>
+      <c r="S39" s="103">
+        <f>S19-O19</f>
+        <v>6</v>
+      </c>
+      <c r="AA39" s="103">
+        <f t="shared" ref="AA39:AC39" si="88">AA19-Z19</f>
+        <v>-30</v>
+      </c>
+      <c r="AB39" s="103">
+        <f t="shared" si="88"/>
+        <v>-57</v>
+      </c>
+      <c r="AC39" s="103">
+        <f>AC19-AB19</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N40" s="25">
+        <f t="shared" ref="N40:Q40" si="89">N19/M19-1</f>
+        <v>-3.2028469750889688E-2</v>
+      </c>
+      <c r="O40" s="25">
+        <f t="shared" si="89"/>
+        <v>0.125</v>
+      </c>
+      <c r="P40" s="25">
+        <f t="shared" si="89"/>
+        <v>2.2875816993463971E-2</v>
+      </c>
+      <c r="Q40" s="25">
+        <f t="shared" ref="Q40:R40" si="90">Q19/P19-1</f>
+        <v>3.833865814696491E-2</v>
+      </c>
+      <c r="R40" s="25">
+        <f>R19/Q19-1</f>
+        <v>-3.0769230769230771E-2</v>
+      </c>
+      <c r="S40" s="25">
+        <f t="shared" ref="S40" si="91">S19/R19-1</f>
+        <v>-9.52380952380949E-3</v>
+      </c>
+      <c r="Z40" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA40" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB40" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC40" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" s="101" customFormat="1">
+      <c r="A41" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="N41" s="98">
+        <f t="shared" ref="N41:S41" si="92">N19-M19</f>
+        <v>-9</v>
+      </c>
+      <c r="O41" s="98">
+        <f t="shared" si="92"/>
+        <v>34</v>
+      </c>
+      <c r="P41" s="98">
+        <f t="shared" si="92"/>
+        <v>7</v>
+      </c>
+      <c r="Q41" s="98">
+        <f t="shared" si="92"/>
+        <v>12</v>
+      </c>
+      <c r="R41" s="98">
+        <f t="shared" si="92"/>
+        <v>-10</v>
+      </c>
+      <c r="S41" s="98">
+        <f>S19-R19</f>
+        <v>-3</v>
+      </c>
+      <c r="Z41" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA41" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB41" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC41" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="N44" s="93"/>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="N46" s="92"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{3579012F-D250-C14B-8084-0358505A2D9B}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{77A3087C-239B-E34B-8F51-3E2EA54A463A}"/>
+    <hyperlink ref="P2" r:id="rId3" xr:uid="{614FFF93-232C-A94F-8FDC-F25E6D371847}"/>
+    <hyperlink ref="N2" r:id="rId4" xr:uid="{9287A329-D88E-784B-8BDF-1EDA927EB785}"/>
+    <hyperlink ref="S2" r:id="rId5" xr:uid="{6AF4C14B-B6A4-FE47-B0D3-A570A390AD5C}"/>
+    <hyperlink ref="O2" r:id="rId6" xr:uid="{0A17F8BF-EADB-DE42-994D-117A4F2CB3FE}"/>
+    <hyperlink ref="AC2" r:id="rId7" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/282b37b7-69b6-46c3-86f1-3d03bb11cc0e?origin=1" xr:uid="{9A635200-D40C-2C47-BF87-74A9C3DCF160}"/>
+    <hyperlink ref="M2" r:id="rId8" xr:uid="{F1748A46-ECC6-544E-9D30-C00CF38C6CF7}"/>
+    <hyperlink ref="AB2" r:id="rId9" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/631b88c4-9ae6-429c-98d6-230db8273d60?origin=1" xr:uid="{D9538A1F-7DBB-FA44-9BE7-595A80C2AFB9}"/>
+    <hyperlink ref="AA2" r:id="rId10" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/2b63fed1-515f-4f82-a272-84c564557830?origin=1" xr:uid="{D1A1F548-67B5-7A4D-985A-0DFAFE22EBD5}"/>
+    <hyperlink ref="I2" r:id="rId11" xr:uid="{998E2907-64B9-7A44-8D65-8083912D2D62}"/>
+    <hyperlink ref="E2" r:id="rId12" xr:uid="{5D689E99-05ED-E34E-9D87-28B9F22988C9}"/>
+    <hyperlink ref="Z2" r:id="rId13" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/38d6b5b1-73e3-4d7d-aca3-84a2d5bbf813?origin=1" xr:uid="{6F460F9A-C5E5-A44E-8E60-30FD06C106C2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3735B4BD-28AD-C941-B05F-4910276F46B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84117D38-1E4F-584D-B495-3EBA820E4B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="3" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="218">
   <si>
     <t>$ERJ</t>
   </si>
@@ -825,6 +825,9 @@
   </si>
   <si>
     <t>Firm Order Backlog Q/Q</t>
+  </si>
+  <si>
+    <t>Embraer 175-E2</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1259,12 +1262,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1274,28 +1285,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1310,20 +1309,36 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5676,6 +5691,111 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DE692B-E570-7CBF-AAEB-84E21515C477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14147800" y="12700"/>
+          <a:ext cx="0" cy="10464800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B821CAC-8ED1-6044-8050-A5E1263607BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21145500" y="0"/>
+          <a:ext cx="0" cy="10464800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5976,7 +6096,7 @@
   <dimension ref="A2:AB44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -5996,35 +6116,35 @@
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="G5" s="77" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="G5" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="79"/>
-      <c r="U5" s="77" t="s">
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="89"/>
+      <c r="U5" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="79"/>
-      <c r="AA5" s="75" t="s">
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="89"/>
+      <c r="AA5" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="AB5" s="76"/>
+      <c r="AB5" s="99"/>
     </row>
     <row r="6" spans="1:28">
       <c r="B6" s="4" t="s">
@@ -6301,11 +6421,11 @@
       <c r="X14" s="38"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
       <c r="G15" s="10"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -6332,10 +6452,10 @@
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="93"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -6359,10 +6479,10 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="83"/>
+      <c r="D17" s="93"/>
       <c r="G17" s="9">
         <v>44805</v>
       </c>
@@ -6386,8 +6506,8 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="16"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8" t="s">
         <v>192</v>
@@ -6411,8 +6531,8 @@
     </row>
     <row r="19" spans="2:24">
       <c r="B19" s="17"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
       <c r="G19" s="10"/>
       <c r="H19" s="8" t="s">
         <v>193</v>
@@ -6479,11 +6599,11 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
       <c r="G22" s="10"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
@@ -6507,10 +6627,10 @@
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="93"/>
       <c r="G23" s="9">
         <v>44743</v>
       </c>
@@ -6536,10 +6656,10 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="92">
         <v>1969</v>
       </c>
-      <c r="D24" s="83"/>
+      <c r="D24" s="93"/>
       <c r="G24" s="10"/>
       <c r="H24" s="8" t="s">
         <v>197</v>
@@ -6563,8 +6683,8 @@
     </row>
     <row r="25" spans="2:24">
       <c r="B25" s="10"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="93"/>
       <c r="G25" s="10"/>
       <c r="H25" s="50" t="s">
         <v>198</v>
@@ -6590,11 +6710,11 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="100">
         <f>'Financial Model'!T68</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="81"/>
+      <c r="D26" s="101"/>
       <c r="G26" s="10"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
@@ -6616,8 +6736,8 @@
     </row>
     <row r="27" spans="2:24">
       <c r="B27" s="10"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
       <c r="G27" s="9">
         <v>43922</v>
       </c>
@@ -6676,10 +6796,10 @@
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="89"/>
+      <c r="D29" s="95"/>
       <c r="G29" s="10"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
@@ -6738,11 +6858,11 @@
       <c r="X31" s="38"/>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
       <c r="G32" s="9">
         <v>43770</v>
       </c>
@@ -6770,11 +6890,11 @@
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="90">
+      <c r="C33" s="96">
         <f>C6/'Financial Model'!T122</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="91"/>
+      <c r="D33" s="97"/>
       <c r="G33" s="10"/>
       <c r="H33" s="50" t="s">
         <v>168</v>
@@ -6798,11 +6918,11 @@
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="90">
+      <c r="C34" s="96">
         <f>C6/'Financial Model'!AB9</f>
         <v>2.2515010006671113E-3</v>
       </c>
-      <c r="D34" s="91"/>
+      <c r="D34" s="97"/>
       <c r="G34" s="10"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
@@ -6824,11 +6944,11 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="86">
+      <c r="C35" s="90">
         <f>C6/'Financial Model'!AB26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="87"/>
+      <c r="D35" s="91"/>
       <c r="G35" s="10"/>
       <c r="H35" s="60"/>
       <c r="I35" s="37"/>
@@ -6875,12 +6995,12 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
-      <c r="U37" s="77" t="s">
+      <c r="U37" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="V37" s="78"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="79"/>
+      <c r="V37" s="88"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="89"/>
     </row>
     <row r="38" spans="2:24">
       <c r="G38" s="10"/>
@@ -7018,13 +7138,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="C26:D26"/>
@@ -7039,6 +7152,13 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
@@ -7062,7 +7182,7 @@
   <dimension ref="B1:AL141"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="S52" sqref="S52"/>
@@ -16380,7 +16500,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -16395,13 +16515,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258CA0E5-563F-4C1F-B583-AD76D8E7BBD2}">
-  <dimension ref="A2:AG46"/>
+  <dimension ref="A2:AG49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -16471,24 +16591,24 @@
       <c r="U2" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="80">
         <v>2016</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="80">
         <v>2017</v>
       </c>
-      <c r="Z2" s="97">
+      <c r="Z2" s="80">
         <v>2018</v>
       </c>
-      <c r="AA2" s="97">
+      <c r="AA2" s="80">
         <f>Z2+1</f>
         <v>2019</v>
       </c>
-      <c r="AB2" s="97">
+      <c r="AB2" s="80">
         <f t="shared" ref="AB2:AG2" si="0">AA2+1</f>
         <v>2020</v>
       </c>
-      <c r="AC2" s="97">
+      <c r="AC2" s="80">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
@@ -16509,1569 +16629,1989 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="94" customFormat="1" ht="13">
-      <c r="A3" s="94" t="s">
+    <row r="3" spans="1:33" s="77" customFormat="1" ht="13">
+      <c r="A3" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="94">
-        <f t="shared" ref="B3" si="1">SUM(B4:B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="94">
-        <f t="shared" ref="C3" si="2">SUM(C4:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="94">
-        <f t="shared" ref="D3" si="3">SUM(D4:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="94">
-        <f t="shared" ref="E3" si="4">SUM(E4:E9)</f>
+      <c r="B3" s="77">
+        <f t="shared" ref="B3" si="1">SUM(B4:B10)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="77">
+        <f t="shared" ref="C3" si="2">SUM(C4:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="77">
+        <f t="shared" ref="D3" si="3">SUM(D4:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="77">
+        <f t="shared" ref="E3" si="4">SUM(E4:E10)</f>
         <v>1858</v>
       </c>
-      <c r="F3" s="94">
-        <f t="shared" ref="F3" si="5">SUM(F4:F9)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="94">
-        <f t="shared" ref="G3" si="6">SUM(G4:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="94">
-        <f t="shared" ref="H3" si="7">SUM(H4:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="94">
-        <f t="shared" ref="I3" si="8">SUM(I4:I9)</f>
+      <c r="F3" s="77">
+        <f t="shared" ref="F3" si="5">SUM(F4:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="77">
+        <f t="shared" ref="G3" si="6">SUM(G4:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="77">
+        <f t="shared" ref="H3" si="7">SUM(H4:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="77">
+        <f t="shared" ref="I3" si="8">SUM(I4:I10)</f>
         <v>1917</v>
       </c>
-      <c r="J3" s="94">
-        <f t="shared" ref="J3" si="9">SUM(J4:J9)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="94">
-        <f t="shared" ref="K3" si="10">SUM(K4:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="94">
-        <f t="shared" ref="L3" si="11">SUM(L4:L9)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="94">
-        <f t="shared" ref="M3:Q3" si="12">SUM(M4:M9)</f>
+      <c r="J3" s="77">
+        <f t="shared" ref="J3" si="9">SUM(J4:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="77">
+        <f t="shared" ref="K3" si="10">SUM(K4:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="77">
+        <f t="shared" ref="L3" si="11">SUM(L4:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="77">
+        <f t="shared" ref="M3:Q3" si="12">SUM(M4:M10)</f>
         <v>1904</v>
       </c>
-      <c r="N3" s="94">
+      <c r="N3" s="77">
         <f t="shared" si="12"/>
         <v>1904</v>
       </c>
-      <c r="O3" s="94">
-        <f t="shared" ref="O3" si="13">SUM(O4:O9)</f>
+      <c r="O3" s="77">
+        <f t="shared" ref="O3" si="13">SUM(O4:O10)</f>
         <v>1952</v>
       </c>
-      <c r="P3" s="94">
+      <c r="P3" s="77">
         <f t="shared" si="12"/>
         <v>1968</v>
       </c>
-      <c r="Q3" s="94">
+      <c r="Q3" s="77">
         <f t="shared" si="12"/>
         <v>1996</v>
       </c>
-      <c r="R3" s="94">
-        <f>SUM(R4:R9)</f>
+      <c r="R3" s="77">
+        <f>SUM(R4:R10)</f>
         <v>1992</v>
       </c>
-      <c r="S3" s="94">
-        <f t="shared" ref="S3" si="14">SUM(S4:S9)</f>
+      <c r="S3" s="77">
+        <f t="shared" ref="S3" si="14">SUM(S4:S10)</f>
         <v>2000</v>
       </c>
-      <c r="Z3" s="94">
-        <f t="shared" ref="Z3" si="15">SUM(Z4:Z9)</f>
+      <c r="X3" s="77">
+        <f t="shared" ref="X3:Z3" si="15">SUM(X4:X10)</f>
+        <v>1749</v>
+      </c>
+      <c r="Y3" s="77">
+        <f t="shared" si="15"/>
+        <v>1835</v>
+      </c>
+      <c r="Z3" s="77">
+        <f t="shared" si="15"/>
         <v>1858</v>
       </c>
-      <c r="AA3" s="94">
-        <f t="shared" ref="AA3" si="16">SUM(AA4:AA9)</f>
+      <c r="AA3" s="77">
+        <f t="shared" ref="AA3" si="16">SUM(AA4:AA10)</f>
         <v>1917</v>
       </c>
-      <c r="AB3" s="94">
-        <f t="shared" ref="AB3" si="17">SUM(AB4:AB9)</f>
+      <c r="AB3" s="77">
+        <f t="shared" ref="AB3" si="17">SUM(AB4:AB10)</f>
         <v>1904</v>
       </c>
-      <c r="AC3" s="94">
-        <f t="shared" ref="AC3" si="18">SUM(AC4:AC9)</f>
+      <c r="AC3" s="77">
+        <f t="shared" ref="AC3" si="18">SUM(AC4:AC10)</f>
         <v>1996</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="95" customFormat="1" ht="13">
-      <c r="A4" s="96" t="s">
+    <row r="4" spans="1:33" s="78" customFormat="1" ht="13">
+      <c r="A4" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="95">
+      <c r="E4" s="78">
         <v>191</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="78">
         <v>191</v>
       </c>
-      <c r="M4" s="95">
+      <c r="M4" s="78">
         <v>191</v>
       </c>
-      <c r="N4" s="95">
+      <c r="N4" s="78">
         <v>191</v>
       </c>
-      <c r="O4" s="95">
+      <c r="O4" s="78">
         <v>191</v>
       </c>
-      <c r="P4" s="95">
+      <c r="P4" s="78">
         <v>191</v>
       </c>
-      <c r="Q4" s="95">
+      <c r="Q4" s="78">
         <v>191</v>
       </c>
-      <c r="R4" s="95">
+      <c r="R4" s="78">
         <v>191</v>
       </c>
-      <c r="S4" s="95">
+      <c r="S4" s="78">
         <v>191</v>
       </c>
-      <c r="Z4" s="95">
+      <c r="X4" s="78">
+        <v>193</v>
+      </c>
+      <c r="Y4" s="78">
         <v>191</v>
       </c>
-      <c r="AA4" s="95">
+      <c r="Z4" s="78">
         <v>191</v>
       </c>
-      <c r="AB4" s="95">
+      <c r="AA4" s="78">
         <v>191</v>
       </c>
-      <c r="AC4" s="95">
+      <c r="AB4" s="78">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" s="95" customFormat="1" ht="13">
-      <c r="A5" s="96" t="s">
+      <c r="AC4" s="78">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="78" customFormat="1" ht="13">
+      <c r="A5" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="95">
+      <c r="E5" s="78">
         <v>771</v>
       </c>
-      <c r="I5" s="95">
+      <c r="I5" s="78">
         <v>815</v>
       </c>
-      <c r="M5" s="95">
+      <c r="M5" s="78">
         <v>798</v>
       </c>
-      <c r="N5" s="95">
+      <c r="N5" s="78">
         <v>798</v>
       </c>
-      <c r="O5" s="95">
+      <c r="O5" s="78">
         <v>816</v>
       </c>
-      <c r="P5" s="95">
+      <c r="P5" s="78">
         <v>832</v>
       </c>
-      <c r="Q5" s="95">
+      <c r="Q5" s="78">
         <v>840</v>
       </c>
-      <c r="R5" s="95">
+      <c r="R5" s="78">
         <v>840</v>
       </c>
-      <c r="S5" s="95">
+      <c r="S5" s="78">
         <v>848</v>
       </c>
-      <c r="Z5" s="95">
+      <c r="X5" s="78">
+        <v>525</v>
+      </c>
+      <c r="Y5" s="78">
+        <v>603</v>
+      </c>
+      <c r="Z5" s="78">
         <v>771</v>
       </c>
-      <c r="AA5" s="95">
+      <c r="AA5" s="78">
         <v>815</v>
       </c>
-      <c r="AB5" s="95">
+      <c r="AB5" s="78">
         <v>798</v>
       </c>
-      <c r="AC5" s="95">
+      <c r="AC5" s="78">
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="95" customFormat="1" ht="13">
-      <c r="A6" s="96" t="s">
+    <row r="6" spans="1:33" s="78" customFormat="1" ht="13">
+      <c r="A6" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="95">
+      <c r="E6" s="78">
         <v>566</v>
       </c>
-      <c r="I6" s="95">
+      <c r="I6" s="78">
         <v>568</v>
       </c>
-      <c r="M6" s="95">
+      <c r="M6" s="78">
         <v>568</v>
       </c>
-      <c r="N6" s="95">
+      <c r="N6" s="78">
         <v>568</v>
       </c>
-      <c r="O6" s="95">
+      <c r="O6" s="78">
         <v>568</v>
       </c>
-      <c r="P6" s="95">
+      <c r="P6" s="78">
         <v>568</v>
       </c>
-      <c r="Q6" s="95">
+      <c r="Q6" s="78">
         <v>568</v>
       </c>
-      <c r="R6" s="95">
+      <c r="R6" s="78">
         <v>568</v>
       </c>
-      <c r="S6" s="95">
+      <c r="S6" s="78">
         <v>568</v>
       </c>
-      <c r="Z6" s="95">
+      <c r="X6" s="78">
+        <v>590</v>
+      </c>
+      <c r="Y6" s="78">
+        <v>592</v>
+      </c>
+      <c r="Z6" s="78">
         <v>566</v>
       </c>
-      <c r="AA6" s="95">
+      <c r="AA6" s="78">
         <v>568</v>
       </c>
-      <c r="AB6" s="95">
+      <c r="AB6" s="78">
         <v>568</v>
       </c>
-      <c r="AC6" s="95">
+      <c r="AC6" s="78">
         <v>568</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="95" customFormat="1" ht="13">
-      <c r="A7" s="96" t="s">
+    <row r="7" spans="1:33" s="78" customFormat="1" ht="13">
+      <c r="A7" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="95">
+      <c r="E7" s="78">
         <v>172</v>
       </c>
-      <c r="I7" s="95">
+      <c r="I7" s="78">
         <v>172</v>
       </c>
-      <c r="M7" s="95">
+      <c r="M7" s="78">
         <v>172</v>
       </c>
-      <c r="N7" s="95">
+      <c r="N7" s="78">
         <v>172</v>
       </c>
-      <c r="O7" s="95">
+      <c r="O7" s="78">
         <v>172</v>
       </c>
-      <c r="P7" s="95">
+      <c r="P7" s="78">
         <v>172</v>
       </c>
-      <c r="Q7" s="95">
+      <c r="Q7" s="78">
         <v>172</v>
       </c>
-      <c r="R7" s="95">
+      <c r="R7" s="78">
         <v>172</v>
       </c>
-      <c r="S7" s="95">
+      <c r="S7" s="78">
         <v>172</v>
       </c>
-      <c r="Z7" s="95">
+      <c r="X7" s="78">
+        <v>166</v>
+      </c>
+      <c r="Y7" s="78">
+        <v>169</v>
+      </c>
+      <c r="Z7" s="78">
         <v>172</v>
       </c>
-      <c r="AA7" s="95">
+      <c r="AA7" s="78">
         <v>172</v>
       </c>
-      <c r="AB7" s="95">
+      <c r="AB7" s="78">
         <v>172</v>
       </c>
-      <c r="AC7" s="95">
+      <c r="AC7" s="78">
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="95" customFormat="1" ht="13">
-      <c r="A8" s="96" t="s">
+    <row r="8" spans="1:33" s="78" customFormat="1" ht="13">
+      <c r="A8" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="78">
+        <v>0</v>
+      </c>
+      <c r="F8" s="78">
+        <v>0</v>
+      </c>
+      <c r="G8" s="78">
+        <v>0</v>
+      </c>
+      <c r="H8" s="78">
+        <v>0</v>
+      </c>
+      <c r="I8" s="78">
+        <v>0</v>
+      </c>
+      <c r="J8" s="78">
+        <v>0</v>
+      </c>
+      <c r="K8" s="78">
+        <v>0</v>
+      </c>
+      <c r="L8" s="78">
+        <v>0</v>
+      </c>
+      <c r="M8" s="78">
+        <v>0</v>
+      </c>
+      <c r="N8" s="78">
+        <v>0</v>
+      </c>
+      <c r="O8" s="78">
+        <v>0</v>
+      </c>
+      <c r="P8" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="78">
+        <v>0</v>
+      </c>
+      <c r="R8" s="78">
+        <v>0</v>
+      </c>
+      <c r="S8" s="78">
+        <v>0</v>
+      </c>
+      <c r="X8" s="78">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="78">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="78">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="78">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="78" customFormat="1" ht="13">
+      <c r="A9" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E9" s="78">
         <v>47</v>
       </c>
-      <c r="I8" s="95">
+      <c r="I9" s="78">
         <v>27</v>
       </c>
-      <c r="M8" s="95">
+      <c r="M9" s="78">
         <v>22</v>
       </c>
-      <c r="N8" s="95">
+      <c r="N9" s="78">
         <v>22</v>
       </c>
-      <c r="O8" s="95">
+      <c r="O9" s="78">
         <v>22</v>
       </c>
-      <c r="P8" s="95">
+      <c r="P9" s="78">
         <v>22</v>
       </c>
-      <c r="Q8" s="95">
+      <c r="Q9" s="78">
         <v>22</v>
       </c>
-      <c r="R8" s="95">
+      <c r="R9" s="78">
         <v>20</v>
       </c>
-      <c r="S8" s="95">
+      <c r="S9" s="78">
         <v>20</v>
       </c>
-      <c r="Z8" s="95">
+      <c r="X9" s="78">
+        <v>85</v>
+      </c>
+      <c r="Y9" s="78">
+        <v>74</v>
+      </c>
+      <c r="Z9" s="78">
         <v>47</v>
       </c>
-      <c r="AA8" s="95">
+      <c r="AA9" s="78">
         <v>27</v>
       </c>
-      <c r="AB8" s="95">
+      <c r="AB9" s="78">
         <v>22</v>
       </c>
-      <c r="AC8" s="95">
+      <c r="AC9" s="78">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="95" customFormat="1" ht="13">
-      <c r="A9" s="96" t="s">
+    <row r="10" spans="1:33" s="78" customFormat="1" ht="13">
+      <c r="A10" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="95">
+      <c r="E10" s="78">
         <v>111</v>
       </c>
-      <c r="I9" s="95">
+      <c r="I10" s="78">
         <v>144</v>
       </c>
-      <c r="M9" s="95">
+      <c r="M10" s="78">
         <v>153</v>
       </c>
-      <c r="N9" s="95">
+      <c r="N10" s="78">
         <v>153</v>
       </c>
-      <c r="O9" s="95">
+      <c r="O10" s="78">
         <v>183</v>
       </c>
-      <c r="P9" s="95">
+      <c r="P10" s="78">
         <v>183</v>
       </c>
-      <c r="Q9" s="95">
+      <c r="Q10" s="78">
         <v>203</v>
       </c>
-      <c r="R9" s="95">
+      <c r="R10" s="78">
         <v>201</v>
       </c>
-      <c r="S9" s="95">
+      <c r="S10" s="78">
         <v>201</v>
       </c>
-      <c r="Z9" s="95">
+      <c r="X10" s="78">
+        <v>90</v>
+      </c>
+      <c r="Y10" s="78">
+        <v>106</v>
+      </c>
+      <c r="Z10" s="78">
         <v>111</v>
       </c>
-      <c r="AA9" s="95">
+      <c r="AA10" s="78">
         <v>144</v>
       </c>
-      <c r="AB9" s="95">
+      <c r="AB10" s="78">
         <v>153</v>
       </c>
-      <c r="AC9" s="95">
+      <c r="AC10" s="78">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="95" customFormat="1" ht="13"/>
-    <row r="11" spans="1:33" s="94" customFormat="1" ht="13">
-      <c r="A11" s="94" t="s">
+    <row r="11" spans="1:33" s="78" customFormat="1" ht="13"/>
+    <row r="12" spans="1:33" s="77" customFormat="1" ht="13">
+      <c r="A12" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="94">
-        <f t="shared" ref="B11" si="19">SUM(B12:B17)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="94">
-        <f t="shared" ref="C11" si="20">SUM(C12:C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="94">
-        <f t="shared" ref="D11" si="21">SUM(D12:D17)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="94">
-        <f t="shared" ref="E11" si="22">SUM(E12:E17)</f>
+      <c r="B12" s="77">
+        <f>SUM(B13:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="77">
+        <f>SUM(C13:C19)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="77">
+        <f>SUM(D13:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="77">
+        <f>SUM(E13:E19)</f>
         <v>1490</v>
       </c>
-      <c r="F11" s="94">
-        <f t="shared" ref="F11" si="23">SUM(F12:F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="94">
-        <f t="shared" ref="G11" si="24">SUM(G12:G17)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="94">
-        <f t="shared" ref="H11" si="25">SUM(H12:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="94">
-        <f t="shared" ref="I11" si="26">SUM(I12:I17)</f>
+      <c r="F12" s="77">
+        <f>SUM(F13:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="77">
+        <f>SUM(G13:G19)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="77">
+        <f>SUM(H13:H19)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="77">
+        <f>SUM(I13:I19)</f>
         <v>1579</v>
       </c>
-      <c r="J11" s="94">
-        <f t="shared" ref="J11" si="27">SUM(J12:J17)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="94">
-        <f t="shared" ref="K11" si="28">SUM(K12:K17)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="94">
-        <f t="shared" ref="L11" si="29">SUM(L12:L17)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="94">
-        <f t="shared" ref="M11" si="30">SUM(M12:M17)</f>
+      <c r="J12" s="77">
+        <f>SUM(J13:J19)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="77">
+        <f>SUM(K13:K19)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="77">
+        <f>SUM(L13:L19)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="77">
+        <f>SUM(M13:M19)</f>
         <v>1623</v>
       </c>
-      <c r="N11" s="94">
-        <f t="shared" ref="N11:Q11" si="31">SUM(N12:N17)</f>
+      <c r="N12" s="77">
+        <f>SUM(N13:N19)</f>
         <v>1632</v>
       </c>
-      <c r="O11" s="94">
-        <f t="shared" ref="O11" si="32">SUM(O12:O17)</f>
+      <c r="O12" s="77">
+        <f>SUM(O13:O19)</f>
         <v>1646</v>
       </c>
-      <c r="P11" s="94">
-        <f t="shared" si="31"/>
+      <c r="P12" s="77">
+        <f>SUM(P13:P19)</f>
         <v>1655</v>
       </c>
-      <c r="Q11" s="94">
-        <f t="shared" si="31"/>
+      <c r="Q12" s="77">
+        <f>SUM(Q13:Q19)</f>
         <v>1671</v>
       </c>
-      <c r="R11" s="94">
-        <f>SUM(R12:R17)</f>
+      <c r="R12" s="77">
+        <f>SUM(R13:R19)</f>
         <v>1677</v>
       </c>
-      <c r="S11" s="94">
-        <f t="shared" ref="S11" si="33">SUM(S12:S17)</f>
+      <c r="S12" s="77">
+        <f>SUM(S13:S19)</f>
         <v>1688</v>
       </c>
-      <c r="Z11" s="94">
-        <f t="shared" ref="Z11" si="34">SUM(Z12:Z17)</f>
+      <c r="X12" s="77">
+        <f>SUM(X13:X19)</f>
+        <v>1299</v>
+      </c>
+      <c r="Y12" s="77">
+        <f>SUM(Y13:Y19)</f>
+        <v>1400</v>
+      </c>
+      <c r="Z12" s="77">
+        <f>SUM(Z13:Z19)</f>
         <v>1490</v>
       </c>
-      <c r="AA11" s="94">
-        <f t="shared" ref="AA11" si="35">SUM(AA12:AA17)</f>
+      <c r="AA12" s="77">
+        <f>SUM(AA13:AA19)</f>
         <v>1579</v>
       </c>
-      <c r="AB11" s="94">
-        <f t="shared" ref="AB11" si="36">SUM(AB12:AB17)</f>
+      <c r="AB12" s="77">
+        <f>SUM(AB13:AB19)</f>
         <v>1623</v>
       </c>
-      <c r="AC11" s="94">
-        <f t="shared" ref="AC11" si="37">SUM(AC12:AC17)</f>
+      <c r="AC12" s="77">
+        <f>SUM(AC13:AC19)</f>
         <v>1671</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="95" customFormat="1" ht="13">
-      <c r="A12" s="96" t="s">
+    <row r="13" spans="1:33" s="78" customFormat="1" ht="13">
+      <c r="A13" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="E12" s="95">
+      <c r="E13" s="78">
         <v>191</v>
       </c>
-      <c r="I12" s="95">
+      <c r="I13" s="78">
         <v>191</v>
       </c>
-      <c r="M12" s="95">
+      <c r="M13" s="78">
         <v>191</v>
       </c>
-      <c r="N12" s="95">
+      <c r="N13" s="78">
         <v>191</v>
       </c>
-      <c r="O12" s="95">
+      <c r="O13" s="78">
         <v>191</v>
       </c>
-      <c r="P12" s="95">
+      <c r="P13" s="78">
         <v>191</v>
       </c>
-      <c r="Q12" s="95">
+      <c r="Q13" s="78">
         <v>191</v>
       </c>
-      <c r="R12" s="95">
+      <c r="R13" s="78">
         <v>191</v>
       </c>
-      <c r="S12" s="95">
+      <c r="S13" s="78">
         <v>191</v>
       </c>
-      <c r="Z12" s="95">
+      <c r="X13" s="78">
+        <v>190</v>
+      </c>
+      <c r="Y13" s="78">
+        <v>190</v>
+      </c>
+      <c r="Z13" s="78">
         <v>191</v>
       </c>
-      <c r="AA12" s="95">
+      <c r="AA13" s="78">
         <v>191</v>
       </c>
-      <c r="AB12" s="95">
+      <c r="AB13" s="78">
         <v>191</v>
       </c>
-      <c r="AC12" s="95">
+      <c r="AC13" s="78">
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="95" customFormat="1" ht="13">
-      <c r="A13" s="96" t="s">
+    <row r="14" spans="1:33" s="78" customFormat="1" ht="13">
+      <c r="A14" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="95">
+      <c r="E14" s="78">
         <v>567</v>
       </c>
-      <c r="I13" s="95">
+      <c r="I14" s="78">
         <v>634</v>
       </c>
-      <c r="M13" s="95">
+      <c r="M14" s="78">
         <v>666</v>
       </c>
-      <c r="N13" s="95">
+      <c r="N14" s="78">
         <v>668</v>
       </c>
-      <c r="O13" s="95">
+      <c r="O14" s="78">
         <v>675</v>
       </c>
-      <c r="P13" s="95">
+      <c r="P14" s="78">
         <v>681</v>
       </c>
-      <c r="Q13" s="95">
+      <c r="Q14" s="78">
         <v>693</v>
       </c>
-      <c r="R13" s="95">
+      <c r="R14" s="78">
         <v>697</v>
       </c>
-      <c r="S13" s="95">
+      <c r="S14" s="78">
         <v>705</v>
       </c>
-      <c r="Z13" s="95">
+      <c r="X14" s="78">
+        <v>421</v>
+      </c>
+      <c r="Y14" s="78">
+        <v>500</v>
+      </c>
+      <c r="Z14" s="78">
         <v>567</v>
       </c>
-      <c r="AA13" s="95">
+      <c r="AA14" s="78">
         <v>634</v>
       </c>
-      <c r="AB13" s="95">
+      <c r="AB14" s="78">
         <v>666</v>
       </c>
-      <c r="AC13" s="95">
+      <c r="AC14" s="78">
         <v>693</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="95" customFormat="1" ht="13">
-      <c r="A14" s="96" t="s">
+    <row r="15" spans="1:33" s="78" customFormat="1" ht="13">
+      <c r="A15" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E15" s="78">
         <v>559</v>
       </c>
-      <c r="I14" s="95">
+      <c r="I15" s="78">
         <v>564</v>
       </c>
-      <c r="M14" s="95">
+      <c r="M15" s="78">
         <v>565</v>
       </c>
-      <c r="N14" s="95">
+      <c r="N15" s="78">
         <v>565</v>
       </c>
-      <c r="O14" s="95">
+      <c r="O15" s="78">
         <v>565</v>
       </c>
-      <c r="P14" s="95">
+      <c r="P15" s="78">
         <v>565</v>
       </c>
-      <c r="Q14" s="95">
+      <c r="Q15" s="78">
         <v>565</v>
       </c>
-      <c r="R14" s="95">
+      <c r="R15" s="78">
         <v>565</v>
       </c>
-      <c r="S14" s="95">
+      <c r="S15" s="78">
         <v>565</v>
       </c>
-      <c r="Z14" s="95">
+      <c r="X15" s="78">
+        <v>534</v>
+      </c>
+      <c r="Y15" s="78">
+        <v>546</v>
+      </c>
+      <c r="Z15" s="78">
         <v>559</v>
       </c>
-      <c r="AA14" s="95">
+      <c r="AA15" s="78">
         <v>564</v>
       </c>
-      <c r="AB14" s="95">
+      <c r="AB15" s="78">
         <v>565</v>
       </c>
-      <c r="AC14" s="95">
+      <c r="AC15" s="78">
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="95" customFormat="1" ht="13">
-      <c r="A15" s="96" t="s">
+    <row r="16" spans="1:33" s="78" customFormat="1" ht="13">
+      <c r="A16" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E16" s="78">
         <v>169</v>
       </c>
-      <c r="I15" s="95">
+      <c r="I16" s="78">
         <v>172</v>
       </c>
-      <c r="M15" s="95">
+      <c r="M16" s="78">
         <v>172</v>
       </c>
-      <c r="N15" s="95">
+      <c r="N16" s="78">
         <v>172</v>
       </c>
-      <c r="O15" s="95">
+      <c r="O16" s="78">
         <v>172</v>
       </c>
-      <c r="P15" s="95">
+      <c r="P16" s="78">
         <v>172</v>
       </c>
-      <c r="Q15" s="95">
+      <c r="Q16" s="78">
         <v>172</v>
       </c>
-      <c r="R15" s="95">
+      <c r="R16" s="78">
         <v>172</v>
       </c>
-      <c r="S15" s="95">
+      <c r="S16" s="78">
         <v>172</v>
       </c>
-      <c r="Z15" s="95">
+      <c r="X16" s="78">
+        <v>154</v>
+      </c>
+      <c r="Y16" s="78">
+        <v>164</v>
+      </c>
+      <c r="Z16" s="78">
         <v>169</v>
       </c>
-      <c r="AA15" s="95">
+      <c r="AA16" s="78">
         <v>172</v>
       </c>
-      <c r="AB15" s="95">
+      <c r="AB16" s="78">
         <v>172</v>
       </c>
-      <c r="AC15" s="95">
+      <c r="AC16" s="78">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="95" customFormat="1" ht="13">
-      <c r="A16" s="96" t="s">
+    <row r="17" spans="1:29" s="78" customFormat="1" ht="13">
+      <c r="A17" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="78">
+        <v>0</v>
+      </c>
+      <c r="F17" s="78">
+        <v>0</v>
+      </c>
+      <c r="G17" s="78">
+        <v>0</v>
+      </c>
+      <c r="H17" s="78">
+        <v>0</v>
+      </c>
+      <c r="I17" s="78">
+        <v>0</v>
+      </c>
+      <c r="J17" s="78">
+        <v>0</v>
+      </c>
+      <c r="K17" s="78">
+        <v>0</v>
+      </c>
+      <c r="L17" s="78">
+        <v>0</v>
+      </c>
+      <c r="M17" s="78">
+        <v>0</v>
+      </c>
+      <c r="N17" s="78">
+        <v>0</v>
+      </c>
+      <c r="O17" s="78">
+        <v>0</v>
+      </c>
+      <c r="P17" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="78">
+        <v>0</v>
+      </c>
+      <c r="R17" s="78">
+        <v>0</v>
+      </c>
+      <c r="S17" s="78">
+        <v>0</v>
+      </c>
+      <c r="X17" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="78">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="78">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="78" customFormat="1" ht="13">
+      <c r="A18" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E18" s="78">
         <v>4</v>
       </c>
-      <c r="I16" s="95">
+      <c r="I18" s="78">
         <v>11</v>
       </c>
-      <c r="M16" s="95">
+      <c r="M18" s="78">
         <v>15</v>
       </c>
-      <c r="N16" s="95">
+      <c r="N18" s="78">
         <v>17</v>
       </c>
-      <c r="O16" s="95">
+      <c r="O18" s="78">
         <v>17</v>
       </c>
-      <c r="P16" s="95">
+      <c r="P18" s="78">
         <v>17</v>
       </c>
-      <c r="Q16" s="95">
+      <c r="Q18" s="78">
         <v>17</v>
       </c>
-      <c r="R16" s="95">
+      <c r="R18" s="78">
         <v>17</v>
       </c>
-      <c r="S16" s="95">
+      <c r="S18" s="78">
         <v>17</v>
       </c>
-      <c r="Z16" s="95">
+      <c r="X18" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="78">
         <v>4</v>
       </c>
-      <c r="AA16" s="95">
+      <c r="AA18" s="78">
         <v>11</v>
       </c>
-      <c r="AB16" s="95">
+      <c r="AB18" s="78">
         <v>15</v>
       </c>
-      <c r="AC16" s="95">
+      <c r="AC18" s="78">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="95" customFormat="1" ht="13">
-      <c r="A17" s="96" t="s">
+    <row r="19" spans="1:29" s="78" customFormat="1" ht="13">
+      <c r="A19" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="95">
-        <v>0</v>
-      </c>
-      <c r="I17" s="95">
+      <c r="E19" s="78">
+        <v>0</v>
+      </c>
+      <c r="I19" s="78">
         <v>7</v>
       </c>
-      <c r="M17" s="95">
+      <c r="M19" s="78">
         <v>14</v>
       </c>
-      <c r="N17" s="95">
+      <c r="N19" s="78">
         <v>19</v>
       </c>
-      <c r="O17" s="95">
+      <c r="O19" s="78">
         <v>26</v>
       </c>
-      <c r="P17" s="95">
+      <c r="P19" s="78">
         <v>29</v>
       </c>
-      <c r="Q17" s="95">
+      <c r="Q19" s="78">
         <v>33</v>
       </c>
-      <c r="R17" s="95">
+      <c r="R19" s="78">
         <v>35</v>
       </c>
-      <c r="S17" s="95">
+      <c r="S19" s="78">
         <v>38</v>
       </c>
-      <c r="Z17" s="95">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="95">
+      <c r="X19" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="78">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="78">
         <v>7</v>
       </c>
-      <c r="AB17" s="95">
+      <c r="AB19" s="78">
         <v>14</v>
       </c>
-      <c r="AC17" s="95">
+      <c r="AC19" s="78">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="95" customFormat="1" ht="13">
-      <c r="A18" s="96"/>
-    </row>
-    <row r="19" spans="1:29" s="94" customFormat="1" ht="13">
-      <c r="A19" s="94" t="s">
+    <row r="20" spans="1:29" s="78" customFormat="1" ht="13">
+      <c r="A20" s="79"/>
+    </row>
+    <row r="21" spans="1:29" s="77" customFormat="1" ht="13">
+      <c r="A21" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="94">
-        <f t="shared" ref="B19" si="38">SUM(B20:B25)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="94">
-        <f t="shared" ref="C19" si="39">SUM(C20:C25)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="94">
-        <f t="shared" ref="D19" si="40">SUM(D20:D25)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="94">
-        <f t="shared" ref="E19" si="41">SUM(E20:E25)</f>
+      <c r="B21" s="77">
+        <f>SUM(B22:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="77">
+        <f>SUM(C22:C28)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="77">
+        <f>SUM(D22:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="77">
+        <f>SUM(E22:E28)</f>
         <v>368</v>
       </c>
-      <c r="F19" s="94">
-        <f t="shared" ref="F19" si="42">SUM(F20:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="94">
-        <f t="shared" ref="G19" si="43">SUM(G20:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="94">
-        <f t="shared" ref="H19" si="44">SUM(H20:H25)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="94">
-        <f t="shared" ref="I19" si="45">SUM(I20:I25)</f>
+      <c r="F21" s="77">
+        <f>SUM(F22:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="77">
+        <f>SUM(G22:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="77">
+        <f>SUM(H22:H28)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="77">
+        <f>SUM(I22:I28)</f>
         <v>338</v>
       </c>
-      <c r="J19" s="94">
-        <f t="shared" ref="J19" si="46">SUM(J20:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="94">
-        <f t="shared" ref="K19" si="47">SUM(K20:K25)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="94">
-        <f t="shared" ref="L19" si="48">SUM(L20:L25)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="94">
-        <f t="shared" ref="M19" si="49">SUM(M20:M25)</f>
+      <c r="J21" s="77">
+        <f>SUM(J22:J28)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="77">
+        <f>SUM(K22:K28)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="77">
+        <f>SUM(L22:L28)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="77">
+        <f>SUM(M22:M28)</f>
         <v>281</v>
       </c>
-      <c r="N19" s="94">
-        <f t="shared" ref="N19:Q19" si="50">SUM(N20:N25)</f>
+      <c r="N21" s="77">
+        <f>SUM(N22:N28)</f>
         <v>272</v>
       </c>
-      <c r="O19" s="94">
-        <f t="shared" ref="O19" si="51">SUM(O20:O25)</f>
+      <c r="O21" s="77">
+        <f>SUM(O22:O28)</f>
         <v>306</v>
       </c>
-      <c r="P19" s="94">
-        <f t="shared" si="50"/>
+      <c r="P21" s="77">
+        <f>SUM(P22:P28)</f>
         <v>313</v>
       </c>
-      <c r="Q19" s="94">
-        <f t="shared" si="50"/>
+      <c r="Q21" s="77">
+        <f>SUM(Q22:Q28)</f>
         <v>325</v>
       </c>
-      <c r="R19" s="94">
-        <f>SUM(R20:R25)</f>
+      <c r="R21" s="77">
+        <f>SUM(R22:R28)</f>
         <v>315</v>
       </c>
-      <c r="S19" s="94">
-        <f t="shared" ref="S19" si="52">SUM(S20:S25)</f>
+      <c r="S21" s="77">
+        <f>SUM(S22:S28)</f>
         <v>312</v>
       </c>
-      <c r="Z19" s="94">
-        <f t="shared" ref="Z19" si="53">SUM(Z20:Z25)</f>
+      <c r="X21" s="77">
+        <f>SUM(X22:X28)</f>
+        <v>450</v>
+      </c>
+      <c r="Y21" s="77">
+        <f>SUM(Y22:Y28)</f>
+        <v>435</v>
+      </c>
+      <c r="Z21" s="77">
+        <f>SUM(Z22:Z28)</f>
         <v>368</v>
       </c>
-      <c r="AA19" s="94">
-        <f t="shared" ref="AA19" si="54">SUM(AA20:AA25)</f>
+      <c r="AA21" s="77">
+        <f>SUM(AA22:AA28)</f>
         <v>338</v>
       </c>
-      <c r="AB19" s="94">
-        <f t="shared" ref="AB19" si="55">SUM(AB20:AB25)</f>
+      <c r="AB21" s="77">
+        <f>SUM(AB22:AB28)</f>
         <v>281</v>
       </c>
-      <c r="AC19" s="94">
-        <f t="shared" ref="AC19" si="56">SUM(AC20:AC25)</f>
+      <c r="AC21" s="77">
+        <f>SUM(AC22:AC28)</f>
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="95" customFormat="1" ht="13">
-      <c r="A20" s="96" t="s">
+    <row r="22" spans="1:29" s="78" customFormat="1" ht="13">
+      <c r="A22" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="95">
-        <v>0</v>
-      </c>
-      <c r="I20" s="95">
-        <v>0</v>
-      </c>
-      <c r="M20" s="95">
-        <v>0</v>
-      </c>
-      <c r="N20" s="95">
-        <v>0</v>
-      </c>
-      <c r="O20" s="95">
-        <v>0</v>
-      </c>
-      <c r="P20" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="95">
-        <v>0</v>
-      </c>
-      <c r="R20" s="95">
-        <v>0</v>
-      </c>
-      <c r="S20" s="95">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="95">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="95">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="95">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" s="95" customFormat="1" ht="13">
-      <c r="A21" s="96" t="s">
+      <c r="E22" s="78">
+        <v>0</v>
+      </c>
+      <c r="I22" s="78">
+        <v>0</v>
+      </c>
+      <c r="M22" s="78">
+        <v>0</v>
+      </c>
+      <c r="N22" s="78">
+        <v>0</v>
+      </c>
+      <c r="O22" s="78">
+        <v>0</v>
+      </c>
+      <c r="P22" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="78">
+        <v>0</v>
+      </c>
+      <c r="R22" s="78">
+        <v>0</v>
+      </c>
+      <c r="S22" s="78">
+        <v>0</v>
+      </c>
+      <c r="X22" s="78">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="78">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="78">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="78">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" s="78" customFormat="1" ht="13">
+      <c r="A23" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="95">
+      <c r="E23" s="78">
         <v>204</v>
       </c>
-      <c r="I21" s="95">
+      <c r="I23" s="78">
         <v>181</v>
       </c>
-      <c r="M21" s="95">
+      <c r="M23" s="78">
         <v>132</v>
       </c>
-      <c r="N21" s="95">
+      <c r="N23" s="78">
         <v>130</v>
       </c>
-      <c r="O21" s="95">
+      <c r="O23" s="78">
         <v>141</v>
       </c>
-      <c r="P21" s="95">
+      <c r="P23" s="78">
         <v>151</v>
       </c>
-      <c r="Q21" s="95">
+      <c r="Q23" s="78">
         <v>147</v>
       </c>
-      <c r="R21" s="95">
+      <c r="R23" s="78">
         <v>143</v>
       </c>
-      <c r="S21" s="95">
+      <c r="S23" s="78">
         <v>143</v>
       </c>
-      <c r="Z21" s="95">
+      <c r="X23" s="78">
+        <v>104</v>
+      </c>
+      <c r="Y23" s="78">
+        <v>103</v>
+      </c>
+      <c r="Z23" s="78">
         <v>204</v>
       </c>
-      <c r="AA21" s="95">
+      <c r="AA23" s="78">
         <v>181</v>
       </c>
-      <c r="AB21" s="95">
+      <c r="AB23" s="78">
         <v>132</v>
       </c>
-      <c r="AC21" s="95">
+      <c r="AC23" s="78">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="95" customFormat="1" ht="13">
-      <c r="A22" s="96" t="s">
+    <row r="24" spans="1:29" s="78" customFormat="1" ht="13">
+      <c r="A24" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="95">
+      <c r="E24" s="78">
         <v>7</v>
       </c>
-      <c r="I22" s="95">
+      <c r="I24" s="78">
         <v>4</v>
       </c>
-      <c r="M22" s="95">
+      <c r="M24" s="78">
         <v>3</v>
       </c>
-      <c r="N22" s="95">
+      <c r="N24" s="78">
         <v>3</v>
       </c>
-      <c r="O22" s="95">
+      <c r="O24" s="78">
         <v>3</v>
       </c>
-      <c r="P22" s="95">
+      <c r="P24" s="78">
         <v>3</v>
       </c>
-      <c r="Q22" s="95">
+      <c r="Q24" s="78">
         <v>3</v>
       </c>
-      <c r="R22" s="95">
+      <c r="R24" s="78">
         <v>3</v>
       </c>
-      <c r="S22" s="95">
+      <c r="S24" s="78">
         <v>3</v>
       </c>
-      <c r="Z22" s="95">
+      <c r="X24" s="78">
+        <v>56</v>
+      </c>
+      <c r="Y24" s="78">
+        <v>46</v>
+      </c>
+      <c r="Z24" s="78">
         <v>7</v>
       </c>
-      <c r="AA22" s="95">
+      <c r="AA24" s="78">
         <v>4</v>
       </c>
-      <c r="AB22" s="95">
+      <c r="AB24" s="78">
         <v>3</v>
       </c>
-      <c r="AC22" s="95">
+      <c r="AC24" s="78">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="95" customFormat="1" ht="13">
-      <c r="A23" s="96" t="s">
+    <row r="25" spans="1:29" s="78" customFormat="1" ht="13">
+      <c r="A25" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="E23" s="95">
+      <c r="E25" s="78">
         <v>3</v>
       </c>
-      <c r="I23" s="95">
-        <v>0</v>
-      </c>
-      <c r="M23" s="95">
-        <v>0</v>
-      </c>
-      <c r="N23" s="95">
-        <v>0</v>
-      </c>
-      <c r="O23" s="95">
-        <v>0</v>
-      </c>
-      <c r="P23" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="95">
-        <v>0</v>
-      </c>
-      <c r="R23" s="95">
-        <v>0</v>
-      </c>
-      <c r="S23" s="95">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="95">
+      <c r="I25" s="78">
+        <v>0</v>
+      </c>
+      <c r="M25" s="78">
+        <v>0</v>
+      </c>
+      <c r="N25" s="78">
+        <v>0</v>
+      </c>
+      <c r="O25" s="78">
+        <v>0</v>
+      </c>
+      <c r="P25" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="78">
+        <v>0</v>
+      </c>
+      <c r="R25" s="78">
+        <v>0</v>
+      </c>
+      <c r="S25" s="78">
+        <v>0</v>
+      </c>
+      <c r="X25" s="78">
+        <v>12</v>
+      </c>
+      <c r="Y25" s="78">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="78">
         <v>3</v>
       </c>
-      <c r="AA23" s="95">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="95">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" s="95" customFormat="1" ht="13">
-      <c r="A24" s="96" t="s">
+      <c r="AA25" s="78">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="78">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="78" customFormat="1" ht="13">
+      <c r="A26" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" s="78">
+        <v>0</v>
+      </c>
+      <c r="F26" s="78">
+        <v>0</v>
+      </c>
+      <c r="G26" s="78">
+        <v>0</v>
+      </c>
+      <c r="H26" s="78">
+        <v>0</v>
+      </c>
+      <c r="I26" s="78">
+        <v>0</v>
+      </c>
+      <c r="J26" s="78">
+        <v>0</v>
+      </c>
+      <c r="K26" s="78">
+        <v>0</v>
+      </c>
+      <c r="L26" s="78">
+        <v>0</v>
+      </c>
+      <c r="M26" s="78">
+        <v>0</v>
+      </c>
+      <c r="N26" s="78">
+        <v>0</v>
+      </c>
+      <c r="O26" s="78">
+        <v>0</v>
+      </c>
+      <c r="P26" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="78">
+        <v>0</v>
+      </c>
+      <c r="R26" s="78">
+        <v>0</v>
+      </c>
+      <c r="S26" s="78">
+        <v>0</v>
+      </c>
+      <c r="X26" s="78">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="78">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="78">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="78">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="78" customFormat="1" ht="13">
+      <c r="A27" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="E24" s="95">
+      <c r="E27" s="78">
         <v>43</v>
       </c>
-      <c r="I24" s="95">
+      <c r="I27" s="78">
         <v>16</v>
       </c>
-      <c r="M24" s="95">
+      <c r="M27" s="78">
         <v>7</v>
       </c>
-      <c r="N24" s="95">
+      <c r="N27" s="78">
         <v>5</v>
       </c>
-      <c r="O24" s="95">
+      <c r="O27" s="78">
         <v>5</v>
       </c>
-      <c r="P24" s="95">
+      <c r="P27" s="78">
         <v>5</v>
       </c>
-      <c r="Q24" s="95">
+      <c r="Q27" s="78">
         <v>5</v>
       </c>
-      <c r="R24" s="95">
+      <c r="R27" s="78">
         <v>3</v>
       </c>
-      <c r="S24" s="95">
+      <c r="S27" s="78">
         <v>3</v>
       </c>
-      <c r="Z24" s="95">
+      <c r="X27" s="78">
+        <v>85</v>
+      </c>
+      <c r="Y27" s="78">
+        <v>74</v>
+      </c>
+      <c r="Z27" s="78">
         <v>43</v>
       </c>
-      <c r="AA24" s="95">
+      <c r="AA27" s="78">
         <v>16</v>
       </c>
-      <c r="AB24" s="95">
+      <c r="AB27" s="78">
         <v>7</v>
       </c>
-      <c r="AC24" s="95">
+      <c r="AC27" s="78">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="95" customFormat="1" ht="13">
-      <c r="A25" s="96" t="s">
+    <row r="28" spans="1:29" s="78" customFormat="1" ht="13">
+      <c r="A28" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="95">
+      <c r="E28" s="78">
         <v>111</v>
       </c>
-      <c r="I25" s="95">
+      <c r="I28" s="78">
         <v>137</v>
       </c>
-      <c r="M25" s="95">
+      <c r="M28" s="78">
         <v>139</v>
       </c>
-      <c r="N25" s="95">
+      <c r="N28" s="78">
         <v>134</v>
       </c>
-      <c r="O25" s="95">
+      <c r="O28" s="78">
         <v>157</v>
       </c>
-      <c r="P25" s="95">
+      <c r="P28" s="78">
         <v>154</v>
       </c>
-      <c r="Q25" s="95">
+      <c r="Q28" s="78">
         <v>170</v>
       </c>
-      <c r="R25" s="95">
+      <c r="R28" s="78">
         <v>166</v>
       </c>
-      <c r="S25" s="95">
+      <c r="S28" s="78">
         <v>163</v>
       </c>
-      <c r="Z25" s="95">
+      <c r="X28" s="78">
+        <v>90</v>
+      </c>
+      <c r="Y28" s="78">
+        <v>106</v>
+      </c>
+      <c r="Z28" s="78">
         <v>111</v>
       </c>
-      <c r="AA25" s="95">
+      <c r="AA28" s="78">
         <v>137</v>
       </c>
-      <c r="AB25" s="95">
+      <c r="AB28" s="78">
         <v>139</v>
       </c>
-      <c r="AC25" s="95">
+      <c r="AC28" s="78">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="2" customFormat="1" ht="13">
-      <c r="A28" s="2" t="s">
+    <row r="31" spans="1:29" s="2" customFormat="1" ht="13">
+      <c r="A31" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I28" s="34">
-        <f t="shared" ref="I28" si="57">I3/E3-1</f>
+      <c r="I31" s="34">
+        <f>I3/E3-1</f>
         <v>3.1754574811625469E-2</v>
       </c>
-      <c r="M28" s="34">
-        <f t="shared" ref="M28" si="58">M3/I3-1</f>
+      <c r="M31" s="34">
+        <f>M3/I3-1</f>
         <v>-6.7814293166406081E-3</v>
       </c>
-      <c r="Q28" s="34">
-        <f t="shared" ref="Q28" si="59">Q3/M3-1</f>
+      <c r="Q31" s="34">
+        <f>Q3/M3-1</f>
         <v>4.8319327731092487E-2</v>
       </c>
-      <c r="R28" s="34">
+      <c r="R31" s="34">
         <f>R3/N3-1</f>
         <v>4.6218487394958041E-2</v>
       </c>
-      <c r="S28" s="34">
-        <f t="shared" ref="S28" si="60">S3/O3-1</f>
+      <c r="S31" s="34">
+        <f>S3/O3-1</f>
         <v>2.4590163934426146E-2</v>
       </c>
-      <c r="AA28" s="34">
-        <f t="shared" ref="AA28:AC28" si="61">AA3/Z3-1</f>
+      <c r="Y31" s="34">
+        <f t="shared" ref="Y31:AA31" si="19">Y3/X3-1</f>
+        <v>4.9170954831332159E-2</v>
+      </c>
+      <c r="Z31" s="34">
+        <f t="shared" si="19"/>
+        <v>1.2534059945504161E-2</v>
+      </c>
+      <c r="AA31" s="34">
+        <f>AA3/Z3-1</f>
         <v>3.1754574811625469E-2</v>
       </c>
-      <c r="AB28" s="34">
-        <f t="shared" si="61"/>
+      <c r="AB31" s="34">
+        <f>AB3/AA3-1</f>
         <v>-6.7814293166406081E-3</v>
       </c>
-      <c r="AC28" s="34">
+      <c r="AC31" s="34">
         <f>AC3/AB3-1</f>
         <v>4.8319327731092487E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="98" customFormat="1" ht="13">
-      <c r="A29" s="98" t="s">
+    <row r="32" spans="1:29" s="81" customFormat="1" ht="13">
+      <c r="A32" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="I29" s="98">
-        <f t="shared" ref="I29" si="62">I3-E3</f>
+      <c r="I32" s="81">
+        <f>I3-E3</f>
         <v>59</v>
       </c>
-      <c r="M29" s="98">
-        <f t="shared" ref="M29" si="63">M3-I3</f>
+      <c r="M32" s="81">
+        <f>M3-I3</f>
         <v>-13</v>
       </c>
-      <c r="Q29" s="98">
-        <f t="shared" ref="Q29:R29" si="64">Q3-M3</f>
+      <c r="Q32" s="81">
+        <f>Q3-M3</f>
         <v>92</v>
       </c>
-      <c r="R29" s="98">
-        <f t="shared" si="64"/>
+      <c r="R32" s="81">
+        <f>R3-N3</f>
         <v>88</v>
       </c>
-      <c r="S29" s="98">
+      <c r="S32" s="81">
         <f>S3-O3</f>
         <v>48</v>
       </c>
-      <c r="AA29" s="98">
-        <f t="shared" ref="AA29:AC29" si="65">AA3-Z3</f>
+      <c r="Y32" s="81">
+        <f t="shared" ref="Y32:AA32" si="20">Y3-X3</f>
+        <v>86</v>
+      </c>
+      <c r="Z32" s="81">
+        <f t="shared" si="20"/>
+        <v>23</v>
+      </c>
+      <c r="AA32" s="81">
+        <f>AA3-Z3</f>
         <v>59</v>
       </c>
-      <c r="AB29" s="98">
-        <f t="shared" si="65"/>
+      <c r="AB32" s="81">
+        <f>AB3-AA3</f>
         <v>-13</v>
       </c>
-      <c r="AC29" s="98">
+      <c r="AC32" s="81">
         <f>AC3-AB3</f>
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
-      <c r="A30" s="3" t="s">
+    <row r="33" spans="1:29">
+      <c r="A33" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="N30" s="25">
-        <f t="shared" ref="N30:Q30" si="66">N3/M3-1</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="25">
-        <f t="shared" si="66"/>
+      <c r="N33" s="25">
+        <f>N3/M3-1</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="25">
+        <f>O3/N3-1</f>
         <v>2.5210084033613356E-2</v>
       </c>
-      <c r="P30" s="25">
-        <f t="shared" si="66"/>
+      <c r="P33" s="25">
+        <f>P3/O3-1</f>
         <v>8.1967213114753079E-3</v>
       </c>
-      <c r="Q30" s="25">
-        <f t="shared" ref="Q30:R30" si="67">Q3/P3-1</f>
+      <c r="Q33" s="25">
+        <f>Q3/P3-1</f>
         <v>1.4227642276422703E-2</v>
       </c>
-      <c r="R30" s="25">
+      <c r="R33" s="25">
         <f>R3/Q3-1</f>
         <v>-2.0040080160320661E-3</v>
       </c>
-      <c r="S30" s="25">
-        <f t="shared" ref="S30" si="68">S3/R3-1</f>
+      <c r="S33" s="25">
+        <f>S3/R3-1</f>
         <v>4.0160642570281624E-3</v>
       </c>
-      <c r="Z30" s="63" t="s">
+      <c r="X33" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AA30" s="63" t="s">
+      <c r="Y33" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AB30" s="63" t="s">
+      <c r="Z33" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AC30" s="63" t="s">
+      <c r="AA33" s="63" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" s="99" customFormat="1">
-      <c r="A31" s="99" t="s">
+      <c r="AB33" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC33" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" s="82" customFormat="1">
+      <c r="A34" s="105" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="N31" s="98">
-        <f>N3-M3</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="98">
-        <f>O3-N3</f>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="N34" s="81">
+        <f t="shared" ref="N34:S34" si="21">N3-M3</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="81">
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
-      <c r="P31" s="98">
-        <f>P3-O3</f>
+      <c r="P34" s="81">
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
-      <c r="Q31" s="98">
-        <f>Q3-P3</f>
+      <c r="Q34" s="81">
+        <f t="shared" si="21"/>
         <v>28</v>
       </c>
-      <c r="R31" s="98">
-        <f>R3-Q3</f>
+      <c r="R34" s="81">
+        <f t="shared" si="21"/>
         <v>-4</v>
       </c>
-      <c r="S31" s="98">
-        <f>S3-R3</f>
+      <c r="S34" s="81">
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="Z31" s="63" t="s">
+      <c r="X34" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AA31" s="63" t="s">
+      <c r="Y34" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AB31" s="63" t="s">
+      <c r="Z34" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AC31" s="63" t="s">
+      <c r="AA34" s="63" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="32" spans="1:29">
-      <c r="AC32" s="25"/>
-    </row>
-    <row r="33" spans="1:29" s="2" customFormat="1" ht="13">
-      <c r="A33" s="2" t="s">
+      <c r="AB34" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC34" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="AC35" s="25"/>
+    </row>
+    <row r="36" spans="1:29" s="2" customFormat="1" ht="13">
+      <c r="A36" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I33" s="34">
-        <f t="shared" ref="I33" si="69">I11/E11-1</f>
+      <c r="I36" s="34">
+        <f>I12/E12-1</f>
         <v>5.9731543624160999E-2</v>
       </c>
-      <c r="M33" s="34">
-        <f t="shared" ref="M33" si="70">M11/I11-1</f>
+      <c r="M36" s="34">
+        <f>M12/I12-1</f>
         <v>2.7865737808739688E-2</v>
       </c>
-      <c r="Q33" s="34">
-        <f t="shared" ref="Q33" si="71">Q11/M11-1</f>
+      <c r="Q36" s="34">
+        <f>Q12/M12-1</f>
         <v>2.9574861367837268E-2</v>
       </c>
-      <c r="R33" s="34">
-        <f>R11/N11-1</f>
+      <c r="R36" s="34">
+        <f>R12/N12-1</f>
         <v>2.7573529411764719E-2</v>
       </c>
-      <c r="S33" s="34">
-        <f t="shared" ref="S33" si="72">S11/O11-1</f>
+      <c r="S36" s="34">
+        <f>S12/O12-1</f>
         <v>2.5516403402187082E-2</v>
       </c>
-      <c r="AA33" s="34">
-        <f t="shared" ref="AA33:AB33" si="73">AA11/Z11-1</f>
+      <c r="Y36" s="34">
+        <f t="shared" ref="Y36:AA36" si="22">Y12/X12-1</f>
+        <v>7.7752117013087041E-2</v>
+      </c>
+      <c r="Z36" s="34">
+        <f t="shared" si="22"/>
+        <v>6.4285714285714279E-2</v>
+      </c>
+      <c r="AA36" s="34">
+        <f>AA12/Z12-1</f>
         <v>5.9731543624160999E-2</v>
       </c>
-      <c r="AB33" s="34">
-        <f>AB11/AA11-1</f>
+      <c r="AB36" s="34">
+        <f>AB12/AA12-1</f>
         <v>2.7865737808739688E-2</v>
       </c>
-      <c r="AC33" s="34">
-        <f>AC11/AB11-1</f>
+      <c r="AC36" s="34">
+        <f>AC12/AB12-1</f>
         <v>2.9574861367837268E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="98" customFormat="1" ht="13">
-      <c r="A34" s="98" t="s">
+    <row r="37" spans="1:29" s="81" customFormat="1" ht="13">
+      <c r="A37" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="I34" s="98">
-        <f t="shared" ref="I34" si="74">I11-E11</f>
+      <c r="I37" s="81">
+        <f>I12-E12</f>
         <v>89</v>
       </c>
-      <c r="M34" s="98">
-        <f t="shared" ref="M34" si="75">M11-I11</f>
+      <c r="M37" s="81">
+        <f>M12-I12</f>
         <v>44</v>
       </c>
-      <c r="Q34" s="98">
-        <f t="shared" ref="Q34:R34" si="76">Q11-M11</f>
+      <c r="Q37" s="81">
+        <f>Q12-M12</f>
         <v>48</v>
       </c>
-      <c r="R34" s="98">
-        <f t="shared" si="76"/>
+      <c r="R37" s="81">
+        <f>R12-N12</f>
         <v>45</v>
       </c>
-      <c r="S34" s="98">
-        <f>S11-O11</f>
+      <c r="S37" s="81">
+        <f>S12-O12</f>
         <v>42</v>
       </c>
-      <c r="AA34" s="98">
-        <f t="shared" ref="AA34:AC34" si="77">AA11-Z11</f>
+      <c r="Y37" s="81">
+        <f t="shared" ref="Y37:AA37" si="23">Y12-X12</f>
+        <v>101</v>
+      </c>
+      <c r="Z37" s="81">
+        <f t="shared" si="23"/>
+        <v>90</v>
+      </c>
+      <c r="AA37" s="81">
+        <f>AA12-Z12</f>
         <v>89</v>
       </c>
-      <c r="AB34" s="98">
-        <f t="shared" si="77"/>
+      <c r="AB37" s="81">
+        <f>AB12-AA12</f>
         <v>44</v>
       </c>
-      <c r="AC34" s="98">
-        <f>AC11-AB11</f>
+      <c r="AC37" s="81">
+        <f>AC12-AB12</f>
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
-      <c r="A35" s="3" t="s">
+    <row r="38" spans="1:29">
+      <c r="A38" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="N35" s="25">
-        <f t="shared" ref="N35:Q35" si="78">N11/M11-1</f>
+      <c r="N38" s="25">
+        <f>N12/M12-1</f>
         <v>5.5452865064695711E-3</v>
       </c>
-      <c r="O35" s="25">
-        <f t="shared" si="78"/>
+      <c r="O38" s="25">
+        <f>O12/N12-1</f>
         <v>8.5784313725489891E-3</v>
       </c>
-      <c r="P35" s="25">
-        <f t="shared" si="78"/>
+      <c r="P38" s="25">
+        <f>P12/O12-1</f>
         <v>5.4678007290400732E-3</v>
       </c>
-      <c r="Q35" s="25">
-        <f t="shared" ref="Q35:R35" si="79">Q11/P11-1</f>
+      <c r="Q38" s="25">
+        <f>Q12/P12-1</f>
         <v>9.6676737160121817E-3</v>
       </c>
-      <c r="R35" s="25">
-        <f>R11/Q11-1</f>
+      <c r="R38" s="25">
+        <f>R12/Q12-1</f>
         <v>3.5906642728904536E-3</v>
       </c>
-      <c r="S35" s="25">
-        <f t="shared" ref="S35" si="80">S11/R11-1</f>
+      <c r="S38" s="25">
+        <f>S12/R12-1</f>
         <v>6.5593321407275695E-3</v>
       </c>
-      <c r="Z35" s="63" t="s">
+      <c r="X38" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AA35" s="63" t="s">
+      <c r="Y38" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AB35" s="63" t="s">
+      <c r="Z38" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AC35" s="63" t="s">
+      <c r="AA38" s="63" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" s="101" customFormat="1">
-      <c r="A36" s="101" t="s">
+      <c r="AB38" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC38" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" s="84" customFormat="1">
+      <c r="A39" s="106" t="s">
         <v>203</v>
       </c>
-      <c r="B36" s="102"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="N36" s="98">
-        <f t="shared" ref="N36:S36" si="81">N11-M11</f>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="N39" s="81">
+        <f>N12-M12</f>
         <v>9</v>
       </c>
-      <c r="O36" s="98">
-        <f t="shared" si="81"/>
+      <c r="O39" s="81">
+        <f>O12-N12</f>
         <v>14</v>
       </c>
-      <c r="P36" s="98">
-        <f t="shared" si="81"/>
+      <c r="P39" s="81">
+        <f>P12-O12</f>
         <v>9</v>
       </c>
-      <c r="Q36" s="98">
-        <f t="shared" si="81"/>
+      <c r="Q39" s="81">
+        <f>Q12-P12</f>
         <v>16</v>
       </c>
-      <c r="R36" s="98">
-        <f t="shared" si="81"/>
+      <c r="R39" s="81">
+        <f>R12-Q12</f>
         <v>6</v>
       </c>
-      <c r="S36" s="98">
-        <f>S11-R11</f>
+      <c r="S39" s="81">
+        <f>S12-R12</f>
         <v>11</v>
       </c>
-      <c r="Z36" s="63" t="s">
+      <c r="X39" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AA36" s="63" t="s">
+      <c r="Y39" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AB36" s="63" t="s">
+      <c r="Z39" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AC36" s="63" t="s">
+      <c r="AA39" s="63" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="37" spans="1:29">
-      <c r="AC37" s="25"/>
-    </row>
-    <row r="38" spans="1:29" s="2" customFormat="1" ht="13">
-      <c r="A38" s="2" t="s">
+      <c r="AB39" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC39" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="AC40" s="25"/>
+    </row>
+    <row r="41" spans="1:29" s="2" customFormat="1" ht="13">
+      <c r="A41" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I38" s="34">
-        <f t="shared" ref="I38" si="82">I19/E19-1</f>
+      <c r="I41" s="34">
+        <f t="shared" ref="I41" si="24">I21/E21-1</f>
         <v>-8.1521739130434812E-2</v>
       </c>
-      <c r="M38" s="34">
-        <f t="shared" ref="M38" si="83">M19/I19-1</f>
+      <c r="M41" s="34">
+        <f t="shared" ref="M41" si="25">M21/I21-1</f>
         <v>-0.16863905325443784</v>
       </c>
-      <c r="Q38" s="34">
-        <f t="shared" ref="Q38" si="84">Q19/M19-1</f>
+      <c r="Q41" s="34">
+        <f t="shared" ref="Q41" si="26">Q21/M21-1</f>
         <v>0.15658362989323837</v>
       </c>
-      <c r="R38" s="34">
-        <f>R19/N19-1</f>
+      <c r="R41" s="34">
+        <f>R21/N21-1</f>
         <v>0.15808823529411775</v>
       </c>
-      <c r="S38" s="34">
-        <f t="shared" ref="S38" si="85">S19/O19-1</f>
+      <c r="S41" s="34">
+        <f t="shared" ref="S41" si="27">S21/O21-1</f>
         <v>1.9607843137254832E-2</v>
       </c>
-      <c r="AA38" s="34">
-        <f t="shared" ref="AA38:AB38" si="86">AA19/Z19-1</f>
+      <c r="Y41" s="34">
+        <f t="shared" ref="Y41" si="28">Y21/X21-1</f>
+        <v>-3.3333333333333326E-2</v>
+      </c>
+      <c r="Z41" s="34">
+        <f t="shared" ref="Z41" si="29">Z21/Y21-1</f>
+        <v>-0.15402298850574714</v>
+      </c>
+      <c r="AA41" s="34">
+        <f t="shared" ref="AA41" si="30">AA21/Z21-1</f>
         <v>-8.1521739130434812E-2</v>
       </c>
-      <c r="AB38" s="34">
-        <f>AB19/AA19-1</f>
+      <c r="AB41" s="34">
+        <f>AB21/AA21-1</f>
         <v>-0.16863905325443784</v>
       </c>
-      <c r="AC38" s="34">
-        <f>AC19/AB19-1</f>
+      <c r="AC41" s="34">
+        <f>AC21/AB21-1</f>
         <v>0.15658362989323837</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="103" customFormat="1" ht="13">
-      <c r="A39" s="103" t="s">
+    <row r="42" spans="1:29" s="86" customFormat="1" ht="13">
+      <c r="A42" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="I39" s="103">
-        <f>I19-E19</f>
+      <c r="I42" s="86">
+        <f>I21-E21</f>
         <v>-30</v>
       </c>
-      <c r="M39" s="103">
-        <f>M19-I19</f>
+      <c r="M42" s="86">
+        <f>M21-I21</f>
         <v>-57</v>
       </c>
-      <c r="Q39" s="103">
-        <f t="shared" ref="Q39:R39" si="87">Q19-M19</f>
+      <c r="Q42" s="86">
+        <f t="shared" ref="Q42:R42" si="31">Q21-M21</f>
         <v>44</v>
       </c>
-      <c r="R39" s="103">
-        <f t="shared" si="87"/>
+      <c r="R42" s="86">
+        <f t="shared" si="31"/>
         <v>43</v>
       </c>
-      <c r="S39" s="103">
-        <f>S19-O19</f>
+      <c r="S42" s="86">
+        <f>S21-O21</f>
         <v>6</v>
       </c>
-      <c r="AA39" s="103">
-        <f t="shared" ref="AA39:AC39" si="88">AA19-Z19</f>
+      <c r="Y42" s="86">
+        <f t="shared" ref="Y42" si="32">Y21-X21</f>
+        <v>-15</v>
+      </c>
+      <c r="Z42" s="86">
+        <f t="shared" ref="Z42" si="33">Z21-Y21</f>
+        <v>-67</v>
+      </c>
+      <c r="AA42" s="86">
+        <f t="shared" ref="AA42:AB42" si="34">AA21-Z21</f>
         <v>-30</v>
       </c>
-      <c r="AB39" s="103">
-        <f t="shared" si="88"/>
+      <c r="AB42" s="86">
+        <f t="shared" si="34"/>
         <v>-57</v>
       </c>
-      <c r="AC39" s="103">
-        <f>AC19-AB19</f>
+      <c r="AC42" s="86">
+        <f>AC21-AB21</f>
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
-      <c r="A40" s="3" t="s">
+    <row r="43" spans="1:29">
+      <c r="A43" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="N40" s="25">
-        <f t="shared" ref="N40:Q40" si="89">N19/M19-1</f>
+      <c r="N43" s="25">
+        <f t="shared" ref="N43:P43" si="35">N21/M21-1</f>
         <v>-3.2028469750889688E-2</v>
       </c>
-      <c r="O40" s="25">
-        <f t="shared" si="89"/>
+      <c r="O43" s="25">
+        <f t="shared" si="35"/>
         <v>0.125</v>
       </c>
-      <c r="P40" s="25">
-        <f t="shared" si="89"/>
+      <c r="P43" s="25">
+        <f t="shared" si="35"/>
         <v>2.2875816993463971E-2</v>
       </c>
-      <c r="Q40" s="25">
-        <f t="shared" ref="Q40:R40" si="90">Q19/P19-1</f>
+      <c r="Q43" s="25">
+        <f t="shared" ref="Q43" si="36">Q21/P21-1</f>
         <v>3.833865814696491E-2</v>
       </c>
-      <c r="R40" s="25">
-        <f>R19/Q19-1</f>
+      <c r="R43" s="25">
+        <f>R21/Q21-1</f>
         <v>-3.0769230769230771E-2</v>
       </c>
-      <c r="S40" s="25">
-        <f t="shared" ref="S40" si="91">S19/R19-1</f>
+      <c r="S43" s="25">
+        <f t="shared" ref="S43" si="37">S21/R21-1</f>
         <v>-9.52380952380949E-3</v>
       </c>
-      <c r="Z40" s="63" t="s">
+      <c r="X43" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AA40" s="63" t="s">
+      <c r="Y43" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AB40" s="63" t="s">
+      <c r="Z43" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AC40" s="63" t="s">
+      <c r="AA43" s="63" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" s="101" customFormat="1">
-      <c r="A41" s="101" t="s">
+      <c r="AB43" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC43" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" s="84" customFormat="1">
+      <c r="A44" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="N41" s="98">
-        <f t="shared" ref="N41:S41" si="92">N19-M19</f>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="N44" s="81">
+        <f t="shared" ref="N44:R44" si="38">N21-M21</f>
         <v>-9</v>
       </c>
-      <c r="O41" s="98">
-        <f t="shared" si="92"/>
+      <c r="O44" s="81">
+        <f t="shared" si="38"/>
         <v>34</v>
       </c>
-      <c r="P41" s="98">
-        <f t="shared" si="92"/>
+      <c r="P44" s="81">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="Q41" s="98">
-        <f t="shared" si="92"/>
+      <c r="Q44" s="81">
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
-      <c r="R41" s="98">
-        <f t="shared" si="92"/>
+      <c r="R44" s="81">
+        <f t="shared" si="38"/>
         <v>-10</v>
       </c>
-      <c r="S41" s="98">
-        <f>S19-R19</f>
+      <c r="S44" s="81">
+        <f>S21-R21</f>
         <v>-3</v>
       </c>
-      <c r="Z41" s="63" t="s">
+      <c r="X44" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AA41" s="63" t="s">
+      <c r="Y44" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AB41" s="63" t="s">
+      <c r="Z44" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="AC41" s="63" t="s">
+      <c r="AA44" s="63" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="44" spans="1:29">
-      <c r="N44" s="93"/>
-    </row>
-    <row r="46" spans="1:29">
-      <c r="N46" s="92"/>
+      <c r="AB44" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC44" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="N47" s="76"/>
+    </row>
+    <row r="49" spans="14:14">
+      <c r="N49" s="75"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18088,7 +18628,10 @@
     <hyperlink ref="I2" r:id="rId11" xr:uid="{998E2907-64B9-7A44-8D65-8083912D2D62}"/>
     <hyperlink ref="E2" r:id="rId12" xr:uid="{5D689E99-05ED-E34E-9D87-28B9F22988C9}"/>
     <hyperlink ref="Z2" r:id="rId13" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/38d6b5b1-73e3-4d7d-aca3-84a2d5bbf813?origin=1" xr:uid="{6F460F9A-C5E5-A44E-8E60-30FD06C106C2}"/>
+    <hyperlink ref="Y2" r:id="rId14" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/ed568644-a6d5-4205-a73d-0b3221ad8c90?origin=1" xr:uid="{753E2A88-CB41-C94C-B023-B46ED8394A35}"/>
+    <hyperlink ref="X2" r:id="rId15" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/3dfd5b58-8699-43d1-850f-8f68d67c11ee?origin=1" xr:uid="{B50E4D75-D405-DD4B-9E35-C517F0E7814A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84117D38-1E4F-584D-B495-3EBA820E4B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929A0A14-DD45-6942-AD41-707219E3F48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="3" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="2" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="219">
   <si>
     <t>$ERJ</t>
   </si>
@@ -828,6 +828,9 @@
   </si>
   <si>
     <t>Embraer 175-E2</t>
+  </si>
+  <si>
+    <t>FY16</t>
   </si>
 </sst>
 </file>
@@ -1276,6 +1279,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1285,16 +1306,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1308,36 +1341,6 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1397,7 +1400,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>R&amp;D Expenditure</a:t>
+              <a:t>R&amp;D Expenditure Q/Q</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1875,7 +1878,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Deliveries</a:t>
+              <a:t>Deliveries Q/Q </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5559,13 +5562,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -6096,7 +6099,7 @@
   <dimension ref="A2:AB44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -6116,35 +6119,35 @@
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="G5" s="87" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="95"/>
+      <c r="G5" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="89"/>
-      <c r="U5" s="87" t="s">
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
+      <c r="U5" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="89"/>
-      <c r="AA5" s="98" t="s">
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="95"/>
+      <c r="AA5" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="AB5" s="99"/>
+      <c r="AB5" s="92"/>
     </row>
     <row r="6" spans="1:28">
       <c r="B6" s="4" t="s">
@@ -6421,11 +6424,11 @@
       <c r="X14" s="38"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
       <c r="G15" s="10"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -6452,10 +6455,10 @@
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="93"/>
+      <c r="D16" s="99"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -6479,10 +6482,10 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="93"/>
+      <c r="D17" s="99"/>
       <c r="G17" s="9">
         <v>44805</v>
       </c>
@@ -6506,8 +6509,8 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="16"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8" t="s">
         <v>192</v>
@@ -6531,8 +6534,8 @@
     </row>
     <row r="19" spans="2:24">
       <c r="B19" s="17"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
       <c r="G19" s="10"/>
       <c r="H19" s="8" t="s">
         <v>193</v>
@@ -6599,11 +6602,11 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
       <c r="G22" s="10"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
@@ -6627,10 +6630,10 @@
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="93"/>
+      <c r="D23" s="99"/>
       <c r="G23" s="9">
         <v>44743</v>
       </c>
@@ -6656,10 +6659,10 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="92">
+      <c r="C24" s="98">
         <v>1969</v>
       </c>
-      <c r="D24" s="93"/>
+      <c r="D24" s="99"/>
       <c r="G24" s="10"/>
       <c r="H24" s="8" t="s">
         <v>197</v>
@@ -6683,8 +6686,8 @@
     </row>
     <row r="25" spans="2:24">
       <c r="B25" s="10"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="93"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="99"/>
       <c r="G25" s="10"/>
       <c r="H25" s="50" t="s">
         <v>198</v>
@@ -6710,11 +6713,11 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="100">
+      <c r="C26" s="96">
         <f>'Financial Model'!T68</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="101"/>
+      <c r="D26" s="97"/>
       <c r="G26" s="10"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
@@ -6736,8 +6739,8 @@
     </row>
     <row r="27" spans="2:24">
       <c r="B27" s="10"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
       <c r="G27" s="9">
         <v>43922</v>
       </c>
@@ -6796,10 +6799,10 @@
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="95"/>
+      <c r="D29" s="105"/>
       <c r="G29" s="10"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
@@ -6858,11 +6861,11 @@
       <c r="X31" s="38"/>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="89"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
       <c r="G32" s="9">
         <v>43770</v>
       </c>
@@ -6890,11 +6893,11 @@
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="96">
+      <c r="C33" s="106">
         <f>C6/'Financial Model'!T122</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="97"/>
+      <c r="D33" s="107"/>
       <c r="G33" s="10"/>
       <c r="H33" s="50" t="s">
         <v>168</v>
@@ -6918,11 +6921,11 @@
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="96">
-        <f>C6/'Financial Model'!AB9</f>
+      <c r="C34" s="106">
+        <f>C6/'Financial Model'!AC9</f>
         <v>2.2515010006671113E-3</v>
       </c>
-      <c r="D34" s="97"/>
+      <c r="D34" s="107"/>
       <c r="G34" s="10"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
@@ -6944,11 +6947,11 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="90">
-        <f>C6/'Financial Model'!AB26</f>
+      <c r="C35" s="102">
+        <f>C6/'Financial Model'!AC26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="91"/>
+      <c r="D35" s="103"/>
       <c r="G35" s="10"/>
       <c r="H35" s="60"/>
       <c r="I35" s="37"/>
@@ -6995,12 +6998,12 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
-      <c r="U37" s="87" t="s">
+      <c r="U37" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="V37" s="88"/>
-      <c r="W37" s="88"/>
-      <c r="X37" s="89"/>
+      <c r="V37" s="94"/>
+      <c r="W37" s="94"/>
+      <c r="X37" s="95"/>
     </row>
     <row r="38" spans="2:24">
       <c r="G38" s="10"/>
@@ -7138,6 +7141,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="C26:D26"/>
@@ -7152,13 +7162,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
@@ -7179,13 +7182,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D70B2A-3077-4926-AE7B-39AF91889CD9}">
-  <dimension ref="B1:AL141"/>
+  <dimension ref="B1:AM141"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S52" sqref="S52"/>
+      <selection pane="bottomRight" activeCell="AB44" sqref="AB44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -7197,7 +7200,7 @@
     <col min="21" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" s="15" customFormat="1">
+    <row r="1" spans="2:39" s="15" customFormat="1">
       <c r="B1" s="53" t="s">
         <v>170</v>
       </c>
@@ -7262,52 +7265,55 @@
         <v>76</v>
       </c>
       <c r="X1" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y1" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AC1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AI1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AL1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AM1" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="2:38" s="21" customFormat="1">
+    <row r="2" spans="2:39" s="21" customFormat="1">
       <c r="B2" s="20"/>
       <c r="C2" s="22">
         <v>43190</v>
@@ -7363,20 +7369,26 @@
       <c r="T2" s="22">
         <v>44742</v>
       </c>
+      <c r="X2" s="22">
+        <v>42735</v>
+      </c>
       <c r="Y2" s="22">
+        <v>43100</v>
+      </c>
+      <c r="Z2" s="22">
         <v>43465</v>
       </c>
-      <c r="Z2" s="22">
+      <c r="AA2" s="22">
         <v>43830</v>
       </c>
-      <c r="AA2" s="22">
+      <c r="AB2" s="22">
         <v>44196</v>
       </c>
-      <c r="AB2" s="22">
+      <c r="AC2" s="22">
         <v>44561</v>
       </c>
     </row>
-    <row r="3" spans="2:38" s="21" customFormat="1">
+    <row r="3" spans="2:39" s="21" customFormat="1">
       <c r="B3" s="20"/>
       <c r="D3" s="23">
         <v>43312</v>
@@ -7421,14 +7433,17 @@
       <c r="T3" s="23">
         <v>44777</v>
       </c>
-      <c r="Z3" s="23">
+      <c r="Y3" s="23">
+        <v>43167</v>
+      </c>
+      <c r="AA3" s="23">
         <v>43916</v>
       </c>
-      <c r="AB3" s="23">
+      <c r="AC3" s="23">
         <v>44629</v>
       </c>
     </row>
-    <row r="4" spans="2:38" s="52" customFormat="1">
+    <row r="4" spans="2:39" s="52" customFormat="1">
       <c r="B4" s="55" t="s">
         <v>172</v>
       </c>
@@ -7486,20 +7501,26 @@
       <c r="T4" s="52">
         <v>299.89999999999998</v>
       </c>
+      <c r="X4" s="52">
+        <v>3527</v>
+      </c>
       <c r="Y4" s="52">
+        <v>3371.8</v>
+      </c>
+      <c r="Z4" s="52">
         <v>2358.3000000000002</v>
       </c>
-      <c r="Z4" s="52">
+      <c r="AA4" s="52">
         <v>2234.5</v>
       </c>
-      <c r="AA4" s="52">
+      <c r="AB4" s="52">
         <v>1114.4000000000001</v>
       </c>
-      <c r="AB4" s="52">
+      <c r="AC4" s="52">
         <v>1316.4</v>
       </c>
     </row>
-    <row r="5" spans="2:38" s="52" customFormat="1">
+    <row r="5" spans="2:39" s="52" customFormat="1">
       <c r="B5" s="55" t="s">
         <v>173</v>
       </c>
@@ -7557,20 +7578,26 @@
       <c r="T5" s="52">
         <v>266.7</v>
       </c>
+      <c r="X5" s="52">
+        <v>1730.5</v>
+      </c>
       <c r="Y5" s="52">
+        <v>1484.8</v>
+      </c>
+      <c r="Z5" s="52">
         <v>1104.3</v>
       </c>
-      <c r="Z5" s="52">
+      <c r="AA5" s="52">
         <v>1397</v>
       </c>
-      <c r="AA5" s="52">
+      <c r="AB5" s="52">
         <v>1071.5</v>
       </c>
-      <c r="AB5" s="52">
+      <c r="AC5" s="52">
         <v>1130.0999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:38" s="52" customFormat="1">
+    <row r="6" spans="2:39" s="52" customFormat="1">
       <c r="B6" s="55" t="s">
         <v>174</v>
       </c>
@@ -7628,20 +7655,26 @@
       <c r="T6" s="52">
         <v>126.6</v>
       </c>
+      <c r="X6" s="52">
+        <v>932.7</v>
+      </c>
       <c r="Y6" s="52">
+        <v>950.7</v>
+      </c>
+      <c r="Z6" s="52">
         <v>612.1</v>
       </c>
-      <c r="Z6" s="52">
+      <c r="AA6" s="52">
         <v>775.3</v>
       </c>
-      <c r="AA6" s="52">
+      <c r="AB6" s="52">
         <v>653.9</v>
       </c>
-      <c r="AB6" s="52">
+      <c r="AC6" s="52">
         <v>594.4</v>
       </c>
     </row>
-    <row r="7" spans="2:38" s="52" customFormat="1">
+    <row r="7" spans="2:39" s="52" customFormat="1">
       <c r="B7" s="55" t="s">
         <v>175</v>
       </c>
@@ -7699,20 +7732,26 @@
       <c r="T7" s="52">
         <v>320.10000000000002</v>
       </c>
+      <c r="X7" s="52">
+        <v>0</v>
+      </c>
       <c r="Y7" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="52">
         <v>980.8</v>
       </c>
-      <c r="Z7" s="52">
+      <c r="AA7" s="52">
         <v>1046.7</v>
       </c>
-      <c r="AA7" s="52">
+      <c r="AB7" s="52">
         <v>920</v>
       </c>
-      <c r="AB7" s="52">
+      <c r="AC7" s="52">
         <v>1132.2</v>
       </c>
     </row>
-    <row r="8" spans="2:38" s="52" customFormat="1">
+    <row r="8" spans="2:39" s="52" customFormat="1">
       <c r="B8" s="55" t="s">
         <v>176</v>
       </c>
@@ -7770,20 +7809,26 @@
       <c r="T8" s="52">
         <v>5.6</v>
       </c>
+      <c r="X8" s="52">
+        <v>27.3</v>
+      </c>
       <c r="Y8" s="52">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="52">
         <v>15.6</v>
       </c>
-      <c r="Z8" s="52">
+      <c r="AA8" s="52">
         <v>9.1</v>
       </c>
-      <c r="AA8" s="52">
+      <c r="AB8" s="52">
         <v>11.3</v>
       </c>
-      <c r="AB8" s="52">
+      <c r="AC8" s="52">
         <v>24.1</v>
       </c>
     </row>
-    <row r="9" spans="2:38" s="26" customFormat="1">
+    <row r="9" spans="2:39" s="26" customFormat="1">
       <c r="B9" s="26" t="s">
         <v>50</v>
       </c>
@@ -7841,20 +7886,26 @@
       <c r="T9" s="26">
         <v>1018.9</v>
       </c>
+      <c r="X9" s="26">
+        <v>6217.5</v>
+      </c>
       <c r="Y9" s="26">
+        <v>5839.3</v>
+      </c>
+      <c r="Z9" s="26">
         <v>5071.1000000000004</v>
       </c>
-      <c r="Z9" s="26">
+      <c r="AA9" s="26">
         <v>5462.6</v>
       </c>
-      <c r="AA9" s="26">
+      <c r="AB9" s="26">
         <v>3771.1</v>
       </c>
-      <c r="AB9" s="26">
+      <c r="AC9" s="26">
         <v>4197.2</v>
       </c>
     </row>
-    <row r="10" spans="2:38">
+    <row r="10" spans="2:39">
       <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
@@ -7912,20 +7963,26 @@
       <c r="T10" s="27">
         <v>785.6</v>
       </c>
+      <c r="X10" s="27">
+        <v>4980.7</v>
+      </c>
       <c r="Y10" s="27">
+        <v>4773.3999999999996</v>
+      </c>
+      <c r="Z10" s="27">
         <v>4303.1000000000004</v>
       </c>
-      <c r="Z10" s="27">
+      <c r="AA10" s="27">
         <v>4667.1000000000004</v>
       </c>
-      <c r="AA10" s="27">
+      <c r="AB10" s="27">
         <v>3293.5</v>
       </c>
-      <c r="AB10" s="27">
+      <c r="AC10" s="27">
         <v>3537.6</v>
       </c>
     </row>
-    <row r="11" spans="2:38" s="2" customFormat="1">
+    <row r="11" spans="2:39" s="2" customFormat="1">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -8001,24 +8058,32 @@
         <f t="shared" si="1"/>
         <v>233.29999999999995</v>
       </c>
+      <c r="X11" s="26">
+        <f t="shared" ref="X11:AA11" si="2">X9-X10</f>
+        <v>1236.8000000000002</v>
+      </c>
       <c r="Y11" s="26">
-        <f t="shared" ref="Y11:Z11" si="2">Y9-Y10</f>
-        <v>768</v>
+        <f t="shared" si="2"/>
+        <v>1065.9000000000005</v>
       </c>
       <c r="Z11" s="26">
         <f t="shared" si="2"/>
+        <v>768</v>
+      </c>
+      <c r="AA11" s="26">
+        <f t="shared" si="2"/>
         <v>795.5</v>
-      </c>
-      <c r="AA11" s="26">
-        <f>AA9-AA10</f>
-        <v>477.59999999999991</v>
       </c>
       <c r="AB11" s="26">
         <f>AB9-AB10</f>
+        <v>477.59999999999991</v>
+      </c>
+      <c r="AC11" s="26">
+        <f>AC9-AC10</f>
         <v>659.59999999999991</v>
       </c>
     </row>
-    <row r="12" spans="2:38">
+    <row r="12" spans="2:39">
       <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
@@ -8076,20 +8141,26 @@
       <c r="T12" s="27">
         <v>43.9</v>
       </c>
+      <c r="X12" s="27">
+        <v>164.3</v>
+      </c>
       <c r="Y12" s="27">
+        <v>179.1</v>
+      </c>
+      <c r="Z12" s="27">
         <v>182.6</v>
       </c>
-      <c r="Z12" s="27">
+      <c r="AA12" s="27">
         <v>190.2</v>
       </c>
-      <c r="AA12" s="27">
+      <c r="AB12" s="27">
         <v>143.4</v>
       </c>
-      <c r="AB12" s="27">
+      <c r="AC12" s="27">
         <v>153.19999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:38">
+    <row r="13" spans="2:39">
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
@@ -8147,20 +8218,26 @@
       <c r="T13" s="27">
         <v>67.400000000000006</v>
       </c>
+      <c r="X13" s="27">
+        <v>368.6</v>
+      </c>
       <c r="Y13" s="27">
+        <v>307</v>
+      </c>
+      <c r="Z13" s="27">
         <v>304.2</v>
       </c>
-      <c r="Z13" s="27">
+      <c r="AA13" s="27">
         <v>285.89999999999998</v>
       </c>
-      <c r="AA13" s="27">
+      <c r="AB13" s="27">
         <v>194</v>
       </c>
-      <c r="AB13" s="27">
+      <c r="AC13" s="27">
         <v>226.4</v>
       </c>
     </row>
-    <row r="14" spans="2:38">
+    <row r="14" spans="2:39">
       <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
@@ -8218,6 +8295,9 @@
       <c r="T14" s="27">
         <v>21.3</v>
       </c>
+      <c r="X14" s="27">
+        <v>0</v>
+      </c>
       <c r="Y14" s="27">
         <v>0</v>
       </c>
@@ -8225,13 +8305,16 @@
         <v>0</v>
       </c>
       <c r="AA14" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="27">
         <v>61.8</v>
       </c>
-      <c r="AB14" s="27">
+      <c r="AC14" s="27">
         <v>-13</v>
       </c>
     </row>
-    <row r="15" spans="2:38">
+    <row r="15" spans="2:39">
       <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
@@ -8289,20 +8372,26 @@
       <c r="T15" s="27">
         <v>24.9</v>
       </c>
+      <c r="X15" s="27">
+        <v>47.6</v>
+      </c>
       <c r="Y15" s="27">
+        <v>49.2</v>
+      </c>
+      <c r="Z15" s="27">
         <v>46.1</v>
       </c>
-      <c r="Z15" s="27">
+      <c r="AA15" s="27">
         <v>49.4</v>
       </c>
-      <c r="AA15" s="27">
+      <c r="AB15" s="27">
         <v>29.8</v>
       </c>
-      <c r="AB15" s="27">
+      <c r="AC15" s="27">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:38">
+    <row r="16" spans="2:39">
       <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
@@ -8360,20 +8449,26 @@
       <c r="T16" s="27">
         <v>-13.5</v>
       </c>
+      <c r="X16" s="27">
+        <v>-450</v>
+      </c>
       <c r="Y16" s="27">
+        <v>-202.5</v>
+      </c>
+      <c r="Z16" s="27">
         <v>-199.4</v>
       </c>
-      <c r="Z16" s="27">
+      <c r="AA16" s="27">
         <v>-346.8</v>
       </c>
-      <c r="AA16" s="27">
+      <c r="AB16" s="27">
         <v>-374.7</v>
       </c>
-      <c r="AB16" s="27">
+      <c r="AC16" s="27">
         <v>-49.8</v>
       </c>
     </row>
-    <row r="17" spans="2:28">
+    <row r="17" spans="2:29">
       <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
@@ -8431,20 +8526,26 @@
       <c r="T17" s="27">
         <v>4.4000000000000004</v>
       </c>
+      <c r="X17" s="27">
+        <v>-0.3</v>
+      </c>
       <c r="Y17" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="Z17" s="27">
         <v>-0.4</v>
       </c>
-      <c r="Z17" s="27">
+      <c r="AA17" s="27">
         <v>-0.2</v>
       </c>
-      <c r="AA17" s="27">
+      <c r="AB17" s="27">
         <v>2.7</v>
       </c>
-      <c r="AB17" s="27">
+      <c r="AC17" s="27">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:28" s="2" customFormat="1">
+    <row r="18" spans="2:29" s="2" customFormat="1">
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
@@ -8520,24 +8621,32 @@
         <f t="shared" si="4"/>
         <v>66.69999999999996</v>
       </c>
+      <c r="X18" s="26">
+        <f t="shared" ref="X18:AC18" si="5">X11-X12-X13-X14-X15+X16+X17</f>
+        <v>206.00000000000017</v>
+      </c>
       <c r="Y18" s="26">
-        <f t="shared" ref="Y18:AB18" si="5">Y11-Y12-Y13-Y14-Y15+Y16+Y17</f>
-        <v>35.29999999999999</v>
+        <f t="shared" si="5"/>
+        <v>329.30000000000047</v>
       </c>
       <c r="Z18" s="26">
         <f t="shared" si="5"/>
-        <v>-77.000000000000014</v>
+        <v>35.29999999999999</v>
       </c>
       <c r="AA18" s="26">
         <f t="shared" si="5"/>
-        <v>-323.40000000000003</v>
+        <v>-77.000000000000014</v>
       </c>
       <c r="AB18" s="26">
         <f t="shared" si="5"/>
+        <v>-323.40000000000003</v>
+      </c>
+      <c r="AC18" s="26">
+        <f t="shared" si="5"/>
         <v>201.29999999999987</v>
       </c>
     </row>
-    <row r="19" spans="2:28">
+    <row r="19" spans="2:29">
       <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
@@ -8595,20 +8704,26 @@
       <c r="T19" s="27">
         <v>-38</v>
       </c>
+      <c r="X19" s="27">
+        <v>-51.4</v>
+      </c>
       <c r="Y19" s="27">
+        <v>-47.6</v>
+      </c>
+      <c r="Z19" s="27">
         <v>-171.5</v>
       </c>
-      <c r="Z19" s="27">
+      <c r="AA19" s="27">
         <v>-116.1</v>
       </c>
-      <c r="AA19" s="27">
+      <c r="AB19" s="27">
         <v>-232.7</v>
       </c>
-      <c r="AB19" s="27">
+      <c r="AC19" s="27">
         <v>-199.4</v>
       </c>
     </row>
-    <row r="20" spans="2:28">
+    <row r="20" spans="2:29">
       <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
@@ -8666,20 +8781,26 @@
       <c r="T20" s="27">
         <v>20.8</v>
       </c>
+      <c r="X20" s="27">
+        <v>4.5</v>
+      </c>
       <c r="Y20" s="27">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="Z20" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="27">
         <v>6.9</v>
       </c>
-      <c r="AA20" s="27">
+      <c r="AB20" s="27">
         <v>-79.099999999999994</v>
       </c>
-      <c r="AB20" s="27">
+      <c r="AC20" s="27">
         <v>25.5</v>
       </c>
     </row>
-    <row r="21" spans="2:28">
+    <row r="21" spans="2:29">
       <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
@@ -8755,24 +8876,32 @@
         <f t="shared" si="7"/>
         <v>49.499999999999957</v>
       </c>
+      <c r="X21" s="27">
+        <f t="shared" ref="X21:AC21" si="8">X18+X19+X20</f>
+        <v>159.10000000000016</v>
+      </c>
       <c r="Y21" s="27">
-        <f t="shared" ref="Y21:AB21" si="8">Y18+Y19+Y20</f>
-        <v>-136.20000000000002</v>
+        <f t="shared" si="8"/>
+        <v>288.30000000000047</v>
       </c>
       <c r="Z21" s="27">
         <f t="shared" si="8"/>
-        <v>-186.20000000000002</v>
+        <v>-136.20000000000002</v>
       </c>
       <c r="AA21" s="27">
         <f t="shared" si="8"/>
-        <v>-635.20000000000005</v>
+        <v>-186.20000000000002</v>
       </c>
       <c r="AB21" s="27">
         <f t="shared" si="8"/>
+        <v>-635.20000000000005</v>
+      </c>
+      <c r="AC21" s="27">
+        <f t="shared" si="8"/>
         <v>27.399999999999864</v>
       </c>
     </row>
-    <row r="22" spans="2:28">
+    <row r="22" spans="2:29">
       <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
@@ -8830,20 +8959,26 @@
       <c r="T22" s="27">
         <v>-24.6</v>
       </c>
+      <c r="X22" s="27">
+        <v>-8.6999999999999993</v>
+      </c>
       <c r="Y22" s="27">
+        <v>25.5</v>
+      </c>
+      <c r="Z22" s="27">
         <v>35</v>
       </c>
-      <c r="Z22" s="27">
+      <c r="AA22" s="27">
         <v>130.30000000000001</v>
       </c>
-      <c r="AA22" s="27">
+      <c r="AB22" s="27">
         <v>93.1</v>
       </c>
-      <c r="AB22" s="27">
+      <c r="AC22" s="27">
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="23" spans="2:28" s="2" customFormat="1">
+    <row r="23" spans="2:29" s="2" customFormat="1">
       <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
@@ -8919,24 +9054,32 @@
         <f t="shared" si="10"/>
         <v>74.099999999999966</v>
       </c>
+      <c r="X23" s="26">
+        <f t="shared" ref="X23:AA23" si="11">X21-X22</f>
+        <v>167.80000000000015</v>
+      </c>
       <c r="Y23" s="26">
-        <f t="shared" ref="Y23:Z23" si="11">Y21-Y22</f>
-        <v>-171.20000000000002</v>
+        <f t="shared" si="11"/>
+        <v>262.80000000000047</v>
       </c>
       <c r="Z23" s="26">
         <f t="shared" si="11"/>
+        <v>-171.20000000000002</v>
+      </c>
+      <c r="AA23" s="26">
+        <f t="shared" si="11"/>
         <v>-316.5</v>
-      </c>
-      <c r="AA23" s="26">
-        <f>AA21-AA22</f>
-        <v>-728.30000000000007</v>
       </c>
       <c r="AB23" s="26">
         <f>AB21-AB22</f>
+        <v>-728.30000000000007</v>
+      </c>
+      <c r="AC23" s="26">
+        <f>AC21-AC22</f>
         <v>-43.500000000000142</v>
       </c>
     </row>
-    <row r="24" spans="2:28" s="2" customFormat="1">
+    <row r="24" spans="2:29" s="2" customFormat="1">
       <c r="B24" s="29" t="s">
         <v>72</v>
       </c>
@@ -8994,20 +9137,26 @@
       <c r="T24" s="26">
         <v>74.2</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="X24" s="26">
+        <v>166.1</v>
+      </c>
+      <c r="Y24" s="26">
+        <v>246.8</v>
+      </c>
+      <c r="Z24" s="2">
         <v>-178.2</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="AA24" s="2">
         <v>-322.3</v>
       </c>
-      <c r="AA24" s="26">
+      <c r="AB24" s="26">
         <v>-731.9</v>
       </c>
-      <c r="AB24" s="26">
+      <c r="AC24" s="26">
         <v>-44.7</v>
       </c>
     </row>
-    <row r="25" spans="2:28">
+    <row r="25" spans="2:29">
       <c r="B25" s="30" t="s">
         <v>73</v>
       </c>
@@ -9065,20 +9214,26 @@
       <c r="T25" s="27">
         <v>-0.1</v>
       </c>
+      <c r="X25" s="27">
+        <v>1.7</v>
+      </c>
       <c r="Y25" s="27">
+        <v>16</v>
+      </c>
+      <c r="Z25" s="27">
         <v>7</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="AA25" s="3">
         <v>5.8</v>
       </c>
-      <c r="AA25" s="27">
+      <c r="AB25" s="27">
         <v>3.6</v>
       </c>
-      <c r="AB25" s="27">
+      <c r="AC25" s="27">
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="2:28">
+    <row r="26" spans="2:29">
       <c r="B26" s="3" t="s">
         <v>65</v>
       </c>
@@ -9154,24 +9309,32 @@
         <f t="shared" si="13"/>
         <v>0.10100735093928669</v>
       </c>
+      <c r="X26" s="28">
+        <f t="shared" ref="X26:AC26" si="14">X24/X27</f>
+        <v>0.22580206634040237</v>
+      </c>
       <c r="Y26" s="28">
-        <f t="shared" ref="Y26:AB26" si="14">Y24/Y27</f>
-        <v>-0.24274621986105432</v>
+        <f t="shared" si="14"/>
+        <v>0.33610241045894051</v>
       </c>
       <c r="Z26" s="28">
         <f t="shared" si="14"/>
-        <v>-0.43796711509715996</v>
+        <v>-0.24274621986105432</v>
       </c>
       <c r="AA26" s="28">
         <f t="shared" si="14"/>
-        <v>-0.99415919587068724</v>
+        <v>-0.43796711509715996</v>
       </c>
       <c r="AB26" s="28">
         <f t="shared" si="14"/>
+        <v>-0.99415919587068724</v>
+      </c>
+      <c r="AC26" s="28">
+        <f t="shared" si="14"/>
         <v>-6.0841159657002861E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:28">
+    <row r="27" spans="2:29">
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
@@ -9229,20 +9392,26 @@
       <c r="T27" s="3">
         <v>734.6</v>
       </c>
+      <c r="X27" s="3">
+        <v>735.6</v>
+      </c>
       <c r="Y27" s="3">
+        <v>734.3</v>
+      </c>
+      <c r="Z27" s="3">
         <v>734.1</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>735.9</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>736.2</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>734.7</v>
       </c>
     </row>
-    <row r="30" spans="2:28" s="2" customFormat="1">
+    <row r="30" spans="2:29" s="2" customFormat="1">
       <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
@@ -9314,23 +9483,31 @@
         <f t="shared" si="17"/>
         <v>-9.8717381689517936E-2</v>
       </c>
-      <c r="Y30" s="63" t="s">
+      <c r="X30" s="63" t="s">
         <v>186</v>
       </c>
+      <c r="Y30" s="34">
+        <f t="shared" ref="Y30" si="18">Y9/X9-1</f>
+        <v>-6.0828307197426601E-2</v>
+      </c>
       <c r="Z30" s="34">
-        <f t="shared" ref="Z30:AA30" si="18">Z9/Y9-1</f>
+        <f t="shared" ref="Z30" si="19">Z9/Y9-1</f>
+        <v>-0.13155686469268568</v>
+      </c>
+      <c r="AA30" s="34">
+        <f t="shared" ref="AA30:AB30" si="20">AA9/Z9-1</f>
         <v>7.7202184930291295E-2</v>
       </c>
-      <c r="AA30" s="34">
-        <f t="shared" si="18"/>
+      <c r="AB30" s="34">
+        <f t="shared" si="20"/>
         <v>-0.30965108190239088</v>
       </c>
-      <c r="AB30" s="34">
-        <f>AB9/AA9-1</f>
+      <c r="AC30" s="34">
+        <f>AC9/AB9-1</f>
         <v>0.11299090451062033</v>
       </c>
     </row>
-    <row r="31" spans="2:28" s="25" customFormat="1">
+    <row r="31" spans="2:29" s="25" customFormat="1">
       <c r="B31" s="25" t="s">
         <v>67</v>
       </c>
@@ -9338,51 +9515,51 @@
         <v>186</v>
       </c>
       <c r="D31" s="25">
-        <f t="shared" ref="D31" si="19">D9/C9-1</f>
+        <f t="shared" ref="D31" si="21">D9/C9-1</f>
         <v>0.30844527751744244</v>
       </c>
       <c r="E31" s="25">
-        <f t="shared" ref="E31" si="20">E9/D9-1</f>
+        <f t="shared" ref="E31" si="22">E9/D9-1</f>
         <v>-7.7357739753282972E-2</v>
       </c>
       <c r="F31" s="25">
-        <f t="shared" ref="F31" si="21">F9/E9-1</f>
+        <f t="shared" ref="F31" si="23">F9/E9-1</f>
         <v>0.46433192443716043</v>
       </c>
       <c r="G31" s="25">
-        <f t="shared" ref="G31" si="22">G9/F9-1</f>
+        <f t="shared" ref="G31" si="24">G9/F9-1</f>
         <v>-0.51502120640904803</v>
       </c>
       <c r="H31" s="25">
-        <f t="shared" ref="H31" si="23">H9/G9-1</f>
+        <f t="shared" ref="H31" si="25">H9/G9-1</f>
         <v>0.67460221061581449</v>
       </c>
       <c r="I31" s="25">
-        <f t="shared" ref="I31" si="24">I9/H9-1</f>
+        <f t="shared" ref="I31" si="26">I9/H9-1</f>
         <v>-0.14731268586349466</v>
       </c>
       <c r="J31" s="25">
-        <f t="shared" ref="J31" si="25">J9/I9-1</f>
+        <f t="shared" ref="J31" si="27">J9/I9-1</f>
         <v>0.77356243620279019</v>
       </c>
       <c r="K31" s="25">
-        <f t="shared" ref="K31" si="26">K9/J9-1</f>
+        <f t="shared" ref="K31" si="28">K9/J9-1</f>
         <v>-0.69601918465227819</v>
       </c>
       <c r="L31" s="25">
-        <f t="shared" ref="L31" si="27">L9/K9-1</f>
+        <f t="shared" ref="L31" si="29">L9/K9-1</f>
         <v>-0.15241401072893646</v>
       </c>
       <c r="M31" s="25">
-        <f t="shared" ref="M31" si="28">M9/L9-1</f>
+        <f t="shared" ref="M31" si="30">M9/L9-1</f>
         <v>0.41232315711094558</v>
       </c>
       <c r="N31" s="25">
-        <f t="shared" ref="N31:O31" si="29">N9/M9-1</f>
+        <f t="shared" ref="N31:O31" si="31">N9/M9-1</f>
         <v>1.4270462633451957</v>
       </c>
       <c r="O31" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-0.56158357771261003</v>
       </c>
       <c r="P31" s="25">
@@ -9390,11 +9567,11 @@
         <v>0.40034683512944391</v>
       </c>
       <c r="Q31" s="25">
-        <f t="shared" ref="Q31:R31" si="30">Q9/P9-1</f>
+        <f t="shared" ref="Q31:R31" si="32">Q9/P9-1</f>
         <v>-0.15249889429455987</v>
       </c>
       <c r="R31" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.35820895522388052</v>
       </c>
       <c r="S31" s="25">
@@ -9405,6 +9582,9 @@
         <f>T9/S9-1</f>
         <v>0.69562323181893837</v>
       </c>
+      <c r="X31" s="63" t="s">
+        <v>186</v>
+      </c>
       <c r="Y31" s="63" t="s">
         <v>186</v>
       </c>
@@ -9417,8 +9597,11 @@
       <c r="AB31" s="63" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="32" spans="2:28" s="64" customFormat="1">
+      <c r="AC31" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" s="64" customFormat="1">
       <c r="B32" s="68" t="s">
         <v>57</v>
       </c>
@@ -9426,120 +9609,130 @@
         <v>186</v>
       </c>
       <c r="D32" s="64">
-        <f t="shared" ref="D32" si="31">D15/C15-1</f>
+        <f t="shared" ref="D32" si="33">D15/C15-1</f>
         <v>3.0612244897959107E-2</v>
       </c>
       <c r="E32" s="64">
-        <f t="shared" ref="E32" si="32">E15/D15-1</f>
+        <f t="shared" ref="E32" si="34">E15/D15-1</f>
         <v>-0.13861386138613863</v>
       </c>
       <c r="F32" s="64">
-        <f t="shared" ref="F32:S32" si="33">F15/E15-1</f>
+        <f t="shared" ref="F32:S32" si="35">F15/E15-1</f>
         <v>1.0114942528735633</v>
       </c>
       <c r="G32" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-0.46857142857142853</v>
       </c>
       <c r="H32" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.26881720430107525</v>
       </c>
       <c r="I32" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-1.6949152542372947E-2</v>
       </c>
       <c r="J32" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.44827586206896552</v>
       </c>
       <c r="K32" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-0.65476190476190477</v>
       </c>
       <c r="L32" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.10344827586206895</v>
       </c>
       <c r="M32" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.10937499999999978</v>
       </c>
       <c r="N32" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.47887323943661975</v>
       </c>
       <c r="O32" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="P32" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.10714285714285721</v>
       </c>
       <c r="Q32" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.10752688172043001</v>
       </c>
       <c r="R32" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.45631067961165028</v>
       </c>
       <c r="S32" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.15999999999999992</v>
       </c>
       <c r="T32" s="64">
         <f>T15/S15-1</f>
         <v>0.43103448275862077</v>
       </c>
-      <c r="Y32" s="69"/>
+      <c r="X32" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y32" s="69">
+        <f t="shared" ref="Y32" si="36">Y15/X15-1</f>
+        <v>3.3613445378151363E-2</v>
+      </c>
       <c r="Z32" s="69">
-        <f t="shared" ref="Z32:AA32" si="34">Z15/Y15-1</f>
+        <f t="shared" ref="Z32" si="37">Z15/Y15-1</f>
+        <v>-6.3008130081300795E-2</v>
+      </c>
+      <c r="AA32" s="69">
+        <f t="shared" ref="AA32:AB32" si="38">AA15/Z15-1</f>
         <v>7.1583514099782919E-2</v>
       </c>
-      <c r="AA32" s="69">
-        <f t="shared" si="34"/>
+      <c r="AB32" s="69">
+        <f t="shared" si="38"/>
         <v>-0.39676113360323884</v>
       </c>
-      <c r="AB32" s="69">
-        <f>AB15/AA15-1</f>
+      <c r="AC32" s="69">
+        <f>AC15/AB15-1</f>
         <v>0.44295302013422821</v>
       </c>
     </row>
-    <row r="33" spans="2:28" s="25" customFormat="1">
+    <row r="33" spans="2:29" s="25" customFormat="1">
       <c r="B33" s="67"/>
       <c r="C33" s="63"/>
-      <c r="Y33" s="63"/>
       <c r="Z33" s="63"/>
       <c r="AA33" s="63"/>
       <c r="AB33" s="63"/>
-    </row>
-    <row r="34" spans="2:28">
+      <c r="AC33" s="63"/>
+    </row>
+    <row r="34" spans="2:29">
       <c r="B34" s="67"/>
     </row>
-    <row r="36" spans="2:28">
+    <row r="36" spans="2:29">
       <c r="B36" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C36" s="25">
-        <f t="shared" ref="C36:D36" si="35">C11/C9</f>
+        <f t="shared" ref="C36:D36" si="39">C11/C9</f>
         <v>0.15630532125377478</v>
       </c>
       <c r="D36" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.11165937126939909</v>
       </c>
       <c r="E36" s="25">
-        <f t="shared" ref="E36:G36" si="36">E11/E9</f>
+        <f t="shared" ref="E36:G36" si="40">E11/E9</f>
         <v>0.18873458121280079</v>
       </c>
       <c r="F36" s="25">
-        <f t="shared" ref="F36" si="37">F11/F9</f>
+        <f t="shared" ref="F36" si="41">F11/F9</f>
         <v>0.15398209236569266</v>
       </c>
       <c r="G36" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.19907688570387463</v>
       </c>
       <c r="H36" s="25">
@@ -9547,19 +9740,19 @@
         <v>0.14404874156814398</v>
       </c>
       <c r="I36" s="25">
-        <f t="shared" ref="I36:J36" si="38">I11/I9</f>
+        <f t="shared" ref="I36:J36" si="42">I11/I9</f>
         <v>0.13133718952024487</v>
       </c>
       <c r="J36" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.13362110311750594</v>
       </c>
       <c r="K36" s="25">
-        <f t="shared" ref="K36" si="39">K11/K9</f>
+        <f t="shared" ref="K36" si="43">K11/K9</f>
         <v>0.29031240138845055</v>
       </c>
       <c r="L36" s="25">
-        <f t="shared" ref="L36" si="40">L11/L9</f>
+        <f t="shared" ref="L36" si="44">L11/L9</f>
         <v>3.0528667163067926E-2</v>
       </c>
       <c r="M36" s="25">
@@ -9567,7 +9760,7 @@
         <v>7.2228812442335658E-2</v>
       </c>
       <c r="N36" s="25">
-        <f t="shared" ref="N36" si="41">N11/N9</f>
+        <f t="shared" ref="N36" si="45">N11/N9</f>
         <v>0.12077766916476598</v>
       </c>
       <c r="O36" s="25">
@@ -9579,60 +9772,68 @@
         <v>0.18195488721804515</v>
       </c>
       <c r="Q36" s="25">
-        <f t="shared" ref="Q36:R36" si="42">Q11/Q9</f>
+        <f t="shared" ref="Q36:R36" si="46">Q11/Q9</f>
         <v>0.18964617472080164</v>
       </c>
       <c r="R36" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0.1504649196956889</v>
       </c>
       <c r="S36" s="25">
-        <f t="shared" ref="S36" si="43">S11/S9</f>
+        <f t="shared" ref="S36" si="47">S11/S9</f>
         <v>0.20086536861374604</v>
       </c>
       <c r="T36" s="25">
         <f>T11/T9</f>
         <v>0.2289724212385906</v>
       </c>
+      <c r="X36" s="25">
+        <f t="shared" ref="X36:Z36" si="48">X11/X9</f>
+        <v>0.19892239646160034</v>
+      </c>
       <c r="Y36" s="25">
-        <f t="shared" ref="Y36:Z36" si="44">Y11/Y9</f>
+        <f t="shared" si="48"/>
+        <v>0.18253900296268397</v>
+      </c>
+      <c r="Z36" s="25">
+        <f t="shared" ref="Z36:AA36" si="49">Z11/Z9</f>
         <v>0.15144643174064798</v>
       </c>
-      <c r="Z36" s="25">
-        <f t="shared" si="44"/>
+      <c r="AA36" s="25">
+        <f t="shared" si="49"/>
         <v>0.1456266246842163</v>
-      </c>
-      <c r="AA36" s="25">
-        <f>AA11/AA9</f>
-        <v>0.12664739731112937</v>
       </c>
       <c r="AB36" s="25">
         <f>AB11/AB9</f>
+        <v>0.12664739731112937</v>
+      </c>
+      <c r="AC36" s="25">
+        <f>AC11/AC9</f>
         <v>0.15715238730582293</v>
       </c>
     </row>
-    <row r="37" spans="2:28">
+    <row r="37" spans="2:29">
       <c r="B37" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="25">
-        <f t="shared" ref="C37:D37" si="45">C18/C9</f>
+        <f t="shared" ref="C37:D37" si="50">C18/C9</f>
         <v>-5.5191086118922062E-3</v>
       </c>
       <c r="D37" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-1.4086748905690451E-2</v>
       </c>
       <c r="E37" s="25">
-        <f t="shared" ref="E37:G37" si="46">E18/E9</f>
+        <f t="shared" ref="E37:G37" si="51">E18/E9</f>
         <v>4.6838609505736171E-2</v>
       </c>
       <c r="F37" s="25">
-        <f t="shared" ref="F37" si="47">F18/F9</f>
+        <f t="shared" ref="F37" si="52">F18/F9</f>
         <v>3.8878416588123597E-3</v>
       </c>
       <c r="G37" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-1.8462285922507007E-2</v>
       </c>
       <c r="H37" s="25">
@@ -9640,19 +9841,19 @@
         <v>1.9293537390295309E-2</v>
       </c>
       <c r="I37" s="25">
-        <f t="shared" ref="I37:J37" si="48">I18/I9</f>
+        <f t="shared" ref="I37:J37" si="53">I18/I9</f>
         <v>-1.7693092888737785E-2</v>
       </c>
       <c r="J37" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-3.2422062350119955E-2</v>
       </c>
       <c r="K37" s="25">
-        <f t="shared" ref="K37" si="49">K18/K9</f>
+        <f t="shared" ref="K37" si="54">K18/K9</f>
         <v>-7.3998106658251905E-2</v>
       </c>
       <c r="L37" s="25">
-        <f t="shared" ref="L37" si="50">L18/L9</f>
+        <f t="shared" ref="L37" si="55">L18/L9</f>
         <v>-0.63737900223380473</v>
       </c>
       <c r="M37" s="25">
@@ -9660,7 +9861,7 @@
         <v>-4.9690259654672372E-2</v>
       </c>
       <c r="N37" s="25">
-        <f t="shared" ref="N37" si="51">N18/N9</f>
+        <f t="shared" ref="N37" si="56">N18/N9</f>
         <v>5.6261540132507927E-2</v>
       </c>
       <c r="O37" s="25">
@@ -9672,60 +9873,68 @@
         <v>0.12720035382574085</v>
       </c>
       <c r="Q37" s="25">
-        <f t="shared" ref="Q37:R37" si="52">Q18/Q9</f>
+        <f t="shared" ref="Q37:R37" si="57">Q18/Q9</f>
         <v>3.1311971610479127E-2</v>
       </c>
       <c r="R37" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>4.6568815799584988E-2</v>
       </c>
       <c r="S37" s="25">
-        <f t="shared" ref="S37" si="53">S18/S9</f>
+        <f t="shared" ref="S37" si="58">S18/S9</f>
         <v>-6.0409385921118344E-2</v>
       </c>
       <c r="T37" s="25">
         <f>T18/T9</f>
         <v>6.5462753950338556E-2</v>
       </c>
+      <c r="X37" s="25">
+        <f t="shared" ref="X37:Z37" si="59">X18/X9</f>
+        <v>3.3132287897064766E-2</v>
+      </c>
       <c r="Y37" s="25">
-        <f t="shared" ref="Y37:Z37" si="54">Y18/Y9</f>
+        <f t="shared" si="59"/>
+        <v>5.6393745825698366E-2</v>
+      </c>
+      <c r="Z37" s="25">
+        <f t="shared" ref="Z37:AA37" si="60">Z18/Z9</f>
         <v>6.9610143755792601E-3</v>
       </c>
-      <c r="Z37" s="25">
-        <f t="shared" si="54"/>
+      <c r="AA37" s="25">
+        <f t="shared" si="60"/>
         <v>-1.4095851792186873E-2</v>
-      </c>
-      <c r="AA37" s="25">
-        <f>AA18/AA9</f>
-        <v>-8.5757471294847662E-2</v>
       </c>
       <c r="AB37" s="25">
         <f>AB18/AB9</f>
+        <v>-8.5757471294847662E-2</v>
+      </c>
+      <c r="AC37" s="25">
+        <f>AC18/AC9</f>
         <v>4.7960545125321614E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:28">
+    <row r="38" spans="2:29">
       <c r="B38" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="25">
-        <f t="shared" ref="C38:D38" si="55">C23/C9</f>
+        <f t="shared" ref="C38:D38" si="61">C23/C9</f>
         <v>-3.6342809538685919E-2</v>
       </c>
       <c r="D38" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>-9.9243931555909312E-2</v>
       </c>
       <c r="E38" s="25">
-        <f t="shared" ref="E38:G38" si="56">E23/E9</f>
+        <f t="shared" ref="E38:G38" si="62">E23/E9</f>
         <v>-9.1434486327957032E-3</v>
       </c>
       <c r="F38" s="25">
-        <f t="shared" ref="F38" si="57">F23/F9</f>
+        <f t="shared" ref="F38" si="63">F23/F9</f>
         <v>2.2384542884070799E-3</v>
       </c>
       <c r="G38" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>-5.0042511842584743E-2</v>
       </c>
       <c r="H38" s="25">
@@ -9733,19 +9942,19 @@
         <v>6.6729527816059642E-3</v>
       </c>
       <c r="I38" s="25">
-        <f t="shared" ref="I38:J38" si="58">I23/I9</f>
+        <f t="shared" ref="I38:J38" si="64">I23/I9</f>
         <v>-6.4052398775093694E-2</v>
       </c>
       <c r="J38" s="25">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>-0.10033573141486815</v>
       </c>
       <c r="K38" s="25">
-        <f t="shared" ref="K38" si="59">K23/K9</f>
+        <f t="shared" ref="K38" si="65">K23/K9</f>
         <v>-0.45850426001893357</v>
       </c>
       <c r="L38" s="25">
-        <f t="shared" ref="L38" si="60">L23/L9</f>
+        <f t="shared" ref="L38" si="66">L23/L9</f>
         <v>-0.58190618019359619</v>
       </c>
       <c r="M38" s="25">
@@ -9753,7 +9962,7 @@
         <v>-0.15750626070910759</v>
       </c>
       <c r="N38" s="25">
-        <f t="shared" ref="N38" si="61">N23/N9</f>
+        <f t="shared" ref="N38" si="67">N23/N9</f>
         <v>-2.9868578255674411E-3</v>
       </c>
       <c r="O38" s="25">
@@ -9765,60 +9974,68 @@
         <v>7.8903140203449823E-2</v>
       </c>
       <c r="Q38" s="25">
-        <f t="shared" ref="Q38:R38" si="62">Q23/Q9</f>
+        <f t="shared" ref="Q38:R38" si="68">Q23/Q9</f>
         <v>-4.7698570086629734E-2</v>
       </c>
       <c r="R38" s="25">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>2.3053869207714925E-3</v>
       </c>
       <c r="S38" s="25">
-        <f t="shared" ref="S38" si="63">S23/S9</f>
+        <f t="shared" ref="S38" si="69">S23/S9</f>
         <v>-5.1090031619237815E-2</v>
       </c>
       <c r="T38" s="25">
         <f>T23/T9</f>
         <v>7.2725488271665487E-2</v>
       </c>
+      <c r="X38" s="25">
+        <f t="shared" ref="X38:Z38" si="70">X23/X9</f>
+        <v>2.6988339364696447E-2</v>
+      </c>
       <c r="Y38" s="25">
-        <f t="shared" ref="Y38:Z38" si="64">Y23/Y9</f>
+        <f t="shared" si="70"/>
+        <v>4.5005394482215411E-2</v>
+      </c>
+      <c r="Z38" s="25">
+        <f t="shared" ref="Z38:AA38" si="71">Z23/Z9</f>
         <v>-3.3759933742186117E-2</v>
       </c>
-      <c r="Z38" s="25">
-        <f t="shared" si="64"/>
+      <c r="AA38" s="25">
+        <f t="shared" si="71"/>
         <v>-5.7939442756196682E-2</v>
-      </c>
-      <c r="AA38" s="25">
-        <f>AA23/AA9</f>
-        <v>-0.1931266739147729</v>
       </c>
       <c r="AB38" s="25">
         <f>AB23/AB9</f>
+        <v>-0.1931266739147729</v>
+      </c>
+      <c r="AC38" s="25">
+        <f>AC23/AC9</f>
         <v>-1.0364052225293087E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:28">
+    <row r="39" spans="2:29">
       <c r="B39" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C39" s="25">
-        <f t="shared" ref="C39:D39" si="65">C22/C21</f>
+        <f t="shared" ref="C39:D39" si="72">C22/C21</f>
         <v>0.35250463821892336</v>
       </c>
       <c r="D39" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>-0.80986937590711117</v>
       </c>
       <c r="E39" s="25">
-        <f t="shared" ref="E39:G39" si="66">E22/E21</f>
+        <f t="shared" ref="E39:G39" si="73">E22/E21</f>
         <v>2.3417721518987515</v>
       </c>
       <c r="F39" s="25">
-        <f t="shared" ref="F39" si="67">F22/F21</f>
+        <f t="shared" ref="F39" si="74">F22/F21</f>
         <v>1.255033557046968</v>
       </c>
       <c r="G39" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>0.12711864406779658</v>
       </c>
       <c r="H39" s="25">
@@ -9826,19 +10043,19 @@
         <v>2.4375000000000546</v>
       </c>
       <c r="I39" s="25">
-        <f t="shared" ref="I39:J39" si="68">I22/I21</f>
+        <f t="shared" ref="I39:J39" si="75">I22/I21</f>
         <v>-1.0974930362116948</v>
       </c>
       <c r="J39" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>-1.1633919338159242</v>
       </c>
       <c r="K39" s="25">
-        <f t="shared" ref="K39:L39" si="69">K22/K21</f>
+        <f t="shared" ref="K39:L39" si="76">K22/K21</f>
         <v>-1.6982358402971207</v>
       </c>
       <c r="L39" s="25">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>0.19887237314197853</v>
       </c>
       <c r="M39" s="25">
@@ -9846,7 +10063,7 @@
         <v>0.19582772543741597</v>
       </c>
       <c r="N39" s="25">
-        <f t="shared" ref="N39" si="70">N22/N21</f>
+        <f t="shared" ref="N39" si="77">N22/N21</f>
         <v>1.4824561403508625</v>
       </c>
       <c r="O39" s="25">
@@ -9858,142 +10075,158 @@
         <v>-6.6985645933014315E-2</v>
       </c>
       <c r="Q39" s="25">
-        <f t="shared" ref="Q39:R39" si="71">Q22/Q21</f>
+        <f t="shared" ref="Q39:R39" si="78">Q22/Q21</f>
         <v>-0.82800000000000162</v>
       </c>
       <c r="R39" s="25">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0.94800693240901301</v>
       </c>
       <c r="S39" s="25">
-        <f t="shared" ref="S39" si="72">S22/S21</f>
+        <f t="shared" ref="S39" si="79">S22/S21</f>
         <v>0.62098765432098757</v>
       </c>
       <c r="T39" s="25">
         <f>T22/T21</f>
         <v>-0.49696969696969745</v>
       </c>
+      <c r="X39" s="25">
+        <f t="shared" ref="X39:Z39" si="80">X22/X21</f>
+        <v>-5.4682589566310433E-2</v>
+      </c>
       <c r="Y39" s="25">
-        <f t="shared" ref="Y39:Z39" si="73">Y22/Y21</f>
+        <f t="shared" si="80"/>
+        <v>8.8449531737773007E-2</v>
+      </c>
+      <c r="Z39" s="25">
+        <f t="shared" ref="Z39:AA39" si="81">Z22/Z21</f>
         <v>-0.25697503671071947</v>
       </c>
-      <c r="Z39" s="25">
-        <f t="shared" si="73"/>
+      <c r="AA39" s="25">
+        <f t="shared" si="81"/>
         <v>-0.6997851772287863</v>
-      </c>
-      <c r="AA39" s="25">
-        <f>AA22/AA21</f>
-        <v>-0.14656801007556672</v>
       </c>
       <c r="AB39" s="25">
         <f>AB22/AB21</f>
+        <v>-0.14656801007556672</v>
+      </c>
+      <c r="AC39" s="25">
+        <f>AC22/AC21</f>
         <v>2.5875912408759256</v>
       </c>
     </row>
-    <row r="42" spans="2:28">
+    <row r="42" spans="2:29">
       <c r="B42" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="2:28" s="2" customFormat="1">
+    <row r="43" spans="2:29" s="2" customFormat="1">
       <c r="B43" s="29" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" ref="C43:D43" si="74">C44+C52</f>
+        <f t="shared" ref="C43:D43" si="82">C44+C52</f>
         <v>25</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>48</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" ref="E43:F43" si="75">E44+E52</f>
+        <f t="shared" ref="E43:F43" si="83">E44+E52</f>
         <v>39</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>69</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" ref="G43:H43" si="76">G44+G52</f>
+        <f t="shared" ref="G43:H43" si="84">G44+G52</f>
         <v>22</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>51</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" ref="I43:J43" si="77">I44+I52</f>
+        <f t="shared" ref="I43:J43" si="85">I44+I52</f>
         <v>44</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>81</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" ref="K43:L43" si="78">K44+K52</f>
+        <f t="shared" ref="K43:L43" si="86">K44+K52</f>
         <v>14</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>17</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" ref="M43" si="79">M44+M52</f>
+        <f t="shared" ref="M43" si="87">M44+M52</f>
         <v>48</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" ref="N43:S43" si="80">N44+N52</f>
+        <f t="shared" ref="N43:S43" si="88">N44+N52</f>
         <v>71</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" ref="O43" si="81">O44+O52</f>
+        <f t="shared" ref="O43" si="89">O44+O52</f>
         <v>22</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>34</v>
       </c>
       <c r="Q43" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>30</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>55</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>26</v>
       </c>
       <c r="T43" s="2">
         <f>T44+T52</f>
         <v>32</v>
       </c>
+      <c r="X43" s="2">
+        <f t="shared" ref="X43:Z43" si="90">X44+X52</f>
+        <v>225</v>
+      </c>
       <c r="Y43" s="2">
-        <f t="shared" ref="Y43:Z43" si="82">Y44+Y52</f>
+        <f t="shared" si="90"/>
+        <v>210</v>
+      </c>
+      <c r="Z43" s="2">
+        <f t="shared" ref="Z43:AA43" si="91">Z44+Z52</f>
         <v>178</v>
       </c>
-      <c r="Z43" s="2">
-        <f t="shared" si="82"/>
+      <c r="AA43" s="2">
+        <f t="shared" si="91"/>
         <v>198</v>
-      </c>
-      <c r="AA43" s="2">
-        <f>AA44+AA52</f>
-        <v>130</v>
       </c>
       <c r="AB43" s="2">
         <f>AB44+AB52</f>
+        <v>130</v>
+      </c>
+      <c r="AC43" s="2">
+        <f>AC44+AC52</f>
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="2:28" s="40" customFormat="1">
+    <row r="44" spans="2:29" s="40" customFormat="1">
       <c r="B44" s="49" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="40">
-        <f t="shared" ref="C44" si="83">SUM(C45:C50)</f>
+        <f t="shared" ref="C44" si="92">SUM(C45:C50)</f>
         <v>14</v>
       </c>
       <c r="D44" s="40">
@@ -10005,83 +10238,91 @@
         <v>15</v>
       </c>
       <c r="F44" s="40">
-        <f t="shared" ref="F44" si="84">SUM(F45:F50)</f>
+        <f t="shared" ref="F44" si="93">SUM(F45:F50)</f>
         <v>33</v>
       </c>
       <c r="G44" s="40">
-        <f t="shared" ref="G44" si="85">SUM(G45:G50)</f>
+        <f t="shared" ref="G44" si="94">SUM(G45:G50)</f>
         <v>11</v>
       </c>
       <c r="H44" s="40">
-        <f t="shared" ref="H44:T44" si="86">SUM(H45:H50)</f>
+        <f t="shared" ref="H44:T44" si="95">SUM(H45:H50)</f>
         <v>26</v>
       </c>
       <c r="I44" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>17</v>
       </c>
       <c r="J44" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>35</v>
       </c>
       <c r="K44" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>5</v>
       </c>
       <c r="L44" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>4</v>
       </c>
       <c r="M44" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>27</v>
       </c>
       <c r="N44" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>28</v>
       </c>
       <c r="O44" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>9</v>
       </c>
       <c r="P44" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>14</v>
       </c>
       <c r="Q44" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>9</v>
       </c>
       <c r="R44" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>16</v>
       </c>
       <c r="S44" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>6</v>
       </c>
       <c r="T44" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>11</v>
       </c>
+      <c r="X44" s="40">
+        <f t="shared" ref="X44:Z44" si="96">SUM(X45:X50)</f>
+        <v>108</v>
+      </c>
       <c r="Y44" s="40">
-        <f t="shared" ref="Y44:Z44" si="87">SUM(Y45:Y50)</f>
+        <f t="shared" si="96"/>
+        <v>101</v>
+      </c>
+      <c r="Z44" s="40">
+        <f t="shared" ref="Z44:AA44" si="97">SUM(Z45:Z50)</f>
         <v>90</v>
       </c>
-      <c r="Z44" s="40">
-        <f t="shared" si="87"/>
+      <c r="AA44" s="40">
+        <f t="shared" si="97"/>
         <v>89</v>
       </c>
-      <c r="AA44" s="40">
-        <f t="shared" ref="AA44:AB44" si="88">SUM(AA45:AA50)</f>
+      <c r="AB44" s="40">
+        <f t="shared" ref="AB44:AC44" si="98">SUM(AB45:AB50)</f>
         <v>44</v>
       </c>
-      <c r="AB44" s="40">
-        <f t="shared" si="88"/>
+      <c r="AC44" s="40">
+        <f t="shared" si="98"/>
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="2:28" s="39" customFormat="1">
+    <row r="45" spans="2:29" s="39" customFormat="1">
       <c r="B45" s="48" t="s">
         <v>201</v>
       </c>
@@ -10139,20 +10380,26 @@
       <c r="T45" s="39">
         <v>0</v>
       </c>
+      <c r="X45" s="39">
+        <v>0</v>
+      </c>
       <c r="Y45" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="39">
         <v>1</v>
       </c>
-      <c r="Z45" s="39">
-        <v>0</v>
-      </c>
       <c r="AA45" s="39">
         <v>0</v>
       </c>
       <c r="AB45" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" s="39" customFormat="1">
+      <c r="AC45" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" s="39" customFormat="1">
       <c r="B46" s="48" t="s">
         <v>85</v>
       </c>
@@ -10210,20 +10457,26 @@
       <c r="T46" s="39">
         <v>8</v>
       </c>
+      <c r="X46" s="39">
+        <v>90</v>
+      </c>
       <c r="Y46" s="39">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="Z46" s="39">
         <v>67</v>
       </c>
       <c r="AA46" s="39">
+        <v>67</v>
+      </c>
+      <c r="AB46" s="39">
         <v>32</v>
       </c>
-      <c r="AB46" s="39">
+      <c r="AC46" s="39">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="2:28" s="39" customFormat="1">
+    <row r="47" spans="2:29" s="39" customFormat="1">
       <c r="B47" s="48" t="s">
         <v>185</v>
       </c>
@@ -10281,20 +10534,26 @@
       <c r="T47" s="39">
         <v>0</v>
       </c>
+      <c r="X47" s="39">
+        <v>11</v>
+      </c>
       <c r="Y47" s="39">
+        <v>12</v>
+      </c>
+      <c r="Z47" s="39">
         <v>13</v>
       </c>
-      <c r="Z47" s="39">
+      <c r="AA47" s="39">
         <v>5</v>
       </c>
-      <c r="AA47" s="39">
+      <c r="AB47" s="39">
         <v>1</v>
       </c>
-      <c r="AB47" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" s="39" customFormat="1">
+      <c r="AC47" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" s="39" customFormat="1">
       <c r="B48" s="48" t="s">
         <v>188</v>
       </c>
@@ -10352,20 +10611,26 @@
       <c r="T48" s="39">
         <v>0</v>
       </c>
+      <c r="X48" s="39">
+        <v>7</v>
+      </c>
       <c r="Y48" s="39">
+        <v>10</v>
+      </c>
+      <c r="Z48" s="39">
         <v>5</v>
       </c>
-      <c r="Z48" s="39">
+      <c r="AA48" s="39">
         <v>3</v>
       </c>
-      <c r="AA48" s="39">
-        <v>0</v>
-      </c>
       <c r="AB48" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:28" s="39" customFormat="1">
+      <c r="AC48" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29" s="39" customFormat="1">
       <c r="B49" s="48" t="s">
         <v>180</v>
       </c>
@@ -10423,20 +10688,26 @@
       <c r="T49" s="39">
         <v>0</v>
       </c>
+      <c r="X49" s="39">
+        <v>0</v>
+      </c>
       <c r="Y49" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="39">
         <v>4</v>
       </c>
-      <c r="Z49" s="39">
+      <c r="AA49" s="39">
         <v>7</v>
       </c>
-      <c r="AA49" s="39">
+      <c r="AB49" s="39">
         <v>4</v>
       </c>
-      <c r="AB49" s="39">
+      <c r="AC49" s="39">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:28" s="39" customFormat="1">
+    <row r="50" spans="2:29" s="39" customFormat="1">
       <c r="B50" s="48" t="s">
         <v>86</v>
       </c>
@@ -10494,28 +10765,34 @@
       <c r="T50" s="39">
         <v>3</v>
       </c>
+      <c r="X50" s="39">
+        <v>0</v>
+      </c>
       <c r="Y50" s="39">
         <v>0</v>
       </c>
       <c r="Z50" s="39">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="39">
         <v>7</v>
       </c>
       <c r="AB50" s="39">
+        <v>7</v>
+      </c>
+      <c r="AC50" s="39">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="2:28" s="39" customFormat="1">
+    <row r="51" spans="2:29" s="39" customFormat="1">
       <c r="B51" s="48"/>
     </row>
-    <row r="52" spans="2:28" s="40" customFormat="1">
+    <row r="52" spans="2:29" s="40" customFormat="1">
       <c r="B52" s="49" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="40">
-        <f t="shared" ref="C52" si="89">C53+C54+C55</f>
+        <f t="shared" ref="C52" si="99">C53+C54+C55</f>
         <v>11</v>
       </c>
       <c r="D52" s="40">
@@ -10527,7 +10804,7 @@
         <v>24</v>
       </c>
       <c r="F52" s="40">
-        <f t="shared" ref="F52" si="90">F53+F54+F55</f>
+        <f t="shared" ref="F52" si="100">F53+F54+F55</f>
         <v>36</v>
       </c>
       <c r="G52" s="40">
@@ -10539,11 +10816,11 @@
         <v>25</v>
       </c>
       <c r="I52" s="40">
-        <f t="shared" ref="I52:J52" si="91">I53+I54+I55</f>
+        <f t="shared" ref="I52:J52" si="101">I53+I54+I55</f>
         <v>27</v>
       </c>
       <c r="J52" s="40">
-        <f t="shared" si="91"/>
+        <f t="shared" si="101"/>
         <v>46</v>
       </c>
       <c r="K52" s="40">
@@ -10555,55 +10832,63 @@
         <v>13</v>
       </c>
       <c r="M52" s="40">
-        <f t="shared" ref="M52" si="92">M53+M54+M55</f>
+        <f t="shared" ref="M52" si="102">M53+M54+M55</f>
         <v>21</v>
       </c>
       <c r="N52" s="40">
-        <f t="shared" ref="N52:T52" si="93">N53+N54+N55</f>
+        <f t="shared" ref="N52:T52" si="103">N53+N54+N55</f>
         <v>43</v>
       </c>
       <c r="O52" s="40">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>13</v>
       </c>
       <c r="P52" s="40">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>20</v>
       </c>
       <c r="Q52" s="40">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>21</v>
       </c>
       <c r="R52" s="40">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>39</v>
       </c>
       <c r="S52" s="40">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>20</v>
       </c>
       <c r="T52" s="40">
-        <f t="shared" si="93"/>
+        <f t="shared" si="103"/>
         <v>21</v>
       </c>
+      <c r="X52" s="40">
+        <f t="shared" ref="X52:Z52" si="104">X53+X54+X55</f>
+        <v>117</v>
+      </c>
       <c r="Y52" s="40">
-        <f t="shared" ref="Y52:Z52" si="94">Y53+Y54+Y55</f>
+        <f t="shared" si="104"/>
+        <v>109</v>
+      </c>
+      <c r="Z52" s="40">
+        <f t="shared" ref="Z52:AA52" si="105">Z53+Z54+Z55</f>
         <v>88</v>
       </c>
-      <c r="Z52" s="40">
-        <f t="shared" si="94"/>
+      <c r="AA52" s="40">
+        <f t="shared" si="105"/>
         <v>109</v>
-      </c>
-      <c r="AA52" s="40">
-        <f>AA53+AA54+AA55</f>
-        <v>86</v>
       </c>
       <c r="AB52" s="40">
         <f>AB53+AB54+AB55</f>
+        <v>86</v>
+      </c>
+      <c r="AC52" s="40">
+        <f>AC53+AC54+AC55</f>
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="2:28" s="39" customFormat="1">
+    <row r="53" spans="2:29" s="39" customFormat="1">
       <c r="B53" s="48" t="s">
         <v>88</v>
       </c>
@@ -10661,20 +10946,26 @@
       <c r="T53" s="39">
         <v>12</v>
       </c>
+      <c r="X53" s="39">
+        <v>73</v>
+      </c>
       <c r="Y53" s="39">
+        <v>72</v>
+      </c>
+      <c r="Z53" s="39">
         <v>64</v>
       </c>
-      <c r="Z53" s="39">
+      <c r="AA53" s="39">
         <v>62</v>
       </c>
-      <c r="AA53" s="39">
+      <c r="AB53" s="39">
         <v>56</v>
       </c>
-      <c r="AB53" s="39">
+      <c r="AC53" s="39">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="2:28" s="39" customFormat="1">
+    <row r="54" spans="2:29" s="39" customFormat="1">
       <c r="B54" s="48" t="s">
         <v>89</v>
       </c>
@@ -10732,6 +11023,9 @@
       <c r="T54" s="39">
         <v>9</v>
       </c>
+      <c r="X54" s="39">
+        <v>0</v>
+      </c>
       <c r="Y54" s="39">
         <v>0</v>
       </c>
@@ -10739,13 +11033,16 @@
         <v>0</v>
       </c>
       <c r="AA54" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="39">
         <v>30</v>
       </c>
-      <c r="AB54" s="39">
+      <c r="AC54" s="39">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:28" s="39" customFormat="1">
+    <row r="55" spans="2:29" s="39" customFormat="1">
       <c r="B55" s="48" t="s">
         <v>181</v>
       </c>
@@ -10803,23 +11100,29 @@
       <c r="T55" s="39">
         <v>0</v>
       </c>
+      <c r="X55" s="39">
+        <v>44</v>
+      </c>
       <c r="Y55" s="39">
+        <v>37</v>
+      </c>
+      <c r="Z55" s="39">
         <v>24</v>
       </c>
-      <c r="Z55" s="39">
+      <c r="AA55" s="39">
         <v>47</v>
       </c>
-      <c r="AA55" s="39">
-        <v>0</v>
-      </c>
       <c r="AB55" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:28" s="39" customFormat="1">
+      <c r="AC55" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:29" s="39" customFormat="1">
       <c r="B56" s="48"/>
     </row>
-    <row r="57" spans="2:28" s="40" customFormat="1">
+    <row r="57" spans="2:29" s="40" customFormat="1">
       <c r="B57" s="29" t="s">
         <v>202</v>
       </c>
@@ -10836,78 +11139,86 @@
         <v>186</v>
       </c>
       <c r="G57" s="65">
-        <f t="shared" ref="G57:S57" si="95">G43/C43-1</f>
+        <f t="shared" ref="G57:S57" si="106">G43/C43-1</f>
         <v>-0.12</v>
       </c>
       <c r="H57" s="65">
-        <f t="shared" si="95"/>
+        <f t="shared" si="106"/>
         <v>6.25E-2</v>
       </c>
       <c r="I57" s="65">
-        <f t="shared" si="95"/>
+        <f t="shared" si="106"/>
         <v>0.12820512820512819</v>
       </c>
       <c r="J57" s="65">
-        <f t="shared" si="95"/>
+        <f t="shared" si="106"/>
         <v>0.17391304347826098</v>
       </c>
       <c r="K57" s="65">
-        <f t="shared" si="95"/>
+        <f t="shared" si="106"/>
         <v>-0.36363636363636365</v>
       </c>
       <c r="L57" s="65">
-        <f t="shared" si="95"/>
+        <f t="shared" si="106"/>
         <v>-0.66666666666666674</v>
       </c>
       <c r="M57" s="65">
-        <f t="shared" si="95"/>
+        <f t="shared" si="106"/>
         <v>9.0909090909090828E-2</v>
       </c>
       <c r="N57" s="65">
-        <f t="shared" si="95"/>
+        <f t="shared" si="106"/>
         <v>-0.12345679012345678</v>
       </c>
       <c r="O57" s="65">
-        <f t="shared" si="95"/>
+        <f t="shared" si="106"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="P57" s="65">
-        <f t="shared" si="95"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="Q57" s="65">
-        <f t="shared" si="95"/>
+        <f t="shared" si="106"/>
         <v>-0.375</v>
       </c>
       <c r="R57" s="65">
-        <f t="shared" si="95"/>
+        <f t="shared" si="106"/>
         <v>-0.22535211267605637</v>
       </c>
       <c r="S57" s="65">
-        <f t="shared" si="95"/>
+        <f t="shared" si="106"/>
         <v>0.18181818181818188</v>
       </c>
       <c r="T57" s="65">
         <f>T43/P43-1</f>
         <v>-5.8823529411764719E-2</v>
       </c>
-      <c r="Y57" s="66" t="s">
+      <c r="X57" s="66" t="s">
         <v>186</v>
       </c>
+      <c r="Y57" s="65">
+        <f t="shared" ref="Y57" si="107">Y43/X43-1</f>
+        <v>-6.6666666666666652E-2</v>
+      </c>
       <c r="Z57" s="65">
-        <f t="shared" ref="Z57:AA57" si="96">Z43/Y43-1</f>
+        <f t="shared" ref="Z57" si="108">Z43/Y43-1</f>
+        <v>-0.15238095238095239</v>
+      </c>
+      <c r="AA57" s="65">
+        <f t="shared" ref="AA57:AB57" si="109">AA43/Z43-1</f>
         <v>0.11235955056179781</v>
       </c>
-      <c r="AA57" s="65">
-        <f t="shared" si="96"/>
+      <c r="AB57" s="65">
+        <f t="shared" si="109"/>
         <v>-0.34343434343434343</v>
       </c>
-      <c r="AB57" s="65">
-        <f>AB43/AA43-1</f>
+      <c r="AC57" s="65">
+        <f>AC43/AB43-1</f>
         <v>8.4615384615384537E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:28" s="39" customFormat="1">
+    <row r="58" spans="2:29" s="39" customFormat="1">
       <c r="B58" s="30" t="s">
         <v>203</v>
       </c>
@@ -10915,73 +11226,76 @@
         <v>186</v>
       </c>
       <c r="D58" s="64">
-        <f t="shared" ref="D58" si="97">D43/C43-1</f>
+        <f t="shared" ref="D58" si="110">D43/C43-1</f>
         <v>0.91999999999999993</v>
       </c>
       <c r="E58" s="64">
-        <f t="shared" ref="E58" si="98">E43/D43-1</f>
+        <f t="shared" ref="E58" si="111">E43/D43-1</f>
         <v>-0.1875</v>
       </c>
       <c r="F58" s="64">
-        <f t="shared" ref="F58:S58" si="99">F43/E43-1</f>
+        <f t="shared" ref="F58:S58" si="112">F43/E43-1</f>
         <v>0.76923076923076916</v>
       </c>
       <c r="G58" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="112"/>
         <v>-0.6811594202898551</v>
       </c>
       <c r="H58" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="112"/>
         <v>1.3181818181818183</v>
       </c>
       <c r="I58" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="112"/>
         <v>-0.13725490196078427</v>
       </c>
       <c r="J58" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="112"/>
         <v>0.84090909090909083</v>
       </c>
       <c r="K58" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="112"/>
         <v>-0.8271604938271605</v>
       </c>
       <c r="L58" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="112"/>
         <v>0.21428571428571419</v>
       </c>
       <c r="M58" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="112"/>
         <v>1.8235294117647061</v>
       </c>
       <c r="N58" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="112"/>
         <v>0.47916666666666674</v>
       </c>
       <c r="O58" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="112"/>
         <v>-0.6901408450704225</v>
       </c>
       <c r="P58" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="112"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="Q58" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="112"/>
         <v>-0.11764705882352944</v>
       </c>
       <c r="R58" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="112"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="S58" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="112"/>
         <v>-0.52727272727272734</v>
       </c>
       <c r="T58" s="64">
         <f>T43/S43-1</f>
         <v>0.23076923076923084</v>
       </c>
+      <c r="X58" s="66" t="s">
+        <v>186</v>
+      </c>
       <c r="Y58" s="66" t="s">
         <v>186</v>
       </c>
@@ -10994,13 +11308,16 @@
       <c r="AB58" s="66" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="60" spans="2:28">
+      <c r="AC58" s="66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="2:29">
       <c r="B60" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="2:28" s="2" customFormat="1">
+    <row r="61" spans="2:29" s="2" customFormat="1">
       <c r="B61" s="2" t="s">
         <v>6</v>
       </c>
@@ -11058,20 +11375,30 @@
       <c r="T61" s="26">
         <v>1041.3</v>
       </c>
+      <c r="X61" s="26">
+        <v>1241.5</v>
+      </c>
+      <c r="Y61" s="26">
+        <v>1270.8</v>
+      </c>
       <c r="Z61" s="26">
+        <f>F61</f>
+        <v>1280.9000000000001</v>
+      </c>
+      <c r="AA61" s="26">
         <f>J61</f>
         <v>2307.6999999999998</v>
       </c>
-      <c r="AA61" s="26">
+      <c r="AB61" s="26">
         <f>N61</f>
         <v>1883.1</v>
       </c>
-      <c r="AB61" s="26">
+      <c r="AC61" s="26">
         <f>R61</f>
         <v>1818.3</v>
       </c>
     </row>
-    <row r="62" spans="2:28" s="2" customFormat="1">
+    <row r="62" spans="2:29" s="2" customFormat="1">
       <c r="B62" s="2" t="s">
         <v>90</v>
       </c>
@@ -11129,20 +11456,30 @@
       <c r="T62" s="26">
         <v>753.8</v>
       </c>
+      <c r="X62" s="26">
+        <v>1775.5</v>
+      </c>
+      <c r="Y62" s="26">
+        <v>2365.6</v>
+      </c>
       <c r="Z62" s="26">
+        <f>F62</f>
+        <v>1743.4</v>
+      </c>
+      <c r="AA62" s="26">
         <f>J62</f>
         <v>410.9</v>
       </c>
-      <c r="AA62" s="26">
+      <c r="AB62" s="26">
         <f>N62</f>
         <v>817.5</v>
       </c>
-      <c r="AB62" s="26">
+      <c r="AC62" s="26">
         <f>R62</f>
         <v>750.8</v>
       </c>
     </row>
-    <row r="63" spans="2:28">
+    <row r="63" spans="2:29">
       <c r="B63" s="3" t="s">
         <v>91</v>
       </c>
@@ -11200,20 +11537,30 @@
       <c r="T63" s="27">
         <v>240.4</v>
       </c>
+      <c r="X63" s="27">
+        <v>665.4</v>
+      </c>
+      <c r="Y63" s="27">
+        <v>717.1</v>
+      </c>
       <c r="Z63" s="27">
+        <f>F63</f>
+        <v>318</v>
+      </c>
+      <c r="AA63" s="27">
         <f>J63</f>
         <v>294.2</v>
       </c>
-      <c r="AA63" s="27">
-        <f t="shared" ref="AA63:AA67" si="100">N63</f>
+      <c r="AB63" s="27">
+        <f t="shared" ref="AB63:AB67" si="113">N63</f>
         <v>203.4</v>
       </c>
-      <c r="AB63" s="27">
+      <c r="AC63" s="27">
         <f>R63</f>
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="2:28">
+    <row r="64" spans="2:29">
       <c r="B64" s="3" t="s">
         <v>92</v>
       </c>
@@ -11271,20 +11618,30 @@
       <c r="T64" s="27">
         <v>2.5</v>
       </c>
+      <c r="X64" s="27">
+        <v>21</v>
+      </c>
+      <c r="Y64" s="27">
+        <v>29.5</v>
+      </c>
       <c r="Z64" s="27">
-        <f t="shared" ref="Z64:Z86" si="101">J64</f>
+        <f t="shared" ref="Z64:Z87" si="114">F64</f>
+        <v>5.4</v>
+      </c>
+      <c r="AA64" s="27">
+        <f t="shared" ref="AA64:AA86" si="115">J64</f>
         <v>1.4</v>
       </c>
-      <c r="AA64" s="27">
-        <f t="shared" si="100"/>
+      <c r="AB64" s="27">
+        <f t="shared" si="113"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB64" s="27">
-        <f t="shared" ref="AB64:AB86" si="102">R64</f>
+      <c r="AC64" s="27">
+        <f t="shared" ref="AC64:AC86" si="116">R64</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="2:28">
+    <row r="65" spans="2:29">
       <c r="B65" s="3" t="s">
         <v>93</v>
       </c>
@@ -11342,20 +11699,30 @@
       <c r="T65" s="27">
         <v>5.8</v>
       </c>
+      <c r="X65" s="27">
+        <v>8.5</v>
+      </c>
+      <c r="Y65" s="27">
+        <v>2.1</v>
+      </c>
       <c r="Z65" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>1.2</v>
+      </c>
+      <c r="AA65" s="27">
+        <f t="shared" si="115"/>
         <v>1.5</v>
       </c>
-      <c r="AA65" s="27">
-        <f t="shared" si="100"/>
+      <c r="AB65" s="27">
+        <f t="shared" si="113"/>
         <v>8.5</v>
       </c>
-      <c r="AB65" s="27">
-        <f t="shared" si="102"/>
+      <c r="AC65" s="27">
+        <f t="shared" si="116"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="66" spans="2:28">
+    <row r="66" spans="2:29">
       <c r="B66" s="3" t="s">
         <v>189</v>
       </c>
@@ -11413,20 +11780,30 @@
       <c r="T66" s="27">
         <v>0</v>
       </c>
+      <c r="X66" s="27">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="Y66" s="27">
+        <v>185.6</v>
+      </c>
       <c r="Z66" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>218.5</v>
+      </c>
+      <c r="AA66" s="27">
+        <f t="shared" si="115"/>
         <v>4</v>
       </c>
-      <c r="AA66" s="27">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
       <c r="AB66" s="27">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="27">
         <f>R66</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:28">
+    <row r="67" spans="2:29">
       <c r="B67" s="3" t="s">
         <v>94</v>
       </c>
@@ -11484,20 +11861,30 @@
       <c r="T67" s="27">
         <v>620</v>
       </c>
+      <c r="X67" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="27">
+        <v>0</v>
+      </c>
       <c r="Z67" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>358</v>
+      </c>
+      <c r="AA67" s="27">
+        <f t="shared" si="115"/>
         <v>495.7</v>
       </c>
-      <c r="AA67" s="27">
-        <f t="shared" si="100"/>
+      <c r="AB67" s="27">
+        <f t="shared" si="113"/>
         <v>461.8</v>
       </c>
-      <c r="AB67" s="27">
-        <f t="shared" si="102"/>
+      <c r="AC67" s="27">
+        <f t="shared" si="116"/>
         <v>582.29999999999995</v>
       </c>
     </row>
-    <row r="68" spans="2:28" s="2" customFormat="1">
+    <row r="68" spans="2:29" s="2" customFormat="1">
       <c r="B68" s="2" t="s">
         <v>95</v>
       </c>
@@ -11555,20 +11942,30 @@
       <c r="T68" s="26">
         <v>2392.9</v>
       </c>
+      <c r="X68" s="26">
+        <v>2496.4</v>
+      </c>
+      <c r="Y68" s="26">
+        <v>2148.6999999999998</v>
+      </c>
       <c r="Z68" s="26">
+        <f>F68</f>
+        <v>2507</v>
+      </c>
+      <c r="AA68" s="26">
         <f>J68</f>
         <v>2384</v>
       </c>
-      <c r="AA68" s="26">
+      <c r="AB68" s="26">
         <f>N68</f>
         <v>2437.9</v>
       </c>
-      <c r="AB68" s="26">
+      <c r="AC68" s="26">
         <f>R68</f>
         <v>1986</v>
       </c>
     </row>
-    <row r="69" spans="2:28">
+    <row r="69" spans="2:29">
       <c r="B69" s="3" t="s">
         <v>63</v>
       </c>
@@ -11626,20 +12023,30 @@
       <c r="T69" s="27">
         <v>101.9</v>
       </c>
+      <c r="X69" s="27">
+        <v>80.7</v>
+      </c>
+      <c r="Y69" s="27">
+        <v>76.900000000000006</v>
+      </c>
       <c r="Z69" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>95.3</v>
+      </c>
+      <c r="AA69" s="27">
+        <f t="shared" si="115"/>
         <v>92.6</v>
       </c>
-      <c r="AA69" s="27">
-        <f t="shared" ref="AA69:AA72" si="103">N69</f>
+      <c r="AB69" s="27">
+        <f t="shared" ref="AB69:AB72" si="117">N69</f>
         <v>114.1</v>
       </c>
-      <c r="AB69" s="27">
-        <f t="shared" si="102"/>
+      <c r="AC69" s="27">
+        <f t="shared" si="116"/>
         <v>114.5</v>
       </c>
     </row>
-    <row r="70" spans="2:28">
+    <row r="70" spans="2:29">
       <c r="B70" s="3" t="s">
         <v>182</v>
       </c>
@@ -11697,20 +12104,30 @@
       <c r="T70" s="27">
         <v>0</v>
       </c>
+      <c r="X70" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="27">
+        <v>0</v>
+      </c>
       <c r="Z70" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>339.9</v>
+      </c>
+      <c r="AA70" s="27">
+        <f t="shared" si="115"/>
         <v>0.2</v>
       </c>
-      <c r="AA70" s="27">
-        <f t="shared" si="103"/>
+      <c r="AB70" s="27">
+        <f t="shared" si="117"/>
         <v>0.2</v>
       </c>
-      <c r="AB70" s="27">
-        <f t="shared" si="102"/>
+      <c r="AC70" s="27">
+        <f t="shared" si="116"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="71" spans="2:28">
+    <row r="71" spans="2:29">
       <c r="B71" s="3" t="s">
         <v>96</v>
       </c>
@@ -11768,20 +12185,30 @@
       <c r="T71" s="27">
         <v>209.3</v>
       </c>
+      <c r="X71" s="27">
+        <v>349.9</v>
+      </c>
+      <c r="Y71" s="27">
+        <v>255.4</v>
+      </c>
       <c r="Z71" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>203.5</v>
+      </c>
+      <c r="AA71" s="27">
+        <f t="shared" si="115"/>
         <v>199.4</v>
       </c>
-      <c r="AA71" s="27">
-        <f t="shared" si="103"/>
+      <c r="AB71" s="27">
+        <f t="shared" si="117"/>
         <v>180.9</v>
       </c>
-      <c r="AB71" s="27">
-        <f t="shared" si="102"/>
+      <c r="AC71" s="27">
+        <f t="shared" si="116"/>
         <v>193.7</v>
       </c>
     </row>
-    <row r="72" spans="2:28">
+    <row r="72" spans="2:29">
       <c r="B72" s="3" t="s">
         <v>97</v>
       </c>
@@ -11839,109 +12266,131 @@
       <c r="T72" s="27">
         <v>0</v>
       </c>
+      <c r="X72" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="27">
+        <v>0</v>
+      </c>
       <c r="Z72" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AA72" s="27">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB72" s="27">
-        <f t="shared" si="102"/>
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AC72" s="27">
+        <f t="shared" si="116"/>
         <v>230.9</v>
       </c>
     </row>
-    <row r="73" spans="2:28">
+    <row r="73" spans="2:29">
       <c r="B73" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C73" s="27">
-        <f t="shared" ref="C73:T73" si="104">SUM(C61:C72)</f>
+        <f t="shared" ref="C73:T73" si="118">SUM(C61:C72)</f>
         <v>7152.2</v>
       </c>
       <c r="D73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>7091.7</v>
       </c>
       <c r="E73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>7067.9</v>
       </c>
       <c r="F73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>7071.0999999999995</v>
       </c>
       <c r="G73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>7000.3</v>
       </c>
       <c r="H73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>7009.2</v>
       </c>
       <c r="I73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>6737.2</v>
       </c>
       <c r="J73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>6191.5999999999995</v>
       </c>
       <c r="K73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>6442.2</v>
       </c>
       <c r="L73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>6081.4000000000005</v>
       </c>
       <c r="M73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>6019.7999999999993</v>
       </c>
       <c r="N73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>6115.7</v>
       </c>
       <c r="O73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>5903</v>
       </c>
       <c r="P73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>5929.3</v>
       </c>
       <c r="Q73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>6019.7999999999993</v>
       </c>
       <c r="R73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>5875.7999999999993</v>
       </c>
       <c r="S73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>5536.6</v>
       </c>
       <c r="T73" s="27">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>5367.9000000000005</v>
       </c>
+      <c r="X73" s="27">
+        <f t="shared" ref="X73:Y73" si="119">SUM(X61:X72)</f>
+        <v>6781.7</v>
+      </c>
+      <c r="Y73" s="27">
+        <f t="shared" si="119"/>
+        <v>7051.7</v>
+      </c>
       <c r="Z73" s="27">
-        <f t="shared" ref="Z73" si="105">SUM(Z61:Z72)</f>
+        <f t="shared" ref="Z73:AA73" si="120">SUM(Z61:Z72)</f>
+        <v>7071.0999999999995</v>
+      </c>
+      <c r="AA73" s="27">
+        <f t="shared" si="120"/>
         <v>6191.5999999999995</v>
-      </c>
-      <c r="AA73" s="27">
-        <f>SUM(AA61:AA72)</f>
-        <v>6115.7</v>
       </c>
       <c r="AB73" s="27">
         <f>SUM(AB61:AB72)</f>
+        <v>6115.7</v>
+      </c>
+      <c r="AC73" s="27">
+        <f>SUM(AC61:AC72)</f>
         <v>5875.7999999999993</v>
       </c>
     </row>
-    <row r="74" spans="2:28" s="2" customFormat="1">
+    <row r="74" spans="2:29" s="2" customFormat="1">
       <c r="B74" s="2" t="s">
         <v>90</v>
       </c>
@@ -11999,20 +12448,30 @@
       <c r="T74" s="26">
         <v>169.9</v>
       </c>
+      <c r="X74" s="26">
+        <v>168.2</v>
+      </c>
+      <c r="Y74" s="26">
+        <v>251.3</v>
+      </c>
       <c r="Z74" s="26">
+        <f>F74</f>
+        <v>183.5</v>
+      </c>
+      <c r="AA74" s="26">
         <f>J74</f>
         <v>61.3</v>
       </c>
-      <c r="AA74" s="26">
+      <c r="AB74" s="26">
         <f>N74</f>
         <v>51.7</v>
       </c>
-      <c r="AB74" s="26">
+      <c r="AC74" s="26">
         <f>R74</f>
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="75" spans="2:28">
+    <row r="75" spans="2:29">
       <c r="B75" s="3" t="s">
         <v>94</v>
       </c>
@@ -12070,20 +12529,30 @@
       <c r="T75" s="27">
         <v>1.5</v>
       </c>
+      <c r="X75" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="27">
+        <v>0</v>
+      </c>
       <c r="Z75" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AA75" s="27">
-        <f t="shared" ref="AA75:AA85" si="106">N75</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB75" s="27">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:28" s="2" customFormat="1">
+        <f t="shared" ref="AB75:AB85" si="121">N75</f>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="27">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" s="2" customFormat="1">
       <c r="B76" s="2" t="s">
         <v>92</v>
       </c>
@@ -12141,20 +12610,30 @@
       <c r="T76" s="26">
         <v>3.2</v>
       </c>
+      <c r="X76" s="26">
+        <v>11.1</v>
+      </c>
+      <c r="Y76" s="26">
+        <v>4.8</v>
+      </c>
       <c r="Z76" s="26">
+        <f>F76</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA76" s="26">
         <f>J76</f>
         <v>0.7</v>
       </c>
-      <c r="AA76" s="26">
+      <c r="AB76" s="26">
         <f>N76</f>
         <v>1.3</v>
       </c>
-      <c r="AB76" s="26">
+      <c r="AC76" s="26">
         <f>R76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:28">
+    <row r="77" spans="2:29">
       <c r="B77" s="3" t="s">
         <v>189</v>
       </c>
@@ -12212,20 +12691,30 @@
       <c r="T77" s="27">
         <v>0</v>
       </c>
+      <c r="X77" s="27">
+        <v>180.5</v>
+      </c>
+      <c r="Y77" s="27">
+        <v>103.1</v>
+      </c>
       <c r="Z77" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AA77" s="27">
+        <f t="shared" si="115"/>
         <v>13.6</v>
       </c>
-      <c r="AA77" s="27">
+      <c r="AB77" s="27">
         <f>N77</f>
         <v>0</v>
       </c>
-      <c r="AB77" s="27">
+      <c r="AC77" s="27">
         <f>R77</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:28">
+    <row r="78" spans="2:29">
       <c r="B78" s="3" t="s">
         <v>182</v>
       </c>
@@ -12283,20 +12772,30 @@
       <c r="T78" s="27">
         <v>0</v>
       </c>
+      <c r="X78" s="27">
+        <v>511.4</v>
+      </c>
+      <c r="Y78" s="27">
+        <v>393.8</v>
+      </c>
       <c r="Z78" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AA78" s="27">
+        <f t="shared" si="115"/>
         <v>0.8</v>
       </c>
-      <c r="AA78" s="27">
-        <f t="shared" si="106"/>
+      <c r="AB78" s="27">
+        <f t="shared" si="121"/>
         <v>1.5</v>
       </c>
-      <c r="AB78" s="27">
-        <f t="shared" si="102"/>
+      <c r="AC78" s="27">
+        <f t="shared" si="116"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="79" spans="2:28">
+    <row r="79" spans="2:29">
       <c r="B79" s="3" t="s">
         <v>93</v>
       </c>
@@ -12354,20 +12853,30 @@
       <c r="T79" s="27">
         <v>14.5</v>
       </c>
+      <c r="X79" s="27">
+        <v>28.9</v>
+      </c>
+      <c r="Y79" s="27">
+        <v>14.3</v>
+      </c>
       <c r="Z79" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>10.5</v>
+      </c>
+      <c r="AA79" s="27">
+        <f t="shared" si="115"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="AA79" s="27">
-        <f t="shared" si="106"/>
+      <c r="AB79" s="27">
+        <f t="shared" si="121"/>
         <v>21.4</v>
       </c>
-      <c r="AB79" s="27">
-        <f t="shared" si="102"/>
+      <c r="AC79" s="27">
+        <f t="shared" si="116"/>
         <v>22.4</v>
       </c>
     </row>
-    <row r="80" spans="2:28">
+    <row r="80" spans="2:29">
       <c r="B80" s="3" t="s">
         <v>91</v>
       </c>
@@ -12425,20 +12934,30 @@
       <c r="T80" s="27">
         <v>0.9</v>
       </c>
+      <c r="X80" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="27">
+        <v>0</v>
+      </c>
       <c r="Z80" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AA80" s="27">
-        <f t="shared" si="106"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB80" s="27">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:28">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="AC80" s="27">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:29">
       <c r="B81" s="3" t="s">
         <v>99</v>
       </c>
@@ -12496,20 +13015,30 @@
       <c r="T81" s="27">
         <v>23.3</v>
       </c>
+      <c r="X81" s="27">
+        <v>3.4</v>
+      </c>
+      <c r="Y81" s="27">
+        <v>2.8</v>
+      </c>
       <c r="Z81" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>21.6</v>
+      </c>
+      <c r="AA81" s="27">
+        <f t="shared" si="115"/>
         <v>35</v>
       </c>
-      <c r="AA81" s="27">
-        <f t="shared" si="106"/>
+      <c r="AB81" s="27">
+        <f t="shared" si="121"/>
         <v>104.6</v>
       </c>
-      <c r="AB81" s="27">
-        <f t="shared" si="102"/>
+      <c r="AC81" s="27">
+        <f t="shared" si="116"/>
         <v>97.6</v>
       </c>
     </row>
-    <row r="82" spans="2:28">
+    <row r="82" spans="2:29">
       <c r="B82" s="3" t="s">
         <v>96</v>
       </c>
@@ -12567,20 +13096,30 @@
       <c r="T82" s="27">
         <v>165</v>
       </c>
+      <c r="X82" s="27">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="Y82" s="27">
+        <v>121.5</v>
+      </c>
       <c r="Z82" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>105.6</v>
+      </c>
+      <c r="AA82" s="27">
+        <f t="shared" si="115"/>
         <v>93.9</v>
       </c>
-      <c r="AA82" s="27">
-        <f t="shared" si="106"/>
+      <c r="AB82" s="27">
+        <f t="shared" si="121"/>
         <v>120.7</v>
       </c>
-      <c r="AB82" s="27">
-        <f t="shared" si="102"/>
+      <c r="AC82" s="27">
+        <f t="shared" si="116"/>
         <v>125.6</v>
       </c>
     </row>
-    <row r="83" spans="2:28">
+    <row r="83" spans="2:29">
       <c r="B83" s="3" t="s">
         <v>100</v>
       </c>
@@ -12638,20 +13177,30 @@
       <c r="T83" s="27">
         <v>9.3000000000000007</v>
       </c>
+      <c r="X83" s="27">
+        <v>3.9</v>
+      </c>
+      <c r="Y83" s="27">
+        <v>5.6</v>
+      </c>
       <c r="Z83" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>6.3</v>
+      </c>
+      <c r="AA83" s="27">
+        <f t="shared" si="115"/>
         <v>8.1</v>
       </c>
-      <c r="AA83" s="27">
-        <f t="shared" si="106"/>
+      <c r="AB83" s="27">
+        <f t="shared" si="121"/>
         <v>5.2</v>
       </c>
-      <c r="AB83" s="27">
-        <f t="shared" si="102"/>
+      <c r="AC83" s="27">
+        <f t="shared" si="116"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="84" spans="2:28">
+    <row r="84" spans="2:29">
       <c r="B84" s="3" t="s">
         <v>101</v>
       </c>
@@ -12709,20 +13258,30 @@
       <c r="T84" s="27">
         <v>1652.5</v>
       </c>
+      <c r="X84" s="27">
+        <v>2154.1999999999998</v>
+      </c>
+      <c r="Y84" s="27">
+        <v>2104.9</v>
+      </c>
       <c r="Z84" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>1964.7</v>
+      </c>
+      <c r="AA84" s="27">
+        <f t="shared" si="115"/>
         <v>2058.6</v>
       </c>
-      <c r="AA84" s="27">
-        <f t="shared" si="106"/>
+      <c r="AB84" s="27">
+        <f t="shared" si="121"/>
         <v>1956</v>
       </c>
-      <c r="AB84" s="27">
-        <f t="shared" si="102"/>
+      <c r="AC84" s="27">
+        <f t="shared" si="116"/>
         <v>1687.6</v>
       </c>
     </row>
-    <row r="85" spans="2:28">
+    <row r="85" spans="2:29">
       <c r="B85" s="3" t="s">
         <v>102</v>
       </c>
@@ -12780,20 +13339,30 @@
       <c r="T85" s="27">
         <v>2231.3000000000002</v>
       </c>
+      <c r="X85" s="27">
+        <v>1664.6</v>
+      </c>
+      <c r="Y85" s="27">
+        <v>1882.4</v>
+      </c>
       <c r="Z85" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>1898.8</v>
+      </c>
+      <c r="AA85" s="27">
+        <f t="shared" si="115"/>
         <v>2051.6999999999998</v>
       </c>
-      <c r="AA85" s="27">
-        <f t="shared" si="106"/>
+      <c r="AB85" s="27">
+        <f t="shared" si="121"/>
         <v>2075.6</v>
       </c>
-      <c r="AB85" s="27">
-        <f t="shared" si="102"/>
+      <c r="AC85" s="27">
+        <f t="shared" si="116"/>
         <v>2213.4</v>
       </c>
     </row>
-    <row r="86" spans="2:28">
+    <row r="86" spans="2:29">
       <c r="B86" s="3" t="s">
         <v>103</v>
       </c>
@@ -12851,109 +13420,131 @@
       <c r="T86" s="27">
         <v>59.5</v>
       </c>
+      <c r="X86" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="27">
+        <v>0</v>
+      </c>
       <c r="Z86" s="27">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AA86" s="27">
+        <f t="shared" si="115"/>
         <v>48</v>
       </c>
-      <c r="AA86" s="27">
+      <c r="AB86" s="27">
         <f>N86</f>
         <v>62.3</v>
       </c>
-      <c r="AB86" s="27">
-        <f t="shared" si="102"/>
+      <c r="AC86" s="27">
+        <f t="shared" si="116"/>
         <v>60.2</v>
       </c>
     </row>
-    <row r="87" spans="2:28">
+    <row r="87" spans="2:29">
       <c r="B87" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C87" s="27">
-        <f t="shared" ref="C87:T87" si="107">SUM(C74:C86)+C73</f>
+        <f t="shared" ref="C87:T87" si="122">SUM(C74:C86)+C73</f>
         <v>11995.099999999999</v>
       </c>
       <c r="D87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>11811.099999999999</v>
       </c>
       <c r="E87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>11794.5</v>
       </c>
       <c r="F87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>11293.4</v>
       </c>
       <c r="G87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>11185.6</v>
       </c>
       <c r="H87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>11273.4</v>
       </c>
       <c r="I87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>11062.5</v>
       </c>
       <c r="J87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>10572.5</v>
       </c>
       <c r="K87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>10856.099999999999</v>
       </c>
       <c r="L87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>10325.400000000001</v>
       </c>
       <c r="M87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>10382.700000000001</v>
       </c>
       <c r="N87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>10516</v>
       </c>
       <c r="O87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>10308.1</v>
       </c>
       <c r="P87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>10341.299999999999</v>
       </c>
       <c r="Q87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>10382.700000000001</v>
       </c>
       <c r="R87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>10155</v>
       </c>
       <c r="S87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>9868.4</v>
       </c>
       <c r="T87" s="27">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>9698.7999999999993</v>
       </c>
+      <c r="X87" s="27">
+        <f t="shared" ref="X87:Y87" si="123">SUM(X74:X86)+X73</f>
+        <v>11664.599999999999</v>
+      </c>
+      <c r="Y87" s="27">
+        <f t="shared" si="123"/>
+        <v>11936.2</v>
+      </c>
       <c r="Z87" s="27">
-        <f t="shared" ref="Z87" si="108">SUM(Z74:Z86)+Z73</f>
+        <f t="shared" si="114"/>
+        <v>11293.4</v>
+      </c>
+      <c r="AA87" s="27">
+        <f t="shared" ref="AA87" si="124">SUM(AA74:AA86)+AA73</f>
         <v>10572.5</v>
-      </c>
-      <c r="AA87" s="27">
-        <f>SUM(AA74:AA86)+AA73</f>
-        <v>10516</v>
       </c>
       <c r="AB87" s="27">
         <f>SUM(AB74:AB86)+AB73</f>
+        <v>10516</v>
+      </c>
+      <c r="AC87" s="27">
+        <f>SUM(AC74:AC86)+AC73</f>
         <v>10155</v>
       </c>
     </row>
-    <row r="88" spans="2:28">
+    <row r="88" spans="2:29">
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
       <c r="L88" s="27"/>
@@ -12962,8 +13553,11 @@
       <c r="R88" s="27"/>
       <c r="S88" s="27"/>
       <c r="T88" s="27"/>
-    </row>
-    <row r="89" spans="2:28">
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+    </row>
+    <row r="89" spans="2:29">
       <c r="B89" s="3" t="s">
         <v>105</v>
       </c>
@@ -13021,20 +13615,30 @@
       <c r="T89" s="27">
         <v>727.4</v>
       </c>
+      <c r="X89" s="3">
+        <v>952.1</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>824.7</v>
+      </c>
       <c r="Z89" s="27">
-        <f t="shared" ref="Z89:Z95" si="109">J89</f>
+        <f>G89</f>
+        <v>870</v>
+      </c>
+      <c r="AA89" s="27">
+        <f t="shared" ref="AA89:AA95" si="125">J89</f>
         <v>832.7</v>
       </c>
-      <c r="AA89" s="27">
+      <c r="AB89" s="27">
         <f>N89</f>
         <v>502.3</v>
       </c>
-      <c r="AB89" s="27">
+      <c r="AC89" s="27">
         <f>R89</f>
         <v>495.2</v>
       </c>
     </row>
-    <row r="90" spans="2:28">
+    <row r="90" spans="2:29">
       <c r="B90" s="3" t="s">
         <v>106</v>
       </c>
@@ -13092,20 +13696,32 @@
       <c r="T90" s="27">
         <v>12.3</v>
       </c>
+      <c r="X90" s="27">
+        <f t="shared" ref="X90:Y91" si="126">G90</f>
+        <v>0</v>
+      </c>
+      <c r="Y90" s="27">
+        <f t="shared" ref="Y90" si="127">H90</f>
+        <v>0</v>
+      </c>
       <c r="Z90" s="27">
-        <f t="shared" si="109"/>
+        <f t="shared" ref="Z90" si="128">I90</f>
         <v>0</v>
       </c>
       <c r="AA90" s="27">
-        <f t="shared" ref="AA90:AA103" si="110">N90</f>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AB90" s="27">
-        <f t="shared" ref="AB90:AB103" si="111">R90</f>
+        <f t="shared" ref="AB90:AB103" si="129">N90</f>
+        <v>0</v>
+      </c>
+      <c r="AC90" s="27">
+        <f t="shared" ref="AC90:AC103" si="130">R90</f>
         <v>14.8</v>
       </c>
     </row>
-    <row r="91" spans="2:28">
+    <row r="91" spans="2:29">
       <c r="B91" s="3" t="s">
         <v>107</v>
       </c>
@@ -13163,20 +13779,32 @@
       <c r="T91" s="27">
         <v>11.3</v>
       </c>
+      <c r="X91" s="27">
+        <f t="shared" si="126"/>
+        <v>8.5</v>
+      </c>
+      <c r="Y91" s="27">
+        <f t="shared" ref="Y91" si="131">H91</f>
+        <v>9.5</v>
+      </c>
       <c r="Z91" s="27">
-        <f t="shared" si="109"/>
+        <f>G91</f>
+        <v>8.5</v>
+      </c>
+      <c r="AA91" s="27">
+        <f t="shared" si="125"/>
         <v>8</v>
       </c>
-      <c r="AA91" s="27">
-        <f t="shared" si="110"/>
+      <c r="AB91" s="27">
+        <f t="shared" si="129"/>
         <v>11.4</v>
       </c>
-      <c r="AB91" s="27">
-        <f t="shared" si="111"/>
+      <c r="AC91" s="27">
+        <f t="shared" si="130"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="92" spans="2:28" s="2" customFormat="1">
+    <row r="92" spans="2:29" s="2" customFormat="1">
       <c r="B92" s="2" t="s">
         <v>116</v>
       </c>
@@ -13234,20 +13862,30 @@
       <c r="T92" s="26">
         <v>70.2</v>
       </c>
-      <c r="Z92" s="27">
-        <f t="shared" si="109"/>
+      <c r="X92" s="26">
+        <v>510.3</v>
+      </c>
+      <c r="Y92" s="26">
+        <v>388.9</v>
+      </c>
+      <c r="Z92" s="26">
+        <f>F92</f>
+        <v>179.3</v>
+      </c>
+      <c r="AA92" s="27">
+        <f t="shared" si="125"/>
         <v>215</v>
       </c>
-      <c r="AA92" s="26">
+      <c r="AB92" s="26">
         <f>N92</f>
         <v>375.5</v>
       </c>
-      <c r="AB92" s="26">
+      <c r="AC92" s="26">
         <f>R92</f>
         <v>574.20000000000005</v>
       </c>
     </row>
-    <row r="93" spans="2:28" s="2" customFormat="1">
+    <row r="93" spans="2:29" s="2" customFormat="1">
       <c r="B93" s="2" t="s">
         <v>190</v>
       </c>
@@ -13305,20 +13943,30 @@
       <c r="T93" s="26">
         <v>0</v>
       </c>
+      <c r="X93" s="26">
+        <v>22.9</v>
+      </c>
+      <c r="Y93" s="26">
+        <v>17.600000000000001</v>
+      </c>
       <c r="Z93" s="27">
-        <f t="shared" si="109"/>
+        <f t="shared" ref="Z93:Z105" si="132">F93</f>
+        <v>324</v>
+      </c>
+      <c r="AA93" s="27">
+        <f t="shared" si="125"/>
         <v>4</v>
       </c>
-      <c r="AA93" s="26">
+      <c r="AB93" s="26">
         <f>N93</f>
         <v>0</v>
       </c>
-      <c r="AB93" s="26">
+      <c r="AC93" s="26">
         <f>R93</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:28">
+    <row r="94" spans="2:29">
       <c r="B94" s="3" t="s">
         <v>108</v>
       </c>
@@ -13376,20 +14024,30 @@
       <c r="T94" s="27">
         <v>258.8</v>
       </c>
+      <c r="X94" s="27">
+        <v>379.5</v>
+      </c>
+      <c r="Y94" s="27">
+        <v>292.2</v>
+      </c>
       <c r="Z94" s="27">
-        <f t="shared" si="109"/>
+        <f t="shared" si="132"/>
+        <v>288.39999999999998</v>
+      </c>
+      <c r="AA94" s="27">
+        <f t="shared" si="125"/>
         <v>289.8</v>
       </c>
-      <c r="AA94" s="27">
-        <f t="shared" si="110"/>
+      <c r="AB94" s="27">
+        <f t="shared" si="129"/>
         <v>249.9</v>
       </c>
-      <c r="AB94" s="27">
-        <f t="shared" si="111"/>
+      <c r="AC94" s="27">
+        <f t="shared" si="130"/>
         <v>241.3</v>
       </c>
     </row>
-    <row r="95" spans="2:28">
+    <row r="95" spans="2:29">
       <c r="B95" s="3" t="s">
         <v>109</v>
       </c>
@@ -13447,20 +14105,30 @@
       <c r="T95" s="27">
         <v>1317.8</v>
       </c>
+      <c r="X95" s="27">
+        <v>716.4</v>
+      </c>
+      <c r="Y95" s="27">
+        <v>799.2</v>
+      </c>
       <c r="Z95" s="27">
-        <f t="shared" si="109"/>
+        <f t="shared" si="132"/>
+        <v>1045.4000000000001</v>
+      </c>
+      <c r="AA95" s="27">
+        <f t="shared" si="125"/>
         <v>1171.7</v>
       </c>
-      <c r="AA95" s="27">
-        <f t="shared" si="110"/>
+      <c r="AB95" s="27">
+        <f t="shared" si="129"/>
         <v>1033</v>
       </c>
-      <c r="AB95" s="27">
-        <f t="shared" si="111"/>
+      <c r="AC95" s="27">
+        <f t="shared" si="130"/>
         <v>1204.5999999999999</v>
       </c>
     </row>
-    <row r="96" spans="2:28" s="2" customFormat="1">
+    <row r="96" spans="2:29" s="2" customFormat="1">
       <c r="B96" s="2" t="s">
         <v>92</v>
       </c>
@@ -13518,20 +14186,30 @@
       <c r="T96" s="26">
         <v>11</v>
       </c>
+      <c r="X96" s="26">
+        <v>8.4</v>
+      </c>
+      <c r="Y96" s="26">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="Z96" s="26">
+        <f>F96</f>
+        <v>8.1</v>
+      </c>
+      <c r="AA96" s="26">
         <f>J96</f>
         <v>4.5</v>
       </c>
-      <c r="AA96" s="26">
+      <c r="AB96" s="26">
         <f>N96</f>
         <v>1.2</v>
       </c>
-      <c r="AB96" s="26">
+      <c r="AC96" s="26">
         <f>R96</f>
         <v>2.9</v>
       </c>
     </row>
-    <row r="97" spans="2:28">
+    <row r="97" spans="2:29">
       <c r="B97" s="3" t="s">
         <v>110</v>
       </c>
@@ -13589,20 +14267,30 @@
       <c r="T97" s="27">
         <v>37.1</v>
       </c>
+      <c r="X97" s="27">
+        <v>43.6</v>
+      </c>
+      <c r="Y97" s="27">
+        <v>70.7</v>
+      </c>
       <c r="Z97" s="27">
-        <f t="shared" ref="Z97:Z115" si="112">J97</f>
+        <f t="shared" ref="Z97:Z103" si="133">F97</f>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AA97" s="27">
+        <f t="shared" ref="Z97:AA115" si="134">J97</f>
         <v>63.8</v>
       </c>
-      <c r="AA97" s="27">
-        <f t="shared" si="110"/>
+      <c r="AB97" s="27">
+        <f t="shared" si="129"/>
         <v>71.900000000000006</v>
       </c>
-      <c r="AB97" s="27">
-        <f t="shared" si="111"/>
+      <c r="AC97" s="27">
+        <f t="shared" si="130"/>
         <v>40.4</v>
       </c>
     </row>
-    <row r="98" spans="2:28">
+    <row r="98" spans="2:29">
       <c r="B98" s="3" t="s">
         <v>111</v>
       </c>
@@ -13660,20 +14348,30 @@
       <c r="T98" s="27">
         <v>79.8</v>
       </c>
+      <c r="X98" s="27">
+        <v>25.9</v>
+      </c>
+      <c r="Y98" s="27">
+        <v>16.100000000000001</v>
+      </c>
       <c r="Z98" s="27">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
+        <v>48</v>
+      </c>
+      <c r="AA98" s="27">
+        <f t="shared" si="134"/>
         <v>97.5</v>
       </c>
-      <c r="AA98" s="27">
-        <f t="shared" si="110"/>
+      <c r="AB98" s="27">
+        <f t="shared" si="129"/>
         <v>40.700000000000003</v>
       </c>
-      <c r="AB98" s="27">
-        <f t="shared" si="111"/>
+      <c r="AC98" s="27">
+        <f t="shared" si="130"/>
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="99" spans="2:28">
+    <row r="99" spans="2:29">
       <c r="B99" s="3" t="s">
         <v>184</v>
       </c>
@@ -13731,20 +14429,30 @@
       <c r="T99" s="27">
         <v>0</v>
       </c>
+      <c r="X99" s="27">
+        <v>49.7</v>
+      </c>
+      <c r="Y99" s="27">
+        <v>22.2</v>
+      </c>
       <c r="Z99" s="27">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
+        <v>51</v>
+      </c>
+      <c r="AA99" s="27">
+        <f t="shared" si="134"/>
         <v>30.7</v>
       </c>
-      <c r="AA99" s="27">
-        <f t="shared" si="110"/>
+      <c r="AB99" s="27">
+        <f t="shared" si="129"/>
         <v>42.6</v>
       </c>
-      <c r="AB99" s="27">
-        <f t="shared" si="111"/>
+      <c r="AC99" s="27">
+        <f t="shared" si="130"/>
         <v>15.8</v>
       </c>
     </row>
-    <row r="100" spans="2:28">
+    <row r="100" spans="2:29">
       <c r="B100" s="3" t="s">
         <v>112</v>
       </c>
@@ -13802,20 +14510,30 @@
       <c r="T100" s="27">
         <v>2.6</v>
       </c>
+      <c r="X100" s="27">
+        <v>311.5</v>
+      </c>
+      <c r="Y100" s="27">
+        <v>164.1</v>
+      </c>
       <c r="Z100" s="27">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="AA100" s="27">
-        <f t="shared" si="110"/>
+        <f t="shared" si="134"/>
+        <v>2</v>
+      </c>
+      <c r="AB100" s="27">
+        <f t="shared" si="129"/>
         <v>0.5</v>
       </c>
-      <c r="AB100" s="27">
-        <f t="shared" si="111"/>
+      <c r="AC100" s="27">
+        <f t="shared" si="130"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="101" spans="2:28">
+    <row r="101" spans="2:29">
       <c r="B101" s="3" t="s">
         <v>113</v>
       </c>
@@ -13873,20 +14591,30 @@
       <c r="T101" s="27">
         <v>111.8</v>
       </c>
+      <c r="X101" s="27">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="Y101" s="27">
+        <v>141.30000000000001</v>
+      </c>
       <c r="Z101" s="27">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
+        <v>116.9</v>
+      </c>
+      <c r="AA101" s="27">
+        <f t="shared" si="134"/>
         <v>117.3</v>
       </c>
-      <c r="AA101" s="27">
-        <f t="shared" si="110"/>
+      <c r="AB101" s="27">
+        <f t="shared" si="129"/>
         <v>98.5</v>
       </c>
-      <c r="AB101" s="27">
-        <f t="shared" si="111"/>
+      <c r="AC101" s="27">
+        <f t="shared" si="130"/>
         <v>108.9</v>
       </c>
     </row>
-    <row r="102" spans="2:28">
+    <row r="102" spans="2:29">
       <c r="B102" s="3" t="s">
         <v>183</v>
       </c>
@@ -13944,20 +14672,30 @@
       <c r="T102" s="27">
         <v>0</v>
       </c>
+      <c r="X102" s="27">
+        <v>24.8</v>
+      </c>
+      <c r="Y102" s="27">
+        <v>36.799999999999997</v>
+      </c>
       <c r="Z102" s="27">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
+        <v>5</v>
+      </c>
+      <c r="AA102" s="27">
+        <f t="shared" si="134"/>
         <v>1.4</v>
       </c>
-      <c r="AA102" s="27">
-        <f t="shared" si="110"/>
+      <c r="AB102" s="27">
+        <f t="shared" si="129"/>
         <v>1.2</v>
       </c>
-      <c r="AB102" s="27">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:28">
+      <c r="AC102" s="27">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:29">
       <c r="B103" s="3" t="s">
         <v>114</v>
       </c>
@@ -14015,109 +14753,133 @@
       <c r="T103" s="27">
         <v>0</v>
       </c>
+      <c r="X103" s="27">
+        <f t="shared" ref="X103" si="135">G103</f>
+        <v>0</v>
+      </c>
+      <c r="Y103" s="27">
+        <f t="shared" ref="Y103" si="136">H103</f>
+        <v>0</v>
+      </c>
       <c r="Z103" s="27">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="AA103" s="27">
-        <f t="shared" si="110"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="AB103" s="27">
-        <f t="shared" si="111"/>
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="AC103" s="27">
+        <f t="shared" si="130"/>
         <v>45.1</v>
       </c>
     </row>
-    <row r="104" spans="2:28">
+    <row r="104" spans="2:29">
       <c r="B104" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C104" s="27">
-        <f t="shared" ref="C104:T104" si="113">SUM(C89:C103)</f>
+        <f t="shared" ref="C104:T104" si="137">SUM(C89:C103)</f>
         <v>2938.9</v>
       </c>
       <c r="D104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>2981.9999999999995</v>
       </c>
       <c r="E104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>3321.4</v>
       </c>
       <c r="F104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>3028.6000000000004</v>
       </c>
       <c r="G104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>3116.7999999999997</v>
       </c>
       <c r="H104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>3235.1000000000004</v>
       </c>
       <c r="I104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>3200.8999999999996</v>
       </c>
       <c r="J104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>2838.4</v>
       </c>
       <c r="K104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>3364.2999999999993</v>
       </c>
       <c r="L104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>2938</v>
       </c>
       <c r="M104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>2953.6</v>
       </c>
       <c r="N104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>2428.6999999999998</v>
       </c>
       <c r="O104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>2410.1999999999998</v>
       </c>
       <c r="P104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>2856.2400000000002</v>
       </c>
       <c r="Q104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>2953.6</v>
       </c>
       <c r="R104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>2828.8</v>
       </c>
       <c r="S104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>2756.3</v>
       </c>
       <c r="T104" s="27">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>2640.1000000000004</v>
       </c>
+      <c r="X104" s="27">
+        <f t="shared" ref="X104:Y104" si="138">SUM(X89:X103)</f>
+        <v>3189.4000000000005</v>
+      </c>
+      <c r="Y104" s="27">
+        <f t="shared" si="138"/>
+        <v>2792.1</v>
+      </c>
       <c r="Z104" s="27">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
+        <v>3028.6000000000004</v>
+      </c>
+      <c r="AA104" s="27">
+        <f t="shared" si="134"/>
         <v>2838.4</v>
-      </c>
-      <c r="AA104" s="27">
-        <f>SUM(AA89:AA103)</f>
-        <v>2428.6999999999998</v>
       </c>
       <c r="AB104" s="27">
         <f>SUM(AB89:AB103)</f>
+        <v>2428.6999999999998</v>
+      </c>
+      <c r="AC104" s="27">
+        <f>SUM(AC89:AC103)</f>
         <v>2828.8</v>
       </c>
     </row>
-    <row r="105" spans="2:28">
+    <row r="105" spans="2:29">
       <c r="B105" s="3" t="s">
         <v>107</v>
       </c>
@@ -14175,20 +14937,30 @@
       <c r="T105" s="27">
         <v>52.6</v>
       </c>
+      <c r="X105" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="27">
+        <v>0</v>
+      </c>
       <c r="Z105" s="27">
-        <f t="shared" si="112"/>
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="AA105" s="27">
+        <f t="shared" si="134"/>
         <v>39.9</v>
       </c>
-      <c r="AA105" s="27">
+      <c r="AB105" s="27">
         <f>N105</f>
         <v>53.3</v>
       </c>
-      <c r="AB105" s="27">
+      <c r="AC105" s="27">
         <f>R105</f>
         <v>52.3</v>
       </c>
     </row>
-    <row r="106" spans="2:28" s="2" customFormat="1">
+    <row r="106" spans="2:29" s="2" customFormat="1">
       <c r="B106" s="2" t="s">
         <v>116</v>
       </c>
@@ -14246,20 +15018,30 @@
       <c r="T106" s="26">
         <v>3092.7</v>
       </c>
+      <c r="X106" s="26">
+        <v>3249.6</v>
+      </c>
+      <c r="Y106" s="26">
+        <v>3809.6</v>
+      </c>
       <c r="Z106" s="26">
+        <f>F106</f>
+        <v>3468.4</v>
+      </c>
+      <c r="AA106" s="26">
         <f>J106</f>
         <v>3177.3</v>
       </c>
-      <c r="AA106" s="26">
+      <c r="AB106" s="26">
         <f>N106</f>
         <v>4072.5</v>
       </c>
-      <c r="AB106" s="26">
+      <c r="AC106" s="26">
         <f>R106</f>
         <v>3452.7</v>
       </c>
     </row>
-    <row r="107" spans="2:28" s="2" customFormat="1">
+    <row r="107" spans="2:29" s="2" customFormat="1">
       <c r="B107" s="2" t="s">
         <v>190</v>
       </c>
@@ -14317,20 +15099,30 @@
       <c r="T107" s="26">
         <v>0</v>
       </c>
-      <c r="Z107" s="27">
-        <f t="shared" si="112"/>
+      <c r="X107" s="26">
+        <v>351</v>
+      </c>
+      <c r="Y107" s="26">
+        <v>346.5</v>
+      </c>
+      <c r="Z107" s="26">
+        <f>F107</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AA107" s="26">
+        <f t="shared" si="134"/>
         <v>13.6</v>
       </c>
-      <c r="AA107" s="26">
+      <c r="AB107" s="26">
         <f>N107</f>
         <v>0</v>
       </c>
-      <c r="AB107" s="26">
+      <c r="AC107" s="26">
         <f>R107</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:28">
+    <row r="108" spans="2:29">
       <c r="B108" s="3" t="s">
         <v>108</v>
       </c>
@@ -14388,20 +15180,30 @@
       <c r="T108" s="27">
         <v>55.1</v>
       </c>
+      <c r="X108" s="27">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Y108" s="27">
+        <v>21.5</v>
+      </c>
       <c r="Z108" s="27">
-        <f t="shared" si="112"/>
+        <f>F108</f>
+        <v>28.6</v>
+      </c>
+      <c r="AA108" s="27">
+        <f t="shared" si="134"/>
         <v>18</v>
       </c>
-      <c r="AA108" s="27">
-        <f t="shared" ref="AA108:AA115" si="114">N108</f>
+      <c r="AB108" s="27">
+        <f t="shared" ref="AB108:AB115" si="139">N108</f>
         <v>42.3</v>
       </c>
-      <c r="AB108" s="27">
-        <f t="shared" ref="AB108:AB115" si="115">R108</f>
+      <c r="AC108" s="27">
+        <f t="shared" ref="AC108:AC115" si="140">R108</f>
         <v>57.6</v>
       </c>
     </row>
-    <row r="109" spans="2:28">
+    <row r="109" spans="2:29">
       <c r="B109" s="3" t="s">
         <v>109</v>
       </c>
@@ -14459,20 +15261,30 @@
       <c r="T109" s="27">
         <v>478.5</v>
       </c>
+      <c r="X109" s="27">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="Y109" s="27">
+        <v>104.1</v>
+      </c>
       <c r="Z109" s="27">
-        <f t="shared" si="112"/>
+        <f>F109</f>
+        <v>198.2</v>
+      </c>
+      <c r="AA109" s="27">
+        <f t="shared" si="134"/>
         <v>257.8</v>
       </c>
-      <c r="AA109" s="27">
-        <f t="shared" si="114"/>
+      <c r="AB109" s="27">
+        <f t="shared" si="139"/>
         <v>262.39999999999998</v>
       </c>
-      <c r="AB109" s="27">
-        <f t="shared" si="115"/>
+      <c r="AC109" s="27">
+        <f t="shared" si="140"/>
         <v>308.7</v>
       </c>
     </row>
-    <row r="110" spans="2:28">
+    <row r="110" spans="2:29">
       <c r="B110" s="3" t="s">
         <v>92</v>
       </c>
@@ -14530,20 +15342,30 @@
       <c r="T110" s="27">
         <v>0</v>
       </c>
+      <c r="X110" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="27">
+        <v>0.1</v>
+      </c>
       <c r="Z110" s="27">
-        <f t="shared" si="112"/>
+        <f>F110</f>
         <v>0</v>
       </c>
       <c r="AA110" s="27">
-        <f t="shared" si="114"/>
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="AB110" s="27">
+        <f t="shared" si="139"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="AB110" s="27">
-        <f t="shared" si="115"/>
+      <c r="AC110" s="27">
+        <f t="shared" si="140"/>
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:28">
+    <row r="111" spans="2:29">
       <c r="B111" s="3" t="s">
         <v>110</v>
       </c>
@@ -14601,20 +15423,30 @@
       <c r="T111" s="27">
         <v>12.1</v>
       </c>
+      <c r="X111" s="27">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="Y111" s="27">
+        <v>70.2</v>
+      </c>
       <c r="Z111" s="27">
-        <f t="shared" si="112"/>
+        <f>F111</f>
+        <v>58.2</v>
+      </c>
+      <c r="AA111" s="27">
+        <f t="shared" si="134"/>
         <v>13.4</v>
       </c>
-      <c r="AA111" s="27">
-        <f t="shared" si="114"/>
+      <c r="AB111" s="27">
+        <f t="shared" si="139"/>
         <v>11.8</v>
       </c>
-      <c r="AB111" s="27">
-        <f t="shared" si="115"/>
+      <c r="AC111" s="27">
+        <f t="shared" si="140"/>
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="2:28">
+    <row r="112" spans="2:29">
       <c r="B112" s="3" t="s">
         <v>117</v>
       </c>
@@ -14672,20 +15504,30 @@
       <c r="T112" s="27">
         <v>334.4</v>
       </c>
+      <c r="X112" s="27">
+        <v>263.3</v>
+      </c>
+      <c r="Y112" s="27">
+        <v>251.3</v>
+      </c>
       <c r="Z112" s="27">
-        <f t="shared" si="112"/>
+        <f>F112</f>
+        <v>254</v>
+      </c>
+      <c r="AA112" s="27">
+        <f t="shared" si="134"/>
         <v>301</v>
       </c>
-      <c r="AA112" s="27">
-        <f t="shared" si="114"/>
+      <c r="AB112" s="27">
+        <f t="shared" si="139"/>
         <v>474.7</v>
       </c>
-      <c r="AB112" s="27">
-        <f t="shared" si="115"/>
+      <c r="AC112" s="27">
+        <f t="shared" si="140"/>
         <v>505.8</v>
       </c>
     </row>
-    <row r="113" spans="2:28">
+    <row r="113" spans="2:29">
       <c r="B113" s="3" t="s">
         <v>184</v>
       </c>
@@ -14743,20 +15585,30 @@
       <c r="T113" s="27">
         <v>0</v>
       </c>
+      <c r="X113" s="27">
+        <v>161.1</v>
+      </c>
+      <c r="Y113" s="27">
+        <v>134.6</v>
+      </c>
       <c r="Z113" s="27">
-        <f t="shared" si="112"/>
+        <f>F113</f>
+        <v>101.1</v>
+      </c>
+      <c r="AA113" s="27">
+        <f t="shared" si="134"/>
         <v>109.6</v>
       </c>
-      <c r="AA113" s="27">
-        <f t="shared" si="114"/>
+      <c r="AB113" s="27">
+        <f t="shared" si="139"/>
         <v>82.6</v>
       </c>
-      <c r="AB113" s="27">
-        <f t="shared" si="115"/>
+      <c r="AC113" s="27">
+        <f t="shared" si="140"/>
         <v>2.9</v>
       </c>
     </row>
-    <row r="114" spans="2:28">
+    <row r="114" spans="2:29">
       <c r="B114" s="3" t="s">
         <v>112</v>
       </c>
@@ -14814,20 +15666,30 @@
       <c r="T114" s="27">
         <v>27.2</v>
       </c>
+      <c r="X114" s="27">
+        <v>113.9</v>
+      </c>
+      <c r="Y114" s="27">
+        <v>97.5</v>
+      </c>
       <c r="Z114" s="27">
-        <f t="shared" si="112"/>
+        <f>F114</f>
+        <v>73.2</v>
+      </c>
+      <c r="AA114" s="27">
+        <f t="shared" si="134"/>
         <v>63.7</v>
       </c>
-      <c r="AA114" s="27">
-        <f t="shared" si="114"/>
+      <c r="AB114" s="27">
+        <f t="shared" si="139"/>
         <v>57.3</v>
       </c>
-      <c r="AB114" s="27">
-        <f t="shared" si="115"/>
+      <c r="AC114" s="27">
+        <f t="shared" si="140"/>
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="115" spans="2:28">
+    <row r="115" spans="2:29">
       <c r="B115" s="3" t="s">
         <v>113</v>
       </c>
@@ -14885,109 +15747,131 @@
       <c r="T115" s="27">
         <v>133.4</v>
       </c>
+      <c r="X115" s="27">
+        <v>179</v>
+      </c>
+      <c r="Y115" s="27">
+        <v>136.19999999999999</v>
+      </c>
       <c r="Z115" s="27">
-        <f t="shared" si="112"/>
+        <f>F115</f>
+        <v>125.5</v>
+      </c>
+      <c r="AA115" s="27">
+        <f t="shared" si="134"/>
         <v>125.2</v>
       </c>
-      <c r="AA115" s="27">
-        <f t="shared" si="114"/>
+      <c r="AB115" s="27">
+        <f t="shared" si="139"/>
         <v>114.2</v>
       </c>
-      <c r="AB115" s="27">
-        <f t="shared" si="115"/>
+      <c r="AC115" s="27">
+        <f t="shared" si="140"/>
         <v>120.5</v>
       </c>
     </row>
-    <row r="116" spans="2:28">
+    <row r="116" spans="2:29">
       <c r="B116" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C116" s="27">
-        <f t="shared" ref="C116:T116" si="116">SUM(C105:C115)+C104</f>
+        <f t="shared" ref="C116:T116" si="141">SUM(C105:C115)+C104</f>
         <v>7811.2000000000007</v>
       </c>
       <c r="D116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7821</v>
       </c>
       <c r="E116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7824.7999999999993</v>
       </c>
       <c r="F116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7353.2</v>
       </c>
       <c r="G116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7293.7999999999993</v>
       </c>
       <c r="H116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7363.3</v>
       </c>
       <c r="I116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7260.1999999999989</v>
       </c>
       <c r="J116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>6957.9</v>
       </c>
       <c r="K116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7571.6999999999989</v>
       </c>
       <c r="L116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7345.1</v>
       </c>
       <c r="M116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7574.5</v>
       </c>
       <c r="N116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7608.5</v>
       </c>
       <c r="O116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7513.7</v>
       </c>
       <c r="P116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7455.6400000000012</v>
       </c>
       <c r="Q116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7574.5</v>
       </c>
       <c r="R116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7379.9999999999991</v>
       </c>
       <c r="S116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>7111.5000000000009</v>
       </c>
       <c r="T116" s="27">
-        <f t="shared" si="116"/>
+        <f t="shared" si="141"/>
         <v>6826.0999999999995</v>
       </c>
+      <c r="X116" s="27">
+        <f t="shared" ref="X116:Y116" si="142">SUM(X105:X115)+X104</f>
+        <v>7731.9000000000005</v>
+      </c>
+      <c r="Y116" s="27">
+        <f t="shared" si="142"/>
+        <v>7763.7000000000007</v>
+      </c>
       <c r="Z116" s="27">
-        <f t="shared" ref="Z116" si="117">SUM(Z105:Z115)+Z104</f>
+        <f t="shared" ref="Z116:AA116" si="143">SUM(Z105:Z115)+Z104</f>
+        <v>7353.2</v>
+      </c>
+      <c r="AA116" s="27">
+        <f t="shared" si="143"/>
         <v>6957.9</v>
-      </c>
-      <c r="AA116" s="27">
-        <f>SUM(AA105:AA115)+AA104</f>
-        <v>7608.5</v>
       </c>
       <c r="AB116" s="27">
         <f>SUM(AB105:AB115)+AB104</f>
+        <v>7608.5</v>
+      </c>
+      <c r="AC116" s="27">
+        <f>SUM(AC105:AC115)+AC104</f>
         <v>7379.9999999999991</v>
       </c>
     </row>
-    <row r="117" spans="2:28">
+    <row r="117" spans="2:29">
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
@@ -14998,7 +15882,7 @@
       <c r="S117" s="27"/>
       <c r="T117" s="27"/>
     </row>
-    <row r="118" spans="2:28">
+    <row r="118" spans="2:29">
       <c r="B118" s="3" t="s">
         <v>119</v>
       </c>
@@ -15056,109 +15940,131 @@
       <c r="T118" s="27">
         <v>2872.7</v>
       </c>
+      <c r="X118" s="27">
+        <v>3941.2</v>
+      </c>
+      <c r="Y118" s="27">
+        <v>4182</v>
+      </c>
       <c r="Z118" s="27">
-        <f t="shared" ref="Z118" si="118">J118</f>
+        <f>F118</f>
+        <v>3940.1</v>
+      </c>
+      <c r="AA118" s="27">
+        <f t="shared" ref="AA118" si="144">J118</f>
         <v>3614.6</v>
       </c>
-      <c r="AA118" s="27">
+      <c r="AB118" s="27">
         <f>N118</f>
         <v>2907.5</v>
       </c>
-      <c r="AB118" s="27">
+      <c r="AC118" s="27">
         <f>R118</f>
         <v>2775</v>
       </c>
     </row>
-    <row r="119" spans="2:28">
+    <row r="119" spans="2:29">
       <c r="B119" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C119" s="27">
-        <f t="shared" ref="C119:D119" si="119">C118+C116</f>
+        <f t="shared" ref="C119:D119" si="145">C118+C116</f>
         <v>11995.1</v>
       </c>
       <c r="D119" s="27">
-        <f t="shared" si="119"/>
+        <f t="shared" si="145"/>
         <v>11811.1</v>
       </c>
       <c r="E119" s="27">
-        <f t="shared" ref="E119:K119" si="120">E118+E116</f>
+        <f t="shared" ref="E119:K119" si="146">E118+E116</f>
         <v>11794.5</v>
       </c>
       <c r="F119" s="27">
-        <f t="shared" si="120"/>
+        <f t="shared" si="146"/>
         <v>11293.3</v>
       </c>
       <c r="G119" s="27">
-        <f t="shared" ref="G119" si="121">G118+G116</f>
+        <f t="shared" ref="G119" si="147">G118+G116</f>
         <v>11185.5</v>
       </c>
       <c r="H119" s="27">
-        <f t="shared" si="120"/>
+        <f t="shared" si="146"/>
         <v>11273.4</v>
       </c>
       <c r="I119" s="27">
-        <f t="shared" si="120"/>
+        <f t="shared" si="146"/>
         <v>11062.5</v>
       </c>
       <c r="J119" s="27">
-        <f t="shared" si="120"/>
+        <f t="shared" si="146"/>
         <v>10572.5</v>
       </c>
       <c r="K119" s="27">
-        <f t="shared" si="120"/>
+        <f t="shared" si="146"/>
         <v>10856.099999999999</v>
       </c>
       <c r="L119" s="27">
-        <f t="shared" ref="L119:T119" si="122">L118+L116</f>
+        <f t="shared" ref="L119:T119" si="148">L118+L116</f>
         <v>10325.400000000001</v>
       </c>
       <c r="M119" s="27">
-        <f t="shared" si="122"/>
+        <f t="shared" si="148"/>
         <v>10382.700000000001</v>
       </c>
       <c r="N119" s="27">
-        <f t="shared" si="122"/>
+        <f t="shared" si="148"/>
         <v>10516</v>
       </c>
       <c r="O119" s="27">
-        <f t="shared" si="122"/>
+        <f t="shared" si="148"/>
         <v>10308.1</v>
       </c>
       <c r="P119" s="27">
-        <f t="shared" si="122"/>
+        <f t="shared" si="148"/>
         <v>10341.34</v>
       </c>
       <c r="Q119" s="27">
-        <f t="shared" si="122"/>
+        <f t="shared" si="148"/>
         <v>10382.700000000001</v>
       </c>
       <c r="R119" s="27">
-        <f t="shared" si="122"/>
+        <f t="shared" si="148"/>
         <v>10155</v>
       </c>
       <c r="S119" s="27">
-        <f t="shared" si="122"/>
+        <f t="shared" si="148"/>
         <v>9868.4000000000015</v>
       </c>
       <c r="T119" s="27">
-        <f t="shared" si="122"/>
+        <f t="shared" si="148"/>
         <v>9698.7999999999993</v>
+      </c>
+      <c r="X119" s="27">
+        <f t="shared" ref="X119:Y119" si="149">X118+X116</f>
+        <v>11673.1</v>
+      </c>
+      <c r="Y119" s="27">
+        <f t="shared" si="149"/>
+        <v>11945.7</v>
       </c>
       <c r="Z119" s="27">
         <f>Z118+Z116</f>
-        <v>10572.5</v>
+        <v>11293.3</v>
       </c>
       <c r="AA119" s="27">
         <f>AA118+AA116</f>
-        <v>10516</v>
+        <v>10572.5</v>
       </c>
       <c r="AB119" s="27">
         <f>AB118+AB116</f>
+        <v>10516</v>
+      </c>
+      <c r="AC119" s="27">
+        <f>AC118+AC116</f>
         <v>10155</v>
       </c>
     </row>
-    <row r="120" spans="2:28">
+    <row r="120" spans="2:29">
       <c r="C120" s="27"/>
       <c r="D120" s="27"/>
       <c r="E120" s="27"/>
@@ -15168,73 +16074,75 @@
       <c r="J120" s="27"/>
       <c r="K120" s="27"/>
       <c r="L120" s="27"/>
-    </row>
-    <row r="121" spans="2:28">
+      <c r="X120" s="27"/>
+      <c r="Y120" s="27"/>
+    </row>
+    <row r="121" spans="2:29">
       <c r="B121" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C121" s="27">
-        <f t="shared" ref="C121:D121" si="123">C87-C116</f>
+        <f t="shared" ref="C121:D121" si="150">C87-C116</f>
         <v>4183.8999999999978</v>
       </c>
       <c r="D121" s="27">
-        <f t="shared" si="123"/>
+        <f t="shared" si="150"/>
         <v>3990.0999999999985</v>
       </c>
       <c r="E121" s="27">
-        <f t="shared" ref="E121" si="124">E87-E116</f>
+        <f t="shared" ref="E121" si="151">E87-E116</f>
         <v>3969.7000000000007</v>
       </c>
       <c r="F121" s="27">
-        <f t="shared" ref="F121:G121" si="125">F87-F116</f>
+        <f t="shared" ref="F121:G121" si="152">F87-F116</f>
         <v>3940.2</v>
       </c>
       <c r="G121" s="27">
-        <f t="shared" si="125"/>
+        <f t="shared" si="152"/>
         <v>3891.8000000000011</v>
       </c>
       <c r="H121" s="27">
-        <f t="shared" ref="H121:I121" si="126">H87-H116</f>
+        <f t="shared" ref="H121:I121" si="153">H87-H116</f>
         <v>3910.0999999999995</v>
       </c>
       <c r="I121" s="27">
-        <f t="shared" si="126"/>
+        <f t="shared" si="153"/>
         <v>3802.3000000000011</v>
       </c>
       <c r="J121" s="27">
-        <f t="shared" ref="J121:K121" si="127">J87-J116</f>
+        <f t="shared" ref="J121:K121" si="154">J87-J116</f>
         <v>3614.6000000000004</v>
       </c>
       <c r="K121" s="27">
-        <f t="shared" si="127"/>
+        <f t="shared" si="154"/>
         <v>3284.3999999999996</v>
       </c>
       <c r="L121" s="27">
-        <f t="shared" ref="L121:O121" si="128">L87-L116</f>
+        <f t="shared" ref="L121:O121" si="155">L87-L116</f>
         <v>2980.3000000000011</v>
       </c>
       <c r="M121" s="27">
-        <f t="shared" ref="M121" si="129">M87-M116</f>
+        <f t="shared" ref="M121" si="156">M87-M116</f>
         <v>2808.2000000000007</v>
       </c>
       <c r="N121" s="27">
-        <f t="shared" si="128"/>
+        <f t="shared" si="155"/>
         <v>2907.5</v>
       </c>
       <c r="O121" s="27">
-        <f t="shared" si="128"/>
+        <f t="shared" si="155"/>
         <v>2794.4000000000005</v>
       </c>
       <c r="P121" s="27">
-        <f t="shared" ref="P121:Q121" si="130">P87-P116</f>
+        <f t="shared" ref="P121:Q121" si="157">P87-P116</f>
         <v>2885.659999999998</v>
       </c>
       <c r="Q121" s="27">
-        <f t="shared" si="130"/>
+        <f t="shared" si="157"/>
         <v>2808.2000000000007</v>
       </c>
       <c r="R121" s="27">
-        <f t="shared" ref="R121" si="131">R87-R116</f>
+        <f t="shared" ref="R121" si="158">R87-R116</f>
         <v>2775.0000000000009</v>
       </c>
       <c r="S121" s="27">
@@ -15245,85 +16153,97 @@
         <f>T87-T116</f>
         <v>2872.7</v>
       </c>
+      <c r="X121" s="27">
+        <f t="shared" ref="X121:Z121" si="159">X87-X116</f>
+        <v>3932.699999999998</v>
+      </c>
+      <c r="Y121" s="27">
+        <f t="shared" si="159"/>
+        <v>4172.5</v>
+      </c>
       <c r="Z121" s="27">
-        <f t="shared" ref="Z121:AA121" si="132">Z87-Z116</f>
+        <f t="shared" si="159"/>
+        <v>3940.2</v>
+      </c>
+      <c r="AA121" s="27">
+        <f t="shared" ref="AA121:AB121" si="160">AA87-AA116</f>
         <v>3614.6000000000004</v>
       </c>
-      <c r="AA121" s="27">
-        <f t="shared" si="132"/>
+      <c r="AB121" s="27">
+        <f t="shared" si="160"/>
         <v>2907.5</v>
       </c>
-      <c r="AB121" s="27">
-        <f>AB87-AB116</f>
+      <c r="AC121" s="27">
+        <f>AC87-AC116</f>
         <v>2775.0000000000009</v>
       </c>
     </row>
-    <row r="122" spans="2:28">
+    <row r="122" spans="2:29">
       <c r="B122" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C122" s="3">
-        <f t="shared" ref="C122:D122" si="133">C121/C27</f>
+        <f t="shared" ref="C122:D122" si="161">C121/C27</f>
         <v>5.705577526251191</v>
       </c>
       <c r="D122" s="3">
-        <f t="shared" si="133"/>
+        <f t="shared" si="161"/>
         <v>5.4398091342876596</v>
       </c>
       <c r="E122" s="3">
-        <f t="shared" ref="E122" si="134">E121/E27</f>
+        <f t="shared" ref="E122" si="162">E121/E27</f>
         <v>5.4097846824747897</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" ref="F122:G122" si="135">F121/F27</f>
+        <f t="shared" ref="F122:G122" si="163">F121/F27</f>
         <v>5.3673886391499792</v>
       </c>
       <c r="G122" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="163"/>
         <v>5.2899279597662101</v>
       </c>
       <c r="H122" s="3">
-        <f t="shared" ref="H122:I122" si="136">H121/H27</f>
+        <f t="shared" ref="H122:I122" si="164">H121/H27</f>
         <v>5.3140799130198415</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="164"/>
         <v>5.1675727099755386</v>
       </c>
       <c r="J122" s="3">
-        <f t="shared" ref="J122:K122" si="137">J121/J27</f>
+        <f t="shared" ref="J122:K122" si="165">J121/J27</f>
         <v>4.911808669656204</v>
       </c>
       <c r="K122" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="165"/>
         <v>4.4618937644341798</v>
       </c>
       <c r="L122" s="3">
-        <f t="shared" ref="L122:M122" si="138">L121/L27</f>
+        <f t="shared" ref="L122:M122" si="166">L121/L27</f>
         <v>4.0482205922303738</v>
       </c>
       <c r="M122" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="166"/>
         <v>3.8144525944036953</v>
       </c>
       <c r="N122" s="3">
-        <f t="shared" ref="N122:Q122" si="139">N121/N27</f>
+        <f t="shared" ref="N122:Q122" si="167">N121/N27</f>
         <v>3.9493344199945666</v>
       </c>
       <c r="O122" s="3">
-        <f t="shared" ref="O122" si="140">O121/O27</f>
+        <f t="shared" ref="O122" si="168">O121/O27</f>
         <v>3.8019047619047628</v>
       </c>
       <c r="P122" s="3">
-        <f t="shared" si="139"/>
+        <f t="shared" si="167"/>
         <v>3.9271366358192683</v>
       </c>
       <c r="Q122" s="3">
-        <f t="shared" si="139"/>
+        <f t="shared" si="167"/>
         <v>3.821720195971694</v>
       </c>
       <c r="R122" s="3">
-        <f t="shared" ref="R122" si="141">R121/R27</f>
+        <f t="shared" ref="R122" si="169">R121/R27</f>
         <v>3.7770518579011854</v>
       </c>
       <c r="S122" s="3">
@@ -15334,152 +16254,178 @@
         <f>T121/T27</f>
         <v>3.9105635720119789</v>
       </c>
+      <c r="X122" s="3">
+        <f t="shared" ref="X122:Z122" si="170">X121/X27</f>
+        <v>5.3462479608482845</v>
+      </c>
+      <c r="Y122" s="3">
+        <f t="shared" si="170"/>
+        <v>5.6822824458668126</v>
+      </c>
       <c r="Z122" s="3">
-        <f t="shared" ref="Z122:AA122" si="142">Z121/Z27</f>
+        <f t="shared" si="170"/>
+        <v>5.3673886391499792</v>
+      </c>
+      <c r="AA122" s="3">
+        <f t="shared" ref="AA122:AB122" si="171">AA121/AA27</f>
         <v>4.911808669656204</v>
       </c>
-      <c r="AA122" s="3">
-        <f t="shared" si="142"/>
+      <c r="AB122" s="3">
+        <f t="shared" si="171"/>
         <v>3.9493344199945666</v>
       </c>
-      <c r="AB122" s="3">
-        <f>AB121/AB27</f>
+      <c r="AC122" s="3">
+        <f>AC121/AC27</f>
         <v>3.7770518579011854</v>
       </c>
     </row>
-    <row r="123" spans="2:28">
+    <row r="123" spans="2:29">
       <c r="C123" s="27"/>
       <c r="D123" s="27"/>
       <c r="E123" s="27"/>
       <c r="F123" s="27"/>
-    </row>
-    <row r="124" spans="2:28" s="39" customFormat="1">
+      <c r="X123" s="27"/>
+      <c r="Y123" s="27"/>
+    </row>
+    <row r="124" spans="2:29" s="39" customFormat="1">
       <c r="B124" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="52">
-        <f t="shared" ref="C124:D124" si="143">C61+C62+C74+C76</f>
+        <f t="shared" ref="C124:D124" si="172">C61+C62+C74+C76</f>
         <v>3435.7999999999997</v>
       </c>
       <c r="D124" s="52">
-        <f t="shared" si="143"/>
+        <f t="shared" si="172"/>
         <v>3346.5</v>
       </c>
       <c r="E124" s="52">
-        <f t="shared" ref="E124" si="144">E61+E62+E74+E76</f>
+        <f t="shared" ref="E124" si="173">E61+E62+E74+E76</f>
         <v>3147.6</v>
       </c>
       <c r="F124" s="52">
-        <f t="shared" ref="F124:G124" si="145">F61+F62+F74+F76</f>
+        <f t="shared" ref="F124:G124" si="174">F61+F62+F74+F76</f>
         <v>3211.9</v>
       </c>
       <c r="G124" s="52">
-        <f t="shared" si="145"/>
+        <f t="shared" si="174"/>
         <v>2485.4999999999995</v>
       </c>
       <c r="H124" s="52">
-        <f t="shared" ref="H124:I124" si="146">H61+H62+H74+H76</f>
+        <f t="shared" ref="H124:I124" si="175">H61+H62+H74+H76</f>
         <v>2480.8999999999996</v>
       </c>
       <c r="I124" s="52">
-        <f t="shared" si="146"/>
+        <f t="shared" si="175"/>
         <v>2177.2000000000003</v>
       </c>
       <c r="J124" s="52">
-        <f t="shared" ref="J124:K124" si="147">J61+J62+J74+J76</f>
+        <f t="shared" ref="J124:K124" si="176">J61+J62+J74+J76</f>
         <v>2780.6</v>
       </c>
       <c r="K124" s="52">
-        <f t="shared" si="147"/>
+        <f t="shared" si="176"/>
         <v>2501.1</v>
       </c>
       <c r="L124" s="52">
-        <f t="shared" ref="L124:O124" si="148">L61+L62+L74+L76</f>
+        <f t="shared" ref="L124:O124" si="177">L61+L62+L74+L76</f>
         <v>1998.9</v>
       </c>
       <c r="M124" s="52">
-        <f t="shared" ref="M124" si="149">M61+M62+M74+M76</f>
+        <f t="shared" ref="M124" si="178">M61+M62+M74+M76</f>
         <v>2503.6999999999998</v>
       </c>
       <c r="N124" s="52">
-        <f t="shared" si="148"/>
+        <f t="shared" si="177"/>
         <v>2753.6</v>
       </c>
       <c r="O124" s="52">
-        <f t="shared" si="148"/>
+        <f t="shared" si="177"/>
         <v>2463.4</v>
       </c>
       <c r="P124" s="52">
-        <f t="shared" ref="P124:Q124" si="150">P61+P62+P74+P76</f>
+        <f t="shared" ref="P124:Q124" si="179">P61+P62+P74+P76</f>
         <v>2514.3000000000002</v>
       </c>
       <c r="Q124" s="52">
-        <f t="shared" si="150"/>
+        <f t="shared" si="179"/>
         <v>2503.6999999999998</v>
       </c>
       <c r="R124" s="52">
-        <f t="shared" ref="R124" si="151">R61+R62+R74+R76</f>
+        <f t="shared" ref="R124" si="180">R61+R62+R74+R76</f>
         <v>2634.7</v>
       </c>
       <c r="S124" s="52">
-        <f t="shared" ref="S124" si="152">S61+S62+S74+S76</f>
+        <f t="shared" ref="S124" si="181">S61+S62+S74+S76</f>
         <v>2104.1999999999998</v>
       </c>
       <c r="T124" s="52">
         <f>T61+T62+T74+T76</f>
         <v>1968.2</v>
       </c>
+      <c r="X124" s="52">
+        <f t="shared" ref="X124:Z124" si="182">X61+X62+X74+X76</f>
+        <v>3196.2999999999997</v>
+      </c>
+      <c r="Y124" s="52">
+        <f t="shared" si="182"/>
+        <v>3892.5</v>
+      </c>
       <c r="Z124" s="52">
-        <f t="shared" ref="Z124:AA124" si="153">Z61+Z62+Z74+Z76</f>
+        <f t="shared" si="182"/>
+        <v>3211.9</v>
+      </c>
+      <c r="AA124" s="52">
+        <f t="shared" ref="AA124:AB124" si="183">AA61+AA62+AA74+AA76</f>
         <v>2780.6</v>
       </c>
-      <c r="AA124" s="52">
-        <f t="shared" si="153"/>
+      <c r="AB124" s="52">
+        <f t="shared" si="183"/>
         <v>2753.6</v>
       </c>
-      <c r="AB124" s="52">
-        <f>AB61+AB62+AB74+AB76</f>
+      <c r="AC124" s="52">
+        <f>AC61+AC62+AC74+AC76</f>
         <v>2634.7</v>
       </c>
     </row>
-    <row r="125" spans="2:28" s="39" customFormat="1">
+    <row r="125" spans="2:29" s="39" customFormat="1">
       <c r="B125" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="52">
-        <f t="shared" ref="C125:D125" si="154">C92+C96+C106+C93+C107</f>
+        <f t="shared" ref="C125:D125" si="184">C92+C96+C106+C93+C107</f>
         <v>4559.1000000000004</v>
       </c>
       <c r="D125" s="52">
-        <f t="shared" si="154"/>
+        <f t="shared" si="184"/>
         <v>4452.8</v>
       </c>
       <c r="E125" s="52">
-        <f t="shared" ref="E125" si="155">E92+E96+E106+E93+E107</f>
+        <f t="shared" ref="E125" si="185">E92+E96+E106+E93+E107</f>
         <v>4399.8</v>
       </c>
       <c r="F125" s="52">
-        <f t="shared" ref="F125:G125" si="156">F92+F96+F106+F93+F107</f>
+        <f t="shared" ref="F125:G125" si="186">F92+F96+F106+F93+F107</f>
         <v>3997.2000000000003</v>
       </c>
       <c r="G125" s="52">
-        <f t="shared" si="156"/>
+        <f t="shared" si="186"/>
         <v>3928.3</v>
       </c>
       <c r="H125" s="52">
-        <f t="shared" ref="H125:I125" si="157">H92+H96+H106+H93+H107</f>
+        <f t="shared" ref="H125:I125" si="187">H92+H96+H106+H93+H107</f>
         <v>3879.5</v>
       </c>
       <c r="I125" s="52">
-        <f t="shared" si="157"/>
+        <f t="shared" si="187"/>
         <v>3811.6</v>
       </c>
       <c r="J125" s="52">
-        <f t="shared" ref="J125:K125" si="158">J92+J96+J106+J93+J107</f>
+        <f t="shared" ref="J125:K125" si="188">J92+J96+J106+J93+J107</f>
         <v>3414.4</v>
       </c>
       <c r="K125" s="52">
-        <f t="shared" si="158"/>
+        <f t="shared" si="188"/>
         <v>3862.2</v>
       </c>
       <c r="L125" s="52">
@@ -15487,7 +16433,7 @@
         <v>3826.3999999999996</v>
       </c>
       <c r="M125" s="52">
-        <f t="shared" ref="M125" si="159">M92+M96+M106+M93+M107</f>
+        <f t="shared" ref="M125" si="189">M92+M96+M106+M93+M107</f>
         <v>4310.1000000000004</v>
       </c>
       <c r="N125" s="52">
@@ -15495,108 +16441,120 @@
         <v>4449.2</v>
       </c>
       <c r="O125" s="52">
-        <f t="shared" ref="O125" si="160">O92+O96+O106+O93+O107</f>
+        <f t="shared" ref="O125" si="190">O92+O96+O106+O93+O107</f>
         <v>4380</v>
       </c>
       <c r="P125" s="52">
-        <f t="shared" ref="P125:T125" si="161">P92+P96+P106+P93+P107</f>
+        <f t="shared" ref="P125:T125" si="191">P92+P96+P106+P93+P107</f>
         <v>4334.0999999999995</v>
       </c>
       <c r="Q125" s="52">
-        <f t="shared" si="161"/>
+        <f t="shared" si="191"/>
         <v>4310.1000000000004</v>
       </c>
       <c r="R125" s="52">
-        <f t="shared" si="161"/>
+        <f t="shared" si="191"/>
         <v>4029.7999999999997</v>
       </c>
       <c r="S125" s="52">
-        <f t="shared" si="161"/>
+        <f t="shared" si="191"/>
         <v>3559</v>
       </c>
       <c r="T125" s="52">
-        <f t="shared" si="161"/>
+        <f t="shared" si="191"/>
         <v>3173.8999999999996</v>
       </c>
+      <c r="X125" s="52">
+        <f t="shared" ref="X125:Y125" si="192">X92+X96+X106+X93+X107</f>
+        <v>4142.2000000000007</v>
+      </c>
+      <c r="Y125" s="52">
+        <f t="shared" si="192"/>
+        <v>4571.4000000000005</v>
+      </c>
       <c r="Z125" s="52">
-        <f t="shared" ref="Z125" si="162">Z92+Z96+Z106+Z93+Z107</f>
+        <f t="shared" ref="Z125:AA125" si="193">Z92+Z96+Z106+Z93+Z107</f>
+        <v>3997.2000000000003</v>
+      </c>
+      <c r="AA125" s="52">
+        <f t="shared" si="193"/>
         <v>3414.4</v>
       </c>
-      <c r="AA125" s="52">
-        <f t="shared" ref="AA125:AB125" si="163">AA92+AA96+AA106+AA93+AA107</f>
+      <c r="AB125" s="52">
+        <f t="shared" ref="AB125:AC125" si="194">AB92+AB96+AB106+AB93+AB107</f>
         <v>4449.2</v>
       </c>
-      <c r="AB125" s="52">
-        <f t="shared" si="163"/>
+      <c r="AC125" s="52">
+        <f t="shared" si="194"/>
         <v>4029.7999999999997</v>
       </c>
     </row>
-    <row r="126" spans="2:28">
+    <row r="126" spans="2:29">
       <c r="B126" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="27">
-        <f t="shared" ref="C126:D126" si="164">C124-C125</f>
+        <f t="shared" ref="C126:D126" si="195">C124-C125</f>
         <v>-1123.3000000000006</v>
       </c>
       <c r="D126" s="27">
-        <f t="shared" si="164"/>
+        <f t="shared" si="195"/>
         <v>-1106.3000000000002</v>
       </c>
       <c r="E126" s="27">
-        <f t="shared" ref="E126" si="165">E124-E125</f>
+        <f t="shared" ref="E126" si="196">E124-E125</f>
         <v>-1252.2000000000003</v>
       </c>
       <c r="F126" s="27">
-        <f t="shared" ref="F126:G126" si="166">F124-F125</f>
+        <f t="shared" ref="F126:G126" si="197">F124-F125</f>
         <v>-785.30000000000018</v>
       </c>
       <c r="G126" s="27">
-        <f t="shared" si="166"/>
+        <f t="shared" si="197"/>
         <v>-1442.8000000000006</v>
       </c>
       <c r="H126" s="27">
-        <f t="shared" ref="H126:I126" si="167">H124-H125</f>
+        <f t="shared" ref="H126:I126" si="198">H124-H125</f>
         <v>-1398.6000000000004</v>
       </c>
       <c r="I126" s="27">
-        <f t="shared" si="167"/>
+        <f t="shared" si="198"/>
         <v>-1634.3999999999996</v>
       </c>
       <c r="J126" s="27">
-        <f t="shared" ref="J126:K126" si="168">J124-J125</f>
+        <f t="shared" ref="J126:K126" si="199">J124-J125</f>
         <v>-633.80000000000018</v>
       </c>
       <c r="K126" s="27">
-        <f t="shared" si="168"/>
+        <f t="shared" si="199"/>
         <v>-1361.1</v>
       </c>
       <c r="L126" s="27">
-        <f t="shared" ref="L126:M126" si="169">L124-L125</f>
+        <f t="shared" ref="L126:M126" si="200">L124-L125</f>
         <v>-1827.4999999999995</v>
       </c>
       <c r="M126" s="27">
-        <f t="shared" si="169"/>
+        <f t="shared" si="200"/>
         <v>-1806.4000000000005</v>
       </c>
       <c r="N126" s="27">
-        <f t="shared" ref="N126:R126" si="170">N124-N125</f>
+        <f t="shared" ref="N126:R126" si="201">N124-N125</f>
         <v>-1695.6</v>
       </c>
       <c r="O126" s="27">
-        <f t="shared" ref="O126" si="171">O124-O125</f>
+        <f t="shared" ref="O126" si="202">O124-O125</f>
         <v>-1916.6</v>
       </c>
       <c r="P126" s="27">
-        <f t="shared" si="170"/>
+        <f t="shared" si="201"/>
         <v>-1819.7999999999993</v>
       </c>
       <c r="Q126" s="27">
-        <f t="shared" si="170"/>
+        <f t="shared" si="201"/>
         <v>-1806.4000000000005</v>
       </c>
       <c r="R126" s="27">
-        <f t="shared" si="170"/>
+        <f t="shared" si="201"/>
         <v>-1395.1</v>
       </c>
       <c r="S126" s="27">
@@ -15607,20 +16565,32 @@
         <f>T124-T125</f>
         <v>-1205.6999999999996</v>
       </c>
+      <c r="X126" s="27">
+        <f t="shared" ref="X126:Z126" si="203">X124-X125</f>
+        <v>-945.900000000001</v>
+      </c>
+      <c r="Y126" s="27">
+        <f t="shared" si="203"/>
+        <v>-678.90000000000055</v>
+      </c>
       <c r="Z126" s="27">
-        <f t="shared" ref="Z126:AA126" si="172">Z124-Z125</f>
+        <f t="shared" si="203"/>
+        <v>-785.30000000000018</v>
+      </c>
+      <c r="AA126" s="27">
+        <f t="shared" ref="AA126:AB126" si="204">AA124-AA125</f>
         <v>-633.80000000000018</v>
       </c>
-      <c r="AA126" s="27">
-        <f t="shared" si="172"/>
+      <c r="AB126" s="27">
+        <f t="shared" si="204"/>
         <v>-1695.6</v>
       </c>
-      <c r="AB126" s="27">
-        <f>AB124-AB125</f>
+      <c r="AC126" s="27">
+        <f>AC124-AC125</f>
         <v>-1395.1</v>
       </c>
     </row>
-    <row r="128" spans="2:28" s="2" customFormat="1">
+    <row r="128" spans="2:29" s="2" customFormat="1">
       <c r="B128" s="2" t="s">
         <v>134</v>
       </c>
@@ -15637,71 +16607,86 @@
         <v>186</v>
       </c>
       <c r="G128" s="34">
-        <f t="shared" ref="G128" si="173">G68/C68-1</f>
+        <f t="shared" ref="G128" si="205">G68/C68-1</f>
         <v>0.20714400903080143</v>
       </c>
       <c r="H128" s="34">
-        <f t="shared" ref="H128" si="174">H68/D68-1</f>
+        <f t="shared" ref="H128" si="206">H68/D68-1</f>
         <v>0.18512820512820527</v>
       </c>
       <c r="I128" s="34">
-        <f t="shared" ref="I128" si="175">I68/E68-1</f>
+        <f t="shared" ref="I128" si="207">I68/E68-1</f>
         <v>0.10459366489895361</v>
       </c>
       <c r="J128" s="34">
-        <f t="shared" ref="J128:L128" si="176">J68/F68-1</f>
+        <f t="shared" ref="J128:L128" si="208">J68/F68-1</f>
         <v>-4.9062624650977216E-2</v>
       </c>
       <c r="K128" s="34">
-        <f t="shared" ref="K128" si="177">K68/G68-1</f>
+        <f t="shared" ref="K128" si="209">K68/G68-1</f>
         <v>-2.3011154899472142E-2</v>
       </c>
       <c r="L128" s="34">
-        <f t="shared" si="176"/>
+        <f t="shared" si="208"/>
         <v>4.1440601804080712E-2</v>
       </c>
       <c r="M128" s="34">
-        <f t="shared" ref="M128" si="178">M68/I68-1</f>
+        <f t="shared" ref="M128" si="210">M68/I68-1</f>
         <v>-0.25227884646576049</v>
       </c>
       <c r="N128" s="34">
-        <f t="shared" ref="N128" si="179">N68/J68-1</f>
+        <f t="shared" ref="N128" si="211">N68/J68-1</f>
         <v>2.2609060402684511E-2</v>
       </c>
       <c r="O128" s="34">
-        <f t="shared" ref="O128" si="180">O68/K68-1</f>
+        <f t="shared" ref="O128" si="212">O68/K68-1</f>
         <v>-0.15109561412504702</v>
       </c>
       <c r="P128" s="34">
-        <f t="shared" ref="P128:S128" si="181">P68/L68-1</f>
+        <f t="shared" ref="P128:S128" si="213">P68/L68-1</f>
         <v>-0.26009971874200977</v>
       </c>
       <c r="Q128" s="34">
-        <f t="shared" si="181"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="R128" s="34">
-        <f t="shared" si="181"/>
+        <f t="shared" si="213"/>
         <v>-0.18536445301283899</v>
       </c>
       <c r="S128" s="34">
-        <f t="shared" si="181"/>
+        <f t="shared" si="213"/>
         <v>-0.10490073692264323</v>
       </c>
       <c r="T128" s="34">
         <f>T68/P68-1</f>
         <v>3.36501079913607E-2</v>
       </c>
+      <c r="X128" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y128" s="34">
+        <f t="shared" ref="Y128" si="214">Y68/X68-1</f>
+        <v>-0.13928056401217759</v>
+      </c>
+      <c r="Z128" s="34">
+        <f t="shared" ref="Z128" si="215">Z68/Y68-1</f>
+        <v>0.16675198957509196</v>
+      </c>
       <c r="AA128" s="34">
-        <f t="shared" ref="AA128" si="182">AA68/Z68-1</f>
+        <f t="shared" ref="AA128" si="216">AA68/Z68-1</f>
+        <v>-4.9062624650977216E-2</v>
+      </c>
+      <c r="AB128" s="34">
+        <f t="shared" ref="AB128" si="217">AB68/AA68-1</f>
         <v>2.2609060402684511E-2</v>
       </c>
-      <c r="AB128" s="34">
-        <f>AB68/AA68-1</f>
+      <c r="AC128" s="34">
+        <f>AC68/AB68-1</f>
         <v>-0.18536445301283899</v>
       </c>
     </row>
-    <row r="129" spans="2:28">
+    <row r="129" spans="2:29">
       <c r="B129" s="3" t="s">
         <v>135</v>
       </c>
@@ -15709,55 +16694,55 @@
         <v>186</v>
       </c>
       <c r="D129" s="25">
-        <f t="shared" ref="D129" si="183">D68/C68-1</f>
+        <f t="shared" ref="D129" si="218">D68/C68-1</f>
         <v>2.2012578616352085E-2</v>
       </c>
       <c r="E129" s="25">
-        <f t="shared" ref="E129" si="184">E68/D68-1</f>
+        <f t="shared" ref="E129" si="219">E68/D68-1</f>
         <v>0.10090729783037489</v>
       </c>
       <c r="F129" s="25">
-        <f t="shared" ref="F129" si="185">F68/E68-1</f>
+        <f t="shared" ref="F129" si="220">F68/E68-1</f>
         <v>-0.10169127132005162</v>
       </c>
       <c r="G129" s="25">
-        <f t="shared" ref="G129" si="186">G68/F68-1</f>
+        <f t="shared" ref="G129" si="221">G68/F68-1</f>
         <v>0.19433585959313904</v>
       </c>
       <c r="H129" s="25">
-        <f t="shared" ref="H129" si="187">H68/G68-1</f>
+        <f t="shared" ref="H129" si="222">H68/G68-1</f>
         <v>3.3731881637835137E-3</v>
       </c>
       <c r="I129" s="25">
-        <f t="shared" ref="I129" si="188">I68/H68-1</f>
+        <f t="shared" ref="I129" si="223">I68/H68-1</f>
         <v>2.6095929168192145E-2</v>
       </c>
       <c r="J129" s="25">
-        <f t="shared" ref="J129" si="189">J68/I68-1</f>
+        <f t="shared" ref="J129" si="224">J68/I68-1</f>
         <v>-0.22665196094332885</v>
       </c>
       <c r="K129" s="25">
-        <f t="shared" ref="K129:P129" si="190">K68/J68-1</f>
+        <f t="shared" ref="K129:P129" si="225">K68/J68-1</f>
         <v>0.22705536912751678</v>
       </c>
       <c r="L129" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="225"/>
         <v>6.9565514648070259E-2</v>
       </c>
       <c r="M129" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="225"/>
         <v>-0.26329583226796216</v>
       </c>
       <c r="N129" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="225"/>
         <v>5.7657266811279806E-2</v>
       </c>
       <c r="O129" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="225"/>
         <v>1.862258501169034E-2</v>
       </c>
       <c r="P129" s="25">
-        <f t="shared" si="190"/>
+        <f t="shared" si="225"/>
         <v>-6.7772721781500511E-2</v>
       </c>
       <c r="Q129" s="25">
@@ -15765,28 +16750,40 @@
         <v>-4.3196544276458138E-3</v>
       </c>
       <c r="R129" s="25">
-        <f t="shared" ref="R129:S129" si="191">R68/Q68-1</f>
+        <f t="shared" ref="R129:S129" si="226">R68/Q68-1</f>
         <v>-0.13839479392624732</v>
       </c>
       <c r="S129" s="25">
-        <f t="shared" si="191"/>
+        <f t="shared" si="226"/>
         <v>0.11923464249748239</v>
       </c>
       <c r="T129" s="25">
         <f>T68/S68-1</f>
         <v>7.6525103473096934E-2</v>
       </c>
+      <c r="X129" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y129" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z129" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="AA129" s="14" t="s">
         <v>186</v>
       </c>
       <c r="AB129" s="14" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="130" spans="2:28">
+      <c r="AC129" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="2:29">
       <c r="C130" s="14"/>
     </row>
-    <row r="131" spans="2:28">
+    <row r="131" spans="2:29">
       <c r="B131" s="3" t="s">
         <v>136</v>
       </c>
@@ -15803,75 +16800,87 @@
         <v>186</v>
       </c>
       <c r="G131" s="25">
-        <f t="shared" ref="G131" si="192">G68/SUM(D9:G9)</f>
+        <f t="shared" ref="G131" si="227">G68/SUM(D9:G9)</f>
         <v>0.60651852452042865</v>
       </c>
       <c r="H131" s="25">
-        <f t="shared" ref="H131" si="193">H68/SUM(E9:H9)</f>
+        <f t="shared" ref="H131" si="228">H68/SUM(E9:H9)</f>
         <v>0.59386427879578574</v>
       </c>
       <c r="I131" s="25">
-        <f t="shared" ref="I131" si="194">I68/SUM(F9:I9)</f>
+        <f t="shared" ref="I131" si="229">I68/SUM(F9:I9)</f>
         <v>0.60740463430012614</v>
       </c>
       <c r="J131" s="25">
-        <f t="shared" ref="J131" si="195">J68/SUM(G9:J9)</f>
+        <f t="shared" ref="J131" si="230">J68/SUM(G9:J9)</f>
         <v>0.43642221652692853</v>
       </c>
       <c r="K131" s="25">
-        <f t="shared" ref="K131" si="196">K68/SUM(H9:K9)</f>
+        <f t="shared" ref="K131" si="231">K68/SUM(H9:K9)</f>
         <v>0.55475906013540421</v>
       </c>
       <c r="L131" s="25">
-        <f t="shared" ref="L131" si="197">L68/SUM(I9:L9)</f>
+        <f t="shared" ref="L131" si="232">L68/SUM(I9:L9)</f>
         <v>0.70602039895297419</v>
       </c>
       <c r="M131" s="25">
-        <f t="shared" ref="M131" si="198">M68/SUM(J9:M9)</f>
+        <f t="shared" ref="M131" si="233">M68/SUM(J9:M9)</f>
         <v>0.57414003537001523</v>
       </c>
       <c r="N131" s="25">
-        <f t="shared" ref="N131" si="199">N68/SUM(K9:N9)</f>
+        <f t="shared" ref="N131" si="234">N68/SUM(K9:N9)</f>
         <v>0.64646919996817898</v>
       </c>
       <c r="O131" s="25">
-        <f t="shared" ref="O131" si="200">O68/SUM(L9:O9)</f>
+        <f t="shared" ref="O131" si="235">O68/SUM(L9:O9)</f>
         <v>0.62954418698980885</v>
       </c>
       <c r="P131" s="25">
-        <f t="shared" ref="P131:S131" si="201">P68/SUM(M9:P9)</f>
+        <f t="shared" ref="P131:S131" si="236">P68/SUM(M9:P9)</f>
         <v>0.51014786575288118</v>
       </c>
       <c r="Q131" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="236"/>
         <v>0.48656407658370798</v>
       </c>
       <c r="R131" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="236"/>
         <v>0.47317259125131039</v>
       </c>
       <c r="S131" s="25">
-        <f t="shared" si="201"/>
+        <f t="shared" si="236"/>
         <v>0.55698105642978857</v>
       </c>
       <c r="T131" s="25">
         <f>T68/SUM(Q9:T9)</f>
         <v>0.61685399051350787</v>
       </c>
+      <c r="X131" s="25">
+        <f t="shared" ref="X131:Y131" si="237">X68/X9</f>
+        <v>0.40151186168073988</v>
+      </c>
+      <c r="Y131" s="25">
+        <f t="shared" si="237"/>
+        <v>0.36797218844724533</v>
+      </c>
       <c r="Z131" s="25">
-        <f t="shared" ref="Z131:AA131" si="202">Z68/Z9</f>
+        <f t="shared" ref="Z131:AB131" si="238">Z68/Z9</f>
+        <v>0.49437005777839121</v>
+      </c>
+      <c r="AA131" s="25">
+        <f t="shared" si="238"/>
         <v>0.43642221652692853</v>
       </c>
-      <c r="AA131" s="25">
-        <f t="shared" si="202"/>
+      <c r="AB131" s="25">
+        <f t="shared" si="238"/>
         <v>0.64646919996817909</v>
       </c>
-      <c r="AB131" s="25">
-        <f>AB68/AB9</f>
+      <c r="AC131" s="25">
+        <f>AC68/AC9</f>
         <v>0.47317259125131039</v>
       </c>
     </row>
-    <row r="133" spans="2:28">
+    <row r="133" spans="2:29">
       <c r="B133" s="3" t="s">
         <v>177</v>
       </c>
@@ -15929,235 +16938,269 @@
       <c r="T133" s="3">
         <v>8.7799999999999994</v>
       </c>
-      <c r="Z133" s="3">
+      <c r="X133" s="3">
+        <v>19.25</v>
+      </c>
+      <c r="Y133" s="3">
+        <v>23.93</v>
+      </c>
+      <c r="Z133" s="73">
+        <f>F133</f>
+        <v>22.13</v>
+      </c>
+      <c r="AA133" s="3">
         <f>J133</f>
         <v>19.489999999999998</v>
       </c>
-      <c r="AA133" s="3">
+      <c r="AB133" s="3">
         <f>N133</f>
         <v>6.81</v>
       </c>
-      <c r="AB133" s="3">
+      <c r="AC133" s="3">
         <f>R133</f>
         <v>13.9</v>
       </c>
     </row>
-    <row r="134" spans="2:28" s="27" customFormat="1">
+    <row r="134" spans="2:29" s="27" customFormat="1">
       <c r="B134" s="27" t="s">
         <v>178</v>
       </c>
       <c r="C134" s="27">
-        <f t="shared" ref="C134:G134" si="203">C133*C27</f>
+        <f t="shared" ref="C134:G134" si="239">C133*C27</f>
         <v>19065.8</v>
       </c>
       <c r="D134" s="27">
-        <f t="shared" si="203"/>
+        <f t="shared" si="239"/>
         <v>18264.149999999998</v>
       </c>
       <c r="E134" s="27">
-        <f t="shared" si="203"/>
+        <f t="shared" si="239"/>
         <v>14375.142</v>
       </c>
       <c r="F134" s="27">
-        <f t="shared" si="203"/>
+        <f t="shared" si="239"/>
         <v>16245.633</v>
       </c>
       <c r="G134" s="27">
-        <f t="shared" si="203"/>
+        <f t="shared" si="239"/>
         <v>13985.657000000003</v>
       </c>
       <c r="H134" s="27">
-        <f t="shared" ref="H134:I134" si="204">H133*H27</f>
+        <f t="shared" ref="H134:I134" si="240">H133*H27</f>
         <v>14877.875999999998</v>
       </c>
       <c r="I134" s="27">
-        <f t="shared" si="204"/>
+        <f t="shared" si="240"/>
         <v>12692.55</v>
       </c>
       <c r="J134" s="27">
-        <f t="shared" ref="J134:K134" si="205">J133*J27</f>
+        <f t="shared" ref="J134:K134" si="241">J133*J27</f>
         <v>14342.690999999999</v>
       </c>
       <c r="K134" s="27">
-        <f t="shared" si="205"/>
+        <f t="shared" si="241"/>
         <v>5314.6419999999998</v>
       </c>
       <c r="L134" s="27">
-        <f t="shared" ref="L134" si="206">L133*L27</f>
+        <f t="shared" ref="L134" si="242">L133*L27</f>
         <v>4402.4760000000006</v>
       </c>
       <c r="M134" s="27">
-        <f t="shared" ref="M134:T134" si="207">M133*M27</f>
+        <f t="shared" ref="M134:T134" si="243">M133*M27</f>
         <v>3246.6420000000003</v>
       </c>
       <c r="N134" s="27">
-        <f t="shared" si="207"/>
+        <f t="shared" si="243"/>
         <v>5013.5219999999999</v>
       </c>
       <c r="O134" s="27">
-        <f t="shared" si="207"/>
+        <f t="shared" si="243"/>
         <v>7320.6</v>
       </c>
       <c r="P134" s="27">
-        <f t="shared" si="207"/>
+        <f t="shared" si="243"/>
         <v>11124.871999999999</v>
       </c>
       <c r="Q134" s="27">
-        <f t="shared" si="207"/>
+        <f t="shared" si="243"/>
         <v>12491.599999999999</v>
       </c>
       <c r="R134" s="27">
-        <f t="shared" si="207"/>
+        <f t="shared" si="243"/>
         <v>10212.330000000002</v>
       </c>
       <c r="S134" s="27">
-        <f t="shared" si="207"/>
+        <f t="shared" si="243"/>
         <v>9263.3060000000005</v>
       </c>
       <c r="T134" s="27">
-        <f t="shared" si="207"/>
+        <f t="shared" si="243"/>
         <v>6449.7879999999996</v>
       </c>
+      <c r="X134" s="27">
+        <f t="shared" ref="X134:Z134" si="244">X133*X27</f>
+        <v>14160.300000000001</v>
+      </c>
+      <c r="Y134" s="27">
+        <f t="shared" si="244"/>
+        <v>17571.798999999999</v>
+      </c>
       <c r="Z134" s="27">
-        <f t="shared" ref="Z134:AA134" si="208">Z133*Z27</f>
+        <f t="shared" si="244"/>
+        <v>16245.633</v>
+      </c>
+      <c r="AA134" s="27">
+        <f t="shared" ref="AA134:AB134" si="245">AA133*AA27</f>
         <v>14342.690999999999</v>
       </c>
-      <c r="AA134" s="27">
-        <f t="shared" si="208"/>
+      <c r="AB134" s="27">
+        <f t="shared" si="245"/>
         <v>5013.5219999999999</v>
       </c>
-      <c r="AB134" s="27">
-        <f>AB133*AB27</f>
+      <c r="AC134" s="27">
+        <f>AC133*AC27</f>
         <v>10212.330000000002</v>
       </c>
     </row>
-    <row r="135" spans="2:28" s="27" customFormat="1">
+    <row r="135" spans="2:29" s="27" customFormat="1">
       <c r="B135" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C135" s="27">
-        <f t="shared" ref="C135:G135" si="209">C134-C126</f>
+        <f t="shared" ref="C135:G135" si="246">C134-C126</f>
         <v>20189.099999999999</v>
       </c>
       <c r="D135" s="27">
-        <f t="shared" si="209"/>
+        <f t="shared" si="246"/>
         <v>19370.449999999997</v>
       </c>
       <c r="E135" s="27">
-        <f t="shared" si="209"/>
+        <f t="shared" si="246"/>
         <v>15627.342000000001</v>
       </c>
       <c r="F135" s="27">
-        <f t="shared" si="209"/>
+        <f t="shared" si="246"/>
         <v>17030.933000000001</v>
       </c>
       <c r="G135" s="27">
-        <f t="shared" si="209"/>
+        <f t="shared" si="246"/>
         <v>15428.457000000004</v>
       </c>
       <c r="H135" s="27">
-        <f t="shared" ref="H135:I135" si="210">H134-H126</f>
+        <f t="shared" ref="H135:I135" si="247">H134-H126</f>
         <v>16276.475999999999</v>
       </c>
       <c r="I135" s="27">
-        <f t="shared" si="210"/>
+        <f t="shared" si="247"/>
         <v>14326.949999999999</v>
       </c>
       <c r="J135" s="27">
-        <f t="shared" ref="J135:K135" si="211">J134-J126</f>
+        <f t="shared" ref="J135:K135" si="248">J134-J126</f>
         <v>14976.490999999998</v>
       </c>
       <c r="K135" s="27">
-        <f t="shared" si="211"/>
+        <f t="shared" si="248"/>
         <v>6675.7420000000002</v>
       </c>
       <c r="L135" s="27">
-        <f t="shared" ref="L135" si="212">L134-L126</f>
+        <f t="shared" ref="L135" si="249">L134-L126</f>
         <v>6229.9760000000006</v>
       </c>
       <c r="M135" s="27">
-        <f t="shared" ref="M135:T135" si="213">M134-M126</f>
+        <f t="shared" ref="M135:T135" si="250">M134-M126</f>
         <v>5053.0420000000013</v>
       </c>
       <c r="N135" s="27">
-        <f t="shared" si="213"/>
+        <f t="shared" si="250"/>
         <v>6709.1219999999994</v>
       </c>
       <c r="O135" s="27">
-        <f t="shared" si="213"/>
+        <f t="shared" si="250"/>
         <v>9237.2000000000007</v>
       </c>
       <c r="P135" s="27">
-        <f t="shared" si="213"/>
+        <f t="shared" si="250"/>
         <v>12944.671999999999</v>
       </c>
       <c r="Q135" s="27">
-        <f t="shared" si="213"/>
+        <f t="shared" si="250"/>
         <v>14298</v>
       </c>
       <c r="R135" s="27">
-        <f t="shared" si="213"/>
+        <f t="shared" si="250"/>
         <v>11607.430000000002</v>
       </c>
       <c r="S135" s="27">
-        <f t="shared" si="213"/>
+        <f t="shared" si="250"/>
         <v>10718.106</v>
       </c>
       <c r="T135" s="27">
-        <f t="shared" si="213"/>
+        <f t="shared" si="250"/>
         <v>7655.4879999999994</v>
       </c>
+      <c r="X135" s="27">
+        <f t="shared" ref="X135:Z135" si="251">X134-X126</f>
+        <v>15106.200000000003</v>
+      </c>
+      <c r="Y135" s="27">
+        <f t="shared" si="251"/>
+        <v>18250.699000000001</v>
+      </c>
       <c r="Z135" s="27">
-        <f t="shared" ref="Z135:AA135" si="214">Z134-Z126</f>
+        <f t="shared" si="251"/>
+        <v>17030.933000000001</v>
+      </c>
+      <c r="AA135" s="27">
+        <f t="shared" ref="AA135:AB135" si="252">AA134-AA126</f>
         <v>14976.490999999998</v>
       </c>
-      <c r="AA135" s="27">
-        <f t="shared" si="214"/>
+      <c r="AB135" s="27">
+        <f t="shared" si="252"/>
         <v>6709.1219999999994</v>
       </c>
-      <c r="AB135" s="27">
-        <f>AB134-AB126</f>
+      <c r="AC135" s="27">
+        <f>AC134-AC126</f>
         <v>11607.430000000002</v>
       </c>
     </row>
-    <row r="137" spans="2:28">
+    <row r="137" spans="2:29">
       <c r="B137" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C137" s="57">
-        <f t="shared" ref="C137:G137" si="215">C133/C122</f>
+        <f t="shared" ref="C137:G137" si="253">C133/C122</f>
         <v>4.5569444776404806</v>
       </c>
       <c r="D137" s="57">
-        <f t="shared" si="215"/>
+        <f t="shared" si="253"/>
         <v>4.5773664820430584</v>
       </c>
       <c r="E137" s="57">
-        <f t="shared" si="215"/>
+        <f t="shared" si="253"/>
         <v>3.6212162128120506</v>
       </c>
       <c r="F137" s="57">
-        <f t="shared" si="215"/>
+        <f t="shared" si="253"/>
         <v>4.1230478148317342</v>
       </c>
       <c r="G137" s="57">
-        <f t="shared" si="215"/>
+        <f t="shared" si="253"/>
         <v>3.5936217174572174</v>
       </c>
       <c r="H137" s="57">
-        <f t="shared" ref="H137:I137" si="216">H133/H122</f>
+        <f t="shared" ref="H137:I137" si="254">H133/H122</f>
         <v>3.8049860617375519</v>
       </c>
       <c r="I137" s="57">
-        <f t="shared" si="216"/>
+        <f t="shared" si="254"/>
         <v>3.3381242931909623</v>
       </c>
       <c r="J137" s="57">
-        <f t="shared" ref="J137:K137" si="217">J133/J122</f>
+        <f t="shared" ref="J137:K137" si="255">J133/J122</f>
         <v>3.9679884357881914</v>
       </c>
       <c r="K137" s="57">
-        <f t="shared" si="217"/>
+        <f t="shared" si="255"/>
         <v>1.6181469979296066</v>
       </c>
       <c r="L137" s="57">
@@ -16173,7 +17216,7 @@
         <v>1.7243411865864144</v>
       </c>
       <c r="O137" s="57">
-        <f t="shared" ref="O137" si="218">O133/O122</f>
+        <f t="shared" ref="O137" si="256">O133/O122</f>
         <v>2.6197394789579156</v>
       </c>
       <c r="P137" s="57">
@@ -16196,20 +17239,32 @@
         <f>T133/T122</f>
         <v>2.2452006822849584</v>
       </c>
+      <c r="X137" s="57">
+        <f t="shared" ref="X137:Z137" si="257">X133/X122</f>
+        <v>3.6006560378366026</v>
+      </c>
+      <c r="Y137" s="57">
+        <f t="shared" si="257"/>
+        <v>4.2113358897543431</v>
+      </c>
       <c r="Z137" s="57">
-        <f t="shared" ref="Z137" si="219">Z133/Z122</f>
+        <f t="shared" ref="Z137:AA137" si="258">Z133/Z122</f>
+        <v>4.1230478148317342</v>
+      </c>
+      <c r="AA137" s="57">
+        <f t="shared" si="258"/>
         <v>3.9679884357881914</v>
-      </c>
-      <c r="AA137" s="57">
-        <f>AA133/AA122</f>
-        <v>1.7243411865864144</v>
       </c>
       <c r="AB137" s="57">
         <f>AB133/AB122</f>
+        <v>1.7243411865864144</v>
+      </c>
+      <c r="AC137" s="57">
+        <f>AC133/AC122</f>
         <v>3.6801189189189176</v>
       </c>
     </row>
-    <row r="138" spans="2:28">
+    <row r="138" spans="2:29">
       <c r="B138" s="3" t="s">
         <v>27</v>
       </c>
@@ -16229,71 +17284,83 @@
         <v>186</v>
       </c>
       <c r="H138" s="74">
-        <f t="shared" ref="H138" si="220">H133/SUM(E9:H9)</f>
+        <f t="shared" ref="H138" si="259">H133/SUM(E9:H9)</f>
         <v>3.9969163256834486E-3</v>
       </c>
       <c r="I138" s="74">
-        <f t="shared" ref="I138" si="221">I133/SUM(F9:I9)</f>
+        <f t="shared" ref="I138" si="260">I133/SUM(F9:I9)</f>
         <v>3.3988808322824725E-3</v>
       </c>
       <c r="J138" s="74">
-        <f t="shared" ref="J138" si="222">J133/SUM(G9:J9)</f>
+        <f t="shared" ref="J138" si="261">J133/SUM(G9:J9)</f>
         <v>3.5678980705158708E-3</v>
       </c>
       <c r="K138" s="74">
-        <f t="shared" ref="K138" si="223">K133/SUM(H9:K9)</f>
+        <f t="shared" ref="K138" si="262">K133/SUM(H9:K9)</f>
         <v>1.3692135555934837E-3</v>
       </c>
       <c r="L138" s="74">
-        <f t="shared" ref="L138" si="224">L133/SUM(I9:L9)</f>
+        <f t="shared" ref="L138" si="263">L133/SUM(I9:L9)</f>
         <v>1.3493997653217802E-3</v>
       </c>
       <c r="M138" s="74">
-        <f t="shared" ref="M138" si="225">M133/SUM(J9:M9)</f>
+        <f t="shared" ref="M138" si="264">M133/SUM(J9:M9)</f>
         <v>1.0984631479313523E-3</v>
       </c>
       <c r="N138" s="74">
-        <f t="shared" ref="N138" si="226">N133/SUM(K9:N9)</f>
+        <f t="shared" ref="N138" si="265">N133/SUM(K9:N9)</f>
         <v>1.8058391450770329E-3</v>
       </c>
       <c r="O138" s="74">
-        <f t="shared" ref="O138" si="227">O133/SUM(L9:O9)</f>
+        <f t="shared" ref="O138" si="266">O133/SUM(L9:O9)</f>
         <v>2.5249708462201492E-3</v>
       </c>
       <c r="P138" s="74">
-        <f t="shared" ref="P138:S138" si="228">P133/SUM(M9:P9)</f>
+        <f t="shared" ref="P138:S138" si="267">P133/SUM(M9:P9)</f>
         <v>3.3363450053989726E-3</v>
       </c>
       <c r="Q138" s="74">
-        <f t="shared" si="228"/>
+        <f t="shared" si="267"/>
         <v>3.5885419964958943E-3</v>
       </c>
       <c r="R138" s="74">
-        <f t="shared" si="228"/>
+        <f t="shared" si="267"/>
         <v>3.3117316306108839E-3</v>
       </c>
       <c r="S138" s="74">
-        <f t="shared" si="228"/>
+        <f t="shared" si="267"/>
         <v>3.1597674651698908E-3</v>
       </c>
       <c r="T138" s="74">
         <f>T133/SUM(Q9:T9)</f>
         <v>2.2633532687151986E-3</v>
       </c>
+      <c r="X138" s="57">
+        <f t="shared" ref="X138:Z138" si="268">X134/X9</f>
+        <v>2.2774909529553682</v>
+      </c>
+      <c r="Y138" s="57">
+        <f t="shared" si="268"/>
+        <v>3.0092303872039454</v>
+      </c>
       <c r="Z138" s="57">
-        <f t="shared" ref="Z138:AA138" si="229">Z134/Z9</f>
+        <f t="shared" si="268"/>
+        <v>3.2035718088777578</v>
+      </c>
+      <c r="AA138" s="57">
+        <f t="shared" ref="AA138:AB138" si="269">AA134/AA9</f>
         <v>2.6256161900926296</v>
       </c>
-      <c r="AA138" s="57">
-        <f t="shared" si="229"/>
+      <c r="AB138" s="57">
+        <f t="shared" si="269"/>
         <v>1.3294587786057119</v>
       </c>
-      <c r="AB138" s="57">
-        <f>AB134/AB9</f>
+      <c r="AC138" s="57">
+        <f>AC134/AC9</f>
         <v>2.4331292290098165</v>
       </c>
     </row>
-    <row r="139" spans="2:28">
+    <row r="139" spans="2:29">
       <c r="B139" s="3" t="s">
         <v>28</v>
       </c>
@@ -16313,71 +17380,83 @@
         <v>186</v>
       </c>
       <c r="H139" s="57">
-        <f t="shared" ref="H139" si="230">H133/SUM(E26:H26)</f>
+        <f t="shared" ref="H139" si="270">H133/SUM(E26:H26)</f>
         <v>-328.9104111728746</v>
       </c>
       <c r="I139" s="57">
-        <f t="shared" ref="I139" si="231">I133/SUM(F26:I26)</f>
+        <f t="shared" ref="I139" si="271">I133/SUM(F26:I26)</f>
         <v>-115.49206732790152</v>
       </c>
       <c r="J139" s="57">
-        <f t="shared" ref="J139" si="232">J133/SUM(G26:J26)</f>
+        <f t="shared" ref="J139" si="272">J133/SUM(G26:J26)</f>
         <v>-44.49814940755099</v>
       </c>
       <c r="K139" s="57">
-        <f t="shared" ref="K139" si="233">K133/SUM(H26:K26)</f>
+        <f t="shared" ref="K139" si="273">K133/SUM(H26:K26)</f>
         <v>-9.2931914725575346</v>
       </c>
       <c r="L139" s="57">
-        <f t="shared" ref="L139" si="234">L133/SUM(I26:L26)</f>
+        <f t="shared" ref="L139" si="274">L133/SUM(I26:L26)</f>
         <v>-4.921897835209367</v>
       </c>
       <c r="M139" s="57">
-        <f t="shared" ref="M139" si="235">M133/SUM(J26:M26)</f>
+        <f t="shared" ref="M139" si="275">M133/SUM(J26:M26)</f>
         <v>-3.4596705334508839</v>
       </c>
       <c r="N139" s="57">
-        <f t="shared" ref="N139" si="236">N133/SUM(K26:N26)</f>
+        <f t="shared" ref="N139" si="276">N133/SUM(K26:N26)</f>
         <v>-6.8505742659676452</v>
       </c>
       <c r="O139" s="57">
-        <f t="shared" ref="O139" si="237">O133/SUM(L26:O26)</f>
+        <f t="shared" ref="O139" si="277">O133/SUM(L26:O26)</f>
         <v>-13.844238952468716</v>
       </c>
       <c r="P139" s="57">
-        <f t="shared" ref="P139:S139" si="238">P133/SUM(M26:P26)</f>
+        <f t="shared" ref="P139:S139" si="278">P133/SUM(M26:P26)</f>
         <v>-88.265429889576552</v>
       </c>
       <c r="Q139" s="57">
-        <f t="shared" si="238"/>
+        <f t="shared" si="278"/>
         <v>-249.48613055071797</v>
       </c>
       <c r="R139" s="57">
-        <f t="shared" si="238"/>
+        <f t="shared" si="278"/>
         <v>-228.62115367889854</v>
       </c>
       <c r="S139" s="57">
-        <f t="shared" si="238"/>
+        <f t="shared" si="278"/>
         <v>697.1161832155442</v>
       </c>
       <c r="T139" s="57">
         <f>T133/SUM(Q26:T26)</f>
         <v>-16621.554193892349</v>
       </c>
+      <c r="X139" s="57">
+        <f t="shared" ref="X139:Z139" si="279">X133/X26</f>
+        <v>85.25165562913908</v>
+      </c>
+      <c r="Y139" s="57">
+        <f t="shared" si="279"/>
+        <v>71.19853727714748</v>
+      </c>
       <c r="Z139" s="57">
-        <f t="shared" ref="Z139" si="239">Z133/Z26</f>
+        <f t="shared" ref="Z139:AA139" si="280">Z133/Z26</f>
+        <v>-91.165168350168358</v>
+      </c>
+      <c r="AA139" s="57">
+        <f t="shared" si="280"/>
         <v>-44.501058020477807</v>
-      </c>
-      <c r="AA139" s="57">
-        <f>AA133/AA26</f>
-        <v>-6.8500095641481078</v>
       </c>
       <c r="AB139" s="57">
         <f>AB133/AB26</f>
+        <v>-6.8500095641481078</v>
+      </c>
+      <c r="AC139" s="57">
+        <f>AC133/AC26</f>
         <v>-228.46375838926176</v>
       </c>
     </row>
-    <row r="141" spans="2:28">
+    <row r="141" spans="2:29">
       <c r="B141" s="3" t="s">
         <v>204</v>
       </c>
@@ -16385,83 +17464,95 @@
         <v>186</v>
       </c>
       <c r="D141" s="25">
-        <f t="shared" ref="D141:S141" si="240">D15:D15/D9</f>
+        <f t="shared" ref="D141:S141" si="281">D15:D15/D9</f>
         <v>8.0382013529645847E-3</v>
       </c>
       <c r="E141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>7.5045285948417148E-3</v>
       </c>
       <c r="F141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>1.0308671065032988E-2</v>
       </c>
       <c r="G141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>1.1296003886797037E-2</v>
       </c>
       <c r="H141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>8.5587872633640389E-3</v>
       </c>
       <c r="I141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>9.8673018033344686E-3</v>
       </c>
       <c r="J141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>8.057553956834532E-3</v>
       </c>
       <c r="K141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>9.1511517828968131E-3</v>
       </c>
       <c r="L141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>1.1913626209977662E-2</v>
       </c>
       <c r="M141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>9.3581125609595358E-3</v>
       </c>
       <c r="N141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>5.7021831215379598E-3</v>
       </c>
       <c r="O141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>1.0405053883314754E-2</v>
       </c>
       <c r="P141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>8.2264484741264941E-3</v>
       </c>
       <c r="Q141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>1.0750443586264482E-2</v>
       </c>
       <c r="R141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>1.1526934603857682E-2</v>
       </c>
       <c r="S141" s="25">
-        <f t="shared" si="240"/>
+        <f t="shared" si="281"/>
         <v>2.8956565152271591E-2</v>
       </c>
       <c r="T141" s="25">
         <f>T15:T15/T9</f>
         <v>2.4438119540681126E-2</v>
       </c>
+      <c r="X141" s="25">
+        <f t="shared" ref="X141:Z141" si="282">X15:X15/X9</f>
+        <v>7.6558102131081629E-3</v>
+      </c>
+      <c r="Y141" s="25">
+        <f t="shared" si="282"/>
+        <v>8.4256674601407705E-3</v>
+      </c>
       <c r="Z141" s="25">
-        <f t="shared" ref="Z141:AB141" si="241">Z15:Z15/Z9</f>
+        <f t="shared" si="282"/>
+        <v>9.0907298219321253E-3</v>
+      </c>
+      <c r="AA141" s="25">
+        <f t="shared" ref="AA141:AC141" si="283">AA15:AA15/AA9</f>
         <v>9.043312708234174E-3</v>
       </c>
-      <c r="AA141" s="25">
-        <f t="shared" si="241"/>
+      <c r="AB141" s="25">
+        <f t="shared" si="283"/>
         <v>7.9022036010713056E-3</v>
       </c>
-      <c r="AB141" s="25">
-        <f t="shared" si="241"/>
+      <c r="AC141" s="25">
+        <f t="shared" si="283"/>
         <v>1.0244925188220719E-2</v>
       </c>
     </row>
@@ -16471,27 +17562,28 @@
     <hyperlink ref="S1" r:id="rId2" xr:uid="{93CDF7DF-1EA6-42CA-BCC8-DA2865B51A26}"/>
     <hyperlink ref="Q1" r:id="rId3" xr:uid="{9752E2CB-3CEF-4245-BFA9-C0218E68B8CA}"/>
     <hyperlink ref="R1" r:id="rId4" xr:uid="{BA3118D8-58BD-4D30-9D14-69D83EF60AFC}"/>
-    <hyperlink ref="AB1" r:id="rId5" xr:uid="{F4157810-6A61-4ACC-AAA5-22475F0942B7}"/>
+    <hyperlink ref="AC1" r:id="rId5" xr:uid="{F4157810-6A61-4ACC-AAA5-22475F0942B7}"/>
     <hyperlink ref="L1" r:id="rId6" xr:uid="{4A2FE63D-A9F3-4037-935C-8455203BEE40}"/>
     <hyperlink ref="O1" r:id="rId7" xr:uid="{66600F56-CF80-42D1-8E73-9CE055BBB6DC}"/>
     <hyperlink ref="M1" r:id="rId8" xr:uid="{2AE4CA56-39D1-4F5D-9F20-09CE6D413D01}"/>
     <hyperlink ref="K1" r:id="rId9" xr:uid="{0065F09B-E102-4CAA-BD33-29109F5335BA}"/>
     <hyperlink ref="I1" r:id="rId10" xr:uid="{32463CDE-F6F0-4494-9C98-7AA14A13E3D2}"/>
     <hyperlink ref="J1" r:id="rId11" xr:uid="{D84EF78D-A3AC-46C1-8928-F728FE758F99}"/>
-    <hyperlink ref="Z1" r:id="rId12" xr:uid="{4ACEBDC9-1AD7-4429-9A6E-EDAB58B0EC87}"/>
+    <hyperlink ref="AA1" r:id="rId12" xr:uid="{4ACEBDC9-1AD7-4429-9A6E-EDAB58B0EC87}"/>
     <hyperlink ref="G1" r:id="rId13" xr:uid="{3CD05DC1-03B7-4E00-971F-1A8B97298F51}"/>
     <hyperlink ref="H1" r:id="rId14" xr:uid="{9E1A8AC8-CDA1-4EA4-814E-E37F29FC058C}"/>
     <hyperlink ref="E1" r:id="rId15" xr:uid="{75A23284-9A7C-4BCC-8606-8DB2C99EA0AD}"/>
     <hyperlink ref="D1" r:id="rId16" xr:uid="{09E25DCE-E1AB-497E-A62A-DC8DA73126F5}"/>
+    <hyperlink ref="Y1" r:id="rId17" xr:uid="{C51D7960-5775-2B44-BDA3-B0587CBBBD05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId17"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId18"/>
   <ignoredErrors>
-    <ignoredError sqref="AB73 AA104:AB104 Z73:AA103 Z105:AA132 Z104 Z136:AA136 AA133" formula="1"/>
+    <ignoredError sqref="AC73 AB104:AC104 AA73:AB89 AA105:AB120 AA104 AA136:AB136 AB133 AA130:AB132 Z73 AA91:AB103 AB90 Z90:Z91 Z103 AA127:AB127 AB121:AB126" formula="1"/>
     <ignoredError sqref="Q138:T138 P138 Q131:T131 O138 M138:N139 L131:P131 G131:K131 H138:L138" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId18"/>
-  <legacyDrawing r:id="rId19"/>
+  <drawing r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -16499,8 +17591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1F7BB5-1110-4DCF-A4D2-2BD3A135983C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -16517,11 +17609,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258CA0E5-563F-4C1F-B583-AD76D8E7BBD2}">
   <dimension ref="A2:AG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U16" sqref="U16"/>
+      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -17104,99 +18196,99 @@
         <v>212</v>
       </c>
       <c r="B12" s="77">
-        <f>SUM(B13:B19)</f>
+        <f t="shared" ref="B12:S12" si="19">SUM(B13:B19)</f>
         <v>0</v>
       </c>
       <c r="C12" s="77">
-        <f>SUM(C13:C19)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D12" s="77">
-        <f>SUM(D13:D19)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E12" s="77">
-        <f>SUM(E13:E19)</f>
+        <f t="shared" si="19"/>
         <v>1490</v>
       </c>
       <c r="F12" s="77">
-        <f>SUM(F13:F19)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G12" s="77">
-        <f>SUM(G13:G19)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H12" s="77">
-        <f>SUM(H13:H19)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I12" s="77">
-        <f>SUM(I13:I19)</f>
+        <f t="shared" si="19"/>
         <v>1579</v>
       </c>
       <c r="J12" s="77">
-        <f>SUM(J13:J19)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K12" s="77">
-        <f>SUM(K13:K19)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L12" s="77">
-        <f>SUM(L13:L19)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M12" s="77">
-        <f>SUM(M13:M19)</f>
+        <f t="shared" si="19"/>
         <v>1623</v>
       </c>
       <c r="N12" s="77">
-        <f>SUM(N13:N19)</f>
+        <f t="shared" si="19"/>
         <v>1632</v>
       </c>
       <c r="O12" s="77">
-        <f>SUM(O13:O19)</f>
+        <f t="shared" si="19"/>
         <v>1646</v>
       </c>
       <c r="P12" s="77">
-        <f>SUM(P13:P19)</f>
+        <f t="shared" si="19"/>
         <v>1655</v>
       </c>
       <c r="Q12" s="77">
-        <f>SUM(Q13:Q19)</f>
+        <f t="shared" si="19"/>
         <v>1671</v>
       </c>
       <c r="R12" s="77">
-        <f>SUM(R13:R19)</f>
+        <f t="shared" si="19"/>
         <v>1677</v>
       </c>
       <c r="S12" s="77">
-        <f>SUM(S13:S19)</f>
+        <f t="shared" si="19"/>
         <v>1688</v>
       </c>
       <c r="X12" s="77">
-        <f>SUM(X13:X19)</f>
+        <f t="shared" ref="X12:AC12" si="20">SUM(X13:X19)</f>
         <v>1299</v>
       </c>
       <c r="Y12" s="77">
-        <f>SUM(Y13:Y19)</f>
+        <f t="shared" si="20"/>
         <v>1400</v>
       </c>
       <c r="Z12" s="77">
-        <f>SUM(Z13:Z19)</f>
+        <f t="shared" si="20"/>
         <v>1490</v>
       </c>
       <c r="AA12" s="77">
-        <f>SUM(AA13:AA19)</f>
+        <f t="shared" si="20"/>
         <v>1579</v>
       </c>
       <c r="AB12" s="77">
-        <f>SUM(AB13:AB19)</f>
+        <f t="shared" si="20"/>
         <v>1623</v>
       </c>
       <c r="AC12" s="77">
-        <f>SUM(AC13:AC19)</f>
+        <f t="shared" si="20"/>
         <v>1671</v>
       </c>
     </row>
@@ -17576,99 +18668,99 @@
         <v>211</v>
       </c>
       <c r="B21" s="77">
-        <f>SUM(B22:B28)</f>
+        <f t="shared" ref="B21:S21" si="21">SUM(B22:B28)</f>
         <v>0</v>
       </c>
       <c r="C21" s="77">
-        <f>SUM(C22:C28)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D21" s="77">
-        <f>SUM(D22:D28)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E21" s="77">
-        <f>SUM(E22:E28)</f>
+        <f t="shared" si="21"/>
         <v>368</v>
       </c>
       <c r="F21" s="77">
-        <f>SUM(F22:F28)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G21" s="77">
-        <f>SUM(G22:G28)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H21" s="77">
-        <f>SUM(H22:H28)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I21" s="77">
-        <f>SUM(I22:I28)</f>
+        <f t="shared" si="21"/>
         <v>338</v>
       </c>
       <c r="J21" s="77">
-        <f>SUM(J22:J28)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K21" s="77">
-        <f>SUM(K22:K28)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L21" s="77">
-        <f>SUM(L22:L28)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M21" s="77">
-        <f>SUM(M22:M28)</f>
+        <f t="shared" si="21"/>
         <v>281</v>
       </c>
       <c r="N21" s="77">
-        <f>SUM(N22:N28)</f>
+        <f t="shared" si="21"/>
         <v>272</v>
       </c>
       <c r="O21" s="77">
-        <f>SUM(O22:O28)</f>
+        <f t="shared" si="21"/>
         <v>306</v>
       </c>
       <c r="P21" s="77">
-        <f>SUM(P22:P28)</f>
+        <f t="shared" si="21"/>
         <v>313</v>
       </c>
       <c r="Q21" s="77">
-        <f>SUM(Q22:Q28)</f>
+        <f t="shared" si="21"/>
         <v>325</v>
       </c>
       <c r="R21" s="77">
-        <f>SUM(R22:R28)</f>
+        <f t="shared" si="21"/>
         <v>315</v>
       </c>
       <c r="S21" s="77">
-        <f>SUM(S22:S28)</f>
+        <f t="shared" si="21"/>
         <v>312</v>
       </c>
       <c r="X21" s="77">
-        <f>SUM(X22:X28)</f>
+        <f t="shared" ref="X21:AC21" si="22">SUM(X22:X28)</f>
         <v>450</v>
       </c>
       <c r="Y21" s="77">
-        <f>SUM(Y22:Y28)</f>
+        <f t="shared" si="22"/>
         <v>435</v>
       </c>
       <c r="Z21" s="77">
-        <f>SUM(Z22:Z28)</f>
+        <f t="shared" si="22"/>
         <v>368</v>
       </c>
       <c r="AA21" s="77">
-        <f>SUM(AA22:AA28)</f>
+        <f t="shared" si="22"/>
         <v>338</v>
       </c>
       <c r="AB21" s="77">
-        <f>SUM(AB22:AB28)</f>
+        <f t="shared" si="22"/>
         <v>281</v>
       </c>
       <c r="AC21" s="77">
-        <f>SUM(AC22:AC28)</f>
+        <f t="shared" si="22"/>
         <v>325</v>
       </c>
     </row>
@@ -18065,11 +19157,11 @@
         <v>2.4590163934426146E-2</v>
       </c>
       <c r="Y31" s="34">
-        <f t="shared" ref="Y31:AA31" si="19">Y3/X3-1</f>
+        <f t="shared" ref="Y31:Z31" si="23">Y3/X3-1</f>
         <v>4.9170954831332159E-2</v>
       </c>
       <c r="Z31" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.2534059945504161E-2</v>
       </c>
       <c r="AA31" s="34">
@@ -18086,7 +19178,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" s="81" customFormat="1" ht="13">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="87" t="s">
         <v>213</v>
       </c>
       <c r="I32" s="81">
@@ -18110,11 +19202,11 @@
         <v>48</v>
       </c>
       <c r="Y32" s="81">
-        <f t="shared" ref="Y32:AA32" si="20">Y3-X3</f>
+        <f t="shared" ref="Y32:Z32" si="24">Y3-X3</f>
         <v>86</v>
       </c>
       <c r="Z32" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
       <c r="AA32" s="81">
@@ -18135,27 +19227,27 @@
         <v>214</v>
       </c>
       <c r="N33" s="25">
-        <f>N3/M3-1</f>
+        <f t="shared" ref="N33:S33" si="25">N3/M3-1</f>
         <v>0</v>
       </c>
       <c r="O33" s="25">
-        <f>O3/N3-1</f>
+        <f t="shared" si="25"/>
         <v>2.5210084033613356E-2</v>
       </c>
       <c r="P33" s="25">
-        <f>P3/O3-1</f>
+        <f t="shared" si="25"/>
         <v>8.1967213114753079E-3</v>
       </c>
       <c r="Q33" s="25">
-        <f>Q3/P3-1</f>
+        <f t="shared" si="25"/>
         <v>1.4227642276422703E-2</v>
       </c>
       <c r="R33" s="25">
-        <f>R3/Q3-1</f>
+        <f t="shared" si="25"/>
         <v>-2.0040080160320661E-3</v>
       </c>
       <c r="S33" s="25">
-        <f>S3/R3-1</f>
+        <f t="shared" si="25"/>
         <v>4.0160642570281624E-3</v>
       </c>
       <c r="X33" s="63" t="s">
@@ -18178,34 +19270,34 @@
       </c>
     </row>
     <row r="34" spans="1:29" s="82" customFormat="1">
-      <c r="A34" s="105" t="s">
+      <c r="A34" s="88" t="s">
         <v>214</v>
       </c>
       <c r="B34" s="83"/>
       <c r="C34" s="83"/>
       <c r="D34" s="83"/>
       <c r="N34" s="81">
-        <f t="shared" ref="N34:S34" si="21">N3-M3</f>
+        <f t="shared" ref="N34:S34" si="26">N3-M3</f>
         <v>0</v>
       </c>
       <c r="O34" s="81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>48</v>
       </c>
       <c r="P34" s="81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="Q34" s="81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="R34" s="81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-4</v>
       </c>
       <c r="S34" s="81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="X34" s="63" t="s">
@@ -18255,11 +19347,11 @@
         <v>2.5516403402187082E-2</v>
       </c>
       <c r="Y36" s="34">
-        <f t="shared" ref="Y36:AA36" si="22">Y12/X12-1</f>
+        <f t="shared" ref="Y36:Z36" si="27">Y12/X12-1</f>
         <v>7.7752117013087041E-2</v>
       </c>
       <c r="Z36" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>6.4285714285714279E-2</v>
       </c>
       <c r="AA36" s="34">
@@ -18276,7 +19368,7 @@
       </c>
     </row>
     <row r="37" spans="1:29" s="81" customFormat="1" ht="13">
-      <c r="A37" s="104" t="s">
+      <c r="A37" s="87" t="s">
         <v>202</v>
       </c>
       <c r="I37" s="81">
@@ -18300,11 +19392,11 @@
         <v>42</v>
       </c>
       <c r="Y37" s="81">
-        <f t="shared" ref="Y37:AA37" si="23">Y12-X12</f>
+        <f t="shared" ref="Y37:Z37" si="28">Y12-X12</f>
         <v>101</v>
       </c>
       <c r="Z37" s="81">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>90</v>
       </c>
       <c r="AA37" s="81">
@@ -18325,27 +19417,27 @@
         <v>203</v>
       </c>
       <c r="N38" s="25">
-        <f>N12/M12-1</f>
+        <f t="shared" ref="N38:S38" si="29">N12/M12-1</f>
         <v>5.5452865064695711E-3</v>
       </c>
       <c r="O38" s="25">
-        <f>O12/N12-1</f>
+        <f t="shared" si="29"/>
         <v>8.5784313725489891E-3</v>
       </c>
       <c r="P38" s="25">
-        <f>P12/O12-1</f>
+        <f t="shared" si="29"/>
         <v>5.4678007290400732E-3</v>
       </c>
       <c r="Q38" s="25">
-        <f>Q12/P12-1</f>
+        <f t="shared" si="29"/>
         <v>9.6676737160121817E-3</v>
       </c>
       <c r="R38" s="25">
-        <f>R12/Q12-1</f>
+        <f t="shared" si="29"/>
         <v>3.5906642728904536E-3</v>
       </c>
       <c r="S38" s="25">
-        <f>S12/R12-1</f>
+        <f t="shared" si="29"/>
         <v>6.5593321407275695E-3</v>
       </c>
       <c r="X38" s="63" t="s">
@@ -18368,34 +19460,34 @@
       </c>
     </row>
     <row r="39" spans="1:29" s="84" customFormat="1">
-      <c r="A39" s="106" t="s">
+      <c r="A39" s="89" t="s">
         <v>203</v>
       </c>
       <c r="B39" s="85"/>
       <c r="C39" s="85"/>
       <c r="D39" s="85"/>
       <c r="N39" s="81">
-        <f>N12-M12</f>
+        <f t="shared" ref="N39:S39" si="30">N12-M12</f>
         <v>9</v>
       </c>
       <c r="O39" s="81">
-        <f>O12-N12</f>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
       <c r="P39" s="81">
-        <f>P12-O12</f>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="Q39" s="81">
-        <f>Q12-P12</f>
+        <f t="shared" si="30"/>
         <v>16</v>
       </c>
       <c r="R39" s="81">
-        <f>R12-Q12</f>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="S39" s="81">
-        <f>S12-R12</f>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
       <c r="X39" s="63" t="s">
@@ -18425,15 +19517,15 @@
         <v>215</v>
       </c>
       <c r="I41" s="34">
-        <f t="shared" ref="I41" si="24">I21/E21-1</f>
+        <f t="shared" ref="I41" si="31">I21/E21-1</f>
         <v>-8.1521739130434812E-2</v>
       </c>
       <c r="M41" s="34">
-        <f t="shared" ref="M41" si="25">M21/I21-1</f>
+        <f t="shared" ref="M41" si="32">M21/I21-1</f>
         <v>-0.16863905325443784</v>
       </c>
       <c r="Q41" s="34">
-        <f t="shared" ref="Q41" si="26">Q21/M21-1</f>
+        <f t="shared" ref="Q41" si="33">Q21/M21-1</f>
         <v>0.15658362989323837</v>
       </c>
       <c r="R41" s="34">
@@ -18441,19 +19533,19 @@
         <v>0.15808823529411775</v>
       </c>
       <c r="S41" s="34">
-        <f t="shared" ref="S41" si="27">S21/O21-1</f>
+        <f t="shared" ref="S41" si="34">S21/O21-1</f>
         <v>1.9607843137254832E-2</v>
       </c>
       <c r="Y41" s="34">
-        <f t="shared" ref="Y41" si="28">Y21/X21-1</f>
+        <f t="shared" ref="Y41" si="35">Y21/X21-1</f>
         <v>-3.3333333333333326E-2</v>
       </c>
       <c r="Z41" s="34">
-        <f t="shared" ref="Z41" si="29">Z21/Y21-1</f>
+        <f t="shared" ref="Z41" si="36">Z21/Y21-1</f>
         <v>-0.15402298850574714</v>
       </c>
       <c r="AA41" s="34">
-        <f t="shared" ref="AA41" si="30">AA21/Z21-1</f>
+        <f t="shared" ref="AA41" si="37">AA21/Z21-1</f>
         <v>-8.1521739130434812E-2</v>
       </c>
       <c r="AB41" s="34">
@@ -18466,7 +19558,7 @@
       </c>
     </row>
     <row r="42" spans="1:29" s="86" customFormat="1" ht="13">
-      <c r="A42" s="107" t="s">
+      <c r="A42" s="90" t="s">
         <v>215</v>
       </c>
       <c r="I42" s="86">
@@ -18478,11 +19570,11 @@
         <v>-57</v>
       </c>
       <c r="Q42" s="86">
-        <f t="shared" ref="Q42:R42" si="31">Q21-M21</f>
+        <f t="shared" ref="Q42:R42" si="38">Q21-M21</f>
         <v>44</v>
       </c>
       <c r="R42" s="86">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>43</v>
       </c>
       <c r="S42" s="86">
@@ -18490,19 +19582,19 @@
         <v>6</v>
       </c>
       <c r="Y42" s="86">
-        <f t="shared" ref="Y42" si="32">Y21-X21</f>
+        <f t="shared" ref="Y42" si="39">Y21-X21</f>
         <v>-15</v>
       </c>
       <c r="Z42" s="86">
-        <f t="shared" ref="Z42" si="33">Z21-Y21</f>
+        <f t="shared" ref="Z42" si="40">Z21-Y21</f>
         <v>-67</v>
       </c>
       <c r="AA42" s="86">
-        <f t="shared" ref="AA42:AB42" si="34">AA21-Z21</f>
+        <f t="shared" ref="AA42:AB42" si="41">AA21-Z21</f>
         <v>-30</v>
       </c>
       <c r="AB42" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>-57</v>
       </c>
       <c r="AC42" s="86">
@@ -18515,19 +19607,19 @@
         <v>216</v>
       </c>
       <c r="N43" s="25">
-        <f t="shared" ref="N43:P43" si="35">N21/M21-1</f>
+        <f t="shared" ref="N43:P43" si="42">N21/M21-1</f>
         <v>-3.2028469750889688E-2</v>
       </c>
       <c r="O43" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.125</v>
       </c>
       <c r="P43" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>2.2875816993463971E-2</v>
       </c>
       <c r="Q43" s="25">
-        <f t="shared" ref="Q43" si="36">Q21/P21-1</f>
+        <f t="shared" ref="Q43" si="43">Q21/P21-1</f>
         <v>3.833865814696491E-2</v>
       </c>
       <c r="R43" s="25">
@@ -18535,7 +19627,7 @@
         <v>-3.0769230769230771E-2</v>
       </c>
       <c r="S43" s="25">
-        <f t="shared" ref="S43" si="37">S21/R21-1</f>
+        <f t="shared" ref="S43" si="44">S21/R21-1</f>
         <v>-9.52380952380949E-3</v>
       </c>
       <c r="X43" s="63" t="s">
@@ -18558,30 +19650,30 @@
       </c>
     </row>
     <row r="44" spans="1:29" s="84" customFormat="1">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="89" t="s">
         <v>216</v>
       </c>
       <c r="B44" s="85"/>
       <c r="C44" s="85"/>
       <c r="D44" s="85"/>
       <c r="N44" s="81">
-        <f t="shared" ref="N44:R44" si="38">N21-M21</f>
+        <f t="shared" ref="N44:R44" si="45">N21-M21</f>
         <v>-9</v>
       </c>
       <c r="O44" s="81">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>34</v>
       </c>
       <c r="P44" s="81">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>7</v>
       </c>
       <c r="Q44" s="81">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="R44" s="81">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>-10</v>
       </c>
       <c r="S44" s="81">

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929A0A14-DD45-6942-AD41-707219E3F48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BD20DC-C224-E749-9831-81B7CB188F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="2" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="252">
   <si>
     <t>$ERJ</t>
   </si>
@@ -831,6 +831,105 @@
   </si>
   <si>
     <t>FY16</t>
+  </si>
+  <si>
+    <t>A220 vs E2</t>
+  </si>
+  <si>
+    <t>A220-300</t>
+  </si>
+  <si>
+    <t>E195-E2</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>38.7m</t>
+  </si>
+  <si>
+    <t>6,297km</t>
+  </si>
+  <si>
+    <t>21,508kg</t>
+  </si>
+  <si>
+    <t>$91.5m</t>
+  </si>
+  <si>
+    <t>160 seats</t>
+  </si>
+  <si>
+    <t>146 seats</t>
+  </si>
+  <si>
+    <t>41.5m</t>
+  </si>
+  <si>
+    <t>4,815km</t>
+  </si>
+  <si>
+    <t>13,690kg</t>
+  </si>
+  <si>
+    <t>$60.4m</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>2-3 seating</t>
+  </si>
+  <si>
+    <t>2-2 seating</t>
+  </si>
+  <si>
+    <t>CSeries/A220 enters service with Swiss International Airline to primarily compete with larger E-Jet E2 variants</t>
+  </si>
+  <si>
+    <t>E195-E2 lands at London City Airport (LCY) for the first time, making it the largest aircraft cleared to operate from the airport</t>
+  </si>
+  <si>
+    <t>As of July 2022, Embraer aircraft account for 85% of all LCY operations on routes as diverse as EDI &amp; Mykonos</t>
+  </si>
+  <si>
+    <t>LCY Cert</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Airbus confirmed there are no plans to certify the larger, higher capacity A220-300 for LCY steep approach operations</t>
+  </si>
+  <si>
+    <t>Quick Links</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>SimpleFlying</t>
+  </si>
+  <si>
+    <t>Embraer announced the opening of 1,000 job vacancies in Brazil focusing on production rate recovery, services &amp; support,</t>
+  </si>
+  <si>
+    <t>growth, product development &amp; new business</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1291,10 +1390,10 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1306,28 +1405,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1340,6 +1427,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6096,10 +6223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F324B-1DEB-44A7-A7E2-319E26170844}">
-  <dimension ref="A2:AB44"/>
+  <dimension ref="A2:AC53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -6107,18 +6234,18 @@
     <col min="1" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="15">
+    <row r="2" spans="1:29" ht="15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29">
       <c r="B5" s="93" t="s">
         <v>2</v>
       </c>
@@ -6138,18 +6265,18 @@
       <c r="P5" s="94"/>
       <c r="Q5" s="94"/>
       <c r="R5" s="95"/>
-      <c r="U5" s="93" t="s">
+      <c r="T5" s="93" t="s">
         <v>133</v>
       </c>
+      <c r="U5" s="94"/>
       <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="95"/>
-      <c r="AA5" s="91" t="s">
+      <c r="W5" s="95"/>
+      <c r="AA5" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="AB5" s="92"/>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AB5" s="105"/>
+    </row>
+    <row r="6" spans="1:29">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -6173,18 +6300,18 @@
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="38"/>
-      <c r="U6" s="41" t="s">
+      <c r="T6" s="41" t="s">
         <v>148</v>
       </c>
+      <c r="U6" s="37"/>
       <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="38"/>
+      <c r="W6" s="38"/>
       <c r="AA6" s="70" t="s">
         <v>206</v>
       </c>
       <c r="AB6" s="38"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:29">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -6209,18 +6336,18 @@
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="38"/>
-      <c r="U7" s="46" t="s">
+      <c r="T7" s="46" t="s">
         <v>84</v>
       </c>
+      <c r="U7" s="37"/>
       <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="38"/>
+      <c r="W7" s="38"/>
       <c r="AA7" s="70" t="s">
         <v>207</v>
       </c>
       <c r="AB7" s="38"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:29">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -6243,18 +6370,18 @@
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="38"/>
-      <c r="U8" s="45" t="s">
+      <c r="T8" s="45" t="s">
         <v>137</v>
       </c>
+      <c r="U8" s="37"/>
       <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="38"/>
+      <c r="W8" s="38"/>
       <c r="AA8" s="71" t="s">
         <v>208</v>
       </c>
       <c r="AB8" s="36"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:29">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -6278,14 +6405,14 @@
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="38"/>
-      <c r="U9" s="47" t="s">
+      <c r="T9" s="47" t="s">
         <v>151</v>
       </c>
+      <c r="U9" s="37"/>
       <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="38"/>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="W9" s="38"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -6313,14 +6440,14 @@
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
       <c r="R10" s="38"/>
-      <c r="U10" s="47" t="s">
+      <c r="T10" s="47" t="s">
         <v>152</v>
       </c>
+      <c r="U10" s="37"/>
       <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="38"/>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="W10" s="38"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -6346,14 +6473,14 @@
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
       <c r="R11" s="38"/>
-      <c r="U11" s="47" t="s">
+      <c r="T11" s="47" t="s">
         <v>153</v>
       </c>
+      <c r="U11" s="37"/>
       <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="38"/>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="W11" s="38"/>
+    </row>
+    <row r="12" spans="1:29">
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
@@ -6374,12 +6501,19 @@
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
       <c r="R12" s="38"/>
-      <c r="U12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="37"/>
       <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="38"/>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="W12" s="38"/>
+      <c r="Y12" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="95"/>
+    </row>
+    <row r="13" spans="1:29">
       <c r="G13" s="10"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
@@ -6392,14 +6526,23 @@
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="38"/>
-      <c r="U13" s="45" t="s">
+      <c r="T13" s="45" t="s">
         <v>138</v>
       </c>
+      <c r="U13" s="37"/>
       <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="38"/>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="W13" s="38"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA13" s="112"/>
+      <c r="AB13" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC13" s="113"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="G14" s="9">
         <v>44805</v>
       </c>
@@ -6416,14 +6559,25 @@
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="38"/>
-      <c r="U14" s="47" t="s">
+      <c r="T14" s="47" t="s">
         <v>154</v>
       </c>
+      <c r="U14" s="37"/>
       <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="38"/>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="W14" s="38"/>
+      <c r="Y14" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z14" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC14" s="99"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="B15" s="93" t="s">
         <v>14</v>
       </c>
@@ -6441,14 +6595,25 @@
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="38"/>
-      <c r="U15" s="47" t="s">
+      <c r="T15" s="47" t="s">
         <v>155</v>
       </c>
+      <c r="U15" s="37"/>
       <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="38"/>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="W15" s="38"/>
+      <c r="Y15" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z15" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC15" s="99"/>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
@@ -6471,14 +6636,25 @@
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="38"/>
-      <c r="U16" s="47" t="s">
+      <c r="T16" s="47" t="s">
         <v>156</v>
       </c>
+      <c r="U16" s="37"/>
       <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="38"/>
-    </row>
-    <row r="17" spans="2:24">
+      <c r="W16" s="38"/>
+      <c r="Y16" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z16" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC16" s="99"/>
+    </row>
+    <row r="17" spans="2:29">
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
@@ -6502,12 +6678,23 @@
       <c r="P17" s="60"/>
       <c r="Q17" s="60"/>
       <c r="R17" s="38"/>
-      <c r="U17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="37"/>
       <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="38"/>
-    </row>
-    <row r="18" spans="2:24">
+      <c r="W17" s="38"/>
+      <c r="Y17" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z17" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC17" s="99"/>
+    </row>
+    <row r="18" spans="2:29">
       <c r="B18" s="16"/>
       <c r="C18" s="98"/>
       <c r="D18" s="99"/>
@@ -6525,17 +6712,28 @@
       <c r="P18" s="60"/>
       <c r="Q18" s="60"/>
       <c r="R18" s="38"/>
-      <c r="U18" s="46" t="s">
+      <c r="T18" s="46" t="s">
         <v>139</v>
       </c>
+      <c r="U18" s="37"/>
       <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="38"/>
-    </row>
-    <row r="19" spans="2:24">
+      <c r="W18" s="38"/>
+      <c r="Y18" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z18" s="98" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC18" s="99"/>
+    </row>
+    <row r="19" spans="2:29">
       <c r="B19" s="17"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
       <c r="G19" s="10"/>
       <c r="H19" s="8" t="s">
         <v>193</v>
@@ -6550,14 +6748,25 @@
       <c r="P19" s="60"/>
       <c r="Q19" s="60"/>
       <c r="R19" s="38"/>
-      <c r="U19" s="45" t="s">
+      <c r="T19" s="45" t="s">
         <v>142</v>
       </c>
+      <c r="U19" s="37"/>
       <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="38"/>
-    </row>
-    <row r="20" spans="2:24">
+      <c r="W19" s="38"/>
+      <c r="Y19" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z19" s="98" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC19" s="99"/>
+    </row>
+    <row r="20" spans="2:29">
       <c r="G20" s="10"/>
       <c r="H20" s="8" t="s">
         <v>191</v>
@@ -6574,14 +6783,25 @@
       <c r="R20" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="U20" s="45" t="s">
+      <c r="T20" s="45" t="s">
         <v>141</v>
       </c>
+      <c r="U20" s="37"/>
       <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="38"/>
-    </row>
-    <row r="21" spans="2:24">
+      <c r="W20" s="38"/>
+      <c r="Y20" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z20" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC20" s="99"/>
+    </row>
+    <row r="21" spans="2:29">
       <c r="G21" s="10"/>
       <c r="H21" s="60"/>
       <c r="I21" s="60"/>
@@ -6594,14 +6814,19 @@
       <c r="P21" s="60"/>
       <c r="Q21" s="60"/>
       <c r="R21" s="38"/>
-      <c r="U21" s="45" t="s">
+      <c r="T21" s="45" t="s">
         <v>140</v>
       </c>
+      <c r="U21" s="37"/>
       <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="38"/>
-    </row>
-    <row r="22" spans="2:24">
+      <c r="W21" s="38"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="38"/>
+    </row>
+    <row r="22" spans="2:29">
       <c r="B22" s="93" t="s">
         <v>20</v>
       </c>
@@ -6619,14 +6844,19 @@
       <c r="P22" s="60"/>
       <c r="Q22" s="60"/>
       <c r="R22" s="38"/>
-      <c r="U22" s="45" t="s">
+      <c r="T22" s="45" t="s">
         <v>157</v>
       </c>
+      <c r="U22" s="37"/>
       <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="38"/>
-    </row>
-    <row r="23" spans="2:24">
+      <c r="W22" s="38"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="36"/>
+    </row>
+    <row r="23" spans="2:29">
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
@@ -6650,12 +6880,12 @@
       <c r="P23" s="60"/>
       <c r="Q23" s="60"/>
       <c r="R23" s="38"/>
-      <c r="U23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="37"/>
       <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="38"/>
-    </row>
-    <row r="24" spans="2:24">
+      <c r="W23" s="38"/>
+    </row>
+    <row r="24" spans="2:29">
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
@@ -6677,14 +6907,14 @@
       <c r="P24" s="60"/>
       <c r="Q24" s="60"/>
       <c r="R24" s="38"/>
-      <c r="U24" s="46" t="s">
+      <c r="T24" s="46" t="s">
         <v>143</v>
       </c>
+      <c r="U24" s="37"/>
       <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="38"/>
-    </row>
-    <row r="25" spans="2:24">
+      <c r="W24" s="38"/>
+    </row>
+    <row r="25" spans="2:29">
       <c r="B25" s="10"/>
       <c r="C25" s="98"/>
       <c r="D25" s="99"/>
@@ -6702,22 +6932,22 @@
       <c r="P25" s="60"/>
       <c r="Q25" s="60"/>
       <c r="R25" s="38"/>
-      <c r="U25" s="45" t="s">
+      <c r="T25" s="45" t="s">
         <v>144</v>
       </c>
+      <c r="U25" s="37"/>
       <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="38"/>
-    </row>
-    <row r="26" spans="2:24">
+      <c r="W25" s="38"/>
+    </row>
+    <row r="26" spans="2:29">
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="96">
+      <c r="C26" s="106">
         <f>'Financial Model'!T68</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="97"/>
+      <c r="D26" s="107"/>
       <c r="G26" s="10"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
@@ -6730,22 +6960,22 @@
       <c r="P26" s="60"/>
       <c r="Q26" s="60"/>
       <c r="R26" s="38"/>
-      <c r="U26" s="45" t="s">
+      <c r="T26" s="45" t="s">
         <v>145</v>
       </c>
+      <c r="U26" s="37"/>
       <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="38"/>
-    </row>
-    <row r="27" spans="2:24">
+      <c r="W26" s="38"/>
+    </row>
+    <row r="27" spans="2:29">
       <c r="B27" s="10"/>
       <c r="C27" s="98"/>
       <c r="D27" s="99"/>
       <c r="G27" s="9">
-        <v>43922</v>
-      </c>
-      <c r="H27" s="37" t="s">
-        <v>164</v>
+        <v>44743</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="37"/>
@@ -6757,14 +6987,14 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
       <c r="R27" s="38"/>
-      <c r="U27" s="45" t="s">
+      <c r="T27" s="45" t="s">
         <v>146</v>
       </c>
+      <c r="U27" s="37"/>
       <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="38"/>
-    </row>
-    <row r="28" spans="2:24">
+      <c r="W27" s="38"/>
+    </row>
+    <row r="28" spans="2:29">
       <c r="B28" s="10" t="s">
         <v>23</v>
       </c>
@@ -6776,131 +7006,135 @@
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
+        <v>242</v>
+      </c>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
       <c r="R28" s="38"/>
-      <c r="U28" s="45" t="s">
+      <c r="T28" s="45" t="s">
         <v>147</v>
       </c>
+      <c r="U28" s="37"/>
       <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="38"/>
-    </row>
-    <row r="29" spans="2:24">
+      <c r="W28" s="38"/>
+    </row>
+    <row r="29" spans="2:29">
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="105"/>
+      <c r="D29" s="101"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="51" t="s">
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="38"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="38"/>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="G30" s="9">
+        <v>44682</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="38"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="38"/>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="G31" s="10"/>
+      <c r="H31" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="U29" s="42"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="38"/>
-    </row>
-    <row r="30" spans="2:24">
-      <c r="G30" s="10"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="38"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="38"/>
-    </row>
-    <row r="31" spans="2:24">
-      <c r="G31" s="10"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="38"/>
-      <c r="U31" s="46" t="s">
+      <c r="T31" s="46" t="s">
         <v>149</v>
       </c>
+      <c r="U31" s="37"/>
       <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="38"/>
-    </row>
-    <row r="32" spans="2:24">
+      <c r="W31" s="38"/>
+    </row>
+    <row r="32" spans="2:29">
       <c r="B32" s="93" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="94"/>
       <c r="D32" s="95"/>
-      <c r="G32" s="9">
-        <v>43770</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
       <c r="R32" s="38"/>
-      <c r="U32" s="45" t="s">
+      <c r="T32" s="45" t="s">
         <v>150</v>
       </c>
+      <c r="U32" s="37"/>
       <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="38"/>
-    </row>
-    <row r="33" spans="2:24">
+      <c r="W32" s="38"/>
+    </row>
+    <row r="33" spans="2:23">
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="106">
+      <c r="C33" s="102">
         <f>C6/'Financial Model'!T122</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="107"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="50" t="s">
-        <v>168</v>
+      <c r="D33" s="103"/>
+      <c r="G33" s="9">
+        <v>43922</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>164</v>
       </c>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
@@ -6912,22 +7146,24 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="37"/>
       <c r="R33" s="38"/>
-      <c r="U33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="37"/>
       <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="38"/>
-    </row>
-    <row r="34" spans="2:24">
+      <c r="W33" s="38"/>
+    </row>
+    <row r="34" spans="2:23">
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="106">
+      <c r="C34" s="102">
         <f>C6/'Financial Model'!AC9</f>
         <v>2.2515010006671113E-3</v>
       </c>
-      <c r="D34" s="107"/>
+      <c r="D34" s="103"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="37"/>
+      <c r="H34" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
@@ -6938,22 +7174,22 @@
       <c r="P34" s="37"/>
       <c r="Q34" s="37"/>
       <c r="R34" s="38"/>
-      <c r="U34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="35"/>
       <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="36"/>
-    </row>
-    <row r="35" spans="2:24">
+      <c r="W34" s="36"/>
+    </row>
+    <row r="35" spans="2:23">
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="102">
+      <c r="C35" s="96">
         <f>C6/'Financial Model'!AC26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="103"/>
+      <c r="D35" s="97"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="60"/>
+      <c r="H35" s="37"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
@@ -6962,18 +7198,14 @@
       <c r="N35" s="37"/>
       <c r="O35" s="37"/>
       <c r="P35" s="37"/>
-      <c r="Q35" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="R35" s="38"/>
-    </row>
-    <row r="36" spans="2:24">
-      <c r="G36" s="9">
-        <v>43586</v>
-      </c>
-      <c r="H36" s="60" t="s">
-        <v>166</v>
-      </c>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23">
+      <c r="G36" s="10"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
@@ -6985,9 +7217,13 @@
       <c r="Q36" s="37"/>
       <c r="R36" s="38"/>
     </row>
-    <row r="37" spans="2:24">
-      <c r="G37" s="10"/>
-      <c r="H37" s="37"/>
+    <row r="37" spans="2:23">
+      <c r="G37" s="9">
+        <v>43770</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>167</v>
+      </c>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
@@ -6998,16 +7234,23 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
-      <c r="U37" s="93" t="s">
+      <c r="T37" s="93" t="s">
         <v>158</v>
       </c>
+      <c r="U37" s="94"/>
       <c r="V37" s="94"/>
-      <c r="W37" s="94"/>
-      <c r="X37" s="95"/>
-    </row>
-    <row r="38" spans="2:24">
+      <c r="W37" s="95"/>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="B38" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="94"/>
+      <c r="D38" s="95"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="37"/>
+      <c r="H38" s="50" t="s">
+        <v>168</v>
+      </c>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
@@ -7018,14 +7261,21 @@
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
       <c r="R38" s="38"/>
-      <c r="U38" s="42" t="s">
+      <c r="T38" s="42" t="s">
         <v>159</v>
       </c>
+      <c r="U38" s="37"/>
       <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="38"/>
-    </row>
-    <row r="39" spans="2:24">
+      <c r="W38" s="38"/>
+    </row>
+    <row r="39" spans="2:23">
+      <c r="B39" s="114" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="115"/>
+      <c r="D39" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="G39" s="10"/>
       <c r="H39" s="37"/>
       <c r="I39" s="37"/>
@@ -7038,16 +7288,27 @@
       <c r="P39" s="37"/>
       <c r="Q39" s="37"/>
       <c r="R39" s="38"/>
-      <c r="U39" s="44" t="s">
+      <c r="T39" s="44" t="s">
         <v>160</v>
       </c>
+      <c r="U39" s="37"/>
       <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="38"/>
-    </row>
-    <row r="40" spans="2:24">
-      <c r="G40" s="10"/>
-      <c r="H40" s="37"/>
+      <c r="W39" s="38"/>
+    </row>
+    <row r="40" spans="2:23">
+      <c r="B40" s="114" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="115"/>
+      <c r="D40" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="9">
+        <v>43739</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
       <c r="K40" s="37"/>
@@ -7056,22 +7317,25 @@
       <c r="N40" s="37"/>
       <c r="O40" s="37"/>
       <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
+      <c r="Q40" s="37" t="s">
+        <v>179</v>
+      </c>
       <c r="R40" s="38"/>
-      <c r="U40" s="44" t="s">
+      <c r="T40" s="44" t="s">
         <v>161</v>
       </c>
+      <c r="U40" s="37"/>
       <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="38"/>
-    </row>
-    <row r="41" spans="2:24">
-      <c r="G41" s="9">
-        <v>43282</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>162</v>
-      </c>
+      <c r="W40" s="38"/>
+    </row>
+    <row r="41" spans="2:23">
+      <c r="B41" s="114"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="60"/>
       <c r="I41" s="37"/>
       <c r="J41" s="37"/>
       <c r="K41" s="37"/>
@@ -7082,16 +7346,19 @@
       <c r="P41" s="37"/>
       <c r="Q41" s="37"/>
       <c r="R41" s="38"/>
-      <c r="U41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="60"/>
       <c r="V41" s="60"/>
-      <c r="W41" s="60"/>
-      <c r="X41" s="38"/>
-    </row>
-    <row r="42" spans="2:24">
+      <c r="W41" s="38"/>
+    </row>
+    <row r="42" spans="2:23">
+      <c r="B42" s="114"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="91" t="s">
+        <v>31</v>
+      </c>
       <c r="G42" s="10"/>
-      <c r="H42" s="8" t="s">
-        <v>163</v>
-      </c>
+      <c r="H42" s="37"/>
       <c r="I42" s="37"/>
       <c r="J42" s="37"/>
       <c r="K42" s="37"/>
@@ -7102,54 +7369,227 @@
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
       <c r="R42" s="38"/>
-      <c r="U42" s="61" t="s">
+      <c r="T42" s="61" t="s">
         <v>199</v>
       </c>
+      <c r="U42" s="60"/>
       <c r="V42" s="60"/>
-      <c r="W42" s="60"/>
-      <c r="X42" s="38"/>
-    </row>
-    <row r="43" spans="2:24">
-      <c r="G43" s="11"/>
-      <c r="H43" s="54" t="s">
+      <c r="W42" s="38"/>
+    </row>
+    <row r="43" spans="2:23">
+      <c r="B43" s="116"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="38"/>
+      <c r="T43" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="38"/>
+    </row>
+    <row r="44" spans="2:23">
+      <c r="G44" s="9">
+        <v>43586</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="38"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23">
+      <c r="G45" s="10"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="38"/>
+    </row>
+    <row r="46" spans="2:23">
+      <c r="G46" s="9">
+        <v>43282</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="38"/>
+    </row>
+    <row r="47" spans="2:23">
+      <c r="G47" s="10"/>
+      <c r="H47" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="38"/>
+    </row>
+    <row r="48" spans="2:23">
+      <c r="G48" s="10"/>
+      <c r="H48" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="36"/>
-      <c r="U43" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="V43" s="60"/>
-      <c r="W43" s="60"/>
-      <c r="X43" s="38"/>
-    </row>
-    <row r="44" spans="2:24">
-      <c r="U44" s="43"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="62" t="s">
-        <v>31</v>
-      </c>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="38"/>
+    </row>
+    <row r="49" spans="7:18">
+      <c r="G49" s="10"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="38"/>
+    </row>
+    <row r="50" spans="7:18">
+      <c r="G50" s="10"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="38"/>
+    </row>
+    <row r="51" spans="7:18">
+      <c r="G51" s="10"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="38"/>
+    </row>
+    <row r="52" spans="7:18">
+      <c r="G52" s="10"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="38"/>
+    </row>
+    <row r="53" spans="7:18">
+      <c r="G53" s="110">
+        <v>42552</v>
+      </c>
+      <c r="H53" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+  <mergeCells count="44">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AA15"/>
     <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="T5:W5"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:R5"/>
@@ -7162,21 +7602,35 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
     <hyperlink ref="H10" r:id="rId2" xr:uid="{64917365-2EAB-45F1-BFD3-E1E4F5A494BB}"/>
     <hyperlink ref="C29:D29" r:id="rId3" display="Link" xr:uid="{11C3F337-5FA5-4654-84A9-81E0FD7B340B}"/>
-    <hyperlink ref="R29" r:id="rId4" location="Boeing_Embraer_-_Defense" xr:uid="{CC492105-8696-4FC6-849B-A673602C4CB8}"/>
+    <hyperlink ref="R35" r:id="rId4" location="Boeing_Embraer_-_Defense" xr:uid="{CC492105-8696-4FC6-849B-A673602C4CB8}"/>
     <hyperlink ref="H14" r:id="rId5" xr:uid="{E8520AE3-EE90-4F9C-82B7-9DC79CF177B0}"/>
     <hyperlink ref="H17" r:id="rId6" display="L3Harris &amp; Embraer to develop new agile tanker varient of KC-390 to support USAF Operational Imperatives" xr:uid="{51AAA14D-A039-4171-BC04-5AAB9894A308}"/>
     <hyperlink ref="R20" r:id="rId7" display="Link" xr:uid="{AE9B4E32-1957-4A54-8E54-10A62C8F25C4}"/>
     <hyperlink ref="H23" r:id="rId8" display="Reuters report $ERJ expected to select engine in Q4 for potential turboprop launch in 2023" xr:uid="{3D245668-921A-4888-B384-DE0FC15EB559}"/>
-    <hyperlink ref="X44" r:id="rId9" xr:uid="{F9FF1395-9489-4EC9-819E-D412DF0569AE}"/>
+    <hyperlink ref="W44" r:id="rId9" xr:uid="{F9FF1395-9489-4EC9-819E-D412DF0569AE}"/>
+    <hyperlink ref="Z13:AA13" r:id="rId10" display="A220-300" xr:uid="{76602C0E-D63D-8640-97A0-C7DAD332148A}"/>
+    <hyperlink ref="AB13:AC13" r:id="rId11" display="E195-E2" xr:uid="{A43FCCB3-64E0-D54D-A779-4F0C857321F6}"/>
+    <hyperlink ref="H27" r:id="rId12" xr:uid="{3143C16C-C4FE-C24A-A852-CE844A7EAA94}"/>
+    <hyperlink ref="H40" r:id="rId13" display="Airbus confirmed there are no plans to certify the A220-300 for LCY steep approach operations" xr:uid="{4BC4DC42-4422-D843-BFC6-DF67D759C7CD}"/>
+    <hyperlink ref="D40" r:id="rId14" xr:uid="{127B302A-DD6D-6242-BA6C-25C1ED72AA7F}"/>
+    <hyperlink ref="D39" r:id="rId15" xr:uid="{5B8750C0-94FB-994C-A836-E02A7A36CFF2}"/>
+    <hyperlink ref="R31" r:id="rId16" xr:uid="{A3EFD621-318B-6143-AEF4-A74D7A31D835}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -7185,10 +7639,10 @@
   <dimension ref="B1:AM141"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AB44" sqref="AB44"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -9788,7 +10242,7 @@
         <v>0.2289724212385906</v>
       </c>
       <c r="X36" s="25">
-        <f t="shared" ref="X36:Z36" si="48">X11/X9</f>
+        <f t="shared" ref="X36:Y36" si="48">X11/X9</f>
         <v>0.19892239646160034</v>
       </c>
       <c r="Y36" s="25">
@@ -9889,7 +10343,7 @@
         <v>6.5462753950338556E-2</v>
       </c>
       <c r="X37" s="25">
-        <f t="shared" ref="X37:Z37" si="59">X18/X9</f>
+        <f t="shared" ref="X37:Y37" si="59">X18/X9</f>
         <v>3.3132287897064766E-2</v>
       </c>
       <c r="Y37" s="25">
@@ -9990,7 +10444,7 @@
         <v>7.2725488271665487E-2</v>
       </c>
       <c r="X38" s="25">
-        <f t="shared" ref="X38:Z38" si="70">X23/X9</f>
+        <f t="shared" ref="X38:Y38" si="70">X23/X9</f>
         <v>2.6988339364696447E-2</v>
       </c>
       <c r="Y38" s="25">
@@ -10091,7 +10545,7 @@
         <v>-0.49696969696969745</v>
       </c>
       <c r="X39" s="25">
-        <f t="shared" ref="X39:Z39" si="80">X22/X21</f>
+        <f t="shared" ref="X39:Y39" si="80">X22/X21</f>
         <v>-5.4682589566310433E-2</v>
       </c>
       <c r="Y39" s="25">
@@ -10197,7 +10651,7 @@
         <v>32</v>
       </c>
       <c r="X43" s="2">
-        <f t="shared" ref="X43:Z43" si="90">X44+X52</f>
+        <f t="shared" ref="X43:Y43" si="90">X44+X52</f>
         <v>225</v>
       </c>
       <c r="Y43" s="2">
@@ -10298,7 +10752,7 @@
         <v>11</v>
       </c>
       <c r="X44" s="40">
-        <f t="shared" ref="X44:Z44" si="96">SUM(X45:X50)</f>
+        <f t="shared" ref="X44:Y44" si="96">SUM(X45:X50)</f>
         <v>108</v>
       </c>
       <c r="Y44" s="40">
@@ -10864,7 +11318,7 @@
         <v>21</v>
       </c>
       <c r="X52" s="40">
-        <f t="shared" ref="X52:Z52" si="104">X53+X54+X55</f>
+        <f t="shared" ref="X52:Y52" si="104">X53+X54+X55</f>
         <v>117</v>
       </c>
       <c r="Y52" s="40">
@@ -13697,7 +14151,7 @@
         <v>12.3</v>
       </c>
       <c r="X90" s="27">
-        <f t="shared" ref="X90:Y91" si="126">G90</f>
+        <f t="shared" ref="X90:X91" si="126">G90</f>
         <v>0</v>
       </c>
       <c r="Y90" s="27">
@@ -14278,7 +14732,7 @@
         <v>68.400000000000006</v>
       </c>
       <c r="AA97" s="27">
-        <f t="shared" ref="Z97:AA115" si="134">J97</f>
+        <f t="shared" ref="AA97:AA115" si="134">J97</f>
         <v>63.8</v>
       </c>
       <c r="AB97" s="27">
@@ -15025,7 +15479,7 @@
         <v>3809.6</v>
       </c>
       <c r="Z106" s="26">
-        <f>F106</f>
+        <f t="shared" ref="Z106:Z115" si="139">F106</f>
         <v>3468.4</v>
       </c>
       <c r="AA106" s="26">
@@ -15106,7 +15560,7 @@
         <v>346.5</v>
       </c>
       <c r="Z107" s="26">
-        <f>F107</f>
+        <f t="shared" si="139"/>
         <v>17.399999999999999</v>
       </c>
       <c r="AA107" s="26">
@@ -15187,7 +15641,7 @@
         <v>21.5</v>
       </c>
       <c r="Z108" s="27">
-        <f>F108</f>
+        <f t="shared" si="139"/>
         <v>28.6</v>
       </c>
       <c r="AA108" s="27">
@@ -15195,11 +15649,11 @@
         <v>18</v>
       </c>
       <c r="AB108" s="27">
-        <f t="shared" ref="AB108:AB115" si="139">N108</f>
+        <f t="shared" ref="AB108:AB115" si="140">N108</f>
         <v>42.3</v>
       </c>
       <c r="AC108" s="27">
-        <f t="shared" ref="AC108:AC115" si="140">R108</f>
+        <f t="shared" ref="AC108:AC115" si="141">R108</f>
         <v>57.6</v>
       </c>
     </row>
@@ -15268,7 +15722,7 @@
         <v>104.1</v>
       </c>
       <c r="Z109" s="27">
-        <f>F109</f>
+        <f t="shared" si="139"/>
         <v>198.2</v>
       </c>
       <c r="AA109" s="27">
@@ -15276,11 +15730,11 @@
         <v>257.8</v>
       </c>
       <c r="AB109" s="27">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>262.39999999999998</v>
       </c>
       <c r="AC109" s="27">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>308.7</v>
       </c>
     </row>
@@ -15349,7 +15803,7 @@
         <v>0.1</v>
       </c>
       <c r="Z110" s="27">
-        <f>F110</f>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="AA110" s="27">
@@ -15357,11 +15811,11 @@
         <v>0</v>
       </c>
       <c r="AB110" s="27">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="AC110" s="27">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>3</v>
       </c>
     </row>
@@ -15430,7 +15884,7 @@
         <v>70.2</v>
       </c>
       <c r="Z111" s="27">
-        <f>F111</f>
+        <f t="shared" si="139"/>
         <v>58.2</v>
       </c>
       <c r="AA111" s="27">
@@ -15438,11 +15892,11 @@
         <v>13.4</v>
       </c>
       <c r="AB111" s="27">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>11.8</v>
       </c>
       <c r="AC111" s="27">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>10</v>
       </c>
     </row>
@@ -15511,7 +15965,7 @@
         <v>251.3</v>
       </c>
       <c r="Z112" s="27">
-        <f>F112</f>
+        <f t="shared" si="139"/>
         <v>254</v>
       </c>
       <c r="AA112" s="27">
@@ -15519,11 +15973,11 @@
         <v>301</v>
       </c>
       <c r="AB112" s="27">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>474.7</v>
       </c>
       <c r="AC112" s="27">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>505.8</v>
       </c>
     </row>
@@ -15592,7 +16046,7 @@
         <v>134.6</v>
       </c>
       <c r="Z113" s="27">
-        <f>F113</f>
+        <f t="shared" si="139"/>
         <v>101.1</v>
       </c>
       <c r="AA113" s="27">
@@ -15600,11 +16054,11 @@
         <v>109.6</v>
       </c>
       <c r="AB113" s="27">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>82.6</v>
       </c>
       <c r="AC113" s="27">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>2.9</v>
       </c>
     </row>
@@ -15673,7 +16127,7 @@
         <v>97.5</v>
       </c>
       <c r="Z114" s="27">
-        <f>F114</f>
+        <f t="shared" si="139"/>
         <v>73.2</v>
       </c>
       <c r="AA114" s="27">
@@ -15681,11 +16135,11 @@
         <v>63.7</v>
       </c>
       <c r="AB114" s="27">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>57.3</v>
       </c>
       <c r="AC114" s="27">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>37.700000000000003</v>
       </c>
     </row>
@@ -15754,7 +16208,7 @@
         <v>136.19999999999999</v>
       </c>
       <c r="Z115" s="27">
-        <f>F115</f>
+        <f t="shared" si="139"/>
         <v>125.5</v>
       </c>
       <c r="AA115" s="27">
@@ -15762,11 +16216,11 @@
         <v>125.2</v>
       </c>
       <c r="AB115" s="27">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>114.2</v>
       </c>
       <c r="AC115" s="27">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>120.5</v>
       </c>
     </row>
@@ -15775,91 +16229,91 @@
         <v>118</v>
       </c>
       <c r="C116" s="27">
-        <f t="shared" ref="C116:T116" si="141">SUM(C105:C115)+C104</f>
+        <f t="shared" ref="C116:T116" si="142">SUM(C105:C115)+C104</f>
         <v>7811.2000000000007</v>
       </c>
       <c r="D116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7821</v>
       </c>
       <c r="E116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7824.7999999999993</v>
       </c>
       <c r="F116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7353.2</v>
       </c>
       <c r="G116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7293.7999999999993</v>
       </c>
       <c r="H116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7363.3</v>
       </c>
       <c r="I116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7260.1999999999989</v>
       </c>
       <c r="J116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>6957.9</v>
       </c>
       <c r="K116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7571.6999999999989</v>
       </c>
       <c r="L116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7345.1</v>
       </c>
       <c r="M116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7574.5</v>
       </c>
       <c r="N116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7608.5</v>
       </c>
       <c r="O116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7513.7</v>
       </c>
       <c r="P116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7455.6400000000012</v>
       </c>
       <c r="Q116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7574.5</v>
       </c>
       <c r="R116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7379.9999999999991</v>
       </c>
       <c r="S116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7111.5000000000009</v>
       </c>
       <c r="T116" s="27">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>6826.0999999999995</v>
       </c>
       <c r="X116" s="27">
-        <f t="shared" ref="X116:Y116" si="142">SUM(X105:X115)+X104</f>
+        <f t="shared" ref="X116:Y116" si="143">SUM(X105:X115)+X104</f>
         <v>7731.9000000000005</v>
       </c>
       <c r="Y116" s="27">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>7763.7000000000007</v>
       </c>
       <c r="Z116" s="27">
-        <f t="shared" ref="Z116:AA116" si="143">SUM(Z105:Z115)+Z104</f>
+        <f t="shared" ref="Z116:AA116" si="144">SUM(Z105:Z115)+Z104</f>
         <v>7353.2</v>
       </c>
       <c r="AA116" s="27">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>6957.9</v>
       </c>
       <c r="AB116" s="27">
@@ -15951,7 +16405,7 @@
         <v>3940.1</v>
       </c>
       <c r="AA118" s="27">
-        <f t="shared" ref="AA118" si="144">J118</f>
+        <f t="shared" ref="AA118" si="145">J118</f>
         <v>3614.6</v>
       </c>
       <c r="AB118" s="27">
@@ -15968,83 +16422,83 @@
         <v>120</v>
       </c>
       <c r="C119" s="27">
-        <f t="shared" ref="C119:D119" si="145">C118+C116</f>
+        <f t="shared" ref="C119:D119" si="146">C118+C116</f>
         <v>11995.1</v>
       </c>
       <c r="D119" s="27">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>11811.1</v>
       </c>
       <c r="E119" s="27">
-        <f t="shared" ref="E119:K119" si="146">E118+E116</f>
+        <f t="shared" ref="E119:K119" si="147">E118+E116</f>
         <v>11794.5</v>
       </c>
       <c r="F119" s="27">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>11293.3</v>
       </c>
       <c r="G119" s="27">
-        <f t="shared" ref="G119" si="147">G118+G116</f>
+        <f t="shared" ref="G119" si="148">G118+G116</f>
         <v>11185.5</v>
       </c>
       <c r="H119" s="27">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>11273.4</v>
       </c>
       <c r="I119" s="27">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>11062.5</v>
       </c>
       <c r="J119" s="27">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>10572.5</v>
       </c>
       <c r="K119" s="27">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>10856.099999999999</v>
       </c>
       <c r="L119" s="27">
-        <f t="shared" ref="L119:T119" si="148">L118+L116</f>
+        <f t="shared" ref="L119:T119" si="149">L118+L116</f>
         <v>10325.400000000001</v>
       </c>
       <c r="M119" s="27">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>10382.700000000001</v>
       </c>
       <c r="N119" s="27">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>10516</v>
       </c>
       <c r="O119" s="27">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>10308.1</v>
       </c>
       <c r="P119" s="27">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>10341.34</v>
       </c>
       <c r="Q119" s="27">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>10382.700000000001</v>
       </c>
       <c r="R119" s="27">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>10155</v>
       </c>
       <c r="S119" s="27">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>9868.4000000000015</v>
       </c>
       <c r="T119" s="27">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>9698.7999999999993</v>
       </c>
       <c r="X119" s="27">
-        <f t="shared" ref="X119:Y119" si="149">X118+X116</f>
+        <f t="shared" ref="X119:Y119" si="150">X118+X116</f>
         <v>11673.1</v>
       </c>
       <c r="Y119" s="27">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>11945.7</v>
       </c>
       <c r="Z119" s="27">
@@ -16082,67 +16536,67 @@
         <v>121</v>
       </c>
       <c r="C121" s="27">
-        <f t="shared" ref="C121:D121" si="150">C87-C116</f>
+        <f t="shared" ref="C121:D121" si="151">C87-C116</f>
         <v>4183.8999999999978</v>
       </c>
       <c r="D121" s="27">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>3990.0999999999985</v>
       </c>
       <c r="E121" s="27">
-        <f t="shared" ref="E121" si="151">E87-E116</f>
+        <f t="shared" ref="E121" si="152">E87-E116</f>
         <v>3969.7000000000007</v>
       </c>
       <c r="F121" s="27">
-        <f t="shared" ref="F121:G121" si="152">F87-F116</f>
+        <f t="shared" ref="F121:G121" si="153">F87-F116</f>
         <v>3940.2</v>
       </c>
       <c r="G121" s="27">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>3891.8000000000011</v>
       </c>
       <c r="H121" s="27">
-        <f t="shared" ref="H121:I121" si="153">H87-H116</f>
+        <f t="shared" ref="H121:I121" si="154">H87-H116</f>
         <v>3910.0999999999995</v>
       </c>
       <c r="I121" s="27">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>3802.3000000000011</v>
       </c>
       <c r="J121" s="27">
-        <f t="shared" ref="J121:K121" si="154">J87-J116</f>
+        <f t="shared" ref="J121:K121" si="155">J87-J116</f>
         <v>3614.6000000000004</v>
       </c>
       <c r="K121" s="27">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>3284.3999999999996</v>
       </c>
       <c r="L121" s="27">
-        <f t="shared" ref="L121:O121" si="155">L87-L116</f>
+        <f t="shared" ref="L121:O121" si="156">L87-L116</f>
         <v>2980.3000000000011</v>
       </c>
       <c r="M121" s="27">
-        <f t="shared" ref="M121" si="156">M87-M116</f>
+        <f t="shared" ref="M121" si="157">M87-M116</f>
         <v>2808.2000000000007</v>
       </c>
       <c r="N121" s="27">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>2907.5</v>
       </c>
       <c r="O121" s="27">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>2794.4000000000005</v>
       </c>
       <c r="P121" s="27">
-        <f t="shared" ref="P121:Q121" si="157">P87-P116</f>
+        <f t="shared" ref="P121:Q121" si="158">P87-P116</f>
         <v>2885.659999999998</v>
       </c>
       <c r="Q121" s="27">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2808.2000000000007</v>
       </c>
       <c r="R121" s="27">
-        <f t="shared" ref="R121" si="158">R87-R116</f>
+        <f t="shared" ref="R121" si="159">R87-R116</f>
         <v>2775.0000000000009</v>
       </c>
       <c r="S121" s="27">
@@ -16154,23 +16608,23 @@
         <v>2872.7</v>
       </c>
       <c r="X121" s="27">
-        <f t="shared" ref="X121:Z121" si="159">X87-X116</f>
+        <f t="shared" ref="X121:Z121" si="160">X87-X116</f>
         <v>3932.699999999998</v>
       </c>
       <c r="Y121" s="27">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>4172.5</v>
       </c>
       <c r="Z121" s="27">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>3940.2</v>
       </c>
       <c r="AA121" s="27">
-        <f t="shared" ref="AA121:AB121" si="160">AA87-AA116</f>
+        <f t="shared" ref="AA121:AB121" si="161">AA87-AA116</f>
         <v>3614.6000000000004</v>
       </c>
       <c r="AB121" s="27">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>2907.5</v>
       </c>
       <c r="AC121" s="27">
@@ -16183,67 +16637,67 @@
         <v>122</v>
       </c>
       <c r="C122" s="3">
-        <f t="shared" ref="C122:D122" si="161">C121/C27</f>
+        <f t="shared" ref="C122:D122" si="162">C121/C27</f>
         <v>5.705577526251191</v>
       </c>
       <c r="D122" s="3">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>5.4398091342876596</v>
       </c>
       <c r="E122" s="3">
-        <f t="shared" ref="E122" si="162">E121/E27</f>
+        <f t="shared" ref="E122" si="163">E121/E27</f>
         <v>5.4097846824747897</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" ref="F122:G122" si="163">F121/F27</f>
+        <f t="shared" ref="F122:G122" si="164">F121/F27</f>
         <v>5.3673886391499792</v>
       </c>
       <c r="G122" s="3">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>5.2899279597662101</v>
       </c>
       <c r="H122" s="3">
-        <f t="shared" ref="H122:I122" si="164">H121/H27</f>
+        <f t="shared" ref="H122:I122" si="165">H121/H27</f>
         <v>5.3140799130198415</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>5.1675727099755386</v>
       </c>
       <c r="J122" s="3">
-        <f t="shared" ref="J122:K122" si="165">J121/J27</f>
+        <f t="shared" ref="J122:K122" si="166">J121/J27</f>
         <v>4.911808669656204</v>
       </c>
       <c r="K122" s="3">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>4.4618937644341798</v>
       </c>
       <c r="L122" s="3">
-        <f t="shared" ref="L122:M122" si="166">L121/L27</f>
+        <f t="shared" ref="L122:M122" si="167">L121/L27</f>
         <v>4.0482205922303738</v>
       </c>
       <c r="M122" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>3.8144525944036953</v>
       </c>
       <c r="N122" s="3">
-        <f t="shared" ref="N122:Q122" si="167">N121/N27</f>
+        <f t="shared" ref="N122:Q122" si="168">N121/N27</f>
         <v>3.9493344199945666</v>
       </c>
       <c r="O122" s="3">
-        <f t="shared" ref="O122" si="168">O121/O27</f>
+        <f t="shared" ref="O122" si="169">O121/O27</f>
         <v>3.8019047619047628</v>
       </c>
       <c r="P122" s="3">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>3.9271366358192683</v>
       </c>
       <c r="Q122" s="3">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>3.821720195971694</v>
       </c>
       <c r="R122" s="3">
-        <f t="shared" ref="R122" si="169">R121/R27</f>
+        <f t="shared" ref="R122" si="170">R121/R27</f>
         <v>3.7770518579011854</v>
       </c>
       <c r="S122" s="3">
@@ -16255,23 +16709,23 @@
         <v>3.9105635720119789</v>
       </c>
       <c r="X122" s="3">
-        <f t="shared" ref="X122:Z122" si="170">X121/X27</f>
+        <f t="shared" ref="X122:Z122" si="171">X121/X27</f>
         <v>5.3462479608482845</v>
       </c>
       <c r="Y122" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>5.6822824458668126</v>
       </c>
       <c r="Z122" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>5.3673886391499792</v>
       </c>
       <c r="AA122" s="3">
-        <f t="shared" ref="AA122:AB122" si="171">AA121/AA27</f>
+        <f t="shared" ref="AA122:AB122" si="172">AA121/AA27</f>
         <v>4.911808669656204</v>
       </c>
       <c r="AB122" s="3">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>3.9493344199945666</v>
       </c>
       <c r="AC122" s="3">
@@ -16292,71 +16746,71 @@
         <v>6</v>
       </c>
       <c r="C124" s="52">
-        <f t="shared" ref="C124:D124" si="172">C61+C62+C74+C76</f>
+        <f t="shared" ref="C124:D124" si="173">C61+C62+C74+C76</f>
         <v>3435.7999999999997</v>
       </c>
       <c r="D124" s="52">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>3346.5</v>
       </c>
       <c r="E124" s="52">
-        <f t="shared" ref="E124" si="173">E61+E62+E74+E76</f>
+        <f t="shared" ref="E124" si="174">E61+E62+E74+E76</f>
         <v>3147.6</v>
       </c>
       <c r="F124" s="52">
-        <f t="shared" ref="F124:G124" si="174">F61+F62+F74+F76</f>
+        <f t="shared" ref="F124:G124" si="175">F61+F62+F74+F76</f>
         <v>3211.9</v>
       </c>
       <c r="G124" s="52">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>2485.4999999999995</v>
       </c>
       <c r="H124" s="52">
-        <f t="shared" ref="H124:I124" si="175">H61+H62+H74+H76</f>
+        <f t="shared" ref="H124:I124" si="176">H61+H62+H74+H76</f>
         <v>2480.8999999999996</v>
       </c>
       <c r="I124" s="52">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>2177.2000000000003</v>
       </c>
       <c r="J124" s="52">
-        <f t="shared" ref="J124:K124" si="176">J61+J62+J74+J76</f>
+        <f t="shared" ref="J124:K124" si="177">J61+J62+J74+J76</f>
         <v>2780.6</v>
       </c>
       <c r="K124" s="52">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>2501.1</v>
       </c>
       <c r="L124" s="52">
-        <f t="shared" ref="L124:O124" si="177">L61+L62+L74+L76</f>
+        <f t="shared" ref="L124:O124" si="178">L61+L62+L74+L76</f>
         <v>1998.9</v>
       </c>
       <c r="M124" s="52">
-        <f t="shared" ref="M124" si="178">M61+M62+M74+M76</f>
+        <f t="shared" ref="M124" si="179">M61+M62+M74+M76</f>
         <v>2503.6999999999998</v>
       </c>
       <c r="N124" s="52">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>2753.6</v>
       </c>
       <c r="O124" s="52">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>2463.4</v>
       </c>
       <c r="P124" s="52">
-        <f t="shared" ref="P124:Q124" si="179">P61+P62+P74+P76</f>
+        <f t="shared" ref="P124:Q124" si="180">P61+P62+P74+P76</f>
         <v>2514.3000000000002</v>
       </c>
       <c r="Q124" s="52">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>2503.6999999999998</v>
       </c>
       <c r="R124" s="52">
-        <f t="shared" ref="R124" si="180">R61+R62+R74+R76</f>
+        <f t="shared" ref="R124" si="181">R61+R62+R74+R76</f>
         <v>2634.7</v>
       </c>
       <c r="S124" s="52">
-        <f t="shared" ref="S124" si="181">S61+S62+S74+S76</f>
+        <f t="shared" ref="S124" si="182">S61+S62+S74+S76</f>
         <v>2104.1999999999998</v>
       </c>
       <c r="T124" s="52">
@@ -16364,23 +16818,23 @@
         <v>1968.2</v>
       </c>
       <c r="X124" s="52">
-        <f t="shared" ref="X124:Z124" si="182">X61+X62+X74+X76</f>
+        <f t="shared" ref="X124:Z124" si="183">X61+X62+X74+X76</f>
         <v>3196.2999999999997</v>
       </c>
       <c r="Y124" s="52">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>3892.5</v>
       </c>
       <c r="Z124" s="52">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>3211.9</v>
       </c>
       <c r="AA124" s="52">
-        <f t="shared" ref="AA124:AB124" si="183">AA61+AA62+AA74+AA76</f>
+        <f t="shared" ref="AA124:AB124" si="184">AA61+AA62+AA74+AA76</f>
         <v>2780.6</v>
       </c>
       <c r="AB124" s="52">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>2753.6</v>
       </c>
       <c r="AC124" s="52">
@@ -16393,39 +16847,39 @@
         <v>7</v>
       </c>
       <c r="C125" s="52">
-        <f t="shared" ref="C125:D125" si="184">C92+C96+C106+C93+C107</f>
+        <f t="shared" ref="C125:D125" si="185">C92+C96+C106+C93+C107</f>
         <v>4559.1000000000004</v>
       </c>
       <c r="D125" s="52">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>4452.8</v>
       </c>
       <c r="E125" s="52">
-        <f t="shared" ref="E125" si="185">E92+E96+E106+E93+E107</f>
+        <f t="shared" ref="E125" si="186">E92+E96+E106+E93+E107</f>
         <v>4399.8</v>
       </c>
       <c r="F125" s="52">
-        <f t="shared" ref="F125:G125" si="186">F92+F96+F106+F93+F107</f>
+        <f t="shared" ref="F125:G125" si="187">F92+F96+F106+F93+F107</f>
         <v>3997.2000000000003</v>
       </c>
       <c r="G125" s="52">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>3928.3</v>
       </c>
       <c r="H125" s="52">
-        <f t="shared" ref="H125:I125" si="187">H92+H96+H106+H93+H107</f>
+        <f t="shared" ref="H125:I125" si="188">H92+H96+H106+H93+H107</f>
         <v>3879.5</v>
       </c>
       <c r="I125" s="52">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>3811.6</v>
       </c>
       <c r="J125" s="52">
-        <f t="shared" ref="J125:K125" si="188">J92+J96+J106+J93+J107</f>
+        <f t="shared" ref="J125:K125" si="189">J92+J96+J106+J93+J107</f>
         <v>3414.4</v>
       </c>
       <c r="K125" s="52">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>3862.2</v>
       </c>
       <c r="L125" s="52">
@@ -16433,7 +16887,7 @@
         <v>3826.3999999999996</v>
       </c>
       <c r="M125" s="52">
-        <f t="shared" ref="M125" si="189">M92+M96+M106+M93+M107</f>
+        <f t="shared" ref="M125" si="190">M92+M96+M106+M93+M107</f>
         <v>4310.1000000000004</v>
       </c>
       <c r="N125" s="52">
@@ -16441,51 +16895,51 @@
         <v>4449.2</v>
       </c>
       <c r="O125" s="52">
-        <f t="shared" ref="O125" si="190">O92+O96+O106+O93+O107</f>
+        <f t="shared" ref="O125" si="191">O92+O96+O106+O93+O107</f>
         <v>4380</v>
       </c>
       <c r="P125" s="52">
-        <f t="shared" ref="P125:T125" si="191">P92+P96+P106+P93+P107</f>
+        <f t="shared" ref="P125:T125" si="192">P92+P96+P106+P93+P107</f>
         <v>4334.0999999999995</v>
       </c>
       <c r="Q125" s="52">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>4310.1000000000004</v>
       </c>
       <c r="R125" s="52">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>4029.7999999999997</v>
       </c>
       <c r="S125" s="52">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>3559</v>
       </c>
       <c r="T125" s="52">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>3173.8999999999996</v>
       </c>
       <c r="X125" s="52">
-        <f t="shared" ref="X125:Y125" si="192">X92+X96+X106+X93+X107</f>
+        <f t="shared" ref="X125:Y125" si="193">X92+X96+X106+X93+X107</f>
         <v>4142.2000000000007</v>
       </c>
       <c r="Y125" s="52">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>4571.4000000000005</v>
       </c>
       <c r="Z125" s="52">
-        <f t="shared" ref="Z125:AA125" si="193">Z92+Z96+Z106+Z93+Z107</f>
+        <f t="shared" ref="Z125:AA125" si="194">Z92+Z96+Z106+Z93+Z107</f>
         <v>3997.2000000000003</v>
       </c>
       <c r="AA125" s="52">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>3414.4</v>
       </c>
       <c r="AB125" s="52">
-        <f t="shared" ref="AB125:AC125" si="194">AB92+AB96+AB106+AB93+AB107</f>
+        <f t="shared" ref="AB125:AC125" si="195">AB92+AB96+AB106+AB93+AB107</f>
         <v>4449.2</v>
       </c>
       <c r="AC125" s="52">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>4029.7999999999997</v>
       </c>
     </row>
@@ -16494,67 +16948,67 @@
         <v>8</v>
       </c>
       <c r="C126" s="27">
-        <f t="shared" ref="C126:D126" si="195">C124-C125</f>
+        <f t="shared" ref="C126:D126" si="196">C124-C125</f>
         <v>-1123.3000000000006</v>
       </c>
       <c r="D126" s="27">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>-1106.3000000000002</v>
       </c>
       <c r="E126" s="27">
-        <f t="shared" ref="E126" si="196">E124-E125</f>
+        <f t="shared" ref="E126" si="197">E124-E125</f>
         <v>-1252.2000000000003</v>
       </c>
       <c r="F126" s="27">
-        <f t="shared" ref="F126:G126" si="197">F124-F125</f>
+        <f t="shared" ref="F126:G126" si="198">F124-F125</f>
         <v>-785.30000000000018</v>
       </c>
       <c r="G126" s="27">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>-1442.8000000000006</v>
       </c>
       <c r="H126" s="27">
-        <f t="shared" ref="H126:I126" si="198">H124-H125</f>
+        <f t="shared" ref="H126:I126" si="199">H124-H125</f>
         <v>-1398.6000000000004</v>
       </c>
       <c r="I126" s="27">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>-1634.3999999999996</v>
       </c>
       <c r="J126" s="27">
-        <f t="shared" ref="J126:K126" si="199">J124-J125</f>
+        <f t="shared" ref="J126:K126" si="200">J124-J125</f>
         <v>-633.80000000000018</v>
       </c>
       <c r="K126" s="27">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>-1361.1</v>
       </c>
       <c r="L126" s="27">
-        <f t="shared" ref="L126:M126" si="200">L124-L125</f>
+        <f t="shared" ref="L126:M126" si="201">L124-L125</f>
         <v>-1827.4999999999995</v>
       </c>
       <c r="M126" s="27">
-        <f t="shared" si="200"/>
-        <v>-1806.4000000000005</v>
-      </c>
-      <c r="N126" s="27">
-        <f t="shared" ref="N126:R126" si="201">N124-N125</f>
-        <v>-1695.6</v>
-      </c>
-      <c r="O126" s="27">
-        <f t="shared" ref="O126" si="202">O124-O125</f>
-        <v>-1916.6</v>
-      </c>
-      <c r="P126" s="27">
-        <f t="shared" si="201"/>
-        <v>-1819.7999999999993</v>
-      </c>
-      <c r="Q126" s="27">
         <f t="shared" si="201"/>
         <v>-1806.4000000000005</v>
       </c>
+      <c r="N126" s="27">
+        <f t="shared" ref="N126:R126" si="202">N124-N125</f>
+        <v>-1695.6</v>
+      </c>
+      <c r="O126" s="27">
+        <f t="shared" ref="O126" si="203">O124-O125</f>
+        <v>-1916.6</v>
+      </c>
+      <c r="P126" s="27">
+        <f t="shared" si="202"/>
+        <v>-1819.7999999999993</v>
+      </c>
+      <c r="Q126" s="27">
+        <f t="shared" si="202"/>
+        <v>-1806.4000000000005</v>
+      </c>
       <c r="R126" s="27">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>-1395.1</v>
       </c>
       <c r="S126" s="27">
@@ -16566,23 +17020,23 @@
         <v>-1205.6999999999996</v>
       </c>
       <c r="X126" s="27">
-        <f t="shared" ref="X126:Z126" si="203">X124-X125</f>
+        <f t="shared" ref="X126:Z126" si="204">X124-X125</f>
         <v>-945.900000000001</v>
       </c>
       <c r="Y126" s="27">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>-678.90000000000055</v>
       </c>
       <c r="Z126" s="27">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>-785.30000000000018</v>
       </c>
       <c r="AA126" s="27">
-        <f t="shared" ref="AA126:AB126" si="204">AA124-AA125</f>
+        <f t="shared" ref="AA126:AB126" si="205">AA124-AA125</f>
         <v>-633.80000000000018</v>
       </c>
       <c r="AB126" s="27">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>-1695.6</v>
       </c>
       <c r="AC126" s="27">
@@ -16607,55 +17061,55 @@
         <v>186</v>
       </c>
       <c r="G128" s="34">
-        <f t="shared" ref="G128" si="205">G68/C68-1</f>
+        <f t="shared" ref="G128" si="206">G68/C68-1</f>
         <v>0.20714400903080143</v>
       </c>
       <c r="H128" s="34">
-        <f t="shared" ref="H128" si="206">H68/D68-1</f>
+        <f t="shared" ref="H128" si="207">H68/D68-1</f>
         <v>0.18512820512820527</v>
       </c>
       <c r="I128" s="34">
-        <f t="shared" ref="I128" si="207">I68/E68-1</f>
+        <f t="shared" ref="I128" si="208">I68/E68-1</f>
         <v>0.10459366489895361</v>
       </c>
       <c r="J128" s="34">
-        <f t="shared" ref="J128:L128" si="208">J68/F68-1</f>
+        <f t="shared" ref="J128:L128" si="209">J68/F68-1</f>
         <v>-4.9062624650977216E-2</v>
       </c>
       <c r="K128" s="34">
-        <f t="shared" ref="K128" si="209">K68/G68-1</f>
+        <f t="shared" ref="K128" si="210">K68/G68-1</f>
         <v>-2.3011154899472142E-2</v>
       </c>
       <c r="L128" s="34">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>4.1440601804080712E-2</v>
       </c>
       <c r="M128" s="34">
-        <f t="shared" ref="M128" si="210">M68/I68-1</f>
+        <f t="shared" ref="M128" si="211">M68/I68-1</f>
         <v>-0.25227884646576049</v>
       </c>
       <c r="N128" s="34">
-        <f t="shared" ref="N128" si="211">N68/J68-1</f>
+        <f t="shared" ref="N128" si="212">N68/J68-1</f>
         <v>2.2609060402684511E-2</v>
       </c>
       <c r="O128" s="34">
-        <f t="shared" ref="O128" si="212">O68/K68-1</f>
+        <f t="shared" ref="O128" si="213">O68/K68-1</f>
         <v>-0.15109561412504702</v>
       </c>
       <c r="P128" s="34">
-        <f t="shared" ref="P128:S128" si="213">P68/L68-1</f>
+        <f t="shared" ref="P128:S128" si="214">P68/L68-1</f>
         <v>-0.26009971874200977</v>
       </c>
       <c r="Q128" s="34">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="R128" s="34">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>-0.18536445301283899</v>
       </c>
       <c r="S128" s="34">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>-0.10490073692264323</v>
       </c>
       <c r="T128" s="34">
@@ -16666,19 +17120,19 @@
         <v>186</v>
       </c>
       <c r="Y128" s="34">
-        <f t="shared" ref="Y128" si="214">Y68/X68-1</f>
+        <f t="shared" ref="Y128" si="215">Y68/X68-1</f>
         <v>-0.13928056401217759</v>
       </c>
       <c r="Z128" s="34">
-        <f t="shared" ref="Z128" si="215">Z68/Y68-1</f>
+        <f t="shared" ref="Z128" si="216">Z68/Y68-1</f>
         <v>0.16675198957509196</v>
       </c>
       <c r="AA128" s="34">
-        <f t="shared" ref="AA128" si="216">AA68/Z68-1</f>
+        <f t="shared" ref="AA128" si="217">AA68/Z68-1</f>
         <v>-4.9062624650977216E-2</v>
       </c>
       <c r="AB128" s="34">
-        <f t="shared" ref="AB128" si="217">AB68/AA68-1</f>
+        <f t="shared" ref="AB128" si="218">AB68/AA68-1</f>
         <v>2.2609060402684511E-2</v>
       </c>
       <c r="AC128" s="34">
@@ -16694,55 +17148,55 @@
         <v>186</v>
       </c>
       <c r="D129" s="25">
-        <f t="shared" ref="D129" si="218">D68/C68-1</f>
+        <f t="shared" ref="D129" si="219">D68/C68-1</f>
         <v>2.2012578616352085E-2</v>
       </c>
       <c r="E129" s="25">
-        <f t="shared" ref="E129" si="219">E68/D68-1</f>
+        <f t="shared" ref="E129" si="220">E68/D68-1</f>
         <v>0.10090729783037489</v>
       </c>
       <c r="F129" s="25">
-        <f t="shared" ref="F129" si="220">F68/E68-1</f>
+        <f t="shared" ref="F129" si="221">F68/E68-1</f>
         <v>-0.10169127132005162</v>
       </c>
       <c r="G129" s="25">
-        <f t="shared" ref="G129" si="221">G68/F68-1</f>
+        <f t="shared" ref="G129" si="222">G68/F68-1</f>
         <v>0.19433585959313904</v>
       </c>
       <c r="H129" s="25">
-        <f t="shared" ref="H129" si="222">H68/G68-1</f>
+        <f t="shared" ref="H129" si="223">H68/G68-1</f>
         <v>3.3731881637835137E-3</v>
       </c>
       <c r="I129" s="25">
-        <f t="shared" ref="I129" si="223">I68/H68-1</f>
+        <f t="shared" ref="I129" si="224">I68/H68-1</f>
         <v>2.6095929168192145E-2</v>
       </c>
       <c r="J129" s="25">
-        <f t="shared" ref="J129" si="224">J68/I68-1</f>
+        <f t="shared" ref="J129" si="225">J68/I68-1</f>
         <v>-0.22665196094332885</v>
       </c>
       <c r="K129" s="25">
-        <f t="shared" ref="K129:P129" si="225">K68/J68-1</f>
+        <f t="shared" ref="K129:P129" si="226">K68/J68-1</f>
         <v>0.22705536912751678</v>
       </c>
       <c r="L129" s="25">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>6.9565514648070259E-2</v>
       </c>
       <c r="M129" s="25">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>-0.26329583226796216</v>
       </c>
       <c r="N129" s="25">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>5.7657266811279806E-2</v>
       </c>
       <c r="O129" s="25">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>1.862258501169034E-2</v>
       </c>
       <c r="P129" s="25">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>-6.7772721781500511E-2</v>
       </c>
       <c r="Q129" s="25">
@@ -16750,11 +17204,11 @@
         <v>-4.3196544276458138E-3</v>
       </c>
       <c r="R129" s="25">
-        <f t="shared" ref="R129:S129" si="226">R68/Q68-1</f>
+        <f t="shared" ref="R129:S129" si="227">R68/Q68-1</f>
         <v>-0.13839479392624732</v>
       </c>
       <c r="S129" s="25">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>0.11923464249748239</v>
       </c>
       <c r="T129" s="25">
@@ -16800,55 +17254,55 @@
         <v>186</v>
       </c>
       <c r="G131" s="25">
-        <f t="shared" ref="G131" si="227">G68/SUM(D9:G9)</f>
+        <f t="shared" ref="G131" si="228">G68/SUM(D9:G9)</f>
         <v>0.60651852452042865</v>
       </c>
       <c r="H131" s="25">
-        <f t="shared" ref="H131" si="228">H68/SUM(E9:H9)</f>
+        <f t="shared" ref="H131" si="229">H68/SUM(E9:H9)</f>
         <v>0.59386427879578574</v>
       </c>
       <c r="I131" s="25">
-        <f t="shared" ref="I131" si="229">I68/SUM(F9:I9)</f>
+        <f t="shared" ref="I131" si="230">I68/SUM(F9:I9)</f>
         <v>0.60740463430012614</v>
       </c>
       <c r="J131" s="25">
-        <f t="shared" ref="J131" si="230">J68/SUM(G9:J9)</f>
+        <f t="shared" ref="J131" si="231">J68/SUM(G9:J9)</f>
         <v>0.43642221652692853</v>
       </c>
       <c r="K131" s="25">
-        <f t="shared" ref="K131" si="231">K68/SUM(H9:K9)</f>
+        <f t="shared" ref="K131" si="232">K68/SUM(H9:K9)</f>
         <v>0.55475906013540421</v>
       </c>
       <c r="L131" s="25">
-        <f t="shared" ref="L131" si="232">L68/SUM(I9:L9)</f>
+        <f t="shared" ref="L131" si="233">L68/SUM(I9:L9)</f>
         <v>0.70602039895297419</v>
       </c>
       <c r="M131" s="25">
-        <f t="shared" ref="M131" si="233">M68/SUM(J9:M9)</f>
+        <f t="shared" ref="M131" si="234">M68/SUM(J9:M9)</f>
         <v>0.57414003537001523</v>
       </c>
       <c r="N131" s="25">
-        <f t="shared" ref="N131" si="234">N68/SUM(K9:N9)</f>
+        <f t="shared" ref="N131" si="235">N68/SUM(K9:N9)</f>
         <v>0.64646919996817898</v>
       </c>
       <c r="O131" s="25">
-        <f t="shared" ref="O131" si="235">O68/SUM(L9:O9)</f>
+        <f t="shared" ref="O131" si="236">O68/SUM(L9:O9)</f>
         <v>0.62954418698980885</v>
       </c>
       <c r="P131" s="25">
-        <f t="shared" ref="P131:S131" si="236">P68/SUM(M9:P9)</f>
+        <f t="shared" ref="P131:S131" si="237">P68/SUM(M9:P9)</f>
         <v>0.51014786575288118</v>
       </c>
       <c r="Q131" s="25">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>0.48656407658370798</v>
       </c>
       <c r="R131" s="25">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>0.47317259125131039</v>
       </c>
       <c r="S131" s="25">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>0.55698105642978857</v>
       </c>
       <c r="T131" s="25">
@@ -16856,23 +17310,23 @@
         <v>0.61685399051350787</v>
       </c>
       <c r="X131" s="25">
-        <f t="shared" ref="X131:Y131" si="237">X68/X9</f>
+        <f t="shared" ref="X131:Y131" si="238">X68/X9</f>
         <v>0.40151186168073988</v>
       </c>
       <c r="Y131" s="25">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>0.36797218844724533</v>
       </c>
       <c r="Z131" s="25">
-        <f t="shared" ref="Z131:AB131" si="238">Z68/Z9</f>
+        <f t="shared" ref="Z131:AB131" si="239">Z68/Z9</f>
         <v>0.49437005777839121</v>
       </c>
       <c r="AA131" s="25">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>0.43642221652692853</v>
       </c>
       <c r="AB131" s="25">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>0.64646919996817909</v>
       </c>
       <c r="AC131" s="25">
@@ -16966,95 +17420,95 @@
         <v>178</v>
       </c>
       <c r="C134" s="27">
-        <f t="shared" ref="C134:G134" si="239">C133*C27</f>
+        <f t="shared" ref="C134:G134" si="240">C133*C27</f>
         <v>19065.8</v>
       </c>
       <c r="D134" s="27">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>18264.149999999998</v>
       </c>
       <c r="E134" s="27">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>14375.142</v>
       </c>
       <c r="F134" s="27">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>16245.633</v>
       </c>
       <c r="G134" s="27">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>13985.657000000003</v>
       </c>
       <c r="H134" s="27">
-        <f t="shared" ref="H134:I134" si="240">H133*H27</f>
+        <f t="shared" ref="H134:I134" si="241">H133*H27</f>
         <v>14877.875999999998</v>
       </c>
       <c r="I134" s="27">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>12692.55</v>
       </c>
       <c r="J134" s="27">
-        <f t="shared" ref="J134:K134" si="241">J133*J27</f>
+        <f t="shared" ref="J134:K134" si="242">J133*J27</f>
         <v>14342.690999999999</v>
       </c>
       <c r="K134" s="27">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>5314.6419999999998</v>
       </c>
       <c r="L134" s="27">
-        <f t="shared" ref="L134" si="242">L133*L27</f>
+        <f t="shared" ref="L134" si="243">L133*L27</f>
         <v>4402.4760000000006</v>
       </c>
       <c r="M134" s="27">
-        <f t="shared" ref="M134:T134" si="243">M133*M27</f>
+        <f t="shared" ref="M134:T134" si="244">M133*M27</f>
         <v>3246.6420000000003</v>
       </c>
       <c r="N134" s="27">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>5013.5219999999999</v>
       </c>
       <c r="O134" s="27">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>7320.6</v>
       </c>
       <c r="P134" s="27">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>11124.871999999999</v>
       </c>
       <c r="Q134" s="27">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>12491.599999999999</v>
       </c>
       <c r="R134" s="27">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>10212.330000000002</v>
       </c>
       <c r="S134" s="27">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>9263.3060000000005</v>
       </c>
       <c r="T134" s="27">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>6449.7879999999996</v>
       </c>
       <c r="X134" s="27">
-        <f t="shared" ref="X134:Z134" si="244">X133*X27</f>
+        <f t="shared" ref="X134:Z134" si="245">X133*X27</f>
         <v>14160.300000000001</v>
       </c>
       <c r="Y134" s="27">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>17571.798999999999</v>
       </c>
       <c r="Z134" s="27">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>16245.633</v>
       </c>
       <c r="AA134" s="27">
-        <f t="shared" ref="AA134:AB134" si="245">AA133*AA27</f>
+        <f t="shared" ref="AA134:AB134" si="246">AA133*AA27</f>
         <v>14342.690999999999</v>
       </c>
       <c r="AB134" s="27">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>5013.5219999999999</v>
       </c>
       <c r="AC134" s="27">
@@ -17067,95 +17521,95 @@
         <v>9</v>
       </c>
       <c r="C135" s="27">
-        <f t="shared" ref="C135:G135" si="246">C134-C126</f>
+        <f t="shared" ref="C135:G135" si="247">C134-C126</f>
         <v>20189.099999999999</v>
       </c>
       <c r="D135" s="27">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>19370.449999999997</v>
       </c>
       <c r="E135" s="27">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>15627.342000000001</v>
       </c>
       <c r="F135" s="27">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>17030.933000000001</v>
       </c>
       <c r="G135" s="27">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>15428.457000000004</v>
       </c>
       <c r="H135" s="27">
-        <f t="shared" ref="H135:I135" si="247">H134-H126</f>
+        <f t="shared" ref="H135:I135" si="248">H134-H126</f>
         <v>16276.475999999999</v>
       </c>
       <c r="I135" s="27">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>14326.949999999999</v>
       </c>
       <c r="J135" s="27">
-        <f t="shared" ref="J135:K135" si="248">J134-J126</f>
+        <f t="shared" ref="J135:K135" si="249">J134-J126</f>
         <v>14976.490999999998</v>
       </c>
       <c r="K135" s="27">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6675.7420000000002</v>
       </c>
       <c r="L135" s="27">
-        <f t="shared" ref="L135" si="249">L134-L126</f>
+        <f t="shared" ref="L135" si="250">L134-L126</f>
         <v>6229.9760000000006</v>
       </c>
       <c r="M135" s="27">
-        <f t="shared" ref="M135:T135" si="250">M134-M126</f>
+        <f t="shared" ref="M135:T135" si="251">M134-M126</f>
         <v>5053.0420000000013</v>
       </c>
       <c r="N135" s="27">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>6709.1219999999994</v>
       </c>
       <c r="O135" s="27">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>9237.2000000000007</v>
       </c>
       <c r="P135" s="27">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>12944.671999999999</v>
       </c>
       <c r="Q135" s="27">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>14298</v>
       </c>
       <c r="R135" s="27">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>11607.430000000002</v>
       </c>
       <c r="S135" s="27">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>10718.106</v>
       </c>
       <c r="T135" s="27">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>7655.4879999999994</v>
       </c>
       <c r="X135" s="27">
-        <f t="shared" ref="X135:Z135" si="251">X134-X126</f>
+        <f t="shared" ref="X135:Z135" si="252">X134-X126</f>
         <v>15106.200000000003</v>
       </c>
       <c r="Y135" s="27">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>18250.699000000001</v>
       </c>
       <c r="Z135" s="27">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>17030.933000000001</v>
       </c>
       <c r="AA135" s="27">
-        <f t="shared" ref="AA135:AB135" si="252">AA134-AA126</f>
+        <f t="shared" ref="AA135:AB135" si="253">AA134-AA126</f>
         <v>14976.490999999998</v>
       </c>
       <c r="AB135" s="27">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>6709.1219999999994</v>
       </c>
       <c r="AC135" s="27">
@@ -17168,39 +17622,39 @@
         <v>26</v>
       </c>
       <c r="C137" s="57">
-        <f t="shared" ref="C137:G137" si="253">C133/C122</f>
+        <f t="shared" ref="C137:G137" si="254">C133/C122</f>
         <v>4.5569444776404806</v>
       </c>
       <c r="D137" s="57">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>4.5773664820430584</v>
       </c>
       <c r="E137" s="57">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>3.6212162128120506</v>
       </c>
       <c r="F137" s="57">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>4.1230478148317342</v>
       </c>
       <c r="G137" s="57">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>3.5936217174572174</v>
       </c>
       <c r="H137" s="57">
-        <f t="shared" ref="H137:I137" si="254">H133/H122</f>
+        <f t="shared" ref="H137:I137" si="255">H133/H122</f>
         <v>3.8049860617375519</v>
       </c>
       <c r="I137" s="57">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>3.3381242931909623</v>
       </c>
       <c r="J137" s="57">
-        <f t="shared" ref="J137:K137" si="255">J133/J122</f>
+        <f t="shared" ref="J137:K137" si="256">J133/J122</f>
         <v>3.9679884357881914</v>
       </c>
       <c r="K137" s="57">
-        <f t="shared" si="255"/>
+        <f t="shared" si="256"/>
         <v>1.6181469979296066</v>
       </c>
       <c r="L137" s="57">
@@ -17216,7 +17670,7 @@
         <v>1.7243411865864144</v>
       </c>
       <c r="O137" s="57">
-        <f t="shared" ref="O137" si="256">O133/O122</f>
+        <f t="shared" ref="O137" si="257">O133/O122</f>
         <v>2.6197394789579156</v>
       </c>
       <c r="P137" s="57">
@@ -17240,19 +17694,19 @@
         <v>2.2452006822849584</v>
       </c>
       <c r="X137" s="57">
-        <f t="shared" ref="X137:Z137" si="257">X133/X122</f>
+        <f t="shared" ref="X137:Y137" si="258">X133/X122</f>
         <v>3.6006560378366026</v>
       </c>
       <c r="Y137" s="57">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>4.2113358897543431</v>
       </c>
       <c r="Z137" s="57">
-        <f t="shared" ref="Z137:AA137" si="258">Z133/Z122</f>
+        <f t="shared" ref="Z137:AA137" si="259">Z133/Z122</f>
         <v>4.1230478148317342</v>
       </c>
       <c r="AA137" s="57">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>3.9679884357881914</v>
       </c>
       <c r="AB137" s="57">
@@ -17284,51 +17738,51 @@
         <v>186</v>
       </c>
       <c r="H138" s="74">
-        <f t="shared" ref="H138" si="259">H133/SUM(E9:H9)</f>
+        <f t="shared" ref="H138" si="260">H133/SUM(E9:H9)</f>
         <v>3.9969163256834486E-3</v>
       </c>
       <c r="I138" s="74">
-        <f t="shared" ref="I138" si="260">I133/SUM(F9:I9)</f>
+        <f t="shared" ref="I138" si="261">I133/SUM(F9:I9)</f>
         <v>3.3988808322824725E-3</v>
       </c>
       <c r="J138" s="74">
-        <f t="shared" ref="J138" si="261">J133/SUM(G9:J9)</f>
+        <f t="shared" ref="J138" si="262">J133/SUM(G9:J9)</f>
         <v>3.5678980705158708E-3</v>
       </c>
       <c r="K138" s="74">
-        <f t="shared" ref="K138" si="262">K133/SUM(H9:K9)</f>
+        <f t="shared" ref="K138" si="263">K133/SUM(H9:K9)</f>
         <v>1.3692135555934837E-3</v>
       </c>
       <c r="L138" s="74">
-        <f t="shared" ref="L138" si="263">L133/SUM(I9:L9)</f>
+        <f t="shared" ref="L138" si="264">L133/SUM(I9:L9)</f>
         <v>1.3493997653217802E-3</v>
       </c>
       <c r="M138" s="74">
-        <f t="shared" ref="M138" si="264">M133/SUM(J9:M9)</f>
+        <f t="shared" ref="M138" si="265">M133/SUM(J9:M9)</f>
         <v>1.0984631479313523E-3</v>
       </c>
       <c r="N138" s="74">
-        <f t="shared" ref="N138" si="265">N133/SUM(K9:N9)</f>
+        <f t="shared" ref="N138" si="266">N133/SUM(K9:N9)</f>
         <v>1.8058391450770329E-3</v>
       </c>
       <c r="O138" s="74">
-        <f t="shared" ref="O138" si="266">O133/SUM(L9:O9)</f>
+        <f t="shared" ref="O138" si="267">O133/SUM(L9:O9)</f>
         <v>2.5249708462201492E-3</v>
       </c>
       <c r="P138" s="74">
-        <f t="shared" ref="P138:S138" si="267">P133/SUM(M9:P9)</f>
+        <f t="shared" ref="P138:S138" si="268">P133/SUM(M9:P9)</f>
         <v>3.3363450053989726E-3</v>
       </c>
       <c r="Q138" s="74">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>3.5885419964958943E-3</v>
       </c>
       <c r="R138" s="74">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>3.3117316306108839E-3</v>
       </c>
       <c r="S138" s="74">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>3.1597674651698908E-3</v>
       </c>
       <c r="T138" s="74">
@@ -17336,23 +17790,23 @@
         <v>2.2633532687151986E-3</v>
       </c>
       <c r="X138" s="57">
-        <f t="shared" ref="X138:Z138" si="268">X134/X9</f>
+        <f t="shared" ref="X138:Z138" si="269">X134/X9</f>
         <v>2.2774909529553682</v>
       </c>
       <c r="Y138" s="57">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>3.0092303872039454</v>
       </c>
       <c r="Z138" s="57">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>3.2035718088777578</v>
       </c>
       <c r="AA138" s="57">
-        <f t="shared" ref="AA138:AB138" si="269">AA134/AA9</f>
+        <f t="shared" ref="AA138:AB138" si="270">AA134/AA9</f>
         <v>2.6256161900926296</v>
       </c>
       <c r="AB138" s="57">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>1.3294587786057119</v>
       </c>
       <c r="AC138" s="57">
@@ -17380,51 +17834,51 @@
         <v>186</v>
       </c>
       <c r="H139" s="57">
-        <f t="shared" ref="H139" si="270">H133/SUM(E26:H26)</f>
+        <f t="shared" ref="H139" si="271">H133/SUM(E26:H26)</f>
         <v>-328.9104111728746</v>
       </c>
       <c r="I139" s="57">
-        <f t="shared" ref="I139" si="271">I133/SUM(F26:I26)</f>
+        <f t="shared" ref="I139" si="272">I133/SUM(F26:I26)</f>
         <v>-115.49206732790152</v>
       </c>
       <c r="J139" s="57">
-        <f t="shared" ref="J139" si="272">J133/SUM(G26:J26)</f>
+        <f t="shared" ref="J139" si="273">J133/SUM(G26:J26)</f>
         <v>-44.49814940755099</v>
       </c>
       <c r="K139" s="57">
-        <f t="shared" ref="K139" si="273">K133/SUM(H26:K26)</f>
+        <f t="shared" ref="K139" si="274">K133/SUM(H26:K26)</f>
         <v>-9.2931914725575346</v>
       </c>
       <c r="L139" s="57">
-        <f t="shared" ref="L139" si="274">L133/SUM(I26:L26)</f>
+        <f t="shared" ref="L139" si="275">L133/SUM(I26:L26)</f>
         <v>-4.921897835209367</v>
       </c>
       <c r="M139" s="57">
-        <f t="shared" ref="M139" si="275">M133/SUM(J26:M26)</f>
+        <f t="shared" ref="M139" si="276">M133/SUM(J26:M26)</f>
         <v>-3.4596705334508839</v>
       </c>
       <c r="N139" s="57">
-        <f t="shared" ref="N139" si="276">N133/SUM(K26:N26)</f>
+        <f t="shared" ref="N139" si="277">N133/SUM(K26:N26)</f>
         <v>-6.8505742659676452</v>
       </c>
       <c r="O139" s="57">
-        <f t="shared" ref="O139" si="277">O133/SUM(L26:O26)</f>
+        <f t="shared" ref="O139" si="278">O133/SUM(L26:O26)</f>
         <v>-13.844238952468716</v>
       </c>
       <c r="P139" s="57">
-        <f t="shared" ref="P139:S139" si="278">P133/SUM(M26:P26)</f>
+        <f t="shared" ref="P139:S139" si="279">P133/SUM(M26:P26)</f>
         <v>-88.265429889576552</v>
       </c>
       <c r="Q139" s="57">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>-249.48613055071797</v>
       </c>
       <c r="R139" s="57">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>-228.62115367889854</v>
       </c>
       <c r="S139" s="57">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>697.1161832155442</v>
       </c>
       <c r="T139" s="57">
@@ -17432,19 +17886,19 @@
         <v>-16621.554193892349</v>
       </c>
       <c r="X139" s="57">
-        <f t="shared" ref="X139:Z139" si="279">X133/X26</f>
+        <f t="shared" ref="X139:Y139" si="280">X133/X26</f>
         <v>85.25165562913908</v>
       </c>
       <c r="Y139" s="57">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>71.19853727714748</v>
       </c>
       <c r="Z139" s="57">
-        <f t="shared" ref="Z139:AA139" si="280">Z133/Z26</f>
+        <f t="shared" ref="Z139:AA139" si="281">Z133/Z26</f>
         <v>-91.165168350168358</v>
       </c>
       <c r="AA139" s="57">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>-44.501058020477807</v>
       </c>
       <c r="AB139" s="57">
@@ -17464,67 +17918,67 @@
         <v>186</v>
       </c>
       <c r="D141" s="25">
-        <f t="shared" ref="D141:S141" si="281">D15:D15/D9</f>
+        <f t="shared" ref="D141:S141" si="282">D15:D15/D9</f>
         <v>8.0382013529645847E-3</v>
       </c>
       <c r="E141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>7.5045285948417148E-3</v>
       </c>
       <c r="F141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>1.0308671065032988E-2</v>
       </c>
       <c r="G141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>1.1296003886797037E-2</v>
       </c>
       <c r="H141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>8.5587872633640389E-3</v>
       </c>
       <c r="I141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>9.8673018033344686E-3</v>
       </c>
       <c r="J141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>8.057553956834532E-3</v>
       </c>
       <c r="K141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>9.1511517828968131E-3</v>
       </c>
       <c r="L141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>1.1913626209977662E-2</v>
       </c>
       <c r="M141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>9.3581125609595358E-3</v>
       </c>
       <c r="N141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>5.7021831215379598E-3</v>
       </c>
       <c r="O141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>1.0405053883314754E-2</v>
       </c>
       <c r="P141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>8.2264484741264941E-3</v>
       </c>
       <c r="Q141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>1.0750443586264482E-2</v>
       </c>
       <c r="R141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>1.1526934603857682E-2</v>
       </c>
       <c r="S141" s="25">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>2.8956565152271591E-2</v>
       </c>
       <c r="T141" s="25">
@@ -17532,27 +17986,27 @@
         <v>2.4438119540681126E-2</v>
       </c>
       <c r="X141" s="25">
-        <f t="shared" ref="X141:Z141" si="282">X15:X15/X9</f>
+        <f t="shared" ref="X141:Z141" si="283">X15:X15/X9</f>
         <v>7.6558102131081629E-3</v>
       </c>
       <c r="Y141" s="25">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>8.4256674601407705E-3</v>
       </c>
       <c r="Z141" s="25">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>9.0907298219321253E-3</v>
       </c>
       <c r="AA141" s="25">
-        <f t="shared" ref="AA141:AC141" si="283">AA15:AA15/AA9</f>
+        <f t="shared" ref="AA141:AC141" si="284">AA15:AA15/AA9</f>
         <v>9.043312708234174E-3</v>
       </c>
       <c r="AB141" s="25">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>7.9022036010713056E-3</v>
       </c>
       <c r="AC141" s="25">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>1.0244925188220719E-2</v>
       </c>
     </row>
@@ -17591,8 +18045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1F7BB5-1110-4DCF-A4D2-2BD3A135983C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -17613,7 +18067,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BD20DC-C224-E749-9831-81B7CB188F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1A5337-6A71-49DC-8DA1-62DB1006BDFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="3" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -132,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="253">
   <si>
     <t>$ERJ</t>
   </si>
@@ -931,6 +921,9 @@
   <si>
     <t>growth, product development &amp; new business</t>
   </si>
+  <si>
+    <t>(Projected)</t>
+  </si>
 </sst>
 </file>
 
@@ -943,7 +936,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0000\x"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,22 +1063,33 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1113,6 +1117,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF323232"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1374,9 +1384,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1396,6 +1404,28 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1405,28 +1435,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1447,27 +1459,51 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1496,7 +1532,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1974,7 +2010,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6225,13 +6261,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F324B-1DEB-44A7-A7E2-319E26170844}">
   <dimension ref="A2:AC53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y39" sqref="Y39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="3"/>
+    <col min="1" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:29" ht="15">
@@ -6246,31 +6282,31 @@
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="G5" s="93" t="s">
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="G5" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
-      <c r="T5" s="93" t="s">
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="101"/>
+      <c r="T5" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="95"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="101"/>
       <c r="AA5" s="104" t="s">
         <v>205</v>
       </c>
@@ -6505,13 +6541,13 @@
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="38"/>
-      <c r="Y12" s="93" t="s">
+      <c r="Y12" s="99" t="s">
         <v>219</v>
       </c>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="95"/>
+      <c r="Z12" s="100"/>
+      <c r="AA12" s="100"/>
+      <c r="AB12" s="100"/>
+      <c r="AC12" s="101"/>
     </row>
     <row r="13" spans="1:29">
       <c r="G13" s="10"/>
@@ -6532,15 +6568,15 @@
       <c r="U13" s="37"/>
       <c r="V13" s="37"/>
       <c r="W13" s="38"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="112" t="s">
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="AA13" s="112"/>
-      <c r="AB13" s="112" t="s">
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="AC13" s="113"/>
+      <c r="AC13" s="103"/>
     </row>
     <row r="14" spans="1:29">
       <c r="G14" s="9">
@@ -6568,21 +6604,21 @@
       <c r="Y14" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="Z14" s="98" t="s">
+      <c r="Z14" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="98" t="s">
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="AC14" s="99"/>
+      <c r="AC14" s="98"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
       <c r="G15" s="10"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -6604,14 +6640,14 @@
       <c r="Y15" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="Z15" s="98" t="s">
+      <c r="Z15" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="AA15" s="98"/>
-      <c r="AB15" s="98" t="s">
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97" t="s">
         <v>233</v>
       </c>
-      <c r="AC15" s="99"/>
+      <c r="AC15" s="98"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="14" t="s">
@@ -6620,10 +6656,10 @@
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="99"/>
+      <c r="D16" s="98"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -6645,23 +6681,23 @@
       <c r="Y16" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="Z16" s="98" t="s">
+      <c r="Z16" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="98" t="s">
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="AC16" s="99"/>
+      <c r="AC16" s="98"/>
     </row>
     <row r="17" spans="2:29">
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="99"/>
+      <c r="D17" s="98"/>
       <c r="G17" s="9">
         <v>44805</v>
       </c>
@@ -6685,19 +6721,19 @@
       <c r="Y17" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="Z17" s="98" t="s">
+      <c r="Z17" s="97" t="s">
         <v>229</v>
       </c>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="98" t="s">
+      <c r="AA17" s="97"/>
+      <c r="AB17" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="AC17" s="99"/>
+      <c r="AC17" s="98"/>
     </row>
     <row r="18" spans="2:29">
       <c r="B18" s="16"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8" t="s">
         <v>192</v>
@@ -6721,14 +6757,14 @@
       <c r="Y18" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="Z18" s="98" t="s">
+      <c r="Z18" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="98" t="s">
+      <c r="AA18" s="97"/>
+      <c r="AB18" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="AC18" s="99"/>
+      <c r="AC18" s="98"/>
     </row>
     <row r="19" spans="2:29">
       <c r="B19" s="17"/>
@@ -6757,14 +6793,14 @@
       <c r="Y19" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="Z19" s="98" t="s">
+      <c r="Z19" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="98" t="s">
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="AC19" s="99"/>
+      <c r="AC19" s="98"/>
     </row>
     <row r="20" spans="2:29">
       <c r="G20" s="10"/>
@@ -6792,14 +6828,14 @@
       <c r="Y20" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="Z20" s="98" t="s">
+      <c r="Z20" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="98" t="s">
+      <c r="AA20" s="97"/>
+      <c r="AB20" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="AC20" s="99"/>
+      <c r="AC20" s="98"/>
     </row>
     <row r="21" spans="2:29">
       <c r="G21" s="10"/>
@@ -6827,11 +6863,11 @@
       <c r="AC21" s="38"/>
     </row>
     <row r="22" spans="2:29">
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
       <c r="G22" s="10"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
@@ -6860,10 +6896,10 @@
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="99"/>
+      <c r="D23" s="98"/>
       <c r="G23" s="9">
         <v>44743</v>
       </c>
@@ -6889,10 +6925,10 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="98">
+      <c r="C24" s="97">
         <v>1969</v>
       </c>
-      <c r="D24" s="99"/>
+      <c r="D24" s="98"/>
       <c r="G24" s="10"/>
       <c r="H24" s="8" t="s">
         <v>197</v>
@@ -6916,8 +6952,8 @@
     </row>
     <row r="25" spans="2:29">
       <c r="B25" s="10"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="98"/>
       <c r="G25" s="10"/>
       <c r="H25" s="50" t="s">
         <v>198</v>
@@ -6969,8 +7005,8 @@
     </row>
     <row r="27" spans="2:29">
       <c r="B27" s="10"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98"/>
       <c r="G27" s="9">
         <v>44743</v>
       </c>
@@ -7029,10 +7065,10 @@
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="100" t="s">
+      <c r="C29" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="101"/>
+      <c r="D29" s="113"/>
       <c r="G29" s="10"/>
       <c r="H29" s="60"/>
       <c r="I29" s="60"/>
@@ -7097,11 +7133,11 @@
       <c r="W31" s="38"/>
     </row>
     <row r="32" spans="2:29">
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
       <c r="G32" s="10"/>
       <c r="H32" s="60"/>
       <c r="I32" s="60"/>
@@ -7125,11 +7161,11 @@
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="102">
+      <c r="C33" s="114">
         <f>C6/'Financial Model'!T122</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="103"/>
+      <c r="D33" s="115"/>
       <c r="G33" s="9">
         <v>43922</v>
       </c>
@@ -7155,11 +7191,11 @@
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="102">
+      <c r="C34" s="114">
         <f>C6/'Financial Model'!AC9</f>
         <v>2.2515010006671113E-3</v>
       </c>
-      <c r="D34" s="103"/>
+      <c r="D34" s="115"/>
       <c r="G34" s="10"/>
       <c r="H34" s="8" t="s">
         <v>169</v>
@@ -7183,11 +7219,11 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="96">
+      <c r="C35" s="110">
         <f>C6/'Financial Model'!AC26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="97"/>
+      <c r="D35" s="111"/>
       <c r="G35" s="10"/>
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
@@ -7234,19 +7270,19 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
-      <c r="T37" s="93" t="s">
+      <c r="T37" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="U37" s="94"/>
-      <c r="V37" s="94"/>
-      <c r="W37" s="95"/>
+      <c r="U37" s="100"/>
+      <c r="V37" s="100"/>
+      <c r="W37" s="101"/>
     </row>
     <row r="38" spans="2:23">
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="95"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="101"/>
       <c r="G38" s="10"/>
       <c r="H38" s="50" t="s">
         <v>168</v>
@@ -7269,10 +7305,10 @@
       <c r="W38" s="38"/>
     </row>
     <row r="39" spans="2:23">
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="93" t="s">
         <v>248</v>
       </c>
-      <c r="C39" s="115"/>
+      <c r="C39" s="94"/>
       <c r="D39" s="51" t="s">
         <v>31</v>
       </c>
@@ -7296,10 +7332,10 @@
       <c r="W39" s="38"/>
     </row>
     <row r="40" spans="2:23">
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="93" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="115"/>
+      <c r="C40" s="94"/>
       <c r="D40" s="51" t="s">
         <v>31</v>
       </c>
@@ -7329,9 +7365,9 @@
       <c r="W40" s="38"/>
     </row>
     <row r="41" spans="2:23">
-      <c r="B41" s="114"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="91" t="s">
+      <c r="B41" s="93"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="89" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="10"/>
@@ -7352,9 +7388,9 @@
       <c r="W41" s="38"/>
     </row>
     <row r="42" spans="2:23">
-      <c r="B42" s="114"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="91" t="s">
+      <c r="B42" s="93"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="89" t="s">
         <v>31</v>
       </c>
       <c r="G42" s="10"/>
@@ -7377,9 +7413,9 @@
       <c r="W42" s="38"/>
     </row>
     <row r="43" spans="2:23">
-      <c r="B43" s="116"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="92" t="s">
+      <c r="B43" s="95"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="90" t="s">
         <v>31</v>
       </c>
       <c r="G43" s="10"/>
@@ -7546,7 +7582,7 @@
       <c r="R52" s="38"/>
     </row>
     <row r="53" spans="7:18">
-      <c r="G53" s="110">
+      <c r="G53" s="91">
         <v>42552</v>
       </c>
       <c r="H53" s="54" t="s">
@@ -7565,29 +7601,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z15:AA15"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="C26:D26"/>
@@ -7602,6 +7615,24 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="T37:W37"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C27:D27"/>
@@ -7609,6 +7640,11 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
@@ -7642,16 +7678,16 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="9.1640625" style="3"/>
-    <col min="20" max="20" width="9.1640625" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="9.1640625" style="3"/>
+    <col min="2" max="2" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:39" s="15" customFormat="1">
@@ -18046,12 +18082,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="72"/>
+    <col min="1" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18061,135 +18097,146 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258CA0E5-563F-4C1F-B583-AD76D8E7BBD2}">
-  <dimension ref="A2:AG49"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41:B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="3"/>
+    <col min="1" max="1" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="123"/>
+    <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" s="2" customFormat="1" ht="13">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="1:33" s="2" customFormat="1">
+      <c r="B1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T1" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="X2" s="80">
+      <c r="X1" s="80">
         <v>2016</v>
       </c>
-      <c r="Y2" s="80">
+      <c r="Y1" s="80">
         <v>2017</v>
       </c>
-      <c r="Z2" s="80">
+      <c r="Z1" s="80">
         <v>2018</v>
       </c>
-      <c r="AA2" s="80">
-        <f>Z2+1</f>
+      <c r="AA1" s="80">
+        <f>Z1+1</f>
         <v>2019</v>
       </c>
-      <c r="AB2" s="80">
-        <f t="shared" ref="AB2:AG2" si="0">AA2+1</f>
+      <c r="AB1" s="80">
+        <f t="shared" ref="AB1:AG1" si="0">AA1+1</f>
         <v>2020</v>
       </c>
-      <c r="AC2" s="80">
+      <c r="AC1" s="80">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD1" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE1" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF1" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG1" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="77" customFormat="1" ht="13">
+    <row r="2" spans="1:33" s="126" customFormat="1">
+      <c r="A2" s="124"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="T2" s="127" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="77" customFormat="1">
       <c r="A3" s="77" t="s">
         <v>210</v>
       </c>
       <c r="B3" s="77">
         <f t="shared" ref="B3" si="1">SUM(B4:B10)</f>
-        <v>0</v>
+        <v>1835</v>
       </c>
       <c r="C3" s="77">
         <f t="shared" ref="C3" si="2">SUM(C4:C10)</f>
-        <v>0</v>
+        <v>1802</v>
       </c>
       <c r="D3" s="77">
         <f t="shared" ref="D3" si="3">SUM(D4:D10)</f>
-        <v>0</v>
+        <v>1708</v>
       </c>
       <c r="E3" s="77">
         <f t="shared" ref="E3" si="4">SUM(E4:E10)</f>
@@ -18197,15 +18244,15 @@
       </c>
       <c r="F3" s="77">
         <f t="shared" ref="F3" si="5">SUM(F4:F10)</f>
-        <v>0</v>
+        <v>1860</v>
       </c>
       <c r="G3" s="77">
         <f t="shared" ref="G3" si="6">SUM(G4:G10)</f>
-        <v>0</v>
+        <v>1890</v>
       </c>
       <c r="H3" s="77">
         <f t="shared" ref="H3" si="7">SUM(H4:H10)</f>
-        <v>0</v>
+        <v>1889</v>
       </c>
       <c r="I3" s="77">
         <f t="shared" ref="I3" si="8">SUM(I4:I10)</f>
@@ -18213,15 +18260,15 @@
       </c>
       <c r="J3" s="77">
         <f t="shared" ref="J3" si="9">SUM(J4:J10)</f>
-        <v>0</v>
+        <v>1902</v>
       </c>
       <c r="K3" s="77">
         <f t="shared" ref="K3" si="10">SUM(K4:K10)</f>
-        <v>0</v>
+        <v>1902</v>
       </c>
       <c r="L3" s="77">
         <f t="shared" ref="L3" si="11">SUM(L4:L10)</f>
-        <v>0</v>
+        <v>1902</v>
       </c>
       <c r="M3" s="77">
         <f t="shared" ref="M3:Q3" si="12">SUM(M4:M10)</f>
@@ -18251,6 +18298,7 @@
         <f t="shared" ref="S3" si="14">SUM(S4:S10)</f>
         <v>2000</v>
       </c>
+      <c r="T3" s="120"/>
       <c r="X3" s="77">
         <f t="shared" ref="X3:Z3" si="15">SUM(X4:X10)</f>
         <v>1749</v>
@@ -18276,16 +18324,43 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="78" customFormat="1" ht="13">
+    <row r="4" spans="1:33" s="78" customFormat="1">
       <c r="A4" s="79" t="s">
         <v>201</v>
       </c>
+      <c r="B4" s="78">
+        <v>191</v>
+      </c>
+      <c r="C4" s="78">
+        <v>191</v>
+      </c>
+      <c r="D4" s="78">
+        <v>191</v>
+      </c>
       <c r="E4" s="78">
         <v>191</v>
       </c>
+      <c r="F4" s="78">
+        <v>191</v>
+      </c>
+      <c r="G4" s="78">
+        <v>191</v>
+      </c>
+      <c r="H4" s="78">
+        <v>191</v>
+      </c>
       <c r="I4" s="78">
         <v>191</v>
       </c>
+      <c r="J4" s="78">
+        <v>191</v>
+      </c>
+      <c r="K4" s="78">
+        <v>191</v>
+      </c>
+      <c r="L4" s="78">
+        <v>191</v>
+      </c>
       <c r="M4" s="78">
         <v>191</v>
       </c>
@@ -18307,6 +18382,7 @@
       <c r="S4" s="78">
         <v>191</v>
       </c>
+      <c r="T4" s="121"/>
       <c r="X4" s="78">
         <v>193</v>
       </c>
@@ -18326,16 +18402,43 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="78" customFormat="1" ht="13">
+    <row r="5" spans="1:33" s="78" customFormat="1">
       <c r="A5" s="79" t="s">
         <v>85</v>
       </c>
+      <c r="B5" s="78">
+        <v>603</v>
+      </c>
+      <c r="C5" s="78">
+        <v>622</v>
+      </c>
+      <c r="D5" s="78">
+        <v>647</v>
+      </c>
       <c r="E5" s="78">
         <v>771</v>
       </c>
+      <c r="F5" s="78">
+        <v>773</v>
+      </c>
+      <c r="G5" s="78">
+        <v>793</v>
+      </c>
+      <c r="H5" s="78">
+        <v>793</v>
+      </c>
       <c r="I5" s="78">
         <v>815</v>
       </c>
+      <c r="J5" s="78">
+        <v>800</v>
+      </c>
+      <c r="K5" s="78">
+        <v>798</v>
+      </c>
+      <c r="L5" s="78">
+        <v>798</v>
+      </c>
       <c r="M5" s="78">
         <v>798</v>
       </c>
@@ -18357,6 +18460,7 @@
       <c r="S5" s="78">
         <v>848</v>
       </c>
+      <c r="T5" s="121"/>
       <c r="X5" s="78">
         <v>525</v>
       </c>
@@ -18376,16 +18480,43 @@
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="78" customFormat="1" ht="13">
+    <row r="6" spans="1:33" s="78" customFormat="1">
       <c r="A6" s="79" t="s">
         <v>185</v>
       </c>
+      <c r="B6" s="78">
+        <v>592</v>
+      </c>
+      <c r="C6" s="78">
+        <v>587</v>
+      </c>
+      <c r="D6" s="78">
+        <v>563</v>
+      </c>
       <c r="E6" s="78">
         <v>566</v>
       </c>
+      <c r="F6" s="78">
+        <v>566</v>
+      </c>
+      <c r="G6" s="78">
+        <v>566</v>
+      </c>
+      <c r="H6" s="78">
+        <v>565</v>
+      </c>
       <c r="I6" s="78">
         <v>568</v>
       </c>
+      <c r="J6" s="78">
+        <v>568</v>
+      </c>
+      <c r="K6" s="78">
+        <v>568</v>
+      </c>
+      <c r="L6" s="78">
+        <v>568</v>
+      </c>
       <c r="M6" s="78">
         <v>568</v>
       </c>
@@ -18407,6 +18538,7 @@
       <c r="S6" s="78">
         <v>568</v>
       </c>
+      <c r="T6" s="121"/>
       <c r="X6" s="78">
         <v>590</v>
       </c>
@@ -18426,16 +18558,43 @@
         <v>568</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="78" customFormat="1" ht="13">
+    <row r="7" spans="1:33" s="78" customFormat="1">
       <c r="A7" s="79" t="s">
         <v>188</v>
       </c>
+      <c r="B7" s="78">
+        <v>169</v>
+      </c>
+      <c r="C7" s="78">
+        <v>172</v>
+      </c>
+      <c r="D7" s="78">
+        <v>172</v>
+      </c>
       <c r="E7" s="78">
         <v>172</v>
       </c>
+      <c r="F7" s="78">
+        <v>172</v>
+      </c>
+      <c r="G7" s="78">
+        <v>172</v>
+      </c>
+      <c r="H7" s="78">
+        <v>172</v>
+      </c>
       <c r="I7" s="78">
         <v>172</v>
       </c>
+      <c r="J7" s="78">
+        <v>172</v>
+      </c>
+      <c r="K7" s="78">
+        <v>172</v>
+      </c>
+      <c r="L7" s="78">
+        <v>172</v>
+      </c>
       <c r="M7" s="78">
         <v>172</v>
       </c>
@@ -18457,6 +18616,7 @@
       <c r="S7" s="78">
         <v>172</v>
       </c>
+      <c r="T7" s="121"/>
       <c r="X7" s="78">
         <v>166</v>
       </c>
@@ -18476,10 +18636,19 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="78" customFormat="1" ht="13">
+    <row r="8" spans="1:33" s="78" customFormat="1">
       <c r="A8" s="79" t="s">
         <v>217</v>
       </c>
+      <c r="B8" s="78">
+        <v>100</v>
+      </c>
+      <c r="C8" s="78">
+        <v>100</v>
+      </c>
+      <c r="D8" s="78">
+        <v>0</v>
+      </c>
       <c r="E8" s="78">
         <v>0</v>
       </c>
@@ -18525,6 +18694,7 @@
       <c r="S8" s="78">
         <v>0</v>
       </c>
+      <c r="T8" s="121"/>
       <c r="X8" s="78">
         <v>100</v>
       </c>
@@ -18544,16 +18714,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="78" customFormat="1" ht="13">
+    <row r="9" spans="1:33" s="78" customFormat="1">
       <c r="A9" s="79" t="s">
         <v>180</v>
       </c>
+      <c r="B9" s="78">
+        <v>74</v>
+      </c>
+      <c r="C9" s="78">
+        <v>50</v>
+      </c>
+      <c r="D9" s="78">
+        <v>62</v>
+      </c>
       <c r="E9" s="78">
         <v>47</v>
       </c>
+      <c r="F9" s="78">
+        <v>46</v>
+      </c>
+      <c r="G9" s="78">
+        <v>44</v>
+      </c>
+      <c r="H9" s="78">
+        <v>44</v>
+      </c>
       <c r="I9" s="78">
         <v>27</v>
       </c>
+      <c r="J9" s="78">
+        <v>27</v>
+      </c>
+      <c r="K9" s="78">
+        <v>25</v>
+      </c>
+      <c r="L9" s="78">
+        <v>22</v>
+      </c>
       <c r="M9" s="78">
         <v>22</v>
       </c>
@@ -18575,6 +18772,7 @@
       <c r="S9" s="78">
         <v>20</v>
       </c>
+      <c r="T9" s="121"/>
       <c r="X9" s="78">
         <v>85</v>
       </c>
@@ -18594,16 +18792,43 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="78" customFormat="1" ht="13">
+    <row r="10" spans="1:33" s="78" customFormat="1">
       <c r="A10" s="79" t="s">
         <v>86</v>
       </c>
+      <c r="B10" s="78">
+        <v>106</v>
+      </c>
+      <c r="C10" s="78">
+        <v>80</v>
+      </c>
+      <c r="D10" s="78">
+        <v>73</v>
+      </c>
       <c r="E10" s="78">
         <v>111</v>
       </c>
+      <c r="F10" s="78">
+        <v>112</v>
+      </c>
+      <c r="G10" s="78">
+        <v>124</v>
+      </c>
+      <c r="H10" s="78">
+        <v>124</v>
+      </c>
       <c r="I10" s="78">
         <v>144</v>
       </c>
+      <c r="J10" s="78">
+        <v>144</v>
+      </c>
+      <c r="K10" s="78">
+        <v>148</v>
+      </c>
+      <c r="L10" s="78">
+        <v>151</v>
+      </c>
       <c r="M10" s="78">
         <v>153</v>
       </c>
@@ -18625,6 +18850,10 @@
       <c r="S10" s="78">
         <v>201</v>
       </c>
+      <c r="T10" s="121">
+        <f>S10+6</f>
+        <v>207</v>
+      </c>
       <c r="X10" s="78">
         <v>90</v>
       </c>
@@ -18644,22 +18873,24 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="78" customFormat="1" ht="13"/>
-    <row r="12" spans="1:33" s="77" customFormat="1" ht="13">
+    <row r="11" spans="1:33" s="78" customFormat="1">
+      <c r="T11" s="121"/>
+    </row>
+    <row r="12" spans="1:33" s="77" customFormat="1">
       <c r="A12" s="77" t="s">
         <v>212</v>
       </c>
       <c r="B12" s="77">
         <f t="shared" ref="B12:S12" si="19">SUM(B13:B19)</f>
-        <v>0</v>
+        <v>1414</v>
       </c>
       <c r="C12" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1442</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1457</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" si="19"/>
@@ -18667,15 +18898,15 @@
       </c>
       <c r="F12" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1501</v>
       </c>
       <c r="G12" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1527</v>
       </c>
       <c r="H12" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1544</v>
       </c>
       <c r="I12" s="77">
         <f t="shared" si="19"/>
@@ -18683,15 +18914,15 @@
       </c>
       <c r="J12" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1584</v>
       </c>
       <c r="K12" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1588</v>
       </c>
       <c r="L12" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1595</v>
       </c>
       <c r="M12" s="77">
         <f t="shared" si="19"/>
@@ -18721,6 +18952,7 @@
         <f t="shared" si="19"/>
         <v>1688</v>
       </c>
+      <c r="T12" s="120"/>
       <c r="X12" s="77">
         <f t="shared" ref="X12:AC12" si="20">SUM(X13:X19)</f>
         <v>1299</v>
@@ -18746,16 +18978,43 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="78" customFormat="1" ht="13">
+    <row r="13" spans="1:33" s="78" customFormat="1">
       <c r="A13" s="79" t="s">
         <v>201</v>
       </c>
+      <c r="B13" s="78">
+        <v>190</v>
+      </c>
+      <c r="C13" s="78">
+        <v>191</v>
+      </c>
+      <c r="D13" s="78">
+        <v>191</v>
+      </c>
       <c r="E13" s="78">
         <v>191</v>
       </c>
+      <c r="F13" s="78">
+        <v>191</v>
+      </c>
+      <c r="G13" s="78">
+        <v>191</v>
+      </c>
+      <c r="H13" s="78">
+        <v>191</v>
+      </c>
       <c r="I13" s="78">
         <v>191</v>
       </c>
+      <c r="J13" s="78">
+        <v>191</v>
+      </c>
+      <c r="K13" s="78">
+        <v>191</v>
+      </c>
+      <c r="L13" s="78">
+        <v>191</v>
+      </c>
       <c r="M13" s="78">
         <v>191</v>
       </c>
@@ -18777,6 +19036,7 @@
       <c r="S13" s="78">
         <v>191</v>
       </c>
+      <c r="T13" s="121"/>
       <c r="X13" s="78">
         <v>190</v>
       </c>
@@ -18796,16 +19056,43 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="78" customFormat="1" ht="13">
+    <row r="14" spans="1:33" s="78" customFormat="1">
       <c r="A14" s="79" t="s">
         <v>85</v>
       </c>
+      <c r="B14" s="78">
+        <v>511</v>
+      </c>
+      <c r="C14" s="78">
+        <v>531</v>
+      </c>
+      <c r="D14" s="78">
+        <v>544</v>
+      </c>
       <c r="E14" s="78">
         <v>567</v>
       </c>
+      <c r="F14" s="78">
+        <v>577</v>
+      </c>
+      <c r="G14" s="78">
+        <v>599</v>
+      </c>
+      <c r="H14" s="78">
+        <v>612</v>
+      </c>
       <c r="I14" s="78">
         <v>634</v>
       </c>
+      <c r="J14" s="78">
+        <v>637</v>
+      </c>
+      <c r="K14" s="78">
+        <v>639</v>
+      </c>
+      <c r="L14" s="78">
+        <v>645</v>
+      </c>
       <c r="M14" s="78">
         <v>666</v>
       </c>
@@ -18827,6 +19114,7 @@
       <c r="S14" s="78">
         <v>705</v>
       </c>
+      <c r="T14" s="121"/>
       <c r="X14" s="78">
         <v>421</v>
       </c>
@@ -18846,16 +19134,43 @@
         <v>693</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="78" customFormat="1" ht="13">
+    <row r="15" spans="1:33" s="78" customFormat="1">
       <c r="A15" s="79" t="s">
         <v>185</v>
       </c>
+      <c r="B15" s="78">
+        <v>549</v>
+      </c>
+      <c r="C15" s="78">
+        <v>551</v>
+      </c>
+      <c r="D15" s="78">
+        <v>553</v>
+      </c>
       <c r="E15" s="78">
         <v>559</v>
       </c>
+      <c r="F15" s="78">
+        <v>559</v>
+      </c>
+      <c r="G15" s="78">
+        <v>560</v>
+      </c>
+      <c r="H15" s="78">
+        <v>562</v>
+      </c>
       <c r="I15" s="78">
         <v>564</v>
       </c>
+      <c r="J15" s="78">
+        <v>564</v>
+      </c>
+      <c r="K15" s="78">
+        <v>564</v>
+      </c>
+      <c r="L15" s="78">
+        <v>565</v>
+      </c>
       <c r="M15" s="78">
         <v>565</v>
       </c>
@@ -18877,6 +19192,7 @@
       <c r="S15" s="78">
         <v>565</v>
       </c>
+      <c r="T15" s="121"/>
       <c r="X15" s="78">
         <v>534</v>
       </c>
@@ -18896,16 +19212,43 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="78" customFormat="1" ht="13">
+    <row r="16" spans="1:33" s="78" customFormat="1">
       <c r="A16" s="79" t="s">
         <v>188</v>
       </c>
+      <c r="B16" s="78">
+        <v>164</v>
+      </c>
+      <c r="C16" s="78">
+        <v>166</v>
+      </c>
+      <c r="D16" s="78">
+        <v>166</v>
+      </c>
       <c r="E16" s="78">
         <v>169</v>
       </c>
+      <c r="F16" s="78">
+        <v>169</v>
+      </c>
+      <c r="G16" s="78">
+        <v>171</v>
+      </c>
+      <c r="H16" s="78">
+        <v>171</v>
+      </c>
       <c r="I16" s="78">
         <v>172</v>
       </c>
+      <c r="J16" s="78">
+        <v>172</v>
+      </c>
+      <c r="K16" s="78">
+        <v>172</v>
+      </c>
+      <c r="L16" s="78">
+        <v>172</v>
+      </c>
       <c r="M16" s="78">
         <v>172</v>
       </c>
@@ -18927,6 +19270,7 @@
       <c r="S16" s="78">
         <v>172</v>
       </c>
+      <c r="T16" s="121"/>
       <c r="X16" s="78">
         <v>154</v>
       </c>
@@ -18946,10 +19290,19 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="78" customFormat="1" ht="13">
+    <row r="17" spans="1:29" s="78" customFormat="1">
       <c r="A17" s="79" t="s">
         <v>217</v>
       </c>
+      <c r="B17" s="78">
+        <v>0</v>
+      </c>
+      <c r="C17" s="78">
+        <v>0</v>
+      </c>
+      <c r="D17" s="78">
+        <v>0</v>
+      </c>
       <c r="E17" s="78">
         <v>0</v>
       </c>
@@ -18995,6 +19348,7 @@
       <c r="S17" s="78">
         <v>0</v>
       </c>
+      <c r="T17" s="121"/>
       <c r="X17" s="78">
         <v>0</v>
       </c>
@@ -19014,16 +19368,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="78" customFormat="1" ht="13">
+    <row r="18" spans="1:29" s="78" customFormat="1">
       <c r="A18" s="79" t="s">
         <v>180</v>
       </c>
+      <c r="B18" s="78">
+        <v>0</v>
+      </c>
+      <c r="C18" s="78">
+        <v>3</v>
+      </c>
+      <c r="D18" s="78">
+        <v>3</v>
+      </c>
       <c r="E18" s="78">
         <v>4</v>
       </c>
+      <c r="F18" s="78">
+        <v>5</v>
+      </c>
+      <c r="G18" s="78">
+        <v>6</v>
+      </c>
+      <c r="H18" s="78">
+        <v>7</v>
+      </c>
       <c r="I18" s="78">
         <v>11</v>
       </c>
+      <c r="J18" s="78">
+        <v>12</v>
+      </c>
+      <c r="K18" s="78">
+        <v>14</v>
+      </c>
+      <c r="L18" s="78">
+        <v>14</v>
+      </c>
       <c r="M18" s="78">
         <v>15</v>
       </c>
@@ -19045,6 +19426,7 @@
       <c r="S18" s="78">
         <v>17</v>
       </c>
+      <c r="T18" s="121"/>
       <c r="X18" s="78">
         <v>0</v>
       </c>
@@ -19064,16 +19446,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="78" customFormat="1" ht="13">
+    <row r="19" spans="1:29" s="78" customFormat="1">
       <c r="A19" s="79" t="s">
         <v>86</v>
       </c>
+      <c r="B19" s="78">
+        <v>0</v>
+      </c>
+      <c r="C19" s="78">
+        <v>0</v>
+      </c>
+      <c r="D19" s="78">
+        <v>0</v>
+      </c>
       <c r="E19" s="78">
         <v>0</v>
+      </c>
+      <c r="F19" s="78">
+        <v>0</v>
+      </c>
+      <c r="G19" s="78">
+        <v>0</v>
+      </c>
+      <c r="H19" s="78">
+        <v>1</v>
       </c>
       <c r="I19" s="78">
         <v>7</v>
       </c>
+      <c r="J19" s="78">
+        <v>8</v>
+      </c>
+      <c r="K19" s="78">
+        <v>8</v>
+      </c>
+      <c r="L19" s="78">
+        <v>8</v>
+      </c>
       <c r="M19" s="78">
         <v>14</v>
       </c>
@@ -19095,6 +19504,7 @@
       <c r="S19" s="78">
         <v>38</v>
       </c>
+      <c r="T19" s="121"/>
       <c r="X19" s="78">
         <v>0</v>
       </c>
@@ -19114,24 +19524,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="78" customFormat="1" ht="13">
+    <row r="20" spans="1:29" s="78" customFormat="1">
       <c r="A20" s="79"/>
-    </row>
-    <row r="21" spans="1:29" s="77" customFormat="1" ht="13">
+      <c r="T20" s="121"/>
+    </row>
+    <row r="21" spans="1:29" s="77" customFormat="1">
       <c r="A21" s="77" t="s">
         <v>211</v>
       </c>
       <c r="B21" s="77">
         <f t="shared" ref="B21:S21" si="21">SUM(B22:B28)</f>
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="C21" s="77">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="D21" s="77">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="E21" s="77">
         <f t="shared" si="21"/>
@@ -19139,15 +19550,15 @@
       </c>
       <c r="F21" s="77">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="G21" s="77">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="H21" s="77">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="I21" s="77">
         <f t="shared" si="21"/>
@@ -19155,15 +19566,15 @@
       </c>
       <c r="J21" s="77">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="K21" s="77">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="L21" s="77">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="M21" s="77">
         <f t="shared" si="21"/>
@@ -19193,6 +19604,7 @@
         <f t="shared" si="21"/>
         <v>312</v>
       </c>
+      <c r="T21" s="120"/>
       <c r="X21" s="77">
         <f t="shared" ref="X21:AC21" si="22">SUM(X22:X28)</f>
         <v>450</v>
@@ -19218,16 +19630,43 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="78" customFormat="1" ht="13">
+    <row r="22" spans="1:29" s="78" customFormat="1">
       <c r="A22" s="79" t="s">
         <v>201</v>
       </c>
+      <c r="B22" s="78">
+        <v>1</v>
+      </c>
+      <c r="C22" s="78">
+        <v>0</v>
+      </c>
+      <c r="D22" s="78">
+        <v>0</v>
+      </c>
       <c r="E22" s="78">
         <v>0</v>
       </c>
+      <c r="F22" s="78">
+        <v>0</v>
+      </c>
+      <c r="G22" s="78">
+        <v>0</v>
+      </c>
+      <c r="H22" s="78">
+        <v>0</v>
+      </c>
       <c r="I22" s="78">
         <v>0</v>
       </c>
+      <c r="J22" s="78">
+        <v>0</v>
+      </c>
+      <c r="K22" s="78">
+        <v>0</v>
+      </c>
+      <c r="L22" s="78">
+        <v>0</v>
+      </c>
       <c r="M22" s="78">
         <v>0</v>
       </c>
@@ -19249,6 +19688,7 @@
       <c r="S22" s="78">
         <v>0</v>
       </c>
+      <c r="T22" s="121"/>
       <c r="X22" s="78">
         <v>3</v>
       </c>
@@ -19268,16 +19708,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="78" customFormat="1" ht="13">
+    <row r="23" spans="1:29" s="78" customFormat="1">
       <c r="A23" s="79" t="s">
         <v>85</v>
       </c>
+      <c r="B23" s="78">
+        <v>92</v>
+      </c>
+      <c r="C23" s="78">
+        <v>91</v>
+      </c>
+      <c r="D23" s="78">
+        <v>103</v>
+      </c>
       <c r="E23" s="78">
         <v>204</v>
       </c>
+      <c r="F23" s="78">
+        <v>196</v>
+      </c>
+      <c r="G23" s="78">
+        <v>194</v>
+      </c>
+      <c r="H23" s="78">
+        <v>181</v>
+      </c>
       <c r="I23" s="78">
         <v>181</v>
       </c>
+      <c r="J23" s="78">
+        <v>163</v>
+      </c>
+      <c r="K23" s="78">
+        <v>159</v>
+      </c>
+      <c r="L23" s="78">
+        <v>153</v>
+      </c>
       <c r="M23" s="78">
         <v>132</v>
       </c>
@@ -19299,6 +19766,7 @@
       <c r="S23" s="78">
         <v>143</v>
       </c>
+      <c r="T23" s="121"/>
       <c r="X23" s="78">
         <v>104</v>
       </c>
@@ -19318,16 +19786,43 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="78" customFormat="1" ht="13">
+    <row r="24" spans="1:29" s="78" customFormat="1">
       <c r="A24" s="79" t="s">
         <v>185</v>
       </c>
+      <c r="B24" s="78">
+        <v>43</v>
+      </c>
+      <c r="C24" s="78">
+        <v>36</v>
+      </c>
+      <c r="D24" s="78">
+        <v>10</v>
+      </c>
       <c r="E24" s="78">
         <v>7</v>
       </c>
+      <c r="F24" s="78">
+        <v>7</v>
+      </c>
+      <c r="G24" s="78">
+        <v>6</v>
+      </c>
+      <c r="H24" s="78">
+        <v>3</v>
+      </c>
       <c r="I24" s="78">
         <v>4</v>
       </c>
+      <c r="J24" s="78">
+        <v>4</v>
+      </c>
+      <c r="K24" s="78">
+        <v>4</v>
+      </c>
+      <c r="L24" s="78">
+        <v>3</v>
+      </c>
       <c r="M24" s="78">
         <v>3</v>
       </c>
@@ -19349,6 +19844,7 @@
       <c r="S24" s="78">
         <v>3</v>
       </c>
+      <c r="T24" s="121"/>
       <c r="X24" s="78">
         <v>56</v>
       </c>
@@ -19368,16 +19864,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="78" customFormat="1" ht="13">
+    <row r="25" spans="1:29" s="78" customFormat="1">
       <c r="A25" s="79" t="s">
         <v>188</v>
       </c>
+      <c r="B25" s="78">
+        <v>5</v>
+      </c>
+      <c r="C25" s="78">
+        <v>6</v>
+      </c>
+      <c r="D25" s="78">
+        <v>6</v>
+      </c>
       <c r="E25" s="78">
         <v>3</v>
       </c>
+      <c r="F25" s="78">
+        <v>3</v>
+      </c>
+      <c r="G25" s="78">
+        <v>1</v>
+      </c>
+      <c r="H25" s="78">
+        <v>1</v>
+      </c>
       <c r="I25" s="78">
         <v>0</v>
       </c>
+      <c r="J25" s="78">
+        <v>0</v>
+      </c>
+      <c r="K25" s="78">
+        <v>0</v>
+      </c>
+      <c r="L25" s="78">
+        <v>0</v>
+      </c>
       <c r="M25" s="78">
         <v>0</v>
       </c>
@@ -19399,6 +19922,7 @@
       <c r="S25" s="78">
         <v>0</v>
       </c>
+      <c r="T25" s="121"/>
       <c r="X25" s="78">
         <v>12</v>
       </c>
@@ -19418,10 +19942,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="78" customFormat="1" ht="13">
+    <row r="26" spans="1:29" s="78" customFormat="1">
       <c r="A26" s="79" t="s">
         <v>217</v>
       </c>
+      <c r="B26" s="78">
+        <v>100</v>
+      </c>
+      <c r="C26" s="78">
+        <v>100</v>
+      </c>
+      <c r="D26" s="78">
+        <v>0</v>
+      </c>
       <c r="E26" s="78">
         <v>0</v>
       </c>
@@ -19467,6 +20000,7 @@
       <c r="S26" s="78">
         <v>0</v>
       </c>
+      <c r="T26" s="121"/>
       <c r="X26" s="78">
         <v>100</v>
       </c>
@@ -19486,16 +20020,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="78" customFormat="1" ht="13">
+    <row r="27" spans="1:29" s="78" customFormat="1">
       <c r="A27" s="79" t="s">
         <v>180</v>
       </c>
+      <c r="B27" s="78">
+        <v>74</v>
+      </c>
+      <c r="C27" s="78">
+        <v>47</v>
+      </c>
+      <c r="D27" s="78">
+        <v>59</v>
+      </c>
       <c r="E27" s="78">
         <v>43</v>
       </c>
+      <c r="F27" s="78">
+        <v>41</v>
+      </c>
+      <c r="G27" s="78">
+        <v>38</v>
+      </c>
+      <c r="H27" s="78">
+        <v>37</v>
+      </c>
       <c r="I27" s="78">
         <v>16</v>
       </c>
+      <c r="J27" s="78">
+        <v>15</v>
+      </c>
+      <c r="K27" s="78">
+        <v>11</v>
+      </c>
+      <c r="L27" s="78">
+        <v>8</v>
+      </c>
       <c r="M27" s="78">
         <v>7</v>
       </c>
@@ -19517,6 +20078,7 @@
       <c r="S27" s="78">
         <v>3</v>
       </c>
+      <c r="T27" s="121"/>
       <c r="X27" s="78">
         <v>85</v>
       </c>
@@ -19536,16 +20098,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="78" customFormat="1" ht="13">
+    <row r="28" spans="1:29" s="78" customFormat="1">
       <c r="A28" s="79" t="s">
         <v>86</v>
       </c>
+      <c r="B28" s="78">
+        <v>106</v>
+      </c>
+      <c r="C28" s="78">
+        <v>80</v>
+      </c>
+      <c r="D28" s="78">
+        <v>73</v>
+      </c>
       <c r="E28" s="78">
         <v>111</v>
       </c>
+      <c r="F28" s="78">
+        <v>112</v>
+      </c>
+      <c r="G28" s="78">
+        <v>124</v>
+      </c>
+      <c r="H28" s="78">
+        <v>123</v>
+      </c>
       <c r="I28" s="78">
         <v>137</v>
       </c>
+      <c r="J28" s="78">
+        <v>136</v>
+      </c>
+      <c r="K28" s="78">
+        <v>140</v>
+      </c>
+      <c r="L28" s="78">
+        <v>143</v>
+      </c>
       <c r="M28" s="78">
         <v>139</v>
       </c>
@@ -19567,6 +20156,10 @@
       <c r="S28" s="78">
         <v>163</v>
       </c>
+      <c r="T28" s="121">
+        <f>S28+6</f>
+        <v>169</v>
+      </c>
       <c r="X28" s="78">
         <v>90</v>
       </c>
@@ -19586,18 +20179,66 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="2" customFormat="1" ht="13">
+    <row r="31" spans="1:29" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="B31" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="34">
+        <f t="shared" ref="F31" si="23">F3/B3-1</f>
+        <v>1.3623978201634968E-2</v>
+      </c>
+      <c r="G31" s="34">
+        <f t="shared" ref="G31" si="24">G3/C3-1</f>
+        <v>4.8834628190898899E-2</v>
+      </c>
+      <c r="H31" s="34">
+        <f t="shared" ref="H31" si="25">H3/D3-1</f>
+        <v>0.10597189695550346</v>
+      </c>
       <c r="I31" s="34">
-        <f>I3/E3-1</f>
+        <f t="shared" ref="I31:L31" si="26">I3/E3-1</f>
         <v>3.1754574811625469E-2</v>
+      </c>
+      <c r="J31" s="34">
+        <f t="shared" si="26"/>
+        <v>2.2580645161290214E-2</v>
+      </c>
+      <c r="K31" s="34">
+        <f t="shared" si="26"/>
+        <v>6.3492063492063266E-3</v>
+      </c>
+      <c r="L31" s="34">
+        <f t="shared" si="26"/>
+        <v>6.8819481206987554E-3</v>
       </c>
       <c r="M31" s="34">
         <f>M3/I3-1</f>
         <v>-6.7814293166406081E-3</v>
       </c>
+      <c r="N31" s="34">
+        <f t="shared" ref="N31" si="27">N3/J3-1</f>
+        <v>1.051524710830698E-3</v>
+      </c>
+      <c r="O31" s="34">
+        <f t="shared" ref="O31" si="28">O3/K3-1</f>
+        <v>2.6288117770767672E-2</v>
+      </c>
+      <c r="P31" s="34">
+        <f t="shared" ref="P31" si="29">P3/L3-1</f>
+        <v>3.4700315457413256E-2</v>
+      </c>
       <c r="Q31" s="34">
         <f>Q3/M3-1</f>
         <v>4.8319327731092487E-2</v>
@@ -19610,12 +20251,13 @@
         <f>S3/O3-1</f>
         <v>2.4590163934426146E-2</v>
       </c>
+      <c r="T31" s="122"/>
       <c r="Y31" s="34">
-        <f t="shared" ref="Y31:Z31" si="23">Y3/X3-1</f>
+        <f t="shared" ref="Y31:Z31" si="30">Y3/X3-1</f>
         <v>4.9170954831332159E-2</v>
       </c>
       <c r="Z31" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>1.2534059945504161E-2</v>
       </c>
       <c r="AA31" s="34">
@@ -19631,18 +20273,66 @@
         <v>4.8319327731092487E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="81" customFormat="1" ht="13">
-      <c r="A32" s="87" t="s">
+    <row r="32" spans="1:29" s="81" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A32" s="85" t="s">
         <v>213</v>
       </c>
+      <c r="B32" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="129" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="129" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="129" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="81">
+        <f t="shared" ref="F32" si="31">F3-B3</f>
+        <v>25</v>
+      </c>
+      <c r="G32" s="81">
+        <f t="shared" ref="G32" si="32">G3-C3</f>
+        <v>88</v>
+      </c>
+      <c r="H32" s="81">
+        <f t="shared" ref="H32" si="33">H3-D3</f>
+        <v>181</v>
+      </c>
       <c r="I32" s="81">
-        <f>I3-E3</f>
+        <f t="shared" ref="I32:L32" si="34">I3-E3</f>
         <v>59</v>
+      </c>
+      <c r="J32" s="81">
+        <f t="shared" si="34"/>
+        <v>42</v>
+      </c>
+      <c r="K32" s="81">
+        <f t="shared" si="34"/>
+        <v>12</v>
+      </c>
+      <c r="L32" s="81">
+        <f t="shared" si="34"/>
+        <v>13</v>
       </c>
       <c r="M32" s="81">
         <f>M3-I3</f>
         <v>-13</v>
       </c>
+      <c r="N32" s="81">
+        <f t="shared" ref="N32" si="35">N3-J3</f>
+        <v>2</v>
+      </c>
+      <c r="O32" s="81">
+        <f t="shared" ref="O32" si="36">O3-K3</f>
+        <v>50</v>
+      </c>
+      <c r="P32" s="81">
+        <f t="shared" ref="P32" si="37">P3-L3</f>
+        <v>66</v>
+      </c>
       <c r="Q32" s="81">
         <f>Q3-M3</f>
         <v>92</v>
@@ -19655,12 +20345,13 @@
         <f>S3-O3</f>
         <v>48</v>
       </c>
+      <c r="T32" s="116"/>
       <c r="Y32" s="81">
-        <f t="shared" ref="Y32:Z32" si="24">Y3-X3</f>
+        <f t="shared" ref="Y32:Z32" si="38">Y3-X3</f>
         <v>86</v>
       </c>
       <c r="Z32" s="81">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>23</v>
       </c>
       <c r="AA32" s="81">
@@ -19676,32 +20367,79 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" ht="12.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>214</v>
       </c>
+      <c r="B33" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="25">
+        <f t="shared" ref="C33" si="39">C3/B3-1</f>
+        <v>-1.7983651226158082E-2</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" ref="D33" si="40">D3/C3-1</f>
+        <v>-5.2164261931187617E-2</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" ref="E33" si="41">E3/D3-1</f>
+        <v>8.7822014051522235E-2</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" ref="F33" si="42">F3/E3-1</f>
+        <v>1.0764262648008671E-3</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" ref="G33" si="43">G3/F3-1</f>
+        <v>1.6129032258064502E-2</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" ref="H33" si="44">H3/G3-1</f>
+        <v>-5.2910052910049021E-4</v>
+      </c>
+      <c r="I33" s="25">
+        <f t="shared" ref="I33" si="45">I3/H3-1</f>
+        <v>1.4822657490735747E-2</v>
+      </c>
+      <c r="J33" s="25">
+        <f t="shared" ref="J33" si="46">J3/I3-1</f>
+        <v>-7.8247261345852914E-3</v>
+      </c>
+      <c r="K33" s="25">
+        <f t="shared" ref="K33" si="47">K3/J3-1</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="25">
+        <f t="shared" ref="L33" si="48">L3/K3-1</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="25">
+        <f t="shared" ref="M33" si="49">M3/L3-1</f>
+        <v>1.051524710830698E-3</v>
+      </c>
       <c r="N33" s="25">
-        <f t="shared" ref="N33:S33" si="25">N3/M3-1</f>
+        <f t="shared" ref="N33" si="50">N3/M3-1</f>
         <v>0</v>
       </c>
       <c r="O33" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="O33" si="51">O3/N3-1</f>
         <v>2.5210084033613356E-2</v>
       </c>
       <c r="P33" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="N33:S33" si="52">P3/O3-1</f>
         <v>8.1967213114753079E-3</v>
       </c>
       <c r="Q33" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>1.4227642276422703E-2</v>
       </c>
       <c r="R33" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>-2.0040080160320661E-3</v>
       </c>
       <c r="S33" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>4.0160642570281624E-3</v>
       </c>
       <c r="X33" s="63" t="s">
@@ -19723,37 +20461,82 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="82" customFormat="1">
-      <c r="A34" s="88" t="s">
+    <row r="34" spans="1:29" s="82" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A34" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
+      <c r="B34" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="81">
+        <f t="shared" ref="C34" si="53">C3-B3</f>
+        <v>-33</v>
+      </c>
+      <c r="D34" s="81">
+        <f t="shared" ref="D34" si="54">D3-C3</f>
+        <v>-94</v>
+      </c>
+      <c r="E34" s="81">
+        <f t="shared" ref="E34" si="55">E3-D3</f>
+        <v>150</v>
+      </c>
+      <c r="F34" s="81">
+        <f t="shared" ref="F34" si="56">F3-E3</f>
+        <v>2</v>
+      </c>
+      <c r="G34" s="81">
+        <f t="shared" ref="G34" si="57">G3-F3</f>
+        <v>30</v>
+      </c>
+      <c r="H34" s="81">
+        <f t="shared" ref="H34" si="58">H3-G3</f>
+        <v>-1</v>
+      </c>
+      <c r="I34" s="81">
+        <f t="shared" ref="I34" si="59">I3-H3</f>
+        <v>28</v>
+      </c>
+      <c r="J34" s="81">
+        <f t="shared" ref="J34" si="60">J3-I3</f>
+        <v>-15</v>
+      </c>
+      <c r="K34" s="81">
+        <f t="shared" ref="K34" si="61">K3-J3</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="81">
+        <f t="shared" ref="L34" si="62">L3-K3</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="81">
+        <f t="shared" ref="M34" si="63">M3-L3</f>
+        <v>2</v>
+      </c>
       <c r="N34" s="81">
-        <f t="shared" ref="N34:S34" si="26">N3-M3</f>
+        <f t="shared" ref="N34" si="64">N3-M3</f>
         <v>0</v>
       </c>
       <c r="O34" s="81">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="O34" si="65">O3-N3</f>
         <v>48</v>
       </c>
       <c r="P34" s="81">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="N34:S34" si="66">P3-O3</f>
         <v>16</v>
       </c>
       <c r="Q34" s="81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="66"/>
         <v>28</v>
       </c>
       <c r="R34" s="81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="66"/>
         <v>-4</v>
       </c>
       <c r="S34" s="81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="66"/>
         <v>8</v>
       </c>
+      <c r="T34" s="117"/>
       <c r="X34" s="63" t="s">
         <v>186</v>
       </c>
@@ -19773,21 +20556,69 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" ht="12.75" customHeight="1">
       <c r="AC35" s="25"/>
     </row>
-    <row r="36" spans="1:29" s="2" customFormat="1" ht="13">
+    <row r="36" spans="1:29" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="B36" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="34">
+        <f t="shared" ref="F36" si="67">F12/B12-1</f>
+        <v>6.1527581329561487E-2</v>
+      </c>
+      <c r="G36" s="34">
+        <f t="shared" ref="G36" si="68">G12/C12-1</f>
+        <v>5.8945908460471541E-2</v>
+      </c>
+      <c r="H36" s="34">
+        <f t="shared" ref="H36" si="69">H12/D12-1</f>
+        <v>5.9711736444749475E-2</v>
+      </c>
       <c r="I36" s="34">
-        <f>I12/E12-1</f>
+        <f t="shared" ref="I36:L36" si="70">I12/E12-1</f>
         <v>5.9731543624160999E-2</v>
+      </c>
+      <c r="J36" s="34">
+        <f t="shared" si="70"/>
+        <v>5.5296469020652994E-2</v>
+      </c>
+      <c r="K36" s="34">
+        <f t="shared" si="70"/>
+        <v>3.9947609692206898E-2</v>
+      </c>
+      <c r="L36" s="34">
+        <f t="shared" si="70"/>
+        <v>3.303108808290145E-2</v>
       </c>
       <c r="M36" s="34">
         <f>M12/I12-1</f>
         <v>2.7865737808739688E-2</v>
       </c>
+      <c r="N36" s="34">
+        <f t="shared" ref="N36" si="71">N12/J12-1</f>
+        <v>3.0303030303030276E-2</v>
+      </c>
+      <c r="O36" s="34">
+        <f t="shared" ref="O36" si="72">O12/K12-1</f>
+        <v>3.6523929471032668E-2</v>
+      </c>
+      <c r="P36" s="34">
+        <f t="shared" ref="P36" si="73">P12/L12-1</f>
+        <v>3.7617554858934144E-2</v>
+      </c>
       <c r="Q36" s="34">
         <f>Q12/M12-1</f>
         <v>2.9574861367837268E-2</v>
@@ -19800,12 +20631,13 @@
         <f>S12/O12-1</f>
         <v>2.5516403402187082E-2</v>
       </c>
+      <c r="T36" s="122"/>
       <c r="Y36" s="34">
-        <f t="shared" ref="Y36:Z36" si="27">Y12/X12-1</f>
+        <f t="shared" ref="Y36:Z36" si="74">Y12/X12-1</f>
         <v>7.7752117013087041E-2</v>
       </c>
       <c r="Z36" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="74"/>
         <v>6.4285714285714279E-2</v>
       </c>
       <c r="AA36" s="34">
@@ -19821,18 +20653,66 @@
         <v>2.9574861367837268E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="81" customFormat="1" ht="13">
-      <c r="A37" s="87" t="s">
+    <row r="37" spans="1:29" s="81" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A37" s="85" t="s">
         <v>202</v>
       </c>
+      <c r="B37" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="129" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="129" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="129" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="81">
+        <f t="shared" ref="F37" si="75">F12-B12</f>
+        <v>87</v>
+      </c>
+      <c r="G37" s="81">
+        <f t="shared" ref="G37" si="76">G12-C12</f>
+        <v>85</v>
+      </c>
+      <c r="H37" s="81">
+        <f t="shared" ref="H37" si="77">H12-D12</f>
+        <v>87</v>
+      </c>
       <c r="I37" s="81">
-        <f>I12-E12</f>
+        <f t="shared" ref="I37:L37" si="78">I12-E12</f>
         <v>89</v>
+      </c>
+      <c r="J37" s="81">
+        <f t="shared" si="78"/>
+        <v>83</v>
+      </c>
+      <c r="K37" s="81">
+        <f t="shared" si="78"/>
+        <v>61</v>
+      </c>
+      <c r="L37" s="81">
+        <f t="shared" si="78"/>
+        <v>51</v>
       </c>
       <c r="M37" s="81">
         <f>M12-I12</f>
         <v>44</v>
       </c>
+      <c r="N37" s="81">
+        <f t="shared" ref="N37" si="79">N12-J12</f>
+        <v>48</v>
+      </c>
+      <c r="O37" s="81">
+        <f t="shared" ref="O37" si="80">O12-K12</f>
+        <v>58</v>
+      </c>
+      <c r="P37" s="81">
+        <f t="shared" ref="P37" si="81">P12-L12</f>
+        <v>60</v>
+      </c>
       <c r="Q37" s="81">
         <f>Q12-M12</f>
         <v>48</v>
@@ -19845,12 +20725,13 @@
         <f>S12-O12</f>
         <v>42</v>
       </c>
+      <c r="T37" s="116"/>
       <c r="Y37" s="81">
-        <f t="shared" ref="Y37:Z37" si="28">Y12-X12</f>
+        <f t="shared" ref="Y37:Z37" si="82">Y12-X12</f>
         <v>101</v>
       </c>
       <c r="Z37" s="81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="82"/>
         <v>90</v>
       </c>
       <c r="AA37" s="81">
@@ -19866,32 +20747,79 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" ht="12.75" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>203</v>
       </c>
+      <c r="B38" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="25">
+        <f t="shared" ref="C38" si="83">C12/B12-1</f>
+        <v>1.980198019801982E-2</v>
+      </c>
+      <c r="D38" s="25">
+        <f t="shared" ref="D38" si="84">D12/C12-1</f>
+        <v>1.0402219140083213E-2</v>
+      </c>
+      <c r="E38" s="25">
+        <f t="shared" ref="E38" si="85">E12/D12-1</f>
+        <v>2.2649279341111939E-2</v>
+      </c>
+      <c r="F38" s="25">
+        <f t="shared" ref="F38" si="86">F12/E12-1</f>
+        <v>7.382550335570448E-3</v>
+      </c>
+      <c r="G38" s="25">
+        <f t="shared" ref="G38" si="87">G12/F12-1</f>
+        <v>1.7321785476348994E-2</v>
+      </c>
+      <c r="H38" s="25">
+        <f t="shared" ref="H38" si="88">H12/G12-1</f>
+        <v>1.1132940406024971E-2</v>
+      </c>
+      <c r="I38" s="25">
+        <f t="shared" ref="I38" si="89">I12/H12-1</f>
+        <v>2.26683937823835E-2</v>
+      </c>
+      <c r="J38" s="25">
+        <f t="shared" ref="J38" si="90">J12/I12-1</f>
+        <v>3.1665611146294292E-3</v>
+      </c>
+      <c r="K38" s="25">
+        <f t="shared" ref="K38" si="91">K12/J12-1</f>
+        <v>2.525252525252597E-3</v>
+      </c>
+      <c r="L38" s="25">
+        <f t="shared" ref="L38" si="92">L12/K12-1</f>
+        <v>4.4080604534004753E-3</v>
+      </c>
+      <c r="M38" s="25">
+        <f t="shared" ref="M38" si="93">M12/L12-1</f>
+        <v>1.7554858934169193E-2</v>
+      </c>
       <c r="N38" s="25">
-        <f t="shared" ref="N38:S38" si="29">N12/M12-1</f>
+        <f t="shared" ref="N38" si="94">N12/M12-1</f>
         <v>5.5452865064695711E-3</v>
       </c>
       <c r="O38" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="O38" si="95">O12/N12-1</f>
         <v>8.5784313725489891E-3</v>
       </c>
       <c r="P38" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="N38:S38" si="96">P12/O12-1</f>
         <v>5.4678007290400732E-3</v>
       </c>
       <c r="Q38" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="96"/>
         <v>9.6676737160121817E-3</v>
       </c>
       <c r="R38" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="96"/>
         <v>3.5906642728904536E-3</v>
       </c>
       <c r="S38" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="96"/>
         <v>6.5593321407275695E-3</v>
       </c>
       <c r="X38" s="63" t="s">
@@ -19913,37 +20841,82 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="84" customFormat="1">
-      <c r="A39" s="89" t="s">
+    <row r="39" spans="1:29" s="83" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A39" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
+      <c r="B39" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="81">
+        <f t="shared" ref="C39" si="97">C12-B12</f>
+        <v>28</v>
+      </c>
+      <c r="D39" s="81">
+        <f t="shared" ref="D39" si="98">D12-C12</f>
+        <v>15</v>
+      </c>
+      <c r="E39" s="81">
+        <f t="shared" ref="E39" si="99">E12-D12</f>
+        <v>33</v>
+      </c>
+      <c r="F39" s="81">
+        <f t="shared" ref="F39" si="100">F12-E12</f>
+        <v>11</v>
+      </c>
+      <c r="G39" s="81">
+        <f t="shared" ref="G39" si="101">G12-F12</f>
+        <v>26</v>
+      </c>
+      <c r="H39" s="81">
+        <f t="shared" ref="H39" si="102">H12-G12</f>
+        <v>17</v>
+      </c>
+      <c r="I39" s="81">
+        <f t="shared" ref="I39" si="103">I12-H12</f>
+        <v>35</v>
+      </c>
+      <c r="J39" s="81">
+        <f t="shared" ref="J39" si="104">J12-I12</f>
+        <v>5</v>
+      </c>
+      <c r="K39" s="81">
+        <f t="shared" ref="K39" si="105">K12-J12</f>
+        <v>4</v>
+      </c>
+      <c r="L39" s="81">
+        <f t="shared" ref="L39" si="106">L12-K12</f>
+        <v>7</v>
+      </c>
+      <c r="M39" s="81">
+        <f t="shared" ref="M39" si="107">M12-L12</f>
+        <v>28</v>
+      </c>
       <c r="N39" s="81">
-        <f t="shared" ref="N39:S39" si="30">N12-M12</f>
+        <f t="shared" ref="N39" si="108">N12-M12</f>
         <v>9</v>
       </c>
       <c r="O39" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="O39" si="109">O12-N12</f>
         <v>14</v>
       </c>
       <c r="P39" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="N39:S39" si="110">P12-O12</f>
         <v>9</v>
       </c>
       <c r="Q39" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="110"/>
         <v>16</v>
       </c>
       <c r="R39" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="110"/>
         <v>6</v>
       </c>
       <c r="S39" s="81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="110"/>
         <v>11</v>
       </c>
+      <c r="T39" s="117"/>
       <c r="X39" s="63" t="s">
         <v>186</v>
       </c>
@@ -19963,23 +20936,71 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" ht="12.75" customHeight="1">
       <c r="AC40" s="25"/>
     </row>
-    <row r="41" spans="1:29" s="2" customFormat="1" ht="13">
+    <row r="41" spans="1:29" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="B41" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="34">
+        <f t="shared" ref="F41" si="111">F21/B21-1</f>
+        <v>-0.14726840855106893</v>
+      </c>
+      <c r="G41" s="34">
+        <f t="shared" ref="G41" si="112">G21/C21-1</f>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="H41" s="34">
+        <f t="shared" ref="H41" si="113">H21/D21-1</f>
+        <v>0.3745019920318724</v>
+      </c>
       <c r="I41" s="34">
-        <f t="shared" ref="I41" si="31">I21/E21-1</f>
+        <f t="shared" ref="I41" si="114">I21/E21-1</f>
         <v>-8.1521739130434812E-2</v>
       </c>
+      <c r="J41" s="34">
+        <f t="shared" ref="J41" si="115">J21/F21-1</f>
+        <v>-0.11420612813370479</v>
+      </c>
+      <c r="K41" s="34">
+        <f t="shared" ref="K41" si="116">K21/G21-1</f>
+        <v>-0.13498622589531684</v>
+      </c>
+      <c r="L41" s="34">
+        <f t="shared" ref="L41" si="117">L21/H21-1</f>
+        <v>-0.11014492753623184</v>
+      </c>
       <c r="M41" s="34">
-        <f t="shared" ref="M41" si="32">M21/I21-1</f>
+        <f t="shared" ref="M41" si="118">M21/I21-1</f>
         <v>-0.16863905325443784</v>
       </c>
+      <c r="N41" s="34">
+        <f t="shared" ref="N41" si="119">N21/J21-1</f>
+        <v>-0.14465408805031443</v>
+      </c>
+      <c r="O41" s="34">
+        <f t="shared" ref="O41" si="120">O21/K21-1</f>
+        <v>-2.5477707006369421E-2</v>
+      </c>
+      <c r="P41" s="34">
+        <f t="shared" ref="P41" si="121">P21/L21-1</f>
+        <v>1.9543973941368087E-2</v>
+      </c>
       <c r="Q41" s="34">
-        <f t="shared" ref="Q41" si="33">Q21/M21-1</f>
+        <f t="shared" ref="Q41" si="122">Q21/M21-1</f>
         <v>0.15658362989323837</v>
       </c>
       <c r="R41" s="34">
@@ -19987,19 +21008,20 @@
         <v>0.15808823529411775</v>
       </c>
       <c r="S41" s="34">
-        <f t="shared" ref="S41" si="34">S21/O21-1</f>
+        <f t="shared" ref="S41" si="123">S21/O21-1</f>
         <v>1.9607843137254832E-2</v>
       </c>
+      <c r="T41" s="122"/>
       <c r="Y41" s="34">
-        <f t="shared" ref="Y41" si="35">Y21/X21-1</f>
+        <f t="shared" ref="Y41" si="124">Y21/X21-1</f>
         <v>-3.3333333333333326E-2</v>
       </c>
       <c r="Z41" s="34">
-        <f t="shared" ref="Z41" si="36">Z21/Y21-1</f>
+        <f t="shared" ref="Z41" si="125">Z21/Y21-1</f>
         <v>-0.15402298850574714</v>
       </c>
       <c r="AA41" s="34">
-        <f t="shared" ref="AA41" si="37">AA21/Z21-1</f>
+        <f t="shared" ref="AA41" si="126">AA21/Z21-1</f>
         <v>-8.1521739130434812E-2</v>
       </c>
       <c r="AB41" s="34">
@@ -20011,69 +21033,165 @@
         <v>0.15658362989323837</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="86" customFormat="1" ht="13">
-      <c r="A42" s="90" t="s">
+    <row r="42" spans="1:29" s="84" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A42" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="I42" s="86">
-        <f>I21-E21</f>
+      <c r="B42" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="129" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="129" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="129" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" s="84">
+        <f t="shared" ref="F42" si="127">F21-B21</f>
+        <v>-62</v>
+      </c>
+      <c r="G42" s="84">
+        <f t="shared" ref="G42" si="128">G21-C21</f>
+        <v>3</v>
+      </c>
+      <c r="H42" s="84">
+        <f t="shared" ref="H42" si="129">H21-D21</f>
+        <v>94</v>
+      </c>
+      <c r="I42" s="84">
+        <f t="shared" ref="I42:L42" si="130">I21-E21</f>
         <v>-30</v>
       </c>
-      <c r="M42" s="86">
+      <c r="J42" s="84">
+        <f t="shared" si="130"/>
+        <v>-41</v>
+      </c>
+      <c r="K42" s="84">
+        <f t="shared" si="130"/>
+        <v>-49</v>
+      </c>
+      <c r="L42" s="84">
+        <f t="shared" si="130"/>
+        <v>-38</v>
+      </c>
+      <c r="M42" s="84">
         <f>M21-I21</f>
         <v>-57</v>
       </c>
-      <c r="Q42" s="86">
-        <f t="shared" ref="Q42:R42" si="38">Q21-M21</f>
+      <c r="N42" s="84">
+        <f t="shared" ref="N42" si="131">N21-J21</f>
+        <v>-46</v>
+      </c>
+      <c r="O42" s="84">
+        <f t="shared" ref="O42" si="132">O21-K21</f>
+        <v>-8</v>
+      </c>
+      <c r="P42" s="84">
+        <f t="shared" ref="P42" si="133">P21-L21</f>
+        <v>6</v>
+      </c>
+      <c r="Q42" s="84">
+        <f t="shared" ref="Q42:R42" si="134">Q21-M21</f>
         <v>44</v>
       </c>
-      <c r="R42" s="86">
-        <f t="shared" si="38"/>
+      <c r="R42" s="84">
+        <f t="shared" si="134"/>
         <v>43</v>
       </c>
-      <c r="S42" s="86">
+      <c r="S42" s="84">
         <f>S21-O21</f>
         <v>6</v>
       </c>
-      <c r="Y42" s="86">
-        <f t="shared" ref="Y42" si="39">Y21-X21</f>
+      <c r="T42" s="118"/>
+      <c r="Y42" s="84">
+        <f t="shared" ref="Y42" si="135">Y21-X21</f>
         <v>-15</v>
       </c>
-      <c r="Z42" s="86">
-        <f t="shared" ref="Z42" si="40">Z21-Y21</f>
+      <c r="Z42" s="84">
+        <f t="shared" ref="Z42" si="136">Z21-Y21</f>
         <v>-67</v>
       </c>
-      <c r="AA42" s="86">
-        <f t="shared" ref="AA42:AB42" si="41">AA21-Z21</f>
+      <c r="AA42" s="84">
+        <f t="shared" ref="AA42:AB42" si="137">AA21-Z21</f>
         <v>-30</v>
       </c>
-      <c r="AB42" s="86">
-        <f t="shared" si="41"/>
+      <c r="AB42" s="84">
+        <f t="shared" si="137"/>
         <v>-57</v>
       </c>
-      <c r="AC42" s="86">
+      <c r="AC42" s="84">
         <f>AC21-AB21</f>
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" ht="12.75" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>216</v>
       </c>
+      <c r="B43" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="25">
+        <f t="shared" ref="C43" si="138">C21/B21-1</f>
+        <v>-0.14489311163895491</v>
+      </c>
+      <c r="D43" s="25">
+        <f t="shared" ref="D43" si="139">D21/C21-1</f>
+        <v>-0.30277777777777781</v>
+      </c>
+      <c r="E43" s="25">
+        <f t="shared" ref="E43" si="140">E21/D21-1</f>
+        <v>0.46613545816733071</v>
+      </c>
+      <c r="F43" s="25">
+        <f t="shared" ref="F43" si="141">F21/E21-1</f>
+        <v>-2.4456521739130488E-2</v>
+      </c>
+      <c r="G43" s="25">
+        <f t="shared" ref="G43" si="142">G21/F21-1</f>
+        <v>1.1142061281337101E-2</v>
+      </c>
+      <c r="H43" s="25">
+        <f t="shared" ref="H43" si="143">H21/G21-1</f>
+        <v>-4.9586776859504078E-2</v>
+      </c>
+      <c r="I43" s="25">
+        <f t="shared" ref="I43" si="144">I21/H21-1</f>
+        <v>-2.0289855072463725E-2</v>
+      </c>
+      <c r="J43" s="25">
+        <f t="shared" ref="J43" si="145">J21/I21-1</f>
+        <v>-5.9171597633136064E-2</v>
+      </c>
+      <c r="K43" s="25">
+        <f t="shared" ref="K43" si="146">K21/J21-1</f>
+        <v>-1.2578616352201255E-2</v>
+      </c>
+      <c r="L43" s="25">
+        <f t="shared" ref="L43" si="147">L21/K21-1</f>
+        <v>-2.2292993630573243E-2</v>
+      </c>
+      <c r="M43" s="25">
+        <f t="shared" ref="M43" si="148">M21/L21-1</f>
+        <v>-8.4690553745928376E-2</v>
+      </c>
       <c r="N43" s="25">
-        <f t="shared" ref="N43:P43" si="42">N21/M21-1</f>
+        <f t="shared" ref="N43" si="149">N21/M21-1</f>
         <v>-3.2028469750889688E-2</v>
       </c>
       <c r="O43" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="O43" si="150">O21/N21-1</f>
         <v>0.125</v>
       </c>
       <c r="P43" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="N43:P43" si="151">P21/O21-1</f>
         <v>2.2875816993463971E-2</v>
       </c>
       <c r="Q43" s="25">
-        <f t="shared" ref="Q43" si="43">Q21/P21-1</f>
+        <f t="shared" ref="Q43" si="152">Q21/P21-1</f>
         <v>3.833865814696491E-2</v>
       </c>
       <c r="R43" s="25">
@@ -20081,7 +21199,7 @@
         <v>-3.0769230769230771E-2</v>
       </c>
       <c r="S43" s="25">
-        <f t="shared" ref="S43" si="44">S21/R21-1</f>
+        <f t="shared" ref="S43" si="153">S21/R21-1</f>
         <v>-9.52380952380949E-3</v>
       </c>
       <c r="X43" s="63" t="s">
@@ -20103,37 +21221,82 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="84" customFormat="1">
-      <c r="A44" s="89" t="s">
+    <row r="44" spans="1:29" s="83" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A44" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
+      <c r="B44" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="81">
+        <f t="shared" ref="C44" si="154">C21-B21</f>
+        <v>-61</v>
+      </c>
+      <c r="D44" s="81">
+        <f t="shared" ref="D44" si="155">D21-C21</f>
+        <v>-109</v>
+      </c>
+      <c r="E44" s="81">
+        <f t="shared" ref="E44" si="156">E21-D21</f>
+        <v>117</v>
+      </c>
+      <c r="F44" s="81">
+        <f t="shared" ref="F44" si="157">F21-E21</f>
+        <v>-9</v>
+      </c>
+      <c r="G44" s="81">
+        <f t="shared" ref="G44" si="158">G21-F21</f>
+        <v>4</v>
+      </c>
+      <c r="H44" s="81">
+        <f t="shared" ref="H44" si="159">H21-G21</f>
+        <v>-18</v>
+      </c>
+      <c r="I44" s="81">
+        <f t="shared" ref="I44" si="160">I21-H21</f>
+        <v>-7</v>
+      </c>
+      <c r="J44" s="81">
+        <f t="shared" ref="J44" si="161">J21-I21</f>
+        <v>-20</v>
+      </c>
+      <c r="K44" s="81">
+        <f t="shared" ref="K44" si="162">K21-J21</f>
+        <v>-4</v>
+      </c>
+      <c r="L44" s="81">
+        <f t="shared" ref="L44" si="163">L21-K21</f>
+        <v>-7</v>
+      </c>
+      <c r="M44" s="81">
+        <f t="shared" ref="M44" si="164">M21-L21</f>
+        <v>-26</v>
+      </c>
       <c r="N44" s="81">
-        <f t="shared" ref="N44:R44" si="45">N21-M21</f>
+        <f t="shared" ref="N44" si="165">N21-M21</f>
         <v>-9</v>
       </c>
       <c r="O44" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="O44" si="166">O21-N21</f>
         <v>34</v>
       </c>
       <c r="P44" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="N44:R44" si="167">P21-O21</f>
         <v>7</v>
       </c>
       <c r="Q44" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="167"/>
         <v>12</v>
       </c>
       <c r="R44" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="167"/>
         <v>-10</v>
       </c>
       <c r="S44" s="81">
         <f>S21-R21</f>
         <v>-3</v>
       </c>
+      <c r="T44" s="117"/>
       <c r="X44" s="63" t="s">
         <v>186</v>
       </c>
@@ -20153,31 +21316,41 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" ht="12.75" customHeight="1">
       <c r="N47" s="76"/>
     </row>
-    <row r="49" spans="14:14">
+    <row r="49" spans="14:14" ht="12.75" customHeight="1">
       <c r="N49" s="75"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{3579012F-D250-C14B-8084-0358505A2D9B}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{77A3087C-239B-E34B-8F51-3E2EA54A463A}"/>
-    <hyperlink ref="P2" r:id="rId3" xr:uid="{614FFF93-232C-A94F-8FDC-F25E6D371847}"/>
-    <hyperlink ref="N2" r:id="rId4" xr:uid="{9287A329-D88E-784B-8BDF-1EDA927EB785}"/>
-    <hyperlink ref="S2" r:id="rId5" xr:uid="{6AF4C14B-B6A4-FE47-B0D3-A570A390AD5C}"/>
-    <hyperlink ref="O2" r:id="rId6" xr:uid="{0A17F8BF-EADB-DE42-994D-117A4F2CB3FE}"/>
-    <hyperlink ref="AC2" r:id="rId7" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/282b37b7-69b6-46c3-86f1-3d03bb11cc0e?origin=1" xr:uid="{9A635200-D40C-2C47-BF87-74A9C3DCF160}"/>
-    <hyperlink ref="M2" r:id="rId8" xr:uid="{F1748A46-ECC6-544E-9D30-C00CF38C6CF7}"/>
-    <hyperlink ref="AB2" r:id="rId9" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/631b88c4-9ae6-429c-98d6-230db8273d60?origin=1" xr:uid="{D9538A1F-7DBB-FA44-9BE7-595A80C2AFB9}"/>
-    <hyperlink ref="AA2" r:id="rId10" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/2b63fed1-515f-4f82-a272-84c564557830?origin=1" xr:uid="{D1A1F548-67B5-7A4D-985A-0DFAFE22EBD5}"/>
-    <hyperlink ref="I2" r:id="rId11" xr:uid="{998E2907-64B9-7A44-8D65-8083912D2D62}"/>
-    <hyperlink ref="E2" r:id="rId12" xr:uid="{5D689E99-05ED-E34E-9D87-28B9F22988C9}"/>
-    <hyperlink ref="Z2" r:id="rId13" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/38d6b5b1-73e3-4d7d-aca3-84a2d5bbf813?origin=1" xr:uid="{6F460F9A-C5E5-A44E-8E60-30FD06C106C2}"/>
-    <hyperlink ref="Y2" r:id="rId14" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/ed568644-a6d5-4205-a73d-0b3221ad8c90?origin=1" xr:uid="{753E2A88-CB41-C94C-B023-B46ED8394A35}"/>
-    <hyperlink ref="X2" r:id="rId15" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/3dfd5b58-8699-43d1-850f-8f68d67c11ee?origin=1" xr:uid="{B50E4D75-D405-DD4B-9E35-C517F0E7814A}"/>
+    <hyperlink ref="R1" r:id="rId1" xr:uid="{3579012F-D250-C14B-8084-0358505A2D9B}"/>
+    <hyperlink ref="Q1" r:id="rId2" xr:uid="{77A3087C-239B-E34B-8F51-3E2EA54A463A}"/>
+    <hyperlink ref="P1" r:id="rId3" xr:uid="{614FFF93-232C-A94F-8FDC-F25E6D371847}"/>
+    <hyperlink ref="N1" r:id="rId4" xr:uid="{9287A329-D88E-784B-8BDF-1EDA927EB785}"/>
+    <hyperlink ref="S1" r:id="rId5" xr:uid="{6AF4C14B-B6A4-FE47-B0D3-A570A390AD5C}"/>
+    <hyperlink ref="O1" r:id="rId6" xr:uid="{0A17F8BF-EADB-DE42-994D-117A4F2CB3FE}"/>
+    <hyperlink ref="AC1" r:id="rId7" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/282b37b7-69b6-46c3-86f1-3d03bb11cc0e?origin=1" xr:uid="{9A635200-D40C-2C47-BF87-74A9C3DCF160}"/>
+    <hyperlink ref="M1" r:id="rId8" xr:uid="{F1748A46-ECC6-544E-9D30-C00CF38C6CF7}"/>
+    <hyperlink ref="AB1" r:id="rId9" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/631b88c4-9ae6-429c-98d6-230db8273d60?origin=1" xr:uid="{D9538A1F-7DBB-FA44-9BE7-595A80C2AFB9}"/>
+    <hyperlink ref="AA1" r:id="rId10" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/2b63fed1-515f-4f82-a272-84c564557830?origin=1" xr:uid="{D1A1F548-67B5-7A4D-985A-0DFAFE22EBD5}"/>
+    <hyperlink ref="I1" r:id="rId11" xr:uid="{998E2907-64B9-7A44-8D65-8083912D2D62}"/>
+    <hyperlink ref="E1" r:id="rId12" xr:uid="{5D689E99-05ED-E34E-9D87-28B9F22988C9}"/>
+    <hyperlink ref="Z1" r:id="rId13" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/38d6b5b1-73e3-4d7d-aca3-84a2d5bbf813?origin=1" xr:uid="{6F460F9A-C5E5-A44E-8E60-30FD06C106C2}"/>
+    <hyperlink ref="Y1" r:id="rId14" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/ed568644-a6d5-4205-a73d-0b3221ad8c90?origin=1" xr:uid="{753E2A88-CB41-C94C-B023-B46ED8394A35}"/>
+    <hyperlink ref="X1" r:id="rId15" display="https://api.mziq.com/mzfilemanager/v2/d/12a56b3a-7b37-4dba-b80a-f3358bf66b71/3dfd5b58-8699-43d1-850f-8f68d67c11ee?origin=1" xr:uid="{B50E4D75-D405-DD4B-9E35-C517F0E7814A}"/>
+    <hyperlink ref="L1" r:id="rId16" xr:uid="{E0D344DF-ECD3-4969-946B-75165895949D}"/>
+    <hyperlink ref="K1" r:id="rId17" xr:uid="{34FDBE06-551B-4817-B842-42B3C369DE44}"/>
+    <hyperlink ref="J1" r:id="rId18" xr:uid="{8672DEA7-6978-4CBC-A339-3D96580B25F6}"/>
+    <hyperlink ref="H1" r:id="rId19" xr:uid="{17B363D6-A0A5-40EB-B7DB-DDC426C51A14}"/>
+    <hyperlink ref="G1" r:id="rId20" xr:uid="{31E18C39-D30F-4CE8-9CC8-617FD1B8BCF2}"/>
+    <hyperlink ref="F1" r:id="rId21" xr:uid="{C604ED82-58BF-4FA7-9129-2334C1DCA7D7}"/>
+    <hyperlink ref="D1" r:id="rId22" xr:uid="{9AA615B1-70E4-40CE-8BD9-FA369F45AAE7}"/>
+    <hyperlink ref="C1" r:id="rId23" xr:uid="{B190BD40-76B4-4C45-B1D6-B5043307E3B6}"/>
+    <hyperlink ref="B1" r:id="rId24" xr:uid="{2E883042-0703-4781-AC08-6A8AD2EAD4EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId16"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId25"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FC0ECB-AA15-4B4A-9E34-D4180A2C7992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12445F0-8CAF-4307-9548-A7F465B79E5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="256">
   <si>
     <t>$ERJ</t>
   </si>
@@ -929,6 +929,9 @@
   </si>
   <si>
     <t>FY14</t>
+  </si>
+  <si>
+    <t>Embraer closes $650m syndicated credit facility to regain access to financial resources for 3 years @ fixed rates</t>
   </si>
 </sst>
 </file>
@@ -6265,10 +6268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F324B-1DEB-44A7-A7E2-319E26170844}">
-  <dimension ref="A2:AC53"/>
+  <dimension ref="A2:AC56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6330,17 +6333,17 @@
         <v>44835</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
+        <v>255</v>
+      </c>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
       <c r="R6" s="38"/>
       <c r="T6" s="41" t="s">
         <v>148</v>
@@ -6365,18 +6368,16 @@
         <v>Q222</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
       <c r="R7" s="38"/>
       <c r="T7" s="46" t="s">
         <v>84</v>
@@ -6399,18 +6400,16 @@
       </c>
       <c r="D8" s="18"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
       <c r="R8" s="38"/>
       <c r="T8" s="45" t="s">
         <v>137</v>
@@ -6435,8 +6434,12 @@
         <f>$C$28</f>
         <v>Q222</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="37"/>
+      <c r="G9" s="9">
+        <v>44835</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -6466,11 +6469,9 @@
         <f>$C$28</f>
         <v>Q222</v>
       </c>
-      <c r="G10" s="9">
-        <v>44835</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>29</v>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
@@ -6503,7 +6504,7 @@
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
@@ -6556,8 +6557,12 @@
       <c r="AC12" s="111"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="G13" s="10"/>
-      <c r="H13" s="37"/>
+      <c r="G13" s="9">
+        <v>44835</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
@@ -6585,11 +6590,9 @@
       <c r="AC13" s="119"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="G14" s="9">
-        <v>44805</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>187</v>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
@@ -6708,17 +6711,17 @@
         <v>44805</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
+        <v>187</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
       <c r="R17" s="38"/>
       <c r="T17" s="42"/>
       <c r="U17" s="37"/>
@@ -6741,18 +6744,16 @@
       <c r="C18" s="114"/>
       <c r="D18" s="115"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
       <c r="R18" s="38"/>
       <c r="T18" s="46" t="s">
         <v>139</v>
@@ -6777,18 +6778,16 @@
       <c r="C19" s="116"/>
       <c r="D19" s="117"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
       <c r="R19" s="38"/>
       <c r="T19" s="45" t="s">
         <v>142</v>
@@ -6809,9 +6808,11 @@
       <c r="AC19" s="115"/>
     </row>
     <row r="20" spans="2:29">
-      <c r="G20" s="10"/>
-      <c r="H20" s="8" t="s">
-        <v>191</v>
+      <c r="G20" s="9">
+        <v>44805</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="I20" s="60"/>
       <c r="J20" s="60"/>
@@ -6822,9 +6823,7 @@
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="60"/>
-      <c r="R20" s="51" t="s">
-        <v>194</v>
-      </c>
+      <c r="R20" s="38"/>
       <c r="T20" s="45" t="s">
         <v>141</v>
       </c>
@@ -6845,7 +6844,9 @@
     </row>
     <row r="21" spans="2:29">
       <c r="G21" s="10"/>
-      <c r="H21" s="60"/>
+      <c r="H21" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="I21" s="60"/>
       <c r="J21" s="60"/>
       <c r="K21" s="60"/>
@@ -6875,7 +6876,9 @@
       <c r="C22" s="110"/>
       <c r="D22" s="111"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="60"/>
+      <c r="H22" s="8" t="s">
+        <v>193</v>
+      </c>
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
       <c r="K22" s="60"/>
@@ -6906,11 +6909,9 @@
         <v>132</v>
       </c>
       <c r="D23" s="115"/>
-      <c r="G23" s="9">
-        <v>44743</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>196</v>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="I23" s="60"/>
       <c r="J23" s="60"/>
@@ -6921,7 +6922,9 @@
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="60"/>
-      <c r="R23" s="38"/>
+      <c r="R23" s="51" t="s">
+        <v>194</v>
+      </c>
       <c r="T23" s="42"/>
       <c r="U23" s="37"/>
       <c r="V23" s="37"/>
@@ -6936,9 +6939,7 @@
       </c>
       <c r="D24" s="115"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="8" t="s">
-        <v>197</v>
-      </c>
+      <c r="H24" s="60"/>
       <c r="I24" s="60"/>
       <c r="J24" s="60"/>
       <c r="K24" s="60"/>
@@ -6961,9 +6962,7 @@
       <c r="C25" s="114"/>
       <c r="D25" s="115"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="50" t="s">
-        <v>198</v>
-      </c>
+      <c r="H25" s="60"/>
       <c r="I25" s="60"/>
       <c r="J25" s="60"/>
       <c r="K25" s="60"/>
@@ -6990,8 +6989,12 @@
         <v>2392.9</v>
       </c>
       <c r="D26" s="113"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="60"/>
+      <c r="G26" s="9">
+        <v>44743</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="I26" s="60"/>
       <c r="J26" s="60"/>
       <c r="K26" s="60"/>
@@ -7013,21 +7016,19 @@
       <c r="B27" s="10"/>
       <c r="C27" s="114"/>
       <c r="D27" s="115"/>
-      <c r="G27" s="9">
-        <v>44743</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
       <c r="R27" s="38"/>
       <c r="T27" s="45" t="s">
         <v>146</v>
@@ -7047,8 +7048,8 @@
         <v>44777</v>
       </c>
       <c r="G28" s="10"/>
-      <c r="H28" s="8" t="s">
-        <v>242</v>
+      <c r="H28" s="50" t="s">
+        <v>198</v>
       </c>
       <c r="I28" s="60"/>
       <c r="J28" s="60"/>
@@ -7094,20 +7095,20 @@
     </row>
     <row r="30" spans="2:29">
       <c r="G30" s="9">
-        <v>44682</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
+        <v>44743</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
       <c r="R30" s="38"/>
       <c r="T30" s="42"/>
       <c r="U30" s="37"/>
@@ -7117,7 +7118,7 @@
     <row r="31" spans="2:29">
       <c r="G31" s="10"/>
       <c r="H31" s="8" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I31" s="60"/>
       <c r="J31" s="60"/>
@@ -7128,9 +7129,7 @@
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="60"/>
-      <c r="R31" s="51" t="s">
-        <v>31</v>
-      </c>
+      <c r="R31" s="38"/>
       <c r="T31" s="46" t="s">
         <v>149</v>
       </c>
@@ -7173,20 +7172,20 @@
       </c>
       <c r="D33" s="125"/>
       <c r="G33" s="9">
-        <v>43922</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
+        <v>44682</v>
+      </c>
+      <c r="H33" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
       <c r="R33" s="38"/>
       <c r="T33" s="42"/>
       <c r="U33" s="37"/>
@@ -7204,18 +7203,20 @@
       <c r="D34" s="125"/>
       <c r="G34" s="10"/>
       <c r="H34" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="38"/>
+        <v>251</v>
+      </c>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="T34" s="43"/>
       <c r="U34" s="35"/>
       <c r="V34" s="35"/>
@@ -7231,23 +7232,25 @@
       </c>
       <c r="D35" s="121"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="51" t="s">
-        <v>31</v>
-      </c>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="38"/>
     </row>
     <row r="36" spans="2:23">
-      <c r="G36" s="10"/>
-      <c r="H36" s="37"/>
+      <c r="G36" s="9">
+        <v>43922</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>164</v>
+      </c>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
@@ -7260,11 +7263,9 @@
       <c r="R36" s="38"/>
     </row>
     <row r="37" spans="2:23">
-      <c r="G37" s="9">
-        <v>43770</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>167</v>
+      <c r="G37" s="10"/>
+      <c r="H37" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
@@ -7290,9 +7291,7 @@
       <c r="C38" s="110"/>
       <c r="D38" s="111"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="50" t="s">
-        <v>168</v>
-      </c>
+      <c r="H38" s="37"/>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
@@ -7302,7 +7301,9 @@
       <c r="O38" s="37"/>
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
-      <c r="R38" s="38"/>
+      <c r="R38" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="T38" s="42" t="s">
         <v>159</v>
       </c>
@@ -7346,10 +7347,10 @@
         <v>31</v>
       </c>
       <c r="G40" s="9">
-        <v>43739</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>246</v>
+        <v>43770</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>167</v>
       </c>
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
@@ -7359,9 +7360,7 @@
       <c r="N40" s="37"/>
       <c r="O40" s="37"/>
       <c r="P40" s="37"/>
-      <c r="Q40" s="37" t="s">
-        <v>179</v>
-      </c>
+      <c r="Q40" s="37"/>
       <c r="R40" s="38"/>
       <c r="T40" s="44" t="s">
         <v>161</v>
@@ -7377,7 +7376,9 @@
         <v>31</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="60"/>
+      <c r="H41" s="50" t="s">
+        <v>168</v>
+      </c>
       <c r="I41" s="37"/>
       <c r="J41" s="37"/>
       <c r="K41" s="37"/>
@@ -7424,8 +7425,12 @@
       <c r="D43" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="37"/>
+      <c r="G43" s="9">
+        <v>43739</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
       <c r="K43" s="37"/>
@@ -7434,7 +7439,9 @@
       <c r="N43" s="37"/>
       <c r="O43" s="37"/>
       <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
+      <c r="Q43" s="37" t="s">
+        <v>179</v>
+      </c>
       <c r="R43" s="38"/>
       <c r="T43" s="61" t="s">
         <v>200</v>
@@ -7444,12 +7451,8 @@
       <c r="W43" s="38"/>
     </row>
     <row r="44" spans="2:23">
-      <c r="G44" s="9">
-        <v>43586</v>
-      </c>
-      <c r="H44" s="60" t="s">
-        <v>166</v>
-      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="60"/>
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
@@ -7482,12 +7485,8 @@
       <c r="R45" s="38"/>
     </row>
     <row r="46" spans="2:23">
-      <c r="G46" s="9">
-        <v>43282</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>162</v>
-      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="37"/>
       <c r="I46" s="37"/>
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
@@ -7500,9 +7499,11 @@
       <c r="R46" s="38"/>
     </row>
     <row r="47" spans="2:23">
-      <c r="G47" s="10"/>
-      <c r="H47" s="8" t="s">
-        <v>163</v>
+      <c r="G47" s="9">
+        <v>43586</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>166</v>
       </c>
       <c r="I47" s="37"/>
       <c r="J47" s="37"/>
@@ -7517,51 +7518,57 @@
     </row>
     <row r="48" spans="2:23">
       <c r="G48" s="10"/>
-      <c r="H48" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
       <c r="R48" s="38"/>
     </row>
     <row r="49" spans="7:18">
-      <c r="G49" s="10"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="60"/>
+      <c r="G49" s="9">
+        <v>43282</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
       <c r="R49" s="38"/>
     </row>
     <row r="50" spans="7:18">
       <c r="G50" s="10"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="60"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="60"/>
-      <c r="Q50" s="60"/>
+      <c r="H50" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
       <c r="R50" s="38"/>
     </row>
     <row r="51" spans="7:18">
       <c r="G51" s="10"/>
-      <c r="H51" s="60"/>
+      <c r="H51" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="I51" s="60"/>
       <c r="J51" s="60"/>
       <c r="K51" s="60"/>
@@ -7588,22 +7595,64 @@
       <c r="R52" s="38"/>
     </row>
     <row r="53" spans="7:18">
-      <c r="G53" s="91">
+      <c r="G53" s="10"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="38"/>
+    </row>
+    <row r="54" spans="7:18">
+      <c r="G54" s="10"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="38"/>
+    </row>
+    <row r="55" spans="7:18">
+      <c r="G55" s="10"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="38"/>
+    </row>
+    <row r="56" spans="7:18">
+      <c r="G56" s="91">
         <v>42552</v>
       </c>
-      <c r="H53" s="54" t="s">
+      <c r="H56" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="36"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -7653,26 +7702,27 @@
     <mergeCell ref="AB13:AC13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
-    <hyperlink ref="H10" r:id="rId2" xr:uid="{64917365-2EAB-45F1-BFD3-E1E4F5A494BB}"/>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
+    <hyperlink ref="H13" r:id="rId2" xr:uid="{64917365-2EAB-45F1-BFD3-E1E4F5A494BB}"/>
     <hyperlink ref="C29:D29" r:id="rId3" display="Link" xr:uid="{11C3F337-5FA5-4654-84A9-81E0FD7B340B}"/>
-    <hyperlink ref="R35" r:id="rId4" location="Boeing_Embraer_-_Defense" xr:uid="{CC492105-8696-4FC6-849B-A673602C4CB8}"/>
-    <hyperlink ref="H14" r:id="rId5" xr:uid="{E8520AE3-EE90-4F9C-82B7-9DC79CF177B0}"/>
-    <hyperlink ref="H17" r:id="rId6" display="L3Harris &amp; Embraer to develop new agile tanker varient of KC-390 to support USAF Operational Imperatives" xr:uid="{51AAA14D-A039-4171-BC04-5AAB9894A308}"/>
-    <hyperlink ref="R20" r:id="rId7" display="Link" xr:uid="{AE9B4E32-1957-4A54-8E54-10A62C8F25C4}"/>
-    <hyperlink ref="H23" r:id="rId8" display="Reuters report $ERJ expected to select engine in Q4 for potential turboprop launch in 2023" xr:uid="{3D245668-921A-4888-B384-DE0FC15EB559}"/>
+    <hyperlink ref="R38" r:id="rId4" location="Boeing_Embraer_-_Defense" xr:uid="{CC492105-8696-4FC6-849B-A673602C4CB8}"/>
+    <hyperlink ref="H17" r:id="rId5" xr:uid="{E8520AE3-EE90-4F9C-82B7-9DC79CF177B0}"/>
+    <hyperlink ref="H20" r:id="rId6" display="L3Harris &amp; Embraer to develop new agile tanker varient of KC-390 to support USAF Operational Imperatives" xr:uid="{51AAA14D-A039-4171-BC04-5AAB9894A308}"/>
+    <hyperlink ref="R23" r:id="rId7" display="Link" xr:uid="{AE9B4E32-1957-4A54-8E54-10A62C8F25C4}"/>
+    <hyperlink ref="H26" r:id="rId8" display="Reuters report $ERJ expected to select engine in Q4 for potential turboprop launch in 2023" xr:uid="{3D245668-921A-4888-B384-DE0FC15EB559}"/>
     <hyperlink ref="W44" r:id="rId9" xr:uid="{F9FF1395-9489-4EC9-819E-D412DF0569AE}"/>
     <hyperlink ref="Z13:AA13" r:id="rId10" display="A220-300" xr:uid="{76602C0E-D63D-8640-97A0-C7DAD332148A}"/>
     <hyperlink ref="AB13:AC13" r:id="rId11" display="E195-E2" xr:uid="{A43FCCB3-64E0-D54D-A779-4F0C857321F6}"/>
-    <hyperlink ref="H27" r:id="rId12" xr:uid="{3143C16C-C4FE-C24A-A852-CE844A7EAA94}"/>
-    <hyperlink ref="H40" r:id="rId13" display="Airbus confirmed there are no plans to certify the A220-300 for LCY steep approach operations" xr:uid="{4BC4DC42-4422-D843-BFC6-DF67D759C7CD}"/>
+    <hyperlink ref="H30" r:id="rId12" xr:uid="{3143C16C-C4FE-C24A-A852-CE844A7EAA94}"/>
+    <hyperlink ref="H43" r:id="rId13" display="Airbus confirmed there are no plans to certify the A220-300 for LCY steep approach operations" xr:uid="{4BC4DC42-4422-D843-BFC6-DF67D759C7CD}"/>
     <hyperlink ref="D40" r:id="rId14" xr:uid="{127B302A-DD6D-6242-BA6C-25C1ED72AA7F}"/>
     <hyperlink ref="D39" r:id="rId15" xr:uid="{5B8750C0-94FB-994C-A836-E02A7A36CFF2}"/>
-    <hyperlink ref="R31" r:id="rId16" xr:uid="{A3EFD621-318B-6143-AEF4-A74D7A31D835}"/>
+    <hyperlink ref="R34" r:id="rId16" xr:uid="{A3EFD621-318B-6143-AEF4-A74D7A31D835}"/>
+    <hyperlink ref="H6" r:id="rId17" xr:uid="{78DCAE8D-F9F2-4AFF-AEAC-B88136D9C452}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId17"/>
-  <drawing r:id="rId18"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId18"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -7680,11 +7730,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D70B2A-3077-4926-AE7B-39AF91889CD9}">
   <dimension ref="B1:AO141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -8510,6 +8560,7 @@
       <c r="T10" s="27">
         <v>785.6</v>
       </c>
+      <c r="V10" s="27"/>
       <c r="X10" s="27">
         <v>5038.3</v>
       </c>
@@ -8611,6 +8662,7 @@
         <f t="shared" si="1"/>
         <v>233.29999999999995</v>
       </c>
+      <c r="V11" s="26"/>
       <c r="X11" s="26">
         <f t="shared" ref="X11:AC11" si="2">X9-X10</f>
         <v>1250.5</v>
@@ -8785,6 +8837,7 @@
       <c r="T13" s="27">
         <v>67.400000000000006</v>
       </c>
+      <c r="V13" s="25"/>
       <c r="X13" s="27">
         <v>419.9</v>
       </c>
@@ -10475,7 +10528,7 @@
         <v>0.2289724212385906</v>
       </c>
       <c r="X36" s="25">
-        <f t="shared" ref="X36:Z36" si="52">X11/X9</f>
+        <f t="shared" ref="X36:Y36" si="52">X11/X9</f>
         <v>0.19884556672179113</v>
       </c>
       <c r="Y36" s="25">
@@ -10584,7 +10637,7 @@
         <v>6.5462753950338556E-2</v>
       </c>
       <c r="X37" s="25">
-        <f t="shared" ref="X37:Z37" si="64">X18/X9</f>
+        <f t="shared" ref="X37:Y37" si="64">X18/X9</f>
         <v>8.6391680447780173E-2</v>
       </c>
       <c r="Y37" s="25">
@@ -10693,7 +10746,7 @@
         <v>7.2725488271665487E-2</v>
       </c>
       <c r="X38" s="25">
-        <f t="shared" ref="X38:Z38" si="76">X23/X9</f>
+        <f t="shared" ref="X38:Y38" si="76">X23/X9</f>
         <v>5.5288767332400457E-2</v>
       </c>
       <c r="Y38" s="25">
@@ -10802,7 +10855,7 @@
         <v>-0.49696969696969745</v>
       </c>
       <c r="X39" s="25">
-        <f t="shared" ref="X39:Z39" si="87">X22/X21</f>
+        <f t="shared" ref="X39:Y39" si="87">X22/X21</f>
         <v>0.30998213931335583</v>
       </c>
       <c r="Y39" s="25">
@@ -10916,7 +10969,7 @@
         <v>32</v>
       </c>
       <c r="X43" s="2">
-        <f t="shared" ref="X43:Z43" si="98">X44+X52</f>
+        <f t="shared" ref="X43:Y43" si="98">X44+X52</f>
         <v>208</v>
       </c>
       <c r="Y43" s="2">
@@ -11025,7 +11078,7 @@
         <v>11</v>
       </c>
       <c r="X44" s="40">
-        <f t="shared" ref="X44:Z44" si="105">SUM(X45:X50)</f>
+        <f t="shared" ref="X44:Y44" si="105">SUM(X45:X50)</f>
         <v>92</v>
       </c>
       <c r="Y44" s="40">
@@ -11635,7 +11688,7 @@
         <v>21</v>
       </c>
       <c r="X52" s="40">
-        <f t="shared" ref="X52:Z52" si="114">X53+X54+X55</f>
+        <f t="shared" ref="X52:Y52" si="114">X53+X54+X55</f>
         <v>116</v>
       </c>
       <c r="Y52" s="40">
@@ -17323,7 +17376,7 @@
         <v>2872.7</v>
       </c>
       <c r="X121" s="27">
-        <f t="shared" ref="X121:Z121" si="173">X87-X116</f>
+        <f t="shared" ref="X121:Y121" si="173">X87-X116</f>
         <v>3864.8</v>
       </c>
       <c r="Y121" s="27">
@@ -17432,7 +17485,7 @@
         <v>3.9105635720119789</v>
       </c>
       <c r="X122" s="3">
-        <f t="shared" ref="X122:Z122" si="185">X121/X27</f>
+        <f t="shared" ref="X122:Y122" si="185">X121/X27</f>
         <v>5.2675480441597387</v>
       </c>
       <c r="Y122" s="3">
@@ -17549,7 +17602,7 @@
         <v>1968.2</v>
       </c>
       <c r="X124" s="52">
-        <f t="shared" ref="X124:Z124" si="198">X61+X62+X74+X76</f>
+        <f t="shared" ref="X124:Y124" si="198">X61+X62+X74+X76</f>
         <v>2482.1</v>
       </c>
       <c r="Y124" s="52">
@@ -17658,7 +17711,7 @@
         <v>3173.8999999999996</v>
       </c>
       <c r="X125" s="52">
-        <f t="shared" ref="X125:Z125" si="209">X92+X96+X106+X93+X107</f>
+        <f t="shared" ref="X125:Y125" si="209">X92+X96+X106+X93+X107</f>
         <v>2923.5</v>
       </c>
       <c r="Y125" s="52">
@@ -17767,7 +17820,7 @@
         <v>-1205.6999999999996</v>
       </c>
       <c r="X126" s="27">
-        <f t="shared" ref="X126:Z126" si="221">X124-X125</f>
+        <f t="shared" ref="X126:Y126" si="221">X124-X125</f>
         <v>-441.40000000000009</v>
       </c>
       <c r="Y126" s="27">
@@ -18275,7 +18328,7 @@
         <v>6449.7879999999996</v>
       </c>
       <c r="X134" s="27">
-        <f t="shared" ref="X134:Z134" si="265">X133*X27</f>
+        <f t="shared" ref="X134:Y134" si="265">X133*X27</f>
         <v>27044.182000000001</v>
       </c>
       <c r="Y134" s="27">
@@ -18384,7 +18437,7 @@
         <v>7655.4879999999994</v>
       </c>
       <c r="X135" s="27">
-        <f t="shared" ref="X135:Z135" si="273">X134-X126</f>
+        <f t="shared" ref="X135:Y135" si="273">X134-X126</f>
         <v>27485.582000000002</v>
       </c>
       <c r="Y135" s="27">
@@ -18493,7 +18546,7 @@
         <v>2.2452006822849584</v>
       </c>
       <c r="X137" s="57">
-        <f t="shared" ref="X137:Z137" si="280">X133/X122</f>
+        <f t="shared" ref="X137:Y137" si="280">X133/X122</f>
         <v>6.9975631339267226</v>
       </c>
       <c r="Y137" s="57">
@@ -18597,7 +18650,7 @@
         <v>2.2633532687151986E-3</v>
       </c>
       <c r="X138" s="57">
-        <f t="shared" ref="X138:Z138" si="292">X134/X9</f>
+        <f t="shared" ref="X138:Y138" si="292">X134/X9</f>
         <v>4.3003724080905741</v>
       </c>
       <c r="Y138" s="57">
@@ -18701,7 +18754,7 @@
         <v>-16621.554193892349</v>
       </c>
       <c r="X139" s="57">
-        <f t="shared" ref="X139:Z139" si="304">X133/X26</f>
+        <f t="shared" ref="X139:Y139" si="304">X133/X26</f>
         <v>80.801260830594572</v>
       </c>
       <c r="Y139" s="57">
@@ -18877,7 +18930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1F7BB5-1110-4DCF-A4D2-2BD3A135983C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
@@ -18896,10 +18949,10 @@
   <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X32" sqref="X32"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -21727,7 +21780,7 @@
         <v>186</v>
       </c>
       <c r="X37" s="81">
-        <f t="shared" ref="W37:X37" si="88">X12-W12</f>
+        <f t="shared" ref="X37" si="88">X12-W12</f>
         <v>91</v>
       </c>
       <c r="Y37" s="81">

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12445F0-8CAF-4307-9548-A7F465B79E5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201AF951-7909-4F54-9E1C-2D2E9A8CCD60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="261">
   <si>
     <t>$ERJ</t>
   </si>
@@ -932,6 +932,21 @@
   </si>
   <si>
     <t>Embraer closes $650m syndicated credit facility to regain access to financial resources for 3 years @ fixed rates</t>
+  </si>
+  <si>
+    <t>TTM Cash Flow</t>
+  </si>
+  <si>
+    <t>ROE (Return on Equity)</t>
+  </si>
+  <si>
+    <t>ROA (Return on Assets)</t>
+  </si>
+  <si>
+    <t>ROTB (Return on Tangible Book)</t>
+  </si>
+  <si>
+    <t>Buffet Return</t>
   </si>
 </sst>
 </file>
@@ -1445,10 +1460,22 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1458,30 +1485,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,16 +1505,28 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6270,8 +6285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F324B-1DEB-44A7-A7E2-319E26170844}">
   <dimension ref="A2:AC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6291,35 +6306,35 @@
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
-      <c r="G5" s="109" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
+      <c r="G5" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="111"/>
-      <c r="T5" s="109" t="s">
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="115"/>
+      <c r="T5" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="111"/>
-      <c r="AA5" s="107" t="s">
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="115"/>
+      <c r="AA5" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="AB5" s="108"/>
+      <c r="AB5" s="123"/>
     </row>
     <row r="6" spans="1:29">
       <c r="B6" s="4" t="s">
@@ -6548,13 +6563,13 @@
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="38"/>
-      <c r="Y12" s="109" t="s">
+      <c r="Y12" s="113" t="s">
         <v>219</v>
       </c>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="111"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="115"/>
     </row>
     <row r="13" spans="1:29">
       <c r="G13" s="9">
@@ -6580,14 +6595,14 @@
       <c r="V13" s="37"/>
       <c r="W13" s="38"/>
       <c r="Y13" s="92"/>
-      <c r="Z13" s="118" t="s">
+      <c r="Z13" s="128" t="s">
         <v>220</v>
       </c>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="118" t="s">
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128" t="s">
         <v>221</v>
       </c>
-      <c r="AC13" s="119"/>
+      <c r="AC13" s="129"/>
     </row>
     <row r="14" spans="1:29">
       <c r="G14" s="10"/>
@@ -6613,21 +6628,21 @@
       <c r="Y14" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="Z14" s="114" t="s">
+      <c r="Z14" s="111" t="s">
         <v>231</v>
       </c>
-      <c r="AA14" s="114"/>
-      <c r="AB14" s="114" t="s">
+      <c r="AA14" s="111"/>
+      <c r="AB14" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="AC14" s="115"/>
+      <c r="AC14" s="112"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="115"/>
       <c r="G15" s="10"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -6649,14 +6664,14 @@
       <c r="Y15" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="Z15" s="114" t="s">
+      <c r="Z15" s="111" t="s">
         <v>227</v>
       </c>
-      <c r="AA15" s="114"/>
-      <c r="AB15" s="114" t="s">
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111" t="s">
         <v>233</v>
       </c>
-      <c r="AC15" s="115"/>
+      <c r="AC15" s="112"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="14" t="s">
@@ -6665,10 +6680,10 @@
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="115"/>
+      <c r="D16" s="112"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -6690,23 +6705,23 @@
       <c r="Y16" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="Z16" s="114" t="s">
+      <c r="Z16" s="111" t="s">
         <v>228</v>
       </c>
-      <c r="AA16" s="114"/>
-      <c r="AB16" s="114" t="s">
+      <c r="AA16" s="111"/>
+      <c r="AB16" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="AC16" s="115"/>
+      <c r="AC16" s="112"/>
     </row>
     <row r="17" spans="2:29">
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="115"/>
+      <c r="D17" s="112"/>
       <c r="G17" s="9">
         <v>44805</v>
       </c>
@@ -6730,19 +6745,19 @@
       <c r="Y17" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="Z17" s="114" t="s">
+      <c r="Z17" s="111" t="s">
         <v>229</v>
       </c>
-      <c r="AA17" s="114"/>
-      <c r="AB17" s="114" t="s">
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="111" t="s">
         <v>235</v>
       </c>
-      <c r="AC17" s="115"/>
+      <c r="AC17" s="112"/>
     </row>
     <row r="18" spans="2:29">
       <c r="B18" s="16"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="115"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
       <c r="G18" s="10"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
@@ -6764,19 +6779,19 @@
       <c r="Y18" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="Z18" s="114" t="s">
+      <c r="Z18" s="111" t="s">
         <v>230</v>
       </c>
-      <c r="AA18" s="114"/>
-      <c r="AB18" s="114" t="s">
+      <c r="AA18" s="111"/>
+      <c r="AB18" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="AC18" s="115"/>
+      <c r="AC18" s="112"/>
     </row>
     <row r="19" spans="2:29">
       <c r="B19" s="17"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="117"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
       <c r="G19" s="10"/>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
@@ -6798,14 +6813,14 @@
       <c r="Y19" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="Z19" s="114" t="s">
+      <c r="Z19" s="111" t="s">
         <v>238</v>
       </c>
-      <c r="AA19" s="114"/>
-      <c r="AB19" s="114" t="s">
+      <c r="AA19" s="111"/>
+      <c r="AB19" s="111" t="s">
         <v>239</v>
       </c>
-      <c r="AC19" s="115"/>
+      <c r="AC19" s="112"/>
     </row>
     <row r="20" spans="2:29">
       <c r="G20" s="9">
@@ -6833,14 +6848,14 @@
       <c r="Y20" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="Z20" s="114" t="s">
+      <c r="Z20" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="AA20" s="114"/>
-      <c r="AB20" s="114" t="s">
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="AC20" s="115"/>
+      <c r="AC20" s="112"/>
     </row>
     <row r="21" spans="2:29">
       <c r="G21" s="10"/>
@@ -6870,11 +6885,11 @@
       <c r="AC21" s="38"/>
     </row>
     <row r="22" spans="2:29">
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
       <c r="G22" s="10"/>
       <c r="H22" s="8" t="s">
         <v>193</v>
@@ -6905,10 +6920,10 @@
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="115"/>
+      <c r="D23" s="112"/>
       <c r="G23" s="10"/>
       <c r="H23" s="8" t="s">
         <v>191</v>
@@ -6934,10 +6949,10 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="114">
+      <c r="C24" s="111">
         <v>1969</v>
       </c>
-      <c r="D24" s="115"/>
+      <c r="D24" s="112"/>
       <c r="G24" s="10"/>
       <c r="H24" s="60"/>
       <c r="I24" s="60"/>
@@ -6959,8 +6974,8 @@
     </row>
     <row r="25" spans="2:29">
       <c r="B25" s="10"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="115"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
       <c r="G25" s="10"/>
       <c r="H25" s="60"/>
       <c r="I25" s="60"/>
@@ -6984,11 +6999,11 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="112">
+      <c r="C26" s="124">
         <f>'Financial Model'!T68</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="113"/>
+      <c r="D26" s="125"/>
       <c r="G26" s="9">
         <v>44743</v>
       </c>
@@ -7014,8 +7029,8 @@
     </row>
     <row r="27" spans="2:29">
       <c r="B27" s="10"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="115"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
       <c r="G27" s="10"/>
       <c r="H27" s="8" t="s">
         <v>197</v>
@@ -7072,10 +7087,10 @@
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="123"/>
+      <c r="D29" s="119"/>
       <c r="G29" s="10"/>
       <c r="H29" s="60"/>
       <c r="I29" s="60"/>
@@ -7138,11 +7153,11 @@
       <c r="W31" s="38"/>
     </row>
     <row r="32" spans="2:29">
-      <c r="B32" s="109" t="s">
+      <c r="B32" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="111"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="115"/>
       <c r="G32" s="10"/>
       <c r="H32" s="60"/>
       <c r="I32" s="60"/>
@@ -7166,11 +7181,11 @@
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="124">
+      <c r="C33" s="120">
         <f>C6/'Financial Model'!T122</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="125"/>
+      <c r="D33" s="121"/>
       <c r="G33" s="9">
         <v>44682</v>
       </c>
@@ -7196,11 +7211,11 @@
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="124">
+      <c r="C34" s="120">
         <f>C6/'Financial Model'!AE9</f>
         <v>2.2515010006671113E-3</v>
       </c>
-      <c r="D34" s="125"/>
+      <c r="D34" s="121"/>
       <c r="G34" s="10"/>
       <c r="H34" s="8" t="s">
         <v>251</v>
@@ -7226,11 +7241,11 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="120">
+      <c r="C35" s="116">
         <f>C6/'Financial Model'!AE26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="121"/>
+      <c r="D35" s="117"/>
       <c r="G35" s="10"/>
       <c r="H35" s="60"/>
       <c r="I35" s="60"/>
@@ -7277,19 +7292,19 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
-      <c r="T37" s="109" t="s">
+      <c r="T37" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="U37" s="110"/>
-      <c r="V37" s="110"/>
-      <c r="W37" s="111"/>
+      <c r="U37" s="114"/>
+      <c r="V37" s="114"/>
+      <c r="W37" s="115"/>
     </row>
     <row r="38" spans="2:23">
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="111"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="115"/>
       <c r="G38" s="10"/>
       <c r="H38" s="37"/>
       <c r="I38" s="37"/>
@@ -7312,10 +7327,10 @@
       <c r="W38" s="38"/>
     </row>
     <row r="39" spans="2:23">
-      <c r="B39" s="126" t="s">
+      <c r="B39" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="C39" s="127"/>
+      <c r="C39" s="108"/>
       <c r="D39" s="51" t="s">
         <v>31</v>
       </c>
@@ -7339,10 +7354,10 @@
       <c r="W39" s="38"/>
     </row>
     <row r="40" spans="2:23">
-      <c r="B40" s="126" t="s">
+      <c r="B40" s="107" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="127"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="51" t="s">
         <v>31</v>
       </c>
@@ -7370,8 +7385,8 @@
       <c r="W40" s="38"/>
     </row>
     <row r="41" spans="2:23">
-      <c r="B41" s="126"/>
-      <c r="C41" s="127"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="89" t="s">
         <v>31</v>
       </c>
@@ -7395,8 +7410,8 @@
       <c r="W41" s="38"/>
     </row>
     <row r="42" spans="2:23">
-      <c r="B42" s="126"/>
-      <c r="C42" s="127"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="108"/>
       <c r="D42" s="89" t="s">
         <v>31</v>
       </c>
@@ -7420,8 +7435,8 @@
       <c r="W42" s="38"/>
     </row>
     <row r="43" spans="2:23">
-      <c r="B43" s="128"/>
-      <c r="C43" s="129"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="110"/>
       <c r="D43" s="90" t="s">
         <v>31</v>
       </c>
@@ -7656,34 +7671,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z17:AA17"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="C26:D26"/>
@@ -7700,6 +7687,34 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
@@ -7728,13 +7743,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D70B2A-3077-4926-AE7B-39AF91889CD9}">
-  <dimension ref="B1:AO141"/>
+  <dimension ref="B1:AO147"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="E121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -18892,6 +18907,564 @@
       <c r="AE141" s="25">
         <f t="shared" si="309"/>
         <v>1.0244925188220719E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:31">
+      <c r="C142" s="14"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="25"/>
+      <c r="K142" s="25"/>
+      <c r="L142" s="25"/>
+      <c r="M142" s="25"/>
+      <c r="N142" s="25"/>
+      <c r="O142" s="25"/>
+      <c r="P142" s="25"/>
+      <c r="Q142" s="25"/>
+      <c r="R142" s="25"/>
+      <c r="S142" s="25"/>
+      <c r="T142" s="25"/>
+      <c r="X142" s="25"/>
+      <c r="Y142" s="25"/>
+      <c r="Z142" s="25"/>
+      <c r="AA142" s="25"/>
+      <c r="AB142" s="25"/>
+      <c r="AC142" s="25"/>
+      <c r="AD142" s="25"/>
+      <c r="AE142" s="25"/>
+    </row>
+    <row r="143" spans="2:31" s="2" customFormat="1">
+      <c r="B143" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F143" s="26">
+        <f t="shared" ref="F143:S143" si="310">SUM(C23:F23)</f>
+        <v>-166.40000000000032</v>
+      </c>
+      <c r="G143" s="26">
+        <f t="shared" si="310"/>
+        <v>-172.70000000000024</v>
+      </c>
+      <c r="H143" s="26">
+        <f t="shared" si="310"/>
+        <v>-38.800000000000068</v>
+      </c>
+      <c r="I143" s="26">
+        <f t="shared" si="310"/>
+        <v>-103.50000000000016</v>
+      </c>
+      <c r="J143" s="26">
+        <f t="shared" si="310"/>
+        <v>-316.50000000000011</v>
+      </c>
+      <c r="K143" s="26">
+        <f t="shared" si="310"/>
+        <v>-565.90000000000009</v>
+      </c>
+      <c r="L143" s="26">
+        <f t="shared" si="310"/>
+        <v>-887.70000000000027</v>
+      </c>
+      <c r="M143" s="26">
+        <f t="shared" si="310"/>
+        <v>-931.90000000000009</v>
+      </c>
+      <c r="N143" s="26">
+        <f t="shared" si="310"/>
+        <v>-728.19999999999993</v>
+      </c>
+      <c r="O143" s="26">
+        <f t="shared" si="310"/>
+        <v>-527.5999999999998</v>
+      </c>
+      <c r="P143" s="26">
+        <f t="shared" si="310"/>
+        <v>-125.79999999999983</v>
+      </c>
+      <c r="Q143" s="26">
+        <f t="shared" si="310"/>
+        <v>-51.999999999999829</v>
+      </c>
+      <c r="R143" s="26">
+        <f t="shared" si="310"/>
+        <v>-43.5</v>
+      </c>
+      <c r="S143" s="26">
+        <f t="shared" si="310"/>
+        <v>15.800000000000026</v>
+      </c>
+      <c r="T143" s="26">
+        <f>SUM(Q23:T23)</f>
+        <v>0.69999999999996021</v>
+      </c>
+      <c r="X143" s="26">
+        <f t="shared" ref="X143:AE143" si="311">X23</f>
+        <v>347.7</v>
+      </c>
+      <c r="Y143" s="26">
+        <f t="shared" si="311"/>
+        <v>80.800000000000153</v>
+      </c>
+      <c r="Z143" s="26">
+        <f t="shared" si="311"/>
+        <v>167.80000000000015</v>
+      </c>
+      <c r="AA143" s="26">
+        <f t="shared" si="311"/>
+        <v>262.80000000000047</v>
+      </c>
+      <c r="AB143" s="26">
+        <f t="shared" si="311"/>
+        <v>-171.20000000000002</v>
+      </c>
+      <c r="AC143" s="26">
+        <f t="shared" si="311"/>
+        <v>-316.5</v>
+      </c>
+      <c r="AD143" s="26">
+        <f t="shared" si="311"/>
+        <v>-728.30000000000007</v>
+      </c>
+      <c r="AE143" s="26">
+        <f>AE23</f>
+        <v>-43.500000000000142</v>
+      </c>
+    </row>
+    <row r="144" spans="2:31">
+      <c r="B144" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F144" s="25">
+        <f t="shared" ref="F144:S144" si="312">SUM(C23:F23)/F118</f>
+        <v>-4.223243064896838E-2</v>
+      </c>
+      <c r="G144" s="25">
+        <f t="shared" si="312"/>
+        <v>-4.4376493563224366E-2</v>
+      </c>
+      <c r="H144" s="25">
+        <f t="shared" si="312"/>
+        <v>-9.9230198716145548E-3</v>
+      </c>
+      <c r="I144" s="25">
+        <f t="shared" si="312"/>
+        <v>-2.72203666202036E-2</v>
+      </c>
+      <c r="J144" s="25">
+        <f t="shared" si="312"/>
+        <v>-8.7561555912134159E-2</v>
+      </c>
+      <c r="K144" s="25">
+        <f t="shared" si="312"/>
+        <v>-0.1722993545244185</v>
+      </c>
+      <c r="L144" s="25">
+        <f t="shared" si="312"/>
+        <v>-0.29785592054491167</v>
+      </c>
+      <c r="M144" s="25">
+        <f t="shared" si="312"/>
+        <v>-0.3318495833630084</v>
+      </c>
+      <c r="N144" s="25">
+        <f t="shared" si="312"/>
+        <v>-0.25045571797076521</v>
+      </c>
+      <c r="O144" s="25">
+        <f t="shared" si="312"/>
+        <v>-0.18880618379616368</v>
+      </c>
+      <c r="P144" s="25">
+        <f t="shared" si="312"/>
+        <v>-4.3594275219184193E-2</v>
+      </c>
+      <c r="Q144" s="25">
+        <f t="shared" si="312"/>
+        <v>-1.8517199629655947E-2</v>
+      </c>
+      <c r="R144" s="25">
+        <f t="shared" si="312"/>
+        <v>-1.5675675675675675E-2</v>
+      </c>
+      <c r="S144" s="25">
+        <f t="shared" si="312"/>
+        <v>5.7310747578802369E-3</v>
+      </c>
+      <c r="T144" s="25">
+        <f>SUM(Q23:T23)/T118</f>
+        <v>2.4367319942909468E-4</v>
+      </c>
+      <c r="X144" s="25">
+        <f t="shared" ref="X144:AE144" si="313">X23/X118</f>
+        <v>8.996584558062512E-2</v>
+      </c>
+      <c r="Y144" s="25">
+        <f t="shared" si="313"/>
+        <v>2.1021411660639529E-2</v>
+      </c>
+      <c r="Z144" s="25">
+        <f t="shared" si="313"/>
+        <v>4.2575865218715155E-2</v>
+      </c>
+      <c r="AA144" s="25">
+        <f t="shared" si="313"/>
+        <v>6.2840746054519475E-2</v>
+      </c>
+      <c r="AB144" s="25">
+        <f t="shared" si="313"/>
+        <v>-4.3450673840765466E-2</v>
+      </c>
+      <c r="AC144" s="25">
+        <f t="shared" si="313"/>
+        <v>-8.7561555912134131E-2</v>
+      </c>
+      <c r="AD144" s="25">
+        <f t="shared" si="313"/>
+        <v>-0.25049011177987962</v>
+      </c>
+      <c r="AE144" s="25">
+        <f>AE23/AE118</f>
+        <v>-1.5675675675675727E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:31">
+      <c r="B145" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F145" s="25">
+        <f t="shared" ref="F145:T145" si="314">F143/F87</f>
+        <v>-1.473426957337917E-2</v>
+      </c>
+      <c r="G145" s="25">
+        <f t="shared" si="314"/>
+        <v>-1.5439493634673172E-2</v>
+      </c>
+      <c r="H145" s="25">
+        <f t="shared" si="314"/>
+        <v>-3.4417300903010688E-3</v>
+      </c>
+      <c r="I145" s="25">
+        <f t="shared" si="314"/>
+        <v>-9.355932203389844E-3</v>
+      </c>
+      <c r="J145" s="25">
+        <f t="shared" si="314"/>
+        <v>-2.9936155119413582E-2</v>
+      </c>
+      <c r="K145" s="25">
+        <f t="shared" si="314"/>
+        <v>-5.2127375392636413E-2</v>
+      </c>
+      <c r="L145" s="25">
+        <f t="shared" si="314"/>
+        <v>-8.5972456272880485E-2</v>
+      </c>
+      <c r="M145" s="25">
+        <f t="shared" si="314"/>
+        <v>-8.9755073343157368E-2</v>
+      </c>
+      <c r="N145" s="25">
+        <f t="shared" si="314"/>
+        <v>-6.9246861924686182E-2</v>
+      </c>
+      <c r="O145" s="25">
+        <f t="shared" si="314"/>
+        <v>-5.1183050222640428E-2</v>
+      </c>
+      <c r="P145" s="25">
+        <f t="shared" si="314"/>
+        <v>-1.2164814868536822E-2</v>
+      </c>
+      <c r="Q145" s="25">
+        <f t="shared" si="314"/>
+        <v>-5.0083311662669468E-3</v>
+      </c>
+      <c r="R145" s="25">
+        <f t="shared" si="314"/>
+        <v>-4.2836041358936486E-3</v>
+      </c>
+      <c r="S145" s="25">
+        <f t="shared" si="314"/>
+        <v>1.6010700822828448E-3</v>
+      </c>
+      <c r="T145" s="25">
+        <f>T143/T87</f>
+        <v>7.2173877180678044E-5</v>
+      </c>
+      <c r="X145" s="25">
+        <f t="shared" ref="X145:AE145" si="315">X143/X87</f>
+        <v>3.3397368168283544E-2</v>
+      </c>
+      <c r="Y145" s="25">
+        <f t="shared" si="315"/>
+        <v>6.9240327349072497E-3</v>
+      </c>
+      <c r="Z145" s="25">
+        <f t="shared" si="315"/>
+        <v>1.4385405414673471E-2</v>
+      </c>
+      <c r="AA145" s="25">
+        <f t="shared" si="315"/>
+        <v>2.2017057354937121E-2</v>
+      </c>
+      <c r="AB145" s="25">
+        <f t="shared" si="315"/>
+        <v>-1.5159296580303542E-2</v>
+      </c>
+      <c r="AC145" s="25">
+        <f t="shared" si="315"/>
+        <v>-2.9936155119413572E-2</v>
+      </c>
+      <c r="AD145" s="25">
+        <f t="shared" si="315"/>
+        <v>-6.9256371243818948E-2</v>
+      </c>
+      <c r="AE145" s="25">
+        <f>AE143/AE87</f>
+        <v>-4.2836041358936625E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:31">
+      <c r="B146" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F146" s="25">
+        <f t="shared" ref="F146:T146" si="316">F143/(F121-F85)</f>
+        <v>-8.1512687371411943E-2</v>
+      </c>
+      <c r="G146" s="25">
+        <f t="shared" si="316"/>
+        <v>-8.8970171552212735E-2</v>
+      </c>
+      <c r="H146" s="25">
+        <f t="shared" si="316"/>
+        <v>-2.0297133291483617E-2</v>
+      </c>
+      <c r="I146" s="25">
+        <f t="shared" si="316"/>
+        <v>-5.8800136348142303E-2</v>
+      </c>
+      <c r="J146" s="25">
+        <f t="shared" si="316"/>
+        <v>-0.20250815791157464</v>
+      </c>
+      <c r="K146" s="25">
+        <f t="shared" si="316"/>
+        <v>-0.46602981141398353</v>
+      </c>
+      <c r="L146" s="25">
+        <f t="shared" si="316"/>
+        <v>-0.88074213711677685</v>
+      </c>
+      <c r="M146" s="25">
+        <f t="shared" si="316"/>
+        <v>-1.3460927343637141</v>
+      </c>
+      <c r="N146" s="25">
+        <f t="shared" si="316"/>
+        <v>-0.87534559442240634</v>
+      </c>
+      <c r="O146" s="25">
+        <f t="shared" si="316"/>
+        <v>-0.73779890924346181</v>
+      </c>
+      <c r="P146" s="25">
+        <f t="shared" si="316"/>
+        <v>-0.15965277425250027</v>
+      </c>
+      <c r="Q146" s="25">
+        <f t="shared" si="316"/>
+        <v>-7.5111945688285109E-2</v>
+      </c>
+      <c r="R146" s="25">
+        <f t="shared" si="316"/>
+        <v>-7.7457264957264849E-2</v>
+      </c>
+      <c r="S146" s="25">
+        <f t="shared" si="316"/>
+        <v>2.9845107669059432E-2</v>
+      </c>
+      <c r="T146" s="25">
+        <f>T143/(T121-T85)</f>
+        <v>1.0913626442157166E-3</v>
+      </c>
+      <c r="X146" s="25">
+        <f t="shared" ref="X146:AE146" si="317">X143/(X121-X85)</f>
+        <v>0.1335304735204885</v>
+      </c>
+      <c r="Y146" s="25">
+        <f t="shared" si="317"/>
+        <v>3.3137841939055952E-2</v>
+      </c>
+      <c r="Z146" s="25">
+        <f t="shared" si="317"/>
+        <v>7.398262863189467E-2</v>
+      </c>
+      <c r="AA146" s="25">
+        <f t="shared" si="317"/>
+        <v>0.11475481420025348</v>
+      </c>
+      <c r="AB146" s="25">
+        <f t="shared" si="317"/>
+        <v>-8.3864014891740973E-2</v>
+      </c>
+      <c r="AC146" s="25">
+        <f t="shared" si="317"/>
+        <v>-0.20250815791157456</v>
+      </c>
+      <c r="AD146" s="25">
+        <f t="shared" si="317"/>
+        <v>-0.87546580117802619</v>
+      </c>
+      <c r="AE146" s="25">
+        <f>AE143/(AE121-AE85)</f>
+        <v>-7.7457264957265098E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:31">
+      <c r="B147" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F147" s="25">
+        <f t="shared" ref="F147:T147" si="318">F143/(F63+F67+F69+F68+F70+F70+F77+F78+F79+F80+F81+F82+F83+F84+F86)</f>
+        <v>-2.7305546439120493E-2</v>
+      </c>
+      <c r="G147" s="25">
+        <f t="shared" si="318"/>
+        <v>-2.5833956619296966E-2</v>
+      </c>
+      <c r="H147" s="25">
+        <f t="shared" si="318"/>
+        <v>-5.7692593638945591E-3</v>
+      </c>
+      <c r="I147" s="25">
+        <f t="shared" si="318"/>
+        <v>-1.5152846099789202E-2</v>
+      </c>
+      <c r="J147" s="25">
+        <f t="shared" si="318"/>
+        <v>-5.7190871144359542E-2</v>
+      </c>
+      <c r="K147" s="25">
+        <f t="shared" si="318"/>
+        <v>-9.3356649124832977E-2</v>
+      </c>
+      <c r="L147" s="25">
+        <f t="shared" si="318"/>
+        <v>-0.14483129935391248</v>
+      </c>
+      <c r="M147" s="25">
+        <f t="shared" si="318"/>
+        <v>-0.16481262048352582</v>
+      </c>
+      <c r="N147" s="25">
+        <f t="shared" si="318"/>
+        <v>-0.13265808026524328</v>
+      </c>
+      <c r="O147" s="25">
+        <f t="shared" si="318"/>
+        <v>-9.4657145932756787E-2</v>
+      </c>
+      <c r="P147" s="25">
+        <f t="shared" si="318"/>
+        <v>-2.2775414139585379E-2</v>
+      </c>
+      <c r="Q147" s="25">
+        <f t="shared" si="318"/>
+        <v>-9.196540685849677E-3</v>
+      </c>
+      <c r="R147" s="25">
+        <f t="shared" si="318"/>
+        <v>-8.9263728145776901E-3</v>
+      </c>
+      <c r="S147" s="25">
+        <f t="shared" si="318"/>
+        <v>3.1154490781820023E-3</v>
+      </c>
+      <c r="T147" s="25">
+        <f>T143/(T63+T67+T69+T68+T70+T70+T77+T78+T79+T80+T81+T82+T83+T84+T86)</f>
+        <v>1.3257073595696376E-4</v>
+      </c>
+      <c r="X147" s="25">
+        <f t="shared" ref="X147:AE147" si="319">X143/(X63+X67+X69+X68+X70+X70+X77+X78+X79+X80+X81+X82+X83+X84+X86)</f>
+        <v>5.3721242834850053E-2</v>
+      </c>
+      <c r="Y147" s="25">
+        <f t="shared" si="319"/>
+        <v>1.2784001012594165E-2</v>
+      </c>
+      <c r="Z147" s="25">
+        <f t="shared" si="319"/>
+        <v>2.6713364642203318E-2</v>
+      </c>
+      <c r="AA147" s="25">
+        <f t="shared" si="319"/>
+        <v>4.6196846379665028E-2</v>
+      </c>
+      <c r="AB147" s="25">
+        <f t="shared" si="319"/>
+        <v>-2.8093206432556611E-2</v>
+      </c>
+      <c r="AC147" s="25">
+        <f t="shared" si="319"/>
+        <v>-5.7190871144359522E-2</v>
+      </c>
+      <c r="AD147" s="25">
+        <f t="shared" si="319"/>
+        <v>-0.13267629752427451</v>
+      </c>
+      <c r="AE147" s="25">
+        <f>AE143/(AE63+AE67+AE69+AE68+AE70+AE70+AE77+AE78+AE79+AE80+AE81+AE82+AE83+AE84+AE86)</f>
+        <v>-8.9263728145777196E-3</v>
       </c>
     </row>
   </sheetData>
@@ -18931,7 +19504,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U39" sqref="U39"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201AF951-7909-4F54-9E1C-2D2E9A8CCD60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F45A4F-6FE9-4E91-9DBB-1ED77D37ED59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1460,22 +1460,10 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,6 +1473,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1505,28 +1517,16 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6285,8 +6285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F324B-1DEB-44A7-A7E2-319E26170844}">
   <dimension ref="A2:AC56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6306,35 +6306,35 @@
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="115"/>
-      <c r="G5" s="113" t="s">
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
+      <c r="G5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="115"/>
-      <c r="T5" s="113" t="s">
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="111"/>
+      <c r="T5" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="115"/>
-      <c r="AA5" s="122" t="s">
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="111"/>
+      <c r="AA5" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="AB5" s="123"/>
+      <c r="AB5" s="108"/>
     </row>
     <row r="6" spans="1:29">
       <c r="B6" s="4" t="s">
@@ -6563,13 +6563,13 @@
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="38"/>
-      <c r="Y12" s="113" t="s">
+      <c r="Y12" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="Z12" s="114"/>
-      <c r="AA12" s="114"/>
-      <c r="AB12" s="114"/>
-      <c r="AC12" s="115"/>
+      <c r="Z12" s="110"/>
+      <c r="AA12" s="110"/>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="111"/>
     </row>
     <row r="13" spans="1:29">
       <c r="G13" s="9">
@@ -6595,14 +6595,14 @@
       <c r="V13" s="37"/>
       <c r="W13" s="38"/>
       <c r="Y13" s="92"/>
-      <c r="Z13" s="128" t="s">
+      <c r="Z13" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128" t="s">
+      <c r="AA13" s="118"/>
+      <c r="AB13" s="118" t="s">
         <v>221</v>
       </c>
-      <c r="AC13" s="129"/>
+      <c r="AC13" s="119"/>
     </row>
     <row r="14" spans="1:29">
       <c r="G14" s="10"/>
@@ -6628,21 +6628,21 @@
       <c r="Y14" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="Z14" s="111" t="s">
+      <c r="Z14" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="AA14" s="111"/>
-      <c r="AB14" s="111" t="s">
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="AC14" s="112"/>
+      <c r="AC14" s="115"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="115"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="G15" s="10"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -6664,14 +6664,14 @@
       <c r="Y15" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="Z15" s="111" t="s">
+      <c r="Z15" s="114" t="s">
         <v>227</v>
       </c>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="111" t="s">
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="114" t="s">
         <v>233</v>
       </c>
-      <c r="AC15" s="112"/>
+      <c r="AC15" s="115"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="14" t="s">
@@ -6680,10 +6680,10 @@
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="112"/>
+      <c r="D16" s="115"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -6705,23 +6705,23 @@
       <c r="Y16" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="Z16" s="111" t="s">
+      <c r="Z16" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="AA16" s="111"/>
-      <c r="AB16" s="111" t="s">
+      <c r="AA16" s="114"/>
+      <c r="AB16" s="114" t="s">
         <v>234</v>
       </c>
-      <c r="AC16" s="112"/>
+      <c r="AC16" s="115"/>
     </row>
     <row r="17" spans="2:29">
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="112"/>
+      <c r="D17" s="115"/>
       <c r="G17" s="9">
         <v>44805</v>
       </c>
@@ -6745,19 +6745,19 @@
       <c r="Y17" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="Z17" s="111" t="s">
+      <c r="Z17" s="114" t="s">
         <v>229</v>
       </c>
-      <c r="AA17" s="111"/>
-      <c r="AB17" s="111" t="s">
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="AC17" s="112"/>
+      <c r="AC17" s="115"/>
     </row>
     <row r="18" spans="2:29">
       <c r="B18" s="16"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="112"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="115"/>
       <c r="G18" s="10"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
@@ -6779,19 +6779,19 @@
       <c r="Y18" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="Z18" s="111" t="s">
+      <c r="Z18" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="AA18" s="111"/>
-      <c r="AB18" s="111" t="s">
+      <c r="AA18" s="114"/>
+      <c r="AB18" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="AC18" s="112"/>
+      <c r="AC18" s="115"/>
     </row>
     <row r="19" spans="2:29">
       <c r="B19" s="17"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="127"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117"/>
       <c r="G19" s="10"/>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
@@ -6813,14 +6813,14 @@
       <c r="Y19" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="Z19" s="111" t="s">
+      <c r="Z19" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="AA19" s="111"/>
-      <c r="AB19" s="111" t="s">
+      <c r="AA19" s="114"/>
+      <c r="AB19" s="114" t="s">
         <v>239</v>
       </c>
-      <c r="AC19" s="112"/>
+      <c r="AC19" s="115"/>
     </row>
     <row r="20" spans="2:29">
       <c r="G20" s="9">
@@ -6848,14 +6848,14 @@
       <c r="Y20" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="Z20" s="111" t="s">
+      <c r="Z20" s="114" t="s">
         <v>244</v>
       </c>
-      <c r="AA20" s="111"/>
-      <c r="AB20" s="111" t="s">
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="114" t="s">
         <v>245</v>
       </c>
-      <c r="AC20" s="112"/>
+      <c r="AC20" s="115"/>
     </row>
     <row r="21" spans="2:29">
       <c r="G21" s="10"/>
@@ -6885,11 +6885,11 @@
       <c r="AC21" s="38"/>
     </row>
     <row r="22" spans="2:29">
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
       <c r="G22" s="10"/>
       <c r="H22" s="8" t="s">
         <v>193</v>
@@ -6920,10 +6920,10 @@
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="112"/>
+      <c r="D23" s="115"/>
       <c r="G23" s="10"/>
       <c r="H23" s="8" t="s">
         <v>191</v>
@@ -6949,10 +6949,10 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="111">
+      <c r="C24" s="114">
         <v>1969</v>
       </c>
-      <c r="D24" s="112"/>
+      <c r="D24" s="115"/>
       <c r="G24" s="10"/>
       <c r="H24" s="60"/>
       <c r="I24" s="60"/>
@@ -6974,8 +6974,8 @@
     </row>
     <row r="25" spans="2:29">
       <c r="B25" s="10"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="115"/>
       <c r="G25" s="10"/>
       <c r="H25" s="60"/>
       <c r="I25" s="60"/>
@@ -6999,11 +6999,11 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="124">
+      <c r="C26" s="112">
         <f>'Financial Model'!T68</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="125"/>
+      <c r="D26" s="113"/>
       <c r="G26" s="9">
         <v>44743</v>
       </c>
@@ -7029,8 +7029,8 @@
     </row>
     <row r="27" spans="2:29">
       <c r="B27" s="10"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="115"/>
       <c r="G27" s="10"/>
       <c r="H27" s="8" t="s">
         <v>197</v>
@@ -7087,10 +7087,10 @@
       <c r="B29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="118" t="s">
+      <c r="C29" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="119"/>
+      <c r="D29" s="123"/>
       <c r="G29" s="10"/>
       <c r="H29" s="60"/>
       <c r="I29" s="60"/>
@@ -7153,11 +7153,11 @@
       <c r="W31" s="38"/>
     </row>
     <row r="32" spans="2:29">
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="115"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="111"/>
       <c r="G32" s="10"/>
       <c r="H32" s="60"/>
       <c r="I32" s="60"/>
@@ -7181,11 +7181,11 @@
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="120">
+      <c r="C33" s="124">
         <f>C6/'Financial Model'!T122</f>
         <v>2.4165314860584122</v>
       </c>
-      <c r="D33" s="121"/>
+      <c r="D33" s="125"/>
       <c r="G33" s="9">
         <v>44682</v>
       </c>
@@ -7211,11 +7211,11 @@
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="120">
+      <c r="C34" s="124">
         <f>C6/'Financial Model'!AE9</f>
         <v>2.2515010006671113E-3</v>
       </c>
-      <c r="D34" s="121"/>
+      <c r="D34" s="125"/>
       <c r="G34" s="10"/>
       <c r="H34" s="8" t="s">
         <v>251</v>
@@ -7241,11 +7241,11 @@
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="116">
+      <c r="C35" s="120">
         <f>C6/'Financial Model'!AE26</f>
         <v>-155.32248322147649</v>
       </c>
-      <c r="D35" s="117"/>
+      <c r="D35" s="121"/>
       <c r="G35" s="10"/>
       <c r="H35" s="60"/>
       <c r="I35" s="60"/>
@@ -7292,19 +7292,19 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
-      <c r="T37" s="113" t="s">
+      <c r="T37" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="U37" s="114"/>
-      <c r="V37" s="114"/>
-      <c r="W37" s="115"/>
+      <c r="U37" s="110"/>
+      <c r="V37" s="110"/>
+      <c r="W37" s="111"/>
     </row>
     <row r="38" spans="2:23">
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="109" t="s">
         <v>247</v>
       </c>
-      <c r="C38" s="114"/>
-      <c r="D38" s="115"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="111"/>
       <c r="G38" s="10"/>
       <c r="H38" s="37"/>
       <c r="I38" s="37"/>
@@ -7327,10 +7327,10 @@
       <c r="W38" s="38"/>
     </row>
     <row r="39" spans="2:23">
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="C39" s="108"/>
+      <c r="C39" s="127"/>
       <c r="D39" s="51" t="s">
         <v>31</v>
       </c>
@@ -7354,10 +7354,10 @@
       <c r="W39" s="38"/>
     </row>
     <row r="40" spans="2:23">
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="126" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="108"/>
+      <c r="C40" s="127"/>
       <c r="D40" s="51" t="s">
         <v>31</v>
       </c>
@@ -7385,8 +7385,8 @@
       <c r="W40" s="38"/>
     </row>
     <row r="41" spans="2:23">
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="127"/>
       <c r="D41" s="89" t="s">
         <v>31</v>
       </c>
@@ -7410,8 +7410,8 @@
       <c r="W41" s="38"/>
     </row>
     <row r="42" spans="2:23">
-      <c r="B42" s="107"/>
-      <c r="C42" s="108"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="127"/>
       <c r="D42" s="89" t="s">
         <v>31</v>
       </c>
@@ -7435,8 +7435,8 @@
       <c r="W42" s="38"/>
     </row>
     <row r="43" spans="2:23">
-      <c r="B43" s="109"/>
-      <c r="C43" s="110"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="90" t="s">
         <v>31</v>
       </c>
@@ -7671,6 +7671,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z17:AA17"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="C26:D26"/>
@@ -7687,34 +7715,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
@@ -7745,11 +7745,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D70B2A-3077-4926-AE7B-39AF91889CD9}">
   <dimension ref="B1:AO147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E121" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H150" sqref="H150"/>
+      <selection pane="bottomRight" activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -19011,7 +19011,7 @@
         <v>0.69999999999996021</v>
       </c>
       <c r="X143" s="26">
-        <f t="shared" ref="X143:AE143" si="311">X23</f>
+        <f t="shared" ref="X143:AD143" si="311">X23</f>
         <v>347.7</v>
       </c>
       <c r="Y143" s="26">
@@ -19117,7 +19117,7 @@
         <v>2.4367319942909468E-4</v>
       </c>
       <c r="X144" s="25">
-        <f t="shared" ref="X144:AE144" si="313">X23/X118</f>
+        <f t="shared" ref="X144:AD144" si="313">X23/X118</f>
         <v>8.996584558062512E-2</v>
       </c>
       <c r="Y144" s="25">
@@ -19163,7 +19163,7 @@
         <v>186</v>
       </c>
       <c r="F145" s="25">
-        <f t="shared" ref="F145:T145" si="314">F143/F87</f>
+        <f t="shared" ref="F145:S145" si="314">F143/F87</f>
         <v>-1.473426957337917E-2</v>
       </c>
       <c r="G145" s="25">
@@ -19223,7 +19223,7 @@
         <v>7.2173877180678044E-5</v>
       </c>
       <c r="X145" s="25">
-        <f t="shared" ref="X145:AE145" si="315">X143/X87</f>
+        <f t="shared" ref="X145:AD145" si="315">X143/X87</f>
         <v>3.3397368168283544E-2</v>
       </c>
       <c r="Y145" s="25">
@@ -19269,7 +19269,7 @@
         <v>186</v>
       </c>
       <c r="F146" s="25">
-        <f t="shared" ref="F146:T146" si="316">F143/(F121-F85)</f>
+        <f t="shared" ref="F146:S146" si="316">F143/(F121-F85)</f>
         <v>-8.1512687371411943E-2</v>
       </c>
       <c r="G146" s="25">
@@ -19329,7 +19329,7 @@
         <v>1.0913626442157166E-3</v>
       </c>
       <c r="X146" s="25">
-        <f t="shared" ref="X146:AE146" si="317">X143/(X121-X85)</f>
+        <f t="shared" ref="X146:AD146" si="317">X143/(X121-X85)</f>
         <v>0.1335304735204885</v>
       </c>
       <c r="Y146" s="25">
@@ -19375,7 +19375,7 @@
         <v>186</v>
       </c>
       <c r="F147" s="25">
-        <f t="shared" ref="F147:T147" si="318">F143/(F63+F67+F69+F68+F70+F70+F77+F78+F79+F80+F81+F82+F83+F84+F86)</f>
+        <f t="shared" ref="F147:S147" si="318">F143/(F63+F67+F69+F68+F70+F70+F77+F78+F79+F80+F81+F82+F83+F84+F86)</f>
         <v>-2.7305546439120493E-2</v>
       </c>
       <c r="G147" s="25">
@@ -19435,7 +19435,7 @@
         <v>1.3257073595696376E-4</v>
       </c>
       <c r="X147" s="25">
-        <f t="shared" ref="X147:AE147" si="319">X143/(X63+X67+X69+X68+X70+X70+X77+X78+X79+X80+X81+X82+X83+X84+X86)</f>
+        <f t="shared" ref="X147:AD147" si="319">X143/(X63+X67+X69+X68+X70+X70+X77+X78+X79+X80+X81+X82+X83+X84+X86)</f>
         <v>5.3721242834850053E-2</v>
       </c>
       <c r="Y147" s="25">

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F45A4F-6FE9-4E91-9DBB-1ED77D37ED59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F6E480-E053-4E28-874B-657E9FEC3674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="263">
   <si>
     <t>$ERJ</t>
   </si>
@@ -947,6 +947,12 @@
   </si>
   <si>
     <t>Buffet Return</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Backlog</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1460,10 +1466,22 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1473,30 +1491,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,16 +1511,31 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6286,7 +6295,7 @@
   <dimension ref="A2:AC56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6306,35 +6315,35 @@
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
-      <c r="G5" s="109" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
+      <c r="G5" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="111"/>
-      <c r="T5" s="109" t="s">
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="115"/>
+      <c r="T5" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="111"/>
-      <c r="AA5" s="107" t="s">
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="115"/>
+      <c r="AA5" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="AB5" s="108"/>
+      <c r="AB5" s="123"/>
     </row>
     <row r="6" spans="1:29">
       <c r="B6" s="4" t="s">
@@ -6379,7 +6388,7 @@
         <v>734.6</v>
       </c>
       <c r="D7" s="18" t="str">
-        <f>$C$28</f>
+        <f>$C$33</f>
         <v>Q222</v>
       </c>
       <c r="G7" s="10"/>
@@ -6446,7 +6455,7 @@
         <v>2104.1999999999998</v>
       </c>
       <c r="D9" s="18" t="str">
-        <f>$C$28</f>
+        <f>$C$33</f>
         <v>Q222</v>
       </c>
       <c r="G9" s="9">
@@ -6481,7 +6490,7 @@
         <v>3173.8999999999996</v>
       </c>
       <c r="D10" s="18" t="str">
-        <f>$C$28</f>
+        <f>$C$33</f>
         <v>Q222</v>
       </c>
       <c r="G10" s="10"/>
@@ -6514,7 +6523,7 @@
         <v>-1069.6999999999998</v>
       </c>
       <c r="D11" s="18" t="str">
-        <f>$C$28</f>
+        <f>$C$33</f>
         <v>Q222</v>
       </c>
       <c r="G11" s="10"/>
@@ -6563,13 +6572,13 @@
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="38"/>
-      <c r="Y12" s="109" t="s">
+      <c r="Y12" s="113" t="s">
         <v>219</v>
       </c>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="111"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="115"/>
     </row>
     <row r="13" spans="1:29">
       <c r="G13" s="9">
@@ -6595,14 +6604,14 @@
       <c r="V13" s="37"/>
       <c r="W13" s="38"/>
       <c r="Y13" s="92"/>
-      <c r="Z13" s="118" t="s">
+      <c r="Z13" s="128" t="s">
         <v>220</v>
       </c>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="118" t="s">
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128" t="s">
         <v>221</v>
       </c>
-      <c r="AC13" s="119"/>
+      <c r="AC13" s="129"/>
     </row>
     <row r="14" spans="1:29">
       <c r="G14" s="10"/>
@@ -6628,21 +6637,21 @@
       <c r="Y14" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="Z14" s="114" t="s">
+      <c r="Z14" s="111" t="s">
         <v>231</v>
       </c>
-      <c r="AA14" s="114"/>
-      <c r="AB14" s="114" t="s">
+      <c r="AA14" s="111"/>
+      <c r="AB14" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="AC14" s="115"/>
+      <c r="AC14" s="112"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="115"/>
       <c r="G15" s="10"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -6664,14 +6673,14 @@
       <c r="Y15" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="Z15" s="114" t="s">
+      <c r="Z15" s="111" t="s">
         <v>227</v>
       </c>
-      <c r="AA15" s="114"/>
-      <c r="AB15" s="114" t="s">
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111" t="s">
         <v>233</v>
       </c>
-      <c r="AC15" s="115"/>
+      <c r="AC15" s="112"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="14" t="s">
@@ -6680,10 +6689,10 @@
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="115"/>
+      <c r="D16" s="112"/>
       <c r="G16" s="10"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
@@ -6705,23 +6714,23 @@
       <c r="Y16" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="Z16" s="114" t="s">
+      <c r="Z16" s="111" t="s">
         <v>228</v>
       </c>
-      <c r="AA16" s="114"/>
-      <c r="AB16" s="114" t="s">
+      <c r="AA16" s="111"/>
+      <c r="AB16" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="AC16" s="115"/>
+      <c r="AC16" s="112"/>
     </row>
     <row r="17" spans="2:29">
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="115"/>
+      <c r="D17" s="112"/>
       <c r="G17" s="9">
         <v>44805</v>
       </c>
@@ -6745,19 +6754,19 @@
       <c r="Y17" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="Z17" s="114" t="s">
+      <c r="Z17" s="111" t="s">
         <v>229</v>
       </c>
-      <c r="AA17" s="114"/>
-      <c r="AB17" s="114" t="s">
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="111" t="s">
         <v>235</v>
       </c>
-      <c r="AC17" s="115"/>
+      <c r="AC17" s="112"/>
     </row>
     <row r="18" spans="2:29">
       <c r="B18" s="16"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="115"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
       <c r="G18" s="10"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
@@ -6779,19 +6788,19 @@
       <c r="Y18" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="Z18" s="114" t="s">
+      <c r="Z18" s="111" t="s">
         <v>230</v>
       </c>
-      <c r="AA18" s="114"/>
-      <c r="AB18" s="114" t="s">
+      <c r="AA18" s="111"/>
+      <c r="AB18" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="AC18" s="115"/>
+      <c r="AC18" s="112"/>
     </row>
     <row r="19" spans="2:29">
       <c r="B19" s="17"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="117"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
       <c r="G19" s="10"/>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
@@ -6813,14 +6822,14 @@
       <c r="Y19" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="Z19" s="114" t="s">
+      <c r="Z19" s="111" t="s">
         <v>238</v>
       </c>
-      <c r="AA19" s="114"/>
-      <c r="AB19" s="114" t="s">
+      <c r="AA19" s="111"/>
+      <c r="AB19" s="111" t="s">
         <v>239</v>
       </c>
-      <c r="AC19" s="115"/>
+      <c r="AC19" s="112"/>
     </row>
     <row r="20" spans="2:29">
       <c r="G20" s="9">
@@ -6848,14 +6857,14 @@
       <c r="Y20" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="Z20" s="114" t="s">
+      <c r="Z20" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="AA20" s="114"/>
-      <c r="AB20" s="114" t="s">
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="AC20" s="115"/>
+      <c r="AC20" s="112"/>
     </row>
     <row r="21" spans="2:29">
       <c r="G21" s="10"/>
@@ -6885,11 +6894,11 @@
       <c r="AC21" s="38"/>
     </row>
     <row r="22" spans="2:29">
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
       <c r="G22" s="10"/>
       <c r="H22" s="8" t="s">
         <v>193</v>
@@ -6920,10 +6929,10 @@
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="115"/>
+      <c r="D23" s="112"/>
       <c r="G23" s="10"/>
       <c r="H23" s="8" t="s">
         <v>191</v>
@@ -6949,10 +6958,10 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="114">
+      <c r="C24" s="111">
         <v>1969</v>
       </c>
-      <c r="D24" s="115"/>
+      <c r="D24" s="112"/>
       <c r="G24" s="10"/>
       <c r="H24" s="60"/>
       <c r="I24" s="60"/>
@@ -6974,8 +6983,8 @@
     </row>
     <row r="25" spans="2:29">
       <c r="B25" s="10"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="115"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
       <c r="G25" s="10"/>
       <c r="H25" s="60"/>
       <c r="I25" s="60"/>
@@ -6999,11 +7008,11 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="112">
+      <c r="C26" s="124">
         <f>'Financial Model'!T68</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="113"/>
+      <c r="D26" s="125"/>
       <c r="G26" s="9">
         <v>44743</v>
       </c>
@@ -7029,8 +7038,8 @@
     </row>
     <row r="27" spans="2:29">
       <c r="B27" s="10"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="115"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
       <c r="G27" s="10"/>
       <c r="H27" s="8" t="s">
         <v>197</v>
@@ -7054,14 +7063,10 @@
     </row>
     <row r="28" spans="2:29">
       <c r="B28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="32">
-        <v>44777</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C28" s="111"/>
+      <c r="D28" s="112"/>
       <c r="G28" s="10"/>
       <c r="H28" s="50" t="s">
         <v>198</v>
@@ -7084,13 +7089,14 @@
       <c r="W28" s="38"/>
     </row>
     <row r="29" spans="2:29">
-      <c r="B29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="122" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="123"/>
+      <c r="B29" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" s="130">
+        <f>'Order &amp; Backlog'!S21</f>
+        <v>312</v>
+      </c>
+      <c r="D29" s="112"/>
       <c r="G29" s="10"/>
       <c r="H29" s="60"/>
       <c r="I29" s="60"/>
@@ -7109,6 +7115,14 @@
       <c r="W29" s="38"/>
     </row>
     <row r="30" spans="2:29">
+      <c r="B30" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="111">
+        <f>'Financial Model'!T43</f>
+        <v>32</v>
+      </c>
+      <c r="D30" s="112"/>
       <c r="G30" s="9">
         <v>44743</v>
       </c>
@@ -7131,6 +7145,9 @@
       <c r="W30" s="38"/>
     </row>
     <row r="31" spans="2:29">
+      <c r="B31" s="10"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="112"/>
       <c r="G31" s="10"/>
       <c r="H31" s="8" t="s">
         <v>242</v>
@@ -7153,11 +7170,9 @@
       <c r="W31" s="38"/>
     </row>
     <row r="32" spans="2:29">
-      <c r="B32" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="111"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="112"/>
       <c r="G32" s="10"/>
       <c r="H32" s="60"/>
       <c r="I32" s="60"/>
@@ -7179,13 +7194,14 @@
     </row>
     <row r="33" spans="2:23">
       <c r="B33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="124">
-        <f>C6/'Financial Model'!T122</f>
-        <v>2.4165314860584122</v>
-      </c>
-      <c r="D33" s="125"/>
+        <v>23</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="32">
+        <v>44777</v>
+      </c>
       <c r="G33" s="9">
         <v>44682</v>
       </c>
@@ -7208,14 +7224,13 @@
       <c r="W33" s="38"/>
     </row>
     <row r="34" spans="2:23">
-      <c r="B34" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="124">
-        <f>C6/'Financial Model'!AE9</f>
-        <v>2.2515010006671113E-3</v>
-      </c>
-      <c r="D34" s="125"/>
+      <c r="B34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="119"/>
       <c r="G34" s="10"/>
       <c r="H34" s="8" t="s">
         <v>251</v>
@@ -7238,14 +7253,6 @@
       <c r="W34" s="36"/>
     </row>
     <row r="35" spans="2:23">
-      <c r="B35" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="120">
-        <f>C6/'Financial Model'!AE26</f>
-        <v>-155.32248322147649</v>
-      </c>
-      <c r="D35" s="121"/>
       <c r="G35" s="10"/>
       <c r="H35" s="60"/>
       <c r="I35" s="60"/>
@@ -7278,6 +7285,11 @@
       <c r="R36" s="38"/>
     </row>
     <row r="37" spans="2:23">
+      <c r="B37" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="114"/>
+      <c r="D37" s="115"/>
       <c r="G37" s="10"/>
       <c r="H37" s="8" t="s">
         <v>169</v>
@@ -7292,19 +7304,22 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
-      <c r="T37" s="109" t="s">
+      <c r="T37" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="U37" s="110"/>
-      <c r="V37" s="110"/>
-      <c r="W37" s="111"/>
+      <c r="U37" s="114"/>
+      <c r="V37" s="114"/>
+      <c r="W37" s="115"/>
     </row>
     <row r="38" spans="2:23">
-      <c r="B38" s="109" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="111"/>
+      <c r="B38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="120">
+        <f>C6/'Financial Model'!T122</f>
+        <v>2.4165314860584122</v>
+      </c>
+      <c r="D38" s="121"/>
       <c r="G38" s="10"/>
       <c r="H38" s="37"/>
       <c r="I38" s="37"/>
@@ -7327,13 +7342,14 @@
       <c r="W38" s="38"/>
     </row>
     <row r="39" spans="2:23">
-      <c r="B39" s="126" t="s">
-        <v>248</v>
-      </c>
-      <c r="C39" s="127"/>
-      <c r="D39" s="51" t="s">
-        <v>31</v>
-      </c>
+      <c r="B39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="120">
+        <f>C6/'Financial Model'!AE9</f>
+        <v>2.2515010006671113E-3</v>
+      </c>
+      <c r="D39" s="121"/>
       <c r="G39" s="10"/>
       <c r="H39" s="37"/>
       <c r="I39" s="37"/>
@@ -7354,13 +7370,14 @@
       <c r="W39" s="38"/>
     </row>
     <row r="40" spans="2:23">
-      <c r="B40" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="C40" s="127"/>
-      <c r="D40" s="51" t="s">
-        <v>31</v>
-      </c>
+      <c r="B40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="116">
+        <f>C6/'Financial Model'!AE26</f>
+        <v>-155.32248322147649</v>
+      </c>
+      <c r="D40" s="117"/>
       <c r="G40" s="9">
         <v>43770</v>
       </c>
@@ -7385,11 +7402,6 @@
       <c r="W40" s="38"/>
     </row>
     <row r="41" spans="2:23">
-      <c r="B41" s="126"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="89" t="s">
-        <v>31</v>
-      </c>
       <c r="G41" s="10"/>
       <c r="H41" s="50" t="s">
         <v>168</v>
@@ -7410,11 +7422,6 @@
       <c r="W41" s="38"/>
     </row>
     <row r="42" spans="2:23">
-      <c r="B42" s="126"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="89" t="s">
-        <v>31</v>
-      </c>
       <c r="G42" s="10"/>
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
@@ -7435,11 +7442,11 @@
       <c r="W42" s="38"/>
     </row>
     <row r="43" spans="2:23">
-      <c r="B43" s="128"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="90" t="s">
-        <v>31</v>
-      </c>
+      <c r="B43" s="113" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="115"/>
       <c r="G43" s="9">
         <v>43739</v>
       </c>
@@ -7466,6 +7473,13 @@
       <c r="W43" s="38"/>
     </row>
     <row r="44" spans="2:23">
+      <c r="B44" s="107" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="108"/>
+      <c r="D44" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="G44" s="10"/>
       <c r="H44" s="60"/>
       <c r="I44" s="37"/>
@@ -7486,6 +7500,13 @@
       </c>
     </row>
     <row r="45" spans="2:23">
+      <c r="B45" s="107" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" s="108"/>
+      <c r="D45" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="G45" s="10"/>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
@@ -7500,6 +7521,11 @@
       <c r="R45" s="38"/>
     </row>
     <row r="46" spans="2:23">
+      <c r="B46" s="107"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="89" t="s">
+        <v>31</v>
+      </c>
       <c r="G46" s="10"/>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
@@ -7514,6 +7540,11 @@
       <c r="R46" s="38"/>
     </row>
     <row r="47" spans="2:23">
+      <c r="B47" s="107"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="89" t="s">
+        <v>31</v>
+      </c>
       <c r="G47" s="9">
         <v>43586</v>
       </c>
@@ -7532,6 +7563,11 @@
       <c r="R47" s="38"/>
     </row>
     <row r="48" spans="2:23">
+      <c r="B48" s="109"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="90" t="s">
+        <v>31</v>
+      </c>
       <c r="G48" s="10"/>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
@@ -7670,35 +7706,8 @@
       <c r="R56" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z17:AA17"/>
+  <mergeCells count="49">
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="C26:D26"/>
@@ -7715,11 +7724,43 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId1" xr:uid="{0E1650AB-35EE-47C2-9B99-22A7BB88CC6F}"/>
     <hyperlink ref="H13" r:id="rId2" xr:uid="{64917365-2EAB-45F1-BFD3-E1E4F5A494BB}"/>
-    <hyperlink ref="C29:D29" r:id="rId3" display="Link" xr:uid="{11C3F337-5FA5-4654-84A9-81E0FD7B340B}"/>
+    <hyperlink ref="C34:D34" r:id="rId3" display="Link" xr:uid="{11C3F337-5FA5-4654-84A9-81E0FD7B340B}"/>
     <hyperlink ref="R38" r:id="rId4" location="Boeing_Embraer_-_Defense" xr:uid="{CC492105-8696-4FC6-849B-A673602C4CB8}"/>
     <hyperlink ref="H17" r:id="rId5" xr:uid="{E8520AE3-EE90-4F9C-82B7-9DC79CF177B0}"/>
     <hyperlink ref="H20" r:id="rId6" display="L3Harris &amp; Embraer to develop new agile tanker varient of KC-390 to support USAF Operational Imperatives" xr:uid="{51AAA14D-A039-4171-BC04-5AAB9894A308}"/>
@@ -7730,8 +7771,8 @@
     <hyperlink ref="AB13:AC13" r:id="rId11" display="E195-E2" xr:uid="{A43FCCB3-64E0-D54D-A779-4F0C857321F6}"/>
     <hyperlink ref="H30" r:id="rId12" xr:uid="{3143C16C-C4FE-C24A-A852-CE844A7EAA94}"/>
     <hyperlink ref="H43" r:id="rId13" display="Airbus confirmed there are no plans to certify the A220-300 for LCY steep approach operations" xr:uid="{4BC4DC42-4422-D843-BFC6-DF67D759C7CD}"/>
-    <hyperlink ref="D40" r:id="rId14" xr:uid="{127B302A-DD6D-6242-BA6C-25C1ED72AA7F}"/>
-    <hyperlink ref="D39" r:id="rId15" xr:uid="{5B8750C0-94FB-994C-A836-E02A7A36CFF2}"/>
+    <hyperlink ref="D45" r:id="rId14" xr:uid="{127B302A-DD6D-6242-BA6C-25C1ED72AA7F}"/>
+    <hyperlink ref="D44" r:id="rId15" xr:uid="{5B8750C0-94FB-994C-A836-E02A7A36CFF2}"/>
     <hyperlink ref="R34" r:id="rId16" xr:uid="{A3EFD621-318B-6143-AEF4-A74D7A31D835}"/>
     <hyperlink ref="H6" r:id="rId17" xr:uid="{78DCAE8D-F9F2-4AFF-AEAC-B88136D9C452}"/>
   </hyperlinks>
@@ -7746,7 +7787,7 @@
   <dimension ref="B1:AO147"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="T38" sqref="T38"/>

--- a/$ERJ.xlsx
+++ b/$ERJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F6E480-E053-4E28-874B-657E9FEC3674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A35293-6C4A-4B90-A520-3AA4E2D23249}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="2" xr2:uid="{BFBD9EDE-FC47-49BF-96FE-182E73BB21C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="264">
   <si>
     <t>$ERJ</t>
   </si>
@@ -954,17 +954,21 @@
   <si>
     <t>Backlog</t>
   </si>
+  <si>
+    <t>IPO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0\x"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0000\x"/>
+    <numFmt numFmtId="169" formatCode="mmmm\ yyyy;"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1250,7 +1254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1511,6 +1515,21 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1527,15 +1546,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4460,6 +4470,492 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Revenue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Q/Q</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Model'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Q118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Model'!$C$9:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>960.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1256.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1159.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1697.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>823.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1378.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1175.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>633.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>537.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>758.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1841.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>807.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1130.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>958.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1301.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1018.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F0AF-47BA-BA1F-3DC9E8BF333E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1808144959"/>
+        <c:axId val="1865267087"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1808144959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1865267087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1865267087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1808144959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4501,6 +4997,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5638,6 +6174,555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -5882,6 +6967,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE193291-D245-4974-B412-38F1276DBE72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6294,8 +7417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F324B-1DEB-44A7-A7E2-319E26170844}">
   <dimension ref="A2:AC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6340,10 +7463,10 @@
       <c r="U5" s="114"/>
       <c r="V5" s="114"/>
       <c r="W5" s="115"/>
-      <c r="AA5" s="122" t="s">
+      <c r="AA5" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="AB5" s="123"/>
+      <c r="AB5" s="128"/>
     </row>
     <row r="6" spans="1:29">
       <c r="B6" s="4" t="s">
@@ -6604,14 +7727,14 @@
       <c r="V13" s="37"/>
       <c r="W13" s="38"/>
       <c r="Y13" s="92"/>
-      <c r="Z13" s="128" t="s">
+      <c r="Z13" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128" t="s">
+      <c r="AA13" s="125"/>
+      <c r="AB13" s="125" t="s">
         <v>221</v>
       </c>
-      <c r="AC13" s="129"/>
+      <c r="AC13" s="126"/>
     </row>
     <row r="14" spans="1:29">
       <c r="G14" s="10"/>
@@ -6799,8 +7922,8 @@
     </row>
     <row r="19" spans="2:29">
       <c r="B19" s="17"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="127"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="132"/>
       <c r="G19" s="10"/>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
@@ -7008,11 +8131,11 @@
       <c r="B26" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="124">
+      <c r="C26" s="129">
         <f>'Financial Model'!T68</f>
         <v>2392.9</v>
       </c>
-      <c r="D26" s="125"/>
+      <c r="D26" s="130"/>
       <c r="G26" s="9">
         <v>44743</v>
       </c>
@@ -7092,7 +8215,7 @@
       <c r="B29" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="122">
         <f>'Order &amp; Backlog'!S21</f>
         <v>312</v>
       </c>
@@ -7145,9 +8268,13 @@
       <c r="W30" s="38"/>
     </row>
     <row r="31" spans="2:29">
-      <c r="B31" s="10"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="112"/>
+      <c r="B31" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="123">
+        <v>36708</v>
+      </c>
+      <c r="D31" s="124"/>
       <c r="G31" s="10"/>
       <c r="H31" s="8" t="s">
         <v>242</v>
@@ -7787,10 +8914,10 @@
   <dimension ref="B1:AO147"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T38" sqref="T38"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M3